--- a/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Myanmar\AquaAgri\Analysis\AquaLEWIE_github\GAMS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="21156" windowHeight="6252" tabRatio="707" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="707" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -22,7 +27,7 @@
     <sheet name="wages" sheetId="9" r:id="rId13"/>
     <sheet name="Alt" sheetId="12" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="152511" fullCalcOnLoad="true"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -85,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="213">
   <si>
     <t>Variable</t>
   </si>
@@ -809,16 +814,13 @@
     <t>intermediate inputs share</t>
   </si>
   <si>
-    <t>inpshimp</t>
-  </si>
-  <si>
     <t>share of inputs bought outside</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="11">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -832,7 +834,7 @@
     <numFmt numFmtId="172" formatCode="0.0"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -937,19 +939,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519242"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038484"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038484"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,13 +981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519242"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778863"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,603 +1490,603 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="true"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="169" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2096,6 +2098,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2175,6 +2185,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2210,6 +2237,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2385,21 +2429,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="6"/>
-    <col min="3" max="3" width="19" style="6" customWidth="true"/>
-    <col min="4" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="2" width="8.85546875" style="6"/>
+    <col min="3" max="3" width="19" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -2413,7 +2457,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" s="6" t="s">
         <v>68</v>
       </c>
@@ -2421,7 +2465,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -2435,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -2449,7 +2493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -2463,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -2477,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -2491,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -2514,27 +2558,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="true"/>
-    <col min="2" max="2" width="8.33203125" customWidth="true"/>
-    <col min="3" max="3" width="8" customWidth="true"/>
-    <col min="4" max="7" width="8.33203125" customWidth="true"/>
-    <col min="8" max="8" width="11.33203125" customWidth="true"/>
-    <col min="9" max="9" width="8.33203125" customWidth="true"/>
-    <col min="10" max="10" width="10.6640625" customWidth="true"/>
-    <col min="11" max="11" width="10.88671875" customWidth="true"/>
-    <col min="12" max="12" width="8.33203125" customWidth="true"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" ht="15" thickBot="true">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2554,7 +2598,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="280" t="s">
         <v>126</v>
@@ -2585,7 +2629,7 @@
       <c r="T9" s="281"/>
       <c r="U9" s="282"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
@@ -2650,7 +2694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" s="59" customFormat="true" ht="15" thickBot="true">
+    <row r="11" spans="1:21" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>101</v>
       </c>
@@ -2715,7 +2759,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="12" ht="15" thickBot="true">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="203"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
@@ -2738,7 +2782,7 @@
       <c r="T12" s="206"/>
       <c r="U12" s="207"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
     </row>
   </sheetData>
@@ -2753,19 +2797,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="true"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" ht="15" thickBot="true">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2785,7 +2829,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="280" t="s">
         <v>126</v>
@@ -2816,7 +2860,7 @@
       <c r="T9" s="281"/>
       <c r="U9" s="282"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
@@ -2881,7 +2925,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="15" thickBot="true">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>102</v>
       </c>
@@ -2906,7 +2950,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="22"/>
     </row>
-    <row r="12" ht="15" thickBot="true">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="209"/>
       <c r="B12" s="18"/>
       <c r="C12" s="15"/>
@@ -2942,28 +2986,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="283" t="s">
         <v>131</v>
       </c>
       <c r="B3" s="283"/>
       <c r="C3" s="283"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>57</v>
       </c>
@@ -2971,28 +3015,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="283" t="s">
         <v>130</v>
       </c>
       <c r="B9" s="283"/>
       <c r="C9" s="283"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>57</v>
       </c>
@@ -3000,21 +3044,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G13" s="7" t="s">
         <v>59</v>
       </c>
@@ -3023,7 +3067,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
         <v>60</v>
@@ -3032,7 +3076,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="283" t="s">
         <v>132</v>
       </c>
@@ -3052,7 +3096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -3067,7 +3111,7 @@
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3081,7 +3125,7 @@
       <c r="J17" s="230"/>
       <c r="K17" s="230"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3095,7 +3139,7 @@
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G19" s="7" t="s">
         <v>61</v>
       </c>
@@ -3104,14 +3148,14 @@
       <c r="J19" s="230"/>
       <c r="K19" s="230"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="283" t="s">
         <v>133</v>
       </c>
@@ -3125,7 +3169,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>57</v>
       </c>
@@ -3146,7 +3190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3160,7 +3204,7 @@
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -3174,7 +3218,7 @@
       <c r="J24" s="230"/>
       <c r="K24" s="230"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G25" s="7" t="s">
         <v>53</v>
       </c>
@@ -3183,7 +3227,7 @@
       <c r="J25" s="68"/>
       <c r="K25" s="68"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G26" s="7" t="s">
         <v>61</v>
       </c>
@@ -3192,7 +3236,7 @@
       <c r="J26" s="230"/>
       <c r="K26" s="230"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="283"/>
       <c r="C27" s="283"/>
       <c r="G27" s="7"/>
@@ -3201,14 +3245,14 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" ht="15" thickBot="true">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F29" s="290" t="s">
         <v>56</v>
       </c>
@@ -3220,7 +3264,7 @@
       <c r="J29" s="61"/>
       <c r="K29" s="66"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F30" s="291"/>
       <c r="G30" s="24" t="s">
         <v>51</v>
@@ -3230,7 +3274,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="65"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F31" s="291" t="s">
         <v>57</v>
       </c>
@@ -3242,7 +3286,7 @@
       <c r="J31" s="24"/>
       <c r="K31" s="65"/>
     </row>
-    <row r="32" ht="15" thickBot="true">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F32" s="292"/>
       <c r="G32" s="64" t="s">
         <v>51</v>
@@ -3252,7 +3296,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="67"/>
     </row>
-    <row r="33">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="283"/>
       <c r="C33" s="283"/>
       <c r="G33" s="7"/>
@@ -3261,14 +3305,14 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" ht="15" thickBot="true">
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" ht="15" thickBot="true">
+    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -3278,7 +3322,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F36" s="284" t="s">
         <v>134</v>
       </c>
@@ -3306,7 +3350,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F37" s="285"/>
       <c r="G37" s="288"/>
       <c r="H37" s="24" t="e">
@@ -3330,7 +3374,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F38" s="285"/>
       <c r="G38" s="288"/>
       <c r="H38" s="24" t="e">
@@ -3354,7 +3398,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F39" s="285"/>
       <c r="G39" s="288"/>
       <c r="H39" s="24" t="e">
@@ -3378,7 +3422,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F40" s="285"/>
       <c r="G40" s="108"/>
       <c r="H40" s="24"/>
@@ -3387,7 +3431,7 @@
       <c r="K40" s="65"/>
       <c r="M40" s="109"/>
     </row>
-    <row r="41">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F41" s="285"/>
       <c r="G41" s="288" t="s">
         <v>135</v>
@@ -3413,7 +3457,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F42" s="285"/>
       <c r="G42" s="288"/>
       <c r="H42" s="24" t="e">
@@ -3437,7 +3481,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F43" s="285"/>
       <c r="G43" s="288"/>
       <c r="H43" s="24" t="e">
@@ -3461,7 +3505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" ht="15" thickBot="true">
+    <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F44" s="286"/>
       <c r="G44" s="289"/>
       <c r="H44" s="64" t="e">
@@ -3485,7 +3529,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" ht="15" thickBot="true">
+    <row r="45" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -3493,7 +3537,7 @@
       <c r="K45" s="7"/>
       <c r="M45" s="109"/>
     </row>
-    <row r="46">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F46" s="284" t="s">
         <v>136</v>
       </c>
@@ -3521,7 +3565,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F47" s="285"/>
       <c r="G47" s="288"/>
       <c r="H47" s="24" t="e">
@@ -3545,7 +3589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F48" s="285"/>
       <c r="G48" s="288"/>
       <c r="H48" s="24" t="e">
@@ -3569,7 +3613,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F49" s="285"/>
       <c r="G49" s="288"/>
       <c r="H49" s="24" t="e">
@@ -3593,7 +3637,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F50" s="285"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
@@ -3602,7 +3646,7 @@
       <c r="K50" s="65"/>
       <c r="M50" s="109"/>
     </row>
-    <row r="51">
+    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F51" s="285"/>
       <c r="G51" s="288" t="s">
         <v>135</v>
@@ -3628,7 +3672,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F52" s="285"/>
       <c r="G52" s="288"/>
       <c r="H52" s="24" t="e">
@@ -3652,7 +3696,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F53" s="285"/>
       <c r="G53" s="288"/>
       <c r="H53" s="24" t="e">
@@ -3676,7 +3720,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" ht="15" thickBot="true">
+    <row r="54" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F54" s="286"/>
       <c r="G54" s="289"/>
       <c r="H54" s="64" t="e">
@@ -3700,14 +3744,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56">
+    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G56" s="30" t="s">
         <v>98</v>
       </c>
@@ -3732,7 +3776,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G57" s="30"/>
       <c r="H57" s="30" t="e">
         <f t="shared" ref="H57:K59" si="5">H17/H$33</f>
@@ -3755,7 +3799,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G58" s="30"/>
       <c r="H58" s="30" t="e">
         <f t="shared" si="5"/>
@@ -3778,7 +3822,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G59" s="30"/>
       <c r="H59" s="30" t="e">
         <f t="shared" si="5"/>
@@ -3801,14 +3845,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
       <c r="K60" s="30"/>
     </row>
-    <row r="61">
+    <row r="61" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G61" s="30"/>
       <c r="H61" s="30" t="e">
         <f>H23/H$34</f>
@@ -3831,7 +3875,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G62" s="30"/>
       <c r="H62" s="30" t="e">
         <f t="shared" ref="H62:K64" si="7">H24/H$34</f>
@@ -3854,7 +3898,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G63" s="30"/>
       <c r="H63" s="30" t="e">
         <f t="shared" si="7"/>
@@ -3877,7 +3921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G64" s="30"/>
       <c r="H64" s="30" t="e">
         <f t="shared" si="7"/>
@@ -3922,25 +3966,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5546875" customWidth="true"/>
-    <col min="3" max="3" width="18.33203125" customWidth="true"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -3948,24 +3992,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>100</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="11">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -3973,13 +4017,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>99</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>100</v>
       </c>
@@ -3991,16 +4035,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="283" t="s">
         <v>147</v>
       </c>
@@ -4014,7 +4058,7 @@
       <c r="J2" s="283"/>
       <c r="K2" s="283"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="283">
         <v>1</v>
       </c>
@@ -4031,7 +4075,7 @@
       <c r="J3" s="124"/>
       <c r="K3" s="124"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="283"/>
       <c r="B4" s="8" t="s">
         <v>43</v>
@@ -4046,7 +4090,7 @@
       <c r="J4" s="125"/>
       <c r="K4" s="125"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="283">
         <v>2</v>
       </c>
@@ -4063,7 +4107,7 @@
       <c r="J5" s="124"/>
       <c r="K5" s="124"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="283"/>
       <c r="B6" s="8" t="s">
         <v>45</v>
@@ -4078,7 +4122,7 @@
       <c r="J6" s="124"/>
       <c r="K6" s="124"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="283">
         <v>1</v>
       </c>
@@ -4095,7 +4139,7 @@
       <c r="J9" s="295"/>
       <c r="K9" s="295"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="283"/>
       <c r="B10" s="295"/>
       <c r="C10" s="295"/>
@@ -4108,7 +4152,7 @@
       <c r="J10" s="295"/>
       <c r="K10" s="295"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="283"/>
       <c r="B11" s="295"/>
       <c r="C11" s="295"/>
@@ -4121,7 +4165,7 @@
       <c r="J11" s="295"/>
       <c r="K11" s="295"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="283"/>
       <c r="B12" s="295"/>
       <c r="C12" s="295"/>
@@ -4134,7 +4178,7 @@
       <c r="J12" s="295"/>
       <c r="K12" s="295"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="283"/>
       <c r="B13" s="295"/>
       <c r="C13" s="295"/>
@@ -4147,7 +4191,7 @@
       <c r="J13" s="295"/>
       <c r="K13" s="295"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="283"/>
       <c r="B14" s="295"/>
       <c r="C14" s="295"/>
@@ -4160,7 +4204,7 @@
       <c r="J14" s="295"/>
       <c r="K14" s="295"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="283">
         <v>2</v>
       </c>
@@ -4177,7 +4221,7 @@
       <c r="J15" s="295"/>
       <c r="K15" s="295"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="283"/>
       <c r="B16" s="295"/>
       <c r="C16" s="295"/>
@@ -4190,7 +4234,7 @@
       <c r="J16" s="295"/>
       <c r="K16" s="295"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="283"/>
       <c r="B17" s="295"/>
       <c r="C17" s="295"/>
@@ -4203,7 +4247,7 @@
       <c r="J17" s="295"/>
       <c r="K17" s="295"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="283"/>
       <c r="B18" s="295"/>
       <c r="C18" s="295"/>
@@ -4216,7 +4260,7 @@
       <c r="J18" s="295"/>
       <c r="K18" s="295"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="283"/>
       <c r="B19" s="295"/>
       <c r="C19" s="295"/>
@@ -4229,7 +4273,7 @@
       <c r="J19" s="295"/>
       <c r="K19" s="295"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="283"/>
       <c r="B20" s="295"/>
       <c r="C20" s="295"/>
@@ -4257,21 +4301,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.44140625" customWidth="true"/>
-    <col min="4" max="4" width="11.33203125" customWidth="true"/>
-    <col min="5" max="5" width="12" customWidth="true"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -4286,7 +4330,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4297,7 +4341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -4312,7 +4356,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -4327,7 +4371,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -4342,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -4357,7 +4401,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -4372,7 +4416,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -4395,21 +4439,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.44140625" customWidth="true"/>
-    <col min="4" max="4" width="11.33203125" customWidth="true"/>
-    <col min="5" max="5" width="12" customWidth="true"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -4424,7 +4468,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4435,7 +4479,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -4450,7 +4494,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -4465,7 +4509,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -4480,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -4495,7 +4539,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -4510,7 +4554,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -4533,7 +4577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -4546,18 +4590,18 @@
       <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="true"/>
-    <col min="2" max="2" width="11.109375" customWidth="true"/>
-    <col min="6" max="9" width="17.44140625" customWidth="true"/>
-    <col min="10" max="11" width="17.44140625" style="5" customWidth="true"/>
-    <col min="12" max="12" width="14.5546875" style="5" customWidth="true"/>
-    <col min="14" max="14" width="47.33203125" customWidth="true"/>
-    <col min="15" max="23" width="12.5546875" customWidth="true"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="6" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="11" width="17.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" customWidth="1"/>
+    <col min="15" max="23" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
@@ -4596,7 +4640,7 @@
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4637,7 +4681,7 @@
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
     </row>
-    <row r="3" ht="15" thickBot="true">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4678,7 +4722,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -4749,7 +4793,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -4818,7 +4862,7 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -4887,7 +4931,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" ht="15" thickBot="true">
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -4956,7 +5000,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
         <v>53</v>
       </c>
@@ -4989,7 +5033,7 @@
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
         <v>17</v>
       </c>
@@ -5016,7 +5060,7 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="91" t="s">
         <v>18</v>
       </c>
@@ -5043,7 +5087,7 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
         <v>51</v>
       </c>
@@ -5070,7 +5114,7 @@
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="91" t="s">
         <v>54</v>
       </c>
@@ -5097,7 +5141,7 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="s">
         <v>85</v>
       </c>
@@ -5130,7 +5174,7 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="91" t="s">
         <v>86</v>
       </c>
@@ -5163,7 +5207,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>87</v>
       </c>
@@ -5196,7 +5240,7 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>88</v>
       </c>
@@ -5227,7 +5271,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" ht="15" thickBot="true">
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>89</v>
       </c>
@@ -5258,7 +5302,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" ht="15" thickBot="true">
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>90</v>
       </c>
@@ -5289,7 +5333,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" ht="15" thickBot="true">
+    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>84</v>
       </c>
@@ -5322,7 +5366,7 @@
       <c r="V19" s="235"/>
       <c r="W19" s="236"/>
     </row>
-    <row r="20" ht="15" thickBot="true">
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
         <v>16</v>
@@ -5375,7 +5419,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="true">
+    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
         <v>52</v>
@@ -5452,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
         <v>52</v>
@@ -5525,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
         <v>52</v>
@@ -5598,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15" thickBot="true">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
         <v>52</v>
@@ -5671,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
         <v>9</v>
@@ -5736,7 +5780,7 @@
       <c r="V25" s="191"/>
       <c r="W25" s="192"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
         <v>9</v>
@@ -5797,7 +5841,7 @@
       <c r="V26" s="33"/>
       <c r="W26" s="194"/>
     </row>
-    <row r="27" s="7" customFormat="true" ht="15" thickBot="true">
+    <row r="27" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
         <v>9</v>
@@ -5858,7 +5902,7 @@
       <c r="V27" s="196"/>
       <c r="W27" s="197"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
         <v>10</v>
@@ -5889,7 +5933,7 @@
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>10</v>
@@ -5920,7 +5964,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
     </row>
-    <row r="30" s="8" customFormat="true">
+    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
@@ -5937,7 +5981,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
         <v>11</v>
@@ -5962,7 +6006,7 @@
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
         <v>11</v>
@@ -5987,7 +6031,7 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" s="8" customFormat="true">
+    <row r="33" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
@@ -6004,7 +6048,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
         <v>12</v>
@@ -6027,7 +6071,7 @@
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
     </row>
-    <row r="35" ht="15" thickBot="true">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
         <v>13</v>
@@ -6050,7 +6094,7 @@
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
     </row>
-    <row r="36" ht="15" thickBot="true">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
         <v>14</v>
@@ -6073,7 +6117,7 @@
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
     </row>
-    <row r="37" ht="15" thickBot="true">
+    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
         <v>15</v>
@@ -6104,7 +6148,7 @@
       <c r="V37" s="235"/>
       <c r="W37" s="236"/>
     </row>
-    <row r="38" ht="15" thickBot="true">
+    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
         <v>16</v>
@@ -6157,7 +6201,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="true">
+    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
         <v>52</v>
@@ -6234,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>52</v>
@@ -6307,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>52</v>
@@ -6380,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15" thickBot="true">
+    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
         <v>52</v>
@@ -6453,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
         <v>9</v>
@@ -6530,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
         <v>9</v>
@@ -6603,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="7" customFormat="true" ht="15" thickBot="true">
+    <row r="45" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
         <v>9</v>
@@ -6676,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
         <v>10</v>
@@ -6707,7 +6751,7 @@
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
         <v>10</v>
@@ -6732,7 +6776,7 @@
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
     </row>
-    <row r="48" s="8" customFormat="true">
+    <row r="48" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>10</v>
       </c>
@@ -6749,7 +6793,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="s">
         <v>11</v>
@@ -6774,7 +6818,7 @@
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
         <v>11</v>
@@ -6799,7 +6843,7 @@
       <c r="V50" s="8"/>
       <c r="W50" s="8"/>
     </row>
-    <row r="51" s="8" customFormat="true">
+    <row r="51" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>11</v>
       </c>
@@ -6816,7 +6860,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
         <v>12</v>
@@ -6839,7 +6883,7 @@
       <c r="V52" s="8"/>
       <c r="W52" s="8"/>
     </row>
-    <row r="53" ht="15" thickBot="true">
+    <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
         <v>13</v>
@@ -6862,7 +6906,7 @@
       <c r="V53" s="8"/>
       <c r="W53" s="8"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
         <v>14</v>
@@ -6893,7 +6937,7 @@
       <c r="V54" s="8"/>
       <c r="W54" s="8"/>
     </row>
-    <row r="55" ht="15" thickBot="true">
+    <row r="55" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
         <v>15</v>
@@ -6930,7 +6974,7 @@
       <c r="V55" s="8"/>
       <c r="W55" s="8"/>
     </row>
-    <row r="56" ht="15" customHeight="true" thickBot="true">
+    <row r="56" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
         <v>16</v>
@@ -6975,7 +7019,7 @@
       <c r="V56" s="8"/>
       <c r="W56" s="8"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
         <v>9</v>
@@ -7044,7 +7088,7 @@
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>9</v>
@@ -7111,7 +7155,7 @@
       <c r="V58" s="8"/>
       <c r="W58" s="8"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
         <v>9</v>
@@ -7178,7 +7222,7 @@
       <c r="V59" s="8"/>
       <c r="W59" s="8"/>
     </row>
-    <row r="60" s="7" customFormat="true" ht="15" thickBot="true">
+    <row r="60" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
         <v>9</v>
@@ -7245,7 +7289,7 @@
       <c r="V60" s="8"/>
       <c r="W60" s="8"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
         <v>10</v>
@@ -7276,7 +7320,7 @@
       <c r="V61" s="8"/>
       <c r="W61" s="8"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
         <v>10</v>
@@ -7301,7 +7345,7 @@
       <c r="V62" s="8"/>
       <c r="W62" s="8"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
         <v>10</v>
@@ -7326,7 +7370,7 @@
       <c r="V63" s="8"/>
       <c r="W63" s="8"/>
     </row>
-    <row r="64" s="8" customFormat="true">
+    <row r="64" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -7344,7 +7388,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
         <v>11</v>
@@ -7369,7 +7413,7 @@
       <c r="V65" s="8"/>
       <c r="W65" s="8"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
         <v>11</v>
@@ -7400,7 +7444,7 @@
       <c r="V66" s="8"/>
       <c r="W66" s="8"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
         <v>11</v>
@@ -7431,7 +7475,7 @@
       <c r="V67" s="8"/>
       <c r="W67" s="8"/>
     </row>
-    <row r="68" s="8" customFormat="true">
+    <row r="68" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>11</v>
       </c>
@@ -7449,7 +7493,7 @@
       <c r="K68" s="10"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
         <v>12</v>
@@ -7478,7 +7522,7 @@
       <c r="V69" s="8"/>
       <c r="W69" s="8"/>
     </row>
-    <row r="70" ht="15" thickBot="true">
+    <row r="70" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
         <v>13</v>
@@ -7507,7 +7551,7 @@
       <c r="V70" s="8"/>
       <c r="W70" s="8"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
         <v>14</v>
@@ -7536,7 +7580,7 @@
       <c r="V71" s="8"/>
       <c r="W71" s="8"/>
     </row>
-    <row r="72" ht="15" thickBot="true">
+    <row r="72" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
         <v>15</v>
@@ -7562,7 +7606,7 @@
       <c r="Q72" s="244"/>
       <c r="R72" s="8"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
         <v>16</v>
@@ -7598,7 +7642,7 @@
       <c r="Q73" s="245"/>
       <c r="R73" s="8"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
         <v>16</v>
@@ -7638,7 +7682,7 @@
       </c>
       <c r="R74" s="8"/>
     </row>
-    <row r="75" ht="15" customHeight="true">
+    <row r="75" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
         <v>34</v>
@@ -7702,7 +7746,7 @@
       <c r="W75" s="264"/>
       <c r="X75" s="264"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
         <v>34</v>
@@ -7728,7 +7772,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" ht="15" thickBot="true">
+    <row r="77" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
         <v>34</v>
@@ -7759,7 +7803,7 @@
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
     </row>
-    <row r="78" ht="15" thickBot="true">
+    <row r="78" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
         <v>37</v>
@@ -7794,7 +7838,7 @@
       <c r="X78" s="235"/>
       <c r="Y78" s="236"/>
     </row>
-    <row r="79" ht="15" thickBot="true">
+    <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="s">
         <v>38</v>
@@ -7841,7 +7885,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" ht="15" thickBot="true">
+    <row r="80" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
         <v>39</v>
@@ -7888,7 +7932,7 @@
       <c r="X80" s="265"/>
       <c r="Y80" s="265"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
         <v>40</v>
@@ -7937,7 +7981,7 @@
       <c r="X81" s="26"/>
       <c r="Y81" s="26"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
         <v>41</v>
@@ -7982,7 +8026,7 @@
       <c r="X82" s="244"/>
       <c r="Y82" s="244"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
         <v>42</v>
@@ -8008,7 +8052,7 @@
       <c r="V83" s="8"/>
       <c r="W83" s="8"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
         <v>43</v>
@@ -8037,7 +8081,7 @@
       <c r="V84" s="8"/>
       <c r="W84" s="8"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="s">
         <v>44</v>
@@ -8064,7 +8108,7 @@
       <c r="V85" s="8"/>
       <c r="W85" s="8"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8" t="s">
         <v>45</v>
@@ -8093,7 +8137,7 @@
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
         <v>46</v>
@@ -8120,7 +8164,7 @@
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="s">
         <v>47</v>
@@ -8147,7 +8191,7 @@
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8" t="s">
         <v>48</v>
@@ -8188,7 +8232,7 @@
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="s">
         <v>49</v>
@@ -8231,7 +8275,7 @@
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="s">
         <v>50</v>
@@ -8260,7 +8304,7 @@
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="s">
         <v>165</v>
@@ -8301,7 +8345,7 @@
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="90" t="s">
         <v>33</v>
@@ -8342,7 +8386,7 @@
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="90" t="s">
         <v>92</v>
@@ -8382,7 +8426,7 @@
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="90" t="s">
         <v>93</v>
@@ -8413,7 +8457,7 @@
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="90" t="s">
         <v>94</v>
@@ -8454,7 +8498,7 @@
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="100" t="s">
         <v>95</v>
@@ -8487,7 +8531,7 @@
       <c r="V97" s="8"/>
       <c r="W97" s="8"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="100" t="s">
         <v>96</v>
@@ -8520,7 +8564,7 @@
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="100" t="s">
         <v>95</v>
@@ -8562,7 +8606,7 @@
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="100" t="s">
         <v>96</v>
@@ -8604,7 +8648,7 @@
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" t="s">
         <v>152</v>
@@ -8646,7 +8690,7 @@
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" t="s">
         <v>153</v>
@@ -8675,7 +8719,7 @@
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
     </row>
-    <row r="103" ht="15" customHeight="true">
+    <row r="103" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="101" t="s">
         <v>97</v>
@@ -8708,7 +8752,7 @@
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="101" t="s">
         <v>97</v>
@@ -8739,7 +8783,7 @@
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="101" t="s">
         <v>97</v>
@@ -8770,7 +8814,7 @@
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="101" t="s">
         <v>97</v>
@@ -8801,7 +8845,7 @@
       <c r="V106" s="8"/>
       <c r="W106" s="8"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="101" t="s">
         <v>97</v>
@@ -8832,7 +8876,7 @@
       <c r="V107" s="8"/>
       <c r="W107" s="8"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="101" t="s">
         <v>97</v>
@@ -8863,7 +8907,7 @@
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="101" t="s">
         <v>97</v>
@@ -8894,7 +8938,7 @@
       <c r="V109" s="8"/>
       <c r="W109" s="8"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="101" t="s">
         <v>97</v>
@@ -8925,7 +8969,7 @@
       <c r="V110" s="8"/>
       <c r="W110" s="8"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B111" s="159" t="s">
         <v>155</v>
       </c>
@@ -8941,7 +8985,7 @@
       <c r="J111" s="161"/>
       <c r="K111" s="161"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B112" s="159" t="s">
         <v>155</v>
       </c>
@@ -8960,7 +9004,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="159" t="s">
         <v>155</v>
       </c>
@@ -8976,7 +9020,7 @@
       <c r="J113" s="161"/>
       <c r="K113" s="161"/>
     </row>
-    <row r="114">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="159" t="s">
         <v>155</v>
       </c>
@@ -9048,26 +9092,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="9.44140625" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="9.5546875" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="9.44140625" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="10.5546875" bestFit="true" customWidth="true"/>
-    <col min="10" max="11" width="9.5546875" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="14.77734375" customWidth="true"/>
-    <col min="16" max="16" width="10.6640625" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
@@ -9098,7 +9142,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="true">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -9128,7 +9172,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" ht="15" thickBot="true">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -9159,7 +9203,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="true">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>Input!A4</f>
         <v>Land</v>
@@ -9208,7 +9252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>Input!A5</f>
         <v>Labor</v>
@@ -9257,7 +9301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>Input!A6</f>
         <v>Capital</v>
@@ -9306,7 +9350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="15" thickBot="true">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
         <f>Input!A7</f>
         <v>Input</v>
@@ -9355,7 +9399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15" thickBot="true">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
         <f>Input!A8</f>
         <v>crop</v>
@@ -9404,7 +9448,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>Input!A9</f>
         <v>live</v>
@@ -9453,7 +9497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>Input!A10</f>
         <v>ret</v>
@@ -9502,7 +9546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>Input!A11</f>
         <v>other</v>
@@ -9551,7 +9595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>Input!A12</f>
         <v>OUTSIDE</v>
@@ -9600,7 +9644,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>Input!A13</f>
         <v>A1</v>
@@ -9649,7 +9693,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>Input!A14</f>
         <v>A2</v>
@@ -9698,7 +9742,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>Input!A15</f>
         <v>A3</v>
@@ -9747,7 +9791,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>Input!A16</f>
         <v>B1</v>
@@ -9793,7 +9837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" ht="15" thickBot="true">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>Input!A17</f>
         <v>B2</v>
@@ -9833,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>Input!A18</f>
         <v>B3</v>
@@ -9873,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15" thickBot="true">
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>Input!A19</f>
         <v>empty</v>
@@ -9913,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="15" thickBot="true">
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="str">
         <f>Input!B20</f>
@@ -9950,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="true">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="str">
         <f>Input!B21</f>
@@ -9998,7 +10042,7 @@
       <c r="Q21" s="162"/>
       <c r="R21" s="162"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="str">
         <f>Input!B22</f>
@@ -10046,7 +10090,7 @@
       <c r="Q22" s="162"/>
       <c r="R22" s="162"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="str">
         <f>Input!B23</f>
@@ -10086,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15" thickBot="true">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="str">
         <f>Input!B24</f>
@@ -10126,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="true">
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="str">
         <f>Input!B25</f>
@@ -10166,7 +10210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="str">
         <f>Input!B26</f>
@@ -10206,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15" thickBot="true">
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="str">
         <f>Input!B27</f>
@@ -10246,7 +10290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="str">
         <f>Input!B28</f>
@@ -10286,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="str">
         <f>Input!B29</f>
@@ -10326,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="str">
         <f>Input!B30</f>
@@ -10366,7 +10410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="str">
         <f>Input!B31</f>
@@ -10406,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="str">
         <f>Input!B32</f>
@@ -10446,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="str">
         <f>Input!B33</f>
@@ -10486,7 +10530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="str">
         <f>Input!B34</f>
@@ -10523,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15" thickBot="true">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="str">
         <f>Input!B35</f>
@@ -10560,7 +10604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="str">
         <f>Input!B36</f>
@@ -10597,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15" thickBot="true">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="str">
         <f>Input!B37</f>
@@ -10634,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15" thickBot="true">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="str">
         <f>Input!B38</f>
@@ -10671,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="true">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="str">
         <f>Input!B39</f>
@@ -10711,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="str">
         <f>Input!B40</f>
@@ -10751,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="str">
         <f>Input!B41</f>
@@ -10791,7 +10835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15" thickBot="true">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="str">
         <f>Input!B42</f>
@@ -10831,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="true">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="str">
         <f>Input!B43</f>
@@ -10871,7 +10915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="str">
         <f>Input!B44</f>
@@ -10911,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="15" thickBot="true">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="str">
         <f>Input!B45</f>
@@ -10951,7 +10995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="str">
         <f>Input!B46</f>
@@ -10991,7 +11035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="str">
         <f>Input!B47</f>
@@ -11031,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8" t="str">
         <f>Input!B48</f>
@@ -11071,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="str">
         <f>Input!B49</f>
@@ -11111,7 +11155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="str">
         <f>Input!B50</f>
@@ -11151,7 +11195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="str">
         <f>Input!B51</f>
@@ -11191,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="str">
         <f>Input!B52</f>
@@ -11228,7 +11272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="15" thickBot="true">
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="str">
         <f>Input!B53</f>
@@ -11265,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="str">
         <f>Input!B54</f>
@@ -11302,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="true" thickBot="true">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="str">
         <f>Input!B55</f>
@@ -11339,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="15" thickBot="true">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="str">
         <f>Input!B56</f>
@@ -11376,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="true">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="str">
         <f>Input!B57</f>
@@ -11416,7 +11460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="str">
         <f>Input!B58</f>
@@ -11456,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="str">
         <f>Input!B59</f>
@@ -11496,7 +11540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15" thickBot="true">
+    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="str">
         <f>Input!B60</f>
@@ -11536,7 +11580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15" thickBot="true">
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="str">
         <f>Input!B61</f>
@@ -11576,7 +11620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="str">
         <f>Input!B62</f>
@@ -11616,7 +11660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="str">
         <f>Input!B63</f>
@@ -11656,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="str">
         <f>Input!B64</f>
@@ -11696,7 +11740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="str">
         <f>Input!B65</f>
@@ -11736,7 +11780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="str">
         <f>Input!B66</f>
@@ -11776,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="str">
         <f>Input!B67</f>
@@ -11816,7 +11860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="str">
         <f>Input!B68</f>
@@ -11856,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="str">
         <f>Input!B69</f>
@@ -11893,7 +11937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="15" thickBot="true">
+    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="str">
         <f>Input!B70</f>
@@ -11930,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="str">
         <f>Input!B71</f>
@@ -11967,7 +12011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="15" thickBot="true">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="str">
         <f>Input!B72</f>
@@ -12004,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="str">
         <f>Input!B73</f>
@@ -12041,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="str">
         <f>Input!B74</f>
@@ -12078,7 +12122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="str">
         <f>Input!B75</f>
@@ -12112,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="str">
         <f>Input!B76</f>
@@ -12146,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="str">
         <f>Input!B77</f>
@@ -12180,7 +12224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="str">
         <f>Input!B78</f>
@@ -12214,7 +12258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="str">
         <f>Input!B79</f>
@@ -12248,7 +12292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="str">
         <f>Input!B80</f>
@@ -12282,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="true">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="str">
         <f>Input!B81</f>
@@ -12316,7 +12360,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="str">
         <f>Input!B82</f>
@@ -12350,7 +12394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="str">
         <f>Input!B83</f>
@@ -12384,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="str">
         <f>Input!B84</f>
@@ -12418,7 +12462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="str">
         <f>Input!B85</f>
@@ -12452,7 +12496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8" t="str">
         <f>Input!B86</f>
@@ -12486,7 +12530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="str">
         <f>Input!B87</f>
@@ -12520,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="str">
         <f>Input!B88</f>
@@ -12554,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8" t="str">
         <f>Input!B89</f>
@@ -12588,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="str">
         <f>Input!B90</f>
@@ -12622,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="str">
         <f>Input!B91</f>
@@ -12656,7 +12700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="str">
         <f>Input!B92</f>
@@ -12690,7 +12734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8" t="str">
         <f>Input!B93</f>
@@ -12724,7 +12768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8" t="str">
         <f>Input!B94</f>
@@ -12758,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8" t="str">
         <f>Input!B95</f>
@@ -12792,7 +12836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="str">
         <f>Input!B96</f>
@@ -12826,7 +12870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="true">
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8" t="str">
         <f>Input!B97</f>
@@ -12863,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8" t="str">
         <f>Input!B98</f>
@@ -12900,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8" t="str">
         <f>Input!B99</f>
@@ -12937,7 +12981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8" t="str">
         <f>Input!B100</f>
@@ -12974,7 +13018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8" t="str">
         <f>Input!B101</f>
@@ -13011,7 +13055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="15" thickBot="true">
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="8" t="str">
         <f>Input!B102</f>
@@ -13048,7 +13092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="true">
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8" t="str">
         <f>Input!B103</f>
@@ -13088,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8" t="str">
         <f>Input!B104</f>
@@ -13128,7 +13172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8" t="str">
         <f>Input!B105</f>
@@ -13168,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8" t="str">
         <f>Input!B106</f>
@@ -13208,7 +13252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8" t="str">
         <f>Input!B107</f>
@@ -13248,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8" t="str">
         <f>Input!B108</f>
@@ -13288,7 +13332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8" t="str">
         <f>Input!B109</f>
@@ -13328,7 +13372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" ht="15" thickBot="true">
+    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="8" t="str">
         <f>Input!B110</f>
@@ -13368,7 +13412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8" t="str">
         <f>Input!B111</f>
@@ -13381,7 +13425,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8" t="str">
         <f>Input!B112</f>
@@ -13394,7 +13438,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8" t="str">
         <f>Input!B113</f>
@@ -13421,42 +13465,42 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="11" customWidth="true"/>
-    <col min="2" max="2" width="10" style="11" customWidth="true"/>
-    <col min="3" max="4" width="10.109375" style="11" customWidth="true"/>
-    <col min="5" max="5" width="17.109375" style="11" customWidth="true"/>
-    <col min="6" max="6" width="9.6640625" style="11" customWidth="true"/>
-    <col min="7" max="7" width="9.88671875" style="11" customWidth="true"/>
-    <col min="8" max="8" width="9.109375" style="11" customWidth="true"/>
-    <col min="9" max="9" width="10" style="11" customWidth="true"/>
-    <col min="10" max="10" width="7.88671875" style="11" customWidth="true"/>
-    <col min="11" max="11" width="11.5546875" style="11" customWidth="true"/>
-    <col min="12" max="12" width="6.88671875" style="11" customWidth="true"/>
-    <col min="13" max="13" width="10.6640625" style="11" customWidth="true"/>
-    <col min="14" max="14" width="10" style="11" customWidth="true"/>
-    <col min="15" max="15" width="7.88671875" style="11" customWidth="true"/>
-    <col min="16" max="16" width="12.5546875" style="11" customWidth="true"/>
-    <col min="17" max="17" width="9.109375" style="11" customWidth="true"/>
-    <col min="18" max="18" width="11" style="11" customWidth="true"/>
-    <col min="19" max="19" width="9.44140625" style="11" customWidth="true"/>
-    <col min="20" max="20" width="10" style="11" customWidth="true"/>
-    <col min="21" max="21" width="12.5546875" style="11" customWidth="true"/>
-    <col min="22" max="22" width="8.6640625" style="11" customWidth="true"/>
-    <col min="23" max="25" width="9.109375" style="11"/>
-    <col min="26" max="26" width="15.33203125" style="11" customWidth="true"/>
-    <col min="27" max="16384" width="9.109375" style="11"/>
+    <col min="1" max="1" width="20" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10" style="11" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10" style="11" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="10" style="11" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="11" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="11" style="11" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="11" customWidth="1"/>
+    <col min="20" max="20" width="10" style="11" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="11" customWidth="1"/>
+    <col min="23" max="25" width="9.140625" style="11"/>
+    <col min="26" max="26" width="15.28515625" style="11" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4"/>
       <c r="C4" t="s">
         <v>204</v>
@@ -13468,7 +13512,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5"/>
       <c r="C5" t="s">
         <v>10</v>
@@ -13480,7 +13524,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>200</v>
       </c>
@@ -13494,7 +13538,7 @@
         <v>3.2329362602469655E-8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>201</v>
       </c>
@@ -13508,7 +13552,7 @@
         <v>3.2514405893228318E-4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>202</v>
       </c>
@@ -13522,7 +13566,7 @@
         <v>1.5638022571202038E-9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>203</v>
       </c>
@@ -13536,7 +13580,7 @@
         <v>3.3319689718617294E-9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>196</v>
       </c>
@@ -13550,8 +13594,8 @@
         <v>3.6083130404137257E-13</v>
       </c>
     </row>
-    <row r="19" ht="17.25" customHeight="true"/>
-    <row r="20" ht="18.75" customHeight="true" thickBot="true">
+    <row r="19" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
@@ -13581,7 +13625,7 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21" s="35" customFormat="true" ht="18.75" customHeight="true">
+    <row r="21" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="277" t="s">
         <v>118</v>
@@ -13626,7 +13670,7 @@
       <c r="AD21" s="278"/>
       <c r="AE21" s="279"/>
     </row>
-    <row r="22" s="42" customFormat="true" ht="18.75" customHeight="true">
+    <row r="22" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>0</v>
       </c>
@@ -13721,7 +13765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" s="42" customFormat="true" ht="18.75" customHeight="true" thickBot="true">
+    <row r="23" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>31</v>
       </c>
@@ -13756,14 +13800,14 @@
       <c r="AD23" s="39"/>
       <c r="AE23" s="40"/>
     </row>
-    <row r="24" ht="18.75" customHeight="true"/>
-    <row r="25" ht="18.75" customHeight="true"/>
-    <row r="26" ht="18.75" customHeight="true"/>
-    <row r="27" ht="18.75" customHeight="true"/>
-    <row r="28" ht="18.75" customHeight="true"/>
-    <row r="29" ht="18.75" customHeight="true"/>
-    <row r="30" ht="18.75" customHeight="true"/>
-    <row r="31" ht="18.75" customHeight="true"/>
+    <row r="24" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AA21:AE21"/>
@@ -13778,19 +13822,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="8" width="13.33203125" customWidth="true"/>
+    <col min="3" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>197</v>
       </c>
@@ -13810,7 +13854,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -13830,7 +13874,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>200</v>
       </c>
@@ -13853,7 +13897,7 @@
         <v>0.38435894706199636</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>201</v>
       </c>
@@ -13876,7 +13920,7 @@
         <v>8.6692879924342835E-3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>202</v>
       </c>
@@ -13899,7 +13943,7 @@
         <v>0.24770853846251709</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>203</v>
       </c>
@@ -13922,7 +13966,7 @@
         <v>2.7608761903461044E-6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>196</v>
       </c>
@@ -13945,7 +13989,7 @@
         <v>2.7783595228668267E-9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>196</v>
       </c>
@@ -13974,16 +14018,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:K23"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>207</v>
       </c>
@@ -14012,7 +14056,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>208</v>
       </c>
@@ -14041,7 +14085,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>205</v>
       </c>
@@ -14064,16 +14108,16 @@
         <v>0.13444026331482634</v>
       </c>
       <c r="I6" s="232">
-        <v>1.5718558974235526</v>
+        <v>1.5718558974235539</v>
       </c>
       <c r="J6" s="232">
-        <v>0.23039622509860391</v>
+        <v>0.23039622509860405</v>
       </c>
       <c r="K6" s="231">
-        <v>2.8671619445748992e-005</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>2.8671619445748934E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>206</v>
       </c>
@@ -14096,16 +14140,16 @@
         <v>0.25124042285510489</v>
       </c>
       <c r="I7" s="232">
-        <v>-0.57185589742355258</v>
+        <v>-0.57185589742355392</v>
       </c>
       <c r="J7" s="232">
-        <v>0.23039622509860391</v>
+        <v>0.23039622509860405</v>
       </c>
       <c r="K7" s="231">
-        <v>0.030462378781284261</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>3.0462378781284005E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>196</v>
       </c>
@@ -14128,24 +14172,24 @@
         <v>0.66549676308692662</v>
       </c>
       <c r="I8" s="232">
-        <v>4.9429869029129589</v>
+        <v>4.9429869029129634</v>
       </c>
       <c r="J8" s="232">
-        <v>0.86564465393878709</v>
+        <v>0.86564465393878764</v>
       </c>
       <c r="K8" s="231">
-        <v>0.00013612870925242218</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1.3612870925242183E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>207</v>
       </c>
@@ -14156,7 +14200,7 @@
         <v>0.51713244742479325</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>209</v>
       </c>
@@ -14167,7 +14211,7 @@
         <v>0.38126708309476026</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>210</v>
       </c>
@@ -14184,30 +14228,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:AE11"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="true"/>
-    <col min="2" max="2" width="7.44140625" customWidth="true"/>
-    <col min="3" max="3" width="9.6640625" customWidth="true"/>
-    <col min="4" max="4" width="11.6640625" customWidth="true"/>
-    <col min="5" max="5" width="8.44140625" customWidth="true"/>
-    <col min="6" max="6" width="11.6640625" customWidth="true"/>
-    <col min="7" max="7" width="7.44140625" customWidth="true"/>
-    <col min="8" max="8" width="12.44140625" customWidth="true"/>
-    <col min="9" max="9" width="12.109375" customWidth="true"/>
-    <col min="10" max="10" width="9.109375" customWidth="true"/>
-    <col min="11" max="11" width="7.109375" customWidth="true"/>
-    <col min="12" max="12" width="10.6640625" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" s="11" customFormat="true" ht="18.75" customHeight="true" thickBot="true">
+    <row r="8" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -14237,7 +14281,7 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" s="35" customFormat="true" ht="18.75" customHeight="true">
+    <row r="9" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="277" t="s">
         <v>118</v>
@@ -14282,7 +14326,7 @@
       <c r="AD9" s="278"/>
       <c r="AE9" s="279"/>
     </row>
-    <row r="10" s="42" customFormat="true" ht="18.75" customHeight="true">
+    <row r="10" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>0</v>
       </c>
@@ -14377,7 +14421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" s="51" customFormat="true" ht="30" customHeight="true" thickBot="true">
+    <row r="11" spans="1:31" s="51" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>124</v>
       </c>

--- a/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Myanmar\AquaAgri\Analysis\AquaLEWIE_github\GAMS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="707" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="772" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -27,7 +22,7 @@
     <sheet name="wages" sheetId="9" r:id="rId13"/>
     <sheet name="Alt" sheetId="12" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -90,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="214">
   <si>
     <t>Variable</t>
   </si>
@@ -816,11 +811,14 @@
   <si>
     <t>share of inputs bought outside</t>
   </si>
+  <si>
+    <t>li_feed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -834,7 +832,7 @@
     <numFmt numFmtId="172" formatCode="0.0"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,19 +937,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
+        <fgColor theme="3" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,13 +979,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
+        <fgColor theme="8" tint="0.59996337778863"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,603 +1488,603 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="true"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="169" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2098,14 +2096,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2429,21 +2419,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="8.85546875" style="6"/>
-    <col min="3" max="3" width="19" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19" style="6" customWidth="true"/>
     <col min="4" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -2457,7 +2447,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="D2" s="6" t="s">
         <v>68</v>
       </c>
@@ -2465,7 +2455,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -2479,7 +2469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -2493,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -2507,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -2521,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -2535,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -2558,27 +2548,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A8:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="true"/>
+    <col min="2" max="2" width="8.28515625" customWidth="true"/>
+    <col min="3" max="3" width="8" customWidth="true"/>
+    <col min="4" max="7" width="8.28515625" customWidth="true"/>
+    <col min="8" max="8" width="11.28515625" customWidth="true"/>
+    <col min="9" max="9" width="8.28515625" customWidth="true"/>
+    <col min="10" max="10" width="10.7109375" customWidth="true"/>
+    <col min="11" max="11" width="10.85546875" customWidth="true"/>
+    <col min="12" max="12" width="8.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="15.75" thickBot="true">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2598,7 +2588,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="19"/>
       <c r="B9" s="280" t="s">
         <v>126</v>
@@ -2629,7 +2619,7 @@
       <c r="T9" s="281"/>
       <c r="U9" s="282"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
@@ -2694,7 +2684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" s="59" customFormat="true" ht="15.75" thickBot="true">
       <c r="A11" s="53" t="s">
         <v>101</v>
       </c>
@@ -2759,7 +2749,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="15.75" thickBot="true">
       <c r="A12" s="203"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
@@ -2782,7 +2772,7 @@
       <c r="T12" s="206"/>
       <c r="U12" s="207"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="C13" s="4"/>
     </row>
   </sheetData>
@@ -2797,19 +2787,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A8:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="15.75" thickBot="true">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2829,7 +2819,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="19"/>
       <c r="B9" s="280" t="s">
         <v>126</v>
@@ -2860,7 +2850,7 @@
       <c r="T9" s="281"/>
       <c r="U9" s="282"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
@@ -2925,7 +2915,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="15.75" thickBot="true">
       <c r="A11" s="21" t="s">
         <v>102</v>
       </c>
@@ -2950,7 +2940,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="22"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="15.75" thickBot="true">
       <c r="A12" s="209"/>
       <c r="B12" s="18"/>
       <c r="C12" s="15"/>
@@ -2986,28 +2976,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="283" t="s">
         <v>131</v>
       </c>
       <c r="B3" s="283"/>
       <c r="C3" s="283"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>57</v>
       </c>
@@ -3015,28 +3005,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="283" t="s">
         <v>130</v>
       </c>
       <c r="B9" s="283"/>
       <c r="C9" s="283"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" t="s">
         <v>57</v>
       </c>
@@ -3044,21 +3034,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="G13" s="7" t="s">
         <v>59</v>
       </c>
@@ -3067,7 +3057,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
         <v>60</v>
@@ -3076,7 +3066,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="283" t="s">
         <v>132</v>
       </c>
@@ -3096,7 +3086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -3111,7 +3101,7 @@
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3125,7 +3115,7 @@
       <c r="J17" s="230"/>
       <c r="K17" s="230"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3139,7 +3129,7 @@
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="G19" s="7" t="s">
         <v>61</v>
       </c>
@@ -3148,14 +3138,14 @@
       <c r="J19" s="230"/>
       <c r="K19" s="230"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="283" t="s">
         <v>133</v>
       </c>
@@ -3169,7 +3159,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="B22" t="s">
         <v>57</v>
       </c>
@@ -3190,7 +3180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3204,7 +3194,7 @@
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -3218,7 +3208,7 @@
       <c r="J24" s="230"/>
       <c r="K24" s="230"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="G25" s="7" t="s">
         <v>53</v>
       </c>
@@ -3227,7 +3217,7 @@
       <c r="J25" s="68"/>
       <c r="K25" s="68"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="G26" s="7" t="s">
         <v>61</v>
       </c>
@@ -3236,7 +3226,7 @@
       <c r="J26" s="230"/>
       <c r="K26" s="230"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="B27" s="283"/>
       <c r="C27" s="283"/>
       <c r="G27" s="7"/>
@@ -3245,14 +3235,14 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" ht="15.75" thickBot="true">
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="F29" s="290" t="s">
         <v>56</v>
       </c>
@@ -3264,7 +3254,7 @@
       <c r="J29" s="61"/>
       <c r="K29" s="66"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="F30" s="291"/>
       <c r="G30" s="24" t="s">
         <v>51</v>
@@ -3274,7 +3264,7 @@
       <c r="J30" s="24"/>
       <c r="K30" s="65"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="F31" s="291" t="s">
         <v>57</v>
       </c>
@@ -3286,7 +3276,7 @@
       <c r="J31" s="24"/>
       <c r="K31" s="65"/>
     </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="15.75" thickBot="true">
       <c r="F32" s="292"/>
       <c r="G32" s="64" t="s">
         <v>51</v>
@@ -3296,7 +3286,7 @@
       <c r="J32" s="64"/>
       <c r="K32" s="67"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="B33" s="283"/>
       <c r="C33" s="283"/>
       <c r="G33" s="7"/>
@@ -3305,14 +3295,14 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="15.75" thickBot="true">
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="15.75" thickBot="true">
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -3322,7 +3312,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" s="284" t="s">
         <v>134</v>
       </c>
@@ -3350,7 +3340,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" s="285"/>
       <c r="G37" s="288"/>
       <c r="H37" s="24" t="e">
@@ -3374,7 +3364,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" s="285"/>
       <c r="G38" s="288"/>
       <c r="H38" s="24" t="e">
@@ -3398,7 +3388,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" s="285"/>
       <c r="G39" s="288"/>
       <c r="H39" s="24" t="e">
@@ -3422,7 +3412,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="F40" s="285"/>
       <c r="G40" s="108"/>
       <c r="H40" s="24"/>
@@ -3431,7 +3421,7 @@
       <c r="K40" s="65"/>
       <c r="M40" s="109"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="F41" s="285"/>
       <c r="G41" s="288" t="s">
         <v>135</v>
@@ -3457,7 +3447,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="F42" s="285"/>
       <c r="G42" s="288"/>
       <c r="H42" s="24" t="e">
@@ -3481,7 +3471,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="F43" s="285"/>
       <c r="G43" s="288"/>
       <c r="H43" s="24" t="e">
@@ -3505,7 +3495,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="15.75" thickBot="true">
       <c r="F44" s="286"/>
       <c r="G44" s="289"/>
       <c r="H44" s="64" t="e">
@@ -3529,7 +3519,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="15.75" thickBot="true">
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -3537,7 +3527,7 @@
       <c r="K45" s="7"/>
       <c r="M45" s="109"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="F46" s="284" t="s">
         <v>136</v>
       </c>
@@ -3565,7 +3555,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="F47" s="285"/>
       <c r="G47" s="288"/>
       <c r="H47" s="24" t="e">
@@ -3589,7 +3579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="F48" s="285"/>
       <c r="G48" s="288"/>
       <c r="H48" s="24" t="e">
@@ -3613,7 +3603,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="F49" s="285"/>
       <c r="G49" s="288"/>
       <c r="H49" s="24" t="e">
@@ -3637,7 +3627,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="F50" s="285"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
@@ -3646,7 +3636,7 @@
       <c r="K50" s="65"/>
       <c r="M50" s="109"/>
     </row>
-    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="F51" s="285"/>
       <c r="G51" s="288" t="s">
         <v>135</v>
@@ -3672,7 +3662,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="F52" s="285"/>
       <c r="G52" s="288"/>
       <c r="H52" s="24" t="e">
@@ -3696,7 +3686,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="F53" s="285"/>
       <c r="G53" s="288"/>
       <c r="H53" s="24" t="e">
@@ -3720,7 +3710,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="15.75" thickBot="true">
       <c r="F54" s="286"/>
       <c r="G54" s="289"/>
       <c r="H54" s="64" t="e">
@@ -3744,14 +3734,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="G56" s="30" t="s">
         <v>98</v>
       </c>
@@ -3776,7 +3766,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="G57" s="30"/>
       <c r="H57" s="30" t="e">
         <f t="shared" ref="H57:K59" si="5">H17/H$33</f>
@@ -3799,7 +3789,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="G58" s="30"/>
       <c r="H58" s="30" t="e">
         <f t="shared" si="5"/>
@@ -3822,7 +3812,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="G59" s="30"/>
       <c r="H59" s="30" t="e">
         <f t="shared" si="5"/>
@@ -3845,14 +3835,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
       <c r="K60" s="30"/>
     </row>
-    <row r="61" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="G61" s="30"/>
       <c r="H61" s="30" t="e">
         <f>H23/H$34</f>
@@ -3875,7 +3865,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="G62" s="30"/>
       <c r="H62" s="30" t="e">
         <f t="shared" ref="H62:K64" si="7">H24/H$34</f>
@@ -3898,7 +3888,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="G63" s="30"/>
       <c r="H63" s="30" t="e">
         <f t="shared" si="7"/>
@@ -3921,7 +3911,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="G64" s="30"/>
       <c r="H64" s="30" t="e">
         <f t="shared" si="7"/>
@@ -3966,25 +3956,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="true"/>
+    <col min="3" max="3" width="18.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -3992,24 +3982,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" t="s">
         <v>100</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -4017,13 +4007,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="B14" t="s">
         <v>99</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" t="s">
         <v>100</v>
       </c>
@@ -4035,16 +4025,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="B2" s="283" t="s">
         <v>147</v>
       </c>
@@ -4058,7 +4048,7 @@
       <c r="J2" s="283"/>
       <c r="K2" s="283"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="283">
         <v>1</v>
       </c>
@@ -4075,7 +4065,7 @@
       <c r="J3" s="124"/>
       <c r="K3" s="124"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="283"/>
       <c r="B4" s="8" t="s">
         <v>43</v>
@@ -4090,7 +4080,7 @@
       <c r="J4" s="125"/>
       <c r="K4" s="125"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="283">
         <v>2</v>
       </c>
@@ -4107,7 +4097,7 @@
       <c r="J5" s="124"/>
       <c r="K5" s="124"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="283"/>
       <c r="B6" s="8" t="s">
         <v>45</v>
@@ -4122,7 +4112,7 @@
       <c r="J6" s="124"/>
       <c r="K6" s="124"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="283">
         <v>1</v>
       </c>
@@ -4139,7 +4129,7 @@
       <c r="J9" s="295"/>
       <c r="K9" s="295"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="283"/>
       <c r="B10" s="295"/>
       <c r="C10" s="295"/>
@@ -4152,7 +4142,7 @@
       <c r="J10" s="295"/>
       <c r="K10" s="295"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="283"/>
       <c r="B11" s="295"/>
       <c r="C11" s="295"/>
@@ -4165,7 +4155,7 @@
       <c r="J11" s="295"/>
       <c r="K11" s="295"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="283"/>
       <c r="B12" s="295"/>
       <c r="C12" s="295"/>
@@ -4178,7 +4168,7 @@
       <c r="J12" s="295"/>
       <c r="K12" s="295"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="283"/>
       <c r="B13" s="295"/>
       <c r="C13" s="295"/>
@@ -4191,7 +4181,7 @@
       <c r="J13" s="295"/>
       <c r="K13" s="295"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="283"/>
       <c r="B14" s="295"/>
       <c r="C14" s="295"/>
@@ -4204,7 +4194,7 @@
       <c r="J14" s="295"/>
       <c r="K14" s="295"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="283">
         <v>2</v>
       </c>
@@ -4221,7 +4211,7 @@
       <c r="J15" s="295"/>
       <c r="K15" s="295"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="283"/>
       <c r="B16" s="295"/>
       <c r="C16" s="295"/>
@@ -4234,7 +4224,7 @@
       <c r="J16" s="295"/>
       <c r="K16" s="295"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" s="283"/>
       <c r="B17" s="295"/>
       <c r="C17" s="295"/>
@@ -4247,7 +4237,7 @@
       <c r="J17" s="295"/>
       <c r="K17" s="295"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="283"/>
       <c r="B18" s="295"/>
       <c r="C18" s="295"/>
@@ -4260,7 +4250,7 @@
       <c r="J18" s="295"/>
       <c r="K18" s="295"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="283"/>
       <c r="B19" s="295"/>
       <c r="C19" s="295"/>
@@ -4273,7 +4263,7 @@
       <c r="J19" s="295"/>
       <c r="K19" s="295"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="283"/>
       <c r="B20" s="295"/>
       <c r="C20" s="295"/>
@@ -4301,21 +4291,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="true"/>
+    <col min="4" max="4" width="11.28515625" customWidth="true"/>
+    <col min="5" max="5" width="12" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -4330,7 +4320,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4341,7 +4331,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -4356,7 +4346,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -4371,7 +4361,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -4386,7 +4376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -4401,7 +4391,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -4416,7 +4406,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -4439,21 +4429,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="true"/>
+    <col min="4" max="4" width="11.28515625" customWidth="true"/>
+    <col min="5" max="5" width="12" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -4468,7 +4458,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4479,7 +4469,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -4494,7 +4484,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -4509,7 +4499,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -4524,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -4539,7 +4529,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -4554,7 +4544,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -4577,7 +4567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -4587,21 +4577,21 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="6" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="11" width="17.42578125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="47.28515625" customWidth="1"/>
-    <col min="15" max="23" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="true"/>
+    <col min="2" max="2" width="11.140625" customWidth="true"/>
+    <col min="6" max="9" width="17.42578125" customWidth="true"/>
+    <col min="10" max="11" width="17.42578125" style="5" customWidth="true"/>
+    <col min="12" max="12" width="14.5703125" style="5" customWidth="true"/>
+    <col min="14" max="14" width="47.28515625" customWidth="true"/>
+    <col min="15" max="23" width="12.5703125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
@@ -4640,7 +4630,7 @@
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4681,7 +4671,7 @@
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15.75" thickBot="true">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4722,7 +4712,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -4793,7 +4783,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -4862,7 +4852,7 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -4931,7 +4921,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="15.75" thickBot="true">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -5000,7 +4990,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="91" t="s">
         <v>53</v>
       </c>
@@ -5033,7 +5023,7 @@
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="91" t="s">
         <v>17</v>
       </c>
@@ -5060,7 +5050,7 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="91" t="s">
         <v>18</v>
       </c>
@@ -5087,7 +5077,7 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="91" t="s">
         <v>51</v>
       </c>
@@ -5114,7 +5104,7 @@
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="91" t="s">
         <v>54</v>
       </c>
@@ -5141,7 +5131,7 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="91" t="s">
         <v>85</v>
       </c>
@@ -5174,7 +5164,7 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="91" t="s">
         <v>86</v>
       </c>
@@ -5207,7 +5197,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="8" t="s">
         <v>87</v>
       </c>
@@ -5240,7 +5230,7 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="8" t="s">
         <v>88</v>
       </c>
@@ -5271,7 +5261,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="15.75" thickBot="true">
       <c r="A17" s="8" t="s">
         <v>89</v>
       </c>
@@ -5302,7 +5292,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="15.75" thickBot="true">
       <c r="A18" s="8" t="s">
         <v>90</v>
       </c>
@@ -5333,7 +5323,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="15.75" thickBot="true">
       <c r="A19" s="8" t="s">
         <v>84</v>
       </c>
@@ -5366,7 +5356,7 @@
       <c r="V19" s="235"/>
       <c r="W19" s="236"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="15.75" thickBot="true">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
         <v>16</v>
@@ -5419,7 +5409,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="15" customHeight="true">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
         <v>52</v>
@@ -5496,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
         <v>52</v>
@@ -5569,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
         <v>52</v>
@@ -5642,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="15.75" thickBot="true">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
         <v>52</v>
@@ -5715,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
         <v>9</v>
@@ -5780,7 +5770,7 @@
       <c r="V25" s="191"/>
       <c r="W25" s="192"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
         <v>9</v>
@@ -5841,7 +5831,7 @@
       <c r="V26" s="33"/>
       <c r="W26" s="194"/>
     </row>
-    <row r="27" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" s="7" customFormat="true" ht="15.75" thickBot="true">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
         <v>9</v>
@@ -5902,7 +5892,7 @@
       <c r="V27" s="196"/>
       <c r="W27" s="197"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
         <v>10</v>
@@ -5933,7 +5923,7 @@
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>10</v>
@@ -5964,7 +5954,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
     </row>
-    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" s="8" customFormat="true">
       <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
@@ -5981,7 +5971,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
         <v>11</v>
@@ -6006,7 +5996,7 @@
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
         <v>11</v>
@@ -6031,7 +6021,7 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" s="8" customFormat="true">
       <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
@@ -6048,7 +6038,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
         <v>12</v>
@@ -6071,7 +6061,7 @@
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="15.75" thickBot="true">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
         <v>13</v>
@@ -6094,7 +6084,7 @@
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="15.75" thickBot="true">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
         <v>14</v>
@@ -6117,7 +6107,7 @@
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
     </row>
-    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="15.75" thickBot="true">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
         <v>15</v>
@@ -6148,7 +6138,7 @@
       <c r="V37" s="235"/>
       <c r="W37" s="236"/>
     </row>
-    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="15.75" thickBot="true">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
         <v>16</v>
@@ -6201,7 +6191,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="15" customHeight="true">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
         <v>52</v>
@@ -6278,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>52</v>
@@ -6351,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>52</v>
@@ -6424,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="15.75" thickBot="true">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
         <v>52</v>
@@ -6497,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
         <v>9</v>
@@ -6574,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
         <v>9</v>
@@ -6647,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" s="7" customFormat="true" ht="15.75" thickBot="true">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
         <v>9</v>
@@ -6720,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
         <v>10</v>
@@ -6751,7 +6741,7 @@
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
         <v>10</v>
@@ -6776,7 +6766,7 @@
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
     </row>
-    <row r="48" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" s="8" customFormat="true">
       <c r="B48" s="8" t="s">
         <v>10</v>
       </c>
@@ -6793,7 +6783,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="s">
         <v>11</v>
@@ -6818,7 +6808,7 @@
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
         <v>11</v>
@@ -6843,7 +6833,7 @@
       <c r="V50" s="8"/>
       <c r="W50" s="8"/>
     </row>
-    <row r="51" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" s="8" customFormat="true">
       <c r="B51" s="8" t="s">
         <v>11</v>
       </c>
@@ -6860,7 +6850,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
         <v>12</v>
@@ -6883,7 +6873,7 @@
       <c r="V52" s="8"/>
       <c r="W52" s="8"/>
     </row>
-    <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="15.75" thickBot="true">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
         <v>13</v>
@@ -6906,7 +6896,7 @@
       <c r="V53" s="8"/>
       <c r="W53" s="8"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
         <v>14</v>
@@ -6937,7 +6927,7 @@
       <c r="V54" s="8"/>
       <c r="W54" s="8"/>
     </row>
-    <row r="55" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="15.75" thickBot="true">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
         <v>15</v>
@@ -6974,7 +6964,7 @@
       <c r="V55" s="8"/>
       <c r="W55" s="8"/>
     </row>
-    <row r="56" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="15" customHeight="true" thickBot="true">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
         <v>16</v>
@@ -7019,7 +7009,7 @@
       <c r="V56" s="8"/>
       <c r="W56" s="8"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
         <v>9</v>
@@ -7088,7 +7078,7 @@
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>9</v>
@@ -7155,7 +7145,7 @@
       <c r="V58" s="8"/>
       <c r="W58" s="8"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
         <v>9</v>
@@ -7222,7 +7212,7 @@
       <c r="V59" s="8"/>
       <c r="W59" s="8"/>
     </row>
-    <row r="60" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" s="7" customFormat="true" ht="15.75" thickBot="true">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
         <v>9</v>
@@ -7289,7 +7279,7 @@
       <c r="V60" s="8"/>
       <c r="W60" s="8"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
         <v>10</v>
@@ -7320,7 +7310,7 @@
       <c r="V61" s="8"/>
       <c r="W61" s="8"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
         <v>10</v>
@@ -7345,7 +7335,7 @@
       <c r="V62" s="8"/>
       <c r="W62" s="8"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
         <v>10</v>
@@ -7370,7 +7360,7 @@
       <c r="V63" s="8"/>
       <c r="W63" s="8"/>
     </row>
-    <row r="64" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" s="8" customFormat="true">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -7388,7 +7378,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
         <v>11</v>
@@ -7413,7 +7403,7 @@
       <c r="V65" s="8"/>
       <c r="W65" s="8"/>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
         <v>11</v>
@@ -7444,7 +7434,7 @@
       <c r="V66" s="8"/>
       <c r="W66" s="8"/>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
         <v>11</v>
@@ -7475,7 +7465,7 @@
       <c r="V67" s="8"/>
       <c r="W67" s="8"/>
     </row>
-    <row r="68" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" s="8" customFormat="true">
       <c r="B68" s="8" t="s">
         <v>11</v>
       </c>
@@ -7493,7 +7483,7 @@
       <c r="K68" s="10"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
         <v>12</v>
@@ -7522,7 +7512,7 @@
       <c r="V69" s="8"/>
       <c r="W69" s="8"/>
     </row>
-    <row r="70" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="15.75" thickBot="true">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
         <v>13</v>
@@ -7551,7 +7541,7 @@
       <c r="V70" s="8"/>
       <c r="W70" s="8"/>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
         <v>14</v>
@@ -7580,7 +7570,7 @@
       <c r="V71" s="8"/>
       <c r="W71" s="8"/>
     </row>
-    <row r="72" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="15.75" thickBot="true">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
         <v>15</v>
@@ -7606,7 +7596,7 @@
       <c r="Q72" s="244"/>
       <c r="R72" s="8"/>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
         <v>16</v>
@@ -7642,7 +7632,7 @@
       <c r="Q73" s="245"/>
       <c r="R73" s="8"/>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
         <v>16</v>
@@ -7682,7 +7672,7 @@
       </c>
       <c r="R74" s="8"/>
     </row>
-    <row r="75" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" ht="15" customHeight="true">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
         <v>34</v>
@@ -7746,7 +7736,7 @@
       <c r="W75" s="264"/>
       <c r="X75" s="264"/>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
         <v>34</v>
@@ -7772,7 +7762,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="15.75" thickBot="true">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
         <v>34</v>
@@ -7803,7 +7793,7 @@
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
     </row>
-    <row r="78" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" ht="15.75" thickBot="true">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
         <v>37</v>
@@ -7838,7 +7828,7 @@
       <c r="X78" s="235"/>
       <c r="Y78" s="236"/>
     </row>
-    <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" ht="15.75" thickBot="true">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="s">
         <v>38</v>
@@ -7885,7 +7875,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="15.75" thickBot="true">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
         <v>39</v>
@@ -7932,7 +7922,7 @@
       <c r="X80" s="265"/>
       <c r="Y80" s="265"/>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
         <v>40</v>
@@ -7981,7 +7971,7 @@
       <c r="X81" s="26"/>
       <c r="Y81" s="26"/>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
         <v>41</v>
@@ -8026,7 +8016,7 @@
       <c r="X82" s="244"/>
       <c r="Y82" s="244"/>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
         <v>42</v>
@@ -8052,7 +8042,7 @@
       <c r="V83" s="8"/>
       <c r="W83" s="8"/>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
         <v>43</v>
@@ -8081,7 +8071,7 @@
       <c r="V84" s="8"/>
       <c r="W84" s="8"/>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="s">
         <v>44</v>
@@ -8108,7 +8098,7 @@
       <c r="V85" s="8"/>
       <c r="W85" s="8"/>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" s="8"/>
       <c r="B86" s="8" t="s">
         <v>45</v>
@@ -8137,7 +8127,7 @@
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
         <v>46</v>
@@ -8164,7 +8154,7 @@
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="s">
         <v>47</v>
@@ -8191,7 +8181,7 @@
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" s="8"/>
       <c r="B89" s="8" t="s">
         <v>48</v>
@@ -8232,7 +8222,7 @@
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="s">
         <v>49</v>
@@ -8275,7 +8265,7 @@
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="s">
         <v>50</v>
@@ -8304,7 +8294,7 @@
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="s">
         <v>165</v>
@@ -8345,7 +8335,7 @@
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" s="8"/>
       <c r="B93" s="90" t="s">
         <v>33</v>
@@ -8386,7 +8376,7 @@
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" s="8"/>
       <c r="B94" s="90" t="s">
         <v>92</v>
@@ -8426,7 +8416,7 @@
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" s="8"/>
       <c r="B95" s="90" t="s">
         <v>93</v>
@@ -8457,7 +8447,7 @@
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" s="8"/>
       <c r="B96" s="90" t="s">
         <v>94</v>
@@ -8498,7 +8488,7 @@
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" s="8"/>
       <c r="B97" s="100" t="s">
         <v>95</v>
@@ -8531,7 +8521,7 @@
       <c r="V97" s="8"/>
       <c r="W97" s="8"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" s="8"/>
       <c r="B98" s="100" t="s">
         <v>96</v>
@@ -8564,7 +8554,7 @@
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" s="8"/>
       <c r="B99" s="100" t="s">
         <v>95</v>
@@ -8606,7 +8596,7 @@
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" s="8"/>
       <c r="B100" s="100" t="s">
         <v>96</v>
@@ -8648,7 +8638,7 @@
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" s="8"/>
       <c r="B101" t="s">
         <v>152</v>
@@ -8690,7 +8680,7 @@
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" s="8"/>
       <c r="B102" t="s">
         <v>153</v>
@@ -8719,7 +8709,7 @@
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
     </row>
-    <row r="103" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" ht="15" customHeight="true">
       <c r="A103" s="8"/>
       <c r="B103" s="101" t="s">
         <v>97</v>
@@ -8752,7 +8742,7 @@
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" s="8"/>
       <c r="B104" s="101" t="s">
         <v>97</v>
@@ -8783,7 +8773,7 @@
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" s="8"/>
       <c r="B105" s="101" t="s">
         <v>97</v>
@@ -8814,7 +8804,7 @@
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" s="8"/>
       <c r="B106" s="101" t="s">
         <v>97</v>
@@ -8845,7 +8835,7 @@
       <c r="V106" s="8"/>
       <c r="W106" s="8"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" s="8"/>
       <c r="B107" s="101" t="s">
         <v>97</v>
@@ -8876,7 +8866,7 @@
       <c r="V107" s="8"/>
       <c r="W107" s="8"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" s="8"/>
       <c r="B108" s="101" t="s">
         <v>97</v>
@@ -8907,7 +8897,7 @@
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" s="8"/>
       <c r="B109" s="101" t="s">
         <v>97</v>
@@ -8938,7 +8928,7 @@
       <c r="V109" s="8"/>
       <c r="W109" s="8"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" s="8"/>
       <c r="B110" s="101" t="s">
         <v>97</v>
@@ -8969,7 +8959,7 @@
       <c r="V110" s="8"/>
       <c r="W110" s="8"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="B111" s="159" t="s">
         <v>155</v>
       </c>
@@ -8985,7 +8975,7 @@
       <c r="J111" s="161"/>
       <c r="K111" s="161"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="B112" s="159" t="s">
         <v>155</v>
       </c>
@@ -9004,7 +8994,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="B113" s="159" t="s">
         <v>155</v>
       </c>
@@ -9020,7 +9010,7 @@
       <c r="J113" s="161"/>
       <c r="K113" s="161"/>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="B114" s="159" t="s">
         <v>155</v>
       </c>
@@ -9092,26 +9082,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="9.42578125" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="9.5703125" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="9.42578125" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="10.5703125" bestFit="true" customWidth="true"/>
+    <col min="10" max="11" width="9.5703125" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="14.7109375" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
@@ -9142,7 +9132,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15" customHeight="true">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -9172,7 +9162,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="15.75" thickBot="true">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -9203,7 +9193,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="15" customHeight="true">
       <c r="A4" s="8" t="str">
         <f>Input!A4</f>
         <v>Land</v>
@@ -9252,7 +9242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="8" t="str">
         <f>Input!A5</f>
         <v>Labor</v>
@@ -9301,7 +9291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="8" t="str">
         <f>Input!A6</f>
         <v>Capital</v>
@@ -9350,7 +9340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="15.75" thickBot="true">
       <c r="A7" s="8" t="str">
         <f>Input!A7</f>
         <v>Input</v>
@@ -9399,7 +9389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="15.75" thickBot="true">
       <c r="A8" s="8" t="str">
         <f>Input!A8</f>
         <v>crop</v>
@@ -9448,7 +9438,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="8" t="str">
         <f>Input!A9</f>
         <v>live</v>
@@ -9497,7 +9487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="8" t="str">
         <f>Input!A10</f>
         <v>ret</v>
@@ -9546,7 +9536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="8" t="str">
         <f>Input!A11</f>
         <v>other</v>
@@ -9595,7 +9585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="8" t="str">
         <f>Input!A12</f>
         <v>OUTSIDE</v>
@@ -9644,7 +9634,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="8" t="str">
         <f>Input!A13</f>
         <v>A1</v>
@@ -9693,7 +9683,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" s="8" t="str">
         <f>Input!A14</f>
         <v>A2</v>
@@ -9742,7 +9732,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" s="8" t="str">
         <f>Input!A15</f>
         <v>A3</v>
@@ -9791,7 +9781,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="8" t="str">
         <f>Input!A16</f>
         <v>B1</v>
@@ -9837,7 +9827,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="15.75" thickBot="true">
       <c r="A17" s="8" t="str">
         <f>Input!A17</f>
         <v>B2</v>
@@ -9877,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" s="8" t="str">
         <f>Input!A18</f>
         <v>B3</v>
@@ -9917,7 +9907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="15.75" thickBot="true">
       <c r="A19" s="8" t="str">
         <f>Input!A19</f>
         <v>empty</v>
@@ -9957,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="15.75" thickBot="true">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="str">
         <f>Input!B20</f>
@@ -9994,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" ht="15" customHeight="true">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="str">
         <f>Input!B21</f>
@@ -10042,7 +10032,7 @@
       <c r="Q21" s="162"/>
       <c r="R21" s="162"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="str">
         <f>Input!B22</f>
@@ -10090,7 +10080,7 @@
       <c r="Q22" s="162"/>
       <c r="R22" s="162"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="str">
         <f>Input!B23</f>
@@ -10130,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="15.75" thickBot="true">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="str">
         <f>Input!B24</f>
@@ -10170,7 +10160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" ht="15" customHeight="true">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="str">
         <f>Input!B25</f>
@@ -10210,7 +10200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="str">
         <f>Input!B26</f>
@@ -10250,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" ht="15.75" thickBot="true">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="str">
         <f>Input!B27</f>
@@ -10290,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="str">
         <f>Input!B28</f>
@@ -10330,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="str">
         <f>Input!B29</f>
@@ -10370,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="str">
         <f>Input!B30</f>
@@ -10410,7 +10400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="str">
         <f>Input!B31</f>
@@ -10450,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="str">
         <f>Input!B32</f>
@@ -10490,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="str">
         <f>Input!B33</f>
@@ -10530,7 +10520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="str">
         <f>Input!B34</f>
@@ -10567,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="15.75" thickBot="true">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="str">
         <f>Input!B35</f>
@@ -10604,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="str">
         <f>Input!B36</f>
@@ -10641,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="15.75" thickBot="true">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="str">
         <f>Input!B37</f>
@@ -10678,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="15.75" thickBot="true">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="str">
         <f>Input!B38</f>
@@ -10715,7 +10705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" ht="15" customHeight="true">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="str">
         <f>Input!B39</f>
@@ -10755,7 +10745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="str">
         <f>Input!B40</f>
@@ -10795,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="str">
         <f>Input!B41</f>
@@ -10835,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="15.75" thickBot="true">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="str">
         <f>Input!B42</f>
@@ -10875,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" ht="15" customHeight="true">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="str">
         <f>Input!B43</f>
@@ -10915,7 +10905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="str">
         <f>Input!B44</f>
@@ -10955,7 +10945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="15.75" thickBot="true">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="str">
         <f>Input!B45</f>
@@ -10995,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="str">
         <f>Input!B46</f>
@@ -11035,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="str">
         <f>Input!B47</f>
@@ -11075,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="8"/>
       <c r="B48" s="8" t="str">
         <f>Input!B48</f>
@@ -11115,7 +11105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="str">
         <f>Input!B49</f>
@@ -11155,7 +11145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="str">
         <f>Input!B50</f>
@@ -11195,7 +11185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="str">
         <f>Input!B51</f>
@@ -11235,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="str">
         <f>Input!B52</f>
@@ -11272,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="15.75" thickBot="true">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="str">
         <f>Input!B53</f>
@@ -11309,7 +11299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="str">
         <f>Input!B54</f>
@@ -11346,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="15.75" customHeight="true" thickBot="true">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="str">
         <f>Input!B55</f>
@@ -11383,7 +11373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="15.75" thickBot="true">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="str">
         <f>Input!B56</f>
@@ -11420,7 +11410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" ht="15" customHeight="true">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="str">
         <f>Input!B57</f>
@@ -11460,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="str">
         <f>Input!B58</f>
@@ -11500,7 +11490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="str">
         <f>Input!B59</f>
@@ -11540,7 +11530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="15.75" thickBot="true">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="str">
         <f>Input!B60</f>
@@ -11580,7 +11570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="15.75" thickBot="true">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="str">
         <f>Input!B61</f>
@@ -11620,7 +11610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="str">
         <f>Input!B62</f>
@@ -11660,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="str">
         <f>Input!B63</f>
@@ -11700,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="str">
         <f>Input!B64</f>
@@ -11740,7 +11730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="str">
         <f>Input!B65</f>
@@ -11780,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="str">
         <f>Input!B66</f>
@@ -11820,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="str">
         <f>Input!B67</f>
@@ -11860,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="str">
         <f>Input!B68</f>
@@ -11900,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="str">
         <f>Input!B69</f>
@@ -11937,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="15.75" thickBot="true">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="str">
         <f>Input!B70</f>
@@ -11974,7 +11964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="str">
         <f>Input!B71</f>
@@ -12011,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="15.75" thickBot="true">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="str">
         <f>Input!B72</f>
@@ -12048,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="str">
         <f>Input!B73</f>
@@ -12085,7 +12075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="str">
         <f>Input!B74</f>
@@ -12122,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="str">
         <f>Input!B75</f>
@@ -12156,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="str">
         <f>Input!B76</f>
@@ -12190,7 +12180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="str">
         <f>Input!B77</f>
@@ -12224,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="str">
         <f>Input!B78</f>
@@ -12258,7 +12248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="str">
         <f>Input!B79</f>
@@ -12292,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="str">
         <f>Input!B80</f>
@@ -12326,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" ht="15" customHeight="true">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="str">
         <f>Input!B81</f>
@@ -12360,7 +12350,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="str">
         <f>Input!B82</f>
@@ -12394,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="str">
         <f>Input!B83</f>
@@ -12428,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="str">
         <f>Input!B84</f>
@@ -12462,7 +12452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="str">
         <f>Input!B85</f>
@@ -12496,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" s="8"/>
       <c r="B86" s="8" t="str">
         <f>Input!B86</f>
@@ -12530,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="str">
         <f>Input!B87</f>
@@ -12564,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="str">
         <f>Input!B88</f>
@@ -12598,7 +12588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" s="8"/>
       <c r="B89" s="8" t="str">
         <f>Input!B89</f>
@@ -12632,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="str">
         <f>Input!B90</f>
@@ -12666,7 +12656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="str">
         <f>Input!B91</f>
@@ -12700,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="str">
         <f>Input!B92</f>
@@ -12734,7 +12724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" s="8"/>
       <c r="B93" s="8" t="str">
         <f>Input!B93</f>
@@ -12768,7 +12758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" s="8"/>
       <c r="B94" s="8" t="str">
         <f>Input!B94</f>
@@ -12802,7 +12792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" s="8"/>
       <c r="B95" s="8" t="str">
         <f>Input!B95</f>
@@ -12836,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="str">
         <f>Input!B96</f>
@@ -12870,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" ht="15" customHeight="true">
       <c r="A97" s="8"/>
       <c r="B97" s="8" t="str">
         <f>Input!B97</f>
@@ -12907,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" s="8"/>
       <c r="B98" s="8" t="str">
         <f>Input!B98</f>
@@ -12944,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" s="8"/>
       <c r="B99" s="8" t="str">
         <f>Input!B99</f>
@@ -12981,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" s="8"/>
       <c r="B100" s="8" t="str">
         <f>Input!B100</f>
@@ -13018,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" s="8"/>
       <c r="B101" s="8" t="str">
         <f>Input!B101</f>
@@ -13055,7 +13045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" ht="15.75" thickBot="true">
       <c r="A102" s="8"/>
       <c r="B102" s="8" t="str">
         <f>Input!B102</f>
@@ -13092,7 +13082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" ht="15" customHeight="true">
       <c r="A103" s="8"/>
       <c r="B103" s="8" t="str">
         <f>Input!B103</f>
@@ -13132,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" s="8"/>
       <c r="B104" s="8" t="str">
         <f>Input!B104</f>
@@ -13172,7 +13162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" s="8"/>
       <c r="B105" s="8" t="str">
         <f>Input!B105</f>
@@ -13212,7 +13202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" s="8"/>
       <c r="B106" s="8" t="str">
         <f>Input!B106</f>
@@ -13252,7 +13242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" s="8"/>
       <c r="B107" s="8" t="str">
         <f>Input!B107</f>
@@ -13292,7 +13282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" s="8"/>
       <c r="B108" s="8" t="str">
         <f>Input!B108</f>
@@ -13332,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" s="8"/>
       <c r="B109" s="8" t="str">
         <f>Input!B109</f>
@@ -13372,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="15.75" thickBot="true">
       <c r="A110" s="8"/>
       <c r="B110" s="8" t="str">
         <f>Input!B110</f>
@@ -13412,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" s="8"/>
       <c r="B111" s="8" t="str">
         <f>Input!B111</f>
@@ -13425,7 +13415,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" s="8"/>
       <c r="B112" s="8" t="str">
         <f>Input!B112</f>
@@ -13438,7 +13428,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" s="8"/>
       <c r="B113" s="8" t="str">
         <f>Input!B113</f>
@@ -13465,42 +13455,43 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10" style="11" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="10" style="11" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="11" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="10" style="11" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="11" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="11" style="11" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10" style="11" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" style="11" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="20" style="11" customWidth="true"/>
+    <col min="2" max="2" width="10" style="11" customWidth="true"/>
+    <col min="3" max="3" width="16" style="11" customWidth="true"/>
+    <col min="4" max="4" width="15.28515625" style="11" customWidth="true"/>
+    <col min="5" max="5" width="14.5703125" style="11" customWidth="true"/>
+    <col min="6" max="6" width="9.7109375" style="11" customWidth="true"/>
+    <col min="7" max="7" width="9.85546875" style="11" customWidth="true"/>
+    <col min="8" max="8" width="9.140625" style="11" customWidth="true"/>
+    <col min="9" max="9" width="10" style="11" customWidth="true"/>
+    <col min="10" max="10" width="7.85546875" style="11" customWidth="true"/>
+    <col min="11" max="11" width="11.5703125" style="11" customWidth="true"/>
+    <col min="12" max="12" width="6.85546875" style="11" customWidth="true"/>
+    <col min="13" max="13" width="10.7109375" style="11" customWidth="true"/>
+    <col min="14" max="14" width="10" style="11" customWidth="true"/>
+    <col min="15" max="15" width="7.85546875" style="11" customWidth="true"/>
+    <col min="16" max="16" width="12.5703125" style="11" customWidth="true"/>
+    <col min="17" max="17" width="9.140625" style="11" customWidth="true"/>
+    <col min="18" max="18" width="11" style="11" customWidth="true"/>
+    <col min="19" max="19" width="9.42578125" style="11" customWidth="true"/>
+    <col min="20" max="20" width="10" style="11" customWidth="true"/>
+    <col min="21" max="21" width="12.5703125" style="11" customWidth="true"/>
+    <col min="22" max="22" width="8.7109375" style="11" customWidth="true"/>
     <col min="23" max="25" width="9.140625" style="11"/>
-    <col min="26" max="26" width="15.28515625" style="11" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" style="11" customWidth="true"/>
     <col min="27" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4"/>
       <c r="C4" t="s">
         <v>204</v>
@@ -13512,7 +13503,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5"/>
       <c r="C5" t="s">
         <v>10</v>
@@ -13524,78 +13515,78 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="232">
-        <v>0.13793697872752195</v>
+        <v>0.13793697872754149</v>
       </c>
       <c r="D6" s="232">
-        <v>2.3991186284098822E-2</v>
+        <v>0.023991186284097112</v>
       </c>
       <c r="E6" s="224">
-        <v>3.2329362602469655E-8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+        <v>3.2329362602268186e-008</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" t="s">
         <v>201</v>
       </c>
       <c r="C7" s="232">
-        <v>0.19916004119063757</v>
+        <v>0.19916004119058783</v>
       </c>
       <c r="D7" s="232">
-        <v>5.4464984261563279E-2</v>
+        <v>0.054464984261566499</v>
       </c>
       <c r="E7" s="224">
-        <v>3.2514405893228318E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.00032514405893362575</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" t="s">
         <v>202</v>
       </c>
       <c r="C8" s="232">
-        <v>0.29842619443447838</v>
+        <v>0.29842619443442686</v>
       </c>
       <c r="D8" s="232">
-        <v>4.7174445298709122E-2</v>
+        <v>0.047174445298706486</v>
       </c>
       <c r="E8" s="224">
-        <v>1.5638022571202038E-9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1.5638022571264586e-009</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="B9" t="s">
         <v>203</v>
       </c>
       <c r="C9" s="232">
-        <v>0.36447678564736208</v>
+        <v>0.36447678564742603</v>
       </c>
       <c r="D9" s="232">
-        <v>5.8926329066790996E-2</v>
+        <v>0.05892632906679434</v>
       </c>
       <c r="E9" s="224">
-        <v>3.3319689718617294E-9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <v>3.3319689718487187e-009</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="B10" t="s">
         <v>196</v>
       </c>
       <c r="C10" s="232">
-        <v>3.9689590463933087</v>
+        <v>3.9689590463927971</v>
       </c>
       <c r="D10" s="232">
-        <v>0.51032720213221672</v>
+        <v>0.51032720213225158</v>
       </c>
       <c r="E10" s="224">
-        <v>3.6083130404137257E-13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.6083130404474859e-013</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" customHeight="true"/>
+    <row r="20" ht="18.75" customHeight="true" thickBot="true">
       <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
@@ -13625,7 +13616,7 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" s="35" customFormat="true" ht="18.75" customHeight="true">
       <c r="A21" s="34"/>
       <c r="B21" s="277" t="s">
         <v>118</v>
@@ -13670,7 +13661,7 @@
       <c r="AD21" s="278"/>
       <c r="AE21" s="279"/>
     </row>
-    <row r="22" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" s="42" customFormat="true" ht="18.75" customHeight="true">
       <c r="A22" s="43" t="s">
         <v>0</v>
       </c>
@@ -13765,7 +13756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" s="42" customFormat="true" ht="18.75" customHeight="true" thickBot="true">
       <c r="A23" s="37" t="s">
         <v>31</v>
       </c>
@@ -13800,14 +13791,14 @@
       <c r="AD23" s="39"/>
       <c r="AE23" s="40"/>
     </row>
-    <row r="24" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="18.75" customHeight="true"/>
+    <row r="25" ht="18.75" customHeight="true"/>
+    <row r="26" ht="18.75" customHeight="true"/>
+    <row r="27" ht="18.75" customHeight="true"/>
+    <row r="28" ht="18.75" customHeight="true"/>
+    <row r="29" ht="18.75" customHeight="true"/>
+    <row r="30" ht="18.75" customHeight="true"/>
+    <row r="31" ht="18.75" customHeight="true"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AA21:AE21"/>
@@ -13822,19 +13813,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="true" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="8" width="13.28515625" customWidth="1"/>
+    <col min="3" max="8" width="13.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="C4" t="s">
         <v>197</v>
       </c>
@@ -13854,7 +13845,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -13874,142 +13865,142 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" t="s">
         <v>200</v>
       </c>
       <c r="C6" s="232">
-        <v>0.10357025907243364</v>
+        <v>0.074865663773473728</v>
       </c>
       <c r="D6" s="232">
-        <v>6.2930436982206947E-2</v>
+        <v>0.065354624933882013</v>
       </c>
       <c r="E6" s="231">
-        <v>0.10373058650938989</v>
+        <v>0.25563193493742392</v>
       </c>
       <c r="F6" s="233">
-        <v>9.8285777022953241E-2</v>
+        <v>0.076711975201767119</v>
       </c>
       <c r="G6" s="233">
-        <v>0.11174603901471879</v>
+        <v>0.11014565195885229</v>
       </c>
       <c r="H6" s="231">
-        <v>0.38435894706199636</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.49061388368443326</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" t="s">
         <v>201</v>
       </c>
       <c r="C7" s="232">
-        <v>0.40388284677004904</v>
+        <v>0.42071535533413601</v>
       </c>
       <c r="D7" s="232">
-        <v>5.9041163485154986E-2</v>
+        <v>0.062818351456444904</v>
       </c>
       <c r="E7" s="231">
-        <v>1.4333255603659742E-9</v>
+        <v>3.4095791605217038e-009</v>
       </c>
       <c r="F7" s="233">
-        <v>0.24099437805134194</v>
+        <v>0.15258533068578345</v>
       </c>
       <c r="G7" s="233">
-        <v>8.7301995751865633E-2</v>
+        <v>0.078367718978273604</v>
       </c>
       <c r="H7" s="231">
-        <v>8.6692879924342835E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.059363666284384373</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" t="s">
         <v>202</v>
       </c>
       <c r="C8" s="232">
-        <v>-6.6889773454888446E-2</v>
+        <v>0.0075961411857523864</v>
       </c>
       <c r="D8" s="232">
-        <v>4.8238222580632248E-2</v>
+        <v>0.04713674699550742</v>
       </c>
       <c r="E8" s="231">
-        <v>0.16939901505774951</v>
+        <v>0.87240766069619857</v>
       </c>
       <c r="F8" s="233">
-        <v>7.0739875283531761E-2</v>
+        <v>0.014327111685477928</v>
       </c>
       <c r="G8" s="233">
-        <v>6.0303511880983977E-2</v>
+        <v>0.068052914995889183</v>
       </c>
       <c r="H8" s="231">
-        <v>0.24770853846251709</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.83444193098716379</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="232">
+        <v>0.30972382048375446</v>
+      </c>
+      <c r="D9" s="232">
+        <v>0.073394136153984033</v>
+      </c>
+      <c r="E9" s="231">
+        <v>6.7686242494784319e-005</v>
+      </c>
+      <c r="F9" s="233">
+        <v>0.40860335955981752</v>
+      </c>
+      <c r="G9" s="233">
+        <v>0.12118964318395592</v>
+      </c>
+      <c r="H9">
+        <v>0.0017970633170530409</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="232">
-        <v>0.55943666761240607</v>
-      </c>
-      <c r="D9" s="232">
-        <v>6.9305463273445417E-2</v>
-      </c>
-      <c r="E9" s="231">
-        <v>5.8434427655532836E-12</v>
-      </c>
-      <c r="F9" s="233">
-        <v>0.58997996964217059</v>
-      </c>
-      <c r="G9" s="233">
-        <v>0.10817360567395405</v>
-      </c>
-      <c r="H9">
-        <v>2.7608761903461044E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>196</v>
-      </c>
       <c r="C10" s="232">
-        <v>1.8228356887501391</v>
+        <v>0.18709901922288166</v>
       </c>
       <c r="D10" s="232">
-        <v>0.15759370888081434</v>
+        <v>0.080563658712412639</v>
       </c>
       <c r="E10" s="231">
-        <v>9.3750048393133165E-19</v>
+        <v>0.022928466585313528</v>
       </c>
       <c r="F10" s="233">
-        <v>1.6159177547311572</v>
+        <v>0.34777222286715603</v>
       </c>
       <c r="G10" s="233">
-        <v>0.21262585332863426</v>
+        <v>0.1276502846859173</v>
       </c>
       <c r="H10" s="231">
-        <v>2.7783595228668267E-9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.0098775138616269808</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="B11" t="s">
         <v>196</v>
       </c>
       <c r="C11">
-        <v>2.8042777891101043</v>
+        <v>2.1769753978679081</v>
       </c>
       <c r="D11">
-        <v>0.15741583099385675</v>
+        <v>0.11831685626228974</v>
       </c>
       <c r="E11">
-        <v>4.9131999685608989E-29</v>
+        <v>1.5865276778279659e-029</v>
       </c>
       <c r="F11">
-        <v>2.1000493225499053</v>
+        <v>1.9732489077055702</v>
       </c>
       <c r="G11">
-        <v>0.22389089546968452</v>
+        <v>0.16316803071874686</v>
       </c>
       <c r="H11">
-        <v>1.1839035378367059E-11</v>
+        <v>3.0707887654430226e-014</v>
       </c>
     </row>
   </sheetData>
@@ -14018,16 +14009,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="C4" t="s">
         <v>207</v>
       </c>
@@ -14056,7 +14047,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="C5" t="s">
         <v>208</v>
       </c>
@@ -14085,7 +14076,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" t="s">
         <v>205</v>
       </c>
@@ -14117,7 +14108,7 @@
         <v>2.8671619445748934E-5</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" t="s">
         <v>206</v>
       </c>
@@ -14149,7 +14140,7 @@
         <v>3.0462378781284005E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" t="s">
         <v>196</v>
       </c>
@@ -14181,7 +14172,7 @@
         <v>1.3612870925242183E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="C20" t="s">
         <v>211</v>
       </c>
@@ -14189,7 +14180,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="B21" t="s">
         <v>207</v>
       </c>
@@ -14200,7 +14191,7 @@
         <v>0.51713244742479325</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="B22" t="s">
         <v>209</v>
       </c>
@@ -14211,7 +14202,7 @@
         <v>0.38126708309476026</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="B23" t="s">
         <v>210</v>
       </c>
@@ -14228,30 +14219,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A8:AE11"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="7.42578125" customWidth="true"/>
+    <col min="3" max="3" width="9.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="8.42578125" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="7.42578125" customWidth="true"/>
+    <col min="8" max="8" width="12.42578125" customWidth="true"/>
+    <col min="9" max="9" width="12.140625" customWidth="true"/>
+    <col min="10" max="10" width="9.140625" customWidth="true"/>
+    <col min="11" max="11" width="7.140625" customWidth="true"/>
+    <col min="12" max="12" width="10.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" s="11" customFormat="true" ht="18.75" customHeight="true" thickBot="true">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -14281,7 +14272,7 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" s="35" customFormat="true" ht="18.75" customHeight="true">
       <c r="A9" s="34"/>
       <c r="B9" s="277" t="s">
         <v>118</v>
@@ -14326,7 +14317,7 @@
       <c r="AD9" s="278"/>
       <c r="AE9" s="279"/>
     </row>
-    <row r="10" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" s="42" customFormat="true" ht="18.75" customHeight="true">
       <c r="A10" s="43" t="s">
         <v>0</v>
       </c>
@@ -14421,7 +14412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:31" s="51" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" s="51" customFormat="true" ht="30" customHeight="true" thickBot="true">
       <c r="A11" s="46" t="s">
         <v>124</v>
       </c>

--- a/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="772" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="805" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="219">
   <si>
     <t>Variable</t>
   </si>
@@ -813,6 +813,21 @@
   </si>
   <si>
     <t>li_feed</t>
+  </si>
+  <si>
+    <t>labor cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asset </t>
+  </si>
+  <si>
+    <t>Factor Shares</t>
+  </si>
+  <si>
+    <t>Total output</t>
+  </si>
+  <si>
+    <t>rev_fish</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1507,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1901,6 +1916,19 @@
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
     <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
     <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
@@ -1910,17 +1938,98 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -1932,101 +2041,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
@@ -2048,45 +2067,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2590,34 +2610,34 @@
     </row>
     <row r="9">
       <c r="A9" s="19"/>
-      <c r="B9" s="280" t="s">
+      <c r="B9" s="284" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="281"/>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="280" t="s">
+      <c r="C9" s="285"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="286"/>
+      <c r="G9" s="284" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="281"/>
-      <c r="I9" s="281"/>
-      <c r="J9" s="281"/>
-      <c r="K9" s="282"/>
-      <c r="L9" s="280" t="s">
+      <c r="H9" s="285"/>
+      <c r="I9" s="285"/>
+      <c r="J9" s="285"/>
+      <c r="K9" s="286"/>
+      <c r="L9" s="284" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="281"/>
-      <c r="N9" s="281"/>
-      <c r="O9" s="281"/>
-      <c r="P9" s="282"/>
-      <c r="Q9" s="280" t="s">
+      <c r="M9" s="285"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="285"/>
+      <c r="P9" s="286"/>
+      <c r="Q9" s="284" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="281"/>
-      <c r="S9" s="281"/>
-      <c r="T9" s="281"/>
-      <c r="U9" s="282"/>
+      <c r="R9" s="285"/>
+      <c r="S9" s="285"/>
+      <c r="T9" s="285"/>
+      <c r="U9" s="286"/>
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
@@ -2821,34 +2841,34 @@
     </row>
     <row r="9">
       <c r="A9" s="19"/>
-      <c r="B9" s="280" t="s">
+      <c r="B9" s="284" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="281"/>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="282"/>
-      <c r="G9" s="280" t="s">
+      <c r="C9" s="285"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="286"/>
+      <c r="G9" s="284" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="281"/>
-      <c r="I9" s="281"/>
-      <c r="J9" s="281"/>
-      <c r="K9" s="282"/>
-      <c r="L9" s="280" t="s">
+      <c r="H9" s="285"/>
+      <c r="I9" s="285"/>
+      <c r="J9" s="285"/>
+      <c r="K9" s="286"/>
+      <c r="L9" s="284" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="281"/>
-      <c r="N9" s="281"/>
-      <c r="O9" s="281"/>
-      <c r="P9" s="282"/>
-      <c r="Q9" s="280" t="s">
+      <c r="M9" s="285"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="285"/>
+      <c r="P9" s="286"/>
+      <c r="Q9" s="284" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="281"/>
-      <c r="S9" s="281"/>
-      <c r="T9" s="281"/>
-      <c r="U9" s="282"/>
+      <c r="R9" s="285"/>
+      <c r="S9" s="285"/>
+      <c r="T9" s="285"/>
+      <c r="U9" s="286"/>
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
@@ -2991,11 +3011,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="283" t="s">
+      <c r="A3" s="297" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
     </row>
     <row r="4">
       <c r="B4" t="s">
@@ -3020,11 +3040,11 @@
       <c r="C6" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="283" t="s">
+      <c r="A9" s="297" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="283"/>
-      <c r="C9" s="283"/>
+      <c r="B9" s="297"/>
+      <c r="C9" s="297"/>
     </row>
     <row r="10">
       <c r="B10" t="s">
@@ -3067,11 +3087,11 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="283" t="s">
+      <c r="A15" s="297" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="283"/>
-      <c r="C15" s="283"/>
+      <c r="B15" s="297"/>
+      <c r="C15" s="297"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
         <v>1</v>
@@ -3146,11 +3166,11 @@
       <c r="K20" s="7"/>
     </row>
     <row r="21">
-      <c r="A21" s="283" t="s">
+      <c r="A21" s="297" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="283"/>
-      <c r="C21" s="283"/>
+      <c r="B21" s="297"/>
+      <c r="C21" s="297"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>135</v>
@@ -3227,8 +3247,8 @@
       <c r="K26" s="230"/>
     </row>
     <row r="27">
-      <c r="B27" s="283"/>
-      <c r="C27" s="283"/>
+      <c r="B27" s="297"/>
+      <c r="C27" s="297"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3243,7 +3263,7 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29">
-      <c r="F29" s="290" t="s">
+      <c r="F29" s="293" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="61" t="s">
@@ -3255,7 +3275,7 @@
       <c r="K29" s="66"/>
     </row>
     <row r="30">
-      <c r="F30" s="291"/>
+      <c r="F30" s="294"/>
       <c r="G30" s="24" t="s">
         <v>51</v>
       </c>
@@ -3265,7 +3285,7 @@
       <c r="K30" s="65"/>
     </row>
     <row r="31">
-      <c r="F31" s="291" t="s">
+      <c r="F31" s="294" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="24" t="s">
@@ -3277,7 +3297,7 @@
       <c r="K31" s="65"/>
     </row>
     <row r="32" ht="15.75" thickBot="true">
-      <c r="F32" s="292"/>
+      <c r="F32" s="295"/>
       <c r="G32" s="64" t="s">
         <v>51</v>
       </c>
@@ -3287,8 +3307,8 @@
       <c r="K32" s="67"/>
     </row>
     <row r="33">
-      <c r="B33" s="283"/>
-      <c r="C33" s="283"/>
+      <c r="B33" s="297"/>
+      <c r="C33" s="297"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3313,10 +3333,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="F36" s="284" t="s">
+      <c r="F36" s="287" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="293" t="s">
+      <c r="G36" s="296" t="s">
         <v>125</v>
       </c>
       <c r="H36" s="61" t="e">
@@ -3341,8 +3361,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="F37" s="285"/>
-      <c r="G37" s="288"/>
+      <c r="F37" s="288"/>
+      <c r="G37" s="291"/>
       <c r="H37" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3365,8 +3385,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="F38" s="285"/>
-      <c r="G38" s="288"/>
+      <c r="F38" s="288"/>
+      <c r="G38" s="291"/>
       <c r="H38" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3389,8 +3409,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="F39" s="285"/>
-      <c r="G39" s="288"/>
+      <c r="F39" s="288"/>
+      <c r="G39" s="291"/>
       <c r="H39" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3413,7 +3433,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" s="285"/>
+      <c r="F40" s="288"/>
       <c r="G40" s="108"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -3422,8 +3442,8 @@
       <c r="M40" s="109"/>
     </row>
     <row r="41">
-      <c r="F41" s="285"/>
-      <c r="G41" s="288" t="s">
+      <c r="F41" s="288"/>
+      <c r="G41" s="291" t="s">
         <v>135</v>
       </c>
       <c r="H41" s="24" t="e">
@@ -3448,8 +3468,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="F42" s="285"/>
-      <c r="G42" s="288"/>
+      <c r="F42" s="288"/>
+      <c r="G42" s="291"/>
       <c r="H42" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3472,8 +3492,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="F43" s="285"/>
-      <c r="G43" s="288"/>
+      <c r="F43" s="288"/>
+      <c r="G43" s="291"/>
       <c r="H43" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3496,8 +3516,8 @@
       </c>
     </row>
     <row r="44" ht="15.75" thickBot="true">
-      <c r="F44" s="286"/>
-      <c r="G44" s="289"/>
+      <c r="F44" s="289"/>
+      <c r="G44" s="292"/>
       <c r="H44" s="64" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3528,10 +3548,10 @@
       <c r="M45" s="109"/>
     </row>
     <row r="46">
-      <c r="F46" s="284" t="s">
+      <c r="F46" s="287" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="287" t="s">
+      <c r="G46" s="290" t="s">
         <v>125</v>
       </c>
       <c r="H46" s="61" t="e">
@@ -3556,8 +3576,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="F47" s="285"/>
-      <c r="G47" s="288"/>
+      <c r="F47" s="288"/>
+      <c r="G47" s="291"/>
       <c r="H47" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3580,8 +3600,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="F48" s="285"/>
-      <c r="G48" s="288"/>
+      <c r="F48" s="288"/>
+      <c r="G48" s="291"/>
       <c r="H48" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3604,8 +3624,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="F49" s="285"/>
-      <c r="G49" s="288"/>
+      <c r="F49" s="288"/>
+      <c r="G49" s="291"/>
       <c r="H49" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3628,7 +3648,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="F50" s="285"/>
+      <c r="F50" s="288"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
@@ -3637,8 +3657,8 @@
       <c r="M50" s="109"/>
     </row>
     <row r="51">
-      <c r="F51" s="285"/>
-      <c r="G51" s="288" t="s">
+      <c r="F51" s="288"/>
+      <c r="G51" s="291" t="s">
         <v>135</v>
       </c>
       <c r="H51" s="24" t="e">
@@ -3663,8 +3683,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="F52" s="285"/>
-      <c r="G52" s="288"/>
+      <c r="F52" s="288"/>
+      <c r="G52" s="291"/>
       <c r="H52" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3687,8 +3707,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="F53" s="285"/>
-      <c r="G53" s="288"/>
+      <c r="F53" s="288"/>
+      <c r="G53" s="291"/>
       <c r="H53" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3711,8 +3731,8 @@
       </c>
     </row>
     <row r="54" ht="15.75" thickBot="true">
-      <c r="F54" s="286"/>
-      <c r="G54" s="289"/>
+      <c r="F54" s="289"/>
+      <c r="G54" s="292"/>
       <c r="H54" s="64" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3936,6 +3956,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="F46:F54"/>
     <mergeCell ref="G46:G49"/>
     <mergeCell ref="G51:G54"/>
@@ -3944,12 +3970,6 @@
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="F36:F44"/>
     <mergeCell ref="G41:G44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4035,21 +4055,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="283" t="s">
+      <c r="B2" s="297" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
+      <c r="J2" s="297"/>
+      <c r="K2" s="297"/>
     </row>
     <row r="3">
-      <c r="A3" s="283">
+      <c r="A3" s="297">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -4066,7 +4086,7 @@
       <c r="K3" s="124"/>
     </row>
     <row r="4">
-      <c r="A4" s="283"/>
+      <c r="A4" s="297"/>
       <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
@@ -4081,7 +4101,7 @@
       <c r="K4" s="125"/>
     </row>
     <row r="5">
-      <c r="A5" s="283">
+      <c r="A5" s="297">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -4098,7 +4118,7 @@
       <c r="K5" s="124"/>
     </row>
     <row r="6">
-      <c r="A6" s="283"/>
+      <c r="A6" s="297"/>
       <c r="B6" s="8" t="s">
         <v>45</v>
       </c>
@@ -4113,168 +4133,168 @@
       <c r="K6" s="124"/>
     </row>
     <row r="9">
-      <c r="A9" s="283">
+      <c r="A9" s="297">
         <v>1</v>
       </c>
-      <c r="B9" s="294" t="s">
+      <c r="B9" s="298" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="295"/>
-      <c r="D9" s="295"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="G9" s="295"/>
-      <c r="H9" s="295"/>
-      <c r="I9" s="295"/>
-      <c r="J9" s="295"/>
-      <c r="K9" s="295"/>
+      <c r="C9" s="299"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
+      <c r="I9" s="299"/>
+      <c r="J9" s="299"/>
+      <c r="K9" s="299"/>
     </row>
     <row r="10">
-      <c r="A10" s="283"/>
-      <c r="B10" s="295"/>
-      <c r="C10" s="295"/>
-      <c r="D10" s="295"/>
-      <c r="E10" s="295"/>
-      <c r="F10" s="295"/>
-      <c r="G10" s="295"/>
-      <c r="H10" s="295"/>
-      <c r="I10" s="295"/>
-      <c r="J10" s="295"/>
-      <c r="K10" s="295"/>
+      <c r="A10" s="297"/>
+      <c r="B10" s="299"/>
+      <c r="C10" s="299"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="299"/>
+      <c r="H10" s="299"/>
+      <c r="I10" s="299"/>
+      <c r="J10" s="299"/>
+      <c r="K10" s="299"/>
     </row>
     <row r="11">
-      <c r="A11" s="283"/>
-      <c r="B11" s="295"/>
-      <c r="C11" s="295"/>
-      <c r="D11" s="295"/>
-      <c r="E11" s="295"/>
-      <c r="F11" s="295"/>
-      <c r="G11" s="295"/>
-      <c r="H11" s="295"/>
-      <c r="I11" s="295"/>
-      <c r="J11" s="295"/>
-      <c r="K11" s="295"/>
+      <c r="A11" s="297"/>
+      <c r="B11" s="299"/>
+      <c r="C11" s="299"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="299"/>
+      <c r="H11" s="299"/>
+      <c r="I11" s="299"/>
+      <c r="J11" s="299"/>
+      <c r="K11" s="299"/>
     </row>
     <row r="12">
-      <c r="A12" s="283"/>
-      <c r="B12" s="295"/>
-      <c r="C12" s="295"/>
-      <c r="D12" s="295"/>
-      <c r="E12" s="295"/>
-      <c r="F12" s="295"/>
-      <c r="G12" s="295"/>
-      <c r="H12" s="295"/>
-      <c r="I12" s="295"/>
-      <c r="J12" s="295"/>
-      <c r="K12" s="295"/>
+      <c r="A12" s="297"/>
+      <c r="B12" s="299"/>
+      <c r="C12" s="299"/>
+      <c r="D12" s="299"/>
+      <c r="E12" s="299"/>
+      <c r="F12" s="299"/>
+      <c r="G12" s="299"/>
+      <c r="H12" s="299"/>
+      <c r="I12" s="299"/>
+      <c r="J12" s="299"/>
+      <c r="K12" s="299"/>
     </row>
     <row r="13">
-      <c r="A13" s="283"/>
-      <c r="B13" s="295"/>
-      <c r="C13" s="295"/>
-      <c r="D13" s="295"/>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="295"/>
-      <c r="J13" s="295"/>
-      <c r="K13" s="295"/>
+      <c r="A13" s="297"/>
+      <c r="B13" s="299"/>
+      <c r="C13" s="299"/>
+      <c r="D13" s="299"/>
+      <c r="E13" s="299"/>
+      <c r="F13" s="299"/>
+      <c r="G13" s="299"/>
+      <c r="H13" s="299"/>
+      <c r="I13" s="299"/>
+      <c r="J13" s="299"/>
+      <c r="K13" s="299"/>
     </row>
     <row r="14">
-      <c r="A14" s="283"/>
-      <c r="B14" s="295"/>
-      <c r="C14" s="295"/>
-      <c r="D14" s="295"/>
-      <c r="E14" s="295"/>
-      <c r="F14" s="295"/>
-      <c r="G14" s="295"/>
-      <c r="H14" s="295"/>
-      <c r="I14" s="295"/>
-      <c r="J14" s="295"/>
-      <c r="K14" s="295"/>
+      <c r="A14" s="297"/>
+      <c r="B14" s="299"/>
+      <c r="C14" s="299"/>
+      <c r="D14" s="299"/>
+      <c r="E14" s="299"/>
+      <c r="F14" s="299"/>
+      <c r="G14" s="299"/>
+      <c r="H14" s="299"/>
+      <c r="I14" s="299"/>
+      <c r="J14" s="299"/>
+      <c r="K14" s="299"/>
     </row>
     <row r="15">
-      <c r="A15" s="283">
+      <c r="A15" s="297">
         <v>2</v>
       </c>
-      <c r="B15" s="294" t="s">
+      <c r="B15" s="298" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="295"/>
-      <c r="D15" s="295"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="295"/>
-      <c r="G15" s="295"/>
-      <c r="H15" s="295"/>
-      <c r="I15" s="295"/>
-      <c r="J15" s="295"/>
-      <c r="K15" s="295"/>
+      <c r="C15" s="299"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="299"/>
+      <c r="F15" s="299"/>
+      <c r="G15" s="299"/>
+      <c r="H15" s="299"/>
+      <c r="I15" s="299"/>
+      <c r="J15" s="299"/>
+      <c r="K15" s="299"/>
     </row>
     <row r="16">
-      <c r="A16" s="283"/>
-      <c r="B16" s="295"/>
-      <c r="C16" s="295"/>
-      <c r="D16" s="295"/>
-      <c r="E16" s="295"/>
-      <c r="F16" s="295"/>
-      <c r="G16" s="295"/>
-      <c r="H16" s="295"/>
-      <c r="I16" s="295"/>
-      <c r="J16" s="295"/>
-      <c r="K16" s="295"/>
+      <c r="A16" s="297"/>
+      <c r="B16" s="299"/>
+      <c r="C16" s="299"/>
+      <c r="D16" s="299"/>
+      <c r="E16" s="299"/>
+      <c r="F16" s="299"/>
+      <c r="G16" s="299"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="299"/>
+      <c r="J16" s="299"/>
+      <c r="K16" s="299"/>
     </row>
     <row r="17">
-      <c r="A17" s="283"/>
-      <c r="B17" s="295"/>
-      <c r="C17" s="295"/>
-      <c r="D17" s="295"/>
-      <c r="E17" s="295"/>
-      <c r="F17" s="295"/>
-      <c r="G17" s="295"/>
-      <c r="H17" s="295"/>
-      <c r="I17" s="295"/>
-      <c r="J17" s="295"/>
-      <c r="K17" s="295"/>
+      <c r="A17" s="297"/>
+      <c r="B17" s="299"/>
+      <c r="C17" s="299"/>
+      <c r="D17" s="299"/>
+      <c r="E17" s="299"/>
+      <c r="F17" s="299"/>
+      <c r="G17" s="299"/>
+      <c r="H17" s="299"/>
+      <c r="I17" s="299"/>
+      <c r="J17" s="299"/>
+      <c r="K17" s="299"/>
     </row>
     <row r="18">
-      <c r="A18" s="283"/>
-      <c r="B18" s="295"/>
-      <c r="C18" s="295"/>
-      <c r="D18" s="295"/>
-      <c r="E18" s="295"/>
-      <c r="F18" s="295"/>
-      <c r="G18" s="295"/>
-      <c r="H18" s="295"/>
-      <c r="I18" s="295"/>
-      <c r="J18" s="295"/>
-      <c r="K18" s="295"/>
+      <c r="A18" s="297"/>
+      <c r="B18" s="299"/>
+      <c r="C18" s="299"/>
+      <c r="D18" s="299"/>
+      <c r="E18" s="299"/>
+      <c r="F18" s="299"/>
+      <c r="G18" s="299"/>
+      <c r="H18" s="299"/>
+      <c r="I18" s="299"/>
+      <c r="J18" s="299"/>
+      <c r="K18" s="299"/>
     </row>
     <row r="19">
-      <c r="A19" s="283"/>
-      <c r="B19" s="295"/>
-      <c r="C19" s="295"/>
-      <c r="D19" s="295"/>
-      <c r="E19" s="295"/>
-      <c r="F19" s="295"/>
-      <c r="G19" s="295"/>
-      <c r="H19" s="295"/>
-      <c r="I19" s="295"/>
-      <c r="J19" s="295"/>
-      <c r="K19" s="295"/>
+      <c r="A19" s="297"/>
+      <c r="B19" s="299"/>
+      <c r="C19" s="299"/>
+      <c r="D19" s="299"/>
+      <c r="E19" s="299"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="299"/>
+      <c r="I19" s="299"/>
+      <c r="J19" s="299"/>
+      <c r="K19" s="299"/>
     </row>
     <row r="20">
-      <c r="A20" s="283"/>
-      <c r="B20" s="295"/>
-      <c r="C20" s="295"/>
-      <c r="D20" s="295"/>
-      <c r="E20" s="295"/>
-      <c r="F20" s="295"/>
-      <c r="G20" s="295"/>
-      <c r="H20" s="295"/>
-      <c r="I20" s="295"/>
-      <c r="J20" s="295"/>
-      <c r="K20" s="295"/>
+      <c r="A20" s="297"/>
+      <c r="B20" s="299"/>
+      <c r="C20" s="299"/>
+      <c r="D20" s="299"/>
+      <c r="E20" s="299"/>
+      <c r="F20" s="299"/>
+      <c r="G20" s="299"/>
+      <c r="H20" s="299"/>
+      <c r="I20" s="299"/>
+      <c r="J20" s="299"/>
+      <c r="K20" s="299"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4577,7 +4597,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4605,26 +4625,26 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="268" t="s">
+      <c r="F1" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="275" t="s">
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="256" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="275"/>
+      <c r="K1" s="256"/>
       <c r="L1" s="9"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="246" t="s">
+      <c r="N1" s="247" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="247"/>
-      <c r="P1" s="247"/>
-      <c r="Q1" s="247"/>
-      <c r="R1" s="247"/>
-      <c r="S1" s="248"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="249"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -4636,14 +4656,14 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="266" t="s">
+      <c r="F2" s="258" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266" t="s">
+      <c r="G2" s="258"/>
+      <c r="H2" s="258" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="266"/>
+      <c r="I2" s="258"/>
       <c r="J2" s="9" t="s">
         <v>99</v>
       </c>
@@ -4652,18 +4672,18 @@
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="269" t="s">
+      <c r="N2" s="250" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="270"/>
-      <c r="P2" s="270" t="s">
+      <c r="O2" s="251"/>
+      <c r="P2" s="251" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="270"/>
-      <c r="R2" s="271" t="s">
+      <c r="Q2" s="251"/>
+      <c r="R2" s="252" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="273" t="s">
+      <c r="S2" s="254" t="s">
         <v>129</v>
       </c>
       <c r="T2" s="8"/>
@@ -4705,8 +4725,8 @@
       <c r="Q3" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="272"/>
-      <c r="S3" s="274"/>
+      <c r="R3" s="253"/>
+      <c r="S3" s="255"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -4750,10 +4770,10 @@
         <f>S4*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L4" s="239" t="s">
+      <c r="L4" s="259" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="240"/>
+      <c r="M4" s="260"/>
       <c r="N4" s="60">
         <f>Crop!$C$23*Input!F8</f>
         <v>0</v>
@@ -4821,8 +4841,8 @@
         <f>S5*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L5" s="239"/>
-      <c r="M5" s="240"/>
+      <c r="L5" s="259"/>
+      <c r="M5" s="260"/>
       <c r="N5" s="62">
         <f>Crop!$C$23*Input!F9</f>
         <v>0</v>
@@ -4890,8 +4910,8 @@
         <f>S6*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L6" s="239"/>
-      <c r="M6" s="240"/>
+      <c r="L6" s="259"/>
+      <c r="M6" s="260"/>
       <c r="N6" s="62">
         <f>Crop!$C$23*Input!F10</f>
         <v>0</v>
@@ -4959,8 +4979,8 @@
         <f>S7*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L7" s="239"/>
-      <c r="M7" s="240"/>
+      <c r="L7" s="259"/>
+      <c r="M7" s="260"/>
       <c r="N7" s="63">
         <f>Crop!$C$23*Input!F11</f>
         <v>0</v>
@@ -5349,12 +5369,12 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="234" t="s">
+      <c r="T19" s="241" t="s">
         <v>112</v>
       </c>
-      <c r="U19" s="235"/>
-      <c r="V19" s="235"/>
-      <c r="W19" s="236"/>
+      <c r="U19" s="242"/>
+      <c r="V19" s="242"/>
+      <c r="W19" s="243"/>
     </row>
     <row r="20" ht="15.75" thickBot="true">
       <c r="A20" s="8"/>
@@ -5445,10 +5465,10 @@
         <f t="shared" ref="K21:K27" si="5">Q21*$K$93*$K$112</f>
         <v>0</v>
       </c>
-      <c r="L21" s="239" t="s">
+      <c r="L21" s="259" t="s">
         <v>108</v>
       </c>
-      <c r="M21" s="240"/>
+      <c r="M21" s="260"/>
       <c r="N21" s="190">
         <f>T21*12</f>
         <v>0</v>
@@ -5465,10 +5485,10 @@
         <f t="shared" ref="Q21:Q27" si="8">W21*12</f>
         <v>0</v>
       </c>
-      <c r="R21" s="237" t="s">
+      <c r="R21" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="S21" s="238"/>
+      <c r="S21" s="257"/>
       <c r="T21" s="190">
         <f>shares!H16</f>
         <v>0</v>
@@ -5522,8 +5542,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="239"/>
-      <c r="M22" s="240"/>
+      <c r="L22" s="259"/>
+      <c r="M22" s="260"/>
       <c r="N22" s="193">
         <f t="shared" ref="N22:N27" si="9">T22*12</f>
         <v>0</v>
@@ -5540,8 +5560,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R22" s="237"/>
-      <c r="S22" s="238"/>
+      <c r="R22" s="262"/>
+      <c r="S22" s="257"/>
       <c r="T22" s="193">
         <f>shares!H17</f>
         <v>0</v>
@@ -5595,8 +5615,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="239"/>
-      <c r="M23" s="240"/>
+      <c r="L23" s="259"/>
+      <c r="M23" s="260"/>
       <c r="N23" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5613,8 +5633,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R23" s="237"/>
-      <c r="S23" s="238"/>
+      <c r="R23" s="262"/>
+      <c r="S23" s="257"/>
       <c r="T23" s="193">
         <f>shares!H18</f>
         <v>0</v>
@@ -5668,8 +5688,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="239"/>
-      <c r="M24" s="240"/>
+      <c r="L24" s="259"/>
+      <c r="M24" s="260"/>
       <c r="N24" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5686,8 +5706,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R24" s="237"/>
-      <c r="S24" s="238"/>
+      <c r="R24" s="262"/>
+      <c r="S24" s="257"/>
       <c r="T24" s="195">
         <f>shares!H19</f>
         <v>0</v>
@@ -5741,10 +5761,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="240" t="s">
+      <c r="L25" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="M25" s="240"/>
+      <c r="M25" s="260"/>
       <c r="N25" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5761,10 +5781,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R25" s="237" t="s">
+      <c r="R25" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="S25" s="243"/>
+      <c r="S25" s="277"/>
       <c r="T25" s="190"/>
       <c r="U25" s="191"/>
       <c r="V25" s="191"/>
@@ -5806,8 +5826,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="240"/>
-      <c r="M26" s="240"/>
+      <c r="L26" s="260"/>
+      <c r="M26" s="260"/>
       <c r="N26" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5824,8 +5844,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R26" s="243"/>
-      <c r="S26" s="243"/>
+      <c r="R26" s="277"/>
+      <c r="S26" s="277"/>
       <c r="T26" s="193"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
@@ -5867,8 +5887,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="240"/>
-      <c r="M27" s="240"/>
+      <c r="L27" s="260"/>
+      <c r="M27" s="260"/>
       <c r="N27" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5885,8 +5905,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R27" s="243"/>
-      <c r="S27" s="243"/>
+      <c r="R27" s="277"/>
+      <c r="S27" s="277"/>
       <c r="T27" s="195"/>
       <c r="U27" s="196"/>
       <c r="V27" s="196"/>
@@ -5910,8 +5930,8 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="240"/>
-      <c r="M28" s="240"/>
+      <c r="L28" s="260"/>
+      <c r="M28" s="260"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -6131,12 +6151,12 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="234" t="s">
+      <c r="T37" s="241" t="s">
         <v>142</v>
       </c>
-      <c r="U37" s="235"/>
-      <c r="V37" s="235"/>
-      <c r="W37" s="236"/>
+      <c r="U37" s="242"/>
+      <c r="V37" s="242"/>
+      <c r="W37" s="243"/>
     </row>
     <row r="38" ht="15.75" thickBot="true">
       <c r="A38" s="8"/>
@@ -6227,10 +6247,10 @@
         <f t="shared" ref="K39:K45" si="15">Q39*$K$93*$K$113</f>
         <v>0</v>
       </c>
-      <c r="L39" s="239" t="s">
+      <c r="L39" s="259" t="s">
         <v>108</v>
       </c>
-      <c r="M39" s="240"/>
+      <c r="M39" s="260"/>
       <c r="N39" s="60">
         <f>T39*12</f>
         <v>0</v>
@@ -6247,10 +6267,10 @@
         <f>W39*12</f>
         <v>0</v>
       </c>
-      <c r="R39" s="238" t="s">
+      <c r="R39" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="S39" s="238"/>
+      <c r="S39" s="257"/>
       <c r="T39" s="60">
         <f>shares!H23</f>
         <v>0</v>
@@ -6304,8 +6324,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L40" s="239"/>
-      <c r="M40" s="240"/>
+      <c r="L40" s="259"/>
+      <c r="M40" s="260"/>
       <c r="N40" s="193">
         <f t="shared" ref="N40:N43" si="16">T40*12</f>
         <v>0</v>
@@ -6322,8 +6342,8 @@
         <f t="shared" ref="Q40:Q43" si="19">W40*12</f>
         <v>0</v>
       </c>
-      <c r="R40" s="238"/>
-      <c r="S40" s="238"/>
+      <c r="R40" s="257"/>
+      <c r="S40" s="257"/>
       <c r="T40" s="193">
         <f>shares!H24</f>
         <v>0</v>
@@ -6377,8 +6397,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L41" s="239"/>
-      <c r="M41" s="240"/>
+      <c r="L41" s="259"/>
+      <c r="M41" s="260"/>
       <c r="N41" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6395,8 +6415,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R41" s="238"/>
-      <c r="S41" s="238"/>
+      <c r="R41" s="257"/>
+      <c r="S41" s="257"/>
       <c r="T41" s="193">
         <f>shares!H25</f>
         <v>0</v>
@@ -6450,8 +6470,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L42" s="239"/>
-      <c r="M42" s="240"/>
+      <c r="L42" s="259"/>
+      <c r="M42" s="260"/>
       <c r="N42" s="195">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6468,8 +6488,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R42" s="238"/>
-      <c r="S42" s="238"/>
+      <c r="R42" s="257"/>
+      <c r="S42" s="257"/>
       <c r="T42" s="195">
         <f>shares!H26</f>
         <v>0</v>
@@ -6523,10 +6543,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L43" s="239" t="s">
+      <c r="L43" s="259" t="s">
         <v>108</v>
       </c>
-      <c r="M43" s="240"/>
+      <c r="M43" s="260"/>
       <c r="N43" s="190">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6543,10 +6563,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R43" s="237" t="s">
+      <c r="R43" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="S43" s="243"/>
+      <c r="S43" s="277"/>
       <c r="T43" s="190">
         <f>ser!$C$11*Input!G46</f>
         <v>0</v>
@@ -6600,8 +6620,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L44" s="239"/>
-      <c r="M44" s="240"/>
+      <c r="L44" s="259"/>
+      <c r="M44" s="260"/>
       <c r="N44" s="193">
         <f t="shared" ref="N44:Q45" si="20">T44*12</f>
         <v>0</v>
@@ -6618,8 +6638,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R44" s="243"/>
-      <c r="S44" s="243"/>
+      <c r="R44" s="277"/>
+      <c r="S44" s="277"/>
       <c r="T44" s="193">
         <f>ser!$C$11*Input!G47</f>
         <v>0</v>
@@ -6673,8 +6693,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L45" s="239"/>
-      <c r="M45" s="240"/>
+      <c r="L45" s="259"/>
+      <c r="M45" s="260"/>
       <c r="N45" s="195">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -6691,8 +6711,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R45" s="243"/>
-      <c r="S45" s="243"/>
+      <c r="R45" s="277"/>
+      <c r="S45" s="277"/>
       <c r="T45" s="195">
         <f>ser!$C$11*Input!G48</f>
         <v>0</v>
@@ -6728,8 +6748,8 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="239"/>
-      <c r="M46" s="267"/>
+      <c r="L46" s="259"/>
+      <c r="M46" s="261"/>
       <c r="N46" s="129"/>
       <c r="O46" s="129"/>
       <c r="P46" s="129"/>
@@ -6914,14 +6934,14 @@
       <c r="K54" s="104"/>
       <c r="L54" s="9"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="246" t="s">
+      <c r="N54" s="247" t="s">
         <v>107</v>
       </c>
-      <c r="O54" s="247"/>
-      <c r="P54" s="247"/>
-      <c r="Q54" s="247"/>
-      <c r="R54" s="247"/>
-      <c r="S54" s="248"/>
+      <c r="O54" s="248"/>
+      <c r="P54" s="248"/>
+      <c r="Q54" s="248"/>
+      <c r="R54" s="248"/>
+      <c r="S54" s="249"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
@@ -6945,18 +6965,18 @@
       <c r="K55" s="107"/>
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="249" t="s">
+      <c r="N55" s="279" t="s">
         <v>126</v>
       </c>
-      <c r="O55" s="244"/>
-      <c r="P55" s="244" t="s">
+      <c r="O55" s="240"/>
+      <c r="P55" s="240" t="s">
         <v>127</v>
       </c>
-      <c r="Q55" s="244"/>
-      <c r="R55" s="253" t="s">
+      <c r="Q55" s="240"/>
+      <c r="R55" s="266" t="s">
         <v>128</v>
       </c>
-      <c r="S55" s="262" t="s">
+      <c r="S55" s="272" t="s">
         <v>129</v>
       </c>
       <c r="T55" s="8"/>
@@ -7002,8 +7022,8 @@
       <c r="Q56" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="R56" s="254"/>
-      <c r="S56" s="263"/>
+      <c r="R56" s="267"/>
+      <c r="S56" s="273"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
@@ -7045,10 +7065,10 @@
         <f>S57*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L57" s="239" t="s">
+      <c r="L57" s="259" t="s">
         <v>108</v>
       </c>
-      <c r="M57" s="240"/>
+      <c r="M57" s="260"/>
       <c r="N57" s="60">
         <f>Live!$C$11*Input!F61</f>
         <v>0</v>
@@ -7114,8 +7134,8 @@
         <f>S58*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L58" s="239"/>
-      <c r="M58" s="240"/>
+      <c r="L58" s="259"/>
+      <c r="M58" s="260"/>
       <c r="N58" s="62">
         <f>Live!$C$11*Input!F62</f>
         <v>0</v>
@@ -7181,8 +7201,8 @@
         <f>S59*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L59" s="239"/>
-      <c r="M59" s="240"/>
+      <c r="L59" s="259"/>
+      <c r="M59" s="260"/>
       <c r="N59" s="62">
         <f>Live!$C$11*Input!F63</f>
         <v>0</v>
@@ -7248,8 +7268,8 @@
         <f>S60*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L60" s="239"/>
-      <c r="M60" s="240"/>
+      <c r="L60" s="259"/>
+      <c r="M60" s="260"/>
       <c r="N60" s="63">
         <f>Live!$C$11*Input!F64</f>
         <v>0</v>
@@ -7588,12 +7608,12 @@
       <c r="K72" s="107"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="244" t="s">
+      <c r="N72" s="240" t="s">
         <v>103</v>
       </c>
-      <c r="O72" s="244"/>
-      <c r="P72" s="244"/>
-      <c r="Q72" s="244"/>
+      <c r="O72" s="240"/>
+      <c r="P72" s="240"/>
+      <c r="Q72" s="240"/>
       <c r="R72" s="8"/>
     </row>
     <row r="73">
@@ -7622,14 +7642,14 @@
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="245" t="s">
+      <c r="N73" s="278" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="245"/>
-      <c r="P73" s="245" t="s">
+      <c r="O73" s="278"/>
+      <c r="P73" s="278" t="s">
         <v>104</v>
       </c>
-      <c r="Q73" s="245"/>
+      <c r="Q73" s="278"/>
       <c r="R73" s="8"/>
     </row>
     <row r="74">
@@ -7706,10 +7726,10 @@
         <f>Q75*$G93</f>
         <v>0</v>
       </c>
-      <c r="L75" s="241" t="s">
+      <c r="L75" s="275" t="s">
         <v>109</v>
       </c>
-      <c r="M75" s="242"/>
+      <c r="M75" s="276"/>
       <c r="N75" s="97">
         <f>wages!C7</f>
         <v>0</v>
@@ -7727,14 +7747,14 @@
         <v>0</v>
       </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="264" t="s">
+      <c r="S75" s="274" t="s">
         <v>163</v>
       </c>
-      <c r="T75" s="264"/>
-      <c r="U75" s="264"/>
-      <c r="V75" s="264"/>
-      <c r="W75" s="264"/>
-      <c r="X75" s="264"/>
+      <c r="T75" s="274"/>
+      <c r="U75" s="274"/>
+      <c r="V75" s="274"/>
+      <c r="W75" s="274"/>
+      <c r="X75" s="274"/>
     </row>
     <row r="76">
       <c r="A76" s="8"/>
@@ -7811,22 +7831,22 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="234" t="s">
+      <c r="N78" s="241" t="s">
         <v>110</v>
       </c>
-      <c r="O78" s="235"/>
-      <c r="P78" s="235"/>
-      <c r="Q78" s="235"/>
-      <c r="R78" s="235"/>
-      <c r="S78" s="236"/>
-      <c r="T78" s="234" t="s">
+      <c r="O78" s="242"/>
+      <c r="P78" s="242"/>
+      <c r="Q78" s="242"/>
+      <c r="R78" s="242"/>
+      <c r="S78" s="243"/>
+      <c r="T78" s="241" t="s">
         <v>146</v>
       </c>
-      <c r="U78" s="235"/>
-      <c r="V78" s="235"/>
-      <c r="W78" s="235"/>
-      <c r="X78" s="235"/>
-      <c r="Y78" s="236"/>
+      <c r="U78" s="242"/>
+      <c r="V78" s="242"/>
+      <c r="W78" s="242"/>
+      <c r="X78" s="242"/>
+      <c r="Y78" s="243"/>
     </row>
     <row r="79" ht="15.75" thickBot="true">
       <c r="A79" s="8"/>
@@ -7846,32 +7866,32 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="260" t="s">
+      <c r="N79" s="244" t="s">
         <v>126</v>
       </c>
-      <c r="O79" s="261"/>
-      <c r="P79" s="234" t="s">
+      <c r="O79" s="245"/>
+      <c r="P79" s="241" t="s">
         <v>127</v>
       </c>
-      <c r="Q79" s="235"/>
-      <c r="R79" s="258" t="s">
+      <c r="Q79" s="242"/>
+      <c r="R79" s="238" t="s">
         <v>143</v>
       </c>
-      <c r="S79" s="258" t="s">
+      <c r="S79" s="238" t="s">
         <v>144</v>
       </c>
-      <c r="T79" s="260" t="s">
+      <c r="T79" s="244" t="s">
         <v>126</v>
       </c>
-      <c r="U79" s="261"/>
-      <c r="V79" s="234" t="s">
+      <c r="U79" s="245"/>
+      <c r="V79" s="241" t="s">
         <v>127</v>
       </c>
-      <c r="W79" s="235"/>
-      <c r="X79" s="258" t="s">
+      <c r="W79" s="242"/>
+      <c r="X79" s="238" t="s">
         <v>143</v>
       </c>
-      <c r="Y79" s="258" t="s">
+      <c r="Y79" s="238" t="s">
         <v>144</v>
       </c>
     </row>
@@ -7905,8 +7925,8 @@
       <c r="Q80" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="R80" s="259"/>
-      <c r="S80" s="259"/>
+      <c r="R80" s="271"/>
+      <c r="S80" s="271"/>
       <c r="T80" s="123" t="s">
         <v>116</v>
       </c>
@@ -7919,8 +7939,8 @@
       <c r="W80" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="X80" s="265"/>
-      <c r="Y80" s="265"/>
+      <c r="X80" s="239"/>
+      <c r="Y80" s="239"/>
     </row>
     <row r="81">
       <c r="A81" s="8"/>
@@ -7954,10 +7974,10 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L81" s="251" t="s">
+      <c r="L81" s="264" t="s">
         <v>170</v>
       </c>
-      <c r="M81" s="252"/>
+      <c r="M81" s="265"/>
       <c r="N81" s="97"/>
       <c r="O81" s="97"/>
       <c r="P81" s="97"/>
@@ -7997,24 +8017,24 @@
       <c r="K82" s="68">
         <v>0</v>
       </c>
-      <c r="L82" s="251"/>
-      <c r="M82" s="252"/>
-      <c r="N82" s="255" t="s">
+      <c r="L82" s="264"/>
+      <c r="M82" s="265"/>
+      <c r="N82" s="268" t="s">
         <v>111</v>
       </c>
-      <c r="O82" s="256"/>
-      <c r="P82" s="256"/>
-      <c r="Q82" s="256"/>
-      <c r="R82" s="256"/>
-      <c r="S82" s="257"/>
-      <c r="T82" s="244" t="s">
+      <c r="O82" s="269"/>
+      <c r="P82" s="269"/>
+      <c r="Q82" s="269"/>
+      <c r="R82" s="269"/>
+      <c r="S82" s="270"/>
+      <c r="T82" s="240" t="s">
         <v>145</v>
       </c>
-      <c r="U82" s="244"/>
-      <c r="V82" s="244"/>
-      <c r="W82" s="244"/>
-      <c r="X82" s="244"/>
-      <c r="Y82" s="244"/>
+      <c r="U82" s="240"/>
+      <c r="V82" s="240"/>
+      <c r="W82" s="240"/>
+      <c r="X82" s="240"/>
+      <c r="Y82" s="240"/>
     </row>
     <row r="83">
       <c r="A83" s="8"/>
@@ -8504,7 +8524,7 @@
       <c r="I97" s="226"/>
       <c r="J97" s="226"/>
       <c r="K97" s="226"/>
-      <c r="L97" s="250" t="s">
+      <c r="L97" s="263" t="s">
         <v>115</v>
       </c>
       <c r="M97" s="8"/>
@@ -8537,7 +8557,7 @@
       <c r="I98" s="226"/>
       <c r="J98" s="226"/>
       <c r="K98" s="226"/>
-      <c r="L98" s="250"/>
+      <c r="L98" s="263"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8" t="s">
@@ -8570,7 +8590,7 @@
       <c r="I99" s="226"/>
       <c r="J99" s="226"/>
       <c r="K99" s="226"/>
-      <c r="L99" s="250"/>
+      <c r="L99" s="263"/>
       <c r="M99" s="8"/>
       <c r="N99" s="219" t="s">
         <v>189</v>
@@ -8612,7 +8632,7 @@
       <c r="I100" s="226"/>
       <c r="J100" s="226"/>
       <c r="K100" s="226"/>
-      <c r="L100" s="250"/>
+      <c r="L100" s="263"/>
       <c r="M100" s="8"/>
       <c r="N100" s="221" t="s">
         <v>193</v>
@@ -8727,11 +8747,11 @@
       <c r="I103" s="228"/>
       <c r="J103" s="228"/>
       <c r="K103" s="228"/>
-      <c r="L103" s="237" t="s">
+      <c r="L103" s="262" t="s">
         <v>114</v>
       </c>
-      <c r="M103" s="237"/>
-      <c r="N103" s="237"/>
+      <c r="M103" s="262"/>
+      <c r="N103" s="262"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
@@ -8760,9 +8780,9 @@
       <c r="I104" s="228"/>
       <c r="J104" s="228"/>
       <c r="K104" s="228"/>
-      <c r="L104" s="237"/>
-      <c r="M104" s="237"/>
-      <c r="N104" s="237"/>
+      <c r="L104" s="262"/>
+      <c r="M104" s="262"/>
+      <c r="N104" s="262"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
@@ -8791,9 +8811,9 @@
       <c r="I105" s="228"/>
       <c r="J105" s="228"/>
       <c r="K105" s="228"/>
-      <c r="L105" s="237"/>
-      <c r="M105" s="237"/>
-      <c r="N105" s="237"/>
+      <c r="L105" s="262"/>
+      <c r="M105" s="262"/>
+      <c r="N105" s="262"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
@@ -8822,9 +8842,9 @@
       <c r="I106" s="228"/>
       <c r="J106" s="228"/>
       <c r="K106" s="228"/>
-      <c r="L106" s="237"/>
-      <c r="M106" s="237"/>
-      <c r="N106" s="237"/>
+      <c r="L106" s="262"/>
+      <c r="M106" s="262"/>
+      <c r="N106" s="262"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
@@ -8853,9 +8873,9 @@
       <c r="I107" s="228"/>
       <c r="J107" s="228"/>
       <c r="K107" s="228"/>
-      <c r="L107" s="237"/>
-      <c r="M107" s="237"/>
-      <c r="N107" s="237"/>
+      <c r="L107" s="262"/>
+      <c r="M107" s="262"/>
+      <c r="N107" s="262"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
@@ -8884,9 +8904,9 @@
       <c r="I108" s="229"/>
       <c r="J108" s="229"/>
       <c r="K108" s="229"/>
-      <c r="L108" s="237"/>
-      <c r="M108" s="237"/>
-      <c r="N108" s="237"/>
+      <c r="L108" s="262"/>
+      <c r="M108" s="262"/>
+      <c r="N108" s="262"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
@@ -8915,9 +8935,9 @@
       <c r="I109" s="229"/>
       <c r="J109" s="229"/>
       <c r="K109" s="229"/>
-      <c r="L109" s="237"/>
-      <c r="M109" s="237"/>
-      <c r="N109" s="237"/>
+      <c r="L109" s="262"/>
+      <c r="M109" s="262"/>
+      <c r="N109" s="262"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -8946,9 +8966,9 @@
       <c r="I110" s="229"/>
       <c r="J110" s="229"/>
       <c r="K110" s="229"/>
-      <c r="L110" s="237"/>
-      <c r="M110" s="237"/>
-      <c r="N110" s="237"/>
+      <c r="L110" s="262"/>
+      <c r="M110" s="262"/>
+      <c r="N110" s="262"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
@@ -9028,36 +9048,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="Y79:Y80"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="R39:S42"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L4:M7"/>
-    <mergeCell ref="L43:M46"/>
-    <mergeCell ref="L103:N110"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="L81:M82"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="N82:S82"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S75:X75"/>
-    <mergeCell ref="X79:X80"/>
     <mergeCell ref="T19:W19"/>
     <mergeCell ref="R21:S24"/>
     <mergeCell ref="L21:M24"/>
@@ -9074,6 +9064,36 @@
     <mergeCell ref="L57:M60"/>
     <mergeCell ref="L39:M42"/>
     <mergeCell ref="L25:M28"/>
+    <mergeCell ref="L103:N110"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="L81:M82"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="N82:S82"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S75:X75"/>
+    <mergeCell ref="X79:X80"/>
+    <mergeCell ref="R39:S42"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="L43:M46"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="Y79:Y80"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9086,7 +9106,7 @@
   <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9115,16 +9135,16 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="268" t="s">
+      <c r="F1" s="246" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="275" t="s">
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="256" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="275"/>
+      <c r="K1" s="256"/>
       <c r="L1" s="157" t="s">
         <v>162</v>
       </c>
@@ -9138,26 +9158,26 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="266" t="s">
+      <c r="F2" s="258" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266" t="s">
+      <c r="G2" s="258"/>
+      <c r="H2" s="258" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="266"/>
+      <c r="I2" s="258"/>
       <c r="J2" s="9" t="s">
         <v>99</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="276" t="s">
+      <c r="M2" s="280" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="276"/>
-      <c r="O2" s="276"/>
-      <c r="P2" s="276"/>
+      <c r="N2" s="280"/>
+      <c r="O2" s="280"/>
+      <c r="P2" s="280"/>
       <c r="Q2" t="s">
         <v>150</v>
       </c>
@@ -13456,10 +13476,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:AE31"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -13491,98 +13511,114 @@
     <col min="27" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="4">
-      <c r="B4"/>
-      <c r="C4" t="s">
+    <row r="1">
+      <c r="B1" s="237" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="237" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+    </row>
+    <row r="8">
+      <c r="B8"/>
+      <c r="C8" t="s">
         <v>204</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" t="s">
         <v>204</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5"/>
-      <c r="C5" t="s">
+    <row r="9">
+      <c r="B9"/>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E9" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="232">
-        <v>0.13793697872754149</v>
-      </c>
-      <c r="D6" s="232">
-        <v>0.023991186284097112</v>
-      </c>
-      <c r="E6" s="224">
-        <v>3.2329362602268186e-008</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="232">
-        <v>0.19916004119058783</v>
-      </c>
-      <c r="D7" s="232">
-        <v>0.054464984261566499</v>
-      </c>
-      <c r="E7" s="224">
-        <v>0.00032514405893362575</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="232">
-        <v>0.29842619443442686</v>
-      </c>
-      <c r="D8" s="232">
-        <v>0.047174445298706486</v>
-      </c>
-      <c r="E8" s="224">
-        <v>1.5638022571264586e-009</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="232">
-        <v>0.36447678564742603</v>
-      </c>
-      <c r="D9" s="232">
-        <v>0.05892632906679434</v>
-      </c>
-      <c r="E9" s="224">
-        <v>3.3319689718487187e-009</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="232">
+        <v>0.13793697872754149</v>
+      </c>
+      <c r="D10" s="232">
+        <v>2.3991186284097112E-2</v>
+      </c>
+      <c r="E10" s="224">
+        <v>3.2329362602268186E-8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="232">
+        <v>0.19916004119058783</v>
+      </c>
+      <c r="D11" s="232">
+        <v>5.4464984261566499E-2</v>
+      </c>
+      <c r="E11" s="224">
+        <v>3.2514405893362575E-4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="232">
+        <v>0.29842619443442686</v>
+      </c>
+      <c r="D12" s="232">
+        <v>4.7174445298706486E-2</v>
+      </c>
+      <c r="E12" s="224">
+        <v>1.5638022571264586E-9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C13" s="232">
+        <v>0.36447678564742603</v>
+      </c>
+      <c r="D13" s="232">
+        <v>5.892632906679434E-2</v>
+      </c>
+      <c r="E13" s="224">
+        <v>3.3319689718487187E-9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
         <v>196</v>
       </c>
-      <c r="C10" s="232">
+      <c r="C14" s="232">
         <v>3.9689590463927971</v>
       </c>
-      <c r="D10" s="232">
+      <c r="D14" s="232">
         <v>0.51032720213225158</v>
       </c>
-      <c r="E10" s="224">
-        <v>3.6083130404474859e-013</v>
+      <c r="E14" s="224">
+        <v>3.6083130404474859E-13</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="true"/>
@@ -13618,48 +13654,48 @@
     </row>
     <row r="21" s="35" customFormat="true" ht="18.75" customHeight="true">
       <c r="A21" s="34"/>
-      <c r="B21" s="277" t="s">
+      <c r="B21" s="281" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="278"/>
-      <c r="D21" s="278"/>
-      <c r="E21" s="278"/>
-      <c r="F21" s="279"/>
-      <c r="G21" s="277" t="s">
+      <c r="C21" s="282"/>
+      <c r="D21" s="282"/>
+      <c r="E21" s="282"/>
+      <c r="F21" s="283"/>
+      <c r="G21" s="281" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="278"/>
-      <c r="I21" s="278"/>
-      <c r="J21" s="278"/>
-      <c r="K21" s="279"/>
-      <c r="L21" s="277" t="s">
+      <c r="H21" s="282"/>
+      <c r="I21" s="282"/>
+      <c r="J21" s="282"/>
+      <c r="K21" s="283"/>
+      <c r="L21" s="281" t="s">
         <v>120</v>
       </c>
-      <c r="M21" s="278"/>
-      <c r="N21" s="278"/>
-      <c r="O21" s="278"/>
-      <c r="P21" s="279"/>
-      <c r="Q21" s="277" t="s">
+      <c r="M21" s="282"/>
+      <c r="N21" s="282"/>
+      <c r="O21" s="282"/>
+      <c r="P21" s="283"/>
+      <c r="Q21" s="281" t="s">
         <v>121</v>
       </c>
-      <c r="R21" s="278"/>
-      <c r="S21" s="278"/>
-      <c r="T21" s="278"/>
-      <c r="U21" s="279"/>
-      <c r="V21" s="277" t="s">
+      <c r="R21" s="282"/>
+      <c r="S21" s="282"/>
+      <c r="T21" s="282"/>
+      <c r="U21" s="283"/>
+      <c r="V21" s="281" t="s">
         <v>122</v>
       </c>
-      <c r="W21" s="278"/>
-      <c r="X21" s="278"/>
-      <c r="Y21" s="278"/>
-      <c r="Z21" s="279"/>
-      <c r="AA21" s="277" t="s">
+      <c r="W21" s="282"/>
+      <c r="X21" s="282"/>
+      <c r="Y21" s="282"/>
+      <c r="Z21" s="283"/>
+      <c r="AA21" s="281" t="s">
         <v>123</v>
       </c>
-      <c r="AB21" s="278"/>
-      <c r="AC21" s="278"/>
-      <c r="AD21" s="278"/>
-      <c r="AE21" s="279"/>
+      <c r="AB21" s="282"/>
+      <c r="AC21" s="282"/>
+      <c r="AD21" s="282"/>
+      <c r="AE21" s="283"/>
     </row>
     <row r="22" s="42" customFormat="true" ht="18.75" customHeight="true">
       <c r="A22" s="43" t="s">
@@ -13814,10 +13850,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:H11"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13825,182 +13861,217 @@
     <col min="3" max="8" width="13.28515625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="4">
-      <c r="C4" t="s">
+    <row r="1">
+      <c r="C1" s="237" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+    </row>
+    <row r="2">
+      <c r="C2" t="s">
         <v>197</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="300">
+        <v>20994.603755950928</v>
+      </c>
+      <c r="D3" s="300">
+        <v>61609.917491912842</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="237" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+    </row>
+    <row r="8">
+      <c r="C8" t="s">
         <v>197</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D8" t="s">
         <v>197</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" t="s">
         <v>199</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G8" t="s">
         <v>199</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H8" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" t="s">
+    <row r="9">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E9" t="s">
         <v>198</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F9" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H9" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="232">
-        <v>0.074865663773473728</v>
-      </c>
-      <c r="D6" s="232">
-        <v>0.065354624933882013</v>
-      </c>
-      <c r="E6" s="231">
-        <v>0.25563193493742392</v>
-      </c>
-      <c r="F6" s="233">
-        <v>0.076711975201767119</v>
-      </c>
-      <c r="G6" s="233">
-        <v>0.11014565195885229</v>
-      </c>
-      <c r="H6" s="231">
-        <v>0.49061388368443326</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="232">
-        <v>0.42071535533413601</v>
-      </c>
-      <c r="D7" s="232">
-        <v>0.062818351456444904</v>
-      </c>
-      <c r="E7" s="231">
-        <v>3.4095791605217038e-009</v>
-      </c>
-      <c r="F7" s="233">
-        <v>0.15258533068578345</v>
-      </c>
-      <c r="G7" s="233">
-        <v>0.078367718978273604</v>
-      </c>
-      <c r="H7" s="231">
-        <v>0.059363666284384373</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="232">
-        <v>0.0075961411857523864</v>
-      </c>
-      <c r="D8" s="232">
-        <v>0.04713674699550742</v>
-      </c>
-      <c r="E8" s="231">
-        <v>0.87240766069619857</v>
-      </c>
-      <c r="F8" s="233">
-        <v>0.014327111685477928</v>
-      </c>
-      <c r="G8" s="233">
-        <v>0.068052914995889183</v>
-      </c>
-      <c r="H8" s="231">
-        <v>0.83444193098716379</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="232">
-        <v>0.30972382048375446</v>
-      </c>
-      <c r="D9" s="232">
-        <v>0.073394136153984033</v>
-      </c>
-      <c r="E9" s="231">
-        <v>6.7686242494784319e-005</v>
-      </c>
-      <c r="F9" s="233">
-        <v>0.40860335955981752</v>
-      </c>
-      <c r="G9" s="233">
-        <v>0.12118964318395592</v>
-      </c>
-      <c r="H9">
-        <v>0.0017970633170530409</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C10" s="232">
-        <v>0.18709901922288166</v>
+        <v>0.093833760785695802</v>
       </c>
       <c r="D10" s="232">
-        <v>0.080563658712412639</v>
+        <v>0.07185686724409554</v>
       </c>
       <c r="E10" s="231">
-        <v>0.022928466585313528</v>
+        <v>0.1955449614799713</v>
       </c>
       <c r="F10" s="233">
-        <v>0.34777222286715603</v>
+        <v>0.1342441075619096</v>
       </c>
       <c r="G10" s="233">
-        <v>0.1276502846859173</v>
+        <v>0.11418217520382158</v>
       </c>
       <c r="H10" s="231">
-        <v>0.0098775138616269808</v>
+        <v>0.24722428494273849</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="232">
+        <v>0.47889167678351219</v>
+      </c>
+      <c r="D11" s="232">
+        <v>0.055112282645096822</v>
+      </c>
+      <c r="E11" s="231">
+        <v>5.2546492952986508e-013</v>
+      </c>
+      <c r="F11" s="233">
+        <v>0.27044208434582595</v>
+      </c>
+      <c r="G11" s="233">
+        <v>0.085461973648246869</v>
+      </c>
+      <c r="H11" s="231">
+        <v>0.0031030321743453953</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="232">
+        <v>0.017287341950584234</v>
+      </c>
+      <c r="D12" s="232">
+        <v>0.044576688459373445</v>
+      </c>
+      <c r="E12" s="231">
+        <v>0.69923978020750654</v>
+      </c>
+      <c r="F12" s="233">
+        <v>0.077140958733357023</v>
+      </c>
+      <c r="G12" s="233">
+        <v>0.10227471789339684</v>
+      </c>
+      <c r="H12" s="231">
+        <v>0.45547144346380819</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="232">
+        <v>0.40998722048020797</v>
+      </c>
+      <c r="D13" s="232">
+        <v>0.058684969644739557</v>
+      </c>
+      <c r="E13" s="231">
+        <v>9.3210044788086404e-010</v>
+      </c>
+      <c r="F13" s="233">
+        <v>0.51817284935891106</v>
+      </c>
+      <c r="G13" s="233">
+        <v>0.084764499759858378</v>
+      </c>
+      <c r="H13">
+        <v>4.4136867910530823e-007</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
         <v>196</v>
       </c>
-      <c r="C11">
+      <c r="C14" s="232">
+        <v>2.1411559282179766</v>
+      </c>
+      <c r="D14" s="232">
+        <v>0.12779024981246492</v>
+      </c>
+      <c r="E14" s="231">
+        <v>3.1065314399800736e-027</v>
+      </c>
+      <c r="F14" s="233">
+        <v>1.9431455923076992</v>
+      </c>
+      <c r="G14" s="233">
+        <v>0.15944438644375614</v>
+      </c>
+      <c r="H14" s="231">
+        <v>1.6101608486731549e-014</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15">
         <v>2.1769753978679081</v>
       </c>
-      <c r="D11">
+      <c r="D15">
         <v>0.11831685626228974</v>
       </c>
-      <c r="E11">
-        <v>1.5865276778279659e-029</v>
-      </c>
-      <c r="F11">
+      <c r="E15">
+        <v>1.5865276778279659E-29</v>
+      </c>
+      <c r="F15">
         <v>1.9732489077055702</v>
       </c>
-      <c r="G11">
+      <c r="G15">
         <v>0.16316803071874686</v>
       </c>
-      <c r="H11">
-        <v>3.0707887654430226e-014</v>
+      <c r="H15">
+        <v>3.0707887654430226E-14</v>
       </c>
     </row>
   </sheetData>
@@ -14010,13 +14081,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:K23"/>
+  <dimension ref="A4:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12.85546875" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="4">
       <c r="C4" t="s">
@@ -14077,100 +14152,97 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
       <c r="B6" t="s">
         <v>205</v>
       </c>
       <c r="C6" s="232">
-        <v>1.4291321000133392</v>
+        <v>0.41996457183493163</v>
       </c>
       <c r="D6" s="232">
-        <v>1.3192868225102106</v>
+        <v>0.4455317604991556</v>
       </c>
       <c r="E6" s="231">
-        <v>0.47456993297242717</v>
+        <v>0.44537916668645683</v>
       </c>
       <c r="F6" s="233">
-        <v>0.58959092781211508</v>
+        <v>0.41139039453927051</v>
       </c>
       <c r="G6" s="233">
-        <v>0.28944734245549447</v>
+        <v>0.26973411122814583</v>
       </c>
       <c r="H6" s="231">
-        <v>0.13444026331482634</v>
+        <v>0.22462831820269957</v>
       </c>
       <c r="I6" s="232">
-        <v>1.5718558974235539</v>
+        <v>0.30343858532672968</v>
       </c>
       <c r="J6" s="232">
-        <v>0.23039622509860405</v>
+        <v>0.16824868460079506</v>
       </c>
       <c r="K6" s="231">
-        <v>2.8671619445748934E-5</v>
+        <v>9.1427160847888378E-2</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="232">
+        <v>3.1134075856895715</v>
+      </c>
+      <c r="D7" s="232">
+        <v>0.81933700390892095</v>
+      </c>
+      <c r="E7" s="231">
+        <v>6.2801789420989101E-2</v>
+      </c>
+      <c r="F7" s="233">
+        <v>3.5289531599374384</v>
+      </c>
+      <c r="G7" s="233">
+        <v>0.72779529261145504</v>
+      </c>
+      <c r="H7" s="231">
+        <v>1.6740167648320745E-2</v>
+      </c>
+      <c r="I7" s="232">
+        <v>3.3833392395551938</v>
+      </c>
+      <c r="J7" s="232">
+        <v>0.28823205811531599</v>
+      </c>
+      <c r="K7" s="231">
+        <v>5.8399021067159562E-9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="232">
-        <v>-0.42913210001333923</v>
-      </c>
-      <c r="D7" s="232">
-        <v>1.3192868225102106</v>
-      </c>
-      <c r="E7" s="231">
-        <v>0.7997949567396786</v>
-      </c>
-      <c r="F7" s="233">
-        <v>0.41040907218788492</v>
-      </c>
-      <c r="G7" s="233">
-        <v>0.28944734245549447</v>
-      </c>
-      <c r="H7" s="231">
-        <v>0.25124042285510489</v>
-      </c>
-      <c r="I7" s="232">
-        <v>-0.57185589742355392</v>
-      </c>
-      <c r="J7" s="232">
-        <v>0.23039622509860405</v>
-      </c>
-      <c r="K7" s="231">
-        <v>3.0462378781284005E-2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="232">
-        <v>2.885077525748637</v>
-      </c>
-      <c r="D8" s="232">
-        <v>2.3798273002550308</v>
-      </c>
-      <c r="E8" s="231">
-        <v>0.43909286018758115</v>
-      </c>
-      <c r="F8" s="233">
-        <v>0.537432362258637</v>
-      </c>
-      <c r="G8" s="233">
-        <v>1.1249891747318206</v>
-      </c>
-      <c r="H8" s="231">
-        <v>0.66549676308692662</v>
-      </c>
-      <c r="I8" s="232">
-        <v>4.9429869029129634</v>
-      </c>
-      <c r="J8" s="232">
-        <v>0.86564465393878764</v>
-      </c>
-      <c r="K8" s="231">
-        <v>1.3612870925242183E-4</v>
-      </c>
+      <c r="C8" s="236">
+        <f>1-C6</f>
+        <v>0.58003542816506837</v>
+      </c>
+      <c r="D8" s="214"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="236">
+        <f>1-F6</f>
+        <v>0.58860960546072949</v>
+      </c>
+      <c r="G8" s="235"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="236">
+        <f>1-I6</f>
+        <v>0.69656141467327037</v>
+      </c>
+      <c r="J8" s="214"/>
+      <c r="K8" s="231"/>
     </row>
     <row r="20">
       <c r="C20" t="s">
@@ -14222,7 +14294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A8:AE11"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
@@ -14274,48 +14346,48 @@
     </row>
     <row r="9" s="35" customFormat="true" ht="18.75" customHeight="true">
       <c r="A9" s="34"/>
-      <c r="B9" s="277" t="s">
+      <c r="B9" s="281" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="278"/>
-      <c r="D9" s="278"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="277" t="s">
+      <c r="C9" s="282"/>
+      <c r="D9" s="282"/>
+      <c r="E9" s="282"/>
+      <c r="F9" s="283"/>
+      <c r="G9" s="281" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="278"/>
-      <c r="I9" s="278"/>
-      <c r="J9" s="278"/>
-      <c r="K9" s="279"/>
-      <c r="L9" s="277" t="s">
+      <c r="H9" s="282"/>
+      <c r="I9" s="282"/>
+      <c r="J9" s="282"/>
+      <c r="K9" s="283"/>
+      <c r="L9" s="281" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="278"/>
-      <c r="N9" s="278"/>
-      <c r="O9" s="278"/>
-      <c r="P9" s="279"/>
-      <c r="Q9" s="277" t="s">
+      <c r="M9" s="282"/>
+      <c r="N9" s="282"/>
+      <c r="O9" s="282"/>
+      <c r="P9" s="283"/>
+      <c r="Q9" s="281" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="278"/>
-      <c r="S9" s="278"/>
-      <c r="T9" s="278"/>
-      <c r="U9" s="279"/>
-      <c r="V9" s="277" t="s">
+      <c r="R9" s="282"/>
+      <c r="S9" s="282"/>
+      <c r="T9" s="282"/>
+      <c r="U9" s="283"/>
+      <c r="V9" s="281" t="s">
         <v>122</v>
       </c>
-      <c r="W9" s="278"/>
-      <c r="X9" s="278"/>
-      <c r="Y9" s="278"/>
-      <c r="Z9" s="279"/>
-      <c r="AA9" s="277" t="s">
+      <c r="W9" s="282"/>
+      <c r="X9" s="282"/>
+      <c r="Y9" s="282"/>
+      <c r="Z9" s="283"/>
+      <c r="AA9" s="281" t="s">
         <v>123</v>
       </c>
-      <c r="AB9" s="278"/>
-      <c r="AC9" s="278"/>
-      <c r="AD9" s="278"/>
-      <c r="AE9" s="279"/>
+      <c r="AB9" s="282"/>
+      <c r="AC9" s="282"/>
+      <c r="AD9" s="282"/>
+      <c r="AE9" s="283"/>
     </row>
     <row r="10" s="42" customFormat="true" ht="18.75" customHeight="true">
       <c r="A10" s="43" t="s">

--- a/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="222">
   <si>
     <t>Variable</t>
   </si>
@@ -828,6 +828,15 @@
   </si>
   <si>
     <t>rev_fish</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>nonfarm</t>
+  </si>
+  <si>
+    <t>agri_household</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1516,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1920,42 +1929,112 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
     <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
@@ -1977,75 +2056,6 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
@@ -2067,6 +2077,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
@@ -2098,15 +2111,12 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2610,34 +2620,34 @@
     </row>
     <row r="9">
       <c r="A9" s="19"/>
-      <c r="B9" s="284" t="s">
+      <c r="B9" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="285"/>
-      <c r="D9" s="285"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="286"/>
-      <c r="G9" s="284" t="s">
+      <c r="C9" s="286"/>
+      <c r="D9" s="286"/>
+      <c r="E9" s="286"/>
+      <c r="F9" s="287"/>
+      <c r="G9" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="285"/>
-      <c r="K9" s="286"/>
-      <c r="L9" s="284" t="s">
+      <c r="H9" s="286"/>
+      <c r="I9" s="286"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="287"/>
+      <c r="L9" s="285" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="285"/>
-      <c r="N9" s="285"/>
-      <c r="O9" s="285"/>
-      <c r="P9" s="286"/>
-      <c r="Q9" s="284" t="s">
+      <c r="M9" s="286"/>
+      <c r="N9" s="286"/>
+      <c r="O9" s="286"/>
+      <c r="P9" s="287"/>
+      <c r="Q9" s="285" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="285"/>
-      <c r="S9" s="285"/>
-      <c r="T9" s="285"/>
-      <c r="U9" s="286"/>
+      <c r="R9" s="286"/>
+      <c r="S9" s="286"/>
+      <c r="T9" s="286"/>
+      <c r="U9" s="287"/>
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
@@ -2841,34 +2851,34 @@
     </row>
     <row r="9">
       <c r="A9" s="19"/>
-      <c r="B9" s="284" t="s">
+      <c r="B9" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="285"/>
-      <c r="D9" s="285"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="286"/>
-      <c r="G9" s="284" t="s">
+      <c r="C9" s="286"/>
+      <c r="D9" s="286"/>
+      <c r="E9" s="286"/>
+      <c r="F9" s="287"/>
+      <c r="G9" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="285"/>
-      <c r="K9" s="286"/>
-      <c r="L9" s="284" t="s">
+      <c r="H9" s="286"/>
+      <c r="I9" s="286"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="287"/>
+      <c r="L9" s="285" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="285"/>
-      <c r="N9" s="285"/>
-      <c r="O9" s="285"/>
-      <c r="P9" s="286"/>
-      <c r="Q9" s="284" t="s">
+      <c r="M9" s="286"/>
+      <c r="N9" s="286"/>
+      <c r="O9" s="286"/>
+      <c r="P9" s="287"/>
+      <c r="Q9" s="285" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="285"/>
-      <c r="S9" s="285"/>
-      <c r="T9" s="285"/>
-      <c r="U9" s="286"/>
+      <c r="R9" s="286"/>
+      <c r="S9" s="286"/>
+      <c r="T9" s="286"/>
+      <c r="U9" s="287"/>
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
@@ -3011,11 +3021,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="288" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="297"/>
-      <c r="C3" s="297"/>
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
     </row>
     <row r="4">
       <c r="B4" t="s">
@@ -3040,11 +3050,11 @@
       <c r="C6" s="7"/>
     </row>
     <row r="9">
-      <c r="A9" s="297" t="s">
+      <c r="A9" s="288" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="297"/>
-      <c r="C9" s="297"/>
+      <c r="B9" s="288"/>
+      <c r="C9" s="288"/>
     </row>
     <row r="10">
       <c r="B10" t="s">
@@ -3087,11 +3097,11 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15">
-      <c r="A15" s="297" t="s">
+      <c r="A15" s="288" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="297"/>
-      <c r="C15" s="297"/>
+      <c r="B15" s="288"/>
+      <c r="C15" s="288"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
         <v>1</v>
@@ -3166,11 +3176,11 @@
       <c r="K20" s="7"/>
     </row>
     <row r="21">
-      <c r="A21" s="297" t="s">
+      <c r="A21" s="288" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="297"/>
-      <c r="C21" s="297"/>
+      <c r="B21" s="288"/>
+      <c r="C21" s="288"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>135</v>
@@ -3247,8 +3257,8 @@
       <c r="K26" s="230"/>
     </row>
     <row r="27">
-      <c r="B27" s="297"/>
-      <c r="C27" s="297"/>
+      <c r="B27" s="288"/>
+      <c r="C27" s="288"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3263,7 +3273,7 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29">
-      <c r="F29" s="293" t="s">
+      <c r="F29" s="295" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="61" t="s">
@@ -3275,7 +3285,7 @@
       <c r="K29" s="66"/>
     </row>
     <row r="30">
-      <c r="F30" s="294"/>
+      <c r="F30" s="296"/>
       <c r="G30" s="24" t="s">
         <v>51</v>
       </c>
@@ -3285,7 +3295,7 @@
       <c r="K30" s="65"/>
     </row>
     <row r="31">
-      <c r="F31" s="294" t="s">
+      <c r="F31" s="296" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="24" t="s">
@@ -3297,7 +3307,7 @@
       <c r="K31" s="65"/>
     </row>
     <row r="32" ht="15.75" thickBot="true">
-      <c r="F32" s="295"/>
+      <c r="F32" s="297"/>
       <c r="G32" s="64" t="s">
         <v>51</v>
       </c>
@@ -3307,8 +3317,8 @@
       <c r="K32" s="67"/>
     </row>
     <row r="33">
-      <c r="B33" s="297"/>
-      <c r="C33" s="297"/>
+      <c r="B33" s="288"/>
+      <c r="C33" s="288"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3333,10 +3343,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="F36" s="287" t="s">
+      <c r="F36" s="289" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="296" t="s">
+      <c r="G36" s="298" t="s">
         <v>125</v>
       </c>
       <c r="H36" s="61" t="e">
@@ -3361,8 +3371,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="F37" s="288"/>
-      <c r="G37" s="291"/>
+      <c r="F37" s="290"/>
+      <c r="G37" s="293"/>
       <c r="H37" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3385,8 +3395,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="F38" s="288"/>
-      <c r="G38" s="291"/>
+      <c r="F38" s="290"/>
+      <c r="G38" s="293"/>
       <c r="H38" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3409,8 +3419,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="F39" s="288"/>
-      <c r="G39" s="291"/>
+      <c r="F39" s="290"/>
+      <c r="G39" s="293"/>
       <c r="H39" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3433,7 +3443,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" s="288"/>
+      <c r="F40" s="290"/>
       <c r="G40" s="108"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -3442,8 +3452,8 @@
       <c r="M40" s="109"/>
     </row>
     <row r="41">
-      <c r="F41" s="288"/>
-      <c r="G41" s="291" t="s">
+      <c r="F41" s="290"/>
+      <c r="G41" s="293" t="s">
         <v>135</v>
       </c>
       <c r="H41" s="24" t="e">
@@ -3468,8 +3478,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="F42" s="288"/>
-      <c r="G42" s="291"/>
+      <c r="F42" s="290"/>
+      <c r="G42" s="293"/>
       <c r="H42" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3492,8 +3502,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="F43" s="288"/>
-      <c r="G43" s="291"/>
+      <c r="F43" s="290"/>
+      <c r="G43" s="293"/>
       <c r="H43" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3516,8 +3526,8 @@
       </c>
     </row>
     <row r="44" ht="15.75" thickBot="true">
-      <c r="F44" s="289"/>
-      <c r="G44" s="292"/>
+      <c r="F44" s="291"/>
+      <c r="G44" s="294"/>
       <c r="H44" s="64" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3548,10 +3558,10 @@
       <c r="M45" s="109"/>
     </row>
     <row r="46">
-      <c r="F46" s="287" t="s">
+      <c r="F46" s="289" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="290" t="s">
+      <c r="G46" s="292" t="s">
         <v>125</v>
       </c>
       <c r="H46" s="61" t="e">
@@ -3576,8 +3586,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="F47" s="288"/>
-      <c r="G47" s="291"/>
+      <c r="F47" s="290"/>
+      <c r="G47" s="293"/>
       <c r="H47" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3600,8 +3610,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="F48" s="288"/>
-      <c r="G48" s="291"/>
+      <c r="F48" s="290"/>
+      <c r="G48" s="293"/>
       <c r="H48" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3624,8 +3634,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="F49" s="288"/>
-      <c r="G49" s="291"/>
+      <c r="F49" s="290"/>
+      <c r="G49" s="293"/>
       <c r="H49" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3648,7 +3658,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="F50" s="288"/>
+      <c r="F50" s="290"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
@@ -3657,8 +3667,8 @@
       <c r="M50" s="109"/>
     </row>
     <row r="51">
-      <c r="F51" s="288"/>
-      <c r="G51" s="291" t="s">
+      <c r="F51" s="290"/>
+      <c r="G51" s="293" t="s">
         <v>135</v>
       </c>
       <c r="H51" s="24" t="e">
@@ -3683,8 +3693,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="F52" s="288"/>
-      <c r="G52" s="291"/>
+      <c r="F52" s="290"/>
+      <c r="G52" s="293"/>
       <c r="H52" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3707,8 +3717,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="F53" s="288"/>
-      <c r="G53" s="291"/>
+      <c r="F53" s="290"/>
+      <c r="G53" s="293"/>
       <c r="H53" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3731,8 +3741,8 @@
       </c>
     </row>
     <row r="54" ht="15.75" thickBot="true">
-      <c r="F54" s="289"/>
-      <c r="G54" s="292"/>
+      <c r="F54" s="291"/>
+      <c r="G54" s="294"/>
       <c r="H54" s="64" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3956,12 +3966,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
     <mergeCell ref="F46:F54"/>
     <mergeCell ref="G46:G49"/>
     <mergeCell ref="G51:G54"/>
@@ -3970,6 +3974,12 @@
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="F36:F44"/>
     <mergeCell ref="G41:G44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4055,21 +4065,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="297" t="s">
+      <c r="B2" s="288" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="297"/>
-      <c r="J2" s="297"/>
-      <c r="K2" s="297"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
     </row>
     <row r="3">
-      <c r="A3" s="297">
+      <c r="A3" s="288">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -4086,7 +4096,7 @@
       <c r="K3" s="124"/>
     </row>
     <row r="4">
-      <c r="A4" s="297"/>
+      <c r="A4" s="288"/>
       <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
@@ -4101,7 +4111,7 @@
       <c r="K4" s="125"/>
     </row>
     <row r="5">
-      <c r="A5" s="297">
+      <c r="A5" s="288">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -4118,7 +4128,7 @@
       <c r="K5" s="124"/>
     </row>
     <row r="6">
-      <c r="A6" s="297"/>
+      <c r="A6" s="288"/>
       <c r="B6" s="8" t="s">
         <v>45</v>
       </c>
@@ -4133,168 +4143,168 @@
       <c r="K6" s="124"/>
     </row>
     <row r="9">
-      <c r="A9" s="297">
+      <c r="A9" s="288">
         <v>1</v>
       </c>
-      <c r="B9" s="298" t="s">
+      <c r="B9" s="299" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="299"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
-      <c r="I9" s="299"/>
-      <c r="J9" s="299"/>
-      <c r="K9" s="299"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="300"/>
+      <c r="E9" s="300"/>
+      <c r="F9" s="300"/>
+      <c r="G9" s="300"/>
+      <c r="H9" s="300"/>
+      <c r="I9" s="300"/>
+      <c r="J9" s="300"/>
+      <c r="K9" s="300"/>
     </row>
     <row r="10">
-      <c r="A10" s="297"/>
-      <c r="B10" s="299"/>
-      <c r="C10" s="299"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="299"/>
-      <c r="H10" s="299"/>
-      <c r="I10" s="299"/>
-      <c r="J10" s="299"/>
-      <c r="K10" s="299"/>
+      <c r="A10" s="288"/>
+      <c r="B10" s="300"/>
+      <c r="C10" s="300"/>
+      <c r="D10" s="300"/>
+      <c r="E10" s="300"/>
+      <c r="F10" s="300"/>
+      <c r="G10" s="300"/>
+      <c r="H10" s="300"/>
+      <c r="I10" s="300"/>
+      <c r="J10" s="300"/>
+      <c r="K10" s="300"/>
     </row>
     <row r="11">
-      <c r="A11" s="297"/>
-      <c r="B11" s="299"/>
-      <c r="C11" s="299"/>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
-      <c r="G11" s="299"/>
-      <c r="H11" s="299"/>
-      <c r="I11" s="299"/>
-      <c r="J11" s="299"/>
-      <c r="K11" s="299"/>
+      <c r="A11" s="288"/>
+      <c r="B11" s="300"/>
+      <c r="C11" s="300"/>
+      <c r="D11" s="300"/>
+      <c r="E11" s="300"/>
+      <c r="F11" s="300"/>
+      <c r="G11" s="300"/>
+      <c r="H11" s="300"/>
+      <c r="I11" s="300"/>
+      <c r="J11" s="300"/>
+      <c r="K11" s="300"/>
     </row>
     <row r="12">
-      <c r="A12" s="297"/>
-      <c r="B12" s="299"/>
-      <c r="C12" s="299"/>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="299"/>
-      <c r="G12" s="299"/>
-      <c r="H12" s="299"/>
-      <c r="I12" s="299"/>
-      <c r="J12" s="299"/>
-      <c r="K12" s="299"/>
+      <c r="A12" s="288"/>
+      <c r="B12" s="300"/>
+      <c r="C12" s="300"/>
+      <c r="D12" s="300"/>
+      <c r="E12" s="300"/>
+      <c r="F12" s="300"/>
+      <c r="G12" s="300"/>
+      <c r="H12" s="300"/>
+      <c r="I12" s="300"/>
+      <c r="J12" s="300"/>
+      <c r="K12" s="300"/>
     </row>
     <row r="13">
-      <c r="A13" s="297"/>
-      <c r="B13" s="299"/>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="299"/>
-      <c r="J13" s="299"/>
-      <c r="K13" s="299"/>
+      <c r="A13" s="288"/>
+      <c r="B13" s="300"/>
+      <c r="C13" s="300"/>
+      <c r="D13" s="300"/>
+      <c r="E13" s="300"/>
+      <c r="F13" s="300"/>
+      <c r="G13" s="300"/>
+      <c r="H13" s="300"/>
+      <c r="I13" s="300"/>
+      <c r="J13" s="300"/>
+      <c r="K13" s="300"/>
     </row>
     <row r="14">
-      <c r="A14" s="297"/>
-      <c r="B14" s="299"/>
-      <c r="C14" s="299"/>
-      <c r="D14" s="299"/>
-      <c r="E14" s="299"/>
-      <c r="F14" s="299"/>
-      <c r="G14" s="299"/>
-      <c r="H14" s="299"/>
-      <c r="I14" s="299"/>
-      <c r="J14" s="299"/>
-      <c r="K14" s="299"/>
+      <c r="A14" s="288"/>
+      <c r="B14" s="300"/>
+      <c r="C14" s="300"/>
+      <c r="D14" s="300"/>
+      <c r="E14" s="300"/>
+      <c r="F14" s="300"/>
+      <c r="G14" s="300"/>
+      <c r="H14" s="300"/>
+      <c r="I14" s="300"/>
+      <c r="J14" s="300"/>
+      <c r="K14" s="300"/>
     </row>
     <row r="15">
-      <c r="A15" s="297">
+      <c r="A15" s="288">
         <v>2</v>
       </c>
-      <c r="B15" s="298" t="s">
+      <c r="B15" s="299" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="299"/>
-      <c r="D15" s="299"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="299"/>
-      <c r="G15" s="299"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="299"/>
-      <c r="J15" s="299"/>
-      <c r="K15" s="299"/>
+      <c r="C15" s="300"/>
+      <c r="D15" s="300"/>
+      <c r="E15" s="300"/>
+      <c r="F15" s="300"/>
+      <c r="G15" s="300"/>
+      <c r="H15" s="300"/>
+      <c r="I15" s="300"/>
+      <c r="J15" s="300"/>
+      <c r="K15" s="300"/>
     </row>
     <row r="16">
-      <c r="A16" s="297"/>
-      <c r="B16" s="299"/>
-      <c r="C16" s="299"/>
-      <c r="D16" s="299"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
-      <c r="G16" s="299"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="299"/>
-      <c r="J16" s="299"/>
-      <c r="K16" s="299"/>
+      <c r="A16" s="288"/>
+      <c r="B16" s="300"/>
+      <c r="C16" s="300"/>
+      <c r="D16" s="300"/>
+      <c r="E16" s="300"/>
+      <c r="F16" s="300"/>
+      <c r="G16" s="300"/>
+      <c r="H16" s="300"/>
+      <c r="I16" s="300"/>
+      <c r="J16" s="300"/>
+      <c r="K16" s="300"/>
     </row>
     <row r="17">
-      <c r="A17" s="297"/>
-      <c r="B17" s="299"/>
-      <c r="C17" s="299"/>
-      <c r="D17" s="299"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="299"/>
-      <c r="G17" s="299"/>
-      <c r="H17" s="299"/>
-      <c r="I17" s="299"/>
-      <c r="J17" s="299"/>
-      <c r="K17" s="299"/>
+      <c r="A17" s="288"/>
+      <c r="B17" s="300"/>
+      <c r="C17" s="300"/>
+      <c r="D17" s="300"/>
+      <c r="E17" s="300"/>
+      <c r="F17" s="300"/>
+      <c r="G17" s="300"/>
+      <c r="H17" s="300"/>
+      <c r="I17" s="300"/>
+      <c r="J17" s="300"/>
+      <c r="K17" s="300"/>
     </row>
     <row r="18">
-      <c r="A18" s="297"/>
-      <c r="B18" s="299"/>
-      <c r="C18" s="299"/>
-      <c r="D18" s="299"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="299"/>
-      <c r="I18" s="299"/>
-      <c r="J18" s="299"/>
-      <c r="K18" s="299"/>
+      <c r="A18" s="288"/>
+      <c r="B18" s="300"/>
+      <c r="C18" s="300"/>
+      <c r="D18" s="300"/>
+      <c r="E18" s="300"/>
+      <c r="F18" s="300"/>
+      <c r="G18" s="300"/>
+      <c r="H18" s="300"/>
+      <c r="I18" s="300"/>
+      <c r="J18" s="300"/>
+      <c r="K18" s="300"/>
     </row>
     <row r="19">
-      <c r="A19" s="297"/>
-      <c r="B19" s="299"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="299"/>
-      <c r="J19" s="299"/>
-      <c r="K19" s="299"/>
+      <c r="A19" s="288"/>
+      <c r="B19" s="300"/>
+      <c r="C19" s="300"/>
+      <c r="D19" s="300"/>
+      <c r="E19" s="300"/>
+      <c r="F19" s="300"/>
+      <c r="G19" s="300"/>
+      <c r="H19" s="300"/>
+      <c r="I19" s="300"/>
+      <c r="J19" s="300"/>
+      <c r="K19" s="300"/>
     </row>
     <row r="20">
-      <c r="A20" s="297"/>
-      <c r="B20" s="299"/>
-      <c r="C20" s="299"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
-      <c r="H20" s="299"/>
-      <c r="I20" s="299"/>
-      <c r="J20" s="299"/>
-      <c r="K20" s="299"/>
+      <c r="A20" s="288"/>
+      <c r="B20" s="300"/>
+      <c r="C20" s="300"/>
+      <c r="D20" s="300"/>
+      <c r="E20" s="300"/>
+      <c r="F20" s="300"/>
+      <c r="G20" s="300"/>
+      <c r="H20" s="300"/>
+      <c r="I20" s="300"/>
+      <c r="J20" s="300"/>
+      <c r="K20" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4625,26 +4635,26 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="246" t="s">
+      <c r="F1" s="273" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="256" t="s">
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="280" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="256"/>
+      <c r="K1" s="280"/>
       <c r="L1" s="9"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="247" t="s">
+      <c r="N1" s="251" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="248"/>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="248"/>
-      <c r="S1" s="249"/>
+      <c r="O1" s="252"/>
+      <c r="P1" s="252"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="253"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -4656,14 +4666,14 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="258" t="s">
+      <c r="F2" s="271" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258" t="s">
+      <c r="G2" s="271"/>
+      <c r="H2" s="271" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="258"/>
+      <c r="I2" s="271"/>
       <c r="J2" s="9" t="s">
         <v>99</v>
       </c>
@@ -4672,18 +4682,18 @@
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="250" t="s">
+      <c r="N2" s="274" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251" t="s">
+      <c r="O2" s="275"/>
+      <c r="P2" s="275" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252" t="s">
+      <c r="Q2" s="275"/>
+      <c r="R2" s="276" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="254" t="s">
+      <c r="S2" s="278" t="s">
         <v>129</v>
       </c>
       <c r="T2" s="8"/>
@@ -4725,8 +4735,8 @@
       <c r="Q3" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="253"/>
-      <c r="S3" s="255"/>
+      <c r="R3" s="277"/>
+      <c r="S3" s="279"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -4770,10 +4780,10 @@
         <f>S4*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L4" s="259" t="s">
+      <c r="L4" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="260"/>
+      <c r="M4" s="245"/>
       <c r="N4" s="60">
         <f>Crop!$C$23*Input!F8</f>
         <v>0</v>
@@ -4841,8 +4851,8 @@
         <f>S5*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L5" s="259"/>
-      <c r="M5" s="260"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="245"/>
       <c r="N5" s="62">
         <f>Crop!$C$23*Input!F9</f>
         <v>0</v>
@@ -4910,8 +4920,8 @@
         <f>S6*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L6" s="259"/>
-      <c r="M6" s="260"/>
+      <c r="L6" s="244"/>
+      <c r="M6" s="245"/>
       <c r="N6" s="62">
         <f>Crop!$C$23*Input!F10</f>
         <v>0</v>
@@ -4979,8 +4989,8 @@
         <f>S7*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L7" s="259"/>
-      <c r="M7" s="260"/>
+      <c r="L7" s="244"/>
+      <c r="M7" s="245"/>
       <c r="N7" s="63">
         <f>Crop!$C$23*Input!F11</f>
         <v>0</v>
@@ -5369,12 +5379,12 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="241" t="s">
+      <c r="T19" s="239" t="s">
         <v>112</v>
       </c>
-      <c r="U19" s="242"/>
-      <c r="V19" s="242"/>
-      <c r="W19" s="243"/>
+      <c r="U19" s="240"/>
+      <c r="V19" s="240"/>
+      <c r="W19" s="241"/>
     </row>
     <row r="20" ht="15.75" thickBot="true">
       <c r="A20" s="8"/>
@@ -5465,10 +5475,10 @@
         <f t="shared" ref="K21:K27" si="5">Q21*$K$93*$K$112</f>
         <v>0</v>
       </c>
-      <c r="L21" s="259" t="s">
+      <c r="L21" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="M21" s="260"/>
+      <c r="M21" s="245"/>
       <c r="N21" s="190">
         <f>T21*12</f>
         <v>0</v>
@@ -5485,10 +5495,10 @@
         <f t="shared" ref="Q21:Q27" si="8">W21*12</f>
         <v>0</v>
       </c>
-      <c r="R21" s="262" t="s">
+      <c r="R21" s="242" t="s">
         <v>113</v>
       </c>
-      <c r="S21" s="257"/>
+      <c r="S21" s="243"/>
       <c r="T21" s="190">
         <f>shares!H16</f>
         <v>0</v>
@@ -5542,8 +5552,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="259"/>
-      <c r="M22" s="260"/>
+      <c r="L22" s="244"/>
+      <c r="M22" s="245"/>
       <c r="N22" s="193">
         <f t="shared" ref="N22:N27" si="9">T22*12</f>
         <v>0</v>
@@ -5560,8 +5570,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R22" s="262"/>
-      <c r="S22" s="257"/>
+      <c r="R22" s="242"/>
+      <c r="S22" s="243"/>
       <c r="T22" s="193">
         <f>shares!H17</f>
         <v>0</v>
@@ -5615,8 +5625,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="259"/>
-      <c r="M23" s="260"/>
+      <c r="L23" s="244"/>
+      <c r="M23" s="245"/>
       <c r="N23" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5633,8 +5643,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R23" s="262"/>
-      <c r="S23" s="257"/>
+      <c r="R23" s="242"/>
+      <c r="S23" s="243"/>
       <c r="T23" s="193">
         <f>shares!H18</f>
         <v>0</v>
@@ -5688,8 +5698,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="259"/>
-      <c r="M24" s="260"/>
+      <c r="L24" s="244"/>
+      <c r="M24" s="245"/>
       <c r="N24" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5706,8 +5716,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R24" s="262"/>
-      <c r="S24" s="257"/>
+      <c r="R24" s="242"/>
+      <c r="S24" s="243"/>
       <c r="T24" s="195">
         <f>shares!H19</f>
         <v>0</v>
@@ -5761,10 +5771,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="260" t="s">
+      <c r="L25" s="245" t="s">
         <v>108</v>
       </c>
-      <c r="M25" s="260"/>
+      <c r="M25" s="245"/>
       <c r="N25" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5781,10 +5791,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R25" s="262" t="s">
+      <c r="R25" s="242" t="s">
         <v>113</v>
       </c>
-      <c r="S25" s="277"/>
+      <c r="S25" s="248"/>
       <c r="T25" s="190"/>
       <c r="U25" s="191"/>
       <c r="V25" s="191"/>
@@ -5826,8 +5836,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="260"/>
-      <c r="M26" s="260"/>
+      <c r="L26" s="245"/>
+      <c r="M26" s="245"/>
       <c r="N26" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5844,8 +5854,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R26" s="277"/>
-      <c r="S26" s="277"/>
+      <c r="R26" s="248"/>
+      <c r="S26" s="248"/>
       <c r="T26" s="193"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
@@ -5887,8 +5897,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="260"/>
-      <c r="M27" s="260"/>
+      <c r="L27" s="245"/>
+      <c r="M27" s="245"/>
       <c r="N27" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5905,8 +5915,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R27" s="277"/>
-      <c r="S27" s="277"/>
+      <c r="R27" s="248"/>
+      <c r="S27" s="248"/>
       <c r="T27" s="195"/>
       <c r="U27" s="196"/>
       <c r="V27" s="196"/>
@@ -5930,8 +5940,8 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="260"/>
-      <c r="M28" s="260"/>
+      <c r="L28" s="245"/>
+      <c r="M28" s="245"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -6151,12 +6161,12 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="241" t="s">
+      <c r="T37" s="239" t="s">
         <v>142</v>
       </c>
-      <c r="U37" s="242"/>
-      <c r="V37" s="242"/>
-      <c r="W37" s="243"/>
+      <c r="U37" s="240"/>
+      <c r="V37" s="240"/>
+      <c r="W37" s="241"/>
     </row>
     <row r="38" ht="15.75" thickBot="true">
       <c r="A38" s="8"/>
@@ -6247,10 +6257,10 @@
         <f t="shared" ref="K39:K45" si="15">Q39*$K$93*$K$113</f>
         <v>0</v>
       </c>
-      <c r="L39" s="259" t="s">
+      <c r="L39" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="M39" s="260"/>
+      <c r="M39" s="245"/>
       <c r="N39" s="60">
         <f>T39*12</f>
         <v>0</v>
@@ -6267,10 +6277,10 @@
         <f>W39*12</f>
         <v>0</v>
       </c>
-      <c r="R39" s="257" t="s">
+      <c r="R39" s="243" t="s">
         <v>113</v>
       </c>
-      <c r="S39" s="257"/>
+      <c r="S39" s="243"/>
       <c r="T39" s="60">
         <f>shares!H23</f>
         <v>0</v>
@@ -6324,8 +6334,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L40" s="259"/>
-      <c r="M40" s="260"/>
+      <c r="L40" s="244"/>
+      <c r="M40" s="245"/>
       <c r="N40" s="193">
         <f t="shared" ref="N40:N43" si="16">T40*12</f>
         <v>0</v>
@@ -6342,8 +6352,8 @@
         <f t="shared" ref="Q40:Q43" si="19">W40*12</f>
         <v>0</v>
       </c>
-      <c r="R40" s="257"/>
-      <c r="S40" s="257"/>
+      <c r="R40" s="243"/>
+      <c r="S40" s="243"/>
       <c r="T40" s="193">
         <f>shares!H24</f>
         <v>0</v>
@@ -6397,8 +6407,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L41" s="259"/>
-      <c r="M41" s="260"/>
+      <c r="L41" s="244"/>
+      <c r="M41" s="245"/>
       <c r="N41" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6415,8 +6425,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R41" s="257"/>
-      <c r="S41" s="257"/>
+      <c r="R41" s="243"/>
+      <c r="S41" s="243"/>
       <c r="T41" s="193">
         <f>shares!H25</f>
         <v>0</v>
@@ -6470,8 +6480,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L42" s="259"/>
-      <c r="M42" s="260"/>
+      <c r="L42" s="244"/>
+      <c r="M42" s="245"/>
       <c r="N42" s="195">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6488,8 +6498,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R42" s="257"/>
-      <c r="S42" s="257"/>
+      <c r="R42" s="243"/>
+      <c r="S42" s="243"/>
       <c r="T42" s="195">
         <f>shares!H26</f>
         <v>0</v>
@@ -6543,10 +6553,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L43" s="259" t="s">
+      <c r="L43" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="M43" s="260"/>
+      <c r="M43" s="245"/>
       <c r="N43" s="190">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6563,10 +6573,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R43" s="262" t="s">
+      <c r="R43" s="242" t="s">
         <v>113</v>
       </c>
-      <c r="S43" s="277"/>
+      <c r="S43" s="248"/>
       <c r="T43" s="190">
         <f>ser!$C$11*Input!G46</f>
         <v>0</v>
@@ -6620,8 +6630,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L44" s="259"/>
-      <c r="M44" s="260"/>
+      <c r="L44" s="244"/>
+      <c r="M44" s="245"/>
       <c r="N44" s="193">
         <f t="shared" ref="N44:Q45" si="20">T44*12</f>
         <v>0</v>
@@ -6638,8 +6648,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R44" s="277"/>
-      <c r="S44" s="277"/>
+      <c r="R44" s="248"/>
+      <c r="S44" s="248"/>
       <c r="T44" s="193">
         <f>ser!$C$11*Input!G47</f>
         <v>0</v>
@@ -6693,8 +6703,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L45" s="259"/>
-      <c r="M45" s="260"/>
+      <c r="L45" s="244"/>
+      <c r="M45" s="245"/>
       <c r="N45" s="195">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -6711,8 +6721,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R45" s="277"/>
-      <c r="S45" s="277"/>
+      <c r="R45" s="248"/>
+      <c r="S45" s="248"/>
       <c r="T45" s="195">
         <f>ser!$C$11*Input!G48</f>
         <v>0</v>
@@ -6748,8 +6758,8 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="259"/>
-      <c r="M46" s="261"/>
+      <c r="L46" s="244"/>
+      <c r="M46" s="272"/>
       <c r="N46" s="129"/>
       <c r="O46" s="129"/>
       <c r="P46" s="129"/>
@@ -6934,14 +6944,14 @@
       <c r="K54" s="104"/>
       <c r="L54" s="9"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="247" t="s">
+      <c r="N54" s="251" t="s">
         <v>107</v>
       </c>
-      <c r="O54" s="248"/>
-      <c r="P54" s="248"/>
-      <c r="Q54" s="248"/>
-      <c r="R54" s="248"/>
-      <c r="S54" s="249"/>
+      <c r="O54" s="252"/>
+      <c r="P54" s="252"/>
+      <c r="Q54" s="252"/>
+      <c r="R54" s="252"/>
+      <c r="S54" s="253"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
@@ -6965,18 +6975,18 @@
       <c r="K55" s="107"/>
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="279" t="s">
+      <c r="N55" s="254" t="s">
         <v>126</v>
       </c>
-      <c r="O55" s="240"/>
-      <c r="P55" s="240" t="s">
+      <c r="O55" s="249"/>
+      <c r="P55" s="249" t="s">
         <v>127</v>
       </c>
-      <c r="Q55" s="240"/>
-      <c r="R55" s="266" t="s">
+      <c r="Q55" s="249"/>
+      <c r="R55" s="258" t="s">
         <v>128</v>
       </c>
-      <c r="S55" s="272" t="s">
+      <c r="S55" s="267" t="s">
         <v>129</v>
       </c>
       <c r="T55" s="8"/>
@@ -7022,8 +7032,8 @@
       <c r="Q56" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="R56" s="267"/>
-      <c r="S56" s="273"/>
+      <c r="R56" s="259"/>
+      <c r="S56" s="268"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
@@ -7065,10 +7075,10 @@
         <f>S57*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L57" s="259" t="s">
+      <c r="L57" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="M57" s="260"/>
+      <c r="M57" s="245"/>
       <c r="N57" s="60">
         <f>Live!$C$11*Input!F61</f>
         <v>0</v>
@@ -7134,8 +7144,8 @@
         <f>S58*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L58" s="259"/>
-      <c r="M58" s="260"/>
+      <c r="L58" s="244"/>
+      <c r="M58" s="245"/>
       <c r="N58" s="62">
         <f>Live!$C$11*Input!F62</f>
         <v>0</v>
@@ -7201,8 +7211,8 @@
         <f>S59*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L59" s="259"/>
-      <c r="M59" s="260"/>
+      <c r="L59" s="244"/>
+      <c r="M59" s="245"/>
       <c r="N59" s="62">
         <f>Live!$C$11*Input!F63</f>
         <v>0</v>
@@ -7268,8 +7278,8 @@
         <f>S60*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L60" s="259"/>
-      <c r="M60" s="260"/>
+      <c r="L60" s="244"/>
+      <c r="M60" s="245"/>
       <c r="N60" s="63">
         <f>Live!$C$11*Input!F64</f>
         <v>0</v>
@@ -7608,12 +7618,12 @@
       <c r="K72" s="107"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="240" t="s">
+      <c r="N72" s="249" t="s">
         <v>103</v>
       </c>
-      <c r="O72" s="240"/>
-      <c r="P72" s="240"/>
-      <c r="Q72" s="240"/>
+      <c r="O72" s="249"/>
+      <c r="P72" s="249"/>
+      <c r="Q72" s="249"/>
       <c r="R72" s="8"/>
     </row>
     <row r="73">
@@ -7642,14 +7652,14 @@
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="278" t="s">
+      <c r="N73" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="278"/>
-      <c r="P73" s="278" t="s">
+      <c r="O73" s="250"/>
+      <c r="P73" s="250" t="s">
         <v>104</v>
       </c>
-      <c r="Q73" s="278"/>
+      <c r="Q73" s="250"/>
       <c r="R73" s="8"/>
     </row>
     <row r="74">
@@ -7726,10 +7736,10 @@
         <f>Q75*$G93</f>
         <v>0</v>
       </c>
-      <c r="L75" s="275" t="s">
+      <c r="L75" s="246" t="s">
         <v>109</v>
       </c>
-      <c r="M75" s="276"/>
+      <c r="M75" s="247"/>
       <c r="N75" s="97">
         <f>wages!C7</f>
         <v>0</v>
@@ -7747,14 +7757,14 @@
         <v>0</v>
       </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="274" t="s">
+      <c r="S75" s="269" t="s">
         <v>163</v>
       </c>
-      <c r="T75" s="274"/>
-      <c r="U75" s="274"/>
-      <c r="V75" s="274"/>
-      <c r="W75" s="274"/>
-      <c r="X75" s="274"/>
+      <c r="T75" s="269"/>
+      <c r="U75" s="269"/>
+      <c r="V75" s="269"/>
+      <c r="W75" s="269"/>
+      <c r="X75" s="269"/>
     </row>
     <row r="76">
       <c r="A76" s="8"/>
@@ -7831,22 +7841,22 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="241" t="s">
+      <c r="N78" s="239" t="s">
         <v>110</v>
       </c>
-      <c r="O78" s="242"/>
-      <c r="P78" s="242"/>
-      <c r="Q78" s="242"/>
-      <c r="R78" s="242"/>
-      <c r="S78" s="243"/>
-      <c r="T78" s="241" t="s">
+      <c r="O78" s="240"/>
+      <c r="P78" s="240"/>
+      <c r="Q78" s="240"/>
+      <c r="R78" s="240"/>
+      <c r="S78" s="241"/>
+      <c r="T78" s="239" t="s">
         <v>146</v>
       </c>
-      <c r="U78" s="242"/>
-      <c r="V78" s="242"/>
-      <c r="W78" s="242"/>
-      <c r="X78" s="242"/>
-      <c r="Y78" s="243"/>
+      <c r="U78" s="240"/>
+      <c r="V78" s="240"/>
+      <c r="W78" s="240"/>
+      <c r="X78" s="240"/>
+      <c r="Y78" s="241"/>
     </row>
     <row r="79" ht="15.75" thickBot="true">
       <c r="A79" s="8"/>
@@ -7866,32 +7876,32 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="244" t="s">
+      <c r="N79" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="O79" s="245"/>
-      <c r="P79" s="241" t="s">
+      <c r="O79" s="266"/>
+      <c r="P79" s="239" t="s">
         <v>127</v>
       </c>
-      <c r="Q79" s="242"/>
-      <c r="R79" s="238" t="s">
+      <c r="Q79" s="240"/>
+      <c r="R79" s="263" t="s">
         <v>143</v>
       </c>
-      <c r="S79" s="238" t="s">
+      <c r="S79" s="263" t="s">
         <v>144</v>
       </c>
-      <c r="T79" s="244" t="s">
+      <c r="T79" s="265" t="s">
         <v>126</v>
       </c>
-      <c r="U79" s="245"/>
-      <c r="V79" s="241" t="s">
+      <c r="U79" s="266"/>
+      <c r="V79" s="239" t="s">
         <v>127</v>
       </c>
-      <c r="W79" s="242"/>
-      <c r="X79" s="238" t="s">
+      <c r="W79" s="240"/>
+      <c r="X79" s="263" t="s">
         <v>143</v>
       </c>
-      <c r="Y79" s="238" t="s">
+      <c r="Y79" s="263" t="s">
         <v>144</v>
       </c>
     </row>
@@ -7925,8 +7935,8 @@
       <c r="Q80" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="R80" s="271"/>
-      <c r="S80" s="271"/>
+      <c r="R80" s="264"/>
+      <c r="S80" s="264"/>
       <c r="T80" s="123" t="s">
         <v>116</v>
       </c>
@@ -7939,8 +7949,8 @@
       <c r="W80" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="X80" s="239"/>
-      <c r="Y80" s="239"/>
+      <c r="X80" s="270"/>
+      <c r="Y80" s="270"/>
     </row>
     <row r="81">
       <c r="A81" s="8"/>
@@ -7974,10 +7984,10 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L81" s="264" t="s">
+      <c r="L81" s="256" t="s">
         <v>170</v>
       </c>
-      <c r="M81" s="265"/>
+      <c r="M81" s="257"/>
       <c r="N81" s="97"/>
       <c r="O81" s="97"/>
       <c r="P81" s="97"/>
@@ -8017,24 +8027,24 @@
       <c r="K82" s="68">
         <v>0</v>
       </c>
-      <c r="L82" s="264"/>
-      <c r="M82" s="265"/>
-      <c r="N82" s="268" t="s">
+      <c r="L82" s="256"/>
+      <c r="M82" s="257"/>
+      <c r="N82" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="O82" s="269"/>
-      <c r="P82" s="269"/>
-      <c r="Q82" s="269"/>
-      <c r="R82" s="269"/>
-      <c r="S82" s="270"/>
-      <c r="T82" s="240" t="s">
+      <c r="O82" s="261"/>
+      <c r="P82" s="261"/>
+      <c r="Q82" s="261"/>
+      <c r="R82" s="261"/>
+      <c r="S82" s="262"/>
+      <c r="T82" s="249" t="s">
         <v>145</v>
       </c>
-      <c r="U82" s="240"/>
-      <c r="V82" s="240"/>
-      <c r="W82" s="240"/>
-      <c r="X82" s="240"/>
-      <c r="Y82" s="240"/>
+      <c r="U82" s="249"/>
+      <c r="V82" s="249"/>
+      <c r="W82" s="249"/>
+      <c r="X82" s="249"/>
+      <c r="Y82" s="249"/>
     </row>
     <row r="83">
       <c r="A83" s="8"/>
@@ -8524,7 +8534,7 @@
       <c r="I97" s="226"/>
       <c r="J97" s="226"/>
       <c r="K97" s="226"/>
-      <c r="L97" s="263" t="s">
+      <c r="L97" s="255" t="s">
         <v>115</v>
       </c>
       <c r="M97" s="8"/>
@@ -8557,7 +8567,7 @@
       <c r="I98" s="226"/>
       <c r="J98" s="226"/>
       <c r="K98" s="226"/>
-      <c r="L98" s="263"/>
+      <c r="L98" s="255"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8" t="s">
@@ -8590,7 +8600,7 @@
       <c r="I99" s="226"/>
       <c r="J99" s="226"/>
       <c r="K99" s="226"/>
-      <c r="L99" s="263"/>
+      <c r="L99" s="255"/>
       <c r="M99" s="8"/>
       <c r="N99" s="219" t="s">
         <v>189</v>
@@ -8632,7 +8642,7 @@
       <c r="I100" s="226"/>
       <c r="J100" s="226"/>
       <c r="K100" s="226"/>
-      <c r="L100" s="263"/>
+      <c r="L100" s="255"/>
       <c r="M100" s="8"/>
       <c r="N100" s="221" t="s">
         <v>193</v>
@@ -8747,11 +8757,11 @@
       <c r="I103" s="228"/>
       <c r="J103" s="228"/>
       <c r="K103" s="228"/>
-      <c r="L103" s="262" t="s">
+      <c r="L103" s="242" t="s">
         <v>114</v>
       </c>
-      <c r="M103" s="262"/>
-      <c r="N103" s="262"/>
+      <c r="M103" s="242"/>
+      <c r="N103" s="242"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
@@ -8780,9 +8790,9 @@
       <c r="I104" s="228"/>
       <c r="J104" s="228"/>
       <c r="K104" s="228"/>
-      <c r="L104" s="262"/>
-      <c r="M104" s="262"/>
-      <c r="N104" s="262"/>
+      <c r="L104" s="242"/>
+      <c r="M104" s="242"/>
+      <c r="N104" s="242"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
@@ -8811,9 +8821,9 @@
       <c r="I105" s="228"/>
       <c r="J105" s="228"/>
       <c r="K105" s="228"/>
-      <c r="L105" s="262"/>
-      <c r="M105" s="262"/>
-      <c r="N105" s="262"/>
+      <c r="L105" s="242"/>
+      <c r="M105" s="242"/>
+      <c r="N105" s="242"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
@@ -8842,9 +8852,9 @@
       <c r="I106" s="228"/>
       <c r="J106" s="228"/>
       <c r="K106" s="228"/>
-      <c r="L106" s="262"/>
-      <c r="M106" s="262"/>
-      <c r="N106" s="262"/>
+      <c r="L106" s="242"/>
+      <c r="M106" s="242"/>
+      <c r="N106" s="242"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
@@ -8873,9 +8883,9 @@
       <c r="I107" s="228"/>
       <c r="J107" s="228"/>
       <c r="K107" s="228"/>
-      <c r="L107" s="262"/>
-      <c r="M107" s="262"/>
-      <c r="N107" s="262"/>
+      <c r="L107" s="242"/>
+      <c r="M107" s="242"/>
+      <c r="N107" s="242"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
@@ -8904,9 +8914,9 @@
       <c r="I108" s="229"/>
       <c r="J108" s="229"/>
       <c r="K108" s="229"/>
-      <c r="L108" s="262"/>
-      <c r="M108" s="262"/>
-      <c r="N108" s="262"/>
+      <c r="L108" s="242"/>
+      <c r="M108" s="242"/>
+      <c r="N108" s="242"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
@@ -8935,9 +8945,9 @@
       <c r="I109" s="229"/>
       <c r="J109" s="229"/>
       <c r="K109" s="229"/>
-      <c r="L109" s="262"/>
-      <c r="M109" s="262"/>
-      <c r="N109" s="262"/>
+      <c r="L109" s="242"/>
+      <c r="M109" s="242"/>
+      <c r="N109" s="242"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -8966,9 +8976,9 @@
       <c r="I110" s="229"/>
       <c r="J110" s="229"/>
       <c r="K110" s="229"/>
-      <c r="L110" s="262"/>
-      <c r="M110" s="262"/>
-      <c r="N110" s="262"/>
+      <c r="L110" s="242"/>
+      <c r="M110" s="242"/>
+      <c r="N110" s="242"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
@@ -9048,6 +9058,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="Y79:Y80"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="R39:S42"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="L43:M46"/>
+    <mergeCell ref="L103:N110"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="L81:M82"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="N82:S82"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S75:X75"/>
+    <mergeCell ref="X79:X80"/>
     <mergeCell ref="T19:W19"/>
     <mergeCell ref="R21:S24"/>
     <mergeCell ref="L21:M24"/>
@@ -9064,36 +9104,6 @@
     <mergeCell ref="L57:M60"/>
     <mergeCell ref="L39:M42"/>
     <mergeCell ref="L25:M28"/>
-    <mergeCell ref="L103:N110"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="L81:M82"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="N82:S82"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S75:X75"/>
-    <mergeCell ref="X79:X80"/>
-    <mergeCell ref="R39:S42"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L4:M7"/>
-    <mergeCell ref="L43:M46"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="Y79:Y80"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9135,16 +9145,16 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="246" t="s">
+      <c r="F1" s="273" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="256" t="s">
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="280" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="256"/>
+      <c r="K1" s="280"/>
       <c r="L1" s="157" t="s">
         <v>162</v>
       </c>
@@ -9158,26 +9168,26 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="258" t="s">
+      <c r="F2" s="271" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258" t="s">
+      <c r="G2" s="271"/>
+      <c r="H2" s="271" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="258"/>
+      <c r="I2" s="271"/>
       <c r="J2" s="9" t="s">
         <v>99</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="280" t="s">
+      <c r="M2" s="281" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="280"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="280"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="281"/>
+      <c r="P2" s="281"/>
       <c r="Q2" t="s">
         <v>150</v>
       </c>
@@ -13479,7 +13489,7 @@
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -13489,7 +13499,7 @@
     <col min="3" max="3" width="16" style="11" customWidth="true"/>
     <col min="4" max="4" width="15.28515625" style="11" customWidth="true"/>
     <col min="5" max="5" width="14.5703125" style="11" customWidth="true"/>
-    <col min="6" max="6" width="9.7109375" style="11" customWidth="true"/>
+    <col min="6" max="6" width="14.85546875" style="11" customWidth="true"/>
     <col min="7" max="7" width="9.85546875" style="11" customWidth="true"/>
     <col min="8" max="8" width="9.140625" style="11" customWidth="true"/>
     <col min="9" max="9" width="10" style="11" customWidth="true"/>
@@ -13518,6 +13528,38 @@
       <c r="C1" s="237"/>
       <c r="D1" s="237"/>
       <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+    </row>
+    <row r="2">
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="301">
+        <v>139497999.359375</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="237" t="s">
@@ -13526,6 +13568,7 @@
       <c r="C7" s="237"/>
       <c r="D7" s="237"/>
       <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
     </row>
     <row r="8">
       <c r="B8"/>
@@ -13654,48 +13697,48 @@
     </row>
     <row r="21" s="35" customFormat="true" ht="18.75" customHeight="true">
       <c r="A21" s="34"/>
-      <c r="B21" s="281" t="s">
+      <c r="B21" s="282" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="282"/>
-      <c r="D21" s="282"/>
-      <c r="E21" s="282"/>
-      <c r="F21" s="283"/>
-      <c r="G21" s="281" t="s">
+      <c r="C21" s="283"/>
+      <c r="D21" s="283"/>
+      <c r="E21" s="283"/>
+      <c r="F21" s="284"/>
+      <c r="G21" s="282" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="282"/>
-      <c r="I21" s="282"/>
-      <c r="J21" s="282"/>
-      <c r="K21" s="283"/>
-      <c r="L21" s="281" t="s">
+      <c r="H21" s="283"/>
+      <c r="I21" s="283"/>
+      <c r="J21" s="283"/>
+      <c r="K21" s="284"/>
+      <c r="L21" s="282" t="s">
         <v>120</v>
       </c>
-      <c r="M21" s="282"/>
-      <c r="N21" s="282"/>
-      <c r="O21" s="282"/>
-      <c r="P21" s="283"/>
-      <c r="Q21" s="281" t="s">
+      <c r="M21" s="283"/>
+      <c r="N21" s="283"/>
+      <c r="O21" s="283"/>
+      <c r="P21" s="284"/>
+      <c r="Q21" s="282" t="s">
         <v>121</v>
       </c>
-      <c r="R21" s="282"/>
-      <c r="S21" s="282"/>
-      <c r="T21" s="282"/>
-      <c r="U21" s="283"/>
-      <c r="V21" s="281" t="s">
+      <c r="R21" s="283"/>
+      <c r="S21" s="283"/>
+      <c r="T21" s="283"/>
+      <c r="U21" s="284"/>
+      <c r="V21" s="282" t="s">
         <v>122</v>
       </c>
-      <c r="W21" s="282"/>
-      <c r="X21" s="282"/>
-      <c r="Y21" s="282"/>
-      <c r="Z21" s="283"/>
-      <c r="AA21" s="281" t="s">
+      <c r="W21" s="283"/>
+      <c r="X21" s="283"/>
+      <c r="Y21" s="283"/>
+      <c r="Z21" s="284"/>
+      <c r="AA21" s="282" t="s">
         <v>123</v>
       </c>
-      <c r="AB21" s="282"/>
-      <c r="AC21" s="282"/>
-      <c r="AD21" s="282"/>
-      <c r="AE21" s="283"/>
+      <c r="AB21" s="283"/>
+      <c r="AC21" s="283"/>
+      <c r="AD21" s="283"/>
+      <c r="AE21" s="284"/>
     </row>
     <row r="22" s="42" customFormat="true" ht="18.75" customHeight="true">
       <c r="A22" s="43" t="s">
@@ -13881,10 +13924,10 @@
       <c r="B3" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="300">
+      <c r="C3" s="238">
         <v>20994.603755950928</v>
       </c>
-      <c r="D3" s="300">
+      <c r="D3" s="238">
         <v>61609.917491912842</v>
       </c>
     </row>
@@ -13941,22 +13984,22 @@
         <v>200</v>
       </c>
       <c r="C10" s="232">
-        <v>0.093833760785695802</v>
+        <v>0.093833760785696246</v>
       </c>
       <c r="D10" s="232">
-        <v>0.07185686724409554</v>
+        <v>0.071856867244095568</v>
       </c>
       <c r="E10" s="231">
-        <v>0.1955449614799713</v>
+        <v>0.19554496147996944</v>
       </c>
       <c r="F10" s="233">
         <v>0.1342441075619096</v>
       </c>
       <c r="G10" s="233">
-        <v>0.11418217520382158</v>
+        <v>0.11418217520382215</v>
       </c>
       <c r="H10" s="231">
-        <v>0.24722428494273849</v>
+        <v>0.24722428494274082</v>
       </c>
     </row>
     <row r="11">
@@ -13964,22 +14007,22 @@
         <v>201</v>
       </c>
       <c r="C11" s="232">
-        <v>0.47889167678351219</v>
+        <v>0.47889167678351241</v>
       </c>
       <c r="D11" s="232">
-        <v>0.055112282645096822</v>
+        <v>0.05511228264509678</v>
       </c>
       <c r="E11" s="231">
-        <v>5.2546492952986508e-013</v>
+        <v>5.2546492952983852e-013</v>
       </c>
       <c r="F11" s="233">
         <v>0.27044208434582595</v>
       </c>
       <c r="G11" s="233">
-        <v>0.085461973648246869</v>
+        <v>0.085461973648246592</v>
       </c>
       <c r="H11" s="231">
-        <v>0.0031030321743453953</v>
+        <v>0.0031030321743453133</v>
       </c>
     </row>
     <row r="12">
@@ -13987,22 +14030,22 @@
         <v>202</v>
       </c>
       <c r="C12" s="232">
-        <v>0.017287341950584234</v>
+        <v>0.01728734195058379</v>
       </c>
       <c r="D12" s="232">
-        <v>0.044576688459373445</v>
+        <v>0.044576688459373341</v>
       </c>
       <c r="E12" s="231">
-        <v>0.69923978020750654</v>
+        <v>0.69923978020751332</v>
       </c>
       <c r="F12" s="233">
         <v>0.077140958733357023</v>
       </c>
       <c r="G12" s="233">
-        <v>0.10227471789339684</v>
+        <v>0.10227471789339669</v>
       </c>
       <c r="H12" s="231">
-        <v>0.45547144346380819</v>
+        <v>0.45547144346380763</v>
       </c>
     </row>
     <row r="13">
@@ -14010,22 +14053,22 @@
         <v>213</v>
       </c>
       <c r="C13" s="232">
-        <v>0.40998722048020797</v>
+        <v>0.40998722048020753</v>
       </c>
       <c r="D13" s="232">
-        <v>0.058684969644739557</v>
+        <v>0.058684969644739571</v>
       </c>
       <c r="E13" s="231">
-        <v>9.3210044788086404e-010</v>
+        <v>9.3210044788090436e-010</v>
       </c>
       <c r="F13" s="233">
         <v>0.51817284935891106</v>
       </c>
       <c r="G13" s="233">
-        <v>0.084764499759858378</v>
+        <v>0.084764499759857767</v>
       </c>
       <c r="H13">
-        <v>4.4136867910530823e-007</v>
+        <v>4.4136867910524725e-007</v>
       </c>
     </row>
     <row r="14">
@@ -14033,22 +14076,22 @@
         <v>196</v>
       </c>
       <c r="C14" s="232">
-        <v>2.1411559282179766</v>
+        <v>2.1411559282179775</v>
       </c>
       <c r="D14" s="232">
-        <v>0.12779024981246492</v>
+        <v>0.12779024981246526</v>
       </c>
       <c r="E14" s="231">
-        <v>3.1065314399800736e-027</v>
+        <v>3.1065314399804725e-027</v>
       </c>
       <c r="F14" s="233">
         <v>1.9431455923076992</v>
       </c>
       <c r="G14" s="233">
-        <v>0.15944438644375614</v>
+        <v>0.15944438644375569</v>
       </c>
       <c r="H14" s="231">
-        <v>1.6101608486731549e-014</v>
+        <v>1.610160848673022e-014</v>
       </c>
     </row>
     <row r="15">
@@ -14346,48 +14389,48 @@
     </row>
     <row r="9" s="35" customFormat="true" ht="18.75" customHeight="true">
       <c r="A9" s="34"/>
-      <c r="B9" s="281" t="s">
+      <c r="B9" s="282" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="282"/>
-      <c r="D9" s="282"/>
-      <c r="E9" s="282"/>
-      <c r="F9" s="283"/>
-      <c r="G9" s="281" t="s">
+      <c r="C9" s="283"/>
+      <c r="D9" s="283"/>
+      <c r="E9" s="283"/>
+      <c r="F9" s="284"/>
+      <c r="G9" s="282" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="282"/>
-      <c r="I9" s="282"/>
-      <c r="J9" s="282"/>
-      <c r="K9" s="283"/>
-      <c r="L9" s="281" t="s">
+      <c r="H9" s="283"/>
+      <c r="I9" s="283"/>
+      <c r="J9" s="283"/>
+      <c r="K9" s="284"/>
+      <c r="L9" s="282" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="282"/>
-      <c r="N9" s="282"/>
-      <c r="O9" s="282"/>
-      <c r="P9" s="283"/>
-      <c r="Q9" s="281" t="s">
+      <c r="M9" s="283"/>
+      <c r="N9" s="283"/>
+      <c r="O9" s="283"/>
+      <c r="P9" s="284"/>
+      <c r="Q9" s="282" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="282"/>
-      <c r="S9" s="282"/>
-      <c r="T9" s="282"/>
-      <c r="U9" s="283"/>
-      <c r="V9" s="281" t="s">
+      <c r="R9" s="283"/>
+      <c r="S9" s="283"/>
+      <c r="T9" s="283"/>
+      <c r="U9" s="284"/>
+      <c r="V9" s="282" t="s">
         <v>122</v>
       </c>
-      <c r="W9" s="282"/>
-      <c r="X9" s="282"/>
-      <c r="Y9" s="282"/>
-      <c r="Z9" s="283"/>
-      <c r="AA9" s="281" t="s">
+      <c r="W9" s="283"/>
+      <c r="X9" s="283"/>
+      <c r="Y9" s="283"/>
+      <c r="Z9" s="284"/>
+      <c r="AA9" s="282" t="s">
         <v>123</v>
       </c>
-      <c r="AB9" s="282"/>
-      <c r="AC9" s="282"/>
-      <c r="AD9" s="282"/>
-      <c r="AE9" s="283"/>
+      <c r="AB9" s="283"/>
+      <c r="AC9" s="283"/>
+      <c r="AD9" s="283"/>
+      <c r="AE9" s="284"/>
     </row>
     <row r="10" s="42" customFormat="true" ht="18.75" customHeight="true">
       <c r="A10" s="43" t="s">

--- a/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Myanmar\AquaAgri\Analysis\AquaLEWIE_github\GAMS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="805" activeTab="6"/>
   </bookViews>
@@ -22,7 +27,7 @@
     <sheet name="wages" sheetId="9" r:id="rId13"/>
     <sheet name="Alt" sheetId="12" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="171027" fullCalcOnLoad="true"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -85,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="225">
   <si>
     <t>Variable</t>
   </si>
@@ -785,9 +790,6 @@
     <t>li_other</t>
   </si>
   <si>
-    <t>agri household</t>
-  </si>
-  <si>
     <t>llc</t>
   </si>
   <si>
@@ -815,12 +817,6 @@
     <t>li_feed</t>
   </si>
   <si>
-    <t>labor cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asset </t>
-  </si>
-  <si>
     <t>Factor Shares</t>
   </si>
   <si>
@@ -833,16 +829,34 @@
     <t>y</t>
   </si>
   <si>
-    <t>nonfarm</t>
-  </si>
-  <si>
-    <t>agri_household</t>
+    <t>aqua_ag</t>
+  </si>
+  <si>
+    <t>aqua_ll</t>
+  </si>
+  <si>
+    <t>agri_ag</t>
+  </si>
+  <si>
+    <t>agri_ll</t>
+  </si>
+  <si>
+    <t>share labor cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">share asset </t>
+  </si>
+  <si>
+    <t>Value added breakdown</t>
+  </si>
+  <si>
+    <t>ysale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="11">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -856,7 +870,7 @@
     <numFmt numFmtId="172" formatCode="0.0"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,7 +954,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,19 +975,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519242"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038484"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038484"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,13 +1017,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519242"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778863"/>
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,611 +1532,613 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="true"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="3" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="169" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
-    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment horizontal="left" vertical="top" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2126,6 +2148,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2449,21 +2479,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.85546875" style="6"/>
-    <col min="3" max="3" width="19" style="6" customWidth="true"/>
+    <col min="3" max="3" width="19" style="6" customWidth="1"/>
     <col min="4" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -2477,7 +2507,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" s="6" t="s">
         <v>68</v>
       </c>
@@ -2485,7 +2515,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -2499,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -2513,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -2527,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -2541,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -2555,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -2578,27 +2608,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="true"/>
-    <col min="2" max="2" width="8.28515625" customWidth="true"/>
-    <col min="3" max="3" width="8" customWidth="true"/>
-    <col min="4" max="7" width="8.28515625" customWidth="true"/>
-    <col min="8" max="8" width="11.28515625" customWidth="true"/>
-    <col min="9" max="9" width="8.28515625" customWidth="true"/>
-    <col min="10" max="10" width="10.7109375" customWidth="true"/>
-    <col min="11" max="11" width="10.85546875" customWidth="true"/>
-    <col min="12" max="12" width="8.28515625" customWidth="true"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" ht="15.75" thickBot="true">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2618,38 +2648,38 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="285" t="s">
+      <c r="B9" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="286"/>
-      <c r="D9" s="286"/>
-      <c r="E9" s="286"/>
-      <c r="F9" s="287"/>
-      <c r="G9" s="285" t="s">
+      <c r="C9" s="288"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="287" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="286"/>
-      <c r="I9" s="286"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="287"/>
-      <c r="L9" s="285" t="s">
+      <c r="H9" s="288"/>
+      <c r="I9" s="288"/>
+      <c r="J9" s="288"/>
+      <c r="K9" s="289"/>
+      <c r="L9" s="287" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="286"/>
-      <c r="N9" s="286"/>
-      <c r="O9" s="286"/>
-      <c r="P9" s="287"/>
-      <c r="Q9" s="285" t="s">
+      <c r="M9" s="288"/>
+      <c r="N9" s="288"/>
+      <c r="O9" s="288"/>
+      <c r="P9" s="289"/>
+      <c r="Q9" s="287" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="286"/>
-      <c r="S9" s="286"/>
-      <c r="T9" s="286"/>
-      <c r="U9" s="287"/>
-    </row>
-    <row r="10">
+      <c r="R9" s="288"/>
+      <c r="S9" s="288"/>
+      <c r="T9" s="288"/>
+      <c r="U9" s="289"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
@@ -2714,7 +2744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" s="59" customFormat="true" ht="15.75" thickBot="true">
+    <row r="11" spans="1:21" s="59" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>101</v>
       </c>
@@ -2779,7 +2809,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="12" ht="15.75" thickBot="true">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="203"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
@@ -2802,7 +2832,7 @@
       <c r="T12" s="206"/>
       <c r="U12" s="207"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
     </row>
   </sheetData>
@@ -2817,19 +2847,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="true"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" ht="15.75" thickBot="true">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -2849,38 +2879,38 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="285" t="s">
+      <c r="B9" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="286"/>
-      <c r="D9" s="286"/>
-      <c r="E9" s="286"/>
-      <c r="F9" s="287"/>
-      <c r="G9" s="285" t="s">
+      <c r="C9" s="288"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="287" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="286"/>
-      <c r="I9" s="286"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="287"/>
-      <c r="L9" s="285" t="s">
+      <c r="H9" s="288"/>
+      <c r="I9" s="288"/>
+      <c r="J9" s="288"/>
+      <c r="K9" s="289"/>
+      <c r="L9" s="287" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="286"/>
-      <c r="N9" s="286"/>
-      <c r="O9" s="286"/>
-      <c r="P9" s="287"/>
-      <c r="Q9" s="285" t="s">
+      <c r="M9" s="288"/>
+      <c r="N9" s="288"/>
+      <c r="O9" s="288"/>
+      <c r="P9" s="289"/>
+      <c r="Q9" s="287" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="286"/>
-      <c r="S9" s="286"/>
-      <c r="T9" s="286"/>
-      <c r="U9" s="287"/>
-    </row>
-    <row r="10">
+      <c r="R9" s="288"/>
+      <c r="S9" s="288"/>
+      <c r="T9" s="288"/>
+      <c r="U9" s="289"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>0</v>
       </c>
@@ -2945,7 +2975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="15.75" thickBot="true">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>102</v>
       </c>
@@ -2970,7 +3000,7 @@
       <c r="T11" s="15"/>
       <c r="U11" s="22"/>
     </row>
-    <row r="12" ht="15.75" thickBot="true">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="209"/>
       <c r="B12" s="18"/>
       <c r="C12" s="15"/>
@@ -3006,28 +3036,28 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="288" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="290" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="288"/>
-      <c r="C3" s="288"/>
-    </row>
-    <row r="4">
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>57</v>
       </c>
@@ -3035,28 +3065,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="9">
-      <c r="A9" s="288" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="290" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="288"/>
-      <c r="C9" s="288"/>
-    </row>
-    <row r="10">
+      <c r="B9" s="290"/>
+      <c r="C9" s="290"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>57</v>
       </c>
@@ -3064,21 +3094,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G13" s="7" t="s">
         <v>59</v>
       </c>
@@ -3087,7 +3117,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
         <v>60</v>
@@ -3096,12 +3126,12 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15">
-      <c r="A15" s="288" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="290" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="288"/>
-      <c r="C15" s="288"/>
+      <c r="B15" s="290"/>
+      <c r="C15" s="290"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
         <v>1</v>
@@ -3116,7 +3146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>57</v>
       </c>
@@ -3131,7 +3161,7 @@
       <c r="J16" s="68"/>
       <c r="K16" s="68"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -3145,7 +3175,7 @@
       <c r="J17" s="230"/>
       <c r="K17" s="230"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3159,7 +3189,7 @@
       <c r="J18" s="68"/>
       <c r="K18" s="68"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G19" s="7" t="s">
         <v>61</v>
       </c>
@@ -3168,19 +3198,19 @@
       <c r="J19" s="230"/>
       <c r="K19" s="230"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21">
-      <c r="A21" s="288" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="290" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="288"/>
-      <c r="C21" s="288"/>
+      <c r="B21" s="290"/>
+      <c r="C21" s="290"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>135</v>
@@ -3189,7 +3219,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>57</v>
       </c>
@@ -3210,7 +3240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -3224,7 +3254,7 @@
       <c r="J23" s="68"/>
       <c r="K23" s="68"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -3238,7 +3268,7 @@
       <c r="J24" s="230"/>
       <c r="K24" s="230"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G25" s="7" t="s">
         <v>53</v>
       </c>
@@ -3247,7 +3277,7 @@
       <c r="J25" s="68"/>
       <c r="K25" s="68"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G26" s="7" t="s">
         <v>61</v>
       </c>
@@ -3256,24 +3286,24 @@
       <c r="J26" s="230"/>
       <c r="K26" s="230"/>
     </row>
-    <row r="27">
-      <c r="B27" s="288"/>
-      <c r="C27" s="288"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="290"/>
+      <c r="C27" s="290"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" ht="15.75" thickBot="true">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29">
-      <c r="F29" s="295" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F29" s="297" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="61" t="s">
@@ -3284,8 +3314,8 @@
       <c r="J29" s="61"/>
       <c r="K29" s="66"/>
     </row>
-    <row r="30">
-      <c r="F30" s="296"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F30" s="298"/>
       <c r="G30" s="24" t="s">
         <v>51</v>
       </c>
@@ -3294,8 +3324,8 @@
       <c r="J30" s="24"/>
       <c r="K30" s="65"/>
     </row>
-    <row r="31">
-      <c r="F31" s="296" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F31" s="298" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="24" t="s">
@@ -3306,8 +3336,8 @@
       <c r="J31" s="24"/>
       <c r="K31" s="65"/>
     </row>
-    <row r="32" ht="15.75" thickBot="true">
-      <c r="F32" s="297"/>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="299"/>
       <c r="G32" s="64" t="s">
         <v>51</v>
       </c>
@@ -3316,23 +3346,23 @@
       <c r="J32" s="64"/>
       <c r="K32" s="67"/>
     </row>
-    <row r="33">
-      <c r="B33" s="288"/>
-      <c r="C33" s="288"/>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="290"/>
+      <c r="C33" s="290"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" ht="15.75" thickBot="true">
+    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" ht="15.75" thickBot="true">
+    <row r="35" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -3342,11 +3372,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36">
-      <c r="F36" s="289" t="s">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F36" s="291" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="298" t="s">
+      <c r="G36" s="300" t="s">
         <v>125</v>
       </c>
       <c r="H36" s="61" t="e">
@@ -3370,9 +3400,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37">
-      <c r="F37" s="290"/>
-      <c r="G37" s="293"/>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F37" s="292"/>
+      <c r="G37" s="295"/>
       <c r="H37" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3394,9 +3424,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38">
-      <c r="F38" s="290"/>
-      <c r="G38" s="293"/>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F38" s="292"/>
+      <c r="G38" s="295"/>
       <c r="H38" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3418,9 +3448,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" s="290"/>
-      <c r="G39" s="293"/>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F39" s="292"/>
+      <c r="G39" s="295"/>
       <c r="H39" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3442,8 +3472,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" s="290"/>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F40" s="292"/>
       <c r="G40" s="108"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -3451,9 +3481,9 @@
       <c r="K40" s="65"/>
       <c r="M40" s="109"/>
     </row>
-    <row r="41">
-      <c r="F41" s="290"/>
-      <c r="G41" s="293" t="s">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F41" s="292"/>
+      <c r="G41" s="295" t="s">
         <v>135</v>
       </c>
       <c r="H41" s="24" t="e">
@@ -3477,9 +3507,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" s="290"/>
-      <c r="G42" s="293"/>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F42" s="292"/>
+      <c r="G42" s="295"/>
       <c r="H42" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3501,9 +3531,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" s="290"/>
-      <c r="G43" s="293"/>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F43" s="292"/>
+      <c r="G43" s="295"/>
       <c r="H43" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3525,9 +3555,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" ht="15.75" thickBot="true">
-      <c r="F44" s="291"/>
-      <c r="G44" s="294"/>
+    <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="293"/>
+      <c r="G44" s="296"/>
       <c r="H44" s="64" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -3549,7 +3579,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" ht="15.75" thickBot="true">
+    <row r="45" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -3557,11 +3587,11 @@
       <c r="K45" s="7"/>
       <c r="M45" s="109"/>
     </row>
-    <row r="46">
-      <c r="F46" s="289" t="s">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F46" s="291" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="292" t="s">
+      <c r="G46" s="294" t="s">
         <v>125</v>
       </c>
       <c r="H46" s="61" t="e">
@@ -3585,9 +3615,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" s="290"/>
-      <c r="G47" s="293"/>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F47" s="292"/>
+      <c r="G47" s="295"/>
       <c r="H47" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3609,9 +3639,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" s="290"/>
-      <c r="G48" s="293"/>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F48" s="292"/>
+      <c r="G48" s="295"/>
       <c r="H48" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3633,9 +3663,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" s="290"/>
-      <c r="G49" s="293"/>
+    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F49" s="292"/>
+      <c r="G49" s="295"/>
       <c r="H49" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -3657,8 +3687,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" s="290"/>
+    <row r="50" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F50" s="292"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
@@ -3666,9 +3696,9 @@
       <c r="K50" s="65"/>
       <c r="M50" s="109"/>
     </row>
-    <row r="51">
-      <c r="F51" s="290"/>
-      <c r="G51" s="293" t="s">
+    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F51" s="292"/>
+      <c r="G51" s="295" t="s">
         <v>135</v>
       </c>
       <c r="H51" s="24" t="e">
@@ -3692,9 +3722,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52" s="290"/>
-      <c r="G52" s="293"/>
+    <row r="52" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F52" s="292"/>
+      <c r="G52" s="295"/>
       <c r="H52" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3716,9 +3746,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53" s="290"/>
-      <c r="G53" s="293"/>
+    <row r="53" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F53" s="292"/>
+      <c r="G53" s="295"/>
       <c r="H53" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3740,9 +3770,9 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" ht="15.75" thickBot="true">
-      <c r="F54" s="291"/>
-      <c r="G54" s="294"/>
+    <row r="54" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="293"/>
+      <c r="G54" s="296"/>
       <c r="H54" s="64" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3764,14 +3794,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56">
+    <row r="56" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G56" s="30" t="s">
         <v>98</v>
       </c>
@@ -3796,7 +3826,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G57" s="30"/>
       <c r="H57" s="30" t="e">
         <f t="shared" ref="H57:K59" si="5">H17/H$33</f>
@@ -3819,7 +3849,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G58" s="30"/>
       <c r="H58" s="30" t="e">
         <f t="shared" si="5"/>
@@ -3842,7 +3872,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G59" s="30"/>
       <c r="H59" s="30" t="e">
         <f t="shared" si="5"/>
@@ -3865,14 +3895,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G60" s="30"/>
       <c r="H60" s="30"/>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
       <c r="K60" s="30"/>
     </row>
-    <row r="61">
+    <row r="61" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G61" s="30"/>
       <c r="H61" s="30" t="e">
         <f>H23/H$34</f>
@@ -3895,7 +3925,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G62" s="30"/>
       <c r="H62" s="30" t="e">
         <f t="shared" ref="H62:K64" si="7">H24/H$34</f>
@@ -3918,7 +3948,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G63" s="30"/>
       <c r="H63" s="30" t="e">
         <f t="shared" si="7"/>
@@ -3941,7 +3971,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="6:13" x14ac:dyDescent="0.25">
       <c r="G64" s="30"/>
       <c r="H64" s="30" t="e">
         <f t="shared" si="7"/>
@@ -3986,25 +4016,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" customWidth="true"/>
-    <col min="3" max="3" width="18.28515625" customWidth="true"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -4012,24 +4042,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>100</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="11">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -4037,13 +4067,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>99</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>100</v>
       </c>
@@ -4055,31 +4085,31 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="288" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="290" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288"/>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="288">
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="290">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -4095,8 +4125,8 @@
       <c r="J3" s="124"/>
       <c r="K3" s="124"/>
     </row>
-    <row r="4">
-      <c r="A4" s="288"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="290"/>
       <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
@@ -4110,8 +4140,8 @@
       <c r="J4" s="125"/>
       <c r="K4" s="125"/>
     </row>
-    <row r="5">
-      <c r="A5" s="288">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="290">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -4127,8 +4157,8 @@
       <c r="J5" s="124"/>
       <c r="K5" s="124"/>
     </row>
-    <row r="6">
-      <c r="A6" s="288"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="290"/>
       <c r="B6" s="8" t="s">
         <v>45</v>
       </c>
@@ -4142,169 +4172,169 @@
       <c r="J6" s="124"/>
       <c r="K6" s="124"/>
     </row>
-    <row r="9">
-      <c r="A9" s="288">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="290">
         <v>1</v>
       </c>
-      <c r="B9" s="299" t="s">
+      <c r="B9" s="301" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="300"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
-      <c r="I9" s="300"/>
-      <c r="J9" s="300"/>
-      <c r="K9" s="300"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="288"/>
-      <c r="B10" s="300"/>
-      <c r="C10" s="300"/>
-      <c r="D10" s="300"/>
-      <c r="E10" s="300"/>
-      <c r="F10" s="300"/>
-      <c r="G10" s="300"/>
-      <c r="H10" s="300"/>
-      <c r="I10" s="300"/>
-      <c r="J10" s="300"/>
-      <c r="K10" s="300"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="288"/>
-      <c r="B11" s="300"/>
-      <c r="C11" s="300"/>
-      <c r="D11" s="300"/>
-      <c r="E11" s="300"/>
-      <c r="F11" s="300"/>
-      <c r="G11" s="300"/>
-      <c r="H11" s="300"/>
-      <c r="I11" s="300"/>
-      <c r="J11" s="300"/>
-      <c r="K11" s="300"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="288"/>
-      <c r="B12" s="300"/>
-      <c r="C12" s="300"/>
-      <c r="D12" s="300"/>
-      <c r="E12" s="300"/>
-      <c r="F12" s="300"/>
-      <c r="G12" s="300"/>
-      <c r="H12" s="300"/>
-      <c r="I12" s="300"/>
-      <c r="J12" s="300"/>
-      <c r="K12" s="300"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="288"/>
-      <c r="B13" s="300"/>
-      <c r="C13" s="300"/>
-      <c r="D13" s="300"/>
-      <c r="E13" s="300"/>
-      <c r="F13" s="300"/>
-      <c r="G13" s="300"/>
-      <c r="H13" s="300"/>
-      <c r="I13" s="300"/>
-      <c r="J13" s="300"/>
-      <c r="K13" s="300"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="288"/>
-      <c r="B14" s="300"/>
-      <c r="C14" s="300"/>
-      <c r="D14" s="300"/>
-      <c r="E14" s="300"/>
-      <c r="F14" s="300"/>
-      <c r="G14" s="300"/>
-      <c r="H14" s="300"/>
-      <c r="I14" s="300"/>
-      <c r="J14" s="300"/>
-      <c r="K14" s="300"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="288">
+      <c r="C9" s="302"/>
+      <c r="D9" s="302"/>
+      <c r="E9" s="302"/>
+      <c r="F9" s="302"/>
+      <c r="G9" s="302"/>
+      <c r="H9" s="302"/>
+      <c r="I9" s="302"/>
+      <c r="J9" s="302"/>
+      <c r="K9" s="302"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="290"/>
+      <c r="B10" s="302"/>
+      <c r="C10" s="302"/>
+      <c r="D10" s="302"/>
+      <c r="E10" s="302"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="302"/>
+      <c r="I10" s="302"/>
+      <c r="J10" s="302"/>
+      <c r="K10" s="302"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="290"/>
+      <c r="B11" s="302"/>
+      <c r="C11" s="302"/>
+      <c r="D11" s="302"/>
+      <c r="E11" s="302"/>
+      <c r="F11" s="302"/>
+      <c r="G11" s="302"/>
+      <c r="H11" s="302"/>
+      <c r="I11" s="302"/>
+      <c r="J11" s="302"/>
+      <c r="K11" s="302"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="290"/>
+      <c r="B12" s="302"/>
+      <c r="C12" s="302"/>
+      <c r="D12" s="302"/>
+      <c r="E12" s="302"/>
+      <c r="F12" s="302"/>
+      <c r="G12" s="302"/>
+      <c r="H12" s="302"/>
+      <c r="I12" s="302"/>
+      <c r="J12" s="302"/>
+      <c r="K12" s="302"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="290"/>
+      <c r="B13" s="302"/>
+      <c r="C13" s="302"/>
+      <c r="D13" s="302"/>
+      <c r="E13" s="302"/>
+      <c r="F13" s="302"/>
+      <c r="G13" s="302"/>
+      <c r="H13" s="302"/>
+      <c r="I13" s="302"/>
+      <c r="J13" s="302"/>
+      <c r="K13" s="302"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="290"/>
+      <c r="B14" s="302"/>
+      <c r="C14" s="302"/>
+      <c r="D14" s="302"/>
+      <c r="E14" s="302"/>
+      <c r="F14" s="302"/>
+      <c r="G14" s="302"/>
+      <c r="H14" s="302"/>
+      <c r="I14" s="302"/>
+      <c r="J14" s="302"/>
+      <c r="K14" s="302"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="290">
         <v>2</v>
       </c>
-      <c r="B15" s="299" t="s">
+      <c r="B15" s="301" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="300"/>
-      <c r="D15" s="300"/>
-      <c r="E15" s="300"/>
-      <c r="F15" s="300"/>
-      <c r="G15" s="300"/>
-      <c r="H15" s="300"/>
-      <c r="I15" s="300"/>
-      <c r="J15" s="300"/>
-      <c r="K15" s="300"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="288"/>
-      <c r="B16" s="300"/>
-      <c r="C16" s="300"/>
-      <c r="D16" s="300"/>
-      <c r="E16" s="300"/>
-      <c r="F16" s="300"/>
-      <c r="G16" s="300"/>
-      <c r="H16" s="300"/>
-      <c r="I16" s="300"/>
-      <c r="J16" s="300"/>
-      <c r="K16" s="300"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="288"/>
-      <c r="B17" s="300"/>
-      <c r="C17" s="300"/>
-      <c r="D17" s="300"/>
-      <c r="E17" s="300"/>
-      <c r="F17" s="300"/>
-      <c r="G17" s="300"/>
-      <c r="H17" s="300"/>
-      <c r="I17" s="300"/>
-      <c r="J17" s="300"/>
-      <c r="K17" s="300"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="288"/>
-      <c r="B18" s="300"/>
-      <c r="C18" s="300"/>
-      <c r="D18" s="300"/>
-      <c r="E18" s="300"/>
-      <c r="F18" s="300"/>
-      <c r="G18" s="300"/>
-      <c r="H18" s="300"/>
-      <c r="I18" s="300"/>
-      <c r="J18" s="300"/>
-      <c r="K18" s="300"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="288"/>
-      <c r="B19" s="300"/>
-      <c r="C19" s="300"/>
-      <c r="D19" s="300"/>
-      <c r="E19" s="300"/>
-      <c r="F19" s="300"/>
-      <c r="G19" s="300"/>
-      <c r="H19" s="300"/>
-      <c r="I19" s="300"/>
-      <c r="J19" s="300"/>
-      <c r="K19" s="300"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="288"/>
-      <c r="B20" s="300"/>
-      <c r="C20" s="300"/>
-      <c r="D20" s="300"/>
-      <c r="E20" s="300"/>
-      <c r="F20" s="300"/>
-      <c r="G20" s="300"/>
-      <c r="H20" s="300"/>
-      <c r="I20" s="300"/>
-      <c r="J20" s="300"/>
-      <c r="K20" s="300"/>
+      <c r="C15" s="302"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="302"/>
+      <c r="I15" s="302"/>
+      <c r="J15" s="302"/>
+      <c r="K15" s="302"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="290"/>
+      <c r="B16" s="302"/>
+      <c r="C16" s="302"/>
+      <c r="D16" s="302"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="302"/>
+      <c r="I16" s="302"/>
+      <c r="J16" s="302"/>
+      <c r="K16" s="302"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="290"/>
+      <c r="B17" s="302"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="302"/>
+      <c r="K17" s="302"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="290"/>
+      <c r="B18" s="302"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="302"/>
+      <c r="I18" s="302"/>
+      <c r="J18" s="302"/>
+      <c r="K18" s="302"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="290"/>
+      <c r="B19" s="302"/>
+      <c r="C19" s="302"/>
+      <c r="D19" s="302"/>
+      <c r="E19" s="302"/>
+      <c r="F19" s="302"/>
+      <c r="G19" s="302"/>
+      <c r="H19" s="302"/>
+      <c r="I19" s="302"/>
+      <c r="J19" s="302"/>
+      <c r="K19" s="302"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="290"/>
+      <c r="B20" s="302"/>
+      <c r="C20" s="302"/>
+      <c r="D20" s="302"/>
+      <c r="E20" s="302"/>
+      <c r="F20" s="302"/>
+      <c r="G20" s="302"/>
+      <c r="H20" s="302"/>
+      <c r="I20" s="302"/>
+      <c r="J20" s="302"/>
+      <c r="K20" s="302"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4321,21 +4351,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.42578125" customWidth="true"/>
-    <col min="4" max="4" width="11.28515625" customWidth="true"/>
-    <col min="5" max="5" width="12" customWidth="true"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -4350,7 +4380,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4361,7 +4391,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -4376,7 +4406,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -4391,7 +4421,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -4406,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -4421,7 +4451,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -4436,7 +4466,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -4459,21 +4489,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.42578125" customWidth="true"/>
-    <col min="4" max="4" width="11.28515625" customWidth="true"/>
-    <col min="5" max="5" width="12" customWidth="true"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -4488,7 +4518,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4499,7 +4529,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -4514,7 +4544,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -4529,7 +4559,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>70</v>
       </c>
@@ -4544,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
@@ -4559,7 +4589,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -4574,7 +4604,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
@@ -4597,7 +4627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -4610,18 +4640,18 @@
       <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="true"/>
-    <col min="2" max="2" width="11.140625" customWidth="true"/>
-    <col min="6" max="9" width="17.42578125" customWidth="true"/>
-    <col min="10" max="11" width="17.42578125" style="5" customWidth="true"/>
-    <col min="12" max="12" width="14.5703125" style="5" customWidth="true"/>
-    <col min="14" max="14" width="47.28515625" customWidth="true"/>
-    <col min="15" max="23" width="12.5703125" customWidth="true"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="6" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="11" width="17.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" customWidth="1"/>
+    <col min="15" max="23" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
@@ -4635,45 +4665,45 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="273" t="s">
+      <c r="F1" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="280" t="s">
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="275"/>
+      <c r="J1" s="282" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="280"/>
+      <c r="K1" s="282"/>
       <c r="L1" s="9"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="251" t="s">
+      <c r="N1" s="253" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="252"/>
-      <c r="P1" s="252"/>
-      <c r="Q1" s="252"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="253"/>
+      <c r="O1" s="254"/>
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="254"/>
+      <c r="S1" s="255"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
       <c r="W1" s="8"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="271" t="s">
+      <c r="F2" s="273" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271" t="s">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="271"/>
+      <c r="I2" s="273"/>
       <c r="J2" s="9" t="s">
         <v>99</v>
       </c>
@@ -4682,18 +4712,18 @@
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="274" t="s">
+      <c r="N2" s="276" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="275"/>
-      <c r="P2" s="275" t="s">
+      <c r="O2" s="277"/>
+      <c r="P2" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="275"/>
-      <c r="R2" s="276" t="s">
+      <c r="Q2" s="277"/>
+      <c r="R2" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="278" t="s">
+      <c r="S2" s="280" t="s">
         <v>129</v>
       </c>
       <c r="T2" s="8"/>
@@ -4701,7 +4731,7 @@
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
     </row>
-    <row r="3" ht="15.75" thickBot="true">
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4735,14 +4765,14 @@
       <c r="Q3" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="277"/>
-      <c r="S3" s="279"/>
+      <c r="R3" s="279"/>
+      <c r="S3" s="281"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -4780,10 +4810,10 @@
         <f>S4*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L4" s="244" t="s">
+      <c r="L4" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="245"/>
+      <c r="M4" s="247"/>
       <c r="N4" s="60">
         <f>Crop!$C$23*Input!F8</f>
         <v>0</v>
@@ -4813,7 +4843,7 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -4851,8 +4881,8 @@
         <f>S5*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L5" s="244"/>
-      <c r="M5" s="245"/>
+      <c r="L5" s="246"/>
+      <c r="M5" s="247"/>
       <c r="N5" s="62">
         <f>Crop!$C$23*Input!F9</f>
         <v>0</v>
@@ -4882,7 +4912,7 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -4920,8 +4950,8 @@
         <f>S6*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L6" s="244"/>
-      <c r="M6" s="245"/>
+      <c r="L6" s="246"/>
+      <c r="M6" s="247"/>
       <c r="N6" s="62">
         <f>Crop!$C$23*Input!F10</f>
         <v>0</v>
@@ -4951,7 +4981,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" ht="15.75" thickBot="true">
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -4989,8 +5019,8 @@
         <f>S7*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L7" s="244"/>
-      <c r="M7" s="245"/>
+      <c r="L7" s="246"/>
+      <c r="M7" s="247"/>
       <c r="N7" s="63">
         <f>Crop!$C$23*Input!F11</f>
         <v>0</v>
@@ -5020,7 +5050,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
         <v>53</v>
       </c>
@@ -5053,7 +5083,7 @@
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
         <v>17</v>
       </c>
@@ -5080,7 +5110,7 @@
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="91" t="s">
         <v>18</v>
       </c>
@@ -5107,7 +5137,7 @@
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
         <v>51</v>
       </c>
@@ -5134,7 +5164,7 @@
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="91" t="s">
         <v>54</v>
       </c>
@@ -5161,7 +5191,7 @@
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="s">
         <v>85</v>
       </c>
@@ -5194,7 +5224,7 @@
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="91" t="s">
         <v>86</v>
       </c>
@@ -5227,7 +5257,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>87</v>
       </c>
@@ -5260,7 +5290,7 @@
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>88</v>
       </c>
@@ -5291,7 +5321,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" ht="15.75" thickBot="true">
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>89</v>
       </c>
@@ -5322,7 +5352,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
     </row>
-    <row r="18" ht="15.75" thickBot="true">
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>90</v>
       </c>
@@ -5353,7 +5383,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
     </row>
-    <row r="19" ht="15.75" thickBot="true">
+    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>84</v>
       </c>
@@ -5379,14 +5409,14 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="239" t="s">
+      <c r="T19" s="241" t="s">
         <v>112</v>
       </c>
-      <c r="U19" s="240"/>
-      <c r="V19" s="240"/>
-      <c r="W19" s="241"/>
-    </row>
-    <row r="20" ht="15.75" thickBot="true">
+      <c r="U19" s="242"/>
+      <c r="V19" s="242"/>
+      <c r="W19" s="243"/>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
         <v>16</v>
@@ -5439,7 +5469,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="true">
+    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
         <v>52</v>
@@ -5475,10 +5505,10 @@
         <f t="shared" ref="K21:K27" si="5">Q21*$K$93*$K$112</f>
         <v>0</v>
       </c>
-      <c r="L21" s="244" t="s">
+      <c r="L21" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="M21" s="245"/>
+      <c r="M21" s="247"/>
       <c r="N21" s="190">
         <f>T21*12</f>
         <v>0</v>
@@ -5495,10 +5525,10 @@
         <f t="shared" ref="Q21:Q27" si="8">W21*12</f>
         <v>0</v>
       </c>
-      <c r="R21" s="242" t="s">
+      <c r="R21" s="244" t="s">
         <v>113</v>
       </c>
-      <c r="S21" s="243"/>
+      <c r="S21" s="245"/>
       <c r="T21" s="190">
         <f>shares!H16</f>
         <v>0</v>
@@ -5516,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="s">
         <v>52</v>
@@ -5552,8 +5582,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="244"/>
-      <c r="M22" s="245"/>
+      <c r="L22" s="246"/>
+      <c r="M22" s="247"/>
       <c r="N22" s="193">
         <f t="shared" ref="N22:N27" si="9">T22*12</f>
         <v>0</v>
@@ -5570,8 +5600,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R22" s="242"/>
-      <c r="S22" s="243"/>
+      <c r="R22" s="244"/>
+      <c r="S22" s="245"/>
       <c r="T22" s="193">
         <f>shares!H17</f>
         <v>0</v>
@@ -5589,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
         <v>52</v>
@@ -5625,8 +5655,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="244"/>
-      <c r="M23" s="245"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="247"/>
       <c r="N23" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5643,8 +5673,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R23" s="242"/>
-      <c r="S23" s="243"/>
+      <c r="R23" s="244"/>
+      <c r="S23" s="245"/>
       <c r="T23" s="193">
         <f>shares!H18</f>
         <v>0</v>
@@ -5662,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" thickBot="true">
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
         <v>52</v>
@@ -5698,8 +5728,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="244"/>
-      <c r="M24" s="245"/>
+      <c r="L24" s="246"/>
+      <c r="M24" s="247"/>
       <c r="N24" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5716,8 +5746,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R24" s="242"/>
-      <c r="S24" s="243"/>
+      <c r="R24" s="244"/>
+      <c r="S24" s="245"/>
       <c r="T24" s="195">
         <f>shares!H19</f>
         <v>0</v>
@@ -5735,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
         <v>9</v>
@@ -5771,10 +5801,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="245" t="s">
+      <c r="L25" s="247" t="s">
         <v>108</v>
       </c>
-      <c r="M25" s="245"/>
+      <c r="M25" s="247"/>
       <c r="N25" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5791,16 +5821,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R25" s="242" t="s">
+      <c r="R25" s="244" t="s">
         <v>113</v>
       </c>
-      <c r="S25" s="248"/>
+      <c r="S25" s="250"/>
       <c r="T25" s="190"/>
       <c r="U25" s="191"/>
       <c r="V25" s="191"/>
       <c r="W25" s="192"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
         <v>9</v>
@@ -5836,8 +5866,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="245"/>
-      <c r="M26" s="245"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="247"/>
       <c r="N26" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5854,14 +5884,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R26" s="248"/>
-      <c r="S26" s="248"/>
+      <c r="R26" s="250"/>
+      <c r="S26" s="250"/>
       <c r="T26" s="193"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
       <c r="W26" s="194"/>
     </row>
-    <row r="27" s="7" customFormat="true" ht="15.75" thickBot="true">
+    <row r="27" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="s">
         <v>9</v>
@@ -5897,8 +5927,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="245"/>
-      <c r="M27" s="245"/>
+      <c r="L27" s="247"/>
+      <c r="M27" s="247"/>
       <c r="N27" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5915,14 +5945,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R27" s="248"/>
-      <c r="S27" s="248"/>
+      <c r="R27" s="250"/>
+      <c r="S27" s="250"/>
       <c r="T27" s="195"/>
       <c r="U27" s="196"/>
       <c r="V27" s="196"/>
       <c r="W27" s="197"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
         <v>10</v>
@@ -5940,8 +5970,8 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="245"/>
-      <c r="M28" s="245"/>
+      <c r="L28" s="247"/>
+      <c r="M28" s="247"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -5953,7 +5983,7 @@
       <c r="V28" s="8"/>
       <c r="W28" s="8"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
         <v>10</v>
@@ -5984,7 +6014,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
     </row>
-    <row r="30" s="8" customFormat="true">
+    <row r="30" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
@@ -6001,7 +6031,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
         <v>11</v>
@@ -6026,7 +6056,7 @@
       <c r="V31" s="8"/>
       <c r="W31" s="8"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
         <v>11</v>
@@ -6051,7 +6081,7 @@
       <c r="V32" s="8"/>
       <c r="W32" s="8"/>
     </row>
-    <row r="33" s="8" customFormat="true">
+    <row r="33" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
@@ -6068,7 +6098,7 @@
       <c r="J33" s="10"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
         <v>12</v>
@@ -6091,7 +6121,7 @@
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
     </row>
-    <row r="35" ht="15.75" thickBot="true">
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="s">
         <v>13</v>
@@ -6114,7 +6144,7 @@
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
     </row>
-    <row r="36" ht="15.75" thickBot="true">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="s">
         <v>14</v>
@@ -6137,7 +6167,7 @@
       <c r="V36" s="8"/>
       <c r="W36" s="8"/>
     </row>
-    <row r="37" ht="15.75" thickBot="true">
+    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="s">
         <v>15</v>
@@ -6161,14 +6191,14 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="239" t="s">
+      <c r="T37" s="241" t="s">
         <v>142</v>
       </c>
-      <c r="U37" s="240"/>
-      <c r="V37" s="240"/>
-      <c r="W37" s="241"/>
-    </row>
-    <row r="38" ht="15.75" thickBot="true">
+      <c r="U37" s="242"/>
+      <c r="V37" s="242"/>
+      <c r="W37" s="243"/>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
         <v>16</v>
@@ -6221,7 +6251,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="true">
+    <row r="39" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="s">
         <v>52</v>
@@ -6257,10 +6287,10 @@
         <f t="shared" ref="K39:K45" si="15">Q39*$K$93*$K$113</f>
         <v>0</v>
       </c>
-      <c r="L39" s="244" t="s">
+      <c r="L39" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="M39" s="245"/>
+      <c r="M39" s="247"/>
       <c r="N39" s="60">
         <f>T39*12</f>
         <v>0</v>
@@ -6277,10 +6307,10 @@
         <f>W39*12</f>
         <v>0</v>
       </c>
-      <c r="R39" s="243" t="s">
+      <c r="R39" s="245" t="s">
         <v>113</v>
       </c>
-      <c r="S39" s="243"/>
+      <c r="S39" s="245"/>
       <c r="T39" s="60">
         <f>shares!H23</f>
         <v>0</v>
@@ -6298,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="s">
         <v>52</v>
@@ -6334,8 +6364,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L40" s="244"/>
-      <c r="M40" s="245"/>
+      <c r="L40" s="246"/>
+      <c r="M40" s="247"/>
       <c r="N40" s="193">
         <f t="shared" ref="N40:N43" si="16">T40*12</f>
         <v>0</v>
@@ -6352,8 +6382,8 @@
         <f t="shared" ref="Q40:Q43" si="19">W40*12</f>
         <v>0</v>
       </c>
-      <c r="R40" s="243"/>
-      <c r="S40" s="243"/>
+      <c r="R40" s="245"/>
+      <c r="S40" s="245"/>
       <c r="T40" s="193">
         <f>shares!H24</f>
         <v>0</v>
@@ -6371,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="s">
         <v>52</v>
@@ -6407,8 +6437,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L41" s="244"/>
-      <c r="M41" s="245"/>
+      <c r="L41" s="246"/>
+      <c r="M41" s="247"/>
       <c r="N41" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6425,8 +6455,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R41" s="243"/>
-      <c r="S41" s="243"/>
+      <c r="R41" s="245"/>
+      <c r="S41" s="245"/>
       <c r="T41" s="193">
         <f>shares!H25</f>
         <v>0</v>
@@ -6444,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.75" thickBot="true">
+    <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="s">
         <v>52</v>
@@ -6480,8 +6510,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L42" s="244"/>
-      <c r="M42" s="245"/>
+      <c r="L42" s="246"/>
+      <c r="M42" s="247"/>
       <c r="N42" s="195">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6498,8 +6528,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R42" s="243"/>
-      <c r="S42" s="243"/>
+      <c r="R42" s="245"/>
+      <c r="S42" s="245"/>
       <c r="T42" s="195">
         <f>shares!H26</f>
         <v>0</v>
@@ -6517,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="s">
         <v>9</v>
@@ -6553,10 +6583,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L43" s="244" t="s">
+      <c r="L43" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="M43" s="245"/>
+      <c r="M43" s="247"/>
       <c r="N43" s="190">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6573,10 +6603,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R43" s="242" t="s">
+      <c r="R43" s="244" t="s">
         <v>113</v>
       </c>
-      <c r="S43" s="248"/>
+      <c r="S43" s="250"/>
       <c r="T43" s="190">
         <f>ser!$C$11*Input!G46</f>
         <v>0</v>
@@ -6594,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="s">
         <v>9</v>
@@ -6630,8 +6660,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L44" s="244"/>
-      <c r="M44" s="245"/>
+      <c r="L44" s="246"/>
+      <c r="M44" s="247"/>
       <c r="N44" s="193">
         <f t="shared" ref="N44:Q45" si="20">T44*12</f>
         <v>0</v>
@@ -6648,8 +6678,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R44" s="248"/>
-      <c r="S44" s="248"/>
+      <c r="R44" s="250"/>
+      <c r="S44" s="250"/>
       <c r="T44" s="193">
         <f>ser!$C$11*Input!G47</f>
         <v>0</v>
@@ -6667,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" s="7" customFormat="true" ht="15.75" thickBot="true">
+    <row r="45" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="s">
         <v>9</v>
@@ -6703,8 +6733,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L45" s="244"/>
-      <c r="M45" s="245"/>
+      <c r="L45" s="246"/>
+      <c r="M45" s="247"/>
       <c r="N45" s="195">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -6721,8 +6751,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R45" s="248"/>
-      <c r="S45" s="248"/>
+      <c r="R45" s="250"/>
+      <c r="S45" s="250"/>
       <c r="T45" s="195">
         <f>ser!$C$11*Input!G48</f>
         <v>0</v>
@@ -6740,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="s">
         <v>10</v>
@@ -6758,8 +6788,8 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="244"/>
-      <c r="M46" s="272"/>
+      <c r="L46" s="246"/>
+      <c r="M46" s="274"/>
       <c r="N46" s="129"/>
       <c r="O46" s="129"/>
       <c r="P46" s="129"/>
@@ -6771,7 +6801,7 @@
       <c r="V46" s="8"/>
       <c r="W46" s="8"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="s">
         <v>10</v>
@@ -6796,7 +6826,7 @@
       <c r="V47" s="8"/>
       <c r="W47" s="8"/>
     </row>
-    <row r="48" s="8" customFormat="true">
+    <row r="48" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>10</v>
       </c>
@@ -6813,7 +6843,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="s">
         <v>11</v>
@@ -6838,7 +6868,7 @@
       <c r="V49" s="8"/>
       <c r="W49" s="8"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="s">
         <v>11</v>
@@ -6863,7 +6893,7 @@
       <c r="V50" s="8"/>
       <c r="W50" s="8"/>
     </row>
-    <row r="51" s="8" customFormat="true">
+    <row r="51" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>11</v>
       </c>
@@ -6880,7 +6910,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="s">
         <v>12</v>
@@ -6903,7 +6933,7 @@
       <c r="V52" s="8"/>
       <c r="W52" s="8"/>
     </row>
-    <row r="53" ht="15.75" thickBot="true">
+    <row r="53" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="s">
         <v>13</v>
@@ -6926,7 +6956,7 @@
       <c r="V53" s="8"/>
       <c r="W53" s="8"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
         <v>14</v>
@@ -6944,20 +6974,20 @@
       <c r="K54" s="104"/>
       <c r="L54" s="9"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="251" t="s">
+      <c r="N54" s="253" t="s">
         <v>107</v>
       </c>
-      <c r="O54" s="252"/>
-      <c r="P54" s="252"/>
-      <c r="Q54" s="252"/>
-      <c r="R54" s="252"/>
-      <c r="S54" s="253"/>
+      <c r="O54" s="254"/>
+      <c r="P54" s="254"/>
+      <c r="Q54" s="254"/>
+      <c r="R54" s="254"/>
+      <c r="S54" s="255"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
       <c r="W54" s="8"/>
     </row>
-    <row r="55" ht="15.75" thickBot="true">
+    <row r="55" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="s">
         <v>15</v>
@@ -6975,18 +7005,18 @@
       <c r="K55" s="107"/>
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="254" t="s">
+      <c r="N55" s="256" t="s">
         <v>126</v>
       </c>
-      <c r="O55" s="249"/>
-      <c r="P55" s="249" t="s">
+      <c r="O55" s="251"/>
+      <c r="P55" s="251" t="s">
         <v>127</v>
       </c>
-      <c r="Q55" s="249"/>
-      <c r="R55" s="258" t="s">
+      <c r="Q55" s="251"/>
+      <c r="R55" s="260" t="s">
         <v>128</v>
       </c>
-      <c r="S55" s="267" t="s">
+      <c r="S55" s="269" t="s">
         <v>129</v>
       </c>
       <c r="T55" s="8"/>
@@ -6994,7 +7024,7 @@
       <c r="V55" s="8"/>
       <c r="W55" s="8"/>
     </row>
-    <row r="56" ht="15" customHeight="true" thickBot="true">
+    <row r="56" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="s">
         <v>16</v>
@@ -7032,14 +7062,14 @@
       <c r="Q56" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="R56" s="259"/>
-      <c r="S56" s="268"/>
+      <c r="R56" s="261"/>
+      <c r="S56" s="270"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
       <c r="W56" s="8"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="s">
         <v>9</v>
@@ -7075,10 +7105,10 @@
         <f>S57*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L57" s="244" t="s">
+      <c r="L57" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="M57" s="245"/>
+      <c r="M57" s="247"/>
       <c r="N57" s="60">
         <f>Live!$C$11*Input!F61</f>
         <v>0</v>
@@ -7108,7 +7138,7 @@
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="s">
         <v>9</v>
@@ -7144,8 +7174,8 @@
         <f>S58*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L58" s="244"/>
-      <c r="M58" s="245"/>
+      <c r="L58" s="246"/>
+      <c r="M58" s="247"/>
       <c r="N58" s="62">
         <f>Live!$C$11*Input!F62</f>
         <v>0</v>
@@ -7175,7 +7205,7 @@
       <c r="V58" s="8"/>
       <c r="W58" s="8"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="s">
         <v>9</v>
@@ -7211,8 +7241,8 @@
         <f>S59*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L59" s="244"/>
-      <c r="M59" s="245"/>
+      <c r="L59" s="246"/>
+      <c r="M59" s="247"/>
       <c r="N59" s="62">
         <f>Live!$C$11*Input!F63</f>
         <v>0</v>
@@ -7242,7 +7272,7 @@
       <c r="V59" s="8"/>
       <c r="W59" s="8"/>
     </row>
-    <row r="60" s="7" customFormat="true" ht="15.75" thickBot="true">
+    <row r="60" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="s">
         <v>9</v>
@@ -7278,8 +7308,8 @@
         <f>S60*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L60" s="244"/>
-      <c r="M60" s="245"/>
+      <c r="L60" s="246"/>
+      <c r="M60" s="247"/>
       <c r="N60" s="63">
         <f>Live!$C$11*Input!F64</f>
         <v>0</v>
@@ -7309,7 +7339,7 @@
       <c r="V60" s="8"/>
       <c r="W60" s="8"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="s">
         <v>10</v>
@@ -7340,7 +7370,7 @@
       <c r="V61" s="8"/>
       <c r="W61" s="8"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="s">
         <v>10</v>
@@ -7365,7 +7395,7 @@
       <c r="V62" s="8"/>
       <c r="W62" s="8"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="s">
         <v>10</v>
@@ -7390,7 +7420,7 @@
       <c r="V63" s="8"/>
       <c r="W63" s="8"/>
     </row>
-    <row r="64" s="8" customFormat="true">
+    <row r="64" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -7408,7 +7438,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="s">
         <v>11</v>
@@ -7433,7 +7463,7 @@
       <c r="V65" s="8"/>
       <c r="W65" s="8"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="s">
         <v>11</v>
@@ -7464,7 +7494,7 @@
       <c r="V66" s="8"/>
       <c r="W66" s="8"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="s">
         <v>11</v>
@@ -7495,7 +7525,7 @@
       <c r="V67" s="8"/>
       <c r="W67" s="8"/>
     </row>
-    <row r="68" s="8" customFormat="true">
+    <row r="68" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>11</v>
       </c>
@@ -7513,7 +7543,7 @@
       <c r="K68" s="10"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="s">
         <v>12</v>
@@ -7542,7 +7572,7 @@
       <c r="V69" s="8"/>
       <c r="W69" s="8"/>
     </row>
-    <row r="70" ht="15.75" thickBot="true">
+    <row r="70" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="s">
         <v>13</v>
@@ -7571,7 +7601,7 @@
       <c r="V70" s="8"/>
       <c r="W70" s="8"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="s">
         <v>14</v>
@@ -7600,7 +7630,7 @@
       <c r="V71" s="8"/>
       <c r="W71" s="8"/>
     </row>
-    <row r="72" ht="15.75" thickBot="true">
+    <row r="72" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="s">
         <v>15</v>
@@ -7618,15 +7648,15 @@
       <c r="K72" s="107"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="249" t="s">
+      <c r="N72" s="251" t="s">
         <v>103</v>
       </c>
-      <c r="O72" s="249"/>
-      <c r="P72" s="249"/>
-      <c r="Q72" s="249"/>
+      <c r="O72" s="251"/>
+      <c r="P72" s="251"/>
+      <c r="Q72" s="251"/>
       <c r="R72" s="8"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="s">
         <v>16</v>
@@ -7652,17 +7682,17 @@
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="250" t="s">
+      <c r="N73" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="250"/>
-      <c r="P73" s="250" t="s">
+      <c r="O73" s="252"/>
+      <c r="P73" s="252" t="s">
         <v>104</v>
       </c>
-      <c r="Q73" s="250"/>
+      <c r="Q73" s="252"/>
       <c r="R73" s="8"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
         <v>16</v>
@@ -7702,7 +7732,7 @@
       </c>
       <c r="R74" s="8"/>
     </row>
-    <row r="75" ht="15" customHeight="true">
+    <row r="75" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="s">
         <v>34</v>
@@ -7736,10 +7766,10 @@
         <f>Q75*$G93</f>
         <v>0</v>
       </c>
-      <c r="L75" s="246" t="s">
+      <c r="L75" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="M75" s="247"/>
+      <c r="M75" s="249"/>
       <c r="N75" s="97">
         <f>wages!C7</f>
         <v>0</v>
@@ -7757,16 +7787,16 @@
         <v>0</v>
       </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="269" t="s">
+      <c r="S75" s="271" t="s">
         <v>163</v>
       </c>
-      <c r="T75" s="269"/>
-      <c r="U75" s="269"/>
-      <c r="V75" s="269"/>
-      <c r="W75" s="269"/>
-      <c r="X75" s="269"/>
-    </row>
-    <row r="76">
+      <c r="T75" s="271"/>
+      <c r="U75" s="271"/>
+      <c r="V75" s="271"/>
+      <c r="W75" s="271"/>
+      <c r="X75" s="271"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
         <v>34</v>
@@ -7792,7 +7822,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" ht="15.75" thickBot="true">
+    <row r="77" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="s">
         <v>34</v>
@@ -7823,7 +7853,7 @@
       <c r="V77" s="8"/>
       <c r="W77" s="8"/>
     </row>
-    <row r="78" ht="15.75" thickBot="true">
+    <row r="78" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="s">
         <v>37</v>
@@ -7841,24 +7871,24 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="239" t="s">
+      <c r="N78" s="241" t="s">
         <v>110</v>
       </c>
-      <c r="O78" s="240"/>
-      <c r="P78" s="240"/>
-      <c r="Q78" s="240"/>
-      <c r="R78" s="240"/>
-      <c r="S78" s="241"/>
-      <c r="T78" s="239" t="s">
+      <c r="O78" s="242"/>
+      <c r="P78" s="242"/>
+      <c r="Q78" s="242"/>
+      <c r="R78" s="242"/>
+      <c r="S78" s="243"/>
+      <c r="T78" s="241" t="s">
         <v>146</v>
       </c>
-      <c r="U78" s="240"/>
-      <c r="V78" s="240"/>
-      <c r="W78" s="240"/>
-      <c r="X78" s="240"/>
-      <c r="Y78" s="241"/>
-    </row>
-    <row r="79" ht="15.75" thickBot="true">
+      <c r="U78" s="242"/>
+      <c r="V78" s="242"/>
+      <c r="W78" s="242"/>
+      <c r="X78" s="242"/>
+      <c r="Y78" s="243"/>
+    </row>
+    <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="s">
         <v>38</v>
@@ -7876,36 +7906,36 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="265" t="s">
+      <c r="N79" s="267" t="s">
         <v>126</v>
       </c>
-      <c r="O79" s="266"/>
-      <c r="P79" s="239" t="s">
+      <c r="O79" s="268"/>
+      <c r="P79" s="241" t="s">
         <v>127</v>
       </c>
-      <c r="Q79" s="240"/>
-      <c r="R79" s="263" t="s">
+      <c r="Q79" s="242"/>
+      <c r="R79" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="S79" s="263" t="s">
+      <c r="S79" s="265" t="s">
         <v>144</v>
       </c>
-      <c r="T79" s="265" t="s">
+      <c r="T79" s="267" t="s">
         <v>126</v>
       </c>
-      <c r="U79" s="266"/>
-      <c r="V79" s="239" t="s">
+      <c r="U79" s="268"/>
+      <c r="V79" s="241" t="s">
         <v>127</v>
       </c>
-      <c r="W79" s="240"/>
-      <c r="X79" s="263" t="s">
+      <c r="W79" s="242"/>
+      <c r="X79" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="Y79" s="263" t="s">
+      <c r="Y79" s="265" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="80" ht="15.75" thickBot="true">
+    <row r="80" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="s">
         <v>39</v>
@@ -7935,8 +7965,8 @@
       <c r="Q80" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="R80" s="264"/>
-      <c r="S80" s="264"/>
+      <c r="R80" s="266"/>
+      <c r="S80" s="266"/>
       <c r="T80" s="123" t="s">
         <v>116</v>
       </c>
@@ -7949,10 +7979,10 @@
       <c r="W80" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="X80" s="270"/>
-      <c r="Y80" s="270"/>
-    </row>
-    <row r="81">
+      <c r="X80" s="272"/>
+      <c r="Y80" s="272"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="s">
         <v>40</v>
@@ -7984,10 +8014,10 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L81" s="256" t="s">
+      <c r="L81" s="258" t="s">
         <v>170</v>
       </c>
-      <c r="M81" s="257"/>
+      <c r="M81" s="259"/>
       <c r="N81" s="97"/>
       <c r="O81" s="97"/>
       <c r="P81" s="97"/>
@@ -8001,7 +8031,7 @@
       <c r="X81" s="26"/>
       <c r="Y81" s="26"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="s">
         <v>41</v>
@@ -8027,26 +8057,26 @@
       <c r="K82" s="68">
         <v>0</v>
       </c>
-      <c r="L82" s="256"/>
-      <c r="M82" s="257"/>
-      <c r="N82" s="260" t="s">
+      <c r="L82" s="258"/>
+      <c r="M82" s="259"/>
+      <c r="N82" s="262" t="s">
         <v>111</v>
       </c>
-      <c r="O82" s="261"/>
-      <c r="P82" s="261"/>
-      <c r="Q82" s="261"/>
-      <c r="R82" s="261"/>
-      <c r="S82" s="262"/>
-      <c r="T82" s="249" t="s">
+      <c r="O82" s="263"/>
+      <c r="P82" s="263"/>
+      <c r="Q82" s="263"/>
+      <c r="R82" s="263"/>
+      <c r="S82" s="264"/>
+      <c r="T82" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="U82" s="249"/>
-      <c r="V82" s="249"/>
-      <c r="W82" s="249"/>
-      <c r="X82" s="249"/>
-      <c r="Y82" s="249"/>
-    </row>
-    <row r="83">
+      <c r="U82" s="251"/>
+      <c r="V82" s="251"/>
+      <c r="W82" s="251"/>
+      <c r="X82" s="251"/>
+      <c r="Y82" s="251"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="s">
         <v>42</v>
@@ -8072,7 +8102,7 @@
       <c r="V83" s="8"/>
       <c r="W83" s="8"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="s">
         <v>43</v>
@@ -8101,7 +8131,7 @@
       <c r="V84" s="8"/>
       <c r="W84" s="8"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="s">
         <v>44</v>
@@ -8128,7 +8158,7 @@
       <c r="V85" s="8"/>
       <c r="W85" s="8"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8" t="s">
         <v>45</v>
@@ -8157,7 +8187,7 @@
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="s">
         <v>46</v>
@@ -8184,7 +8214,7 @@
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="s">
         <v>47</v>
@@ -8211,7 +8241,7 @@
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8" t="s">
         <v>48</v>
@@ -8252,7 +8282,7 @@
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="s">
         <v>49</v>
@@ -8295,7 +8325,7 @@
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="s">
         <v>50</v>
@@ -8324,7 +8354,7 @@
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="s">
         <v>165</v>
@@ -8365,7 +8395,7 @@
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="90" t="s">
         <v>33</v>
@@ -8406,7 +8436,7 @@
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="90" t="s">
         <v>92</v>
@@ -8446,7 +8476,7 @@
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="90" t="s">
         <v>93</v>
@@ -8477,7 +8507,7 @@
       <c r="V95" s="8"/>
       <c r="W95" s="8"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="90" t="s">
         <v>94</v>
@@ -8518,7 +8548,7 @@
       <c r="V96" s="8"/>
       <c r="W96" s="8"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="100" t="s">
         <v>95</v>
@@ -8534,7 +8564,7 @@
       <c r="I97" s="226"/>
       <c r="J97" s="226"/>
       <c r="K97" s="226"/>
-      <c r="L97" s="255" t="s">
+      <c r="L97" s="257" t="s">
         <v>115</v>
       </c>
       <c r="M97" s="8"/>
@@ -8551,7 +8581,7 @@
       <c r="V97" s="8"/>
       <c r="W97" s="8"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="100" t="s">
         <v>96</v>
@@ -8567,7 +8597,7 @@
       <c r="I98" s="226"/>
       <c r="J98" s="226"/>
       <c r="K98" s="226"/>
-      <c r="L98" s="255"/>
+      <c r="L98" s="257"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8" t="s">
@@ -8584,7 +8614,7 @@
       <c r="V98" s="8"/>
       <c r="W98" s="8"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="100" t="s">
         <v>95</v>
@@ -8600,7 +8630,7 @@
       <c r="I99" s="226"/>
       <c r="J99" s="226"/>
       <c r="K99" s="226"/>
-      <c r="L99" s="255"/>
+      <c r="L99" s="257"/>
       <c r="M99" s="8"/>
       <c r="N99" s="219" t="s">
         <v>189</v>
@@ -8626,7 +8656,7 @@
       <c r="V99" s="8"/>
       <c r="W99" s="8"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="100" t="s">
         <v>96</v>
@@ -8642,7 +8672,7 @@
       <c r="I100" s="226"/>
       <c r="J100" s="226"/>
       <c r="K100" s="226"/>
-      <c r="L100" s="255"/>
+      <c r="L100" s="257"/>
       <c r="M100" s="8"/>
       <c r="N100" s="221" t="s">
         <v>193</v>
@@ -8668,7 +8698,7 @@
       <c r="V100" s="8"/>
       <c r="W100" s="8"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" t="s">
         <v>152</v>
@@ -8710,7 +8740,7 @@
       <c r="V101" s="8"/>
       <c r="W101" s="8"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" t="s">
         <v>153</v>
@@ -8739,7 +8769,7 @@
       <c r="V102" s="8"/>
       <c r="W102" s="8"/>
     </row>
-    <row r="103" ht="15" customHeight="true">
+    <row r="103" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="101" t="s">
         <v>97</v>
@@ -8757,11 +8787,11 @@
       <c r="I103" s="228"/>
       <c r="J103" s="228"/>
       <c r="K103" s="228"/>
-      <c r="L103" s="242" t="s">
+      <c r="L103" s="244" t="s">
         <v>114</v>
       </c>
-      <c r="M103" s="242"/>
-      <c r="N103" s="242"/>
+      <c r="M103" s="244"/>
+      <c r="N103" s="244"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
@@ -8772,7 +8802,7 @@
       <c r="V103" s="8"/>
       <c r="W103" s="8"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="101" t="s">
         <v>97</v>
@@ -8790,9 +8820,9 @@
       <c r="I104" s="228"/>
       <c r="J104" s="228"/>
       <c r="K104" s="228"/>
-      <c r="L104" s="242"/>
-      <c r="M104" s="242"/>
-      <c r="N104" s="242"/>
+      <c r="L104" s="244"/>
+      <c r="M104" s="244"/>
+      <c r="N104" s="244"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
@@ -8803,7 +8833,7 @@
       <c r="V104" s="8"/>
       <c r="W104" s="8"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="101" t="s">
         <v>97</v>
@@ -8821,9 +8851,9 @@
       <c r="I105" s="228"/>
       <c r="J105" s="228"/>
       <c r="K105" s="228"/>
-      <c r="L105" s="242"/>
-      <c r="M105" s="242"/>
-      <c r="N105" s="242"/>
+      <c r="L105" s="244"/>
+      <c r="M105" s="244"/>
+      <c r="N105" s="244"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
@@ -8834,7 +8864,7 @@
       <c r="V105" s="8"/>
       <c r="W105" s="8"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="101" t="s">
         <v>97</v>
@@ -8852,9 +8882,9 @@
       <c r="I106" s="228"/>
       <c r="J106" s="228"/>
       <c r="K106" s="228"/>
-      <c r="L106" s="242"/>
-      <c r="M106" s="242"/>
-      <c r="N106" s="242"/>
+      <c r="L106" s="244"/>
+      <c r="M106" s="244"/>
+      <c r="N106" s="244"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
@@ -8865,7 +8895,7 @@
       <c r="V106" s="8"/>
       <c r="W106" s="8"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="101" t="s">
         <v>97</v>
@@ -8883,9 +8913,9 @@
       <c r="I107" s="228"/>
       <c r="J107" s="228"/>
       <c r="K107" s="228"/>
-      <c r="L107" s="242"/>
-      <c r="M107" s="242"/>
-      <c r="N107" s="242"/>
+      <c r="L107" s="244"/>
+      <c r="M107" s="244"/>
+      <c r="N107" s="244"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
@@ -8896,7 +8926,7 @@
       <c r="V107" s="8"/>
       <c r="W107" s="8"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="101" t="s">
         <v>97</v>
@@ -8914,9 +8944,9 @@
       <c r="I108" s="229"/>
       <c r="J108" s="229"/>
       <c r="K108" s="229"/>
-      <c r="L108" s="242"/>
-      <c r="M108" s="242"/>
-      <c r="N108" s="242"/>
+      <c r="L108" s="244"/>
+      <c r="M108" s="244"/>
+      <c r="N108" s="244"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
@@ -8927,7 +8957,7 @@
       <c r="V108" s="8"/>
       <c r="W108" s="8"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="101" t="s">
         <v>97</v>
@@ -8945,9 +8975,9 @@
       <c r="I109" s="229"/>
       <c r="J109" s="229"/>
       <c r="K109" s="229"/>
-      <c r="L109" s="242"/>
-      <c r="M109" s="242"/>
-      <c r="N109" s="242"/>
+      <c r="L109" s="244"/>
+      <c r="M109" s="244"/>
+      <c r="N109" s="244"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -8958,7 +8988,7 @@
       <c r="V109" s="8"/>
       <c r="W109" s="8"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="101" t="s">
         <v>97</v>
@@ -8976,9 +9006,9 @@
       <c r="I110" s="229"/>
       <c r="J110" s="229"/>
       <c r="K110" s="229"/>
-      <c r="L110" s="242"/>
-      <c r="M110" s="242"/>
-      <c r="N110" s="242"/>
+      <c r="L110" s="244"/>
+      <c r="M110" s="244"/>
+      <c r="N110" s="244"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
@@ -8989,7 +9019,7 @@
       <c r="V110" s="8"/>
       <c r="W110" s="8"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B111" s="159" t="s">
         <v>155</v>
       </c>
@@ -9005,7 +9035,7 @@
       <c r="J111" s="161"/>
       <c r="K111" s="161"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B112" s="159" t="s">
         <v>155</v>
       </c>
@@ -9024,7 +9054,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="159" t="s">
         <v>155</v>
       </c>
@@ -9040,7 +9070,7 @@
       <c r="J113" s="161"/>
       <c r="K113" s="161"/>
     </row>
-    <row r="114">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="159" t="s">
         <v>155</v>
       </c>
@@ -9112,26 +9142,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" bestFit="true" customWidth="true"/>
-    <col min="6" max="6" width="9.42578125" bestFit="true" customWidth="true"/>
-    <col min="7" max="7" width="9.5703125" bestFit="true" customWidth="true"/>
-    <col min="8" max="8" width="9.42578125" bestFit="true" customWidth="true"/>
-    <col min="9" max="9" width="10.5703125" bestFit="true" customWidth="true"/>
-    <col min="10" max="11" width="9.5703125" bestFit="true" customWidth="true"/>
-    <col min="12" max="12" width="14.7109375" customWidth="true"/>
-    <col min="16" max="16" width="10.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
@@ -9145,16 +9175,16 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="273" t="s">
+      <c r="F1" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="280" t="s">
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="275"/>
+      <c r="J1" s="282" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="280"/>
+      <c r="K1" s="282"/>
       <c r="L1" s="157" t="s">
         <v>162</v>
       </c>
@@ -9162,37 +9192,37 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="true">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="271" t="s">
+      <c r="F2" s="273" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271" t="s">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="271"/>
+      <c r="I2" s="273"/>
       <c r="J2" s="9" t="s">
         <v>99</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="281" t="s">
+      <c r="M2" s="283" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="281"/>
-      <c r="O2" s="281"/>
-      <c r="P2" s="281"/>
+      <c r="N2" s="283"/>
+      <c r="O2" s="283"/>
+      <c r="P2" s="283"/>
       <c r="Q2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" ht="15.75" thickBot="true">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -9223,7 +9253,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="true">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="str">
         <f>Input!A4</f>
         <v>Land</v>
@@ -9272,7 +9302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="str">
         <f>Input!A5</f>
         <v>Labor</v>
@@ -9321,7 +9351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="str">
         <f>Input!A6</f>
         <v>Capital</v>
@@ -9370,7 +9400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="15.75" thickBot="true">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="str">
         <f>Input!A7</f>
         <v>Input</v>
@@ -9419,7 +9449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15.75" thickBot="true">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="str">
         <f>Input!A8</f>
         <v>crop</v>
@@ -9468,7 +9498,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="str">
         <f>Input!A9</f>
         <v>live</v>
@@ -9517,7 +9547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="str">
         <f>Input!A10</f>
         <v>ret</v>
@@ -9566,7 +9596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>Input!A11</f>
         <v>other</v>
@@ -9615,7 +9645,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="str">
         <f>Input!A12</f>
         <v>OUTSIDE</v>
@@ -9664,7 +9694,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="str">
         <f>Input!A13</f>
         <v>A1</v>
@@ -9713,7 +9743,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="str">
         <f>Input!A14</f>
         <v>A2</v>
@@ -9762,7 +9792,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="str">
         <f>Input!A15</f>
         <v>A3</v>
@@ -9811,7 +9841,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="str">
         <f>Input!A16</f>
         <v>B1</v>
@@ -9857,7 +9887,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" ht="15.75" thickBot="true">
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="str">
         <f>Input!A17</f>
         <v>B2</v>
@@ -9897,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="str">
         <f>Input!A18</f>
         <v>B3</v>
@@ -9937,7 +9967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15.75" thickBot="true">
+    <row r="19" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="str">
         <f>Input!A19</f>
         <v>empty</v>
@@ -9977,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="15.75" thickBot="true">
+    <row r="20" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="str">
         <f>Input!B20</f>
@@ -10014,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="true">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="str">
         <f>Input!B21</f>
@@ -10062,7 +10092,7 @@
       <c r="Q21" s="162"/>
       <c r="R21" s="162"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="8" t="str">
         <f>Input!B22</f>
@@ -10110,7 +10140,7 @@
       <c r="Q22" s="162"/>
       <c r="R22" s="162"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="str">
         <f>Input!B23</f>
@@ -10150,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="15.75" thickBot="true">
+    <row r="24" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="str">
         <f>Input!B24</f>
@@ -10190,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="true">
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="str">
         <f>Input!B25</f>
@@ -10230,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="str">
         <f>Input!B26</f>
@@ -10270,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.75" thickBot="true">
+    <row r="27" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8" t="str">
         <f>Input!B27</f>
@@ -10310,7 +10340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="str">
         <f>Input!B28</f>
@@ -10350,7 +10380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="str">
         <f>Input!B29</f>
@@ -10390,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="str">
         <f>Input!B30</f>
@@ -10430,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="str">
         <f>Input!B31</f>
@@ -10470,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="str">
         <f>Input!B32</f>
@@ -10510,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="str">
         <f>Input!B33</f>
@@ -10550,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="str">
         <f>Input!B34</f>
@@ -10587,7 +10617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="15.75" thickBot="true">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="8" t="str">
         <f>Input!B35</f>
@@ -10624,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="8" t="str">
         <f>Input!B36</f>
@@ -10661,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15.75" thickBot="true">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8" t="str">
         <f>Input!B37</f>
@@ -10698,7 +10728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="15.75" thickBot="true">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="str">
         <f>Input!B38</f>
@@ -10735,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="true">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="8" t="str">
         <f>Input!B39</f>
@@ -10775,7 +10805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="8" t="str">
         <f>Input!B40</f>
@@ -10815,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="8" t="str">
         <f>Input!B41</f>
@@ -10855,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15.75" thickBot="true">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8" t="str">
         <f>Input!B42</f>
@@ -10895,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="true">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="8" t="str">
         <f>Input!B43</f>
@@ -10935,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="8" t="str">
         <f>Input!B44</f>
@@ -10975,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="15.75" thickBot="true">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="8" t="str">
         <f>Input!B45</f>
@@ -11015,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8" t="str">
         <f>Input!B46</f>
@@ -11055,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8" t="str">
         <f>Input!B47</f>
@@ -11095,7 +11125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="8" t="str">
         <f>Input!B48</f>
@@ -11135,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="8" t="str">
         <f>Input!B49</f>
@@ -11175,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="8" t="str">
         <f>Input!B50</f>
@@ -11215,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="8" t="str">
         <f>Input!B51</f>
@@ -11255,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="8" t="str">
         <f>Input!B52</f>
@@ -11292,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="15.75" thickBot="true">
+    <row r="53" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="8" t="str">
         <f>Input!B53</f>
@@ -11329,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="str">
         <f>Input!B54</f>
@@ -11366,7 +11396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="true" thickBot="true">
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="8" t="str">
         <f>Input!B55</f>
@@ -11403,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="15.75" thickBot="true">
+    <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="8" t="str">
         <f>Input!B56</f>
@@ -11440,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="true">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8" t="str">
         <f>Input!B57</f>
@@ -11480,7 +11510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="8" t="str">
         <f>Input!B58</f>
@@ -11520,7 +11550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="8" t="str">
         <f>Input!B59</f>
@@ -11560,7 +11590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="15.75" thickBot="true">
+    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="8" t="str">
         <f>Input!B60</f>
@@ -11600,7 +11630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="15.75" thickBot="true">
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="8" t="str">
         <f>Input!B61</f>
@@ -11640,7 +11670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="8" t="str">
         <f>Input!B62</f>
@@ -11680,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="8" t="str">
         <f>Input!B63</f>
@@ -11720,7 +11750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="8" t="str">
         <f>Input!B64</f>
@@ -11760,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="8" t="str">
         <f>Input!B65</f>
@@ -11800,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="8" t="str">
         <f>Input!B66</f>
@@ -11840,7 +11870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="8" t="str">
         <f>Input!B67</f>
@@ -11880,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="8" t="str">
         <f>Input!B68</f>
@@ -11920,7 +11950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="8" t="str">
         <f>Input!B69</f>
@@ -11957,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="15.75" thickBot="true">
+    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="8" t="str">
         <f>Input!B70</f>
@@ -11994,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="8" t="str">
         <f>Input!B71</f>
@@ -12031,7 +12061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="15.75" thickBot="true">
+    <row r="72" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="8" t="str">
         <f>Input!B72</f>
@@ -12068,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="8" t="str">
         <f>Input!B73</f>
@@ -12105,7 +12135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="str">
         <f>Input!B74</f>
@@ -12142,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="8" t="str">
         <f>Input!B75</f>
@@ -12176,7 +12206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="str">
         <f>Input!B76</f>
@@ -12210,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8" t="str">
         <f>Input!B77</f>
@@ -12244,7 +12274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="8" t="str">
         <f>Input!B78</f>
@@ -12278,7 +12308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="8" t="str">
         <f>Input!B79</f>
@@ -12312,7 +12342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="8" t="str">
         <f>Input!B80</f>
@@ -12346,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="true">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8" t="str">
         <f>Input!B81</f>
@@ -12380,7 +12410,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8" t="str">
         <f>Input!B82</f>
@@ -12414,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="8" t="str">
         <f>Input!B83</f>
@@ -12448,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="8" t="str">
         <f>Input!B84</f>
@@ -12482,7 +12512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="8" t="str">
         <f>Input!B85</f>
@@ -12516,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="8" t="str">
         <f>Input!B86</f>
@@ -12550,7 +12580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="8" t="str">
         <f>Input!B87</f>
@@ -12584,7 +12614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="8" t="str">
         <f>Input!B88</f>
@@ -12618,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="8" t="str">
         <f>Input!B89</f>
@@ -12652,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="8" t="str">
         <f>Input!B90</f>
@@ -12686,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="8" t="str">
         <f>Input!B91</f>
@@ -12720,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="8" t="str">
         <f>Input!B92</f>
@@ -12754,7 +12784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="8" t="str">
         <f>Input!B93</f>
@@ -12788,7 +12818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="8" t="str">
         <f>Input!B94</f>
@@ -12822,7 +12852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="8" t="str">
         <f>Input!B95</f>
@@ -12856,7 +12886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="8" t="str">
         <f>Input!B96</f>
@@ -12890,7 +12920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="true">
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="8" t="str">
         <f>Input!B97</f>
@@ -12927,7 +12957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="8" t="str">
         <f>Input!B98</f>
@@ -12964,7 +12994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="8" t="str">
         <f>Input!B99</f>
@@ -13001,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="8" t="str">
         <f>Input!B100</f>
@@ -13038,7 +13068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="8" t="str">
         <f>Input!B101</f>
@@ -13075,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="15.75" thickBot="true">
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="8" t="str">
         <f>Input!B102</f>
@@ -13112,7 +13142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="true">
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="8" t="str">
         <f>Input!B103</f>
@@ -13152,7 +13182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="8" t="str">
         <f>Input!B104</f>
@@ -13192,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="8" t="str">
         <f>Input!B105</f>
@@ -13232,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="8" t="str">
         <f>Input!B106</f>
@@ -13272,7 +13302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="8" t="str">
         <f>Input!B107</f>
@@ -13312,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="8" t="str">
         <f>Input!B108</f>
@@ -13352,7 +13382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="8" t="str">
         <f>Input!B109</f>
@@ -13392,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" ht="15.75" thickBot="true">
+    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="8" t="str">
         <f>Input!B110</f>
@@ -13432,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="8" t="str">
         <f>Input!B111</f>
@@ -13445,7 +13475,7 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="8" t="str">
         <f>Input!B112</f>
@@ -13458,7 +13488,7 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="8" t="str">
         <f>Input!B113</f>
@@ -13485,104 +13515,126 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="11" customWidth="true"/>
-    <col min="2" max="2" width="10" style="11" customWidth="true"/>
-    <col min="3" max="3" width="16" style="11" customWidth="true"/>
-    <col min="4" max="4" width="15.28515625" style="11" customWidth="true"/>
-    <col min="5" max="5" width="14.5703125" style="11" customWidth="true"/>
-    <col min="6" max="6" width="14.85546875" style="11" customWidth="true"/>
-    <col min="7" max="7" width="9.85546875" style="11" customWidth="true"/>
-    <col min="8" max="8" width="9.140625" style="11" customWidth="true"/>
-    <col min="9" max="9" width="10" style="11" customWidth="true"/>
-    <col min="10" max="10" width="7.85546875" style="11" customWidth="true"/>
-    <col min="11" max="11" width="11.5703125" style="11" customWidth="true"/>
-    <col min="12" max="12" width="6.85546875" style="11" customWidth="true"/>
-    <col min="13" max="13" width="10.7109375" style="11" customWidth="true"/>
-    <col min="14" max="14" width="10" style="11" customWidth="true"/>
-    <col min="15" max="15" width="7.85546875" style="11" customWidth="true"/>
-    <col min="16" max="16" width="12.5703125" style="11" customWidth="true"/>
-    <col min="17" max="17" width="9.140625" style="11" customWidth="true"/>
-    <col min="18" max="18" width="11" style="11" customWidth="true"/>
-    <col min="19" max="19" width="9.42578125" style="11" customWidth="true"/>
-    <col min="20" max="20" width="10" style="11" customWidth="true"/>
-    <col min="21" max="21" width="12.5703125" style="11" customWidth="true"/>
-    <col min="22" max="22" width="8.7109375" style="11" customWidth="true"/>
+    <col min="1" max="1" width="20" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10" style="11" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="10" style="11" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="11" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="11" style="11" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="11" customWidth="1"/>
+    <col min="20" max="20" width="10" style="11" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="11" customWidth="1"/>
     <col min="23" max="25" width="9.140625" style="11"/>
-    <col min="26" max="26" width="15.28515625" style="11" customWidth="true"/>
+    <col min="26" max="26" width="15.28515625" style="11" customWidth="1"/>
     <col min="27" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="237" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C1" s="237"/>
       <c r="D1" s="237"/>
       <c r="E1" s="237"/>
       <c r="F1" s="237"/>
     </row>
-    <row r="2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" t="s">
         <v>220</v>
       </c>
-      <c r="D2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="301">
-        <v>139497999.359375</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>216</v>
+      </c>
+      <c r="C3" s="238">
+        <v>0</v>
+      </c>
+      <c r="D3" s="238">
+        <v>0</v>
+      </c>
+      <c r="E3" s="238">
+        <v>397.23975270986557</v>
+      </c>
+      <c r="F3" s="238">
+        <v>0</v>
+      </c>
+      <c r="G3" s="238">
+        <v>997.74024230241776</v>
+      </c>
+      <c r="H3" s="238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="237" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C7" s="237"/>
       <c r="D7" s="237"/>
       <c r="E7" s="237"/>
       <c r="F7" s="237"/>
     </row>
-    <row r="8">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>217</v>
+      </c>
+      <c r="F8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" t="s">
+        <v>217</v>
+      </c>
+      <c r="K8" s="240"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9"/>
       <c r="C9" t="s">
         <v>10</v>
@@ -13593,79 +13645,151 @@
       <c r="E9" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" s="240"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="232">
-        <v>0.13793697872754149</v>
+        <v>9.2643213611260017E-2</v>
       </c>
       <c r="D10" s="232">
-        <v>2.3991186284097112E-2</v>
-      </c>
-      <c r="E10" s="224">
-        <v>3.2329362602268186E-8</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>3.7292685924097596E-2</v>
+      </c>
+      <c r="E10" s="239">
+        <v>1.5277755867949258E-2</v>
+      </c>
+      <c r="F10" s="239">
+        <v>0.16223868718423781</v>
+      </c>
+      <c r="G10" s="239">
+        <v>3.342549904533245E-2</v>
+      </c>
+      <c r="H10" s="239">
+        <v>3.4880069978683915E-6</v>
+      </c>
+      <c r="K10" s="214"/>
+      <c r="L10"/>
+      <c r="M10" s="224"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>201</v>
       </c>
       <c r="C11" s="232">
-        <v>0.19916004119058783</v>
+        <v>0.27830693183202726</v>
       </c>
       <c r="D11" s="232">
-        <v>5.4464984261566499E-2</v>
-      </c>
-      <c r="E11" s="224">
-        <v>3.2514405893362575E-4</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.10799127710581252</v>
+      </c>
+      <c r="E11" s="239">
+        <v>1.1982006985981565E-2</v>
+      </c>
+      <c r="F11" s="239">
+        <v>0.15896398846955861</v>
+      </c>
+      <c r="G11" s="239">
+        <v>6.0608741297454388E-2</v>
+      </c>
+      <c r="H11" s="239">
+        <v>9.7885277883933298E-3</v>
+      </c>
+      <c r="K11" s="214"/>
+      <c r="L11"/>
+      <c r="M11" s="224"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>202</v>
       </c>
       <c r="C12" s="232">
-        <v>0.29842619443442686</v>
+        <v>0.25137307817180243</v>
       </c>
       <c r="D12" s="232">
-        <v>4.7174445298706486E-2</v>
-      </c>
-      <c r="E12" s="224">
-        <v>1.5638022571264586E-9</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>6.1948403679740326E-2</v>
+      </c>
+      <c r="E12" s="239">
+        <v>1.2286577495858938E-4</v>
+      </c>
+      <c r="F12" s="239">
+        <v>0.30713199952520576</v>
+      </c>
+      <c r="G12" s="239">
+        <v>7.1440792857828922E-2</v>
+      </c>
+      <c r="H12" s="239">
+        <v>3.3853604881326548E-5</v>
+      </c>
+      <c r="K12" s="214"/>
+      <c r="L12"/>
+      <c r="M12" s="224"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>203</v>
       </c>
       <c r="C13" s="232">
-        <v>0.36447678564742603</v>
+        <v>0.37767677638492714</v>
       </c>
       <c r="D13" s="232">
-        <v>5.892632906679434E-2</v>
-      </c>
-      <c r="E13" s="224">
-        <v>3.3319689718487187E-9</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>9.1084992860736583E-2</v>
+      </c>
+      <c r="E13" s="239">
+        <v>9.0019905705556296E-5</v>
+      </c>
+      <c r="F13" s="239">
+        <v>0.37166532482099512</v>
+      </c>
+      <c r="G13" s="239">
+        <v>7.938956879359764E-2</v>
+      </c>
+      <c r="H13" s="239">
+        <v>7.1971768350241695E-6</v>
+      </c>
+      <c r="K13" s="214"/>
+      <c r="L13"/>
+      <c r="M13" s="224"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>196</v>
       </c>
       <c r="C14" s="232">
-        <v>3.9689590463927971</v>
+        <v>4.7389959018133823</v>
       </c>
       <c r="D14" s="232">
-        <v>0.51032720213225158</v>
-      </c>
-      <c r="E14" s="224">
-        <v>3.6083130404474859E-13</v>
-      </c>
-    </row>
-    <row r="19" ht="17.25" customHeight="true"/>
-    <row r="20" ht="18.75" customHeight="true" thickBot="true">
+        <v>0.98700664207863353</v>
+      </c>
+      <c r="E14" s="239">
+        <v>8.1567856067853436E-6</v>
+      </c>
+      <c r="F14" s="239">
+        <v>3.5848711072709989</v>
+      </c>
+      <c r="G14" s="239">
+        <v>0.5757752710821068</v>
+      </c>
+      <c r="H14" s="239">
+        <v>6.4271411949749743E-9</v>
+      </c>
+      <c r="K14" s="214"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="240"/>
+    </row>
+    <row r="19" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>25</v>
       </c>
@@ -13695,52 +13819,52 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21" s="35" customFormat="true" ht="18.75" customHeight="true">
+    <row r="21" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
-      <c r="B21" s="282" t="s">
+      <c r="B21" s="284" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="283"/>
-      <c r="D21" s="283"/>
-      <c r="E21" s="283"/>
-      <c r="F21" s="284"/>
-      <c r="G21" s="282" t="s">
+      <c r="C21" s="285"/>
+      <c r="D21" s="285"/>
+      <c r="E21" s="285"/>
+      <c r="F21" s="286"/>
+      <c r="G21" s="284" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="283"/>
-      <c r="I21" s="283"/>
-      <c r="J21" s="283"/>
-      <c r="K21" s="284"/>
-      <c r="L21" s="282" t="s">
+      <c r="H21" s="285"/>
+      <c r="I21" s="285"/>
+      <c r="J21" s="285"/>
+      <c r="K21" s="286"/>
+      <c r="L21" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="M21" s="283"/>
-      <c r="N21" s="283"/>
-      <c r="O21" s="283"/>
-      <c r="P21" s="284"/>
-      <c r="Q21" s="282" t="s">
+      <c r="M21" s="285"/>
+      <c r="N21" s="285"/>
+      <c r="O21" s="285"/>
+      <c r="P21" s="286"/>
+      <c r="Q21" s="284" t="s">
         <v>121</v>
       </c>
-      <c r="R21" s="283"/>
-      <c r="S21" s="283"/>
-      <c r="T21" s="283"/>
-      <c r="U21" s="284"/>
-      <c r="V21" s="282" t="s">
+      <c r="R21" s="285"/>
+      <c r="S21" s="285"/>
+      <c r="T21" s="285"/>
+      <c r="U21" s="286"/>
+      <c r="V21" s="284" t="s">
         <v>122</v>
       </c>
-      <c r="W21" s="283"/>
-      <c r="X21" s="283"/>
-      <c r="Y21" s="283"/>
-      <c r="Z21" s="284"/>
-      <c r="AA21" s="282" t="s">
+      <c r="W21" s="285"/>
+      <c r="X21" s="285"/>
+      <c r="Y21" s="285"/>
+      <c r="Z21" s="286"/>
+      <c r="AA21" s="284" t="s">
         <v>123</v>
       </c>
-      <c r="AB21" s="283"/>
-      <c r="AC21" s="283"/>
-      <c r="AD21" s="283"/>
-      <c r="AE21" s="284"/>
-    </row>
-    <row r="22" s="42" customFormat="true" ht="18.75" customHeight="true">
+      <c r="AB21" s="285"/>
+      <c r="AC21" s="285"/>
+      <c r="AD21" s="285"/>
+      <c r="AE21" s="286"/>
+    </row>
+    <row r="22" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>0</v>
       </c>
@@ -13835,7 +13959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" s="42" customFormat="true" ht="18.75" customHeight="true" thickBot="true">
+    <row r="23" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
         <v>31</v>
       </c>
@@ -13870,14 +13994,14 @@
       <c r="AD23" s="39"/>
       <c r="AE23" s="40"/>
     </row>
-    <row r="24" ht="18.75" customHeight="true"/>
-    <row r="25" ht="18.75" customHeight="true"/>
-    <row r="26" ht="18.75" customHeight="true"/>
-    <row r="27" ht="18.75" customHeight="true"/>
-    <row r="28" ht="18.75" customHeight="true"/>
-    <row r="29" ht="18.75" customHeight="true"/>
-    <row r="30" ht="18.75" customHeight="true"/>
-    <row r="31" ht="18.75" customHeight="true"/>
+    <row r="24" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="AA21:AE21"/>
@@ -13892,27 +14016,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="8" width="13.28515625" customWidth="true"/>
+    <col min="3" max="8" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C1" s="237" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D1" s="237"/>
       <c r="E1" s="237"/>
       <c r="F1" s="237"/>
     </row>
-    <row r="2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>197</v>
       </c>
@@ -13920,9 +14044,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C3" s="238">
         <v>20994.603755950928</v>
@@ -13931,15 +14055,15 @@
         <v>61609.917491912842</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C7" s="237" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D7" s="237"/>
       <c r="E7" s="237"/>
       <c r="F7" s="237"/>
     </row>
-    <row r="8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>197</v>
       </c>
@@ -13959,7 +14083,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -13979,122 +14103,122 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="232">
-        <v>0.093833760785696246</v>
+        <v>9.3833760785694026E-2</v>
       </c>
       <c r="D10" s="232">
-        <v>0.071856867244095568</v>
+        <v>7.1856867244095707E-2</v>
       </c>
       <c r="E10" s="231">
-        <v>0.19554496147996944</v>
+        <v>0.19554496147998077</v>
       </c>
       <c r="F10" s="233">
-        <v>0.1342441075619096</v>
+        <v>0.13424410756191071</v>
       </c>
       <c r="G10" s="233">
-        <v>0.11418217520382215</v>
+        <v>0.1141821752038234</v>
       </c>
       <c r="H10" s="231">
-        <v>0.24722428494274082</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.24722428494274207</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>201</v>
       </c>
       <c r="C11" s="232">
-        <v>0.47889167678351241</v>
+        <v>0.47889167678351297</v>
       </c>
       <c r="D11" s="232">
-        <v>0.05511228264509678</v>
+        <v>5.5112282645096954E-2</v>
       </c>
       <c r="E11" s="231">
-        <v>5.2546492952983852e-013</v>
+        <v>5.254649295298783E-13</v>
       </c>
       <c r="F11" s="233">
-        <v>0.27044208434582595</v>
+        <v>0.27044208434582551</v>
       </c>
       <c r="G11" s="233">
-        <v>0.085461973648246592</v>
+        <v>8.5461973648246051E-2</v>
       </c>
       <c r="H11" s="231">
-        <v>0.0031030321743453133</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>3.1030321743451862E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>202</v>
       </c>
       <c r="C12" s="232">
-        <v>0.01728734195058379</v>
+        <v>1.7287341950583346E-2</v>
       </c>
       <c r="D12" s="232">
-        <v>0.044576688459373341</v>
+        <v>4.4576688459373549E-2</v>
       </c>
       <c r="E12" s="231">
-        <v>0.69923978020751332</v>
+        <v>0.69923978020752198</v>
       </c>
       <c r="F12" s="233">
-        <v>0.077140958733357023</v>
+        <v>7.7140958733354192E-2</v>
       </c>
       <c r="G12" s="233">
-        <v>0.10227471789339669</v>
+        <v>0.10227471789339765</v>
       </c>
       <c r="H12" s="231">
-        <v>0.45547144346380763</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0.45547144346382828</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C13" s="232">
-        <v>0.40998722048020753</v>
+        <v>0.40998722048021063</v>
       </c>
       <c r="D13" s="232">
-        <v>0.058684969644739571</v>
+        <v>5.8684969644739834E-2</v>
       </c>
       <c r="E13" s="231">
-        <v>9.3210044788090436e-010</v>
+        <v>9.3210044788081668E-10</v>
       </c>
       <c r="F13" s="233">
-        <v>0.51817284935891106</v>
+        <v>0.51817284935890662</v>
       </c>
       <c r="G13" s="233">
-        <v>0.084764499759857767</v>
+        <v>8.4764499759859904E-2</v>
       </c>
       <c r="H13">
-        <v>4.4136867910524725e-007</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>4.4136867910553074E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>196</v>
       </c>
       <c r="C14" s="232">
-        <v>2.1411559282179775</v>
+        <v>2.1411559282179748</v>
       </c>
       <c r="D14" s="232">
-        <v>0.12779024981246526</v>
+        <v>0.12779024981246512</v>
       </c>
       <c r="E14" s="231">
-        <v>3.1065314399804725e-027</v>
+        <v>3.106531439980494E-27</v>
       </c>
       <c r="F14" s="233">
-        <v>1.9431455923076992</v>
+        <v>1.9431455923076939</v>
       </c>
       <c r="G14" s="233">
-        <v>0.15944438644375569</v>
+        <v>0.1594443864437553</v>
       </c>
       <c r="H14" s="231">
-        <v>1.610160848673022e-014</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1.610160848673028E-14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>196</v>
       </c>
@@ -14123,181 +14247,229 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:K23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.85546875" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
-      <c r="C4" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="303">
+        <v>12236.559997774661</v>
+      </c>
+      <c r="D3" s="303">
+        <v>1343.635986328125</v>
+      </c>
+      <c r="E3" s="303">
+        <v>2021.7199985682964</v>
+      </c>
+      <c r="F3" s="303">
+        <v>6142.7799972295761</v>
+      </c>
+      <c r="G3" s="303">
+        <v>8298.799596786499</v>
+      </c>
+      <c r="H3" s="303">
+        <v>2422.7699962854385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>207</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" t="s">
         <v>207</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I9" t="s">
         <v>207</v>
       </c>
-      <c r="F4" t="s">
-        <v>209</v>
-      </c>
-      <c r="G4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H4" t="s">
-        <v>209</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="232">
+        <v>0.41996457183493163</v>
+      </c>
+      <c r="D10" s="232">
+        <v>0.4455317604991556</v>
+      </c>
+      <c r="E10" s="231">
+        <v>0.44537916668645683</v>
+      </c>
+      <c r="F10" s="233">
+        <v>0.41139039453927034</v>
+      </c>
+      <c r="G10" s="233">
+        <v>0.26973411122814578</v>
+      </c>
+      <c r="H10" s="231">
+        <v>0.2246283182026996</v>
+      </c>
+      <c r="I10" s="232">
+        <v>0.41457017440794203</v>
+      </c>
+      <c r="J10" s="232">
+        <v>0.20939799735988696</v>
+      </c>
+      <c r="K10" s="231">
+        <v>6.6375721112827385E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="214">
+        <v>3.1134075856895715</v>
+      </c>
+      <c r="D11" s="214">
+        <v>0.81933700390892095</v>
+      </c>
+      <c r="E11" s="234">
+        <v>6.2801789420989101E-2</v>
+      </c>
+      <c r="F11" s="235">
+        <v>3.5289531599374389</v>
+      </c>
+      <c r="G11" s="235">
+        <v>0.72779529261145481</v>
+      </c>
+      <c r="H11" s="234">
+        <v>1.6740167648320724E-2</v>
+      </c>
+      <c r="I11" s="214">
+        <v>3.5346311552490759</v>
+      </c>
+      <c r="J11" s="214">
+        <v>0.35872622652278674</v>
+      </c>
+      <c r="K11" s="234">
+        <v>6.0673880015572905E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="236">
+        <f>1-C10</f>
+        <v>0.58003542816506837</v>
+      </c>
+      <c r="D12" s="214"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="236">
+        <f>1-F10</f>
+        <v>0.58860960546072971</v>
+      </c>
+      <c r="G12" s="235"/>
+      <c r="H12" s="234"/>
+      <c r="I12" s="236">
+        <f>1-I10</f>
+        <v>0.58542982559205803</v>
+      </c>
+      <c r="J12" s="214"/>
+      <c r="K12" s="231"/>
+    </row>
+    <row r="20" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C20" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="J4" t="s">
-        <v>210</v>
-      </c>
-      <c r="K4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="232">
-        <v>0.41996457183493163</v>
-      </c>
-      <c r="D6" s="232">
-        <v>0.4455317604991556</v>
-      </c>
-      <c r="E6" s="231">
-        <v>0.44537916668645683</v>
-      </c>
-      <c r="F6" s="233">
-        <v>0.41139039453927051</v>
-      </c>
-      <c r="G6" s="233">
-        <v>0.26973411122814583</v>
-      </c>
-      <c r="H6" s="231">
-        <v>0.22462831820269957</v>
-      </c>
-      <c r="I6" s="232">
-        <v>0.30343858532672968</v>
-      </c>
-      <c r="J6" s="232">
-        <v>0.16824868460079506</v>
-      </c>
-      <c r="K6" s="231">
-        <v>9.1427160847888378E-2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="232">
-        <v>3.1134075856895715</v>
-      </c>
-      <c r="D7" s="232">
-        <v>0.81933700390892095</v>
-      </c>
-      <c r="E7" s="231">
-        <v>6.2801789420989101E-2</v>
-      </c>
-      <c r="F7" s="233">
-        <v>3.5289531599374384</v>
-      </c>
-      <c r="G7" s="233">
-        <v>0.72779529261145504</v>
-      </c>
-      <c r="H7" s="231">
-        <v>1.6740167648320745E-2</v>
-      </c>
-      <c r="I7" s="232">
-        <v>3.3833392395551938</v>
-      </c>
-      <c r="J7" s="232">
-        <v>0.28823205811531599</v>
-      </c>
-      <c r="K7" s="231">
-        <v>5.8399021067159562E-9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D20" s="35" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>206</v>
-      </c>
-      <c r="C8" s="236">
-        <f>1-C6</f>
-        <v>0.58003542816506837</v>
-      </c>
-      <c r="D8" s="214"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="236">
-        <f>1-F6</f>
-        <v>0.58860960546072949</v>
-      </c>
-      <c r="G8" s="235"/>
-      <c r="H8" s="234"/>
-      <c r="I8" s="236">
-        <f>1-I6</f>
-        <v>0.69656141467327037</v>
-      </c>
-      <c r="J8" s="214"/>
-      <c r="K8" s="231"/>
-    </row>
-    <row r="20">
-      <c r="C20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="s">
-        <v>207</v>
       </c>
       <c r="C21">
         <v>0.32299281574253524</v>
@@ -14306,9 +14478,9 @@
         <v>0.51713244742479325</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22">
         <v>0.40540328464946168</v>
@@ -14317,12 +14489,12 @@
         <v>0.38126708309476026</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23">
-        <v>0.72248585091696849</v>
+        <v>1.0447962491600602</v>
       </c>
       <c r="D23">
         <v>0.55383863325815852</v>
@@ -14334,30 +14506,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="7.42578125" customWidth="true"/>
-    <col min="3" max="3" width="9.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="8.42578125" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="7.42578125" customWidth="true"/>
-    <col min="8" max="8" width="12.42578125" customWidth="true"/>
-    <col min="9" max="9" width="12.140625" customWidth="true"/>
-    <col min="10" max="10" width="9.140625" customWidth="true"/>
-    <col min="11" max="11" width="7.140625" customWidth="true"/>
-    <col min="12" max="12" width="10.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" s="11" customFormat="true" ht="18.75" customHeight="true" thickBot="true">
+    <row r="8" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>25</v>
       </c>
@@ -14387,52 +14559,52 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" s="35" customFormat="true" ht="18.75" customHeight="true">
+    <row r="9" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="282" t="s">
+      <c r="B9" s="284" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="283"/>
-      <c r="D9" s="283"/>
-      <c r="E9" s="283"/>
-      <c r="F9" s="284"/>
-      <c r="G9" s="282" t="s">
+      <c r="C9" s="285"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="286"/>
+      <c r="G9" s="284" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="283"/>
-      <c r="I9" s="283"/>
-      <c r="J9" s="283"/>
-      <c r="K9" s="284"/>
-      <c r="L9" s="282" t="s">
+      <c r="H9" s="285"/>
+      <c r="I9" s="285"/>
+      <c r="J9" s="285"/>
+      <c r="K9" s="286"/>
+      <c r="L9" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="283"/>
-      <c r="N9" s="283"/>
-      <c r="O9" s="283"/>
-      <c r="P9" s="284"/>
-      <c r="Q9" s="282" t="s">
+      <c r="M9" s="285"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="285"/>
+      <c r="P9" s="286"/>
+      <c r="Q9" s="284" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="283"/>
-      <c r="S9" s="283"/>
-      <c r="T9" s="283"/>
-      <c r="U9" s="284"/>
-      <c r="V9" s="282" t="s">
+      <c r="R9" s="285"/>
+      <c r="S9" s="285"/>
+      <c r="T9" s="285"/>
+      <c r="U9" s="286"/>
+      <c r="V9" s="284" t="s">
         <v>122</v>
       </c>
-      <c r="W9" s="283"/>
-      <c r="X9" s="283"/>
-      <c r="Y9" s="283"/>
-      <c r="Z9" s="284"/>
-      <c r="AA9" s="282" t="s">
+      <c r="W9" s="285"/>
+      <c r="X9" s="285"/>
+      <c r="Y9" s="285"/>
+      <c r="Z9" s="286"/>
+      <c r="AA9" s="284" t="s">
         <v>123</v>
       </c>
-      <c r="AB9" s="283"/>
-      <c r="AC9" s="283"/>
-      <c r="AD9" s="283"/>
-      <c r="AE9" s="284"/>
-    </row>
-    <row r="10" s="42" customFormat="true" ht="18.75" customHeight="true">
+      <c r="AB9" s="285"/>
+      <c r="AC9" s="285"/>
+      <c r="AD9" s="285"/>
+      <c r="AE9" s="286"/>
+    </row>
+    <row r="10" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>0</v>
       </c>
@@ -14527,7 +14699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" s="51" customFormat="true" ht="30" customHeight="true" thickBot="true">
+    <row r="11" spans="1:31" s="51" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>124</v>
       </c>

--- a/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="805" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="805" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -20,12 +20,13 @@
     <sheet name="Crop" sheetId="3" r:id="rId6"/>
     <sheet name="Fish" sheetId="18" r:id="rId7"/>
     <sheet name="ProdSerRet" sheetId="19" r:id="rId8"/>
-    <sheet name="Live" sheetId="4" r:id="rId9"/>
-    <sheet name="ret" sheetId="5" r:id="rId10"/>
-    <sheet name="ser" sheetId="6" r:id="rId11"/>
-    <sheet name="shares" sheetId="7" r:id="rId12"/>
-    <sheet name="wages" sheetId="9" r:id="rId13"/>
-    <sheet name="Alt" sheetId="12" r:id="rId14"/>
+    <sheet name="Cons" sheetId="20" r:id="rId9"/>
+    <sheet name="Live" sheetId="4" r:id="rId10"/>
+    <sheet name="Alt" sheetId="12" r:id="rId11"/>
+    <sheet name="ret" sheetId="5" r:id="rId12"/>
+    <sheet name="ser" sheetId="6" r:id="rId13"/>
+    <sheet name="shares" sheetId="7" r:id="rId14"/>
+    <sheet name="wages" sheetId="9" r:id="rId15"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -2609,6 +2610,514 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A8:AE11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+    </row>
+    <row r="9" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="284" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="285"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="286"/>
+      <c r="G9" s="284" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="285"/>
+      <c r="I9" s="285"/>
+      <c r="J9" s="285"/>
+      <c r="K9" s="286"/>
+      <c r="L9" s="284" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="285"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="285"/>
+      <c r="P9" s="286"/>
+      <c r="Q9" s="284" t="s">
+        <v>121</v>
+      </c>
+      <c r="R9" s="285"/>
+      <c r="S9" s="285"/>
+      <c r="T9" s="285"/>
+      <c r="U9" s="286"/>
+      <c r="V9" s="284" t="s">
+        <v>122</v>
+      </c>
+      <c r="W9" s="285"/>
+      <c r="X9" s="285"/>
+      <c r="Y9" s="285"/>
+      <c r="Z9" s="286"/>
+      <c r="AA9" s="284" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB9" s="285"/>
+      <c r="AC9" s="285"/>
+      <c r="AD9" s="285"/>
+      <c r="AE9" s="286"/>
+    </row>
+    <row r="10" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="W10" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z10" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA10" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB10" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC10" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD10" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE10" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="51" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="48"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="48"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="48"/>
+      <c r="AE11" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AA9:AE9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:U9"/>
+    <mergeCell ref="V9:Z9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="290" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="290">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="290"/>
+      <c r="B4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="290">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="124"/>
+      <c r="K5" s="124"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="290"/>
+      <c r="B6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="290">
+        <v>1</v>
+      </c>
+      <c r="B9" s="301" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="302"/>
+      <c r="D9" s="302"/>
+      <c r="E9" s="302"/>
+      <c r="F9" s="302"/>
+      <c r="G9" s="302"/>
+      <c r="H9" s="302"/>
+      <c r="I9" s="302"/>
+      <c r="J9" s="302"/>
+      <c r="K9" s="302"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="290"/>
+      <c r="B10" s="302"/>
+      <c r="C10" s="302"/>
+      <c r="D10" s="302"/>
+      <c r="E10" s="302"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="302"/>
+      <c r="I10" s="302"/>
+      <c r="J10" s="302"/>
+      <c r="K10" s="302"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="290"/>
+      <c r="B11" s="302"/>
+      <c r="C11" s="302"/>
+      <c r="D11" s="302"/>
+      <c r="E11" s="302"/>
+      <c r="F11" s="302"/>
+      <c r="G11" s="302"/>
+      <c r="H11" s="302"/>
+      <c r="I11" s="302"/>
+      <c r="J11" s="302"/>
+      <c r="K11" s="302"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="290"/>
+      <c r="B12" s="302"/>
+      <c r="C12" s="302"/>
+      <c r="D12" s="302"/>
+      <c r="E12" s="302"/>
+      <c r="F12" s="302"/>
+      <c r="G12" s="302"/>
+      <c r="H12" s="302"/>
+      <c r="I12" s="302"/>
+      <c r="J12" s="302"/>
+      <c r="K12" s="302"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="290"/>
+      <c r="B13" s="302"/>
+      <c r="C13" s="302"/>
+      <c r="D13" s="302"/>
+      <c r="E13" s="302"/>
+      <c r="F13" s="302"/>
+      <c r="G13" s="302"/>
+      <c r="H13" s="302"/>
+      <c r="I13" s="302"/>
+      <c r="J13" s="302"/>
+      <c r="K13" s="302"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="290"/>
+      <c r="B14" s="302"/>
+      <c r="C14" s="302"/>
+      <c r="D14" s="302"/>
+      <c r="E14" s="302"/>
+      <c r="F14" s="302"/>
+      <c r="G14" s="302"/>
+      <c r="H14" s="302"/>
+      <c r="I14" s="302"/>
+      <c r="J14" s="302"/>
+      <c r="K14" s="302"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="290">
+        <v>2</v>
+      </c>
+      <c r="B15" s="301" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="302"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="302"/>
+      <c r="I15" s="302"/>
+      <c r="J15" s="302"/>
+      <c r="K15" s="302"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="290"/>
+      <c r="B16" s="302"/>
+      <c r="C16" s="302"/>
+      <c r="D16" s="302"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="302"/>
+      <c r="I16" s="302"/>
+      <c r="J16" s="302"/>
+      <c r="K16" s="302"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="290"/>
+      <c r="B17" s="302"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="302"/>
+      <c r="K17" s="302"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="290"/>
+      <c r="B18" s="302"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="302"/>
+      <c r="I18" s="302"/>
+      <c r="J18" s="302"/>
+      <c r="K18" s="302"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="290"/>
+      <c r="B19" s="302"/>
+      <c r="C19" s="302"/>
+      <c r="D19" s="302"/>
+      <c r="E19" s="302"/>
+      <c r="F19" s="302"/>
+      <c r="G19" s="302"/>
+      <c r="H19" s="302"/>
+      <c r="I19" s="302"/>
+      <c r="J19" s="302"/>
+      <c r="K19" s="302"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="290"/>
+      <c r="B20" s="302"/>
+      <c r="C20" s="302"/>
+      <c r="D20" s="302"/>
+      <c r="E20" s="302"/>
+      <c r="F20" s="302"/>
+      <c r="G20" s="302"/>
+      <c r="H20" s="302"/>
+      <c r="I20" s="302"/>
+      <c r="J20" s="302"/>
+      <c r="K20" s="302"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:K20"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B9:K14"/>
+    <mergeCell ref="A9:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2846,7 +3355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:U12"/>
   <sheetViews>
@@ -3035,7 +3544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M64"/>
   <sheetViews>
@@ -4015,7 +4524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C15"/>
   <sheetViews>
@@ -4080,272 +4589,6 @@
       <c r="C15" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="290" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="290">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="290"/>
-      <c r="B4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="290">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="124"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="290"/>
-      <c r="B6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="290">
-        <v>1</v>
-      </c>
-      <c r="B9" s="301" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="302"/>
-      <c r="D9" s="302"/>
-      <c r="E9" s="302"/>
-      <c r="F9" s="302"/>
-      <c r="G9" s="302"/>
-      <c r="H9" s="302"/>
-      <c r="I9" s="302"/>
-      <c r="J9" s="302"/>
-      <c r="K9" s="302"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="290"/>
-      <c r="B10" s="302"/>
-      <c r="C10" s="302"/>
-      <c r="D10" s="302"/>
-      <c r="E10" s="302"/>
-      <c r="F10" s="302"/>
-      <c r="G10" s="302"/>
-      <c r="H10" s="302"/>
-      <c r="I10" s="302"/>
-      <c r="J10" s="302"/>
-      <c r="K10" s="302"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="290"/>
-      <c r="B11" s="302"/>
-      <c r="C11" s="302"/>
-      <c r="D11" s="302"/>
-      <c r="E11" s="302"/>
-      <c r="F11" s="302"/>
-      <c r="G11" s="302"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="302"/>
-      <c r="K11" s="302"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="290"/>
-      <c r="B12" s="302"/>
-      <c r="C12" s="302"/>
-      <c r="D12" s="302"/>
-      <c r="E12" s="302"/>
-      <c r="F12" s="302"/>
-      <c r="G12" s="302"/>
-      <c r="H12" s="302"/>
-      <c r="I12" s="302"/>
-      <c r="J12" s="302"/>
-      <c r="K12" s="302"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="290"/>
-      <c r="B13" s="302"/>
-      <c r="C13" s="302"/>
-      <c r="D13" s="302"/>
-      <c r="E13" s="302"/>
-      <c r="F13" s="302"/>
-      <c r="G13" s="302"/>
-      <c r="H13" s="302"/>
-      <c r="I13" s="302"/>
-      <c r="J13" s="302"/>
-      <c r="K13" s="302"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="290"/>
-      <c r="B14" s="302"/>
-      <c r="C14" s="302"/>
-      <c r="D14" s="302"/>
-      <c r="E14" s="302"/>
-      <c r="F14" s="302"/>
-      <c r="G14" s="302"/>
-      <c r="H14" s="302"/>
-      <c r="I14" s="302"/>
-      <c r="J14" s="302"/>
-      <c r="K14" s="302"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="290">
-        <v>2</v>
-      </c>
-      <c r="B15" s="301" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="302"/>
-      <c r="D15" s="302"/>
-      <c r="E15" s="302"/>
-      <c r="F15" s="302"/>
-      <c r="G15" s="302"/>
-      <c r="H15" s="302"/>
-      <c r="I15" s="302"/>
-      <c r="J15" s="302"/>
-      <c r="K15" s="302"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="290"/>
-      <c r="B16" s="302"/>
-      <c r="C16" s="302"/>
-      <c r="D16" s="302"/>
-      <c r="E16" s="302"/>
-      <c r="F16" s="302"/>
-      <c r="G16" s="302"/>
-      <c r="H16" s="302"/>
-      <c r="I16" s="302"/>
-      <c r="J16" s="302"/>
-      <c r="K16" s="302"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="290"/>
-      <c r="B17" s="302"/>
-      <c r="C17" s="302"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="302"/>
-      <c r="F17" s="302"/>
-      <c r="G17" s="302"/>
-      <c r="H17" s="302"/>
-      <c r="I17" s="302"/>
-      <c r="J17" s="302"/>
-      <c r="K17" s="302"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="290"/>
-      <c r="B18" s="302"/>
-      <c r="C18" s="302"/>
-      <c r="D18" s="302"/>
-      <c r="E18" s="302"/>
-      <c r="F18" s="302"/>
-      <c r="G18" s="302"/>
-      <c r="H18" s="302"/>
-      <c r="I18" s="302"/>
-      <c r="J18" s="302"/>
-      <c r="K18" s="302"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="290"/>
-      <c r="B19" s="302"/>
-      <c r="C19" s="302"/>
-      <c r="D19" s="302"/>
-      <c r="E19" s="302"/>
-      <c r="F19" s="302"/>
-      <c r="G19" s="302"/>
-      <c r="H19" s="302"/>
-      <c r="I19" s="302"/>
-      <c r="J19" s="302"/>
-      <c r="K19" s="302"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="290"/>
-      <c r="B20" s="302"/>
-      <c r="C20" s="302"/>
-      <c r="D20" s="302"/>
-      <c r="E20" s="302"/>
-      <c r="F20" s="302"/>
-      <c r="G20" s="302"/>
-      <c r="H20" s="302"/>
-      <c r="I20" s="302"/>
-      <c r="J20" s="302"/>
-      <c r="K20" s="302"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:K20"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B9:K14"/>
-    <mergeCell ref="A9:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14019,8 +14262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14251,7 +14494,7 @@
   <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14507,242 +14750,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:AE11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="1:31" s="11" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-    </row>
-    <row r="9" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="284" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="285"/>
-      <c r="D9" s="285"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="286"/>
-      <c r="G9" s="284" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="285"/>
-      <c r="K9" s="286"/>
-      <c r="L9" s="284" t="s">
-        <v>120</v>
-      </c>
-      <c r="M9" s="285"/>
-      <c r="N9" s="285"/>
-      <c r="O9" s="285"/>
-      <c r="P9" s="286"/>
-      <c r="Q9" s="284" t="s">
-        <v>121</v>
-      </c>
-      <c r="R9" s="285"/>
-      <c r="S9" s="285"/>
-      <c r="T9" s="285"/>
-      <c r="U9" s="286"/>
-      <c r="V9" s="284" t="s">
-        <v>122</v>
-      </c>
-      <c r="W9" s="285"/>
-      <c r="X9" s="285"/>
-      <c r="Y9" s="285"/>
-      <c r="Z9" s="286"/>
-      <c r="AA9" s="284" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB9" s="285"/>
-      <c r="AC9" s="285"/>
-      <c r="AD9" s="285"/>
-      <c r="AE9" s="286"/>
-    </row>
-    <row r="10" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="U10" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="V10" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="W10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y10" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z10" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA10" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC10" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD10" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE10" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" s="51" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="48"/>
-      <c r="AC11" s="48"/>
-      <c r="AD11" s="48"/>
-      <c r="AE11" s="49"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AA9:AE9"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:U9"/>
-    <mergeCell ref="V9:Z9"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="226">
   <si>
     <t>Variable</t>
   </si>
@@ -852,6 +852,9 @@
   </si>
   <si>
     <t>ysale</t>
+  </si>
+  <si>
+    <t>Just trying something</t>
   </si>
 </sst>
 </file>
@@ -1953,6 +1956,16 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1962,17 +1975,98 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1984,101 +2078,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2091,6 +2095,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2100,9 +2113,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2133,13 +2143,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2664,48 +2667,48 @@
     </row>
     <row r="9" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="284" t="s">
+      <c r="B9" s="285" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="285"/>
-      <c r="D9" s="285"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="286"/>
-      <c r="G9" s="284" t="s">
+      <c r="C9" s="286"/>
+      <c r="D9" s="286"/>
+      <c r="E9" s="286"/>
+      <c r="F9" s="287"/>
+      <c r="G9" s="285" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="285"/>
-      <c r="K9" s="286"/>
-      <c r="L9" s="284" t="s">
+      <c r="H9" s="286"/>
+      <c r="I9" s="286"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="287"/>
+      <c r="L9" s="285" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="285"/>
-      <c r="N9" s="285"/>
-      <c r="O9" s="285"/>
-      <c r="P9" s="286"/>
-      <c r="Q9" s="284" t="s">
+      <c r="M9" s="286"/>
+      <c r="N9" s="286"/>
+      <c r="O9" s="286"/>
+      <c r="P9" s="287"/>
+      <c r="Q9" s="285" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="285"/>
-      <c r="S9" s="285"/>
-      <c r="T9" s="285"/>
-      <c r="U9" s="286"/>
-      <c r="V9" s="284" t="s">
+      <c r="R9" s="286"/>
+      <c r="S9" s="286"/>
+      <c r="T9" s="286"/>
+      <c r="U9" s="287"/>
+      <c r="V9" s="285" t="s">
         <v>122</v>
       </c>
-      <c r="W9" s="285"/>
-      <c r="X9" s="285"/>
-      <c r="Y9" s="285"/>
-      <c r="Z9" s="286"/>
-      <c r="AA9" s="284" t="s">
+      <c r="W9" s="286"/>
+      <c r="X9" s="286"/>
+      <c r="Y9" s="286"/>
+      <c r="Z9" s="287"/>
+      <c r="AA9" s="285" t="s">
         <v>123</v>
       </c>
-      <c r="AB9" s="285"/>
-      <c r="AC9" s="285"/>
-      <c r="AD9" s="285"/>
-      <c r="AE9" s="286"/>
+      <c r="AB9" s="286"/>
+      <c r="AC9" s="286"/>
+      <c r="AD9" s="286"/>
+      <c r="AE9" s="287"/>
     </row>
     <row r="10" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
@@ -2861,21 +2864,21 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="290" t="s">
+      <c r="B2" s="288" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="290">
+      <c r="A3" s="288">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2892,7 +2895,7 @@
       <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="290"/>
+      <c r="A4" s="288"/>
       <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
@@ -2907,7 +2910,7 @@
       <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="290">
+      <c r="A5" s="288">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2924,7 +2927,7 @@
       <c r="K5" s="124"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="290"/>
+      <c r="A6" s="288"/>
       <c r="B6" s="8" t="s">
         <v>45</v>
       </c>
@@ -2939,168 +2942,168 @@
       <c r="K6" s="124"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="290">
+      <c r="A9" s="288">
         <v>1</v>
       </c>
-      <c r="B9" s="301" t="s">
+      <c r="B9" s="289" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="302"/>
-      <c r="D9" s="302"/>
-      <c r="E9" s="302"/>
-      <c r="F9" s="302"/>
-      <c r="G9" s="302"/>
-      <c r="H9" s="302"/>
-      <c r="I9" s="302"/>
-      <c r="J9" s="302"/>
-      <c r="K9" s="302"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="290"/>
+      <c r="K9" s="290"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="290"/>
-      <c r="B10" s="302"/>
-      <c r="C10" s="302"/>
-      <c r="D10" s="302"/>
-      <c r="E10" s="302"/>
-      <c r="F10" s="302"/>
-      <c r="G10" s="302"/>
-      <c r="H10" s="302"/>
-      <c r="I10" s="302"/>
-      <c r="J10" s="302"/>
-      <c r="K10" s="302"/>
+      <c r="A10" s="288"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="290"/>
+      <c r="H10" s="290"/>
+      <c r="I10" s="290"/>
+      <c r="J10" s="290"/>
+      <c r="K10" s="290"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="290"/>
-      <c r="B11" s="302"/>
-      <c r="C11" s="302"/>
-      <c r="D11" s="302"/>
-      <c r="E11" s="302"/>
-      <c r="F11" s="302"/>
-      <c r="G11" s="302"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="302"/>
-      <c r="K11" s="302"/>
+      <c r="A11" s="288"/>
+      <c r="B11" s="290"/>
+      <c r="C11" s="290"/>
+      <c r="D11" s="290"/>
+      <c r="E11" s="290"/>
+      <c r="F11" s="290"/>
+      <c r="G11" s="290"/>
+      <c r="H11" s="290"/>
+      <c r="I11" s="290"/>
+      <c r="J11" s="290"/>
+      <c r="K11" s="290"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="290"/>
-      <c r="B12" s="302"/>
-      <c r="C12" s="302"/>
-      <c r="D12" s="302"/>
-      <c r="E12" s="302"/>
-      <c r="F12" s="302"/>
-      <c r="G12" s="302"/>
-      <c r="H12" s="302"/>
-      <c r="I12" s="302"/>
-      <c r="J12" s="302"/>
-      <c r="K12" s="302"/>
+      <c r="A12" s="288"/>
+      <c r="B12" s="290"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="290"/>
+      <c r="G12" s="290"/>
+      <c r="H12" s="290"/>
+      <c r="I12" s="290"/>
+      <c r="J12" s="290"/>
+      <c r="K12" s="290"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="290"/>
-      <c r="B13" s="302"/>
-      <c r="C13" s="302"/>
-      <c r="D13" s="302"/>
-      <c r="E13" s="302"/>
-      <c r="F13" s="302"/>
-      <c r="G13" s="302"/>
-      <c r="H13" s="302"/>
-      <c r="I13" s="302"/>
-      <c r="J13" s="302"/>
-      <c r="K13" s="302"/>
+      <c r="A13" s="288"/>
+      <c r="B13" s="290"/>
+      <c r="C13" s="290"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="290"/>
+      <c r="H13" s="290"/>
+      <c r="I13" s="290"/>
+      <c r="J13" s="290"/>
+      <c r="K13" s="290"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="290"/>
-      <c r="B14" s="302"/>
-      <c r="C14" s="302"/>
-      <c r="D14" s="302"/>
-      <c r="E14" s="302"/>
-      <c r="F14" s="302"/>
-      <c r="G14" s="302"/>
-      <c r="H14" s="302"/>
-      <c r="I14" s="302"/>
-      <c r="J14" s="302"/>
-      <c r="K14" s="302"/>
+      <c r="A14" s="288"/>
+      <c r="B14" s="290"/>
+      <c r="C14" s="290"/>
+      <c r="D14" s="290"/>
+      <c r="E14" s="290"/>
+      <c r="F14" s="290"/>
+      <c r="G14" s="290"/>
+      <c r="H14" s="290"/>
+      <c r="I14" s="290"/>
+      <c r="J14" s="290"/>
+      <c r="K14" s="290"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="290">
+      <c r="A15" s="288">
         <v>2</v>
       </c>
-      <c r="B15" s="301" t="s">
+      <c r="B15" s="289" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="302"/>
-      <c r="D15" s="302"/>
-      <c r="E15" s="302"/>
-      <c r="F15" s="302"/>
-      <c r="G15" s="302"/>
-      <c r="H15" s="302"/>
-      <c r="I15" s="302"/>
-      <c r="J15" s="302"/>
-      <c r="K15" s="302"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="290"/>
+      <c r="J15" s="290"/>
+      <c r="K15" s="290"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="290"/>
-      <c r="B16" s="302"/>
-      <c r="C16" s="302"/>
-      <c r="D16" s="302"/>
-      <c r="E16" s="302"/>
-      <c r="F16" s="302"/>
-      <c r="G16" s="302"/>
-      <c r="H16" s="302"/>
-      <c r="I16" s="302"/>
-      <c r="J16" s="302"/>
-      <c r="K16" s="302"/>
+      <c r="A16" s="288"/>
+      <c r="B16" s="290"/>
+      <c r="C16" s="290"/>
+      <c r="D16" s="290"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
+      <c r="J16" s="290"/>
+      <c r="K16" s="290"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="290"/>
-      <c r="B17" s="302"/>
-      <c r="C17" s="302"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="302"/>
-      <c r="F17" s="302"/>
-      <c r="G17" s="302"/>
-      <c r="H17" s="302"/>
-      <c r="I17" s="302"/>
-      <c r="J17" s="302"/>
-      <c r="K17" s="302"/>
+      <c r="A17" s="288"/>
+      <c r="B17" s="290"/>
+      <c r="C17" s="290"/>
+      <c r="D17" s="290"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="290"/>
+      <c r="I17" s="290"/>
+      <c r="J17" s="290"/>
+      <c r="K17" s="290"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="290"/>
-      <c r="B18" s="302"/>
-      <c r="C18" s="302"/>
-      <c r="D18" s="302"/>
-      <c r="E18" s="302"/>
-      <c r="F18" s="302"/>
-      <c r="G18" s="302"/>
-      <c r="H18" s="302"/>
-      <c r="I18" s="302"/>
-      <c r="J18" s="302"/>
-      <c r="K18" s="302"/>
+      <c r="A18" s="288"/>
+      <c r="B18" s="290"/>
+      <c r="C18" s="290"/>
+      <c r="D18" s="290"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="290"/>
+      <c r="J18" s="290"/>
+      <c r="K18" s="290"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="290"/>
-      <c r="B19" s="302"/>
-      <c r="C19" s="302"/>
-      <c r="D19" s="302"/>
-      <c r="E19" s="302"/>
-      <c r="F19" s="302"/>
-      <c r="G19" s="302"/>
-      <c r="H19" s="302"/>
-      <c r="I19" s="302"/>
-      <c r="J19" s="302"/>
-      <c r="K19" s="302"/>
+      <c r="A19" s="288"/>
+      <c r="B19" s="290"/>
+      <c r="C19" s="290"/>
+      <c r="D19" s="290"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="290"/>
+      <c r="H19" s="290"/>
+      <c r="I19" s="290"/>
+      <c r="J19" s="290"/>
+      <c r="K19" s="290"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="290"/>
-      <c r="B20" s="302"/>
-      <c r="C20" s="302"/>
-      <c r="D20" s="302"/>
-      <c r="E20" s="302"/>
-      <c r="F20" s="302"/>
-      <c r="G20" s="302"/>
-      <c r="H20" s="302"/>
-      <c r="I20" s="302"/>
-      <c r="J20" s="302"/>
-      <c r="K20" s="302"/>
+      <c r="A20" s="288"/>
+      <c r="B20" s="290"/>
+      <c r="C20" s="290"/>
+      <c r="D20" s="290"/>
+      <c r="E20" s="290"/>
+      <c r="F20" s="290"/>
+      <c r="G20" s="290"/>
+      <c r="H20" s="290"/>
+      <c r="I20" s="290"/>
+      <c r="J20" s="290"/>
+      <c r="K20" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3159,34 +3162,34 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="287" t="s">
+      <c r="B9" s="291" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="288"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="287" t="s">
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="291" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="288"/>
-      <c r="I9" s="288"/>
-      <c r="J9" s="288"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="287" t="s">
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="291" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="288"/>
-      <c r="N9" s="288"/>
-      <c r="O9" s="288"/>
-      <c r="P9" s="289"/>
-      <c r="Q9" s="287" t="s">
+      <c r="M9" s="292"/>
+      <c r="N9" s="292"/>
+      <c r="O9" s="292"/>
+      <c r="P9" s="293"/>
+      <c r="Q9" s="291" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="288"/>
-      <c r="S9" s="288"/>
-      <c r="T9" s="288"/>
-      <c r="U9" s="289"/>
+      <c r="R9" s="292"/>
+      <c r="S9" s="292"/>
+      <c r="T9" s="292"/>
+      <c r="U9" s="293"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -3390,34 +3393,34 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="287" t="s">
+      <c r="B9" s="291" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="288"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="287" t="s">
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="291" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="288"/>
-      <c r="I9" s="288"/>
-      <c r="J9" s="288"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="287" t="s">
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="291" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="288"/>
-      <c r="N9" s="288"/>
-      <c r="O9" s="288"/>
-      <c r="P9" s="289"/>
-      <c r="Q9" s="287" t="s">
+      <c r="M9" s="292"/>
+      <c r="N9" s="292"/>
+      <c r="O9" s="292"/>
+      <c r="P9" s="293"/>
+      <c r="Q9" s="291" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="288"/>
-      <c r="S9" s="288"/>
-      <c r="T9" s="288"/>
-      <c r="U9" s="289"/>
+      <c r="R9" s="292"/>
+      <c r="S9" s="292"/>
+      <c r="T9" s="292"/>
+      <c r="U9" s="293"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -3560,11 +3563,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="288" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3589,11 +3592,11 @@
       <c r="C6" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="290" t="s">
+      <c r="A9" s="288" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="290"/>
-      <c r="C9" s="290"/>
+      <c r="B9" s="288"/>
+      <c r="C9" s="288"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -3636,11 +3639,11 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="290" t="s">
+      <c r="A15" s="288" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="290"/>
-      <c r="C15" s="290"/>
+      <c r="B15" s="288"/>
+      <c r="C15" s="288"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
         <v>1</v>
@@ -3715,11 +3718,11 @@
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="290" t="s">
+      <c r="A21" s="288" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="290"/>
-      <c r="C21" s="290"/>
+      <c r="B21" s="288"/>
+      <c r="C21" s="288"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>135</v>
@@ -3796,8 +3799,8 @@
       <c r="K26" s="230"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="290"/>
-      <c r="C27" s="290"/>
+      <c r="B27" s="288"/>
+      <c r="C27" s="288"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3812,7 +3815,7 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="297" t="s">
+      <c r="F29" s="300" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="61" t="s">
@@ -3824,7 +3827,7 @@
       <c r="K29" s="66"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="298"/>
+      <c r="F30" s="301"/>
       <c r="G30" s="24" t="s">
         <v>51</v>
       </c>
@@ -3834,7 +3837,7 @@
       <c r="K30" s="65"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="298" t="s">
+      <c r="F31" s="301" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="24" t="s">
@@ -3846,7 +3849,7 @@
       <c r="K31" s="65"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="299"/>
+      <c r="F32" s="302"/>
       <c r="G32" s="64" t="s">
         <v>51</v>
       </c>
@@ -3856,8 +3859,8 @@
       <c r="K32" s="67"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="290"/>
-      <c r="C33" s="290"/>
+      <c r="B33" s="288"/>
+      <c r="C33" s="288"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3882,10 +3885,10 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F36" s="291" t="s">
+      <c r="F36" s="294" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="300" t="s">
+      <c r="G36" s="303" t="s">
         <v>125</v>
       </c>
       <c r="H36" s="61" t="e">
@@ -3910,8 +3913,8 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F37" s="292"/>
-      <c r="G37" s="295"/>
+      <c r="F37" s="295"/>
+      <c r="G37" s="298"/>
       <c r="H37" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3934,8 +3937,8 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F38" s="292"/>
-      <c r="G38" s="295"/>
+      <c r="F38" s="295"/>
+      <c r="G38" s="298"/>
       <c r="H38" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3958,8 +3961,8 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F39" s="292"/>
-      <c r="G39" s="295"/>
+      <c r="F39" s="295"/>
+      <c r="G39" s="298"/>
       <c r="H39" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3982,7 +3985,7 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F40" s="292"/>
+      <c r="F40" s="295"/>
       <c r="G40" s="108"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -3991,8 +3994,8 @@
       <c r="M40" s="109"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F41" s="292"/>
-      <c r="G41" s="295" t="s">
+      <c r="F41" s="295"/>
+      <c r="G41" s="298" t="s">
         <v>135</v>
       </c>
       <c r="H41" s="24" t="e">
@@ -4017,8 +4020,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F42" s="292"/>
-      <c r="G42" s="295"/>
+      <c r="F42" s="295"/>
+      <c r="G42" s="298"/>
       <c r="H42" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4041,8 +4044,8 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F43" s="292"/>
-      <c r="G43" s="295"/>
+      <c r="F43" s="295"/>
+      <c r="G43" s="298"/>
       <c r="H43" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4065,8 +4068,8 @@
       </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="293"/>
-      <c r="G44" s="296"/>
+      <c r="F44" s="296"/>
+      <c r="G44" s="299"/>
       <c r="H44" s="64" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4097,10 +4100,10 @@
       <c r="M45" s="109"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F46" s="291" t="s">
+      <c r="F46" s="294" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="294" t="s">
+      <c r="G46" s="297" t="s">
         <v>125</v>
       </c>
       <c r="H46" s="61" t="e">
@@ -4125,8 +4128,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F47" s="292"/>
-      <c r="G47" s="295"/>
+      <c r="F47" s="295"/>
+      <c r="G47" s="298"/>
       <c r="H47" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4149,8 +4152,8 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F48" s="292"/>
-      <c r="G48" s="295"/>
+      <c r="F48" s="295"/>
+      <c r="G48" s="298"/>
       <c r="H48" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4173,8 +4176,8 @@
       </c>
     </row>
     <row r="49" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F49" s="292"/>
-      <c r="G49" s="295"/>
+      <c r="F49" s="295"/>
+      <c r="G49" s="298"/>
       <c r="H49" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4197,7 +4200,7 @@
       </c>
     </row>
     <row r="50" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F50" s="292"/>
+      <c r="F50" s="295"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
@@ -4206,8 +4209,8 @@
       <c r="M50" s="109"/>
     </row>
     <row r="51" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F51" s="292"/>
-      <c r="G51" s="295" t="s">
+      <c r="F51" s="295"/>
+      <c r="G51" s="298" t="s">
         <v>135</v>
       </c>
       <c r="H51" s="24" t="e">
@@ -4232,8 +4235,8 @@
       </c>
     </row>
     <row r="52" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F52" s="292"/>
-      <c r="G52" s="295"/>
+      <c r="F52" s="295"/>
+      <c r="G52" s="298"/>
       <c r="H52" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4256,8 +4259,8 @@
       </c>
     </row>
     <row r="53" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F53" s="292"/>
-      <c r="G53" s="295"/>
+      <c r="F53" s="295"/>
+      <c r="G53" s="298"/>
       <c r="H53" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4280,8 +4283,8 @@
       </c>
     </row>
     <row r="54" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="293"/>
-      <c r="G54" s="296"/>
+      <c r="F54" s="296"/>
+      <c r="G54" s="299"/>
       <c r="H54" s="64" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4505,6 +4508,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="F46:F54"/>
     <mergeCell ref="G46:G49"/>
     <mergeCell ref="G51:G54"/>
@@ -4513,12 +4522,6 @@
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="F36:F44"/>
     <mergeCell ref="G41:G44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4908,26 +4911,26 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="275" t="s">
+      <c r="F1" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="282" t="s">
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="260" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="282"/>
+      <c r="K1" s="260"/>
       <c r="L1" s="9"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="253" t="s">
+      <c r="N1" s="251" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="S1" s="255"/>
+      <c r="O1" s="252"/>
+      <c r="P1" s="252"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="253"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -4939,14 +4942,14 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="273" t="s">
+      <c r="F2" s="262" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273" t="s">
+      <c r="G2" s="262"/>
+      <c r="H2" s="262" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="273"/>
+      <c r="I2" s="262"/>
       <c r="J2" s="9" t="s">
         <v>99</v>
       </c>
@@ -4955,18 +4958,18 @@
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="276" t="s">
+      <c r="N2" s="254" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="277"/>
-      <c r="P2" s="277" t="s">
+      <c r="O2" s="255"/>
+      <c r="P2" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="277"/>
-      <c r="R2" s="278" t="s">
+      <c r="Q2" s="255"/>
+      <c r="R2" s="256" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="280" t="s">
+      <c r="S2" s="258" t="s">
         <v>129</v>
       </c>
       <c r="T2" s="8"/>
@@ -5008,8 +5011,8 @@
       <c r="Q3" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="279"/>
-      <c r="S3" s="281"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="259"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -5053,10 +5056,10 @@
         <f>S4*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L4" s="246" t="s">
+      <c r="L4" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="247"/>
+      <c r="M4" s="264"/>
       <c r="N4" s="60">
         <f>Crop!$C$23*Input!F8</f>
         <v>0</v>
@@ -5124,8 +5127,8 @@
         <f>S5*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L5" s="246"/>
-      <c r="M5" s="247"/>
+      <c r="L5" s="263"/>
+      <c r="M5" s="264"/>
       <c r="N5" s="62">
         <f>Crop!$C$23*Input!F9</f>
         <v>0</v>
@@ -5193,8 +5196,8 @@
         <f>S6*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L6" s="246"/>
-      <c r="M6" s="247"/>
+      <c r="L6" s="263"/>
+      <c r="M6" s="264"/>
       <c r="N6" s="62">
         <f>Crop!$C$23*Input!F10</f>
         <v>0</v>
@@ -5262,8 +5265,8 @@
         <f>S7*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L7" s="246"/>
-      <c r="M7" s="247"/>
+      <c r="L7" s="263"/>
+      <c r="M7" s="264"/>
       <c r="N7" s="63">
         <f>Crop!$C$23*Input!F11</f>
         <v>0</v>
@@ -5652,12 +5655,12 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="241" t="s">
+      <c r="T19" s="245" t="s">
         <v>112</v>
       </c>
-      <c r="U19" s="242"/>
-      <c r="V19" s="242"/>
-      <c r="W19" s="243"/>
+      <c r="U19" s="246"/>
+      <c r="V19" s="246"/>
+      <c r="W19" s="247"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
@@ -5748,10 +5751,10 @@
         <f t="shared" ref="K21:K27" si="5">Q21*$K$93*$K$112</f>
         <v>0</v>
       </c>
-      <c r="L21" s="246" t="s">
+      <c r="L21" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="M21" s="247"/>
+      <c r="M21" s="264"/>
       <c r="N21" s="190">
         <f>T21*12</f>
         <v>0</v>
@@ -5768,10 +5771,10 @@
         <f t="shared" ref="Q21:Q27" si="8">W21*12</f>
         <v>0</v>
       </c>
-      <c r="R21" s="244" t="s">
+      <c r="R21" s="266" t="s">
         <v>113</v>
       </c>
-      <c r="S21" s="245"/>
+      <c r="S21" s="261"/>
       <c r="T21" s="190">
         <f>shares!H16</f>
         <v>0</v>
@@ -5825,8 +5828,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="246"/>
-      <c r="M22" s="247"/>
+      <c r="L22" s="263"/>
+      <c r="M22" s="264"/>
       <c r="N22" s="193">
         <f t="shared" ref="N22:N27" si="9">T22*12</f>
         <v>0</v>
@@ -5843,8 +5846,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R22" s="244"/>
-      <c r="S22" s="245"/>
+      <c r="R22" s="266"/>
+      <c r="S22" s="261"/>
       <c r="T22" s="193">
         <f>shares!H17</f>
         <v>0</v>
@@ -5898,8 +5901,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="246"/>
-      <c r="M23" s="247"/>
+      <c r="L23" s="263"/>
+      <c r="M23" s="264"/>
       <c r="N23" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5916,8 +5919,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R23" s="244"/>
-      <c r="S23" s="245"/>
+      <c r="R23" s="266"/>
+      <c r="S23" s="261"/>
       <c r="T23" s="193">
         <f>shares!H18</f>
         <v>0</v>
@@ -5971,8 +5974,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="246"/>
-      <c r="M24" s="247"/>
+      <c r="L24" s="263"/>
+      <c r="M24" s="264"/>
       <c r="N24" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5989,8 +5992,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R24" s="244"/>
-      <c r="S24" s="245"/>
+      <c r="R24" s="266"/>
+      <c r="S24" s="261"/>
       <c r="T24" s="195">
         <f>shares!H19</f>
         <v>0</v>
@@ -6044,10 +6047,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="247" t="s">
+      <c r="L25" s="264" t="s">
         <v>108</v>
       </c>
-      <c r="M25" s="247"/>
+      <c r="M25" s="264"/>
       <c r="N25" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6064,10 +6067,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R25" s="244" t="s">
+      <c r="R25" s="266" t="s">
         <v>113</v>
       </c>
-      <c r="S25" s="250"/>
+      <c r="S25" s="281"/>
       <c r="T25" s="190"/>
       <c r="U25" s="191"/>
       <c r="V25" s="191"/>
@@ -6109,8 +6112,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="247"/>
-      <c r="M26" s="247"/>
+      <c r="L26" s="264"/>
+      <c r="M26" s="264"/>
       <c r="N26" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6127,8 +6130,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R26" s="250"/>
-      <c r="S26" s="250"/>
+      <c r="R26" s="281"/>
+      <c r="S26" s="281"/>
       <c r="T26" s="193"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
@@ -6170,8 +6173,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="247"/>
-      <c r="M27" s="247"/>
+      <c r="L27" s="264"/>
+      <c r="M27" s="264"/>
       <c r="N27" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6188,8 +6191,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R27" s="250"/>
-      <c r="S27" s="250"/>
+      <c r="R27" s="281"/>
+      <c r="S27" s="281"/>
       <c r="T27" s="195"/>
       <c r="U27" s="196"/>
       <c r="V27" s="196"/>
@@ -6213,8 +6216,8 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="247"/>
-      <c r="M28" s="247"/>
+      <c r="L28" s="264"/>
+      <c r="M28" s="264"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -6434,12 +6437,12 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="241" t="s">
+      <c r="T37" s="245" t="s">
         <v>142</v>
       </c>
-      <c r="U37" s="242"/>
-      <c r="V37" s="242"/>
-      <c r="W37" s="243"/>
+      <c r="U37" s="246"/>
+      <c r="V37" s="246"/>
+      <c r="W37" s="247"/>
     </row>
     <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
@@ -6530,10 +6533,10 @@
         <f t="shared" ref="K39:K45" si="15">Q39*$K$93*$K$113</f>
         <v>0</v>
       </c>
-      <c r="L39" s="246" t="s">
+      <c r="L39" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="M39" s="247"/>
+      <c r="M39" s="264"/>
       <c r="N39" s="60">
         <f>T39*12</f>
         <v>0</v>
@@ -6550,10 +6553,10 @@
         <f>W39*12</f>
         <v>0</v>
       </c>
-      <c r="R39" s="245" t="s">
+      <c r="R39" s="261" t="s">
         <v>113</v>
       </c>
-      <c r="S39" s="245"/>
+      <c r="S39" s="261"/>
       <c r="T39" s="60">
         <f>shares!H23</f>
         <v>0</v>
@@ -6607,8 +6610,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L40" s="246"/>
-      <c r="M40" s="247"/>
+      <c r="L40" s="263"/>
+      <c r="M40" s="264"/>
       <c r="N40" s="193">
         <f t="shared" ref="N40:N43" si="16">T40*12</f>
         <v>0</v>
@@ -6625,8 +6628,8 @@
         <f t="shared" ref="Q40:Q43" si="19">W40*12</f>
         <v>0</v>
       </c>
-      <c r="R40" s="245"/>
-      <c r="S40" s="245"/>
+      <c r="R40" s="261"/>
+      <c r="S40" s="261"/>
       <c r="T40" s="193">
         <f>shares!H24</f>
         <v>0</v>
@@ -6680,8 +6683,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L41" s="246"/>
-      <c r="M41" s="247"/>
+      <c r="L41" s="263"/>
+      <c r="M41" s="264"/>
       <c r="N41" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6698,8 +6701,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R41" s="245"/>
-      <c r="S41" s="245"/>
+      <c r="R41" s="261"/>
+      <c r="S41" s="261"/>
       <c r="T41" s="193">
         <f>shares!H25</f>
         <v>0</v>
@@ -6753,8 +6756,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L42" s="246"/>
-      <c r="M42" s="247"/>
+      <c r="L42" s="263"/>
+      <c r="M42" s="264"/>
       <c r="N42" s="195">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6771,8 +6774,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R42" s="245"/>
-      <c r="S42" s="245"/>
+      <c r="R42" s="261"/>
+      <c r="S42" s="261"/>
       <c r="T42" s="195">
         <f>shares!H26</f>
         <v>0</v>
@@ -6826,10 +6829,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L43" s="246" t="s">
+      <c r="L43" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="M43" s="247"/>
+      <c r="M43" s="264"/>
       <c r="N43" s="190">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6846,10 +6849,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R43" s="244" t="s">
+      <c r="R43" s="266" t="s">
         <v>113</v>
       </c>
-      <c r="S43" s="250"/>
+      <c r="S43" s="281"/>
       <c r="T43" s="190">
         <f>ser!$C$11*Input!G46</f>
         <v>0</v>
@@ -6903,8 +6906,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L44" s="246"/>
-      <c r="M44" s="247"/>
+      <c r="L44" s="263"/>
+      <c r="M44" s="264"/>
       <c r="N44" s="193">
         <f t="shared" ref="N44:Q45" si="20">T44*12</f>
         <v>0</v>
@@ -6921,8 +6924,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R44" s="250"/>
-      <c r="S44" s="250"/>
+      <c r="R44" s="281"/>
+      <c r="S44" s="281"/>
       <c r="T44" s="193">
         <f>ser!$C$11*Input!G47</f>
         <v>0</v>
@@ -6976,8 +6979,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L45" s="246"/>
-      <c r="M45" s="247"/>
+      <c r="L45" s="263"/>
+      <c r="M45" s="264"/>
       <c r="N45" s="195">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -6994,8 +6997,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R45" s="250"/>
-      <c r="S45" s="250"/>
+      <c r="R45" s="281"/>
+      <c r="S45" s="281"/>
       <c r="T45" s="195">
         <f>ser!$C$11*Input!G48</f>
         <v>0</v>
@@ -7031,8 +7034,8 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="246"/>
-      <c r="M46" s="274"/>
+      <c r="L46" s="263"/>
+      <c r="M46" s="265"/>
       <c r="N46" s="129"/>
       <c r="O46" s="129"/>
       <c r="P46" s="129"/>
@@ -7217,14 +7220,14 @@
       <c r="K54" s="104"/>
       <c r="L54" s="9"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="253" t="s">
+      <c r="N54" s="251" t="s">
         <v>107</v>
       </c>
-      <c r="O54" s="254"/>
-      <c r="P54" s="254"/>
-      <c r="Q54" s="254"/>
-      <c r="R54" s="254"/>
-      <c r="S54" s="255"/>
+      <c r="O54" s="252"/>
+      <c r="P54" s="252"/>
+      <c r="Q54" s="252"/>
+      <c r="R54" s="252"/>
+      <c r="S54" s="253"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
@@ -7248,18 +7251,18 @@
       <c r="K55" s="107"/>
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="256" t="s">
+      <c r="N55" s="283" t="s">
         <v>126</v>
       </c>
-      <c r="O55" s="251"/>
-      <c r="P55" s="251" t="s">
+      <c r="O55" s="244"/>
+      <c r="P55" s="244" t="s">
         <v>127</v>
       </c>
-      <c r="Q55" s="251"/>
-      <c r="R55" s="260" t="s">
+      <c r="Q55" s="244"/>
+      <c r="R55" s="270" t="s">
         <v>128</v>
       </c>
-      <c r="S55" s="269" t="s">
+      <c r="S55" s="276" t="s">
         <v>129</v>
       </c>
       <c r="T55" s="8"/>
@@ -7305,8 +7308,8 @@
       <c r="Q56" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="R56" s="261"/>
-      <c r="S56" s="270"/>
+      <c r="R56" s="271"/>
+      <c r="S56" s="277"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
@@ -7348,10 +7351,10 @@
         <f>S57*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L57" s="246" t="s">
+      <c r="L57" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="M57" s="247"/>
+      <c r="M57" s="264"/>
       <c r="N57" s="60">
         <f>Live!$C$11*Input!F61</f>
         <v>0</v>
@@ -7417,8 +7420,8 @@
         <f>S58*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L58" s="246"/>
-      <c r="M58" s="247"/>
+      <c r="L58" s="263"/>
+      <c r="M58" s="264"/>
       <c r="N58" s="62">
         <f>Live!$C$11*Input!F62</f>
         <v>0</v>
@@ -7484,8 +7487,8 @@
         <f>S59*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L59" s="246"/>
-      <c r="M59" s="247"/>
+      <c r="L59" s="263"/>
+      <c r="M59" s="264"/>
       <c r="N59" s="62">
         <f>Live!$C$11*Input!F63</f>
         <v>0</v>
@@ -7551,8 +7554,8 @@
         <f>S60*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L60" s="246"/>
-      <c r="M60" s="247"/>
+      <c r="L60" s="263"/>
+      <c r="M60" s="264"/>
       <c r="N60" s="63">
         <f>Live!$C$11*Input!F64</f>
         <v>0</v>
@@ -7891,12 +7894,12 @@
       <c r="K72" s="107"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="251" t="s">
+      <c r="N72" s="244" t="s">
         <v>103</v>
       </c>
-      <c r="O72" s="251"/>
-      <c r="P72" s="251"/>
-      <c r="Q72" s="251"/>
+      <c r="O72" s="244"/>
+      <c r="P72" s="244"/>
+      <c r="Q72" s="244"/>
       <c r="R72" s="8"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -7925,14 +7928,14 @@
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="252" t="s">
+      <c r="N73" s="282" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="252"/>
-      <c r="P73" s="252" t="s">
+      <c r="O73" s="282"/>
+      <c r="P73" s="282" t="s">
         <v>104</v>
       </c>
-      <c r="Q73" s="252"/>
+      <c r="Q73" s="282"/>
       <c r="R73" s="8"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -8009,10 +8012,10 @@
         <f>Q75*$G93</f>
         <v>0</v>
       </c>
-      <c r="L75" s="248" t="s">
+      <c r="L75" s="279" t="s">
         <v>109</v>
       </c>
-      <c r="M75" s="249"/>
+      <c r="M75" s="280"/>
       <c r="N75" s="97">
         <f>wages!C7</f>
         <v>0</v>
@@ -8030,14 +8033,14 @@
         <v>0</v>
       </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="271" t="s">
+      <c r="S75" s="278" t="s">
         <v>163</v>
       </c>
-      <c r="T75" s="271"/>
-      <c r="U75" s="271"/>
-      <c r="V75" s="271"/>
-      <c r="W75" s="271"/>
-      <c r="X75" s="271"/>
+      <c r="T75" s="278"/>
+      <c r="U75" s="278"/>
+      <c r="V75" s="278"/>
+      <c r="W75" s="278"/>
+      <c r="X75" s="278"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -8114,22 +8117,22 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="241" t="s">
+      <c r="N78" s="245" t="s">
         <v>110</v>
       </c>
-      <c r="O78" s="242"/>
-      <c r="P78" s="242"/>
-      <c r="Q78" s="242"/>
-      <c r="R78" s="242"/>
-      <c r="S78" s="243"/>
-      <c r="T78" s="241" t="s">
+      <c r="O78" s="246"/>
+      <c r="P78" s="246"/>
+      <c r="Q78" s="246"/>
+      <c r="R78" s="246"/>
+      <c r="S78" s="247"/>
+      <c r="T78" s="245" t="s">
         <v>146</v>
       </c>
-      <c r="U78" s="242"/>
-      <c r="V78" s="242"/>
-      <c r="W78" s="242"/>
-      <c r="X78" s="242"/>
-      <c r="Y78" s="243"/>
+      <c r="U78" s="246"/>
+      <c r="V78" s="246"/>
+      <c r="W78" s="246"/>
+      <c r="X78" s="246"/>
+      <c r="Y78" s="247"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
@@ -8149,32 +8152,32 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="267" t="s">
+      <c r="N79" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="O79" s="268"/>
-      <c r="P79" s="241" t="s">
+      <c r="O79" s="249"/>
+      <c r="P79" s="245" t="s">
         <v>127</v>
       </c>
-      <c r="Q79" s="242"/>
-      <c r="R79" s="265" t="s">
+      <c r="Q79" s="246"/>
+      <c r="R79" s="242" t="s">
         <v>143</v>
       </c>
-      <c r="S79" s="265" t="s">
+      <c r="S79" s="242" t="s">
         <v>144</v>
       </c>
-      <c r="T79" s="267" t="s">
+      <c r="T79" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="U79" s="268"/>
-      <c r="V79" s="241" t="s">
+      <c r="U79" s="249"/>
+      <c r="V79" s="245" t="s">
         <v>127</v>
       </c>
-      <c r="W79" s="242"/>
-      <c r="X79" s="265" t="s">
+      <c r="W79" s="246"/>
+      <c r="X79" s="242" t="s">
         <v>143</v>
       </c>
-      <c r="Y79" s="265" t="s">
+      <c r="Y79" s="242" t="s">
         <v>144</v>
       </c>
     </row>
@@ -8208,8 +8211,8 @@
       <c r="Q80" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="R80" s="266"/>
-      <c r="S80" s="266"/>
+      <c r="R80" s="275"/>
+      <c r="S80" s="275"/>
       <c r="T80" s="123" t="s">
         <v>116</v>
       </c>
@@ -8222,8 +8225,8 @@
       <c r="W80" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="X80" s="272"/>
-      <c r="Y80" s="272"/>
+      <c r="X80" s="243"/>
+      <c r="Y80" s="243"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -8257,10 +8260,10 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L81" s="258" t="s">
+      <c r="L81" s="268" t="s">
         <v>170</v>
       </c>
-      <c r="M81" s="259"/>
+      <c r="M81" s="269"/>
       <c r="N81" s="97"/>
       <c r="O81" s="97"/>
       <c r="P81" s="97"/>
@@ -8300,24 +8303,24 @@
       <c r="K82" s="68">
         <v>0</v>
       </c>
-      <c r="L82" s="258"/>
-      <c r="M82" s="259"/>
-      <c r="N82" s="262" t="s">
+      <c r="L82" s="268"/>
+      <c r="M82" s="269"/>
+      <c r="N82" s="272" t="s">
         <v>111</v>
       </c>
-      <c r="O82" s="263"/>
-      <c r="P82" s="263"/>
-      <c r="Q82" s="263"/>
-      <c r="R82" s="263"/>
-      <c r="S82" s="264"/>
-      <c r="T82" s="251" t="s">
+      <c r="O82" s="273"/>
+      <c r="P82" s="273"/>
+      <c r="Q82" s="273"/>
+      <c r="R82" s="273"/>
+      <c r="S82" s="274"/>
+      <c r="T82" s="244" t="s">
         <v>145</v>
       </c>
-      <c r="U82" s="251"/>
-      <c r="V82" s="251"/>
-      <c r="W82" s="251"/>
-      <c r="X82" s="251"/>
-      <c r="Y82" s="251"/>
+      <c r="U82" s="244"/>
+      <c r="V82" s="244"/>
+      <c r="W82" s="244"/>
+      <c r="X82" s="244"/>
+      <c r="Y82" s="244"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -8807,7 +8810,7 @@
       <c r="I97" s="226"/>
       <c r="J97" s="226"/>
       <c r="K97" s="226"/>
-      <c r="L97" s="257" t="s">
+      <c r="L97" s="267" t="s">
         <v>115</v>
       </c>
       <c r="M97" s="8"/>
@@ -8840,7 +8843,7 @@
       <c r="I98" s="226"/>
       <c r="J98" s="226"/>
       <c r="K98" s="226"/>
-      <c r="L98" s="257"/>
+      <c r="L98" s="267"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8" t="s">
@@ -8873,7 +8876,7 @@
       <c r="I99" s="226"/>
       <c r="J99" s="226"/>
       <c r="K99" s="226"/>
-      <c r="L99" s="257"/>
+      <c r="L99" s="267"/>
       <c r="M99" s="8"/>
       <c r="N99" s="219" t="s">
         <v>189</v>
@@ -8915,7 +8918,7 @@
       <c r="I100" s="226"/>
       <c r="J100" s="226"/>
       <c r="K100" s="226"/>
-      <c r="L100" s="257"/>
+      <c r="L100" s="267"/>
       <c r="M100" s="8"/>
       <c r="N100" s="221" t="s">
         <v>193</v>
@@ -9030,11 +9033,11 @@
       <c r="I103" s="228"/>
       <c r="J103" s="228"/>
       <c r="K103" s="228"/>
-      <c r="L103" s="244" t="s">
+      <c r="L103" s="266" t="s">
         <v>114</v>
       </c>
-      <c r="M103" s="244"/>
-      <c r="N103" s="244"/>
+      <c r="M103" s="266"/>
+      <c r="N103" s="266"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
@@ -9063,9 +9066,9 @@
       <c r="I104" s="228"/>
       <c r="J104" s="228"/>
       <c r="K104" s="228"/>
-      <c r="L104" s="244"/>
-      <c r="M104" s="244"/>
-      <c r="N104" s="244"/>
+      <c r="L104" s="266"/>
+      <c r="M104" s="266"/>
+      <c r="N104" s="266"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
@@ -9094,9 +9097,9 @@
       <c r="I105" s="228"/>
       <c r="J105" s="228"/>
       <c r="K105" s="228"/>
-      <c r="L105" s="244"/>
-      <c r="M105" s="244"/>
-      <c r="N105" s="244"/>
+      <c r="L105" s="266"/>
+      <c r="M105" s="266"/>
+      <c r="N105" s="266"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
@@ -9125,9 +9128,9 @@
       <c r="I106" s="228"/>
       <c r="J106" s="228"/>
       <c r="K106" s="228"/>
-      <c r="L106" s="244"/>
-      <c r="M106" s="244"/>
-      <c r="N106" s="244"/>
+      <c r="L106" s="266"/>
+      <c r="M106" s="266"/>
+      <c r="N106" s="266"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
@@ -9156,9 +9159,9 @@
       <c r="I107" s="228"/>
       <c r="J107" s="228"/>
       <c r="K107" s="228"/>
-      <c r="L107" s="244"/>
-      <c r="M107" s="244"/>
-      <c r="N107" s="244"/>
+      <c r="L107" s="266"/>
+      <c r="M107" s="266"/>
+      <c r="N107" s="266"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
@@ -9187,9 +9190,9 @@
       <c r="I108" s="229"/>
       <c r="J108" s="229"/>
       <c r="K108" s="229"/>
-      <c r="L108" s="244"/>
-      <c r="M108" s="244"/>
-      <c r="N108" s="244"/>
+      <c r="L108" s="266"/>
+      <c r="M108" s="266"/>
+      <c r="N108" s="266"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
@@ -9218,9 +9221,9 @@
       <c r="I109" s="229"/>
       <c r="J109" s="229"/>
       <c r="K109" s="229"/>
-      <c r="L109" s="244"/>
-      <c r="M109" s="244"/>
-      <c r="N109" s="244"/>
+      <c r="L109" s="266"/>
+      <c r="M109" s="266"/>
+      <c r="N109" s="266"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -9249,9 +9252,9 @@
       <c r="I110" s="229"/>
       <c r="J110" s="229"/>
       <c r="K110" s="229"/>
-      <c r="L110" s="244"/>
-      <c r="M110" s="244"/>
-      <c r="N110" s="244"/>
+      <c r="L110" s="266"/>
+      <c r="M110" s="266"/>
+      <c r="N110" s="266"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
@@ -9331,36 +9334,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="Y79:Y80"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="R39:S42"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L4:M7"/>
-    <mergeCell ref="L43:M46"/>
-    <mergeCell ref="L103:N110"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="L81:M82"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="N82:S82"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S75:X75"/>
-    <mergeCell ref="X79:X80"/>
     <mergeCell ref="T19:W19"/>
     <mergeCell ref="R21:S24"/>
     <mergeCell ref="L21:M24"/>
@@ -9377,6 +9350,36 @@
     <mergeCell ref="L57:M60"/>
     <mergeCell ref="L39:M42"/>
     <mergeCell ref="L25:M28"/>
+    <mergeCell ref="L103:N110"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="L81:M82"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="N82:S82"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S75:X75"/>
+    <mergeCell ref="X79:X80"/>
+    <mergeCell ref="R39:S42"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="L43:M46"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="Y79:Y80"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9418,16 +9421,16 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="275" t="s">
+      <c r="F1" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="282" t="s">
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="260" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="282"/>
+      <c r="K1" s="260"/>
       <c r="L1" s="157" t="s">
         <v>162</v>
       </c>
@@ -9441,26 +9444,26 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="273" t="s">
+      <c r="F2" s="262" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273" t="s">
+      <c r="G2" s="262"/>
+      <c r="H2" s="262" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="273"/>
+      <c r="I2" s="262"/>
       <c r="J2" s="9" t="s">
         <v>99</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="283" t="s">
+      <c r="M2" s="284" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="283"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="283"/>
+      <c r="N2" s="284"/>
+      <c r="O2" s="284"/>
+      <c r="P2" s="284"/>
       <c r="Q2" t="s">
         <v>150</v>
       </c>
@@ -14064,48 +14067,48 @@
     </row>
     <row r="21" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
-      <c r="B21" s="284" t="s">
+      <c r="B21" s="285" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="285"/>
-      <c r="D21" s="285"/>
-      <c r="E21" s="285"/>
-      <c r="F21" s="286"/>
-      <c r="G21" s="284" t="s">
+      <c r="C21" s="286"/>
+      <c r="D21" s="286"/>
+      <c r="E21" s="286"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="285" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="285"/>
-      <c r="I21" s="285"/>
-      <c r="J21" s="285"/>
-      <c r="K21" s="286"/>
-      <c r="L21" s="284" t="s">
+      <c r="H21" s="286"/>
+      <c r="I21" s="286"/>
+      <c r="J21" s="286"/>
+      <c r="K21" s="287"/>
+      <c r="L21" s="285" t="s">
         <v>120</v>
       </c>
-      <c r="M21" s="285"/>
-      <c r="N21" s="285"/>
-      <c r="O21" s="285"/>
-      <c r="P21" s="286"/>
-      <c r="Q21" s="284" t="s">
+      <c r="M21" s="286"/>
+      <c r="N21" s="286"/>
+      <c r="O21" s="286"/>
+      <c r="P21" s="287"/>
+      <c r="Q21" s="285" t="s">
         <v>121</v>
       </c>
-      <c r="R21" s="285"/>
-      <c r="S21" s="285"/>
-      <c r="T21" s="285"/>
-      <c r="U21" s="286"/>
-      <c r="V21" s="284" t="s">
+      <c r="R21" s="286"/>
+      <c r="S21" s="286"/>
+      <c r="T21" s="286"/>
+      <c r="U21" s="287"/>
+      <c r="V21" s="285" t="s">
         <v>122</v>
       </c>
-      <c r="W21" s="285"/>
-      <c r="X21" s="285"/>
-      <c r="Y21" s="285"/>
-      <c r="Z21" s="286"/>
-      <c r="AA21" s="284" t="s">
+      <c r="W21" s="286"/>
+      <c r="X21" s="286"/>
+      <c r="Y21" s="286"/>
+      <c r="Z21" s="287"/>
+      <c r="AA21" s="285" t="s">
         <v>123</v>
       </c>
-      <c r="AB21" s="285"/>
-      <c r="AC21" s="285"/>
-      <c r="AD21" s="285"/>
-      <c r="AE21" s="286"/>
+      <c r="AB21" s="286"/>
+      <c r="AC21" s="286"/>
+      <c r="AD21" s="286"/>
+      <c r="AE21" s="287"/>
     </row>
     <row r="22" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
@@ -14529,22 +14532,22 @@
       <c r="B3" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="303">
+      <c r="C3" s="241">
         <v>12236.559997774661</v>
       </c>
-      <c r="D3" s="303">
+      <c r="D3" s="241">
         <v>1343.635986328125</v>
       </c>
-      <c r="E3" s="303">
+      <c r="E3" s="241">
         <v>2021.7199985682964</v>
       </c>
-      <c r="F3" s="303">
+      <c r="F3" s="241">
         <v>6142.7799972295761</v>
       </c>
-      <c r="G3" s="303">
+      <c r="G3" s="241">
         <v>8298.799596786499</v>
       </c>
-      <c r="H3" s="303">
+      <c r="H3" s="241">
         <v>2422.7699962854385</v>
       </c>
     </row>
@@ -14750,14 +14753,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="225">
   <si>
     <t>Variable</t>
   </si>
@@ -852,9 +852,6 @@
   </si>
   <si>
     <t>ysale</t>
-  </si>
-  <si>
-    <t>Just trying something</t>
   </si>
 </sst>
 </file>
@@ -1956,43 +1953,111 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2014,75 +2079,6 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2095,54 +2091,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2667,48 +2664,48 @@
     </row>
     <row r="9" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="285" t="s">
+      <c r="B9" s="284" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="286"/>
-      <c r="D9" s="286"/>
-      <c r="E9" s="286"/>
-      <c r="F9" s="287"/>
-      <c r="G9" s="285" t="s">
+      <c r="C9" s="285"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="286"/>
+      <c r="G9" s="284" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="286"/>
-      <c r="I9" s="286"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="287"/>
-      <c r="L9" s="285" t="s">
+      <c r="H9" s="285"/>
+      <c r="I9" s="285"/>
+      <c r="J9" s="285"/>
+      <c r="K9" s="286"/>
+      <c r="L9" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="286"/>
-      <c r="N9" s="286"/>
-      <c r="O9" s="286"/>
-      <c r="P9" s="287"/>
-      <c r="Q9" s="285" t="s">
+      <c r="M9" s="285"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="285"/>
+      <c r="P9" s="286"/>
+      <c r="Q9" s="284" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="286"/>
-      <c r="S9" s="286"/>
-      <c r="T9" s="286"/>
-      <c r="U9" s="287"/>
-      <c r="V9" s="285" t="s">
+      <c r="R9" s="285"/>
+      <c r="S9" s="285"/>
+      <c r="T9" s="285"/>
+      <c r="U9" s="286"/>
+      <c r="V9" s="284" t="s">
         <v>122</v>
       </c>
-      <c r="W9" s="286"/>
-      <c r="X9" s="286"/>
-      <c r="Y9" s="286"/>
-      <c r="Z9" s="287"/>
-      <c r="AA9" s="285" t="s">
+      <c r="W9" s="285"/>
+      <c r="X9" s="285"/>
+      <c r="Y9" s="285"/>
+      <c r="Z9" s="286"/>
+      <c r="AA9" s="284" t="s">
         <v>123</v>
       </c>
-      <c r="AB9" s="286"/>
-      <c r="AC9" s="286"/>
-      <c r="AD9" s="286"/>
-      <c r="AE9" s="287"/>
+      <c r="AB9" s="285"/>
+      <c r="AC9" s="285"/>
+      <c r="AD9" s="285"/>
+      <c r="AE9" s="286"/>
     </row>
     <row r="10" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
@@ -2864,21 +2861,21 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="288" t="s">
+      <c r="B2" s="290" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288"/>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="288">
+      <c r="A3" s="290">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2895,7 +2892,7 @@
       <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="288"/>
+      <c r="A4" s="290"/>
       <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
@@ -2910,7 +2907,7 @@
       <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="288">
+      <c r="A5" s="290">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2927,7 +2924,7 @@
       <c r="K5" s="124"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="288"/>
+      <c r="A6" s="290"/>
       <c r="B6" s="8" t="s">
         <v>45</v>
       </c>
@@ -2942,168 +2939,168 @@
       <c r="K6" s="124"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="288">
+      <c r="A9" s="290">
         <v>1</v>
       </c>
-      <c r="B9" s="289" t="s">
+      <c r="B9" s="301" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="290"/>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="290"/>
-      <c r="K9" s="290"/>
+      <c r="C9" s="302"/>
+      <c r="D9" s="302"/>
+      <c r="E9" s="302"/>
+      <c r="F9" s="302"/>
+      <c r="G9" s="302"/>
+      <c r="H9" s="302"/>
+      <c r="I9" s="302"/>
+      <c r="J9" s="302"/>
+      <c r="K9" s="302"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="288"/>
-      <c r="B10" s="290"/>
-      <c r="C10" s="290"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="290"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="290"/>
-      <c r="H10" s="290"/>
-      <c r="I10" s="290"/>
-      <c r="J10" s="290"/>
-      <c r="K10" s="290"/>
+      <c r="A10" s="290"/>
+      <c r="B10" s="302"/>
+      <c r="C10" s="302"/>
+      <c r="D10" s="302"/>
+      <c r="E10" s="302"/>
+      <c r="F10" s="302"/>
+      <c r="G10" s="302"/>
+      <c r="H10" s="302"/>
+      <c r="I10" s="302"/>
+      <c r="J10" s="302"/>
+      <c r="K10" s="302"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="288"/>
-      <c r="B11" s="290"/>
-      <c r="C11" s="290"/>
-      <c r="D11" s="290"/>
-      <c r="E11" s="290"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="290"/>
-      <c r="H11" s="290"/>
-      <c r="I11" s="290"/>
-      <c r="J11" s="290"/>
-      <c r="K11" s="290"/>
+      <c r="A11" s="290"/>
+      <c r="B11" s="302"/>
+      <c r="C11" s="302"/>
+      <c r="D11" s="302"/>
+      <c r="E11" s="302"/>
+      <c r="F11" s="302"/>
+      <c r="G11" s="302"/>
+      <c r="H11" s="302"/>
+      <c r="I11" s="302"/>
+      <c r="J11" s="302"/>
+      <c r="K11" s="302"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="288"/>
-      <c r="B12" s="290"/>
-      <c r="C12" s="290"/>
-      <c r="D12" s="290"/>
-      <c r="E12" s="290"/>
-      <c r="F12" s="290"/>
-      <c r="G12" s="290"/>
-      <c r="H12" s="290"/>
-      <c r="I12" s="290"/>
-      <c r="J12" s="290"/>
-      <c r="K12" s="290"/>
+      <c r="A12" s="290"/>
+      <c r="B12" s="302"/>
+      <c r="C12" s="302"/>
+      <c r="D12" s="302"/>
+      <c r="E12" s="302"/>
+      <c r="F12" s="302"/>
+      <c r="G12" s="302"/>
+      <c r="H12" s="302"/>
+      <c r="I12" s="302"/>
+      <c r="J12" s="302"/>
+      <c r="K12" s="302"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="288"/>
-      <c r="B13" s="290"/>
-      <c r="C13" s="290"/>
-      <c r="D13" s="290"/>
-      <c r="E13" s="290"/>
-      <c r="F13" s="290"/>
-      <c r="G13" s="290"/>
-      <c r="H13" s="290"/>
-      <c r="I13" s="290"/>
-      <c r="J13" s="290"/>
-      <c r="K13" s="290"/>
+      <c r="A13" s="290"/>
+      <c r="B13" s="302"/>
+      <c r="C13" s="302"/>
+      <c r="D13" s="302"/>
+      <c r="E13" s="302"/>
+      <c r="F13" s="302"/>
+      <c r="G13" s="302"/>
+      <c r="H13" s="302"/>
+      <c r="I13" s="302"/>
+      <c r="J13" s="302"/>
+      <c r="K13" s="302"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="288"/>
-      <c r="B14" s="290"/>
-      <c r="C14" s="290"/>
-      <c r="D14" s="290"/>
-      <c r="E14" s="290"/>
-      <c r="F14" s="290"/>
-      <c r="G14" s="290"/>
-      <c r="H14" s="290"/>
-      <c r="I14" s="290"/>
-      <c r="J14" s="290"/>
-      <c r="K14" s="290"/>
+      <c r="A14" s="290"/>
+      <c r="B14" s="302"/>
+      <c r="C14" s="302"/>
+      <c r="D14" s="302"/>
+      <c r="E14" s="302"/>
+      <c r="F14" s="302"/>
+      <c r="G14" s="302"/>
+      <c r="H14" s="302"/>
+      <c r="I14" s="302"/>
+      <c r="J14" s="302"/>
+      <c r="K14" s="302"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="288">
+      <c r="A15" s="290">
         <v>2</v>
       </c>
-      <c r="B15" s="289" t="s">
+      <c r="B15" s="301" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="290"/>
-      <c r="D15" s="290"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="290"/>
-      <c r="I15" s="290"/>
-      <c r="J15" s="290"/>
-      <c r="K15" s="290"/>
+      <c r="C15" s="302"/>
+      <c r="D15" s="302"/>
+      <c r="E15" s="302"/>
+      <c r="F15" s="302"/>
+      <c r="G15" s="302"/>
+      <c r="H15" s="302"/>
+      <c r="I15" s="302"/>
+      <c r="J15" s="302"/>
+      <c r="K15" s="302"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="288"/>
-      <c r="B16" s="290"/>
-      <c r="C16" s="290"/>
-      <c r="D16" s="290"/>
-      <c r="E16" s="290"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
-      <c r="J16" s="290"/>
-      <c r="K16" s="290"/>
+      <c r="A16" s="290"/>
+      <c r="B16" s="302"/>
+      <c r="C16" s="302"/>
+      <c r="D16" s="302"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="302"/>
+      <c r="I16" s="302"/>
+      <c r="J16" s="302"/>
+      <c r="K16" s="302"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="288"/>
-      <c r="B17" s="290"/>
-      <c r="C17" s="290"/>
-      <c r="D17" s="290"/>
-      <c r="E17" s="290"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="290"/>
-      <c r="H17" s="290"/>
-      <c r="I17" s="290"/>
-      <c r="J17" s="290"/>
-      <c r="K17" s="290"/>
+      <c r="A17" s="290"/>
+      <c r="B17" s="302"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="302"/>
+      <c r="J17" s="302"/>
+      <c r="K17" s="302"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="288"/>
-      <c r="B18" s="290"/>
-      <c r="C18" s="290"/>
-      <c r="D18" s="290"/>
-      <c r="E18" s="290"/>
-      <c r="F18" s="290"/>
-      <c r="G18" s="290"/>
-      <c r="H18" s="290"/>
-      <c r="I18" s="290"/>
-      <c r="J18" s="290"/>
-      <c r="K18" s="290"/>
+      <c r="A18" s="290"/>
+      <c r="B18" s="302"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="302"/>
+      <c r="I18" s="302"/>
+      <c r="J18" s="302"/>
+      <c r="K18" s="302"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="288"/>
-      <c r="B19" s="290"/>
-      <c r="C19" s="290"/>
-      <c r="D19" s="290"/>
-      <c r="E19" s="290"/>
-      <c r="F19" s="290"/>
-      <c r="G19" s="290"/>
-      <c r="H19" s="290"/>
-      <c r="I19" s="290"/>
-      <c r="J19" s="290"/>
-      <c r="K19" s="290"/>
+      <c r="A19" s="290"/>
+      <c r="B19" s="302"/>
+      <c r="C19" s="302"/>
+      <c r="D19" s="302"/>
+      <c r="E19" s="302"/>
+      <c r="F19" s="302"/>
+      <c r="G19" s="302"/>
+      <c r="H19" s="302"/>
+      <c r="I19" s="302"/>
+      <c r="J19" s="302"/>
+      <c r="K19" s="302"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="288"/>
-      <c r="B20" s="290"/>
-      <c r="C20" s="290"/>
-      <c r="D20" s="290"/>
-      <c r="E20" s="290"/>
-      <c r="F20" s="290"/>
-      <c r="G20" s="290"/>
-      <c r="H20" s="290"/>
-      <c r="I20" s="290"/>
-      <c r="J20" s="290"/>
-      <c r="K20" s="290"/>
+      <c r="A20" s="290"/>
+      <c r="B20" s="302"/>
+      <c r="C20" s="302"/>
+      <c r="D20" s="302"/>
+      <c r="E20" s="302"/>
+      <c r="F20" s="302"/>
+      <c r="G20" s="302"/>
+      <c r="H20" s="302"/>
+      <c r="I20" s="302"/>
+      <c r="J20" s="302"/>
+      <c r="K20" s="302"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3162,34 +3159,34 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="291" t="s">
+      <c r="B9" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="291" t="s">
+      <c r="C9" s="288"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="287" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="291" t="s">
+      <c r="H9" s="288"/>
+      <c r="I9" s="288"/>
+      <c r="J9" s="288"/>
+      <c r="K9" s="289"/>
+      <c r="L9" s="287" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="292"/>
-      <c r="N9" s="292"/>
-      <c r="O9" s="292"/>
-      <c r="P9" s="293"/>
-      <c r="Q9" s="291" t="s">
+      <c r="M9" s="288"/>
+      <c r="N9" s="288"/>
+      <c r="O9" s="288"/>
+      <c r="P9" s="289"/>
+      <c r="Q9" s="287" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="292"/>
-      <c r="S9" s="292"/>
-      <c r="T9" s="292"/>
-      <c r="U9" s="293"/>
+      <c r="R9" s="288"/>
+      <c r="S9" s="288"/>
+      <c r="T9" s="288"/>
+      <c r="U9" s="289"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -3393,34 +3390,34 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="291" t="s">
+      <c r="B9" s="287" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="291" t="s">
+      <c r="C9" s="288"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="287" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="291" t="s">
+      <c r="H9" s="288"/>
+      <c r="I9" s="288"/>
+      <c r="J9" s="288"/>
+      <c r="K9" s="289"/>
+      <c r="L9" s="287" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="292"/>
-      <c r="N9" s="292"/>
-      <c r="O9" s="292"/>
-      <c r="P9" s="293"/>
-      <c r="Q9" s="291" t="s">
+      <c r="M9" s="288"/>
+      <c r="N9" s="288"/>
+      <c r="O9" s="288"/>
+      <c r="P9" s="289"/>
+      <c r="Q9" s="287" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="292"/>
-      <c r="S9" s="292"/>
-      <c r="T9" s="292"/>
-      <c r="U9" s="293"/>
+      <c r="R9" s="288"/>
+      <c r="S9" s="288"/>
+      <c r="T9" s="288"/>
+      <c r="U9" s="289"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -3563,11 +3560,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="288" t="s">
+      <c r="A3" s="290" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="288"/>
-      <c r="C3" s="288"/>
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3592,11 +3589,11 @@
       <c r="C6" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="288" t="s">
+      <c r="A9" s="290" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="288"/>
-      <c r="C9" s="288"/>
+      <c r="B9" s="290"/>
+      <c r="C9" s="290"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -3639,11 +3636,11 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="288" t="s">
+      <c r="A15" s="290" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="288"/>
-      <c r="C15" s="288"/>
+      <c r="B15" s="290"/>
+      <c r="C15" s="290"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
         <v>1</v>
@@ -3718,11 +3715,11 @@
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="288" t="s">
+      <c r="A21" s="290" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="288"/>
-      <c r="C21" s="288"/>
+      <c r="B21" s="290"/>
+      <c r="C21" s="290"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>135</v>
@@ -3799,8 +3796,8 @@
       <c r="K26" s="230"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="288"/>
-      <c r="C27" s="288"/>
+      <c r="B27" s="290"/>
+      <c r="C27" s="290"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3815,7 +3812,7 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="300" t="s">
+      <c r="F29" s="297" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="61" t="s">
@@ -3827,7 +3824,7 @@
       <c r="K29" s="66"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="301"/>
+      <c r="F30" s="298"/>
       <c r="G30" s="24" t="s">
         <v>51</v>
       </c>
@@ -3837,7 +3834,7 @@
       <c r="K30" s="65"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="301" t="s">
+      <c r="F31" s="298" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="24" t="s">
@@ -3849,7 +3846,7 @@
       <c r="K31" s="65"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="302"/>
+      <c r="F32" s="299"/>
       <c r="G32" s="64" t="s">
         <v>51</v>
       </c>
@@ -3859,8 +3856,8 @@
       <c r="K32" s="67"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="288"/>
-      <c r="C33" s="288"/>
+      <c r="B33" s="290"/>
+      <c r="C33" s="290"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3885,10 +3882,10 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F36" s="294" t="s">
+      <c r="F36" s="291" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="303" t="s">
+      <c r="G36" s="300" t="s">
         <v>125</v>
       </c>
       <c r="H36" s="61" t="e">
@@ -3913,8 +3910,8 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F37" s="295"/>
-      <c r="G37" s="298"/>
+      <c r="F37" s="292"/>
+      <c r="G37" s="295"/>
       <c r="H37" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3937,8 +3934,8 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F38" s="295"/>
-      <c r="G38" s="298"/>
+      <c r="F38" s="292"/>
+      <c r="G38" s="295"/>
       <c r="H38" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3961,8 +3958,8 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F39" s="295"/>
-      <c r="G39" s="298"/>
+      <c r="F39" s="292"/>
+      <c r="G39" s="295"/>
       <c r="H39" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3985,7 +3982,7 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F40" s="295"/>
+      <c r="F40" s="292"/>
       <c r="G40" s="108"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -3994,8 +3991,8 @@
       <c r="M40" s="109"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F41" s="295"/>
-      <c r="G41" s="298" t="s">
+      <c r="F41" s="292"/>
+      <c r="G41" s="295" t="s">
         <v>135</v>
       </c>
       <c r="H41" s="24" t="e">
@@ -4020,8 +4017,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F42" s="295"/>
-      <c r="G42" s="298"/>
+      <c r="F42" s="292"/>
+      <c r="G42" s="295"/>
       <c r="H42" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4044,8 +4041,8 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F43" s="295"/>
-      <c r="G43" s="298"/>
+      <c r="F43" s="292"/>
+      <c r="G43" s="295"/>
       <c r="H43" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4068,8 +4065,8 @@
       </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="296"/>
-      <c r="G44" s="299"/>
+      <c r="F44" s="293"/>
+      <c r="G44" s="296"/>
       <c r="H44" s="64" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4100,10 +4097,10 @@
       <c r="M45" s="109"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F46" s="294" t="s">
+      <c r="F46" s="291" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="297" t="s">
+      <c r="G46" s="294" t="s">
         <v>125</v>
       </c>
       <c r="H46" s="61" t="e">
@@ -4128,8 +4125,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F47" s="295"/>
-      <c r="G47" s="298"/>
+      <c r="F47" s="292"/>
+      <c r="G47" s="295"/>
       <c r="H47" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4152,8 +4149,8 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F48" s="295"/>
-      <c r="G48" s="298"/>
+      <c r="F48" s="292"/>
+      <c r="G48" s="295"/>
       <c r="H48" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4176,8 +4173,8 @@
       </c>
     </row>
     <row r="49" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F49" s="295"/>
-      <c r="G49" s="298"/>
+      <c r="F49" s="292"/>
+      <c r="G49" s="295"/>
       <c r="H49" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4200,7 +4197,7 @@
       </c>
     </row>
     <row r="50" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F50" s="295"/>
+      <c r="F50" s="292"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
@@ -4209,8 +4206,8 @@
       <c r="M50" s="109"/>
     </row>
     <row r="51" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F51" s="295"/>
-      <c r="G51" s="298" t="s">
+      <c r="F51" s="292"/>
+      <c r="G51" s="295" t="s">
         <v>135</v>
       </c>
       <c r="H51" s="24" t="e">
@@ -4235,8 +4232,8 @@
       </c>
     </row>
     <row r="52" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F52" s="295"/>
-      <c r="G52" s="298"/>
+      <c r="F52" s="292"/>
+      <c r="G52" s="295"/>
       <c r="H52" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4259,8 +4256,8 @@
       </c>
     </row>
     <row r="53" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F53" s="295"/>
-      <c r="G53" s="298"/>
+      <c r="F53" s="292"/>
+      <c r="G53" s="295"/>
       <c r="H53" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4283,8 +4280,8 @@
       </c>
     </row>
     <row r="54" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="296"/>
-      <c r="G54" s="299"/>
+      <c r="F54" s="293"/>
+      <c r="G54" s="296"/>
       <c r="H54" s="64" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4508,12 +4505,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
     <mergeCell ref="F46:F54"/>
     <mergeCell ref="G46:G49"/>
     <mergeCell ref="G51:G54"/>
@@ -4522,6 +4513,12 @@
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="F36:F44"/>
     <mergeCell ref="G41:G44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4911,26 +4908,26 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="250" t="s">
+      <c r="F1" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="260" t="s">
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="275"/>
+      <c r="J1" s="282" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="260"/>
+      <c r="K1" s="282"/>
       <c r="L1" s="9"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="251" t="s">
+      <c r="N1" s="253" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="252"/>
-      <c r="P1" s="252"/>
-      <c r="Q1" s="252"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="253"/>
+      <c r="O1" s="254"/>
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="254"/>
+      <c r="S1" s="255"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -4942,14 +4939,14 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="262" t="s">
+      <c r="F2" s="273" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262" t="s">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="262"/>
+      <c r="I2" s="273"/>
       <c r="J2" s="9" t="s">
         <v>99</v>
       </c>
@@ -4958,18 +4955,18 @@
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="254" t="s">
+      <c r="N2" s="276" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="255"/>
-      <c r="P2" s="255" t="s">
+      <c r="O2" s="277"/>
+      <c r="P2" s="277" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="255"/>
-      <c r="R2" s="256" t="s">
+      <c r="Q2" s="277"/>
+      <c r="R2" s="278" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="258" t="s">
+      <c r="S2" s="280" t="s">
         <v>129</v>
       </c>
       <c r="T2" s="8"/>
@@ -5011,8 +5008,8 @@
       <c r="Q3" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="257"/>
-      <c r="S3" s="259"/>
+      <c r="R3" s="279"/>
+      <c r="S3" s="281"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -5056,10 +5053,10 @@
         <f>S4*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L4" s="263" t="s">
+      <c r="L4" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="264"/>
+      <c r="M4" s="247"/>
       <c r="N4" s="60">
         <f>Crop!$C$23*Input!F8</f>
         <v>0</v>
@@ -5127,8 +5124,8 @@
         <f>S5*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L5" s="263"/>
-      <c r="M5" s="264"/>
+      <c r="L5" s="246"/>
+      <c r="M5" s="247"/>
       <c r="N5" s="62">
         <f>Crop!$C$23*Input!F9</f>
         <v>0</v>
@@ -5196,8 +5193,8 @@
         <f>S6*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L6" s="263"/>
-      <c r="M6" s="264"/>
+      <c r="L6" s="246"/>
+      <c r="M6" s="247"/>
       <c r="N6" s="62">
         <f>Crop!$C$23*Input!F10</f>
         <v>0</v>
@@ -5265,8 +5262,8 @@
         <f>S7*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L7" s="263"/>
-      <c r="M7" s="264"/>
+      <c r="L7" s="246"/>
+      <c r="M7" s="247"/>
       <c r="N7" s="63">
         <f>Crop!$C$23*Input!F11</f>
         <v>0</v>
@@ -5655,12 +5652,12 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="245" t="s">
+      <c r="T19" s="241" t="s">
         <v>112</v>
       </c>
-      <c r="U19" s="246"/>
-      <c r="V19" s="246"/>
-      <c r="W19" s="247"/>
+      <c r="U19" s="242"/>
+      <c r="V19" s="242"/>
+      <c r="W19" s="243"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
@@ -5751,10 +5748,10 @@
         <f t="shared" ref="K21:K27" si="5">Q21*$K$93*$K$112</f>
         <v>0</v>
       </c>
-      <c r="L21" s="263" t="s">
+      <c r="L21" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="M21" s="264"/>
+      <c r="M21" s="247"/>
       <c r="N21" s="190">
         <f>T21*12</f>
         <v>0</v>
@@ -5771,10 +5768,10 @@
         <f t="shared" ref="Q21:Q27" si="8">W21*12</f>
         <v>0</v>
       </c>
-      <c r="R21" s="266" t="s">
+      <c r="R21" s="244" t="s">
         <v>113</v>
       </c>
-      <c r="S21" s="261"/>
+      <c r="S21" s="245"/>
       <c r="T21" s="190">
         <f>shares!H16</f>
         <v>0</v>
@@ -5828,8 +5825,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="263"/>
-      <c r="M22" s="264"/>
+      <c r="L22" s="246"/>
+      <c r="M22" s="247"/>
       <c r="N22" s="193">
         <f t="shared" ref="N22:N27" si="9">T22*12</f>
         <v>0</v>
@@ -5846,8 +5843,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R22" s="266"/>
-      <c r="S22" s="261"/>
+      <c r="R22" s="244"/>
+      <c r="S22" s="245"/>
       <c r="T22" s="193">
         <f>shares!H17</f>
         <v>0</v>
@@ -5901,8 +5898,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="263"/>
-      <c r="M23" s="264"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="247"/>
       <c r="N23" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5919,8 +5916,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R23" s="266"/>
-      <c r="S23" s="261"/>
+      <c r="R23" s="244"/>
+      <c r="S23" s="245"/>
       <c r="T23" s="193">
         <f>shares!H18</f>
         <v>0</v>
@@ -5974,8 +5971,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="263"/>
-      <c r="M24" s="264"/>
+      <c r="L24" s="246"/>
+      <c r="M24" s="247"/>
       <c r="N24" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5992,8 +5989,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R24" s="266"/>
-      <c r="S24" s="261"/>
+      <c r="R24" s="244"/>
+      <c r="S24" s="245"/>
       <c r="T24" s="195">
         <f>shares!H19</f>
         <v>0</v>
@@ -6047,10 +6044,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="264" t="s">
+      <c r="L25" s="247" t="s">
         <v>108</v>
       </c>
-      <c r="M25" s="264"/>
+      <c r="M25" s="247"/>
       <c r="N25" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6067,10 +6064,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R25" s="266" t="s">
+      <c r="R25" s="244" t="s">
         <v>113</v>
       </c>
-      <c r="S25" s="281"/>
+      <c r="S25" s="250"/>
       <c r="T25" s="190"/>
       <c r="U25" s="191"/>
       <c r="V25" s="191"/>
@@ -6112,8 +6109,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="264"/>
-      <c r="M26" s="264"/>
+      <c r="L26" s="247"/>
+      <c r="M26" s="247"/>
       <c r="N26" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6130,8 +6127,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R26" s="281"/>
-      <c r="S26" s="281"/>
+      <c r="R26" s="250"/>
+      <c r="S26" s="250"/>
       <c r="T26" s="193"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
@@ -6173,8 +6170,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="264"/>
-      <c r="M27" s="264"/>
+      <c r="L27" s="247"/>
+      <c r="M27" s="247"/>
       <c r="N27" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6191,8 +6188,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R27" s="281"/>
-      <c r="S27" s="281"/>
+      <c r="R27" s="250"/>
+      <c r="S27" s="250"/>
       <c r="T27" s="195"/>
       <c r="U27" s="196"/>
       <c r="V27" s="196"/>
@@ -6216,8 +6213,8 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="264"/>
-      <c r="M28" s="264"/>
+      <c r="L28" s="247"/>
+      <c r="M28" s="247"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -6437,12 +6434,12 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="245" t="s">
+      <c r="T37" s="241" t="s">
         <v>142</v>
       </c>
-      <c r="U37" s="246"/>
-      <c r="V37" s="246"/>
-      <c r="W37" s="247"/>
+      <c r="U37" s="242"/>
+      <c r="V37" s="242"/>
+      <c r="W37" s="243"/>
     </row>
     <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
@@ -6533,10 +6530,10 @@
         <f t="shared" ref="K39:K45" si="15">Q39*$K$93*$K$113</f>
         <v>0</v>
       </c>
-      <c r="L39" s="263" t="s">
+      <c r="L39" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="M39" s="264"/>
+      <c r="M39" s="247"/>
       <c r="N39" s="60">
         <f>T39*12</f>
         <v>0</v>
@@ -6553,10 +6550,10 @@
         <f>W39*12</f>
         <v>0</v>
       </c>
-      <c r="R39" s="261" t="s">
+      <c r="R39" s="245" t="s">
         <v>113</v>
       </c>
-      <c r="S39" s="261"/>
+      <c r="S39" s="245"/>
       <c r="T39" s="60">
         <f>shares!H23</f>
         <v>0</v>
@@ -6610,8 +6607,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L40" s="263"/>
-      <c r="M40" s="264"/>
+      <c r="L40" s="246"/>
+      <c r="M40" s="247"/>
       <c r="N40" s="193">
         <f t="shared" ref="N40:N43" si="16">T40*12</f>
         <v>0</v>
@@ -6628,8 +6625,8 @@
         <f t="shared" ref="Q40:Q43" si="19">W40*12</f>
         <v>0</v>
       </c>
-      <c r="R40" s="261"/>
-      <c r="S40" s="261"/>
+      <c r="R40" s="245"/>
+      <c r="S40" s="245"/>
       <c r="T40" s="193">
         <f>shares!H24</f>
         <v>0</v>
@@ -6683,8 +6680,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L41" s="263"/>
-      <c r="M41" s="264"/>
+      <c r="L41" s="246"/>
+      <c r="M41" s="247"/>
       <c r="N41" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6701,8 +6698,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R41" s="261"/>
-      <c r="S41" s="261"/>
+      <c r="R41" s="245"/>
+      <c r="S41" s="245"/>
       <c r="T41" s="193">
         <f>shares!H25</f>
         <v>0</v>
@@ -6756,8 +6753,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L42" s="263"/>
-      <c r="M42" s="264"/>
+      <c r="L42" s="246"/>
+      <c r="M42" s="247"/>
       <c r="N42" s="195">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6774,8 +6771,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R42" s="261"/>
-      <c r="S42" s="261"/>
+      <c r="R42" s="245"/>
+      <c r="S42" s="245"/>
       <c r="T42" s="195">
         <f>shares!H26</f>
         <v>0</v>
@@ -6829,10 +6826,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L43" s="263" t="s">
+      <c r="L43" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="M43" s="264"/>
+      <c r="M43" s="247"/>
       <c r="N43" s="190">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6849,10 +6846,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R43" s="266" t="s">
+      <c r="R43" s="244" t="s">
         <v>113</v>
       </c>
-      <c r="S43" s="281"/>
+      <c r="S43" s="250"/>
       <c r="T43" s="190">
         <f>ser!$C$11*Input!G46</f>
         <v>0</v>
@@ -6906,8 +6903,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L44" s="263"/>
-      <c r="M44" s="264"/>
+      <c r="L44" s="246"/>
+      <c r="M44" s="247"/>
       <c r="N44" s="193">
         <f t="shared" ref="N44:Q45" si="20">T44*12</f>
         <v>0</v>
@@ -6924,8 +6921,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R44" s="281"/>
-      <c r="S44" s="281"/>
+      <c r="R44" s="250"/>
+      <c r="S44" s="250"/>
       <c r="T44" s="193">
         <f>ser!$C$11*Input!G47</f>
         <v>0</v>
@@ -6979,8 +6976,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L45" s="263"/>
-      <c r="M45" s="264"/>
+      <c r="L45" s="246"/>
+      <c r="M45" s="247"/>
       <c r="N45" s="195">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -6997,8 +6994,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R45" s="281"/>
-      <c r="S45" s="281"/>
+      <c r="R45" s="250"/>
+      <c r="S45" s="250"/>
       <c r="T45" s="195">
         <f>ser!$C$11*Input!G48</f>
         <v>0</v>
@@ -7034,8 +7031,8 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="263"/>
-      <c r="M46" s="265"/>
+      <c r="L46" s="246"/>
+      <c r="M46" s="274"/>
       <c r="N46" s="129"/>
       <c r="O46" s="129"/>
       <c r="P46" s="129"/>
@@ -7220,14 +7217,14 @@
       <c r="K54" s="104"/>
       <c r="L54" s="9"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="251" t="s">
+      <c r="N54" s="253" t="s">
         <v>107</v>
       </c>
-      <c r="O54" s="252"/>
-      <c r="P54" s="252"/>
-      <c r="Q54" s="252"/>
-      <c r="R54" s="252"/>
-      <c r="S54" s="253"/>
+      <c r="O54" s="254"/>
+      <c r="P54" s="254"/>
+      <c r="Q54" s="254"/>
+      <c r="R54" s="254"/>
+      <c r="S54" s="255"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
@@ -7251,18 +7248,18 @@
       <c r="K55" s="107"/>
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="283" t="s">
+      <c r="N55" s="256" t="s">
         <v>126</v>
       </c>
-      <c r="O55" s="244"/>
-      <c r="P55" s="244" t="s">
+      <c r="O55" s="251"/>
+      <c r="P55" s="251" t="s">
         <v>127</v>
       </c>
-      <c r="Q55" s="244"/>
-      <c r="R55" s="270" t="s">
+      <c r="Q55" s="251"/>
+      <c r="R55" s="260" t="s">
         <v>128</v>
       </c>
-      <c r="S55" s="276" t="s">
+      <c r="S55" s="269" t="s">
         <v>129</v>
       </c>
       <c r="T55" s="8"/>
@@ -7308,8 +7305,8 @@
       <c r="Q56" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="R56" s="271"/>
-      <c r="S56" s="277"/>
+      <c r="R56" s="261"/>
+      <c r="S56" s="270"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
@@ -7351,10 +7348,10 @@
         <f>S57*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L57" s="263" t="s">
+      <c r="L57" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="M57" s="264"/>
+      <c r="M57" s="247"/>
       <c r="N57" s="60">
         <f>Live!$C$11*Input!F61</f>
         <v>0</v>
@@ -7420,8 +7417,8 @@
         <f>S58*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L58" s="263"/>
-      <c r="M58" s="264"/>
+      <c r="L58" s="246"/>
+      <c r="M58" s="247"/>
       <c r="N58" s="62">
         <f>Live!$C$11*Input!F62</f>
         <v>0</v>
@@ -7487,8 +7484,8 @@
         <f>S59*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L59" s="263"/>
-      <c r="M59" s="264"/>
+      <c r="L59" s="246"/>
+      <c r="M59" s="247"/>
       <c r="N59" s="62">
         <f>Live!$C$11*Input!F63</f>
         <v>0</v>
@@ -7554,8 +7551,8 @@
         <f>S60*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L60" s="263"/>
-      <c r="M60" s="264"/>
+      <c r="L60" s="246"/>
+      <c r="M60" s="247"/>
       <c r="N60" s="63">
         <f>Live!$C$11*Input!F64</f>
         <v>0</v>
@@ -7894,12 +7891,12 @@
       <c r="K72" s="107"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="244" t="s">
+      <c r="N72" s="251" t="s">
         <v>103</v>
       </c>
-      <c r="O72" s="244"/>
-      <c r="P72" s="244"/>
-      <c r="Q72" s="244"/>
+      <c r="O72" s="251"/>
+      <c r="P72" s="251"/>
+      <c r="Q72" s="251"/>
       <c r="R72" s="8"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -7928,14 +7925,14 @@
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="282" t="s">
+      <c r="N73" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="282"/>
-      <c r="P73" s="282" t="s">
+      <c r="O73" s="252"/>
+      <c r="P73" s="252" t="s">
         <v>104</v>
       </c>
-      <c r="Q73" s="282"/>
+      <c r="Q73" s="252"/>
       <c r="R73" s="8"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -8012,10 +8009,10 @@
         <f>Q75*$G93</f>
         <v>0</v>
       </c>
-      <c r="L75" s="279" t="s">
+      <c r="L75" s="248" t="s">
         <v>109</v>
       </c>
-      <c r="M75" s="280"/>
+      <c r="M75" s="249"/>
       <c r="N75" s="97">
         <f>wages!C7</f>
         <v>0</v>
@@ -8033,14 +8030,14 @@
         <v>0</v>
       </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="278" t="s">
+      <c r="S75" s="271" t="s">
         <v>163</v>
       </c>
-      <c r="T75" s="278"/>
-      <c r="U75" s="278"/>
-      <c r="V75" s="278"/>
-      <c r="W75" s="278"/>
-      <c r="X75" s="278"/>
+      <c r="T75" s="271"/>
+      <c r="U75" s="271"/>
+      <c r="V75" s="271"/>
+      <c r="W75" s="271"/>
+      <c r="X75" s="271"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -8117,22 +8114,22 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="245" t="s">
+      <c r="N78" s="241" t="s">
         <v>110</v>
       </c>
-      <c r="O78" s="246"/>
-      <c r="P78" s="246"/>
-      <c r="Q78" s="246"/>
-      <c r="R78" s="246"/>
-      <c r="S78" s="247"/>
-      <c r="T78" s="245" t="s">
+      <c r="O78" s="242"/>
+      <c r="P78" s="242"/>
+      <c r="Q78" s="242"/>
+      <c r="R78" s="242"/>
+      <c r="S78" s="243"/>
+      <c r="T78" s="241" t="s">
         <v>146</v>
       </c>
-      <c r="U78" s="246"/>
-      <c r="V78" s="246"/>
-      <c r="W78" s="246"/>
-      <c r="X78" s="246"/>
-      <c r="Y78" s="247"/>
+      <c r="U78" s="242"/>
+      <c r="V78" s="242"/>
+      <c r="W78" s="242"/>
+      <c r="X78" s="242"/>
+      <c r="Y78" s="243"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
@@ -8152,32 +8149,32 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="248" t="s">
+      <c r="N79" s="267" t="s">
         <v>126</v>
       </c>
-      <c r="O79" s="249"/>
-      <c r="P79" s="245" t="s">
+      <c r="O79" s="268"/>
+      <c r="P79" s="241" t="s">
         <v>127</v>
       </c>
-      <c r="Q79" s="246"/>
-      <c r="R79" s="242" t="s">
+      <c r="Q79" s="242"/>
+      <c r="R79" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="S79" s="242" t="s">
+      <c r="S79" s="265" t="s">
         <v>144</v>
       </c>
-      <c r="T79" s="248" t="s">
+      <c r="T79" s="267" t="s">
         <v>126</v>
       </c>
-      <c r="U79" s="249"/>
-      <c r="V79" s="245" t="s">
+      <c r="U79" s="268"/>
+      <c r="V79" s="241" t="s">
         <v>127</v>
       </c>
-      <c r="W79" s="246"/>
-      <c r="X79" s="242" t="s">
+      <c r="W79" s="242"/>
+      <c r="X79" s="265" t="s">
         <v>143</v>
       </c>
-      <c r="Y79" s="242" t="s">
+      <c r="Y79" s="265" t="s">
         <v>144</v>
       </c>
     </row>
@@ -8211,8 +8208,8 @@
       <c r="Q80" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="R80" s="275"/>
-      <c r="S80" s="275"/>
+      <c r="R80" s="266"/>
+      <c r="S80" s="266"/>
       <c r="T80" s="123" t="s">
         <v>116</v>
       </c>
@@ -8225,8 +8222,8 @@
       <c r="W80" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="X80" s="243"/>
-      <c r="Y80" s="243"/>
+      <c r="X80" s="272"/>
+      <c r="Y80" s="272"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -8260,10 +8257,10 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L81" s="268" t="s">
+      <c r="L81" s="258" t="s">
         <v>170</v>
       </c>
-      <c r="M81" s="269"/>
+      <c r="M81" s="259"/>
       <c r="N81" s="97"/>
       <c r="O81" s="97"/>
       <c r="P81" s="97"/>
@@ -8303,24 +8300,24 @@
       <c r="K82" s="68">
         <v>0</v>
       </c>
-      <c r="L82" s="268"/>
-      <c r="M82" s="269"/>
-      <c r="N82" s="272" t="s">
+      <c r="L82" s="258"/>
+      <c r="M82" s="259"/>
+      <c r="N82" s="262" t="s">
         <v>111</v>
       </c>
-      <c r="O82" s="273"/>
-      <c r="P82" s="273"/>
-      <c r="Q82" s="273"/>
-      <c r="R82" s="273"/>
-      <c r="S82" s="274"/>
-      <c r="T82" s="244" t="s">
+      <c r="O82" s="263"/>
+      <c r="P82" s="263"/>
+      <c r="Q82" s="263"/>
+      <c r="R82" s="263"/>
+      <c r="S82" s="264"/>
+      <c r="T82" s="251" t="s">
         <v>145</v>
       </c>
-      <c r="U82" s="244"/>
-      <c r="V82" s="244"/>
-      <c r="W82" s="244"/>
-      <c r="X82" s="244"/>
-      <c r="Y82" s="244"/>
+      <c r="U82" s="251"/>
+      <c r="V82" s="251"/>
+      <c r="W82" s="251"/>
+      <c r="X82" s="251"/>
+      <c r="Y82" s="251"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -8810,7 +8807,7 @@
       <c r="I97" s="226"/>
       <c r="J97" s="226"/>
       <c r="K97" s="226"/>
-      <c r="L97" s="267" t="s">
+      <c r="L97" s="257" t="s">
         <v>115</v>
       </c>
       <c r="M97" s="8"/>
@@ -8843,7 +8840,7 @@
       <c r="I98" s="226"/>
       <c r="J98" s="226"/>
       <c r="K98" s="226"/>
-      <c r="L98" s="267"/>
+      <c r="L98" s="257"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8" t="s">
@@ -8876,7 +8873,7 @@
       <c r="I99" s="226"/>
       <c r="J99" s="226"/>
       <c r="K99" s="226"/>
-      <c r="L99" s="267"/>
+      <c r="L99" s="257"/>
       <c r="M99" s="8"/>
       <c r="N99" s="219" t="s">
         <v>189</v>
@@ -8918,7 +8915,7 @@
       <c r="I100" s="226"/>
       <c r="J100" s="226"/>
       <c r="K100" s="226"/>
-      <c r="L100" s="267"/>
+      <c r="L100" s="257"/>
       <c r="M100" s="8"/>
       <c r="N100" s="221" t="s">
         <v>193</v>
@@ -9033,11 +9030,11 @@
       <c r="I103" s="228"/>
       <c r="J103" s="228"/>
       <c r="K103" s="228"/>
-      <c r="L103" s="266" t="s">
+      <c r="L103" s="244" t="s">
         <v>114</v>
       </c>
-      <c r="M103" s="266"/>
-      <c r="N103" s="266"/>
+      <c r="M103" s="244"/>
+      <c r="N103" s="244"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
@@ -9066,9 +9063,9 @@
       <c r="I104" s="228"/>
       <c r="J104" s="228"/>
       <c r="K104" s="228"/>
-      <c r="L104" s="266"/>
-      <c r="M104" s="266"/>
-      <c r="N104" s="266"/>
+      <c r="L104" s="244"/>
+      <c r="M104" s="244"/>
+      <c r="N104" s="244"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
@@ -9097,9 +9094,9 @@
       <c r="I105" s="228"/>
       <c r="J105" s="228"/>
       <c r="K105" s="228"/>
-      <c r="L105" s="266"/>
-      <c r="M105" s="266"/>
-      <c r="N105" s="266"/>
+      <c r="L105" s="244"/>
+      <c r="M105" s="244"/>
+      <c r="N105" s="244"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
@@ -9128,9 +9125,9 @@
       <c r="I106" s="228"/>
       <c r="J106" s="228"/>
       <c r="K106" s="228"/>
-      <c r="L106" s="266"/>
-      <c r="M106" s="266"/>
-      <c r="N106" s="266"/>
+      <c r="L106" s="244"/>
+      <c r="M106" s="244"/>
+      <c r="N106" s="244"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
@@ -9159,9 +9156,9 @@
       <c r="I107" s="228"/>
       <c r="J107" s="228"/>
       <c r="K107" s="228"/>
-      <c r="L107" s="266"/>
-      <c r="M107" s="266"/>
-      <c r="N107" s="266"/>
+      <c r="L107" s="244"/>
+      <c r="M107" s="244"/>
+      <c r="N107" s="244"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
@@ -9190,9 +9187,9 @@
       <c r="I108" s="229"/>
       <c r="J108" s="229"/>
       <c r="K108" s="229"/>
-      <c r="L108" s="266"/>
-      <c r="M108" s="266"/>
-      <c r="N108" s="266"/>
+      <c r="L108" s="244"/>
+      <c r="M108" s="244"/>
+      <c r="N108" s="244"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
@@ -9221,9 +9218,9 @@
       <c r="I109" s="229"/>
       <c r="J109" s="229"/>
       <c r="K109" s="229"/>
-      <c r="L109" s="266"/>
-      <c r="M109" s="266"/>
-      <c r="N109" s="266"/>
+      <c r="L109" s="244"/>
+      <c r="M109" s="244"/>
+      <c r="N109" s="244"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -9252,9 +9249,9 @@
       <c r="I110" s="229"/>
       <c r="J110" s="229"/>
       <c r="K110" s="229"/>
-      <c r="L110" s="266"/>
-      <c r="M110" s="266"/>
-      <c r="N110" s="266"/>
+      <c r="L110" s="244"/>
+      <c r="M110" s="244"/>
+      <c r="N110" s="244"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
@@ -9334,6 +9331,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="Y79:Y80"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="R39:S42"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="L43:M46"/>
+    <mergeCell ref="L103:N110"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="L81:M82"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="N82:S82"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S75:X75"/>
+    <mergeCell ref="X79:X80"/>
     <mergeCell ref="T19:W19"/>
     <mergeCell ref="R21:S24"/>
     <mergeCell ref="L21:M24"/>
@@ -9350,36 +9377,6 @@
     <mergeCell ref="L57:M60"/>
     <mergeCell ref="L39:M42"/>
     <mergeCell ref="L25:M28"/>
-    <mergeCell ref="L103:N110"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="L81:M82"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="N82:S82"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S75:X75"/>
-    <mergeCell ref="X79:X80"/>
-    <mergeCell ref="R39:S42"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L4:M7"/>
-    <mergeCell ref="L43:M46"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="Y79:Y80"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9421,16 +9418,16 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="250" t="s">
+      <c r="F1" s="275" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="260" t="s">
+      <c r="G1" s="275"/>
+      <c r="H1" s="275"/>
+      <c r="I1" s="275"/>
+      <c r="J1" s="282" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="260"/>
+      <c r="K1" s="282"/>
       <c r="L1" s="157" t="s">
         <v>162</v>
       </c>
@@ -9444,26 +9441,26 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="262" t="s">
+      <c r="F2" s="273" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262" t="s">
+      <c r="G2" s="273"/>
+      <c r="H2" s="273" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="262"/>
+      <c r="I2" s="273"/>
       <c r="J2" s="9" t="s">
         <v>99</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="284" t="s">
+      <c r="M2" s="283" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="284"/>
-      <c r="O2" s="284"/>
-      <c r="P2" s="284"/>
+      <c r="N2" s="283"/>
+      <c r="O2" s="283"/>
+      <c r="P2" s="283"/>
       <c r="Q2" t="s">
         <v>150</v>
       </c>
@@ -14067,48 +14064,48 @@
     </row>
     <row r="21" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
-      <c r="B21" s="285" t="s">
+      <c r="B21" s="284" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="286"/>
-      <c r="D21" s="286"/>
-      <c r="E21" s="286"/>
-      <c r="F21" s="287"/>
-      <c r="G21" s="285" t="s">
+      <c r="C21" s="285"/>
+      <c r="D21" s="285"/>
+      <c r="E21" s="285"/>
+      <c r="F21" s="286"/>
+      <c r="G21" s="284" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="286"/>
-      <c r="I21" s="286"/>
-      <c r="J21" s="286"/>
-      <c r="K21" s="287"/>
-      <c r="L21" s="285" t="s">
+      <c r="H21" s="285"/>
+      <c r="I21" s="285"/>
+      <c r="J21" s="285"/>
+      <c r="K21" s="286"/>
+      <c r="L21" s="284" t="s">
         <v>120</v>
       </c>
-      <c r="M21" s="286"/>
-      <c r="N21" s="286"/>
-      <c r="O21" s="286"/>
-      <c r="P21" s="287"/>
-      <c r="Q21" s="285" t="s">
+      <c r="M21" s="285"/>
+      <c r="N21" s="285"/>
+      <c r="O21" s="285"/>
+      <c r="P21" s="286"/>
+      <c r="Q21" s="284" t="s">
         <v>121</v>
       </c>
-      <c r="R21" s="286"/>
-      <c r="S21" s="286"/>
-      <c r="T21" s="286"/>
-      <c r="U21" s="287"/>
-      <c r="V21" s="285" t="s">
+      <c r="R21" s="285"/>
+      <c r="S21" s="285"/>
+      <c r="T21" s="285"/>
+      <c r="U21" s="286"/>
+      <c r="V21" s="284" t="s">
         <v>122</v>
       </c>
-      <c r="W21" s="286"/>
-      <c r="X21" s="286"/>
-      <c r="Y21" s="286"/>
-      <c r="Z21" s="287"/>
-      <c r="AA21" s="285" t="s">
+      <c r="W21" s="285"/>
+      <c r="X21" s="285"/>
+      <c r="Y21" s="285"/>
+      <c r="Z21" s="286"/>
+      <c r="AA21" s="284" t="s">
         <v>123</v>
       </c>
-      <c r="AB21" s="286"/>
-      <c r="AC21" s="286"/>
-      <c r="AD21" s="286"/>
-      <c r="AE21" s="287"/>
+      <c r="AB21" s="285"/>
+      <c r="AC21" s="285"/>
+      <c r="AD21" s="285"/>
+      <c r="AE21" s="286"/>
     </row>
     <row r="22" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
@@ -14532,22 +14529,22 @@
       <c r="B3" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="241">
+      <c r="C3" s="303">
         <v>12236.559997774661</v>
       </c>
-      <c r="D3" s="241">
+      <c r="D3" s="303">
         <v>1343.635986328125</v>
       </c>
-      <c r="E3" s="241">
+      <c r="E3" s="303">
         <v>2021.7199985682964</v>
       </c>
-      <c r="F3" s="241">
+      <c r="F3" s="303">
         <v>6142.7799972295761</v>
       </c>
-      <c r="G3" s="241">
+      <c r="G3" s="303">
         <v>8298.799596786499</v>
       </c>
-      <c r="H3" s="241">
+      <c r="H3" s="303">
         <v>2422.7699962854385</v>
       </c>
     </row>
@@ -14753,20 +14750,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="7" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="232">
   <si>
     <t>Variable</t>
   </si>
@@ -852,6 +852,27 @@
   </si>
   <si>
     <t>ysale</t>
+  </si>
+  <si>
+    <t>crops</t>
+  </si>
+  <si>
+    <t>other_food</t>
+  </si>
+  <si>
+    <t>fresh_meat</t>
+  </si>
+  <si>
+    <t>fresh_fish</t>
+  </si>
+  <si>
+    <t>processed_food</t>
+  </si>
+  <si>
+    <t>all_other_non-food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value of different items consumed: </t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,6 +1974,16 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1962,32 +1993,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1998,8 +2011,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2025,17 +2074,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2046,37 +2086,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2091,6 +2113,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2098,9 +2129,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2133,13 +2161,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2664,48 +2685,48 @@
     </row>
     <row r="9" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="284" t="s">
+      <c r="B9" s="285" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="285"/>
-      <c r="D9" s="285"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="286"/>
-      <c r="G9" s="284" t="s">
+      <c r="C9" s="286"/>
+      <c r="D9" s="286"/>
+      <c r="E9" s="286"/>
+      <c r="F9" s="287"/>
+      <c r="G9" s="285" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="285"/>
-      <c r="K9" s="286"/>
-      <c r="L9" s="284" t="s">
+      <c r="H9" s="286"/>
+      <c r="I9" s="286"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="287"/>
+      <c r="L9" s="285" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="285"/>
-      <c r="N9" s="285"/>
-      <c r="O9" s="285"/>
-      <c r="P9" s="286"/>
-      <c r="Q9" s="284" t="s">
+      <c r="M9" s="286"/>
+      <c r="N9" s="286"/>
+      <c r="O9" s="286"/>
+      <c r="P9" s="287"/>
+      <c r="Q9" s="285" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="285"/>
-      <c r="S9" s="285"/>
-      <c r="T9" s="285"/>
-      <c r="U9" s="286"/>
-      <c r="V9" s="284" t="s">
+      <c r="R9" s="286"/>
+      <c r="S9" s="286"/>
+      <c r="T9" s="286"/>
+      <c r="U9" s="287"/>
+      <c r="V9" s="285" t="s">
         <v>122</v>
       </c>
-      <c r="W9" s="285"/>
-      <c r="X9" s="285"/>
-      <c r="Y9" s="285"/>
-      <c r="Z9" s="286"/>
-      <c r="AA9" s="284" t="s">
+      <c r="W9" s="286"/>
+      <c r="X9" s="286"/>
+      <c r="Y9" s="286"/>
+      <c r="Z9" s="287"/>
+      <c r="AA9" s="285" t="s">
         <v>123</v>
       </c>
-      <c r="AB9" s="285"/>
-      <c r="AC9" s="285"/>
-      <c r="AD9" s="285"/>
-      <c r="AE9" s="286"/>
+      <c r="AB9" s="286"/>
+      <c r="AC9" s="286"/>
+      <c r="AD9" s="286"/>
+      <c r="AE9" s="287"/>
     </row>
     <row r="10" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
@@ -2861,21 +2882,21 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="290" t="s">
+      <c r="B2" s="288" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="290">
+      <c r="A3" s="288">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2892,7 +2913,7 @@
       <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="290"/>
+      <c r="A4" s="288"/>
       <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
@@ -2907,7 +2928,7 @@
       <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="290">
+      <c r="A5" s="288">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2924,7 +2945,7 @@
       <c r="K5" s="124"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="290"/>
+      <c r="A6" s="288"/>
       <c r="B6" s="8" t="s">
         <v>45</v>
       </c>
@@ -2939,168 +2960,168 @@
       <c r="K6" s="124"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="290">
+      <c r="A9" s="288">
         <v>1</v>
       </c>
-      <c r="B9" s="301" t="s">
+      <c r="B9" s="289" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="302"/>
-      <c r="D9" s="302"/>
-      <c r="E9" s="302"/>
-      <c r="F9" s="302"/>
-      <c r="G9" s="302"/>
-      <c r="H9" s="302"/>
-      <c r="I9" s="302"/>
-      <c r="J9" s="302"/>
-      <c r="K9" s="302"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="290"/>
+      <c r="K9" s="290"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="290"/>
-      <c r="B10" s="302"/>
-      <c r="C10" s="302"/>
-      <c r="D10" s="302"/>
-      <c r="E10" s="302"/>
-      <c r="F10" s="302"/>
-      <c r="G10" s="302"/>
-      <c r="H10" s="302"/>
-      <c r="I10" s="302"/>
-      <c r="J10" s="302"/>
-      <c r="K10" s="302"/>
+      <c r="A10" s="288"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="290"/>
+      <c r="H10" s="290"/>
+      <c r="I10" s="290"/>
+      <c r="J10" s="290"/>
+      <c r="K10" s="290"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="290"/>
-      <c r="B11" s="302"/>
-      <c r="C11" s="302"/>
-      <c r="D11" s="302"/>
-      <c r="E11" s="302"/>
-      <c r="F11" s="302"/>
-      <c r="G11" s="302"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="302"/>
-      <c r="J11" s="302"/>
-      <c r="K11" s="302"/>
+      <c r="A11" s="288"/>
+      <c r="B11" s="290"/>
+      <c r="C11" s="290"/>
+      <c r="D11" s="290"/>
+      <c r="E11" s="290"/>
+      <c r="F11" s="290"/>
+      <c r="G11" s="290"/>
+      <c r="H11" s="290"/>
+      <c r="I11" s="290"/>
+      <c r="J11" s="290"/>
+      <c r="K11" s="290"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="290"/>
-      <c r="B12" s="302"/>
-      <c r="C12" s="302"/>
-      <c r="D12" s="302"/>
-      <c r="E12" s="302"/>
-      <c r="F12" s="302"/>
-      <c r="G12" s="302"/>
-      <c r="H12" s="302"/>
-      <c r="I12" s="302"/>
-      <c r="J12" s="302"/>
-      <c r="K12" s="302"/>
+      <c r="A12" s="288"/>
+      <c r="B12" s="290"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="290"/>
+      <c r="G12" s="290"/>
+      <c r="H12" s="290"/>
+      <c r="I12" s="290"/>
+      <c r="J12" s="290"/>
+      <c r="K12" s="290"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="290"/>
-      <c r="B13" s="302"/>
-      <c r="C13" s="302"/>
-      <c r="D13" s="302"/>
-      <c r="E13" s="302"/>
-      <c r="F13" s="302"/>
-      <c r="G13" s="302"/>
-      <c r="H13" s="302"/>
-      <c r="I13" s="302"/>
-      <c r="J13" s="302"/>
-      <c r="K13" s="302"/>
+      <c r="A13" s="288"/>
+      <c r="B13" s="290"/>
+      <c r="C13" s="290"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="290"/>
+      <c r="H13" s="290"/>
+      <c r="I13" s="290"/>
+      <c r="J13" s="290"/>
+      <c r="K13" s="290"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="290"/>
-      <c r="B14" s="302"/>
-      <c r="C14" s="302"/>
-      <c r="D14" s="302"/>
-      <c r="E14" s="302"/>
-      <c r="F14" s="302"/>
-      <c r="G14" s="302"/>
-      <c r="H14" s="302"/>
-      <c r="I14" s="302"/>
-      <c r="J14" s="302"/>
-      <c r="K14" s="302"/>
+      <c r="A14" s="288"/>
+      <c r="B14" s="290"/>
+      <c r="C14" s="290"/>
+      <c r="D14" s="290"/>
+      <c r="E14" s="290"/>
+      <c r="F14" s="290"/>
+      <c r="G14" s="290"/>
+      <c r="H14" s="290"/>
+      <c r="I14" s="290"/>
+      <c r="J14" s="290"/>
+      <c r="K14" s="290"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="290">
+      <c r="A15" s="288">
         <v>2</v>
       </c>
-      <c r="B15" s="301" t="s">
+      <c r="B15" s="289" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="302"/>
-      <c r="D15" s="302"/>
-      <c r="E15" s="302"/>
-      <c r="F15" s="302"/>
-      <c r="G15" s="302"/>
-      <c r="H15" s="302"/>
-      <c r="I15" s="302"/>
-      <c r="J15" s="302"/>
-      <c r="K15" s="302"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="290"/>
+      <c r="J15" s="290"/>
+      <c r="K15" s="290"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="290"/>
-      <c r="B16" s="302"/>
-      <c r="C16" s="302"/>
-      <c r="D16" s="302"/>
-      <c r="E16" s="302"/>
-      <c r="F16" s="302"/>
-      <c r="G16" s="302"/>
-      <c r="H16" s="302"/>
-      <c r="I16" s="302"/>
-      <c r="J16" s="302"/>
-      <c r="K16" s="302"/>
+      <c r="A16" s="288"/>
+      <c r="B16" s="290"/>
+      <c r="C16" s="290"/>
+      <c r="D16" s="290"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="290"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="290"/>
+      <c r="J16" s="290"/>
+      <c r="K16" s="290"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="290"/>
-      <c r="B17" s="302"/>
-      <c r="C17" s="302"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="302"/>
-      <c r="F17" s="302"/>
-      <c r="G17" s="302"/>
-      <c r="H17" s="302"/>
-      <c r="I17" s="302"/>
-      <c r="J17" s="302"/>
-      <c r="K17" s="302"/>
+      <c r="A17" s="288"/>
+      <c r="B17" s="290"/>
+      <c r="C17" s="290"/>
+      <c r="D17" s="290"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="290"/>
+      <c r="H17" s="290"/>
+      <c r="I17" s="290"/>
+      <c r="J17" s="290"/>
+      <c r="K17" s="290"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="290"/>
-      <c r="B18" s="302"/>
-      <c r="C18" s="302"/>
-      <c r="D18" s="302"/>
-      <c r="E18" s="302"/>
-      <c r="F18" s="302"/>
-      <c r="G18" s="302"/>
-      <c r="H18" s="302"/>
-      <c r="I18" s="302"/>
-      <c r="J18" s="302"/>
-      <c r="K18" s="302"/>
+      <c r="A18" s="288"/>
+      <c r="B18" s="290"/>
+      <c r="C18" s="290"/>
+      <c r="D18" s="290"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="290"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="290"/>
+      <c r="J18" s="290"/>
+      <c r="K18" s="290"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="290"/>
-      <c r="B19" s="302"/>
-      <c r="C19" s="302"/>
-      <c r="D19" s="302"/>
-      <c r="E19" s="302"/>
-      <c r="F19" s="302"/>
-      <c r="G19" s="302"/>
-      <c r="H19" s="302"/>
-      <c r="I19" s="302"/>
-      <c r="J19" s="302"/>
-      <c r="K19" s="302"/>
+      <c r="A19" s="288"/>
+      <c r="B19" s="290"/>
+      <c r="C19" s="290"/>
+      <c r="D19" s="290"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="290"/>
+      <c r="H19" s="290"/>
+      <c r="I19" s="290"/>
+      <c r="J19" s="290"/>
+      <c r="K19" s="290"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="290"/>
-      <c r="B20" s="302"/>
-      <c r="C20" s="302"/>
-      <c r="D20" s="302"/>
-      <c r="E20" s="302"/>
-      <c r="F20" s="302"/>
-      <c r="G20" s="302"/>
-      <c r="H20" s="302"/>
-      <c r="I20" s="302"/>
-      <c r="J20" s="302"/>
-      <c r="K20" s="302"/>
+      <c r="A20" s="288"/>
+      <c r="B20" s="290"/>
+      <c r="C20" s="290"/>
+      <c r="D20" s="290"/>
+      <c r="E20" s="290"/>
+      <c r="F20" s="290"/>
+      <c r="G20" s="290"/>
+      <c r="H20" s="290"/>
+      <c r="I20" s="290"/>
+      <c r="J20" s="290"/>
+      <c r="K20" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3159,34 +3180,34 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="287" t="s">
+      <c r="B9" s="291" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="288"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="287" t="s">
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="291" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="288"/>
-      <c r="I9" s="288"/>
-      <c r="J9" s="288"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="287" t="s">
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="291" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="288"/>
-      <c r="N9" s="288"/>
-      <c r="O9" s="288"/>
-      <c r="P9" s="289"/>
-      <c r="Q9" s="287" t="s">
+      <c r="M9" s="292"/>
+      <c r="N9" s="292"/>
+      <c r="O9" s="292"/>
+      <c r="P9" s="293"/>
+      <c r="Q9" s="291" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="288"/>
-      <c r="S9" s="288"/>
-      <c r="T9" s="288"/>
-      <c r="U9" s="289"/>
+      <c r="R9" s="292"/>
+      <c r="S9" s="292"/>
+      <c r="T9" s="292"/>
+      <c r="U9" s="293"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -3390,34 +3411,34 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="287" t="s">
+      <c r="B9" s="291" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="288"/>
-      <c r="D9" s="288"/>
-      <c r="E9" s="288"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="287" t="s">
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="291" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="288"/>
-      <c r="I9" s="288"/>
-      <c r="J9" s="288"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="287" t="s">
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="291" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="288"/>
-      <c r="N9" s="288"/>
-      <c r="O9" s="288"/>
-      <c r="P9" s="289"/>
-      <c r="Q9" s="287" t="s">
+      <c r="M9" s="292"/>
+      <c r="N9" s="292"/>
+      <c r="O9" s="292"/>
+      <c r="P9" s="293"/>
+      <c r="Q9" s="291" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="288"/>
-      <c r="S9" s="288"/>
-      <c r="T9" s="288"/>
-      <c r="U9" s="289"/>
+      <c r="R9" s="292"/>
+      <c r="S9" s="292"/>
+      <c r="T9" s="292"/>
+      <c r="U9" s="293"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -3560,11 +3581,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="288" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
+      <c r="B3" s="288"/>
+      <c r="C3" s="288"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3589,11 +3610,11 @@
       <c r="C6" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="290" t="s">
+      <c r="A9" s="288" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="290"/>
-      <c r="C9" s="290"/>
+      <c r="B9" s="288"/>
+      <c r="C9" s="288"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -3636,11 +3657,11 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="290" t="s">
+      <c r="A15" s="288" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="290"/>
-      <c r="C15" s="290"/>
+      <c r="B15" s="288"/>
+      <c r="C15" s="288"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
         <v>1</v>
@@ -3715,11 +3736,11 @@
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="290" t="s">
+      <c r="A21" s="288" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="290"/>
-      <c r="C21" s="290"/>
+      <c r="B21" s="288"/>
+      <c r="C21" s="288"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>135</v>
@@ -3796,8 +3817,8 @@
       <c r="K26" s="230"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="290"/>
-      <c r="C27" s="290"/>
+      <c r="B27" s="288"/>
+      <c r="C27" s="288"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3812,7 +3833,7 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="297" t="s">
+      <c r="F29" s="300" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="61" t="s">
@@ -3824,7 +3845,7 @@
       <c r="K29" s="66"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="298"/>
+      <c r="F30" s="301"/>
       <c r="G30" s="24" t="s">
         <v>51</v>
       </c>
@@ -3834,7 +3855,7 @@
       <c r="K30" s="65"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="298" t="s">
+      <c r="F31" s="301" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="24" t="s">
@@ -3846,7 +3867,7 @@
       <c r="K31" s="65"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="299"/>
+      <c r="F32" s="302"/>
       <c r="G32" s="64" t="s">
         <v>51</v>
       </c>
@@ -3856,8 +3877,8 @@
       <c r="K32" s="67"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="290"/>
-      <c r="C33" s="290"/>
+      <c r="B33" s="288"/>
+      <c r="C33" s="288"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3882,10 +3903,10 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F36" s="291" t="s">
+      <c r="F36" s="294" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="300" t="s">
+      <c r="G36" s="303" t="s">
         <v>125</v>
       </c>
       <c r="H36" s="61" t="e">
@@ -3910,8 +3931,8 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F37" s="292"/>
-      <c r="G37" s="295"/>
+      <c r="F37" s="295"/>
+      <c r="G37" s="298"/>
       <c r="H37" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3934,8 +3955,8 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F38" s="292"/>
-      <c r="G38" s="295"/>
+      <c r="F38" s="295"/>
+      <c r="G38" s="298"/>
       <c r="H38" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3958,8 +3979,8 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F39" s="292"/>
-      <c r="G39" s="295"/>
+      <c r="F39" s="295"/>
+      <c r="G39" s="298"/>
       <c r="H39" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3982,7 +4003,7 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F40" s="292"/>
+      <c r="F40" s="295"/>
       <c r="G40" s="108"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -3991,8 +4012,8 @@
       <c r="M40" s="109"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F41" s="292"/>
-      <c r="G41" s="295" t="s">
+      <c r="F41" s="295"/>
+      <c r="G41" s="298" t="s">
         <v>135</v>
       </c>
       <c r="H41" s="24" t="e">
@@ -4017,8 +4038,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F42" s="292"/>
-      <c r="G42" s="295"/>
+      <c r="F42" s="295"/>
+      <c r="G42" s="298"/>
       <c r="H42" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4041,8 +4062,8 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F43" s="292"/>
-      <c r="G43" s="295"/>
+      <c r="F43" s="295"/>
+      <c r="G43" s="298"/>
       <c r="H43" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4065,8 +4086,8 @@
       </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="293"/>
-      <c r="G44" s="296"/>
+      <c r="F44" s="296"/>
+      <c r="G44" s="299"/>
       <c r="H44" s="64" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4097,10 +4118,10 @@
       <c r="M45" s="109"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F46" s="291" t="s">
+      <c r="F46" s="294" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="294" t="s">
+      <c r="G46" s="297" t="s">
         <v>125</v>
       </c>
       <c r="H46" s="61" t="e">
@@ -4125,8 +4146,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F47" s="292"/>
-      <c r="G47" s="295"/>
+      <c r="F47" s="295"/>
+      <c r="G47" s="298"/>
       <c r="H47" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4149,8 +4170,8 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F48" s="292"/>
-      <c r="G48" s="295"/>
+      <c r="F48" s="295"/>
+      <c r="G48" s="298"/>
       <c r="H48" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4173,8 +4194,8 @@
       </c>
     </row>
     <row r="49" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F49" s="292"/>
-      <c r="G49" s="295"/>
+      <c r="F49" s="295"/>
+      <c r="G49" s="298"/>
       <c r="H49" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4197,7 +4218,7 @@
       </c>
     </row>
     <row r="50" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F50" s="292"/>
+      <c r="F50" s="295"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
@@ -4206,8 +4227,8 @@
       <c r="M50" s="109"/>
     </row>
     <row r="51" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F51" s="292"/>
-      <c r="G51" s="295" t="s">
+      <c r="F51" s="295"/>
+      <c r="G51" s="298" t="s">
         <v>135</v>
       </c>
       <c r="H51" s="24" t="e">
@@ -4232,8 +4253,8 @@
       </c>
     </row>
     <row r="52" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F52" s="292"/>
-      <c r="G52" s="295"/>
+      <c r="F52" s="295"/>
+      <c r="G52" s="298"/>
       <c r="H52" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4256,8 +4277,8 @@
       </c>
     </row>
     <row r="53" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F53" s="292"/>
-      <c r="G53" s="295"/>
+      <c r="F53" s="295"/>
+      <c r="G53" s="298"/>
       <c r="H53" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4280,8 +4301,8 @@
       </c>
     </row>
     <row r="54" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="293"/>
-      <c r="G54" s="296"/>
+      <c r="F54" s="296"/>
+      <c r="G54" s="299"/>
       <c r="H54" s="64" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4505,6 +4526,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
     <mergeCell ref="F46:F54"/>
     <mergeCell ref="G46:G49"/>
     <mergeCell ref="G51:G54"/>
@@ -4513,12 +4540,6 @@
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="F36:F44"/>
     <mergeCell ref="G41:G44"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4908,26 +4929,26 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="275" t="s">
+      <c r="F1" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="282" t="s">
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="260" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="282"/>
+      <c r="K1" s="260"/>
       <c r="L1" s="9"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="253" t="s">
+      <c r="N1" s="251" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="S1" s="255"/>
+      <c r="O1" s="252"/>
+      <c r="P1" s="252"/>
+      <c r="Q1" s="252"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="253"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -4939,14 +4960,14 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="273" t="s">
+      <c r="F2" s="262" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273" t="s">
+      <c r="G2" s="262"/>
+      <c r="H2" s="262" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="273"/>
+      <c r="I2" s="262"/>
       <c r="J2" s="9" t="s">
         <v>99</v>
       </c>
@@ -4955,18 +4976,18 @@
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="276" t="s">
+      <c r="N2" s="254" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="277"/>
-      <c r="P2" s="277" t="s">
+      <c r="O2" s="255"/>
+      <c r="P2" s="255" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="277"/>
-      <c r="R2" s="278" t="s">
+      <c r="Q2" s="255"/>
+      <c r="R2" s="256" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="280" t="s">
+      <c r="S2" s="258" t="s">
         <v>129</v>
       </c>
       <c r="T2" s="8"/>
@@ -5008,8 +5029,8 @@
       <c r="Q3" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="279"/>
-      <c r="S3" s="281"/>
+      <c r="R3" s="257"/>
+      <c r="S3" s="259"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -5053,10 +5074,10 @@
         <f>S4*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L4" s="246" t="s">
+      <c r="L4" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="247"/>
+      <c r="M4" s="264"/>
       <c r="N4" s="60">
         <f>Crop!$C$23*Input!F8</f>
         <v>0</v>
@@ -5124,8 +5145,8 @@
         <f>S5*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L5" s="246"/>
-      <c r="M5" s="247"/>
+      <c r="L5" s="263"/>
+      <c r="M5" s="264"/>
       <c r="N5" s="62">
         <f>Crop!$C$23*Input!F9</f>
         <v>0</v>
@@ -5193,8 +5214,8 @@
         <f>S6*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L6" s="246"/>
-      <c r="M6" s="247"/>
+      <c r="L6" s="263"/>
+      <c r="M6" s="264"/>
       <c r="N6" s="62">
         <f>Crop!$C$23*Input!F10</f>
         <v>0</v>
@@ -5262,8 +5283,8 @@
         <f>S7*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L7" s="246"/>
-      <c r="M7" s="247"/>
+      <c r="L7" s="263"/>
+      <c r="M7" s="264"/>
       <c r="N7" s="63">
         <f>Crop!$C$23*Input!F11</f>
         <v>0</v>
@@ -5652,12 +5673,12 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="241" t="s">
+      <c r="T19" s="245" t="s">
         <v>112</v>
       </c>
-      <c r="U19" s="242"/>
-      <c r="V19" s="242"/>
-      <c r="W19" s="243"/>
+      <c r="U19" s="246"/>
+      <c r="V19" s="246"/>
+      <c r="W19" s="247"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
@@ -5748,10 +5769,10 @@
         <f t="shared" ref="K21:K27" si="5">Q21*$K$93*$K$112</f>
         <v>0</v>
       </c>
-      <c r="L21" s="246" t="s">
+      <c r="L21" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="M21" s="247"/>
+      <c r="M21" s="264"/>
       <c r="N21" s="190">
         <f>T21*12</f>
         <v>0</v>
@@ -5768,10 +5789,10 @@
         <f t="shared" ref="Q21:Q27" si="8">W21*12</f>
         <v>0</v>
       </c>
-      <c r="R21" s="244" t="s">
+      <c r="R21" s="266" t="s">
         <v>113</v>
       </c>
-      <c r="S21" s="245"/>
+      <c r="S21" s="261"/>
       <c r="T21" s="190">
         <f>shares!H16</f>
         <v>0</v>
@@ -5825,8 +5846,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="246"/>
-      <c r="M22" s="247"/>
+      <c r="L22" s="263"/>
+      <c r="M22" s="264"/>
       <c r="N22" s="193">
         <f t="shared" ref="N22:N27" si="9">T22*12</f>
         <v>0</v>
@@ -5843,8 +5864,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R22" s="244"/>
-      <c r="S22" s="245"/>
+      <c r="R22" s="266"/>
+      <c r="S22" s="261"/>
       <c r="T22" s="193">
         <f>shares!H17</f>
         <v>0</v>
@@ -5898,8 +5919,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="246"/>
-      <c r="M23" s="247"/>
+      <c r="L23" s="263"/>
+      <c r="M23" s="264"/>
       <c r="N23" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5916,8 +5937,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R23" s="244"/>
-      <c r="S23" s="245"/>
+      <c r="R23" s="266"/>
+      <c r="S23" s="261"/>
       <c r="T23" s="193">
         <f>shares!H18</f>
         <v>0</v>
@@ -5971,8 +5992,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="246"/>
-      <c r="M24" s="247"/>
+      <c r="L24" s="263"/>
+      <c r="M24" s="264"/>
       <c r="N24" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5989,8 +6010,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R24" s="244"/>
-      <c r="S24" s="245"/>
+      <c r="R24" s="266"/>
+      <c r="S24" s="261"/>
       <c r="T24" s="195">
         <f>shares!H19</f>
         <v>0</v>
@@ -6044,10 +6065,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="247" t="s">
+      <c r="L25" s="264" t="s">
         <v>108</v>
       </c>
-      <c r="M25" s="247"/>
+      <c r="M25" s="264"/>
       <c r="N25" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6064,10 +6085,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R25" s="244" t="s">
+      <c r="R25" s="266" t="s">
         <v>113</v>
       </c>
-      <c r="S25" s="250"/>
+      <c r="S25" s="281"/>
       <c r="T25" s="190"/>
       <c r="U25" s="191"/>
       <c r="V25" s="191"/>
@@ -6109,8 +6130,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="247"/>
-      <c r="M26" s="247"/>
+      <c r="L26" s="264"/>
+      <c r="M26" s="264"/>
       <c r="N26" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6127,8 +6148,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R26" s="250"/>
-      <c r="S26" s="250"/>
+      <c r="R26" s="281"/>
+      <c r="S26" s="281"/>
       <c r="T26" s="193"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
@@ -6170,8 +6191,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="247"/>
-      <c r="M27" s="247"/>
+      <c r="L27" s="264"/>
+      <c r="M27" s="264"/>
       <c r="N27" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6188,8 +6209,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R27" s="250"/>
-      <c r="S27" s="250"/>
+      <c r="R27" s="281"/>
+      <c r="S27" s="281"/>
       <c r="T27" s="195"/>
       <c r="U27" s="196"/>
       <c r="V27" s="196"/>
@@ -6213,8 +6234,8 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="247"/>
-      <c r="M28" s="247"/>
+      <c r="L28" s="264"/>
+      <c r="M28" s="264"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -6434,12 +6455,12 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="241" t="s">
+      <c r="T37" s="245" t="s">
         <v>142</v>
       </c>
-      <c r="U37" s="242"/>
-      <c r="V37" s="242"/>
-      <c r="W37" s="243"/>
+      <c r="U37" s="246"/>
+      <c r="V37" s="246"/>
+      <c r="W37" s="247"/>
     </row>
     <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
@@ -6530,10 +6551,10 @@
         <f t="shared" ref="K39:K45" si="15">Q39*$K$93*$K$113</f>
         <v>0</v>
       </c>
-      <c r="L39" s="246" t="s">
+      <c r="L39" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="M39" s="247"/>
+      <c r="M39" s="264"/>
       <c r="N39" s="60">
         <f>T39*12</f>
         <v>0</v>
@@ -6550,10 +6571,10 @@
         <f>W39*12</f>
         <v>0</v>
       </c>
-      <c r="R39" s="245" t="s">
+      <c r="R39" s="261" t="s">
         <v>113</v>
       </c>
-      <c r="S39" s="245"/>
+      <c r="S39" s="261"/>
       <c r="T39" s="60">
         <f>shares!H23</f>
         <v>0</v>
@@ -6607,8 +6628,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L40" s="246"/>
-      <c r="M40" s="247"/>
+      <c r="L40" s="263"/>
+      <c r="M40" s="264"/>
       <c r="N40" s="193">
         <f t="shared" ref="N40:N43" si="16">T40*12</f>
         <v>0</v>
@@ -6625,8 +6646,8 @@
         <f t="shared" ref="Q40:Q43" si="19">W40*12</f>
         <v>0</v>
       </c>
-      <c r="R40" s="245"/>
-      <c r="S40" s="245"/>
+      <c r="R40" s="261"/>
+      <c r="S40" s="261"/>
       <c r="T40" s="193">
         <f>shares!H24</f>
         <v>0</v>
@@ -6680,8 +6701,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L41" s="246"/>
-      <c r="M41" s="247"/>
+      <c r="L41" s="263"/>
+      <c r="M41" s="264"/>
       <c r="N41" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6698,8 +6719,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R41" s="245"/>
-      <c r="S41" s="245"/>
+      <c r="R41" s="261"/>
+      <c r="S41" s="261"/>
       <c r="T41" s="193">
         <f>shares!H25</f>
         <v>0</v>
@@ -6753,8 +6774,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L42" s="246"/>
-      <c r="M42" s="247"/>
+      <c r="L42" s="263"/>
+      <c r="M42" s="264"/>
       <c r="N42" s="195">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6771,8 +6792,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R42" s="245"/>
-      <c r="S42" s="245"/>
+      <c r="R42" s="261"/>
+      <c r="S42" s="261"/>
       <c r="T42" s="195">
         <f>shares!H26</f>
         <v>0</v>
@@ -6826,10 +6847,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L43" s="246" t="s">
+      <c r="L43" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="M43" s="247"/>
+      <c r="M43" s="264"/>
       <c r="N43" s="190">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6846,10 +6867,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R43" s="244" t="s">
+      <c r="R43" s="266" t="s">
         <v>113</v>
       </c>
-      <c r="S43" s="250"/>
+      <c r="S43" s="281"/>
       <c r="T43" s="190">
         <f>ser!$C$11*Input!G46</f>
         <v>0</v>
@@ -6903,8 +6924,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L44" s="246"/>
-      <c r="M44" s="247"/>
+      <c r="L44" s="263"/>
+      <c r="M44" s="264"/>
       <c r="N44" s="193">
         <f t="shared" ref="N44:Q45" si="20">T44*12</f>
         <v>0</v>
@@ -6921,8 +6942,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R44" s="250"/>
-      <c r="S44" s="250"/>
+      <c r="R44" s="281"/>
+      <c r="S44" s="281"/>
       <c r="T44" s="193">
         <f>ser!$C$11*Input!G47</f>
         <v>0</v>
@@ -6976,8 +6997,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L45" s="246"/>
-      <c r="M45" s="247"/>
+      <c r="L45" s="263"/>
+      <c r="M45" s="264"/>
       <c r="N45" s="195">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -6994,8 +7015,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R45" s="250"/>
-      <c r="S45" s="250"/>
+      <c r="R45" s="281"/>
+      <c r="S45" s="281"/>
       <c r="T45" s="195">
         <f>ser!$C$11*Input!G48</f>
         <v>0</v>
@@ -7031,8 +7052,8 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="246"/>
-      <c r="M46" s="274"/>
+      <c r="L46" s="263"/>
+      <c r="M46" s="265"/>
       <c r="N46" s="129"/>
       <c r="O46" s="129"/>
       <c r="P46" s="129"/>
@@ -7217,14 +7238,14 @@
       <c r="K54" s="104"/>
       <c r="L54" s="9"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="253" t="s">
+      <c r="N54" s="251" t="s">
         <v>107</v>
       </c>
-      <c r="O54" s="254"/>
-      <c r="P54" s="254"/>
-      <c r="Q54" s="254"/>
-      <c r="R54" s="254"/>
-      <c r="S54" s="255"/>
+      <c r="O54" s="252"/>
+      <c r="P54" s="252"/>
+      <c r="Q54" s="252"/>
+      <c r="R54" s="252"/>
+      <c r="S54" s="253"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
@@ -7248,18 +7269,18 @@
       <c r="K55" s="107"/>
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="256" t="s">
+      <c r="N55" s="283" t="s">
         <v>126</v>
       </c>
-      <c r="O55" s="251"/>
-      <c r="P55" s="251" t="s">
+      <c r="O55" s="244"/>
+      <c r="P55" s="244" t="s">
         <v>127</v>
       </c>
-      <c r="Q55" s="251"/>
-      <c r="R55" s="260" t="s">
+      <c r="Q55" s="244"/>
+      <c r="R55" s="270" t="s">
         <v>128</v>
       </c>
-      <c r="S55" s="269" t="s">
+      <c r="S55" s="276" t="s">
         <v>129</v>
       </c>
       <c r="T55" s="8"/>
@@ -7305,8 +7326,8 @@
       <c r="Q56" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="R56" s="261"/>
-      <c r="S56" s="270"/>
+      <c r="R56" s="271"/>
+      <c r="S56" s="277"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
@@ -7348,10 +7369,10 @@
         <f>S57*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L57" s="246" t="s">
+      <c r="L57" s="263" t="s">
         <v>108</v>
       </c>
-      <c r="M57" s="247"/>
+      <c r="M57" s="264"/>
       <c r="N57" s="60">
         <f>Live!$C$11*Input!F61</f>
         <v>0</v>
@@ -7417,8 +7438,8 @@
         <f>S58*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L58" s="246"/>
-      <c r="M58" s="247"/>
+      <c r="L58" s="263"/>
+      <c r="M58" s="264"/>
       <c r="N58" s="62">
         <f>Live!$C$11*Input!F62</f>
         <v>0</v>
@@ -7484,8 +7505,8 @@
         <f>S59*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L59" s="246"/>
-      <c r="M59" s="247"/>
+      <c r="L59" s="263"/>
+      <c r="M59" s="264"/>
       <c r="N59" s="62">
         <f>Live!$C$11*Input!F63</f>
         <v>0</v>
@@ -7551,8 +7572,8 @@
         <f>S60*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L60" s="246"/>
-      <c r="M60" s="247"/>
+      <c r="L60" s="263"/>
+      <c r="M60" s="264"/>
       <c r="N60" s="63">
         <f>Live!$C$11*Input!F64</f>
         <v>0</v>
@@ -7891,12 +7912,12 @@
       <c r="K72" s="107"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="251" t="s">
+      <c r="N72" s="244" t="s">
         <v>103</v>
       </c>
-      <c r="O72" s="251"/>
-      <c r="P72" s="251"/>
-      <c r="Q72" s="251"/>
+      <c r="O72" s="244"/>
+      <c r="P72" s="244"/>
+      <c r="Q72" s="244"/>
       <c r="R72" s="8"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -7925,14 +7946,14 @@
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="252" t="s">
+      <c r="N73" s="282" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="252"/>
-      <c r="P73" s="252" t="s">
+      <c r="O73" s="282"/>
+      <c r="P73" s="282" t="s">
         <v>104</v>
       </c>
-      <c r="Q73" s="252"/>
+      <c r="Q73" s="282"/>
       <c r="R73" s="8"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -8009,10 +8030,10 @@
         <f>Q75*$G93</f>
         <v>0</v>
       </c>
-      <c r="L75" s="248" t="s">
+      <c r="L75" s="279" t="s">
         <v>109</v>
       </c>
-      <c r="M75" s="249"/>
+      <c r="M75" s="280"/>
       <c r="N75" s="97">
         <f>wages!C7</f>
         <v>0</v>
@@ -8030,14 +8051,14 @@
         <v>0</v>
       </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="271" t="s">
+      <c r="S75" s="278" t="s">
         <v>163</v>
       </c>
-      <c r="T75" s="271"/>
-      <c r="U75" s="271"/>
-      <c r="V75" s="271"/>
-      <c r="W75" s="271"/>
-      <c r="X75" s="271"/>
+      <c r="T75" s="278"/>
+      <c r="U75" s="278"/>
+      <c r="V75" s="278"/>
+      <c r="W75" s="278"/>
+      <c r="X75" s="278"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -8114,22 +8135,22 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="241" t="s">
+      <c r="N78" s="245" t="s">
         <v>110</v>
       </c>
-      <c r="O78" s="242"/>
-      <c r="P78" s="242"/>
-      <c r="Q78" s="242"/>
-      <c r="R78" s="242"/>
-      <c r="S78" s="243"/>
-      <c r="T78" s="241" t="s">
+      <c r="O78" s="246"/>
+      <c r="P78" s="246"/>
+      <c r="Q78" s="246"/>
+      <c r="R78" s="246"/>
+      <c r="S78" s="247"/>
+      <c r="T78" s="245" t="s">
         <v>146</v>
       </c>
-      <c r="U78" s="242"/>
-      <c r="V78" s="242"/>
-      <c r="W78" s="242"/>
-      <c r="X78" s="242"/>
-      <c r="Y78" s="243"/>
+      <c r="U78" s="246"/>
+      <c r="V78" s="246"/>
+      <c r="W78" s="246"/>
+      <c r="X78" s="246"/>
+      <c r="Y78" s="247"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
@@ -8149,32 +8170,32 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="267" t="s">
+      <c r="N79" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="O79" s="268"/>
-      <c r="P79" s="241" t="s">
+      <c r="O79" s="249"/>
+      <c r="P79" s="245" t="s">
         <v>127</v>
       </c>
-      <c r="Q79" s="242"/>
-      <c r="R79" s="265" t="s">
+      <c r="Q79" s="246"/>
+      <c r="R79" s="242" t="s">
         <v>143</v>
       </c>
-      <c r="S79" s="265" t="s">
+      <c r="S79" s="242" t="s">
         <v>144</v>
       </c>
-      <c r="T79" s="267" t="s">
+      <c r="T79" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="U79" s="268"/>
-      <c r="V79" s="241" t="s">
+      <c r="U79" s="249"/>
+      <c r="V79" s="245" t="s">
         <v>127</v>
       </c>
-      <c r="W79" s="242"/>
-      <c r="X79" s="265" t="s">
+      <c r="W79" s="246"/>
+      <c r="X79" s="242" t="s">
         <v>143</v>
       </c>
-      <c r="Y79" s="265" t="s">
+      <c r="Y79" s="242" t="s">
         <v>144</v>
       </c>
     </row>
@@ -8208,8 +8229,8 @@
       <c r="Q80" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="R80" s="266"/>
-      <c r="S80" s="266"/>
+      <c r="R80" s="275"/>
+      <c r="S80" s="275"/>
       <c r="T80" s="123" t="s">
         <v>116</v>
       </c>
@@ -8222,8 +8243,8 @@
       <c r="W80" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="X80" s="272"/>
-      <c r="Y80" s="272"/>
+      <c r="X80" s="243"/>
+      <c r="Y80" s="243"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -8257,10 +8278,10 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L81" s="258" t="s">
+      <c r="L81" s="268" t="s">
         <v>170</v>
       </c>
-      <c r="M81" s="259"/>
+      <c r="M81" s="269"/>
       <c r="N81" s="97"/>
       <c r="O81" s="97"/>
       <c r="P81" s="97"/>
@@ -8300,24 +8321,24 @@
       <c r="K82" s="68">
         <v>0</v>
       </c>
-      <c r="L82" s="258"/>
-      <c r="M82" s="259"/>
-      <c r="N82" s="262" t="s">
+      <c r="L82" s="268"/>
+      <c r="M82" s="269"/>
+      <c r="N82" s="272" t="s">
         <v>111</v>
       </c>
-      <c r="O82" s="263"/>
-      <c r="P82" s="263"/>
-      <c r="Q82" s="263"/>
-      <c r="R82" s="263"/>
-      <c r="S82" s="264"/>
-      <c r="T82" s="251" t="s">
+      <c r="O82" s="273"/>
+      <c r="P82" s="273"/>
+      <c r="Q82" s="273"/>
+      <c r="R82" s="273"/>
+      <c r="S82" s="274"/>
+      <c r="T82" s="244" t="s">
         <v>145</v>
       </c>
-      <c r="U82" s="251"/>
-      <c r="V82" s="251"/>
-      <c r="W82" s="251"/>
-      <c r="X82" s="251"/>
-      <c r="Y82" s="251"/>
+      <c r="U82" s="244"/>
+      <c r="V82" s="244"/>
+      <c r="W82" s="244"/>
+      <c r="X82" s="244"/>
+      <c r="Y82" s="244"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -8807,7 +8828,7 @@
       <c r="I97" s="226"/>
       <c r="J97" s="226"/>
       <c r="K97" s="226"/>
-      <c r="L97" s="257" t="s">
+      <c r="L97" s="267" t="s">
         <v>115</v>
       </c>
       <c r="M97" s="8"/>
@@ -8840,7 +8861,7 @@
       <c r="I98" s="226"/>
       <c r="J98" s="226"/>
       <c r="K98" s="226"/>
-      <c r="L98" s="257"/>
+      <c r="L98" s="267"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8" t="s">
@@ -8873,7 +8894,7 @@
       <c r="I99" s="226"/>
       <c r="J99" s="226"/>
       <c r="K99" s="226"/>
-      <c r="L99" s="257"/>
+      <c r="L99" s="267"/>
       <c r="M99" s="8"/>
       <c r="N99" s="219" t="s">
         <v>189</v>
@@ -8915,7 +8936,7 @@
       <c r="I100" s="226"/>
       <c r="J100" s="226"/>
       <c r="K100" s="226"/>
-      <c r="L100" s="257"/>
+      <c r="L100" s="267"/>
       <c r="M100" s="8"/>
       <c r="N100" s="221" t="s">
         <v>193</v>
@@ -9030,11 +9051,11 @@
       <c r="I103" s="228"/>
       <c r="J103" s="228"/>
       <c r="K103" s="228"/>
-      <c r="L103" s="244" t="s">
+      <c r="L103" s="266" t="s">
         <v>114</v>
       </c>
-      <c r="M103" s="244"/>
-      <c r="N103" s="244"/>
+      <c r="M103" s="266"/>
+      <c r="N103" s="266"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
@@ -9063,9 +9084,9 @@
       <c r="I104" s="228"/>
       <c r="J104" s="228"/>
       <c r="K104" s="228"/>
-      <c r="L104" s="244"/>
-      <c r="M104" s="244"/>
-      <c r="N104" s="244"/>
+      <c r="L104" s="266"/>
+      <c r="M104" s="266"/>
+      <c r="N104" s="266"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
@@ -9094,9 +9115,9 @@
       <c r="I105" s="228"/>
       <c r="J105" s="228"/>
       <c r="K105" s="228"/>
-      <c r="L105" s="244"/>
-      <c r="M105" s="244"/>
-      <c r="N105" s="244"/>
+      <c r="L105" s="266"/>
+      <c r="M105" s="266"/>
+      <c r="N105" s="266"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
@@ -9125,9 +9146,9 @@
       <c r="I106" s="228"/>
       <c r="J106" s="228"/>
       <c r="K106" s="228"/>
-      <c r="L106" s="244"/>
-      <c r="M106" s="244"/>
-      <c r="N106" s="244"/>
+      <c r="L106" s="266"/>
+      <c r="M106" s="266"/>
+      <c r="N106" s="266"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
@@ -9156,9 +9177,9 @@
       <c r="I107" s="228"/>
       <c r="J107" s="228"/>
       <c r="K107" s="228"/>
-      <c r="L107" s="244"/>
-      <c r="M107" s="244"/>
-      <c r="N107" s="244"/>
+      <c r="L107" s="266"/>
+      <c r="M107" s="266"/>
+      <c r="N107" s="266"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
@@ -9187,9 +9208,9 @@
       <c r="I108" s="229"/>
       <c r="J108" s="229"/>
       <c r="K108" s="229"/>
-      <c r="L108" s="244"/>
-      <c r="M108" s="244"/>
-      <c r="N108" s="244"/>
+      <c r="L108" s="266"/>
+      <c r="M108" s="266"/>
+      <c r="N108" s="266"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
@@ -9218,9 +9239,9 @@
       <c r="I109" s="229"/>
       <c r="J109" s="229"/>
       <c r="K109" s="229"/>
-      <c r="L109" s="244"/>
-      <c r="M109" s="244"/>
-      <c r="N109" s="244"/>
+      <c r="L109" s="266"/>
+      <c r="M109" s="266"/>
+      <c r="N109" s="266"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -9249,9 +9270,9 @@
       <c r="I110" s="229"/>
       <c r="J110" s="229"/>
       <c r="K110" s="229"/>
-      <c r="L110" s="244"/>
-      <c r="M110" s="244"/>
-      <c r="N110" s="244"/>
+      <c r="L110" s="266"/>
+      <c r="M110" s="266"/>
+      <c r="N110" s="266"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
@@ -9331,36 +9352,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="Y79:Y80"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="R39:S42"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L4:M7"/>
-    <mergeCell ref="L43:M46"/>
-    <mergeCell ref="L103:N110"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="L81:M82"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="N82:S82"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S75:X75"/>
-    <mergeCell ref="X79:X80"/>
     <mergeCell ref="T19:W19"/>
     <mergeCell ref="R21:S24"/>
     <mergeCell ref="L21:M24"/>
@@ -9377,6 +9368,36 @@
     <mergeCell ref="L57:M60"/>
     <mergeCell ref="L39:M42"/>
     <mergeCell ref="L25:M28"/>
+    <mergeCell ref="L103:N110"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="L81:M82"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="N82:S82"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S75:X75"/>
+    <mergeCell ref="X79:X80"/>
+    <mergeCell ref="R39:S42"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="L43:M46"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="Y79:Y80"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9418,16 +9439,16 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="275" t="s">
+      <c r="F1" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="275"/>
-      <c r="J1" s="282" t="s">
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="260" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="282"/>
+      <c r="K1" s="260"/>
       <c r="L1" s="157" t="s">
         <v>162</v>
       </c>
@@ -9441,26 +9462,26 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="273" t="s">
+      <c r="F2" s="262" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273" t="s">
+      <c r="G2" s="262"/>
+      <c r="H2" s="262" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="273"/>
+      <c r="I2" s="262"/>
       <c r="J2" s="9" t="s">
         <v>99</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="283" t="s">
+      <c r="M2" s="284" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="283"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="283"/>
+      <c r="N2" s="284"/>
+      <c r="O2" s="284"/>
+      <c r="P2" s="284"/>
       <c r="Q2" t="s">
         <v>150</v>
       </c>
@@ -14064,48 +14085,48 @@
     </row>
     <row r="21" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
-      <c r="B21" s="284" t="s">
+      <c r="B21" s="285" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="285"/>
-      <c r="D21" s="285"/>
-      <c r="E21" s="285"/>
-      <c r="F21" s="286"/>
-      <c r="G21" s="284" t="s">
+      <c r="C21" s="286"/>
+      <c r="D21" s="286"/>
+      <c r="E21" s="286"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="285" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="285"/>
-      <c r="I21" s="285"/>
-      <c r="J21" s="285"/>
-      <c r="K21" s="286"/>
-      <c r="L21" s="284" t="s">
+      <c r="H21" s="286"/>
+      <c r="I21" s="286"/>
+      <c r="J21" s="286"/>
+      <c r="K21" s="287"/>
+      <c r="L21" s="285" t="s">
         <v>120</v>
       </c>
-      <c r="M21" s="285"/>
-      <c r="N21" s="285"/>
-      <c r="O21" s="285"/>
-      <c r="P21" s="286"/>
-      <c r="Q21" s="284" t="s">
+      <c r="M21" s="286"/>
+      <c r="N21" s="286"/>
+      <c r="O21" s="286"/>
+      <c r="P21" s="287"/>
+      <c r="Q21" s="285" t="s">
         <v>121</v>
       </c>
-      <c r="R21" s="285"/>
-      <c r="S21" s="285"/>
-      <c r="T21" s="285"/>
-      <c r="U21" s="286"/>
-      <c r="V21" s="284" t="s">
+      <c r="R21" s="286"/>
+      <c r="S21" s="286"/>
+      <c r="T21" s="286"/>
+      <c r="U21" s="287"/>
+      <c r="V21" s="285" t="s">
         <v>122</v>
       </c>
-      <c r="W21" s="285"/>
-      <c r="X21" s="285"/>
-      <c r="Y21" s="285"/>
-      <c r="Z21" s="286"/>
-      <c r="AA21" s="284" t="s">
+      <c r="W21" s="286"/>
+      <c r="X21" s="286"/>
+      <c r="Y21" s="286"/>
+      <c r="Z21" s="287"/>
+      <c r="AA21" s="285" t="s">
         <v>123</v>
       </c>
-      <c r="AB21" s="285"/>
-      <c r="AC21" s="285"/>
-      <c r="AD21" s="285"/>
-      <c r="AE21" s="286"/>
+      <c r="AB21" s="286"/>
+      <c r="AC21" s="286"/>
+      <c r="AD21" s="286"/>
+      <c r="AE21" s="287"/>
     </row>
     <row r="22" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
@@ -14529,22 +14550,22 @@
       <c r="B3" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="303">
+      <c r="C3" s="241">
         <v>12236.559997774661</v>
       </c>
-      <c r="D3" s="303">
+      <c r="D3" s="241">
         <v>1343.635986328125</v>
       </c>
-      <c r="E3" s="303">
+      <c r="E3" s="241">
         <v>2021.7199985682964</v>
       </c>
-      <c r="F3" s="303">
+      <c r="F3" s="241">
         <v>6142.7799972295761</v>
       </c>
-      <c r="G3" s="303">
+      <c r="G3" s="241">
         <v>8298.799596786499</v>
       </c>
-      <c r="H3" s="303">
+      <c r="H3" s="241">
         <v>2422.7699962854385</v>
       </c>
     </row>
@@ -14750,14 +14771,207 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="157" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3">
+        <v>1744.8702195580117</v>
+      </c>
+      <c r="D3">
+        <v>571.43047200515866</v>
+      </c>
+      <c r="E3">
+        <v>926.42686172947288</v>
+      </c>
+      <c r="F3">
+        <v>2588.8622903013602</v>
+      </c>
+      <c r="G3">
+        <v>1785.8093204153702</v>
+      </c>
+      <c r="H3">
+        <v>1277.1668187589385</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4">
+        <v>361.88122031092644</v>
+      </c>
+      <c r="D4">
+        <v>153.88099787011743</v>
+      </c>
+      <c r="E4">
+        <v>282.27333134412766</v>
+      </c>
+      <c r="F4">
+        <v>601.48227291181684</v>
+      </c>
+      <c r="G4">
+        <v>282.18579501286149</v>
+      </c>
+      <c r="H4">
+        <v>200.73039625957608</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5">
+        <v>1022.2690930441022</v>
+      </c>
+      <c r="D5">
+        <v>396.02679319307208</v>
+      </c>
+      <c r="E5">
+        <v>454.54015942662954</v>
+      </c>
+      <c r="F5">
+        <v>1121.8757621385157</v>
+      </c>
+      <c r="G5">
+        <v>821.57286958023906</v>
+      </c>
+      <c r="H5">
+        <v>488.49578911066055</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6">
+        <v>457.6949829403311</v>
+      </c>
+      <c r="D6">
+        <v>224.59666956961155</v>
+      </c>
+      <c r="E6">
+        <v>228.88839613460004</v>
+      </c>
+      <c r="F6">
+        <v>641.37093687430024</v>
+      </c>
+      <c r="G6">
+        <v>507.5662730243057</v>
+      </c>
+      <c r="H6">
+        <v>305.2384367226623</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7">
+        <v>949.81134685780853</v>
+      </c>
+      <c r="D7">
+        <v>395.96775010647252</v>
+      </c>
+      <c r="E7">
+        <v>414.99821314495057</v>
+      </c>
+      <c r="F7">
+        <v>1211.5971250645816</v>
+      </c>
+      <c r="G7">
+        <v>808.79513648618013</v>
+      </c>
+      <c r="H7">
+        <v>532.87196158710867</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8">
+        <v>4148.8564126291312</v>
+      </c>
+      <c r="D8">
+        <v>4415.0756931580545</v>
+      </c>
+      <c r="E8">
+        <v>1714.4871727470309</v>
+      </c>
+      <c r="F8">
+        <v>3080.3927274635062</v>
+      </c>
+      <c r="G8">
+        <v>3254.9198766946793</v>
+      </c>
+      <c r="H8">
+        <v>1401.8526547383517</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9">
+        <v>2171.0543390703388</v>
+      </c>
+      <c r="D9">
+        <v>2787.8564933687449</v>
+      </c>
+      <c r="E9">
+        <v>618.3449990991503</v>
+      </c>
+      <c r="F9">
+        <v>1219.8505749221658</v>
+      </c>
+      <c r="G9">
+        <v>1552.5456711442675</v>
+      </c>
+      <c r="H9">
+        <v>676.38845442130696</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
@@ -9,30 +9,89 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="805" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21150" windowHeight="6255" tabRatio="817" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
     <sheet name="Index_div_rmj" sheetId="15" r:id="rId2"/>
     <sheet name="Index_div_adj" sheetId="14" r:id="rId3"/>
-    <sheet name="Input" sheetId="2" r:id="rId4"/>
-    <sheet name="Input_divided" sheetId="17" r:id="rId5"/>
-    <sheet name="Crop" sheetId="3" r:id="rId6"/>
+    <sheet name="Input_new" sheetId="21" r:id="rId4"/>
+    <sheet name="Input" sheetId="2" r:id="rId5"/>
+    <sheet name="Input_divided" sheetId="17" r:id="rId6"/>
     <sheet name="Fish" sheetId="18" r:id="rId7"/>
-    <sheet name="ProdSerRet" sheetId="19" r:id="rId8"/>
-    <sheet name="Cons" sheetId="20" r:id="rId9"/>
-    <sheet name="Live" sheetId="4" r:id="rId10"/>
-    <sheet name="Alt" sheetId="12" r:id="rId11"/>
-    <sheet name="ret" sheetId="5" r:id="rId12"/>
-    <sheet name="ser" sheetId="6" r:id="rId13"/>
-    <sheet name="shares" sheetId="7" r:id="rId14"/>
-    <sheet name="wages" sheetId="9" r:id="rId15"/>
+    <sheet name="Crop" sheetId="3" r:id="rId8"/>
+    <sheet name="ProdSerRet" sheetId="19" r:id="rId9"/>
+    <sheet name="Cons" sheetId="20" r:id="rId10"/>
+    <sheet name="Live" sheetId="4" r:id="rId11"/>
+    <sheet name="Alt" sheetId="12" r:id="rId12"/>
+    <sheet name="ret" sheetId="5" r:id="rId13"/>
+    <sheet name="ser" sheetId="6" r:id="rId14"/>
+    <sheet name="shares" sheetId="7" r:id="rId15"/>
+    <sheet name="wages" sheetId="9" r:id="rId16"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Filipski, Mateusz (IFPRI)</author>
+  </authors>
+  <commentList>
+    <comment ref="K34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Filipski, Mateusz (IFPRI):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Locals in Adj only provide a fraction of the economy's retail!  No wonder they gain almost nothing in the simulations.  Even with very limited upward pressure on prices, they end up losing in net terms. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K125" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Filipski, Mateusz (IFPRI):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Value corrected using county data</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Filipski, Mateusz (IFPRI)</author>
@@ -91,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="264">
   <si>
     <t>Variable</t>
   </si>
@@ -854,32 +913,128 @@
     <t>ysale</t>
   </si>
   <si>
-    <t>crops</t>
-  </si>
-  <si>
-    <t>other_food</t>
-  </si>
-  <si>
-    <t>fresh_meat</t>
-  </si>
-  <si>
-    <t>fresh_fish</t>
-  </si>
-  <si>
-    <t>processed_food</t>
-  </si>
-  <si>
-    <t>all_other_non-food</t>
-  </si>
-  <si>
     <t xml:space="preserve">Value of different items consumed: </t>
+  </si>
+  <si>
+    <t>Aqua Cluster</t>
+  </si>
+  <si>
+    <t>Agri Cluster</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Agri</t>
+  </si>
+  <si>
+    <t>Landless</t>
+  </si>
+  <si>
+    <t>QP</t>
+  </si>
+  <si>
+    <t>cshare</t>
+  </si>
+  <si>
+    <t>cshare_se</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>ser</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>local_crops</t>
+  </si>
+  <si>
+    <t>local_meat</t>
+  </si>
+  <si>
+    <t>local_fish</t>
+  </si>
+  <si>
+    <t>local_production</t>
+  </si>
+  <si>
+    <t>local_retail</t>
+  </si>
+  <si>
+    <t>local_services</t>
+  </si>
+  <si>
+    <t>everything_bought_outside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expenditure shares: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For now those are just 10% for everything. </t>
+  </si>
+  <si>
+    <t>Minimum consumption is just zero for most goods</t>
+  </si>
+  <si>
+    <t>fshare</t>
+  </si>
+  <si>
+    <t>fshare_se</t>
+  </si>
+  <si>
+    <t>shiftpar</t>
+  </si>
+  <si>
+    <t>shiftpar_se</t>
+  </si>
+  <si>
+    <t>intdsh</t>
+  </si>
+  <si>
+    <t>QUANTITY PRODUCED</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE DEMAND SHARES</t>
+  </si>
+  <si>
+    <t>FACTOR DEMAND SHARES</t>
+  </si>
+  <si>
+    <t>FACTOR DEMAND SHARE ERROR</t>
+  </si>
+  <si>
+    <t>SHIFT PARAMETER</t>
+  </si>
+  <si>
+    <t>SHIFT PARAMETER ERROR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Com2 </t>
+  </si>
+  <si>
+    <t>Prod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -891,6 +1046,7 @@
     <numFmt numFmtId="171" formatCode="0.0000000"/>
     <numFmt numFmtId="172" formatCode="0.0"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -976,7 +1132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1055,8 +1211,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1551,6 +1749,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1558,7 +1857,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="483">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1975,40 +2274,130 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2029,78 +2418,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2160,6 +2477,283 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="16" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="17" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="18" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="18" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="18" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="16" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="16" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="16" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="19" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="20" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="20" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="20" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="20" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="20" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2170,6 +2764,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2631,6 +3230,514 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="8" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="157" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="223">
+        <v>1311.3893793742172</v>
+      </c>
+      <c r="D3" s="223">
+        <v>379.40227232500911</v>
+      </c>
+      <c r="E3" s="223">
+        <v>903.07366214320064</v>
+      </c>
+      <c r="F3" s="223">
+        <v>2259.8374915728346</v>
+      </c>
+      <c r="G3" s="223">
+        <v>1702.8173218322918</v>
+      </c>
+      <c r="H3" s="223">
+        <v>1245.9361386955716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="223">
+        <v>907.71309493854642</v>
+      </c>
+      <c r="D4" s="223">
+        <v>388.27879334613681</v>
+      </c>
+      <c r="E4" s="223">
+        <v>445.05015980452299</v>
+      </c>
+      <c r="F4" s="223">
+        <v>1104.6897650174797</v>
+      </c>
+      <c r="G4" s="223">
+        <v>815.12486981973052</v>
+      </c>
+      <c r="H4" s="223">
+        <v>489.4317891150713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="223">
+        <v>435.30898314155638</v>
+      </c>
+      <c r="D5" s="223">
+        <v>218.64266933500767</v>
+      </c>
+      <c r="E5" s="223">
+        <v>228.88839613460004</v>
+      </c>
+      <c r="F5" s="223">
+        <v>624.47093749418855</v>
+      </c>
+      <c r="G5" s="223">
+        <v>489.938272645697</v>
+      </c>
+      <c r="H5" s="223">
+        <v>304.19843676080927</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="223">
+        <v>207.41290932893753</v>
+      </c>
+      <c r="D6" s="223">
+        <v>206.19705295059248</v>
+      </c>
+      <c r="E6" s="223">
+        <v>22.977499477565289</v>
+      </c>
+      <c r="F6" s="223">
+        <v>142.22463167458773</v>
+      </c>
+      <c r="G6" s="223">
+        <v>25.698509089648724</v>
+      </c>
+      <c r="H6" s="223">
+        <v>13.224999964237213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="223">
+        <v>2790.021649543196</v>
+      </c>
+      <c r="D7" s="223">
+        <v>2711.8061185791157</v>
+      </c>
+      <c r="E7" s="223">
+        <v>1926.6449322747067</v>
+      </c>
+      <c r="F7" s="223">
+        <v>3458.7519965618849</v>
+      </c>
+      <c r="G7" s="223">
+        <v>2982.4510657396168</v>
+      </c>
+      <c r="H7" s="223">
+        <v>1673.4969271477312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="223">
+        <v>1412.1290041585453</v>
+      </c>
+      <c r="D8" s="223">
+        <v>851.15732767432928</v>
+      </c>
+      <c r="E8" s="223">
+        <v>379.51016531512141</v>
+      </c>
+      <c r="F8" s="223">
+        <v>890.11190720356535</v>
+      </c>
+      <c r="G8" s="223">
+        <v>970.39383600070141</v>
+      </c>
+      <c r="H8" s="223">
+        <v>544.7937532288488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="223">
+        <v>3792.4625939256512</v>
+      </c>
+      <c r="D9" s="223">
+        <v>4189.3506350610405</v>
+      </c>
+      <c r="E9" s="223">
+        <v>733.81431847624481</v>
+      </c>
+      <c r="F9" s="223">
+        <v>1985.3449601517059</v>
+      </c>
+      <c r="G9" s="223">
+        <v>2026.9710672302172</v>
+      </c>
+      <c r="H9" s="223">
+        <v>611.66246668633539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="310">
+        <f>SUM(C3:C9)</f>
+        <v>10856.43761441065</v>
+      </c>
+      <c r="D10" s="310">
+        <f t="shared" ref="D10:H10" si="0">SUM(D3:D9)</f>
+        <v>8944.8348692712316</v>
+      </c>
+      <c r="E10" s="310">
+        <f t="shared" si="0"/>
+        <v>4639.9591336259618</v>
+      </c>
+      <c r="F10" s="310">
+        <f t="shared" si="0"/>
+        <v>10465.431689676247</v>
+      </c>
+      <c r="G10" s="310">
+        <f t="shared" si="0"/>
+        <v>9013.3949423579033</v>
+      </c>
+      <c r="H10" s="310">
+        <f t="shared" si="0"/>
+        <v>4882.7445115986047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="157" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="311">
+        <f>C3/C$10</f>
+        <v>0.12079371023451572</v>
+      </c>
+      <c r="D14" s="311">
+        <f t="shared" ref="D14:H14" si="1">D3/D$10</f>
+        <v>4.2415793904524074E-2</v>
+      </c>
+      <c r="E14" s="311">
+        <f t="shared" si="1"/>
+        <v>0.19462965861026471</v>
+      </c>
+      <c r="F14" s="311">
+        <f t="shared" si="1"/>
+        <v>0.21593351890128706</v>
+      </c>
+      <c r="G14" s="311">
+        <f t="shared" si="1"/>
+        <v>0.18892074881019635</v>
+      </c>
+      <c r="H14" s="311">
+        <f t="shared" si="1"/>
+        <v>0.25517127421595392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="311">
+        <f t="shared" ref="C15:H20" si="2">C4/C$10</f>
+        <v>8.3610584537755148E-2</v>
+      </c>
+      <c r="D15" s="311">
+        <f t="shared" si="2"/>
+        <v>4.3408156664805068E-2</v>
+      </c>
+      <c r="E15" s="311">
+        <f t="shared" si="2"/>
+        <v>9.5916827495144824E-2</v>
+      </c>
+      <c r="F15" s="311">
+        <f t="shared" si="2"/>
+        <v>0.10555606283372089</v>
+      </c>
+      <c r="G15" s="311">
+        <f t="shared" si="2"/>
+        <v>9.043483338215888E-2</v>
+      </c>
+      <c r="H15" s="311">
+        <f t="shared" si="2"/>
+        <v>0.10023702611358462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="311">
+        <f t="shared" si="2"/>
+        <v>4.0096853001184721E-2</v>
+      </c>
+      <c r="D16" s="311">
+        <f t="shared" si="2"/>
+        <v>2.4443455081113341E-2</v>
+      </c>
+      <c r="E16" s="311">
+        <f t="shared" si="2"/>
+        <v>4.932983018661459E-2</v>
+      </c>
+      <c r="F16" s="311">
+        <f t="shared" si="2"/>
+        <v>5.9669868956309331E-2</v>
+      </c>
+      <c r="G16" s="311">
+        <f t="shared" si="2"/>
+        <v>5.4356685330991299E-2</v>
+      </c>
+      <c r="H16" s="311">
+        <f t="shared" si="2"/>
+        <v>6.2300707325195492E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="311">
+        <f t="shared" si="2"/>
+        <v>1.9105061595308316E-2</v>
+      </c>
+      <c r="D17" s="311">
+        <f t="shared" si="2"/>
+        <v>2.3052080442418733E-2</v>
+      </c>
+      <c r="E17" s="311">
+        <f t="shared" si="2"/>
+        <v>4.9520909162855484E-3</v>
+      </c>
+      <c r="F17" s="311">
+        <f t="shared" si="2"/>
+        <v>1.3589944102820618E-2</v>
+      </c>
+      <c r="G17" s="311">
+        <f t="shared" si="2"/>
+        <v>2.8511464607947155E-3</v>
+      </c>
+      <c r="H17" s="311">
+        <f t="shared" si="2"/>
+        <v>2.7085177061429667E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="311">
+        <f t="shared" si="2"/>
+        <v>0.25699237158971638</v>
+      </c>
+      <c r="D18" s="311">
+        <f t="shared" si="2"/>
+        <v>0.30317005939317654</v>
+      </c>
+      <c r="E18" s="311">
+        <f t="shared" si="2"/>
+        <v>0.41522885801132103</v>
+      </c>
+      <c r="F18" s="311">
+        <f t="shared" si="2"/>
+        <v>0.33049300775369</v>
+      </c>
+      <c r="G18" s="311">
+        <f t="shared" si="2"/>
+        <v>0.33089097779614302</v>
+      </c>
+      <c r="H18" s="311">
+        <f t="shared" si="2"/>
+        <v>0.34273694295748236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="311">
+        <f t="shared" si="2"/>
+        <v>0.13007296263408813</v>
+      </c>
+      <c r="D19" s="311">
+        <f t="shared" si="2"/>
+        <v>9.5156293001938466E-2</v>
+      </c>
+      <c r="E19" s="311">
+        <f t="shared" si="2"/>
+        <v>8.1791704277047766E-2</v>
+      </c>
+      <c r="F19" s="311">
+        <f t="shared" si="2"/>
+        <v>8.5052574379863105E-2</v>
+      </c>
+      <c r="G19" s="311">
+        <f t="shared" si="2"/>
+        <v>0.10766130211829444</v>
+      </c>
+      <c r="H19" s="311">
+        <f t="shared" si="2"/>
+        <v>0.11157531423868909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="311">
+        <f t="shared" si="2"/>
+        <v>0.3493284564074316</v>
+      </c>
+      <c r="D20" s="311">
+        <f t="shared" si="2"/>
+        <v>0.4683541615120238</v>
+      </c>
+      <c r="E20" s="311">
+        <f t="shared" si="2"/>
+        <v>0.15815103050332152</v>
+      </c>
+      <c r="F20" s="311">
+        <f t="shared" si="2"/>
+        <v>0.18970502307230896</v>
+      </c>
+      <c r="G20" s="311">
+        <f t="shared" si="2"/>
+        <v>0.22488430610142129</v>
+      </c>
+      <c r="H20" s="311">
+        <f t="shared" si="2"/>
+        <v>0.12527021744295153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2685,48 +3792,48 @@
     </row>
     <row r="9" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="285" t="s">
+      <c r="B9" s="291" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="286"/>
-      <c r="D9" s="286"/>
-      <c r="E9" s="286"/>
-      <c r="F9" s="287"/>
-      <c r="G9" s="285" t="s">
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="291" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="286"/>
-      <c r="I9" s="286"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="287"/>
-      <c r="L9" s="285" t="s">
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="291" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="286"/>
-      <c r="N9" s="286"/>
-      <c r="O9" s="286"/>
-      <c r="P9" s="287"/>
-      <c r="Q9" s="285" t="s">
+      <c r="M9" s="292"/>
+      <c r="N9" s="292"/>
+      <c r="O9" s="292"/>
+      <c r="P9" s="293"/>
+      <c r="Q9" s="291" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="286"/>
-      <c r="S9" s="286"/>
-      <c r="T9" s="286"/>
-      <c r="U9" s="287"/>
-      <c r="V9" s="285" t="s">
+      <c r="R9" s="292"/>
+      <c r="S9" s="292"/>
+      <c r="T9" s="292"/>
+      <c r="U9" s="293"/>
+      <c r="V9" s="291" t="s">
         <v>122</v>
       </c>
-      <c r="W9" s="286"/>
-      <c r="X9" s="286"/>
-      <c r="Y9" s="286"/>
-      <c r="Z9" s="287"/>
-      <c r="AA9" s="285" t="s">
+      <c r="W9" s="292"/>
+      <c r="X9" s="292"/>
+      <c r="Y9" s="292"/>
+      <c r="Z9" s="293"/>
+      <c r="AA9" s="291" t="s">
         <v>123</v>
       </c>
-      <c r="AB9" s="286"/>
-      <c r="AC9" s="286"/>
-      <c r="AD9" s="286"/>
-      <c r="AE9" s="287"/>
+      <c r="AB9" s="292"/>
+      <c r="AC9" s="292"/>
+      <c r="AD9" s="292"/>
+      <c r="AE9" s="293"/>
     </row>
     <row r="10" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
@@ -2871,7 +3978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K20"/>
   <sheetViews>
@@ -2882,21 +3989,21 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="288" t="s">
+      <c r="B2" s="294" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288"/>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="294"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="288">
+      <c r="A3" s="294">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -2913,7 +4020,7 @@
       <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="288"/>
+      <c r="A4" s="294"/>
       <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
@@ -2928,7 +4035,7 @@
       <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="288">
+      <c r="A5" s="294">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2945,7 +4052,7 @@
       <c r="K5" s="124"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="288"/>
+      <c r="A6" s="294"/>
       <c r="B6" s="8" t="s">
         <v>45</v>
       </c>
@@ -2960,168 +4067,168 @@
       <c r="K6" s="124"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="288">
+      <c r="A9" s="294">
         <v>1</v>
       </c>
-      <c r="B9" s="289" t="s">
+      <c r="B9" s="295" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="290"/>
-      <c r="D9" s="290"/>
-      <c r="E9" s="290"/>
-      <c r="F9" s="290"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="290"/>
-      <c r="K9" s="290"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="296"/>
+      <c r="E9" s="296"/>
+      <c r="F9" s="296"/>
+      <c r="G9" s="296"/>
+      <c r="H9" s="296"/>
+      <c r="I9" s="296"/>
+      <c r="J9" s="296"/>
+      <c r="K9" s="296"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="288"/>
-      <c r="B10" s="290"/>
-      <c r="C10" s="290"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="290"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="290"/>
-      <c r="H10" s="290"/>
-      <c r="I10" s="290"/>
-      <c r="J10" s="290"/>
-      <c r="K10" s="290"/>
+      <c r="A10" s="294"/>
+      <c r="B10" s="296"/>
+      <c r="C10" s="296"/>
+      <c r="D10" s="296"/>
+      <c r="E10" s="296"/>
+      <c r="F10" s="296"/>
+      <c r="G10" s="296"/>
+      <c r="H10" s="296"/>
+      <c r="I10" s="296"/>
+      <c r="J10" s="296"/>
+      <c r="K10" s="296"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="288"/>
-      <c r="B11" s="290"/>
-      <c r="C11" s="290"/>
-      <c r="D11" s="290"/>
-      <c r="E11" s="290"/>
-      <c r="F11" s="290"/>
-      <c r="G11" s="290"/>
-      <c r="H11" s="290"/>
-      <c r="I11" s="290"/>
-      <c r="J11" s="290"/>
-      <c r="K11" s="290"/>
+      <c r="A11" s="294"/>
+      <c r="B11" s="296"/>
+      <c r="C11" s="296"/>
+      <c r="D11" s="296"/>
+      <c r="E11" s="296"/>
+      <c r="F11" s="296"/>
+      <c r="G11" s="296"/>
+      <c r="H11" s="296"/>
+      <c r="I11" s="296"/>
+      <c r="J11" s="296"/>
+      <c r="K11" s="296"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="288"/>
-      <c r="B12" s="290"/>
-      <c r="C12" s="290"/>
-      <c r="D12" s="290"/>
-      <c r="E12" s="290"/>
-      <c r="F12" s="290"/>
-      <c r="G12" s="290"/>
-      <c r="H12" s="290"/>
-      <c r="I12" s="290"/>
-      <c r="J12" s="290"/>
-      <c r="K12" s="290"/>
+      <c r="A12" s="294"/>
+      <c r="B12" s="296"/>
+      <c r="C12" s="296"/>
+      <c r="D12" s="296"/>
+      <c r="E12" s="296"/>
+      <c r="F12" s="296"/>
+      <c r="G12" s="296"/>
+      <c r="H12" s="296"/>
+      <c r="I12" s="296"/>
+      <c r="J12" s="296"/>
+      <c r="K12" s="296"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="288"/>
-      <c r="B13" s="290"/>
-      <c r="C13" s="290"/>
-      <c r="D13" s="290"/>
-      <c r="E13" s="290"/>
-      <c r="F13" s="290"/>
-      <c r="G13" s="290"/>
-      <c r="H13" s="290"/>
-      <c r="I13" s="290"/>
-      <c r="J13" s="290"/>
-      <c r="K13" s="290"/>
+      <c r="A13" s="294"/>
+      <c r="B13" s="296"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="296"/>
+      <c r="H13" s="296"/>
+      <c r="I13" s="296"/>
+      <c r="J13" s="296"/>
+      <c r="K13" s="296"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="288"/>
-      <c r="B14" s="290"/>
-      <c r="C14" s="290"/>
-      <c r="D14" s="290"/>
-      <c r="E14" s="290"/>
-      <c r="F14" s="290"/>
-      <c r="G14" s="290"/>
-      <c r="H14" s="290"/>
-      <c r="I14" s="290"/>
-      <c r="J14" s="290"/>
-      <c r="K14" s="290"/>
+      <c r="A14" s="294"/>
+      <c r="B14" s="296"/>
+      <c r="C14" s="296"/>
+      <c r="D14" s="296"/>
+      <c r="E14" s="296"/>
+      <c r="F14" s="296"/>
+      <c r="G14" s="296"/>
+      <c r="H14" s="296"/>
+      <c r="I14" s="296"/>
+      <c r="J14" s="296"/>
+      <c r="K14" s="296"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="288">
+      <c r="A15" s="294">
         <v>2</v>
       </c>
-      <c r="B15" s="289" t="s">
+      <c r="B15" s="295" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="290"/>
-      <c r="D15" s="290"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="290"/>
-      <c r="I15" s="290"/>
-      <c r="J15" s="290"/>
-      <c r="K15" s="290"/>
+      <c r="C15" s="296"/>
+      <c r="D15" s="296"/>
+      <c r="E15" s="296"/>
+      <c r="F15" s="296"/>
+      <c r="G15" s="296"/>
+      <c r="H15" s="296"/>
+      <c r="I15" s="296"/>
+      <c r="J15" s="296"/>
+      <c r="K15" s="296"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="288"/>
-      <c r="B16" s="290"/>
-      <c r="C16" s="290"/>
-      <c r="D16" s="290"/>
-      <c r="E16" s="290"/>
-      <c r="F16" s="290"/>
-      <c r="G16" s="290"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="290"/>
-      <c r="J16" s="290"/>
-      <c r="K16" s="290"/>
+      <c r="A16" s="294"/>
+      <c r="B16" s="296"/>
+      <c r="C16" s="296"/>
+      <c r="D16" s="296"/>
+      <c r="E16" s="296"/>
+      <c r="F16" s="296"/>
+      <c r="G16" s="296"/>
+      <c r="H16" s="296"/>
+      <c r="I16" s="296"/>
+      <c r="J16" s="296"/>
+      <c r="K16" s="296"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="288"/>
-      <c r="B17" s="290"/>
-      <c r="C17" s="290"/>
-      <c r="D17" s="290"/>
-      <c r="E17" s="290"/>
-      <c r="F17" s="290"/>
-      <c r="G17" s="290"/>
-      <c r="H17" s="290"/>
-      <c r="I17" s="290"/>
-      <c r="J17" s="290"/>
-      <c r="K17" s="290"/>
+      <c r="A17" s="294"/>
+      <c r="B17" s="296"/>
+      <c r="C17" s="296"/>
+      <c r="D17" s="296"/>
+      <c r="E17" s="296"/>
+      <c r="F17" s="296"/>
+      <c r="G17" s="296"/>
+      <c r="H17" s="296"/>
+      <c r="I17" s="296"/>
+      <c r="J17" s="296"/>
+      <c r="K17" s="296"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="288"/>
-      <c r="B18" s="290"/>
-      <c r="C18" s="290"/>
-      <c r="D18" s="290"/>
-      <c r="E18" s="290"/>
-      <c r="F18" s="290"/>
-      <c r="G18" s="290"/>
-      <c r="H18" s="290"/>
-      <c r="I18" s="290"/>
-      <c r="J18" s="290"/>
-      <c r="K18" s="290"/>
+      <c r="A18" s="294"/>
+      <c r="B18" s="296"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="296"/>
+      <c r="E18" s="296"/>
+      <c r="F18" s="296"/>
+      <c r="G18" s="296"/>
+      <c r="H18" s="296"/>
+      <c r="I18" s="296"/>
+      <c r="J18" s="296"/>
+      <c r="K18" s="296"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="288"/>
-      <c r="B19" s="290"/>
-      <c r="C19" s="290"/>
-      <c r="D19" s="290"/>
-      <c r="E19" s="290"/>
-      <c r="F19" s="290"/>
-      <c r="G19" s="290"/>
-      <c r="H19" s="290"/>
-      <c r="I19" s="290"/>
-      <c r="J19" s="290"/>
-      <c r="K19" s="290"/>
+      <c r="A19" s="294"/>
+      <c r="B19" s="296"/>
+      <c r="C19" s="296"/>
+      <c r="D19" s="296"/>
+      <c r="E19" s="296"/>
+      <c r="F19" s="296"/>
+      <c r="G19" s="296"/>
+      <c r="H19" s="296"/>
+      <c r="I19" s="296"/>
+      <c r="J19" s="296"/>
+      <c r="K19" s="296"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="288"/>
-      <c r="B20" s="290"/>
-      <c r="C20" s="290"/>
-      <c r="D20" s="290"/>
-      <c r="E20" s="290"/>
-      <c r="F20" s="290"/>
-      <c r="G20" s="290"/>
-      <c r="H20" s="290"/>
-      <c r="I20" s="290"/>
-      <c r="J20" s="290"/>
-      <c r="K20" s="290"/>
+      <c r="A20" s="294"/>
+      <c r="B20" s="296"/>
+      <c r="C20" s="296"/>
+      <c r="D20" s="296"/>
+      <c r="E20" s="296"/>
+      <c r="F20" s="296"/>
+      <c r="G20" s="296"/>
+      <c r="H20" s="296"/>
+      <c r="I20" s="296"/>
+      <c r="J20" s="296"/>
+      <c r="K20" s="296"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3137,7 +4244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:U13"/>
   <sheetViews>
@@ -3180,34 +4287,34 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="291" t="s">
+      <c r="B9" s="297" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="291" t="s">
+      <c r="C9" s="298"/>
+      <c r="D9" s="298"/>
+      <c r="E9" s="298"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="297" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="291" t="s">
+      <c r="H9" s="298"/>
+      <c r="I9" s="298"/>
+      <c r="J9" s="298"/>
+      <c r="K9" s="299"/>
+      <c r="L9" s="297" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="292"/>
-      <c r="N9" s="292"/>
-      <c r="O9" s="292"/>
-      <c r="P9" s="293"/>
-      <c r="Q9" s="291" t="s">
+      <c r="M9" s="298"/>
+      <c r="N9" s="298"/>
+      <c r="O9" s="298"/>
+      <c r="P9" s="299"/>
+      <c r="Q9" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="292"/>
-      <c r="S9" s="292"/>
-      <c r="T9" s="292"/>
-      <c r="U9" s="293"/>
+      <c r="R9" s="298"/>
+      <c r="S9" s="298"/>
+      <c r="T9" s="298"/>
+      <c r="U9" s="299"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -3376,7 +4483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:U12"/>
   <sheetViews>
@@ -3411,34 +4518,34 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="291" t="s">
+      <c r="B9" s="297" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="292"/>
-      <c r="D9" s="292"/>
-      <c r="E9" s="292"/>
-      <c r="F9" s="293"/>
-      <c r="G9" s="291" t="s">
+      <c r="C9" s="298"/>
+      <c r="D9" s="298"/>
+      <c r="E9" s="298"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="297" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="293"/>
-      <c r="L9" s="291" t="s">
+      <c r="H9" s="298"/>
+      <c r="I9" s="298"/>
+      <c r="J9" s="298"/>
+      <c r="K9" s="299"/>
+      <c r="L9" s="297" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="292"/>
-      <c r="N9" s="292"/>
-      <c r="O9" s="292"/>
-      <c r="P9" s="293"/>
-      <c r="Q9" s="291" t="s">
+      <c r="M9" s="298"/>
+      <c r="N9" s="298"/>
+      <c r="O9" s="298"/>
+      <c r="P9" s="299"/>
+      <c r="Q9" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="292"/>
-      <c r="S9" s="292"/>
-      <c r="T9" s="292"/>
-      <c r="U9" s="293"/>
+      <c r="R9" s="298"/>
+      <c r="S9" s="298"/>
+      <c r="T9" s="298"/>
+      <c r="U9" s="299"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -3565,7 +4672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M64"/>
   <sheetViews>
@@ -3581,11 +4688,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="288" t="s">
+      <c r="A3" s="294" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="288"/>
-      <c r="C3" s="288"/>
+      <c r="B3" s="294"/>
+      <c r="C3" s="294"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -3610,11 +4717,11 @@
       <c r="C6" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="288" t="s">
+      <c r="A9" s="294" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="288"/>
-      <c r="C9" s="288"/>
+      <c r="B9" s="294"/>
+      <c r="C9" s="294"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -3657,11 +4764,11 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="288" t="s">
+      <c r="A15" s="294" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="288"/>
-      <c r="C15" s="288"/>
+      <c r="B15" s="294"/>
+      <c r="C15" s="294"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
         <v>1</v>
@@ -3736,11 +4843,11 @@
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="288" t="s">
+      <c r="A21" s="294" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="288"/>
-      <c r="C21" s="288"/>
+      <c r="B21" s="294"/>
+      <c r="C21" s="294"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>135</v>
@@ -3817,8 +4924,8 @@
       <c r="K26" s="230"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="288"/>
-      <c r="C27" s="288"/>
+      <c r="B27" s="294"/>
+      <c r="C27" s="294"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -3833,7 +4940,7 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="300" t="s">
+      <c r="F29" s="306" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="61" t="s">
@@ -3845,7 +4952,7 @@
       <c r="K29" s="66"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="301"/>
+      <c r="F30" s="307"/>
       <c r="G30" s="24" t="s">
         <v>51</v>
       </c>
@@ -3855,7 +4962,7 @@
       <c r="K30" s="65"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="301" t="s">
+      <c r="F31" s="307" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="24" t="s">
@@ -3867,7 +4974,7 @@
       <c r="K31" s="65"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="302"/>
+      <c r="F32" s="308"/>
       <c r="G32" s="64" t="s">
         <v>51</v>
       </c>
@@ -3877,8 +4984,8 @@
       <c r="K32" s="67"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="288"/>
-      <c r="C33" s="288"/>
+      <c r="B33" s="294"/>
+      <c r="C33" s="294"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -3903,10 +5010,10 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F36" s="294" t="s">
+      <c r="F36" s="300" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="303" t="s">
+      <c r="G36" s="309" t="s">
         <v>125</v>
       </c>
       <c r="H36" s="61" t="e">
@@ -3931,8 +5038,8 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F37" s="295"/>
-      <c r="G37" s="298"/>
+      <c r="F37" s="301"/>
+      <c r="G37" s="304"/>
       <c r="H37" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3955,8 +5062,8 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F38" s="295"/>
-      <c r="G38" s="298"/>
+      <c r="F38" s="301"/>
+      <c r="G38" s="304"/>
       <c r="H38" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -3979,8 +5086,8 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F39" s="295"/>
-      <c r="G39" s="298"/>
+      <c r="F39" s="301"/>
+      <c r="G39" s="304"/>
       <c r="H39" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -4003,7 +5110,7 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F40" s="295"/>
+      <c r="F40" s="301"/>
       <c r="G40" s="108"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -4012,8 +5119,8 @@
       <c r="M40" s="109"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F41" s="295"/>
-      <c r="G41" s="298" t="s">
+      <c r="F41" s="301"/>
+      <c r="G41" s="304" t="s">
         <v>135</v>
       </c>
       <c r="H41" s="24" t="e">
@@ -4038,8 +5145,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F42" s="295"/>
-      <c r="G42" s="298"/>
+      <c r="F42" s="301"/>
+      <c r="G42" s="304"/>
       <c r="H42" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4062,8 +5169,8 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F43" s="295"/>
-      <c r="G43" s="298"/>
+      <c r="F43" s="301"/>
+      <c r="G43" s="304"/>
       <c r="H43" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4086,8 +5193,8 @@
       </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="296"/>
-      <c r="G44" s="299"/>
+      <c r="F44" s="302"/>
+      <c r="G44" s="305"/>
       <c r="H44" s="64" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -4118,10 +5225,10 @@
       <c r="M45" s="109"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F46" s="294" t="s">
+      <c r="F46" s="300" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="297" t="s">
+      <c r="G46" s="303" t="s">
         <v>125</v>
       </c>
       <c r="H46" s="61" t="e">
@@ -4146,8 +5253,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F47" s="295"/>
-      <c r="G47" s="298"/>
+      <c r="F47" s="301"/>
+      <c r="G47" s="304"/>
       <c r="H47" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4170,8 +5277,8 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F48" s="295"/>
-      <c r="G48" s="298"/>
+      <c r="F48" s="301"/>
+      <c r="G48" s="304"/>
       <c r="H48" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4194,8 +5301,8 @@
       </c>
     </row>
     <row r="49" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F49" s="295"/>
-      <c r="G49" s="298"/>
+      <c r="F49" s="301"/>
+      <c r="G49" s="304"/>
       <c r="H49" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -4218,7 +5325,7 @@
       </c>
     </row>
     <row r="50" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F50" s="295"/>
+      <c r="F50" s="301"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
@@ -4227,8 +5334,8 @@
       <c r="M50" s="109"/>
     </row>
     <row r="51" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F51" s="295"/>
-      <c r="G51" s="298" t="s">
+      <c r="F51" s="301"/>
+      <c r="G51" s="304" t="s">
         <v>135</v>
       </c>
       <c r="H51" s="24" t="e">
@@ -4253,8 +5360,8 @@
       </c>
     </row>
     <row r="52" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F52" s="295"/>
-      <c r="G52" s="298"/>
+      <c r="F52" s="301"/>
+      <c r="G52" s="304"/>
       <c r="H52" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4277,8 +5384,8 @@
       </c>
     </row>
     <row r="53" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F53" s="295"/>
-      <c r="G53" s="298"/>
+      <c r="F53" s="301"/>
+      <c r="G53" s="304"/>
       <c r="H53" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4301,8 +5408,8 @@
       </c>
     </row>
     <row r="54" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="296"/>
-      <c r="G54" s="299"/>
+      <c r="F54" s="302"/>
+      <c r="G54" s="305"/>
       <c r="H54" s="64" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -4526,12 +5633,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
     <mergeCell ref="F46:F54"/>
     <mergeCell ref="G46:G49"/>
     <mergeCell ref="G51:G54"/>
@@ -4540,12 +5641,18 @@
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="F36:F44"/>
     <mergeCell ref="G41:G44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C15"/>
   <sheetViews>
@@ -4895,13 +6002,3535 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
+  <dimension ref="A1:L186"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="6" max="9" width="17.42578125" style="413" customWidth="1"/>
+    <col min="10" max="11" width="17.42578125" style="434" customWidth="1"/>
+    <col min="12" max="12" width="34.42578125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="281" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="282" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" s="282"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="283" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="283"/>
+      <c r="J2" s="425"/>
+      <c r="K2" s="425"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="384" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="384" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" s="384" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3" s="384" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="425" t="s">
+        <v>231</v>
+      </c>
+      <c r="K3" s="425" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="312" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="312" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="312"/>
+      <c r="E4" s="312" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="385">
+        <f>Cons!C14</f>
+        <v>0.12079371023451572</v>
+      </c>
+      <c r="G4" s="385">
+        <f>Cons!D14</f>
+        <v>4.2415793904524074E-2</v>
+      </c>
+      <c r="H4" s="385">
+        <f>Cons!E14</f>
+        <v>0.19462965861026471</v>
+      </c>
+      <c r="I4" s="385">
+        <f>Cons!F14</f>
+        <v>0.21593351890128706</v>
+      </c>
+      <c r="J4" s="385">
+        <f>Cons!G14</f>
+        <v>0.18892074881019635</v>
+      </c>
+      <c r="K4" s="385">
+        <f>Cons!H14</f>
+        <v>0.25517127421595392</v>
+      </c>
+      <c r="L4" s="242" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="312"/>
+      <c r="C5" s="312" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="385">
+        <f>Cons!C15</f>
+        <v>8.3610584537755148E-2</v>
+      </c>
+      <c r="G5" s="385">
+        <f>Cons!D15</f>
+        <v>4.3408156664805068E-2</v>
+      </c>
+      <c r="H5" s="385">
+        <f>Cons!E15</f>
+        <v>9.5916827495144824E-2</v>
+      </c>
+      <c r="I5" s="385">
+        <f>Cons!F15</f>
+        <v>0.10555606283372089</v>
+      </c>
+      <c r="J5" s="385">
+        <f>Cons!G15</f>
+        <v>9.043483338215888E-2</v>
+      </c>
+      <c r="K5" s="385">
+        <f>Cons!H15</f>
+        <v>0.10023702611358462</v>
+      </c>
+      <c r="L5" s="242"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="312"/>
+      <c r="C6" s="312" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="312"/>
+      <c r="E6" s="312"/>
+      <c r="F6" s="385">
+        <f>Cons!C16</f>
+        <v>4.0096853001184721E-2</v>
+      </c>
+      <c r="G6" s="385">
+        <f>Cons!D16</f>
+        <v>2.4443455081113341E-2</v>
+      </c>
+      <c r="H6" s="385">
+        <f>Cons!E16</f>
+        <v>4.932983018661459E-2</v>
+      </c>
+      <c r="I6" s="385">
+        <f>Cons!F16</f>
+        <v>5.9669868956309331E-2</v>
+      </c>
+      <c r="J6" s="385">
+        <f>Cons!G16</f>
+        <v>5.4356685330991299E-2</v>
+      </c>
+      <c r="K6" s="385">
+        <f>Cons!H16</f>
+        <v>6.2300707325195492E-2</v>
+      </c>
+      <c r="L6" s="242"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="312"/>
+      <c r="C7" s="312" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
+      <c r="F7" s="385">
+        <f>Cons!C17</f>
+        <v>1.9105061595308316E-2</v>
+      </c>
+      <c r="G7" s="385">
+        <f>Cons!D17</f>
+        <v>2.3052080442418733E-2</v>
+      </c>
+      <c r="H7" s="385">
+        <f>Cons!E17</f>
+        <v>4.9520909162855484E-3</v>
+      </c>
+      <c r="I7" s="385">
+        <f>Cons!F17</f>
+        <v>1.3589944102820618E-2</v>
+      </c>
+      <c r="J7" s="385">
+        <f>Cons!G17</f>
+        <v>2.8511464607947155E-3</v>
+      </c>
+      <c r="K7" s="385">
+        <f>Cons!H17</f>
+        <v>2.7085177061429667E-3</v>
+      </c>
+      <c r="L7" s="242"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="312"/>
+      <c r="C8" s="312" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="312"/>
+      <c r="E8" s="312"/>
+      <c r="F8" s="385">
+        <f>Cons!C18</f>
+        <v>0.25699237158971638</v>
+      </c>
+      <c r="G8" s="385">
+        <f>Cons!D18</f>
+        <v>0.30317005939317654</v>
+      </c>
+      <c r="H8" s="385">
+        <f>Cons!E18</f>
+        <v>0.41522885801132103</v>
+      </c>
+      <c r="I8" s="385">
+        <f>Cons!F18</f>
+        <v>0.33049300775369</v>
+      </c>
+      <c r="J8" s="385">
+        <f>Cons!G18</f>
+        <v>0.33089097779614302</v>
+      </c>
+      <c r="K8" s="385">
+        <f>Cons!H18</f>
+        <v>0.34273694295748236</v>
+      </c>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="312"/>
+      <c r="C9" s="312" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="312"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="385">
+        <f>Cons!C19</f>
+        <v>0.13007296263408813</v>
+      </c>
+      <c r="G9" s="385">
+        <f>Cons!D19</f>
+        <v>9.5156293001938466E-2</v>
+      </c>
+      <c r="H9" s="385">
+        <f>Cons!E19</f>
+        <v>8.1791704277047766E-2</v>
+      </c>
+      <c r="I9" s="385">
+        <f>Cons!F19</f>
+        <v>8.5052574379863105E-2</v>
+      </c>
+      <c r="J9" s="385">
+        <f>Cons!G19</f>
+        <v>0.10766130211829444</v>
+      </c>
+      <c r="K9" s="385">
+        <f>Cons!H19</f>
+        <v>0.11157531423868909</v>
+      </c>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="312"/>
+      <c r="C10" s="312" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="312"/>
+      <c r="E10" s="312"/>
+      <c r="F10" s="385">
+        <f>Cons!C20</f>
+        <v>0.3493284564074316</v>
+      </c>
+      <c r="G10" s="385">
+        <f>Cons!D20</f>
+        <v>0.4683541615120238</v>
+      </c>
+      <c r="H10" s="385">
+        <f>Cons!E20</f>
+        <v>0.15815103050332152</v>
+      </c>
+      <c r="I10" s="385">
+        <f>Cons!F20</f>
+        <v>0.18970502307230896</v>
+      </c>
+      <c r="J10" s="385">
+        <f>Cons!G20</f>
+        <v>0.22488430610142129</v>
+      </c>
+      <c r="K10" s="385">
+        <f>Cons!H20</f>
+        <v>0.12527021744295153</v>
+      </c>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="330" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="331" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="331"/>
+      <c r="E11" s="332"/>
+      <c r="F11" s="386">
+        <f>F4/10</f>
+        <v>1.2079371023451572E-2</v>
+      </c>
+      <c r="G11" s="327">
+        <f t="shared" ref="G11:K11" si="0">G4/10</f>
+        <v>4.241579390452407E-3</v>
+      </c>
+      <c r="H11" s="327">
+        <f t="shared" si="0"/>
+        <v>1.9462965861026471E-2</v>
+      </c>
+      <c r="I11" s="327">
+        <f t="shared" si="0"/>
+        <v>2.1593351890128707E-2</v>
+      </c>
+      <c r="J11" s="327">
+        <f t="shared" si="0"/>
+        <v>1.8892074881019634E-2</v>
+      </c>
+      <c r="K11" s="327">
+        <f t="shared" si="0"/>
+        <v>2.5517127421595391E-2</v>
+      </c>
+      <c r="L11" s="320" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="333"/>
+      <c r="C12" s="334" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="334"/>
+      <c r="E12" s="335"/>
+      <c r="F12" s="387">
+        <f t="shared" ref="F12:K12" si="1">F5/10</f>
+        <v>8.3610584537755148E-3</v>
+      </c>
+      <c r="G12" s="328">
+        <f t="shared" si="1"/>
+        <v>4.3408156664805067E-3</v>
+      </c>
+      <c r="H12" s="328">
+        <f t="shared" si="1"/>
+        <v>9.5916827495144824E-3</v>
+      </c>
+      <c r="I12" s="328">
+        <f t="shared" si="1"/>
+        <v>1.0555606283372088E-2</v>
+      </c>
+      <c r="J12" s="328">
+        <f t="shared" si="1"/>
+        <v>9.0434833382158873E-3</v>
+      </c>
+      <c r="K12" s="328">
+        <f t="shared" si="1"/>
+        <v>1.0023702611358463E-2</v>
+      </c>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="333"/>
+      <c r="C13" s="334" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="334"/>
+      <c r="E13" s="335"/>
+      <c r="F13" s="387">
+        <f t="shared" ref="F13:K13" si="2">F6/10</f>
+        <v>4.0096853001184724E-3</v>
+      </c>
+      <c r="G13" s="328">
+        <f t="shared" si="2"/>
+        <v>2.4443455081113339E-3</v>
+      </c>
+      <c r="H13" s="328">
+        <f t="shared" si="2"/>
+        <v>4.9329830186614588E-3</v>
+      </c>
+      <c r="I13" s="328">
+        <f t="shared" si="2"/>
+        <v>5.9669868956309328E-3</v>
+      </c>
+      <c r="J13" s="328">
+        <f t="shared" si="2"/>
+        <v>5.4356685330991302E-3</v>
+      </c>
+      <c r="K13" s="328">
+        <f t="shared" si="2"/>
+        <v>6.2300707325195492E-3</v>
+      </c>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="333"/>
+      <c r="C14" s="334" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="334"/>
+      <c r="E14" s="335"/>
+      <c r="F14" s="387">
+        <f t="shared" ref="F14:K14" si="3">F7/10</f>
+        <v>1.9105061595308317E-3</v>
+      </c>
+      <c r="G14" s="328">
+        <f t="shared" si="3"/>
+        <v>2.3052080442418732E-3</v>
+      </c>
+      <c r="H14" s="328">
+        <f t="shared" si="3"/>
+        <v>4.9520909162855482E-4</v>
+      </c>
+      <c r="I14" s="328">
+        <f t="shared" si="3"/>
+        <v>1.3589944102820619E-3</v>
+      </c>
+      <c r="J14" s="328">
+        <f t="shared" si="3"/>
+        <v>2.8511464607947155E-4</v>
+      </c>
+      <c r="K14" s="328">
+        <f t="shared" si="3"/>
+        <v>2.7085177061429667E-4</v>
+      </c>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="333"/>
+      <c r="C15" s="334" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="334"/>
+      <c r="E15" s="335"/>
+      <c r="F15" s="387">
+        <f t="shared" ref="F15:K15" si="4">F8/10</f>
+        <v>2.5699237158971638E-2</v>
+      </c>
+      <c r="G15" s="328">
+        <f t="shared" si="4"/>
+        <v>3.0317005939317652E-2</v>
+      </c>
+      <c r="H15" s="328">
+        <f t="shared" si="4"/>
+        <v>4.1522885801132101E-2</v>
+      </c>
+      <c r="I15" s="328">
+        <f t="shared" si="4"/>
+        <v>3.3049300775369002E-2</v>
+      </c>
+      <c r="J15" s="328">
+        <f t="shared" si="4"/>
+        <v>3.3089097779614302E-2</v>
+      </c>
+      <c r="K15" s="328">
+        <f t="shared" si="4"/>
+        <v>3.4273694295748239E-2</v>
+      </c>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="333"/>
+      <c r="C16" s="334" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="334"/>
+      <c r="E16" s="335"/>
+      <c r="F16" s="387">
+        <f t="shared" ref="F16:K16" si="5">F9/10</f>
+        <v>1.3007296263408814E-2</v>
+      </c>
+      <c r="G16" s="328">
+        <f t="shared" si="5"/>
+        <v>9.5156293001938466E-3</v>
+      </c>
+      <c r="H16" s="328">
+        <f t="shared" si="5"/>
+        <v>8.1791704277047773E-3</v>
+      </c>
+      <c r="I16" s="328">
+        <f t="shared" si="5"/>
+        <v>8.5052574379863109E-3</v>
+      </c>
+      <c r="J16" s="328">
+        <f t="shared" si="5"/>
+        <v>1.0766130211829445E-2</v>
+      </c>
+      <c r="K16" s="328">
+        <f t="shared" si="5"/>
+        <v>1.1157531423868909E-2</v>
+      </c>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="336"/>
+      <c r="C17" s="337" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="337"/>
+      <c r="E17" s="338"/>
+      <c r="F17" s="388">
+        <f t="shared" ref="F17:K17" si="6">F10/10</f>
+        <v>3.4932845640743157E-2</v>
+      </c>
+      <c r="G17" s="329">
+        <f t="shared" si="6"/>
+        <v>4.6835416151202382E-2</v>
+      </c>
+      <c r="H17" s="329">
+        <f t="shared" si="6"/>
+        <v>1.5815103050332152E-2</v>
+      </c>
+      <c r="I17" s="329">
+        <f t="shared" si="6"/>
+        <v>1.8970502307230897E-2</v>
+      </c>
+      <c r="J17" s="329">
+        <f t="shared" si="6"/>
+        <v>2.2488430610142128E-2</v>
+      </c>
+      <c r="K17" s="329">
+        <f t="shared" si="6"/>
+        <v>1.2527021744295153E-2</v>
+      </c>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="339" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="340" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="340"/>
+      <c r="E18" s="341"/>
+      <c r="F18" s="389"/>
+      <c r="G18" s="314"/>
+      <c r="H18" s="314"/>
+      <c r="I18" s="314"/>
+      <c r="J18" s="314"/>
+      <c r="K18" s="314"/>
+      <c r="L18" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="316"/>
+      <c r="C19" s="313" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="313"/>
+      <c r="E19" s="342"/>
+      <c r="F19" s="390"/>
+      <c r="G19" s="315"/>
+      <c r="H19" s="315"/>
+      <c r="I19" s="315"/>
+      <c r="J19" s="315"/>
+      <c r="K19" s="315"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="316"/>
+      <c r="C20" s="313" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="313"/>
+      <c r="E20" s="342"/>
+      <c r="F20" s="391"/>
+      <c r="G20" s="342"/>
+      <c r="H20" s="342"/>
+      <c r="I20" s="342"/>
+      <c r="J20" s="317"/>
+      <c r="K20" s="317"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="316"/>
+      <c r="C21" s="313" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="313"/>
+      <c r="E21" s="342"/>
+      <c r="F21" s="392"/>
+      <c r="G21" s="318"/>
+      <c r="H21" s="318"/>
+      <c r="I21" s="318"/>
+      <c r="J21" s="318"/>
+      <c r="K21" s="318"/>
+      <c r="L21" s="242"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="316"/>
+      <c r="C22" s="313" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="313"/>
+      <c r="E22" s="342"/>
+      <c r="F22" s="392"/>
+      <c r="G22" s="318"/>
+      <c r="H22" s="318"/>
+      <c r="I22" s="318"/>
+      <c r="J22" s="318"/>
+      <c r="K22" s="318"/>
+      <c r="L22" s="242"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="316"/>
+      <c r="C23" s="313" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="313"/>
+      <c r="E23" s="342"/>
+      <c r="F23" s="392"/>
+      <c r="G23" s="318"/>
+      <c r="H23" s="318"/>
+      <c r="I23" s="318"/>
+      <c r="J23" s="318"/>
+      <c r="K23" s="318"/>
+      <c r="L23" s="242"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="343"/>
+      <c r="C24" s="344" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="344"/>
+      <c r="E24" s="345"/>
+      <c r="F24" s="393"/>
+      <c r="G24" s="319"/>
+      <c r="H24" s="319"/>
+      <c r="I24" s="319"/>
+      <c r="J24" s="319"/>
+      <c r="K24" s="319"/>
+      <c r="L24" s="242"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="352" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="353" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="353"/>
+      <c r="E25" s="354"/>
+      <c r="F25" s="454">
+        <f>Fish!C3</f>
+        <v>20994.603755950928</v>
+      </c>
+      <c r="G25" s="455">
+        <f>Fish!D3</f>
+        <v>61609.917491912842</v>
+      </c>
+      <c r="H25" s="455"/>
+      <c r="I25" s="455"/>
+      <c r="J25" s="455"/>
+      <c r="K25" s="455"/>
+      <c r="L25" s="243" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="352" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="353" t="s">
+        <v>228</v>
+      </c>
+      <c r="D26" s="353" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="354"/>
+      <c r="F26" s="394"/>
+      <c r="G26" s="394"/>
+      <c r="H26" s="394"/>
+      <c r="I26" s="394"/>
+      <c r="J26" s="394"/>
+      <c r="K26" s="394"/>
+      <c r="L26" s="243" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="355" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="E27" s="356"/>
+      <c r="F27" s="394"/>
+      <c r="G27" s="394"/>
+      <c r="H27" s="394"/>
+      <c r="I27" s="394"/>
+      <c r="J27" s="394"/>
+      <c r="K27" s="394"/>
+      <c r="L27" s="243"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="355" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E28" s="356"/>
+      <c r="F28" s="394"/>
+      <c r="G28" s="394"/>
+      <c r="H28" s="394"/>
+      <c r="I28" s="394"/>
+      <c r="J28" s="394"/>
+      <c r="K28" s="394"/>
+      <c r="L28" s="243"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="355" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="E29" s="356"/>
+      <c r="F29" s="394"/>
+      <c r="G29" s="394"/>
+      <c r="H29" s="394"/>
+      <c r="I29" s="394"/>
+      <c r="J29" s="394"/>
+      <c r="K29" s="394"/>
+      <c r="L29" s="243"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="355" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="356"/>
+      <c r="F30" s="394"/>
+      <c r="G30" s="394"/>
+      <c r="H30" s="394"/>
+      <c r="I30" s="394"/>
+      <c r="J30" s="394"/>
+      <c r="K30" s="394"/>
+      <c r="L30" s="243"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="355" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="356"/>
+      <c r="F31" s="394"/>
+      <c r="G31" s="394"/>
+      <c r="H31" s="394"/>
+      <c r="I31" s="394"/>
+      <c r="J31" s="394"/>
+      <c r="K31" s="394"/>
+      <c r="L31" s="243"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="357" t="s">
+        <v>255</v>
+      </c>
+      <c r="C32" s="358" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="358" t="s">
+        <v>240</v>
+      </c>
+      <c r="E32" s="359"/>
+      <c r="F32" s="394"/>
+      <c r="G32" s="394"/>
+      <c r="H32" s="394"/>
+      <c r="I32" s="394"/>
+      <c r="J32" s="394"/>
+      <c r="K32" s="394"/>
+      <c r="L32" s="243"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="346" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" s="347" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="347"/>
+      <c r="E33" s="348" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="395">
+        <f>Fish!C10</f>
+        <v>9.3833760785694026E-2</v>
+      </c>
+      <c r="G33" s="414">
+        <f>Fish!F10</f>
+        <v>0.13424410756191071</v>
+      </c>
+      <c r="H33" s="321"/>
+      <c r="I33" s="321"/>
+      <c r="J33" s="321"/>
+      <c r="K33" s="321"/>
+      <c r="L33" s="243" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="346" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="347" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" s="347"/>
+      <c r="E34" s="348" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="396">
+        <f>Fish!C11</f>
+        <v>0.47889167678351297</v>
+      </c>
+      <c r="G34" s="415">
+        <f>Fish!F11</f>
+        <v>0.27044208434582551</v>
+      </c>
+      <c r="H34" s="322"/>
+      <c r="I34" s="322"/>
+      <c r="J34" s="322"/>
+      <c r="K34" s="322"/>
+      <c r="L34" s="243"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="346" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="347" t="s">
+        <v>228</v>
+      </c>
+      <c r="D35" s="347"/>
+      <c r="E35" s="348" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="396">
+        <f>Fish!C12</f>
+        <v>1.7287341950583346E-2</v>
+      </c>
+      <c r="G35" s="415">
+        <f>Fish!F12</f>
+        <v>7.7140958733354192E-2</v>
+      </c>
+      <c r="H35" s="323"/>
+      <c r="I35" s="323"/>
+      <c r="J35" s="323"/>
+      <c r="K35" s="323"/>
+      <c r="L35" s="243"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="349" t="s">
+        <v>251</v>
+      </c>
+      <c r="C36" s="350" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="350"/>
+      <c r="E36" s="351" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="397">
+        <f>Fish!C13</f>
+        <v>0.40998722048021063</v>
+      </c>
+      <c r="G36" s="416">
+        <f>Fish!F13</f>
+        <v>0.51817284935890662</v>
+      </c>
+      <c r="H36" s="324"/>
+      <c r="I36" s="324"/>
+      <c r="J36" s="324"/>
+      <c r="K36" s="324"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="352" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="353" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="353"/>
+      <c r="E37" s="354" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="398">
+        <f>Fish!D10</f>
+        <v>7.1856867244095707E-2</v>
+      </c>
+      <c r="G37" s="417">
+        <f>Fish!G10</f>
+        <v>0.1141821752038234</v>
+      </c>
+      <c r="H37" s="325"/>
+      <c r="I37" s="325"/>
+      <c r="J37" s="325"/>
+      <c r="K37" s="325"/>
+      <c r="L37" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="355" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="356" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="399">
+        <f>Fish!D11</f>
+        <v>5.5112282645096954E-2</v>
+      </c>
+      <c r="G38" s="418">
+        <f>Fish!G11</f>
+        <v>8.5461973648246051E-2</v>
+      </c>
+      <c r="H38" s="326"/>
+      <c r="I38" s="326"/>
+      <c r="J38" s="326"/>
+      <c r="K38" s="326"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="355" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="356" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="399">
+        <f>Fish!D12</f>
+        <v>4.4576688459373549E-2</v>
+      </c>
+      <c r="G39" s="418">
+        <f>Fish!G12</f>
+        <v>0.10227471789339765</v>
+      </c>
+      <c r="H39" s="326"/>
+      <c r="I39" s="326"/>
+      <c r="J39" s="326"/>
+      <c r="K39" s="326"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="355" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="356" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="399">
+        <f>Fish!D13</f>
+        <v>5.8684969644739834E-2</v>
+      </c>
+      <c r="G40" s="418">
+        <f>Fish!G13</f>
+        <v>8.4764499759859904E-2</v>
+      </c>
+      <c r="H40" s="326"/>
+      <c r="I40" s="326"/>
+      <c r="J40" s="326"/>
+      <c r="K40" s="326"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="367" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" s="368" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="368"/>
+      <c r="E41" s="369"/>
+      <c r="F41" s="440">
+        <f>Fish!C14</f>
+        <v>2.1411559282179748</v>
+      </c>
+      <c r="G41" s="441">
+        <f>Fish!F14</f>
+        <v>1.9431455923076939</v>
+      </c>
+      <c r="H41" s="442"/>
+      <c r="I41" s="442"/>
+      <c r="J41" s="442"/>
+      <c r="K41" s="442"/>
+      <c r="L41" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="370" t="s">
+        <v>254</v>
+      </c>
+      <c r="C42" s="371" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" s="371"/>
+      <c r="E42" s="372"/>
+      <c r="F42" s="443">
+        <f>Fish!D14</f>
+        <v>0.12779024981246512</v>
+      </c>
+      <c r="G42" s="444">
+        <f>Fish!G14</f>
+        <v>0.1594443864437553</v>
+      </c>
+      <c r="H42" s="445"/>
+      <c r="I42" s="445"/>
+      <c r="J42" s="445"/>
+      <c r="K42" s="445"/>
+      <c r="L42" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="374" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="375" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="375"/>
+      <c r="E43" s="375"/>
+      <c r="F43" s="456"/>
+      <c r="G43" s="457"/>
+      <c r="H43" s="458">
+        <f>Crop!E3</f>
+        <v>397.23975270986557</v>
+      </c>
+      <c r="I43" s="458"/>
+      <c r="J43" s="458">
+        <f>Crop!G3</f>
+        <v>997.74024230241776</v>
+      </c>
+      <c r="K43" s="457"/>
+      <c r="L43" s="243" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="374" t="s">
+        <v>255</v>
+      </c>
+      <c r="C44" s="375" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="375" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="376"/>
+      <c r="F44" s="383"/>
+      <c r="G44" s="383"/>
+      <c r="H44" s="383"/>
+      <c r="I44" s="383"/>
+      <c r="J44" s="383"/>
+      <c r="K44" s="383"/>
+      <c r="L44" s="243" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="377" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="378" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="378" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" s="379"/>
+      <c r="F45" s="383"/>
+      <c r="G45" s="383"/>
+      <c r="H45" s="383"/>
+      <c r="I45" s="383"/>
+      <c r="J45" s="383"/>
+      <c r="K45" s="383"/>
+      <c r="L45" s="243"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="377" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="378" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="378" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" s="379"/>
+      <c r="F46" s="383"/>
+      <c r="G46" s="383"/>
+      <c r="H46" s="383"/>
+      <c r="I46" s="383"/>
+      <c r="J46" s="383"/>
+      <c r="K46" s="383"/>
+      <c r="L46" s="243"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="377" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="378" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="378" t="s">
+        <v>239</v>
+      </c>
+      <c r="E47" s="379"/>
+      <c r="F47" s="383"/>
+      <c r="G47" s="383"/>
+      <c r="H47" s="383"/>
+      <c r="I47" s="383"/>
+      <c r="J47" s="383"/>
+      <c r="K47" s="383"/>
+      <c r="L47" s="243"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="377" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="378" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="378" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="379"/>
+      <c r="F48" s="383"/>
+      <c r="G48" s="383"/>
+      <c r="H48" s="383"/>
+      <c r="I48" s="383"/>
+      <c r="J48" s="383"/>
+      <c r="K48" s="383"/>
+      <c r="L48" s="243"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="377" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="378" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="378" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" s="379"/>
+      <c r="F49" s="383"/>
+      <c r="G49" s="383"/>
+      <c r="H49" s="383"/>
+      <c r="I49" s="383"/>
+      <c r="J49" s="383"/>
+      <c r="K49" s="383"/>
+      <c r="L49" s="243"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="380" t="s">
+        <v>255</v>
+      </c>
+      <c r="C50" s="378" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="381" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" s="382"/>
+      <c r="F50" s="383"/>
+      <c r="G50" s="383"/>
+      <c r="H50" s="383"/>
+      <c r="I50" s="383"/>
+      <c r="J50" s="383"/>
+      <c r="K50" s="383"/>
+      <c r="L50" s="243"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="360" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="361" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="361"/>
+      <c r="E51" s="361" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="446"/>
+      <c r="G51" s="446"/>
+      <c r="H51" s="447">
+        <f>Crop!C10</f>
+        <v>9.2643213611260017E-2</v>
+      </c>
+      <c r="I51" s="446"/>
+      <c r="J51" s="447">
+        <f>Crop!F10</f>
+        <v>0.16223868718423781</v>
+      </c>
+      <c r="K51" s="446"/>
+      <c r="L51" s="243" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="362" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="363" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="363"/>
+      <c r="E52" s="363" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="364"/>
+      <c r="G52" s="364"/>
+      <c r="H52" s="438">
+        <f>Crop!C11</f>
+        <v>0.27830693183202726</v>
+      </c>
+      <c r="I52" s="364"/>
+      <c r="J52" s="438">
+        <f>Crop!F11</f>
+        <v>0.15896398846955861</v>
+      </c>
+      <c r="K52" s="436"/>
+      <c r="L52" s="243"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="362" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="363" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="363"/>
+      <c r="E53" s="363" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="437"/>
+      <c r="G53" s="437"/>
+      <c r="H53" s="438">
+        <f>Crop!C12</f>
+        <v>0.25137307817180243</v>
+      </c>
+      <c r="I53" s="437"/>
+      <c r="J53" s="438">
+        <f>Crop!F12</f>
+        <v>0.30713199952520576</v>
+      </c>
+      <c r="K53" s="437"/>
+      <c r="L53" s="243"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="365" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" s="366" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="366"/>
+      <c r="E54" s="366" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="448"/>
+      <c r="G54" s="448"/>
+      <c r="H54" s="449">
+        <f>Crop!C13</f>
+        <v>0.37767677638492714</v>
+      </c>
+      <c r="I54" s="448"/>
+      <c r="J54" s="449">
+        <f>Crop!F13</f>
+        <v>0.37166532482099512</v>
+      </c>
+      <c r="K54" s="448"/>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="377" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" s="378" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="378"/>
+      <c r="E55" s="378" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="383"/>
+      <c r="G55" s="383"/>
+      <c r="H55" s="439">
+        <f>Crop!D10</f>
+        <v>3.7292685924097596E-2</v>
+      </c>
+      <c r="I55" s="383"/>
+      <c r="J55" s="439">
+        <f>Crop!G10</f>
+        <v>3.342549904533245E-2</v>
+      </c>
+      <c r="K55" s="383"/>
+      <c r="L55" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="377" t="s">
+        <v>252</v>
+      </c>
+      <c r="C56" s="378" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="378"/>
+      <c r="E56" s="378" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="383"/>
+      <c r="G56" s="383"/>
+      <c r="H56" s="439">
+        <f>Crop!D11</f>
+        <v>0.10799127710581252</v>
+      </c>
+      <c r="I56" s="383"/>
+      <c r="J56" s="439">
+        <f>Crop!G11</f>
+        <v>6.0608741297454388E-2</v>
+      </c>
+      <c r="K56" s="383"/>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="377" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="378" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="378"/>
+      <c r="E57" s="378" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="383"/>
+      <c r="G57" s="383"/>
+      <c r="H57" s="439">
+        <f>Crop!D12</f>
+        <v>6.1948403679740326E-2</v>
+      </c>
+      <c r="I57" s="383"/>
+      <c r="J57" s="439">
+        <f>Crop!G12</f>
+        <v>7.1440792857828922E-2</v>
+      </c>
+      <c r="K57" s="383"/>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="377" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="378" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="378"/>
+      <c r="E58" s="378" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="383"/>
+      <c r="G58" s="383"/>
+      <c r="H58" s="439">
+        <f>Crop!D13</f>
+        <v>9.1084992860736583E-2</v>
+      </c>
+      <c r="I58" s="383"/>
+      <c r="J58" s="439">
+        <f>Crop!G13</f>
+        <v>7.938956879359764E-2</v>
+      </c>
+      <c r="K58" s="383"/>
+      <c r="L58" s="8"/>
+    </row>
+    <row r="59" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="360" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="361" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="361"/>
+      <c r="E59" s="361"/>
+      <c r="F59" s="450"/>
+      <c r="G59" s="450"/>
+      <c r="H59" s="451">
+        <f>Crop!C14</f>
+        <v>4.7389959018133823</v>
+      </c>
+      <c r="I59" s="450"/>
+      <c r="J59" s="451">
+        <f>Crop!F14</f>
+        <v>3.5848711072709989</v>
+      </c>
+      <c r="K59" s="450"/>
+      <c r="L59" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="365" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" s="366" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="366"/>
+      <c r="E60" s="366"/>
+      <c r="F60" s="452"/>
+      <c r="G60" s="452"/>
+      <c r="H60" s="453">
+        <f>Crop!D14</f>
+        <v>0.98700664207863353</v>
+      </c>
+      <c r="I60" s="452"/>
+      <c r="J60" s="453">
+        <f>Crop!G14</f>
+        <v>0.5757752710821068</v>
+      </c>
+      <c r="K60" s="452"/>
+      <c r="L60" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="459" t="s">
+        <v>233</v>
+      </c>
+      <c r="C61" s="460" t="s">
+        <v>263</v>
+      </c>
+      <c r="D61" s="460"/>
+      <c r="E61" s="460"/>
+      <c r="F61" s="461"/>
+      <c r="G61" s="462"/>
+      <c r="H61" s="463"/>
+      <c r="I61" s="463"/>
+      <c r="J61" s="463"/>
+      <c r="K61" s="462"/>
+      <c r="L61" s="8"/>
+    </row>
+    <row r="62" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="459" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="460" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="460" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="464"/>
+      <c r="F62" s="465"/>
+      <c r="G62" s="465"/>
+      <c r="H62" s="465"/>
+      <c r="I62" s="465"/>
+      <c r="J62" s="465"/>
+      <c r="K62" s="465"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="466" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" s="467" t="s">
+        <v>239</v>
+      </c>
+      <c r="D63" s="467" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63" s="468"/>
+      <c r="F63" s="465"/>
+      <c r="G63" s="465"/>
+      <c r="H63" s="465"/>
+      <c r="I63" s="465"/>
+      <c r="J63" s="465"/>
+      <c r="K63" s="465"/>
+      <c r="L63" s="8"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="466" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" s="467" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" s="467" t="s">
+        <v>237</v>
+      </c>
+      <c r="E64" s="468"/>
+      <c r="F64" s="465"/>
+      <c r="G64" s="465"/>
+      <c r="H64" s="465"/>
+      <c r="I64" s="465"/>
+      <c r="J64" s="465"/>
+      <c r="K64" s="465"/>
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="466" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="467" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" s="467" t="s">
+        <v>239</v>
+      </c>
+      <c r="E65" s="468"/>
+      <c r="F65" s="465"/>
+      <c r="G65" s="465"/>
+      <c r="H65" s="465"/>
+      <c r="I65" s="465"/>
+      <c r="J65" s="465"/>
+      <c r="K65" s="465"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="466" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="467" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="467" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="468"/>
+      <c r="F66" s="465"/>
+      <c r="G66" s="465"/>
+      <c r="H66" s="465"/>
+      <c r="I66" s="465"/>
+      <c r="J66" s="465"/>
+      <c r="K66" s="465"/>
+      <c r="L66" s="9"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="466" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="467" t="s">
+        <v>239</v>
+      </c>
+      <c r="D67" s="467" t="s">
+        <v>238</v>
+      </c>
+      <c r="E67" s="468"/>
+      <c r="F67" s="465"/>
+      <c r="G67" s="465"/>
+      <c r="H67" s="465"/>
+      <c r="I67" s="465"/>
+      <c r="J67" s="465"/>
+      <c r="K67" s="465"/>
+      <c r="L67" s="9"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="469" t="s">
+        <v>255</v>
+      </c>
+      <c r="C68" s="470" t="s">
+        <v>239</v>
+      </c>
+      <c r="D68" s="470" t="s">
+        <v>240</v>
+      </c>
+      <c r="E68" s="471"/>
+      <c r="F68" s="465"/>
+      <c r="G68" s="465"/>
+      <c r="H68" s="465"/>
+      <c r="I68" s="465"/>
+      <c r="J68" s="465"/>
+      <c r="K68" s="465"/>
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="459" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" s="460" t="s">
+        <v>239</v>
+      </c>
+      <c r="D69" s="460"/>
+      <c r="E69" s="460" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="472"/>
+      <c r="G69" s="472"/>
+      <c r="H69" s="473"/>
+      <c r="I69" s="472"/>
+      <c r="J69" s="473"/>
+      <c r="K69" s="472"/>
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="466" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="467" t="s">
+        <v>239</v>
+      </c>
+      <c r="D70" s="467"/>
+      <c r="E70" s="467" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="468"/>
+      <c r="G70" s="468"/>
+      <c r="H70" s="474"/>
+      <c r="I70" s="468"/>
+      <c r="J70" s="474"/>
+      <c r="K70" s="475"/>
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="466" t="s">
+        <v>251</v>
+      </c>
+      <c r="C71" s="467" t="s">
+        <v>239</v>
+      </c>
+      <c r="D71" s="467"/>
+      <c r="E71" s="467" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="465"/>
+      <c r="G71" s="465"/>
+      <c r="H71" s="474"/>
+      <c r="I71" s="465"/>
+      <c r="J71" s="474"/>
+      <c r="K71" s="465"/>
+      <c r="L71" s="242"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="469" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" s="470" t="s">
+        <v>239</v>
+      </c>
+      <c r="D72" s="470"/>
+      <c r="E72" s="470" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="476"/>
+      <c r="G72" s="476"/>
+      <c r="H72" s="477"/>
+      <c r="I72" s="476"/>
+      <c r="J72" s="477"/>
+      <c r="K72" s="476"/>
+      <c r="L72" s="242"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="466" t="s">
+        <v>252</v>
+      </c>
+      <c r="C73" s="467" t="s">
+        <v>239</v>
+      </c>
+      <c r="D73" s="467"/>
+      <c r="E73" s="467" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="465"/>
+      <c r="G73" s="465"/>
+      <c r="H73" s="478"/>
+      <c r="I73" s="465"/>
+      <c r="J73" s="478"/>
+      <c r="K73" s="465"/>
+      <c r="L73" s="242"/>
+    </row>
+    <row r="74" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="466" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" s="467" t="s">
+        <v>239</v>
+      </c>
+      <c r="D74" s="467"/>
+      <c r="E74" s="467" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="465"/>
+      <c r="G74" s="465"/>
+      <c r="H74" s="478"/>
+      <c r="I74" s="465"/>
+      <c r="J74" s="478"/>
+      <c r="K74" s="465"/>
+      <c r="L74" s="242"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="466" t="s">
+        <v>252</v>
+      </c>
+      <c r="C75" s="467" t="s">
+        <v>239</v>
+      </c>
+      <c r="D75" s="467"/>
+      <c r="E75" s="467" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="465"/>
+      <c r="G75" s="465"/>
+      <c r="H75" s="478"/>
+      <c r="I75" s="465"/>
+      <c r="J75" s="478"/>
+      <c r="K75" s="465"/>
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="466" t="s">
+        <v>252</v>
+      </c>
+      <c r="C76" s="467" t="s">
+        <v>239</v>
+      </c>
+      <c r="D76" s="467"/>
+      <c r="E76" s="467" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="465"/>
+      <c r="G76" s="465"/>
+      <c r="H76" s="478"/>
+      <c r="I76" s="465"/>
+      <c r="J76" s="478"/>
+      <c r="K76" s="465"/>
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="459" t="s">
+        <v>253</v>
+      </c>
+      <c r="C77" s="460" t="s">
+        <v>239</v>
+      </c>
+      <c r="D77" s="460"/>
+      <c r="E77" s="460"/>
+      <c r="F77" s="479"/>
+      <c r="G77" s="479"/>
+      <c r="H77" s="480"/>
+      <c r="I77" s="479"/>
+      <c r="J77" s="480"/>
+      <c r="K77" s="479"/>
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="469" t="s">
+        <v>254</v>
+      </c>
+      <c r="C78" s="470" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78" s="470"/>
+      <c r="E78" s="470"/>
+      <c r="F78" s="481"/>
+      <c r="G78" s="481"/>
+      <c r="H78" s="482"/>
+      <c r="I78" s="481"/>
+      <c r="J78" s="482"/>
+      <c r="K78" s="481"/>
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="326"/>
+      <c r="G79" s="326"/>
+      <c r="H79" s="326"/>
+      <c r="I79" s="326"/>
+      <c r="J79" s="326"/>
+      <c r="K79" s="326"/>
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="326"/>
+      <c r="G80" s="326"/>
+      <c r="H80" s="326"/>
+      <c r="I80" s="326"/>
+      <c r="J80" s="326"/>
+      <c r="K80" s="326"/>
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="326"/>
+      <c r="G81" s="326"/>
+      <c r="H81" s="326"/>
+      <c r="I81" s="326"/>
+      <c r="J81" s="326"/>
+      <c r="K81" s="326"/>
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="326"/>
+      <c r="G82" s="326"/>
+      <c r="H82" s="326"/>
+      <c r="I82" s="326"/>
+      <c r="J82" s="326"/>
+      <c r="K82" s="326"/>
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="326"/>
+      <c r="G83" s="326"/>
+      <c r="H83" s="326"/>
+      <c r="I83" s="326"/>
+      <c r="J83" s="326"/>
+      <c r="K83" s="326"/>
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="326"/>
+      <c r="G84" s="326"/>
+      <c r="H84" s="326"/>
+      <c r="I84" s="326"/>
+      <c r="J84" s="326"/>
+      <c r="K84" s="326"/>
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="326"/>
+      <c r="G85" s="326"/>
+      <c r="H85" s="326"/>
+      <c r="I85" s="326"/>
+      <c r="J85" s="326"/>
+      <c r="K85" s="326"/>
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="400"/>
+      <c r="G86" s="419"/>
+      <c r="H86" s="419"/>
+      <c r="I86" s="419"/>
+      <c r="J86" s="419"/>
+      <c r="K86" s="419"/>
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="401"/>
+      <c r="G87" s="420"/>
+      <c r="H87" s="420"/>
+      <c r="I87" s="420"/>
+      <c r="J87" s="420"/>
+      <c r="K87" s="420"/>
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="373"/>
+      <c r="G88" s="373"/>
+      <c r="H88" s="373"/>
+      <c r="I88" s="373"/>
+      <c r="J88" s="425"/>
+      <c r="K88" s="425"/>
+      <c r="L88" s="9"/>
+    </row>
+    <row r="89" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="402"/>
+      <c r="G89" s="421"/>
+      <c r="H89" s="421"/>
+      <c r="I89" s="421"/>
+      <c r="J89" s="426"/>
+      <c r="K89" s="426"/>
+      <c r="L89" s="247"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="403"/>
+      <c r="G90" s="406"/>
+      <c r="H90" s="406"/>
+      <c r="I90" s="406"/>
+      <c r="J90" s="427"/>
+      <c r="K90" s="427"/>
+      <c r="L90" s="9"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="403"/>
+      <c r="G91" s="406"/>
+      <c r="H91" s="406"/>
+      <c r="I91" s="406"/>
+      <c r="J91" s="427"/>
+      <c r="K91" s="427"/>
+      <c r="L91" s="9"/>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="404"/>
+      <c r="G92" s="422"/>
+      <c r="H92" s="422"/>
+      <c r="I92" s="422"/>
+      <c r="J92" s="428"/>
+      <c r="K92" s="428"/>
+      <c r="L92" s="9"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="8"/>
+      <c r="F93" s="326"/>
+      <c r="G93" s="326"/>
+      <c r="H93" s="326"/>
+      <c r="I93" s="326"/>
+      <c r="J93" s="326"/>
+      <c r="K93" s="326"/>
+      <c r="L93" s="9"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E94" s="8"/>
+      <c r="F94" s="326"/>
+      <c r="G94" s="326"/>
+      <c r="H94" s="326"/>
+      <c r="I94" s="326"/>
+      <c r="J94" s="326"/>
+      <c r="K94" s="326"/>
+      <c r="L94" s="9"/>
+    </row>
+    <row r="95" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" s="8"/>
+      <c r="F95" s="326"/>
+      <c r="G95" s="326"/>
+      <c r="H95" s="326"/>
+      <c r="I95" s="326"/>
+      <c r="J95" s="326"/>
+      <c r="K95" s="326"/>
+      <c r="L95" s="246"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="326"/>
+      <c r="G96" s="326"/>
+      <c r="H96" s="326"/>
+      <c r="I96" s="326"/>
+      <c r="J96" s="326"/>
+      <c r="K96" s="326"/>
+      <c r="L96" s="246"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="326"/>
+      <c r="G97" s="326"/>
+      <c r="H97" s="326"/>
+      <c r="I97" s="326"/>
+      <c r="J97" s="326"/>
+      <c r="K97" s="326"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98" s="326"/>
+      <c r="G98" s="326"/>
+      <c r="H98" s="326"/>
+      <c r="I98" s="326"/>
+      <c r="J98" s="326"/>
+      <c r="K98" s="326"/>
+      <c r="L98" s="173"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" s="326"/>
+      <c r="G99" s="326"/>
+      <c r="H99" s="326"/>
+      <c r="I99" s="326"/>
+      <c r="J99" s="326"/>
+      <c r="K99" s="326"/>
+      <c r="L99" s="9"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="326"/>
+      <c r="G100" s="326"/>
+      <c r="H100" s="326"/>
+      <c r="I100" s="326"/>
+      <c r="J100" s="326"/>
+      <c r="K100" s="326"/>
+      <c r="L100" s="173"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" s="326"/>
+      <c r="G101" s="326"/>
+      <c r="H101" s="326"/>
+      <c r="I101" s="326"/>
+      <c r="J101" s="326"/>
+      <c r="K101" s="326"/>
+      <c r="L101" s="9"/>
+    </row>
+    <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="326"/>
+      <c r="G102" s="326"/>
+      <c r="H102" s="326"/>
+      <c r="I102" s="326"/>
+      <c r="J102" s="326"/>
+      <c r="K102" s="326"/>
+      <c r="L102" s="9"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="400"/>
+      <c r="G103" s="419"/>
+      <c r="H103" s="419"/>
+      <c r="I103" s="419"/>
+      <c r="J103" s="419"/>
+      <c r="K103" s="419"/>
+      <c r="L103" s="9"/>
+    </row>
+    <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" s="401"/>
+      <c r="G104" s="420"/>
+      <c r="H104" s="420"/>
+      <c r="I104" s="420"/>
+      <c r="J104" s="420"/>
+      <c r="K104" s="420"/>
+      <c r="L104" s="173"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="373"/>
+      <c r="G105" s="373"/>
+      <c r="H105" s="373"/>
+      <c r="I105" s="373"/>
+      <c r="J105" s="425"/>
+      <c r="K105" s="425"/>
+      <c r="L105" s="9"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="373"/>
+      <c r="G106" s="373"/>
+      <c r="H106" s="373"/>
+      <c r="I106" s="373"/>
+      <c r="J106" s="425"/>
+      <c r="K106" s="425"/>
+      <c r="L106" s="9"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="373"/>
+      <c r="G107" s="373"/>
+      <c r="H107" s="373"/>
+      <c r="I107" s="373"/>
+      <c r="J107" s="373"/>
+      <c r="K107" s="373"/>
+      <c r="L107" s="98"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="373"/>
+      <c r="G108" s="373"/>
+      <c r="H108" s="373"/>
+      <c r="I108" s="373"/>
+      <c r="J108" s="373"/>
+      <c r="K108" s="373"/>
+      <c r="L108" s="98"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="373"/>
+      <c r="G109" s="373"/>
+      <c r="H109" s="373"/>
+      <c r="I109" s="373"/>
+      <c r="J109" s="425"/>
+      <c r="K109" s="425"/>
+      <c r="L109" s="98"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="373"/>
+      <c r="G110" s="373"/>
+      <c r="H110" s="373"/>
+      <c r="I110" s="373"/>
+      <c r="J110" s="425"/>
+      <c r="K110" s="425"/>
+      <c r="L110" s="29"/>
+    </row>
+    <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="373"/>
+      <c r="G111" s="373"/>
+      <c r="H111" s="373"/>
+      <c r="I111" s="373"/>
+      <c r="J111" s="425"/>
+      <c r="K111" s="425"/>
+      <c r="L111" s="245"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="373"/>
+      <c r="G112" s="373"/>
+      <c r="H112" s="373"/>
+      <c r="I112" s="373"/>
+      <c r="J112" s="425"/>
+      <c r="K112" s="425"/>
+      <c r="L112" s="245"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="405" t="e">
+        <f>#REF!/F127</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G113" s="405" t="e">
+        <f>#REF!/G127</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H113" s="405" t="e">
+        <f>#REF!/H127</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I113" s="405" t="e">
+        <f>#REF!/I127</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J113" s="405" t="e">
+        <f>#REF!/J127</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K113" s="405" t="e">
+        <f>#REF!/K127</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L113" s="245"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="406">
+        <v>0</v>
+      </c>
+      <c r="G114" s="406">
+        <v>0</v>
+      </c>
+      <c r="H114" s="406">
+        <v>0</v>
+      </c>
+      <c r="I114" s="406">
+        <v>0</v>
+      </c>
+      <c r="J114" s="406">
+        <v>0</v>
+      </c>
+      <c r="K114" s="406">
+        <v>0</v>
+      </c>
+      <c r="L114" s="245"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115" s="407"/>
+      <c r="G115" s="407"/>
+      <c r="H115" s="407"/>
+      <c r="I115" s="407"/>
+      <c r="J115" s="407"/>
+      <c r="K115" s="407"/>
+      <c r="L115" s="245"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F116" s="407"/>
+      <c r="G116" s="407"/>
+      <c r="H116" s="407"/>
+      <c r="I116" s="407"/>
+      <c r="J116" s="429"/>
+      <c r="K116" s="429"/>
+      <c r="L116" s="245"/>
+    </row>
+    <row r="117" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" s="407"/>
+      <c r="G117" s="407"/>
+      <c r="H117" s="407"/>
+      <c r="I117" s="407"/>
+      <c r="J117" s="407"/>
+      <c r="K117" s="407"/>
+      <c r="L117" s="244"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" s="407"/>
+      <c r="G118" s="407"/>
+      <c r="H118" s="407"/>
+      <c r="I118" s="407"/>
+      <c r="J118" s="407"/>
+      <c r="K118" s="407"/>
+      <c r="L118" s="244"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="373"/>
+      <c r="G119" s="373"/>
+      <c r="H119" s="373"/>
+      <c r="I119" s="373"/>
+      <c r="J119" s="425"/>
+      <c r="K119" s="425"/>
+      <c r="L119" s="244"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" s="373"/>
+      <c r="G120" s="373"/>
+      <c r="H120" s="373"/>
+      <c r="I120" s="373"/>
+      <c r="J120" s="425"/>
+      <c r="K120" s="425"/>
+      <c r="L120" s="244"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" s="373"/>
+      <c r="G121" s="373"/>
+      <c r="H121" s="373"/>
+      <c r="I121" s="373"/>
+      <c r="J121" s="425"/>
+      <c r="K121" s="425"/>
+      <c r="L121" s="244"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" s="408"/>
+      <c r="G122" s="408"/>
+      <c r="H122" s="408"/>
+      <c r="I122" s="408"/>
+      <c r="J122" s="408"/>
+      <c r="K122" s="408"/>
+      <c r="L122" s="244"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" s="373"/>
+      <c r="G123" s="373"/>
+      <c r="H123" s="373"/>
+      <c r="I123" s="373"/>
+      <c r="J123" s="425"/>
+      <c r="K123" s="425"/>
+      <c r="L123" s="244"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="373"/>
+      <c r="G124" s="373"/>
+      <c r="H124" s="373"/>
+      <c r="I124" s="373"/>
+      <c r="J124" s="425"/>
+      <c r="K124" s="425"/>
+      <c r="L124" s="244"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="409"/>
+      <c r="G125" s="409"/>
+      <c r="H125" s="409"/>
+      <c r="I125" s="409"/>
+      <c r="J125" s="430"/>
+      <c r="K125" s="435"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="405"/>
+      <c r="G126" s="405"/>
+      <c r="H126" s="405"/>
+      <c r="I126" s="405"/>
+      <c r="J126" s="431"/>
+      <c r="K126" s="431"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="406"/>
+      <c r="G127" s="423"/>
+      <c r="H127" s="423"/>
+      <c r="I127" s="423"/>
+      <c r="J127" s="423"/>
+      <c r="K127" s="423"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="373"/>
+      <c r="G128" s="424"/>
+      <c r="H128" s="424"/>
+      <c r="I128" s="424"/>
+      <c r="J128" s="432"/>
+      <c r="K128" s="432"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" s="410"/>
+      <c r="G129" s="410"/>
+      <c r="H129" s="410"/>
+      <c r="I129" s="410"/>
+      <c r="J129" s="410"/>
+      <c r="K129" s="410"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" s="410"/>
+      <c r="G130" s="410"/>
+      <c r="H130" s="410"/>
+      <c r="I130" s="410"/>
+      <c r="J130" s="410"/>
+      <c r="K130" s="410"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131" s="410"/>
+      <c r="G131" s="410"/>
+      <c r="H131" s="410"/>
+      <c r="I131" s="410"/>
+      <c r="J131" s="410"/>
+      <c r="K131" s="410"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F132" s="410"/>
+      <c r="G132" s="410"/>
+      <c r="H132" s="410"/>
+      <c r="I132" s="410"/>
+      <c r="J132" s="410"/>
+      <c r="K132" s="410"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" s="405"/>
+      <c r="G133" s="405"/>
+      <c r="H133" s="405"/>
+      <c r="I133" s="405"/>
+      <c r="J133" s="405"/>
+      <c r="K133" s="405"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F134" s="405"/>
+      <c r="G134" s="405"/>
+      <c r="H134" s="405"/>
+      <c r="I134" s="405"/>
+      <c r="J134" s="405"/>
+      <c r="K134" s="405"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="411"/>
+      <c r="G135" s="411"/>
+      <c r="H135" s="411"/>
+      <c r="I135" s="411"/>
+      <c r="J135" s="411"/>
+      <c r="K135" s="411"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F136" s="411"/>
+      <c r="G136" s="411"/>
+      <c r="H136" s="411"/>
+      <c r="I136" s="411"/>
+      <c r="J136" s="411"/>
+      <c r="K136" s="411"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" s="411"/>
+      <c r="G137" s="411"/>
+      <c r="H137" s="411"/>
+      <c r="I137" s="411"/>
+      <c r="J137" s="411"/>
+      <c r="K137" s="411"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F138" s="411"/>
+      <c r="G138" s="411"/>
+      <c r="H138" s="411"/>
+      <c r="I138" s="411"/>
+      <c r="J138" s="411"/>
+      <c r="K138" s="411"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="411"/>
+      <c r="G139" s="411"/>
+      <c r="H139" s="411"/>
+      <c r="I139" s="411"/>
+      <c r="J139" s="411"/>
+      <c r="K139" s="411"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F140" s="411"/>
+      <c r="G140" s="411"/>
+      <c r="H140" s="411"/>
+      <c r="I140" s="411"/>
+      <c r="J140" s="411"/>
+      <c r="K140" s="411"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="411"/>
+      <c r="G141" s="411"/>
+      <c r="H141" s="411"/>
+      <c r="I141" s="411"/>
+      <c r="J141" s="411"/>
+      <c r="K141" s="411"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="411"/>
+      <c r="G142" s="411"/>
+      <c r="H142" s="411"/>
+      <c r="I142" s="411"/>
+      <c r="J142" s="411"/>
+      <c r="K142" s="411"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="412"/>
+      <c r="G143" s="412"/>
+      <c r="H143" s="412"/>
+      <c r="I143" s="412"/>
+      <c r="J143" s="433"/>
+      <c r="K143" s="433"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="412"/>
+      <c r="G144" s="412"/>
+      <c r="H144" s="412"/>
+      <c r="I144" s="412"/>
+      <c r="J144" s="433"/>
+      <c r="K144" s="433"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="412"/>
+      <c r="G145" s="412"/>
+      <c r="H145" s="412"/>
+      <c r="I145" s="412"/>
+      <c r="J145" s="433"/>
+      <c r="K145" s="433"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="412"/>
+      <c r="G146" s="412"/>
+      <c r="H146" s="412"/>
+      <c r="I146" s="412"/>
+      <c r="J146" s="433"/>
+      <c r="K146" s="433"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E147" s="8"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B148" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E148" s="8"/>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B149" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" s="8"/>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E150" s="8"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E151" s="8"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B152" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E152" s="8"/>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B153" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B154" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B155" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B156" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B157" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B158" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B159" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B160" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" s="90"/>
+      <c r="D165" s="90"/>
+      <c r="E165" s="90"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C166" s="90"/>
+      <c r="D166" s="90"/>
+      <c r="E166" s="90"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C167" s="90"/>
+      <c r="D167" s="90"/>
+      <c r="E167" s="90"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C168" s="90"/>
+      <c r="D168" s="90"/>
+      <c r="E168" s="90"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C169" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" s="90"/>
+      <c r="E169" s="90"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="C170" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" s="90"/>
+      <c r="E170" s="90"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C171" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D171" s="90"/>
+      <c r="E171" s="90"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="C172" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D172" s="90"/>
+      <c r="E172" s="90"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>152</v>
+      </c>
+      <c r="C173" t="s">
+        <v>51</v>
+      </c>
+      <c r="D173" s="90"/>
+      <c r="E173" s="90"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>153</v>
+      </c>
+      <c r="C174" t="s">
+        <v>51</v>
+      </c>
+      <c r="D174" s="90"/>
+      <c r="E174" s="90"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175" s="90"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E176" s="90"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E177" s="90"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E178" s="90"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E179" s="90"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E180" s="8"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E181" s="8"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E182" s="8"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="159" t="s">
+        <v>155</v>
+      </c>
+      <c r="C183" s="157" t="s">
+        <v>4</v>
+      </c>
+      <c r="D183" s="157"/>
+      <c r="E183" s="157"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="159" t="s">
+        <v>155</v>
+      </c>
+      <c r="C184" s="157" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" s="157"/>
+      <c r="E184" s="157"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="159" t="s">
+        <v>155</v>
+      </c>
+      <c r="C185" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="D185" s="157"/>
+      <c r="E185" s="157"/>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="159" t="s">
+        <v>155</v>
+      </c>
+      <c r="C186" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="157"/>
+      <c r="E186" s="157"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:Y114"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,26 +9558,26 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="250" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="260" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="260"/>
+      <c r="F1" s="281" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="282" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" s="282"/>
       <c r="L1" s="9"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="251" t="s">
+      <c r="N1" s="278" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="252"/>
-      <c r="P1" s="252"/>
-      <c r="Q1" s="252"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="253"/>
+      <c r="O1" s="279"/>
+      <c r="P1" s="279"/>
+      <c r="Q1" s="279"/>
+      <c r="R1" s="279"/>
+      <c r="S1" s="280"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -4960,34 +9589,30 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="262" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="262"/>
-      <c r="J2" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>100</v>
-      </c>
+      <c r="F2" s="283" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="283"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="254" t="s">
+      <c r="N2" s="284" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="255"/>
-      <c r="P2" s="255" t="s">
+      <c r="O2" s="285"/>
+      <c r="P2" s="285" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="255"/>
-      <c r="R2" s="256" t="s">
+      <c r="Q2" s="285"/>
+      <c r="R2" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="258" t="s">
+      <c r="S2" s="288" t="s">
         <v>129</v>
       </c>
       <c r="T2" s="8"/>
@@ -5002,19 +9627,23 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="87" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="G3" s="87" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="H3" s="87" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c r="I3" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+        <v>232</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>232</v>
+      </c>
       <c r="L3" s="9"/>
       <c r="M3" s="8"/>
       <c r="N3" s="88" t="s">
@@ -5029,8 +9658,8 @@
       <c r="Q3" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="257"/>
-      <c r="S3" s="259"/>
+      <c r="R3" s="287"/>
+      <c r="S3" s="289"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -5041,7 +9670,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>4</v>
@@ -5074,10 +9703,10 @@
         <f>S4*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L4" s="263" t="s">
+      <c r="L4" s="273" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="264"/>
+      <c r="M4" s="274"/>
       <c r="N4" s="60">
         <f>Crop!$C$23*Input!F8</f>
         <v>0</v>
@@ -5145,8 +9774,8 @@
         <f>S5*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L5" s="263"/>
-      <c r="M5" s="264"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="274"/>
       <c r="N5" s="62">
         <f>Crop!$C$23*Input!F9</f>
         <v>0</v>
@@ -5214,8 +9843,8 @@
         <f>S6*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L6" s="263"/>
-      <c r="M6" s="264"/>
+      <c r="L6" s="273"/>
+      <c r="M6" s="274"/>
       <c r="N6" s="62">
         <f>Crop!$C$23*Input!F10</f>
         <v>0</v>
@@ -5283,8 +9912,8 @@
         <f>S7*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L7" s="263"/>
-      <c r="M7" s="264"/>
+      <c r="L7" s="273"/>
+      <c r="M7" s="274"/>
       <c r="N7" s="63">
         <f>Crop!$C$23*Input!F11</f>
         <v>0</v>
@@ -5673,12 +10302,12 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="245" t="s">
+      <c r="T19" s="260" t="s">
         <v>112</v>
       </c>
-      <c r="U19" s="246"/>
-      <c r="V19" s="246"/>
-      <c r="W19" s="247"/>
+      <c r="U19" s="261"/>
+      <c r="V19" s="261"/>
+      <c r="W19" s="267"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
@@ -5769,10 +10398,10 @@
         <f t="shared" ref="K21:K27" si="5">Q21*$K$93*$K$112</f>
         <v>0</v>
       </c>
-      <c r="L21" s="263" t="s">
+      <c r="L21" s="273" t="s">
         <v>108</v>
       </c>
-      <c r="M21" s="264"/>
+      <c r="M21" s="274"/>
       <c r="N21" s="190">
         <f>T21*12</f>
         <v>0</v>
@@ -5789,10 +10418,10 @@
         <f t="shared" ref="Q21:Q27" si="8">W21*12</f>
         <v>0</v>
       </c>
-      <c r="R21" s="266" t="s">
+      <c r="R21" s="248" t="s">
         <v>113</v>
       </c>
-      <c r="S21" s="261"/>
+      <c r="S21" s="275"/>
       <c r="T21" s="190">
         <f>shares!H16</f>
         <v>0</v>
@@ -5846,8 +10475,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="263"/>
-      <c r="M22" s="264"/>
+      <c r="L22" s="273"/>
+      <c r="M22" s="274"/>
       <c r="N22" s="193">
         <f t="shared" ref="N22:N27" si="9">T22*12</f>
         <v>0</v>
@@ -5864,8 +10493,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R22" s="266"/>
-      <c r="S22" s="261"/>
+      <c r="R22" s="248"/>
+      <c r="S22" s="275"/>
       <c r="T22" s="193">
         <f>shares!H17</f>
         <v>0</v>
@@ -5919,8 +10548,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="263"/>
-      <c r="M23" s="264"/>
+      <c r="L23" s="273"/>
+      <c r="M23" s="274"/>
       <c r="N23" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -5937,8 +10566,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R23" s="266"/>
-      <c r="S23" s="261"/>
+      <c r="R23" s="248"/>
+      <c r="S23" s="275"/>
       <c r="T23" s="193">
         <f>shares!H18</f>
         <v>0</v>
@@ -5992,8 +10621,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="263"/>
-      <c r="M24" s="264"/>
+      <c r="L24" s="273"/>
+      <c r="M24" s="274"/>
       <c r="N24" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6010,8 +10639,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R24" s="266"/>
-      <c r="S24" s="261"/>
+      <c r="R24" s="248"/>
+      <c r="S24" s="275"/>
       <c r="T24" s="195">
         <f>shares!H19</f>
         <v>0</v>
@@ -6065,10 +10694,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="264" t="s">
+      <c r="L25" s="274" t="s">
         <v>108</v>
       </c>
-      <c r="M25" s="264"/>
+      <c r="M25" s="274"/>
       <c r="N25" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6085,10 +10714,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R25" s="266" t="s">
+      <c r="R25" s="248" t="s">
         <v>113</v>
       </c>
-      <c r="S25" s="281"/>
+      <c r="S25" s="277"/>
       <c r="T25" s="190"/>
       <c r="U25" s="191"/>
       <c r="V25" s="191"/>
@@ -6130,8 +10759,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="264"/>
-      <c r="M26" s="264"/>
+      <c r="L26" s="274"/>
+      <c r="M26" s="274"/>
       <c r="N26" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6148,8 +10777,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R26" s="281"/>
-      <c r="S26" s="281"/>
+      <c r="R26" s="277"/>
+      <c r="S26" s="277"/>
       <c r="T26" s="193"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
@@ -6191,8 +10820,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="264"/>
-      <c r="M27" s="264"/>
+      <c r="L27" s="274"/>
+      <c r="M27" s="274"/>
       <c r="N27" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -6209,8 +10838,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R27" s="281"/>
-      <c r="S27" s="281"/>
+      <c r="R27" s="277"/>
+      <c r="S27" s="277"/>
       <c r="T27" s="195"/>
       <c r="U27" s="196"/>
       <c r="V27" s="196"/>
@@ -6234,8 +10863,8 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="264"/>
-      <c r="M28" s="264"/>
+      <c r="L28" s="274"/>
+      <c r="M28" s="274"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -6455,12 +11084,12 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="245" t="s">
+      <c r="T37" s="260" t="s">
         <v>142</v>
       </c>
-      <c r="U37" s="246"/>
-      <c r="V37" s="246"/>
-      <c r="W37" s="247"/>
+      <c r="U37" s="261"/>
+      <c r="V37" s="261"/>
+      <c r="W37" s="267"/>
     </row>
     <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
@@ -6551,10 +11180,10 @@
         <f t="shared" ref="K39:K45" si="15">Q39*$K$93*$K$113</f>
         <v>0</v>
       </c>
-      <c r="L39" s="263" t="s">
+      <c r="L39" s="273" t="s">
         <v>108</v>
       </c>
-      <c r="M39" s="264"/>
+      <c r="M39" s="274"/>
       <c r="N39" s="60">
         <f>T39*12</f>
         <v>0</v>
@@ -6571,10 +11200,10 @@
         <f>W39*12</f>
         <v>0</v>
       </c>
-      <c r="R39" s="261" t="s">
+      <c r="R39" s="275" t="s">
         <v>113</v>
       </c>
-      <c r="S39" s="261"/>
+      <c r="S39" s="275"/>
       <c r="T39" s="60">
         <f>shares!H23</f>
         <v>0</v>
@@ -6628,8 +11257,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L40" s="263"/>
-      <c r="M40" s="264"/>
+      <c r="L40" s="273"/>
+      <c r="M40" s="274"/>
       <c r="N40" s="193">
         <f t="shared" ref="N40:N43" si="16">T40*12</f>
         <v>0</v>
@@ -6646,8 +11275,8 @@
         <f t="shared" ref="Q40:Q43" si="19">W40*12</f>
         <v>0</v>
       </c>
-      <c r="R40" s="261"/>
-      <c r="S40" s="261"/>
+      <c r="R40" s="275"/>
+      <c r="S40" s="275"/>
       <c r="T40" s="193">
         <f>shares!H24</f>
         <v>0</v>
@@ -6701,8 +11330,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L41" s="263"/>
-      <c r="M41" s="264"/>
+      <c r="L41" s="273"/>
+      <c r="M41" s="274"/>
       <c r="N41" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6719,8 +11348,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R41" s="261"/>
-      <c r="S41" s="261"/>
+      <c r="R41" s="275"/>
+      <c r="S41" s="275"/>
       <c r="T41" s="193">
         <f>shares!H25</f>
         <v>0</v>
@@ -6774,8 +11403,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L42" s="263"/>
-      <c r="M42" s="264"/>
+      <c r="L42" s="273"/>
+      <c r="M42" s="274"/>
       <c r="N42" s="195">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6792,8 +11421,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R42" s="261"/>
-      <c r="S42" s="261"/>
+      <c r="R42" s="275"/>
+      <c r="S42" s="275"/>
       <c r="T42" s="195">
         <f>shares!H26</f>
         <v>0</v>
@@ -6847,10 +11476,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L43" s="263" t="s">
+      <c r="L43" s="273" t="s">
         <v>108</v>
       </c>
-      <c r="M43" s="264"/>
+      <c r="M43" s="274"/>
       <c r="N43" s="190">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6867,10 +11496,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R43" s="266" t="s">
+      <c r="R43" s="248" t="s">
         <v>113</v>
       </c>
-      <c r="S43" s="281"/>
+      <c r="S43" s="277"/>
       <c r="T43" s="190">
         <f>ser!$C$11*Input!G46</f>
         <v>0</v>
@@ -6924,8 +11553,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L44" s="263"/>
-      <c r="M44" s="264"/>
+      <c r="L44" s="273"/>
+      <c r="M44" s="274"/>
       <c r="N44" s="193">
         <f t="shared" ref="N44:Q45" si="20">T44*12</f>
         <v>0</v>
@@ -6942,8 +11571,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R44" s="281"/>
-      <c r="S44" s="281"/>
+      <c r="R44" s="277"/>
+      <c r="S44" s="277"/>
       <c r="T44" s="193">
         <f>ser!$C$11*Input!G47</f>
         <v>0</v>
@@ -6997,8 +11626,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L45" s="263"/>
-      <c r="M45" s="264"/>
+      <c r="L45" s="273"/>
+      <c r="M45" s="274"/>
       <c r="N45" s="195">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -7015,8 +11644,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R45" s="281"/>
-      <c r="S45" s="281"/>
+      <c r="R45" s="277"/>
+      <c r="S45" s="277"/>
       <c r="T45" s="195">
         <f>ser!$C$11*Input!G48</f>
         <v>0</v>
@@ -7052,8 +11681,8 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="263"/>
-      <c r="M46" s="265"/>
+      <c r="L46" s="273"/>
+      <c r="M46" s="276"/>
       <c r="N46" s="129"/>
       <c r="O46" s="129"/>
       <c r="P46" s="129"/>
@@ -7238,14 +11867,14 @@
       <c r="K54" s="104"/>
       <c r="L54" s="9"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="251" t="s">
+      <c r="N54" s="278" t="s">
         <v>107</v>
       </c>
-      <c r="O54" s="252"/>
-      <c r="P54" s="252"/>
-      <c r="Q54" s="252"/>
-      <c r="R54" s="252"/>
-      <c r="S54" s="253"/>
+      <c r="O54" s="279"/>
+      <c r="P54" s="279"/>
+      <c r="Q54" s="279"/>
+      <c r="R54" s="279"/>
+      <c r="S54" s="280"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
@@ -7269,18 +11898,18 @@
       <c r="K55" s="107"/>
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="283" t="s">
+      <c r="N55" s="268" t="s">
         <v>126</v>
       </c>
-      <c r="O55" s="244"/>
-      <c r="P55" s="244" t="s">
+      <c r="O55" s="256"/>
+      <c r="P55" s="256" t="s">
         <v>127</v>
       </c>
-      <c r="Q55" s="244"/>
-      <c r="R55" s="270" t="s">
+      <c r="Q55" s="256"/>
+      <c r="R55" s="269" t="s">
         <v>128</v>
       </c>
-      <c r="S55" s="276" t="s">
+      <c r="S55" s="271" t="s">
         <v>129</v>
       </c>
       <c r="T55" s="8"/>
@@ -7326,8 +11955,8 @@
       <c r="Q56" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="R56" s="271"/>
-      <c r="S56" s="277"/>
+      <c r="R56" s="270"/>
+      <c r="S56" s="272"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
@@ -7369,10 +11998,10 @@
         <f>S57*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L57" s="263" t="s">
+      <c r="L57" s="273" t="s">
         <v>108</v>
       </c>
-      <c r="M57" s="264"/>
+      <c r="M57" s="274"/>
       <c r="N57" s="60">
         <f>Live!$C$11*Input!F61</f>
         <v>0</v>
@@ -7438,8 +12067,8 @@
         <f>S58*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L58" s="263"/>
-      <c r="M58" s="264"/>
+      <c r="L58" s="273"/>
+      <c r="M58" s="274"/>
       <c r="N58" s="62">
         <f>Live!$C$11*Input!F62</f>
         <v>0</v>
@@ -7505,8 +12134,8 @@
         <f>S59*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L59" s="263"/>
-      <c r="M59" s="264"/>
+      <c r="L59" s="273"/>
+      <c r="M59" s="274"/>
       <c r="N59" s="62">
         <f>Live!$C$11*Input!F63</f>
         <v>0</v>
@@ -7572,8 +12201,8 @@
         <f>S60*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L60" s="263"/>
-      <c r="M60" s="264"/>
+      <c r="L60" s="273"/>
+      <c r="M60" s="274"/>
       <c r="N60" s="63">
         <f>Live!$C$11*Input!F64</f>
         <v>0</v>
@@ -7912,12 +12541,12 @@
       <c r="K72" s="107"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="244" t="s">
+      <c r="N72" s="256" t="s">
         <v>103</v>
       </c>
-      <c r="O72" s="244"/>
-      <c r="P72" s="244"/>
-      <c r="Q72" s="244"/>
+      <c r="O72" s="256"/>
+      <c r="P72" s="256"/>
+      <c r="Q72" s="256"/>
       <c r="R72" s="8"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -7946,14 +12575,14 @@
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="282" t="s">
+      <c r="N73" s="263" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="282"/>
-      <c r="P73" s="282" t="s">
+      <c r="O73" s="263"/>
+      <c r="P73" s="263" t="s">
         <v>104</v>
       </c>
-      <c r="Q73" s="282"/>
+      <c r="Q73" s="263"/>
       <c r="R73" s="8"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -8030,10 +12659,10 @@
         <f>Q75*$G93</f>
         <v>0</v>
       </c>
-      <c r="L75" s="279" t="s">
+      <c r="L75" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="M75" s="280"/>
+      <c r="M75" s="265"/>
       <c r="N75" s="97">
         <f>wages!C7</f>
         <v>0</v>
@@ -8051,14 +12680,14 @@
         <v>0</v>
       </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="278" t="s">
+      <c r="S75" s="266" t="s">
         <v>163</v>
       </c>
-      <c r="T75" s="278"/>
-      <c r="U75" s="278"/>
-      <c r="V75" s="278"/>
-      <c r="W75" s="278"/>
-      <c r="X75" s="278"/>
+      <c r="T75" s="266"/>
+      <c r="U75" s="266"/>
+      <c r="V75" s="266"/>
+      <c r="W75" s="266"/>
+      <c r="X75" s="266"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -8135,22 +12764,22 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="245" t="s">
+      <c r="N78" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="O78" s="246"/>
-      <c r="P78" s="246"/>
-      <c r="Q78" s="246"/>
-      <c r="R78" s="246"/>
-      <c r="S78" s="247"/>
-      <c r="T78" s="245" t="s">
+      <c r="O78" s="261"/>
+      <c r="P78" s="261"/>
+      <c r="Q78" s="261"/>
+      <c r="R78" s="261"/>
+      <c r="S78" s="267"/>
+      <c r="T78" s="260" t="s">
         <v>146</v>
       </c>
-      <c r="U78" s="246"/>
-      <c r="V78" s="246"/>
-      <c r="W78" s="246"/>
-      <c r="X78" s="246"/>
-      <c r="Y78" s="247"/>
+      <c r="U78" s="261"/>
+      <c r="V78" s="261"/>
+      <c r="W78" s="261"/>
+      <c r="X78" s="261"/>
+      <c r="Y78" s="267"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
@@ -8170,32 +12799,32 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="248" t="s">
+      <c r="N79" s="258" t="s">
         <v>126</v>
       </c>
-      <c r="O79" s="249"/>
-      <c r="P79" s="245" t="s">
+      <c r="O79" s="259"/>
+      <c r="P79" s="260" t="s">
         <v>127</v>
       </c>
-      <c r="Q79" s="246"/>
-      <c r="R79" s="242" t="s">
+      <c r="Q79" s="261"/>
+      <c r="R79" s="249" t="s">
         <v>143</v>
       </c>
-      <c r="S79" s="242" t="s">
+      <c r="S79" s="249" t="s">
         <v>144</v>
       </c>
-      <c r="T79" s="248" t="s">
+      <c r="T79" s="258" t="s">
         <v>126</v>
       </c>
-      <c r="U79" s="249"/>
-      <c r="V79" s="245" t="s">
+      <c r="U79" s="259"/>
+      <c r="V79" s="260" t="s">
         <v>127</v>
       </c>
-      <c r="W79" s="246"/>
-      <c r="X79" s="242" t="s">
+      <c r="W79" s="261"/>
+      <c r="X79" s="249" t="s">
         <v>143</v>
       </c>
-      <c r="Y79" s="242" t="s">
+      <c r="Y79" s="249" t="s">
         <v>144</v>
       </c>
     </row>
@@ -8229,8 +12858,8 @@
       <c r="Q80" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="R80" s="275"/>
-      <c r="S80" s="275"/>
+      <c r="R80" s="262"/>
+      <c r="S80" s="262"/>
       <c r="T80" s="123" t="s">
         <v>116</v>
       </c>
@@ -8243,8 +12872,8 @@
       <c r="W80" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="X80" s="243"/>
-      <c r="Y80" s="243"/>
+      <c r="X80" s="250"/>
+      <c r="Y80" s="250"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -8278,10 +12907,10 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L81" s="268" t="s">
+      <c r="L81" s="251" t="s">
         <v>170</v>
       </c>
-      <c r="M81" s="269"/>
+      <c r="M81" s="252"/>
       <c r="N81" s="97"/>
       <c r="O81" s="97"/>
       <c r="P81" s="97"/>
@@ -8321,24 +12950,24 @@
       <c r="K82" s="68">
         <v>0</v>
       </c>
-      <c r="L82" s="268"/>
-      <c r="M82" s="269"/>
-      <c r="N82" s="272" t="s">
+      <c r="L82" s="251"/>
+      <c r="M82" s="252"/>
+      <c r="N82" s="253" t="s">
         <v>111</v>
       </c>
-      <c r="O82" s="273"/>
-      <c r="P82" s="273"/>
-      <c r="Q82" s="273"/>
-      <c r="R82" s="273"/>
-      <c r="S82" s="274"/>
-      <c r="T82" s="244" t="s">
+      <c r="O82" s="254"/>
+      <c r="P82" s="254"/>
+      <c r="Q82" s="254"/>
+      <c r="R82" s="254"/>
+      <c r="S82" s="255"/>
+      <c r="T82" s="256" t="s">
         <v>145</v>
       </c>
-      <c r="U82" s="244"/>
-      <c r="V82" s="244"/>
-      <c r="W82" s="244"/>
-      <c r="X82" s="244"/>
-      <c r="Y82" s="244"/>
+      <c r="U82" s="256"/>
+      <c r="V82" s="256"/>
+      <c r="W82" s="256"/>
+      <c r="X82" s="256"/>
+      <c r="Y82" s="256"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -8828,7 +13457,7 @@
       <c r="I97" s="226"/>
       <c r="J97" s="226"/>
       <c r="K97" s="226"/>
-      <c r="L97" s="267" t="s">
+      <c r="L97" s="257" t="s">
         <v>115</v>
       </c>
       <c r="M97" s="8"/>
@@ -8861,7 +13490,7 @@
       <c r="I98" s="226"/>
       <c r="J98" s="226"/>
       <c r="K98" s="226"/>
-      <c r="L98" s="267"/>
+      <c r="L98" s="257"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8" t="s">
@@ -8894,7 +13523,7 @@
       <c r="I99" s="226"/>
       <c r="J99" s="226"/>
       <c r="K99" s="226"/>
-      <c r="L99" s="267"/>
+      <c r="L99" s="257"/>
       <c r="M99" s="8"/>
       <c r="N99" s="219" t="s">
         <v>189</v>
@@ -8936,7 +13565,7 @@
       <c r="I100" s="226"/>
       <c r="J100" s="226"/>
       <c r="K100" s="226"/>
-      <c r="L100" s="267"/>
+      <c r="L100" s="257"/>
       <c r="M100" s="8"/>
       <c r="N100" s="221" t="s">
         <v>193</v>
@@ -9051,11 +13680,11 @@
       <c r="I103" s="228"/>
       <c r="J103" s="228"/>
       <c r="K103" s="228"/>
-      <c r="L103" s="266" t="s">
+      <c r="L103" s="248" t="s">
         <v>114</v>
       </c>
-      <c r="M103" s="266"/>
-      <c r="N103" s="266"/>
+      <c r="M103" s="248"/>
+      <c r="N103" s="248"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
@@ -9084,9 +13713,9 @@
       <c r="I104" s="228"/>
       <c r="J104" s="228"/>
       <c r="K104" s="228"/>
-      <c r="L104" s="266"/>
-      <c r="M104" s="266"/>
-      <c r="N104" s="266"/>
+      <c r="L104" s="248"/>
+      <c r="M104" s="248"/>
+      <c r="N104" s="248"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
@@ -9115,9 +13744,9 @@
       <c r="I105" s="228"/>
       <c r="J105" s="228"/>
       <c r="K105" s="228"/>
-      <c r="L105" s="266"/>
-      <c r="M105" s="266"/>
-      <c r="N105" s="266"/>
+      <c r="L105" s="248"/>
+      <c r="M105" s="248"/>
+      <c r="N105" s="248"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
@@ -9146,9 +13775,9 @@
       <c r="I106" s="228"/>
       <c r="J106" s="228"/>
       <c r="K106" s="228"/>
-      <c r="L106" s="266"/>
-      <c r="M106" s="266"/>
-      <c r="N106" s="266"/>
+      <c r="L106" s="248"/>
+      <c r="M106" s="248"/>
+      <c r="N106" s="248"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
@@ -9177,9 +13806,9 @@
       <c r="I107" s="228"/>
       <c r="J107" s="228"/>
       <c r="K107" s="228"/>
-      <c r="L107" s="266"/>
-      <c r="M107" s="266"/>
-      <c r="N107" s="266"/>
+      <c r="L107" s="248"/>
+      <c r="M107" s="248"/>
+      <c r="N107" s="248"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
@@ -9208,9 +13837,9 @@
       <c r="I108" s="229"/>
       <c r="J108" s="229"/>
       <c r="K108" s="229"/>
-      <c r="L108" s="266"/>
-      <c r="M108" s="266"/>
-      <c r="N108" s="266"/>
+      <c r="L108" s="248"/>
+      <c r="M108" s="248"/>
+      <c r="N108" s="248"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
@@ -9239,9 +13868,9 @@
       <c r="I109" s="229"/>
       <c r="J109" s="229"/>
       <c r="K109" s="229"/>
-      <c r="L109" s="266"/>
-      <c r="M109" s="266"/>
-      <c r="N109" s="266"/>
+      <c r="L109" s="248"/>
+      <c r="M109" s="248"/>
+      <c r="N109" s="248"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -9270,9 +13899,9 @@
       <c r="I110" s="229"/>
       <c r="J110" s="229"/>
       <c r="K110" s="229"/>
-      <c r="L110" s="266"/>
-      <c r="M110" s="266"/>
-      <c r="N110" s="266"/>
+      <c r="L110" s="248"/>
+      <c r="M110" s="248"/>
+      <c r="N110" s="248"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
@@ -9352,6 +13981,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="Y79:Y80"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="R39:S42"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="L43:M46"/>
+    <mergeCell ref="L103:N110"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="L81:M82"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="N82:S82"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S75:X75"/>
+    <mergeCell ref="X79:X80"/>
     <mergeCell ref="T19:W19"/>
     <mergeCell ref="R21:S24"/>
     <mergeCell ref="L21:M24"/>
@@ -9368,36 +14027,6 @@
     <mergeCell ref="L57:M60"/>
     <mergeCell ref="L39:M42"/>
     <mergeCell ref="L25:M28"/>
-    <mergeCell ref="L103:N110"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="L81:M82"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="N82:S82"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S75:X75"/>
-    <mergeCell ref="X79:X80"/>
-    <mergeCell ref="R39:S42"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L4:M7"/>
-    <mergeCell ref="L43:M46"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="Y79:Y80"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9405,12 +14034,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9439,16 +14068,16 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="250" t="s">
+      <c r="F1" s="281" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="260" t="s">
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="282" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="260"/>
+      <c r="K1" s="282"/>
       <c r="L1" s="157" t="s">
         <v>162</v>
       </c>
@@ -9462,26 +14091,26 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="262" t="s">
+      <c r="F2" s="283" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262" t="s">
+      <c r="G2" s="283"/>
+      <c r="H2" s="283" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="262"/>
+      <c r="I2" s="283"/>
       <c r="J2" s="9" t="s">
         <v>99</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="284" t="s">
+      <c r="M2" s="290" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="284"/>
-      <c r="O2" s="284"/>
-      <c r="P2" s="284"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
+      <c r="P2" s="290"/>
       <c r="Q2" t="s">
         <v>150</v>
       </c>
@@ -9524,7 +14153,7 @@
       </c>
       <c r="B4" s="8" t="str">
         <f>Input!B4</f>
-        <v>FD</v>
+        <v>QP</v>
       </c>
       <c r="C4" s="8" t="str">
         <f>Input!C4</f>
@@ -13778,12 +18407,243 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="8" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="237" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="238">
+        <v>20994.603755950928</v>
+      </c>
+      <c r="D3" s="238">
+        <v>61609.917491912842</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="237" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="232">
+        <v>9.3833760785694026E-2</v>
+      </c>
+      <c r="D10" s="232">
+        <v>7.1856867244095707E-2</v>
+      </c>
+      <c r="E10" s="231">
+        <v>0.19554496147998077</v>
+      </c>
+      <c r="F10" s="233">
+        <v>0.13424410756191071</v>
+      </c>
+      <c r="G10" s="233">
+        <v>0.1141821752038234</v>
+      </c>
+      <c r="H10" s="231">
+        <v>0.24722428494274207</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="232">
+        <v>0.47889167678351297</v>
+      </c>
+      <c r="D11" s="232">
+        <v>5.5112282645096954E-2</v>
+      </c>
+      <c r="E11" s="231">
+        <v>5.254649295298783E-13</v>
+      </c>
+      <c r="F11" s="233">
+        <v>0.27044208434582551</v>
+      </c>
+      <c r="G11" s="233">
+        <v>8.5461973648246051E-2</v>
+      </c>
+      <c r="H11" s="231">
+        <v>3.1030321743451862E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="232">
+        <v>1.7287341950583346E-2</v>
+      </c>
+      <c r="D12" s="232">
+        <v>4.4576688459373549E-2</v>
+      </c>
+      <c r="E12" s="231">
+        <v>0.69923978020752198</v>
+      </c>
+      <c r="F12" s="233">
+        <v>7.7140958733354192E-2</v>
+      </c>
+      <c r="G12" s="233">
+        <v>0.10227471789339765</v>
+      </c>
+      <c r="H12" s="231">
+        <v>0.45547144346382828</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="232">
+        <v>0.40998722048021063</v>
+      </c>
+      <c r="D13" s="232">
+        <v>5.8684969644739834E-2</v>
+      </c>
+      <c r="E13" s="231">
+        <v>9.3210044788081668E-10</v>
+      </c>
+      <c r="F13" s="233">
+        <v>0.51817284935890662</v>
+      </c>
+      <c r="G13" s="233">
+        <v>8.4764499759859904E-2</v>
+      </c>
+      <c r="H13">
+        <v>4.4136867910553074E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="232">
+        <v>2.1411559282179748</v>
+      </c>
+      <c r="D14" s="232">
+        <v>0.12779024981246512</v>
+      </c>
+      <c r="E14" s="231">
+        <v>3.106531439980494E-27</v>
+      </c>
+      <c r="F14" s="233">
+        <v>1.9431455923076939</v>
+      </c>
+      <c r="G14" s="233">
+        <v>0.1594443864437553</v>
+      </c>
+      <c r="H14" s="231">
+        <v>1.610160848673028E-14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15">
+        <v>2.1769753978679081</v>
+      </c>
+      <c r="D15">
+        <v>0.11831685626228974</v>
+      </c>
+      <c r="E15">
+        <v>1.5865276778279659E-29</v>
+      </c>
+      <c r="F15">
+        <v>1.9732489077055702</v>
+      </c>
+      <c r="G15">
+        <v>0.16316803071874686</v>
+      </c>
+      <c r="H15">
+        <v>3.0707887654430226E-14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14085,48 +18945,48 @@
     </row>
     <row r="21" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
-      <c r="B21" s="285" t="s">
+      <c r="B21" s="291" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="286"/>
-      <c r="D21" s="286"/>
-      <c r="E21" s="286"/>
-      <c r="F21" s="287"/>
-      <c r="G21" s="285" t="s">
+      <c r="C21" s="292"/>
+      <c r="D21" s="292"/>
+      <c r="E21" s="292"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="291" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="286"/>
-      <c r="I21" s="286"/>
-      <c r="J21" s="286"/>
-      <c r="K21" s="287"/>
-      <c r="L21" s="285" t="s">
+      <c r="H21" s="292"/>
+      <c r="I21" s="292"/>
+      <c r="J21" s="292"/>
+      <c r="K21" s="293"/>
+      <c r="L21" s="291" t="s">
         <v>120</v>
       </c>
-      <c r="M21" s="286"/>
-      <c r="N21" s="286"/>
-      <c r="O21" s="286"/>
-      <c r="P21" s="287"/>
-      <c r="Q21" s="285" t="s">
+      <c r="M21" s="292"/>
+      <c r="N21" s="292"/>
+      <c r="O21" s="292"/>
+      <c r="P21" s="293"/>
+      <c r="Q21" s="291" t="s">
         <v>121</v>
       </c>
-      <c r="R21" s="286"/>
-      <c r="S21" s="286"/>
-      <c r="T21" s="286"/>
-      <c r="U21" s="287"/>
-      <c r="V21" s="285" t="s">
+      <c r="R21" s="292"/>
+      <c r="S21" s="292"/>
+      <c r="T21" s="292"/>
+      <c r="U21" s="293"/>
+      <c r="V21" s="291" t="s">
         <v>122</v>
       </c>
-      <c r="W21" s="286"/>
-      <c r="X21" s="286"/>
-      <c r="Y21" s="286"/>
-      <c r="Z21" s="287"/>
-      <c r="AA21" s="285" t="s">
+      <c r="W21" s="292"/>
+      <c r="X21" s="292"/>
+      <c r="Y21" s="292"/>
+      <c r="Z21" s="293"/>
+      <c r="AA21" s="291" t="s">
         <v>123</v>
       </c>
-      <c r="AB21" s="286"/>
-      <c r="AC21" s="286"/>
-      <c r="AD21" s="286"/>
-      <c r="AE21" s="287"/>
+      <c r="AB21" s="292"/>
+      <c r="AC21" s="292"/>
+      <c r="AD21" s="292"/>
+      <c r="AE21" s="293"/>
     </row>
     <row r="22" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
@@ -14279,243 +19139,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="8" width="13.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C1" s="237" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="238">
-        <v>20994.603755950928</v>
-      </c>
-      <c r="D3" s="238">
-        <v>61609.917491912842</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="237" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="237"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="237"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G8" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="232">
-        <v>9.3833760785694026E-2</v>
-      </c>
-      <c r="D10" s="232">
-        <v>7.1856867244095707E-2</v>
-      </c>
-      <c r="E10" s="231">
-        <v>0.19554496147998077</v>
-      </c>
-      <c r="F10" s="233">
-        <v>0.13424410756191071</v>
-      </c>
-      <c r="G10" s="233">
-        <v>0.1141821752038234</v>
-      </c>
-      <c r="H10" s="231">
-        <v>0.24722428494274207</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="232">
-        <v>0.47889167678351297</v>
-      </c>
-      <c r="D11" s="232">
-        <v>5.5112282645096954E-2</v>
-      </c>
-      <c r="E11" s="231">
-        <v>5.254649295298783E-13</v>
-      </c>
-      <c r="F11" s="233">
-        <v>0.27044208434582551</v>
-      </c>
-      <c r="G11" s="233">
-        <v>8.5461973648246051E-2</v>
-      </c>
-      <c r="H11" s="231">
-        <v>3.1030321743451862E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="232">
-        <v>1.7287341950583346E-2</v>
-      </c>
-      <c r="D12" s="232">
-        <v>4.4576688459373549E-2</v>
-      </c>
-      <c r="E12" s="231">
-        <v>0.69923978020752198</v>
-      </c>
-      <c r="F12" s="233">
-        <v>7.7140958733354192E-2</v>
-      </c>
-      <c r="G12" s="233">
-        <v>0.10227471789339765</v>
-      </c>
-      <c r="H12" s="231">
-        <v>0.45547144346382828</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="232">
-        <v>0.40998722048021063</v>
-      </c>
-      <c r="D13" s="232">
-        <v>5.8684969644739834E-2</v>
-      </c>
-      <c r="E13" s="231">
-        <v>9.3210044788081668E-10</v>
-      </c>
-      <c r="F13" s="233">
-        <v>0.51817284935890662</v>
-      </c>
-      <c r="G13" s="233">
-        <v>8.4764499759859904E-2</v>
-      </c>
-      <c r="H13">
-        <v>4.4136867910553074E-7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="232">
-        <v>2.1411559282179748</v>
-      </c>
-      <c r="D14" s="232">
-        <v>0.12779024981246512</v>
-      </c>
-      <c r="E14" s="231">
-        <v>3.106531439980494E-27</v>
-      </c>
-      <c r="F14" s="233">
-        <v>1.9431455923076939</v>
-      </c>
-      <c r="G14" s="233">
-        <v>0.1594443864437553</v>
-      </c>
-      <c r="H14" s="231">
-        <v>1.610160848673028E-14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15">
-        <v>2.1769753978679081</v>
-      </c>
-      <c r="D15">
-        <v>0.11831685626228974</v>
-      </c>
-      <c r="E15">
-        <v>1.5865276778279659E-29</v>
-      </c>
-      <c r="F15">
-        <v>1.9732489077055702</v>
-      </c>
-      <c r="G15">
-        <v>0.16316803071874686</v>
-      </c>
-      <c r="H15">
-        <v>3.0707887654430226E-14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14767,211 +19396,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="157" t="s">
-        <v>231</v>
-      </c>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3">
-        <v>1744.8702195580117</v>
-      </c>
-      <c r="D3">
-        <v>571.43047200515866</v>
-      </c>
-      <c r="E3">
-        <v>926.42686172947288</v>
-      </c>
-      <c r="F3">
-        <v>2588.8622903013602</v>
-      </c>
-      <c r="G3">
-        <v>1785.8093204153702</v>
-      </c>
-      <c r="H3">
-        <v>1277.1668187589385</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4">
-        <v>361.88122031092644</v>
-      </c>
-      <c r="D4">
-        <v>153.88099787011743</v>
-      </c>
-      <c r="E4">
-        <v>282.27333134412766</v>
-      </c>
-      <c r="F4">
-        <v>601.48227291181684</v>
-      </c>
-      <c r="G4">
-        <v>282.18579501286149</v>
-      </c>
-      <c r="H4">
-        <v>200.73039625957608</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5">
-        <v>1022.2690930441022</v>
-      </c>
-      <c r="D5">
-        <v>396.02679319307208</v>
-      </c>
-      <c r="E5">
-        <v>454.54015942662954</v>
-      </c>
-      <c r="F5">
-        <v>1121.8757621385157</v>
-      </c>
-      <c r="G5">
-        <v>821.57286958023906</v>
-      </c>
-      <c r="H5">
-        <v>488.49578911066055</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6">
-        <v>457.6949829403311</v>
-      </c>
-      <c r="D6">
-        <v>224.59666956961155</v>
-      </c>
-      <c r="E6">
-        <v>228.88839613460004</v>
-      </c>
-      <c r="F6">
-        <v>641.37093687430024</v>
-      </c>
-      <c r="G6">
-        <v>507.5662730243057</v>
-      </c>
-      <c r="H6">
-        <v>305.2384367226623</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7">
-        <v>949.81134685780853</v>
-      </c>
-      <c r="D7">
-        <v>395.96775010647252</v>
-      </c>
-      <c r="E7">
-        <v>414.99821314495057</v>
-      </c>
-      <c r="F7">
-        <v>1211.5971250645816</v>
-      </c>
-      <c r="G7">
-        <v>808.79513648618013</v>
-      </c>
-      <c r="H7">
-        <v>532.87196158710867</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C8">
-        <v>4148.8564126291312</v>
-      </c>
-      <c r="D8">
-        <v>4415.0756931580545</v>
-      </c>
-      <c r="E8">
-        <v>1714.4871727470309</v>
-      </c>
-      <c r="F8">
-        <v>3080.3927274635062</v>
-      </c>
-      <c r="G8">
-        <v>3254.9198766946793</v>
-      </c>
-      <c r="H8">
-        <v>1401.8526547383517</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9">
-        <v>2171.0543390703388</v>
-      </c>
-      <c r="D9">
-        <v>2787.8564933687449</v>
-      </c>
-      <c r="E9">
-        <v>618.3449990991503</v>
-      </c>
-      <c r="F9">
-        <v>1219.8505749221658</v>
-      </c>
-      <c r="G9">
-        <v>1552.5456711442675</v>
-      </c>
-      <c r="H9">
-        <v>676.38845442130696</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
+++ b/GAMS/AQ_LEWIE_InputSheet_v0.xlsx
@@ -39,7 +39,7 @@
     <author>Filipski, Mateusz (IFPRI)</author>
   </authors>
   <commentList>
-    <comment ref="K34" authorId="0" shapeId="0">
+    <comment ref="K41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,30 +60,6 @@
           </rPr>
           <t xml:space="preserve">
 Locals in Adj only provide a fraction of the economy's retail!  No wonder they gain almost nothing in the simulations.  Even with very limited upward pressure on prices, they end up losing in net terms. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K157" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Filipski, Mateusz (IFPRI):</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Value corrected using county data</t>
         </r>
       </text>
     </comment>
@@ -150,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="273">
   <si>
     <t>Variable</t>
   </si>
@@ -1040,6 +1016,21 @@
   </si>
   <si>
     <t>Share of inputs from outside</t>
+  </si>
+  <si>
+    <t>savings</t>
+  </si>
+  <si>
+    <t>savings_se</t>
+  </si>
+  <si>
+    <t>transfin_se</t>
+  </si>
+  <si>
+    <t>transfout_se</t>
+  </si>
+  <si>
+    <t>HHNUM</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1295,8 +1286,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1833,65 +1830,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1899,7 +1837,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="541">
+  <cellXfs count="514">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2321,15 +2259,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2415,7 +2344,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2460,23 +2388,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="16" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="16" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2487,31 +2398,8 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2637,191 +2525,8 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="21" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="20" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2881,6 +2586,200 @@
     <xf numFmtId="43" fontId="0" fillId="25" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3583,27 +3482,27 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="248">
+      <c r="C10" s="245">
         <f>SUM(C3:C9)</f>
         <v>10856.43761441065</v>
       </c>
-      <c r="D10" s="248">
+      <c r="D10" s="245">
         <f t="shared" ref="D10:H10" si="0">SUM(D3:D9)</f>
         <v>8944.8348692712316</v>
       </c>
-      <c r="E10" s="248">
+      <c r="E10" s="245">
         <f t="shared" si="0"/>
         <v>4639.9591336259618</v>
       </c>
-      <c r="F10" s="248">
+      <c r="F10" s="245">
         <f t="shared" si="0"/>
         <v>10465.431689676247</v>
       </c>
-      <c r="G10" s="248">
+      <c r="G10" s="245">
         <f t="shared" si="0"/>
         <v>9013.3949423579033</v>
       </c>
-      <c r="H10" s="248">
+      <c r="H10" s="245">
         <f t="shared" si="0"/>
         <v>4882.7445115986047</v>
       </c>
@@ -3640,27 +3539,27 @@
       <c r="B14" t="s">
         <v>239</v>
       </c>
-      <c r="C14" s="249">
+      <c r="C14" s="246">
         <f>C3/C$10</f>
         <v>0.12079371023451572</v>
       </c>
-      <c r="D14" s="249">
+      <c r="D14" s="246">
         <f t="shared" ref="D14:H14" si="1">D3/D$10</f>
         <v>4.2415793904524074E-2</v>
       </c>
-      <c r="E14" s="249">
+      <c r="E14" s="246">
         <f t="shared" si="1"/>
         <v>0.19462965861026471</v>
       </c>
-      <c r="F14" s="249">
+      <c r="F14" s="246">
         <f t="shared" si="1"/>
         <v>0.21593351890128706</v>
       </c>
-      <c r="G14" s="249">
+      <c r="G14" s="246">
         <f t="shared" si="1"/>
         <v>0.18892074881019635</v>
       </c>
-      <c r="H14" s="249">
+      <c r="H14" s="246">
         <f t="shared" si="1"/>
         <v>0.25517127421595392</v>
       </c>
@@ -3672,27 +3571,27 @@
       <c r="B15" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="249">
+      <c r="C15" s="246">
         <f t="shared" ref="C15:H20" si="2">C4/C$10</f>
         <v>8.3610584537755148E-2</v>
       </c>
-      <c r="D15" s="249">
+      <c r="D15" s="246">
         <f t="shared" si="2"/>
         <v>4.3408156664805068E-2</v>
       </c>
-      <c r="E15" s="249">
+      <c r="E15" s="246">
         <f t="shared" si="2"/>
         <v>9.5916827495144824E-2</v>
       </c>
-      <c r="F15" s="249">
+      <c r="F15" s="246">
         <f t="shared" si="2"/>
         <v>0.10555606283372089</v>
       </c>
-      <c r="G15" s="249">
+      <c r="G15" s="246">
         <f t="shared" si="2"/>
         <v>9.043483338215888E-2</v>
       </c>
-      <c r="H15" s="249">
+      <c r="H15" s="246">
         <f t="shared" si="2"/>
         <v>0.10023702611358462</v>
       </c>
@@ -3704,27 +3603,27 @@
       <c r="B16" t="s">
         <v>241</v>
       </c>
-      <c r="C16" s="249">
+      <c r="C16" s="246">
         <f t="shared" si="2"/>
         <v>4.0096853001184721E-2</v>
       </c>
-      <c r="D16" s="249">
+      <c r="D16" s="246">
         <f t="shared" si="2"/>
         <v>2.4443455081113341E-2</v>
       </c>
-      <c r="E16" s="249">
+      <c r="E16" s="246">
         <f t="shared" si="2"/>
         <v>4.932983018661459E-2</v>
       </c>
-      <c r="F16" s="249">
+      <c r="F16" s="246">
         <f t="shared" si="2"/>
         <v>5.9669868956309331E-2</v>
       </c>
-      <c r="G16" s="249">
+      <c r="G16" s="246">
         <f t="shared" si="2"/>
         <v>5.4356685330991299E-2</v>
       </c>
-      <c r="H16" s="249">
+      <c r="H16" s="246">
         <f t="shared" si="2"/>
         <v>6.2300707325195492E-2</v>
       </c>
@@ -3736,27 +3635,27 @@
       <c r="B17" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="249">
+      <c r="C17" s="246">
         <f t="shared" si="2"/>
         <v>1.9105061595308316E-2</v>
       </c>
-      <c r="D17" s="249">
+      <c r="D17" s="246">
         <f t="shared" si="2"/>
         <v>2.3052080442418733E-2</v>
       </c>
-      <c r="E17" s="249">
+      <c r="E17" s="246">
         <f t="shared" si="2"/>
         <v>4.9520909162855484E-3</v>
       </c>
-      <c r="F17" s="249">
+      <c r="F17" s="246">
         <f t="shared" si="2"/>
         <v>1.3589944102820618E-2</v>
       </c>
-      <c r="G17" s="249">
+      <c r="G17" s="246">
         <f t="shared" si="2"/>
         <v>2.8511464607947155E-3</v>
       </c>
-      <c r="H17" s="249">
+      <c r="H17" s="246">
         <f t="shared" si="2"/>
         <v>2.7085177061429667E-3</v>
       </c>
@@ -3768,27 +3667,27 @@
       <c r="B18" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="249">
+      <c r="C18" s="246">
         <f t="shared" si="2"/>
         <v>0.25699237158971638</v>
       </c>
-      <c r="D18" s="249">
+      <c r="D18" s="246">
         <f t="shared" si="2"/>
         <v>0.30317005939317654</v>
       </c>
-      <c r="E18" s="249">
+      <c r="E18" s="246">
         <f t="shared" si="2"/>
         <v>0.41522885801132103</v>
       </c>
-      <c r="F18" s="249">
+      <c r="F18" s="246">
         <f t="shared" si="2"/>
         <v>0.33049300775369</v>
       </c>
-      <c r="G18" s="249">
+      <c r="G18" s="246">
         <f t="shared" si="2"/>
         <v>0.33089097779614302</v>
       </c>
-      <c r="H18" s="249">
+      <c r="H18" s="246">
         <f t="shared" si="2"/>
         <v>0.34273694295748236</v>
       </c>
@@ -3800,27 +3699,27 @@
       <c r="B19" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="249">
+      <c r="C19" s="246">
         <f t="shared" si="2"/>
         <v>0.13007296263408813</v>
       </c>
-      <c r="D19" s="249">
+      <c r="D19" s="246">
         <f t="shared" si="2"/>
         <v>9.5156293001938466E-2</v>
       </c>
-      <c r="E19" s="249">
+      <c r="E19" s="246">
         <f t="shared" si="2"/>
         <v>8.1791704277047766E-2</v>
       </c>
-      <c r="F19" s="249">
+      <c r="F19" s="246">
         <f t="shared" si="2"/>
         <v>8.5052574379863105E-2</v>
       </c>
-      <c r="G19" s="249">
+      <c r="G19" s="246">
         <f t="shared" si="2"/>
         <v>0.10766130211829444</v>
       </c>
-      <c r="H19" s="249">
+      <c r="H19" s="246">
         <f t="shared" si="2"/>
         <v>0.11157531423868909</v>
       </c>
@@ -3832,27 +3731,27 @@
       <c r="B20" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="249">
+      <c r="C20" s="246">
         <f t="shared" si="2"/>
         <v>0.3493284564074316</v>
       </c>
-      <c r="D20" s="249">
+      <c r="D20" s="246">
         <f t="shared" si="2"/>
         <v>0.4683541615120238</v>
       </c>
-      <c r="E20" s="249">
+      <c r="E20" s="246">
         <f t="shared" si="2"/>
         <v>0.15815103050332152</v>
       </c>
-      <c r="F20" s="249">
+      <c r="F20" s="246">
         <f t="shared" si="2"/>
         <v>0.18970502307230896</v>
       </c>
-      <c r="G20" s="249">
+      <c r="G20" s="246">
         <f t="shared" si="2"/>
         <v>0.22488430610142129</v>
       </c>
-      <c r="H20" s="249">
+      <c r="H20" s="246">
         <f t="shared" si="2"/>
         <v>0.12527021744295153</v>
       </c>
@@ -3918,48 +3817,48 @@
     </row>
     <row r="9" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="496" t="s">
+      <c r="B9" s="491" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="497"/>
-      <c r="D9" s="497"/>
-      <c r="E9" s="497"/>
-      <c r="F9" s="498"/>
-      <c r="G9" s="496" t="s">
+      <c r="C9" s="492"/>
+      <c r="D9" s="492"/>
+      <c r="E9" s="492"/>
+      <c r="F9" s="493"/>
+      <c r="G9" s="491" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="497"/>
-      <c r="I9" s="497"/>
-      <c r="J9" s="497"/>
-      <c r="K9" s="498"/>
-      <c r="L9" s="496" t="s">
+      <c r="H9" s="492"/>
+      <c r="I9" s="492"/>
+      <c r="J9" s="492"/>
+      <c r="K9" s="493"/>
+      <c r="L9" s="491" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="497"/>
-      <c r="N9" s="497"/>
-      <c r="O9" s="497"/>
-      <c r="P9" s="498"/>
-      <c r="Q9" s="496" t="s">
+      <c r="M9" s="492"/>
+      <c r="N9" s="492"/>
+      <c r="O9" s="492"/>
+      <c r="P9" s="493"/>
+      <c r="Q9" s="491" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="497"/>
-      <c r="S9" s="497"/>
-      <c r="T9" s="497"/>
-      <c r="U9" s="498"/>
-      <c r="V9" s="496" t="s">
+      <c r="R9" s="492"/>
+      <c r="S9" s="492"/>
+      <c r="T9" s="492"/>
+      <c r="U9" s="493"/>
+      <c r="V9" s="491" t="s">
         <v>122</v>
       </c>
-      <c r="W9" s="497"/>
-      <c r="X9" s="497"/>
-      <c r="Y9" s="497"/>
-      <c r="Z9" s="498"/>
-      <c r="AA9" s="496" t="s">
+      <c r="W9" s="492"/>
+      <c r="X9" s="492"/>
+      <c r="Y9" s="492"/>
+      <c r="Z9" s="493"/>
+      <c r="AA9" s="491" t="s">
         <v>123</v>
       </c>
-      <c r="AB9" s="497"/>
-      <c r="AC9" s="497"/>
-      <c r="AD9" s="497"/>
-      <c r="AE9" s="498"/>
+      <c r="AB9" s="492"/>
+      <c r="AC9" s="492"/>
+      <c r="AD9" s="492"/>
+      <c r="AE9" s="493"/>
     </row>
     <row r="10" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
@@ -4115,21 +4014,21 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="499" t="s">
+      <c r="B2" s="494" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="499"/>
-      <c r="D2" s="499"/>
-      <c r="E2" s="499"/>
-      <c r="F2" s="499"/>
-      <c r="G2" s="499"/>
-      <c r="H2" s="499"/>
-      <c r="I2" s="499"/>
-      <c r="J2" s="499"/>
-      <c r="K2" s="499"/>
+      <c r="C2" s="494"/>
+      <c r="D2" s="494"/>
+      <c r="E2" s="494"/>
+      <c r="F2" s="494"/>
+      <c r="G2" s="494"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="494"/>
+      <c r="J2" s="494"/>
+      <c r="K2" s="494"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="499">
+      <c r="A3" s="494">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -4146,7 +4045,7 @@
       <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="499"/>
+      <c r="A4" s="494"/>
       <c r="B4" s="8" t="s">
         <v>43</v>
       </c>
@@ -4161,7 +4060,7 @@
       <c r="K4" s="125"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="499">
+      <c r="A5" s="494">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -4178,7 +4077,7 @@
       <c r="K5" s="124"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="499"/>
+      <c r="A6" s="494"/>
       <c r="B6" s="8" t="s">
         <v>45</v>
       </c>
@@ -4193,168 +4092,168 @@
       <c r="K6" s="124"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="499">
+      <c r="A9" s="494">
         <v>1</v>
       </c>
-      <c r="B9" s="500" t="s">
+      <c r="B9" s="495" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="501"/>
-      <c r="D9" s="501"/>
-      <c r="E9" s="501"/>
-      <c r="F9" s="501"/>
-      <c r="G9" s="501"/>
-      <c r="H9" s="501"/>
-      <c r="I9" s="501"/>
-      <c r="J9" s="501"/>
-      <c r="K9" s="501"/>
+      <c r="C9" s="496"/>
+      <c r="D9" s="496"/>
+      <c r="E9" s="496"/>
+      <c r="F9" s="496"/>
+      <c r="G9" s="496"/>
+      <c r="H9" s="496"/>
+      <c r="I9" s="496"/>
+      <c r="J9" s="496"/>
+      <c r="K9" s="496"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="499"/>
-      <c r="B10" s="501"/>
-      <c r="C10" s="501"/>
-      <c r="D10" s="501"/>
-      <c r="E10" s="501"/>
-      <c r="F10" s="501"/>
-      <c r="G10" s="501"/>
-      <c r="H10" s="501"/>
-      <c r="I10" s="501"/>
-      <c r="J10" s="501"/>
-      <c r="K10" s="501"/>
+      <c r="A10" s="494"/>
+      <c r="B10" s="496"/>
+      <c r="C10" s="496"/>
+      <c r="D10" s="496"/>
+      <c r="E10" s="496"/>
+      <c r="F10" s="496"/>
+      <c r="G10" s="496"/>
+      <c r="H10" s="496"/>
+      <c r="I10" s="496"/>
+      <c r="J10" s="496"/>
+      <c r="K10" s="496"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="499"/>
-      <c r="B11" s="501"/>
-      <c r="C11" s="501"/>
-      <c r="D11" s="501"/>
-      <c r="E11" s="501"/>
-      <c r="F11" s="501"/>
-      <c r="G11" s="501"/>
-      <c r="H11" s="501"/>
-      <c r="I11" s="501"/>
-      <c r="J11" s="501"/>
-      <c r="K11" s="501"/>
+      <c r="A11" s="494"/>
+      <c r="B11" s="496"/>
+      <c r="C11" s="496"/>
+      <c r="D11" s="496"/>
+      <c r="E11" s="496"/>
+      <c r="F11" s="496"/>
+      <c r="G11" s="496"/>
+      <c r="H11" s="496"/>
+      <c r="I11" s="496"/>
+      <c r="J11" s="496"/>
+      <c r="K11" s="496"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="499"/>
-      <c r="B12" s="501"/>
-      <c r="C12" s="501"/>
-      <c r="D12" s="501"/>
-      <c r="E12" s="501"/>
-      <c r="F12" s="501"/>
-      <c r="G12" s="501"/>
-      <c r="H12" s="501"/>
-      <c r="I12" s="501"/>
-      <c r="J12" s="501"/>
-      <c r="K12" s="501"/>
+      <c r="A12" s="494"/>
+      <c r="B12" s="496"/>
+      <c r="C12" s="496"/>
+      <c r="D12" s="496"/>
+      <c r="E12" s="496"/>
+      <c r="F12" s="496"/>
+      <c r="G12" s="496"/>
+      <c r="H12" s="496"/>
+      <c r="I12" s="496"/>
+      <c r="J12" s="496"/>
+      <c r="K12" s="496"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="499"/>
-      <c r="B13" s="501"/>
-      <c r="C13" s="501"/>
-      <c r="D13" s="501"/>
-      <c r="E13" s="501"/>
-      <c r="F13" s="501"/>
-      <c r="G13" s="501"/>
-      <c r="H13" s="501"/>
-      <c r="I13" s="501"/>
-      <c r="J13" s="501"/>
-      <c r="K13" s="501"/>
+      <c r="A13" s="494"/>
+      <c r="B13" s="496"/>
+      <c r="C13" s="496"/>
+      <c r="D13" s="496"/>
+      <c r="E13" s="496"/>
+      <c r="F13" s="496"/>
+      <c r="G13" s="496"/>
+      <c r="H13" s="496"/>
+      <c r="I13" s="496"/>
+      <c r="J13" s="496"/>
+      <c r="K13" s="496"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="499"/>
-      <c r="B14" s="501"/>
-      <c r="C14" s="501"/>
-      <c r="D14" s="501"/>
-      <c r="E14" s="501"/>
-      <c r="F14" s="501"/>
-      <c r="G14" s="501"/>
-      <c r="H14" s="501"/>
-      <c r="I14" s="501"/>
-      <c r="J14" s="501"/>
-      <c r="K14" s="501"/>
+      <c r="A14" s="494"/>
+      <c r="B14" s="496"/>
+      <c r="C14" s="496"/>
+      <c r="D14" s="496"/>
+      <c r="E14" s="496"/>
+      <c r="F14" s="496"/>
+      <c r="G14" s="496"/>
+      <c r="H14" s="496"/>
+      <c r="I14" s="496"/>
+      <c r="J14" s="496"/>
+      <c r="K14" s="496"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="499">
+      <c r="A15" s="494">
         <v>2</v>
       </c>
-      <c r="B15" s="500" t="s">
+      <c r="B15" s="495" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="501"/>
-      <c r="D15" s="501"/>
-      <c r="E15" s="501"/>
-      <c r="F15" s="501"/>
-      <c r="G15" s="501"/>
-      <c r="H15" s="501"/>
-      <c r="I15" s="501"/>
-      <c r="J15" s="501"/>
-      <c r="K15" s="501"/>
+      <c r="C15" s="496"/>
+      <c r="D15" s="496"/>
+      <c r="E15" s="496"/>
+      <c r="F15" s="496"/>
+      <c r="G15" s="496"/>
+      <c r="H15" s="496"/>
+      <c r="I15" s="496"/>
+      <c r="J15" s="496"/>
+      <c r="K15" s="496"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="499"/>
-      <c r="B16" s="501"/>
-      <c r="C16" s="501"/>
-      <c r="D16" s="501"/>
-      <c r="E16" s="501"/>
-      <c r="F16" s="501"/>
-      <c r="G16" s="501"/>
-      <c r="H16" s="501"/>
-      <c r="I16" s="501"/>
-      <c r="J16" s="501"/>
-      <c r="K16" s="501"/>
+      <c r="A16" s="494"/>
+      <c r="B16" s="496"/>
+      <c r="C16" s="496"/>
+      <c r="D16" s="496"/>
+      <c r="E16" s="496"/>
+      <c r="F16" s="496"/>
+      <c r="G16" s="496"/>
+      <c r="H16" s="496"/>
+      <c r="I16" s="496"/>
+      <c r="J16" s="496"/>
+      <c r="K16" s="496"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="499"/>
-      <c r="B17" s="501"/>
-      <c r="C17" s="501"/>
-      <c r="D17" s="501"/>
-      <c r="E17" s="501"/>
-      <c r="F17" s="501"/>
-      <c r="G17" s="501"/>
-      <c r="H17" s="501"/>
-      <c r="I17" s="501"/>
-      <c r="J17" s="501"/>
-      <c r="K17" s="501"/>
+      <c r="A17" s="494"/>
+      <c r="B17" s="496"/>
+      <c r="C17" s="496"/>
+      <c r="D17" s="496"/>
+      <c r="E17" s="496"/>
+      <c r="F17" s="496"/>
+      <c r="G17" s="496"/>
+      <c r="H17" s="496"/>
+      <c r="I17" s="496"/>
+      <c r="J17" s="496"/>
+      <c r="K17" s="496"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="499"/>
-      <c r="B18" s="501"/>
-      <c r="C18" s="501"/>
-      <c r="D18" s="501"/>
-      <c r="E18" s="501"/>
-      <c r="F18" s="501"/>
-      <c r="G18" s="501"/>
-      <c r="H18" s="501"/>
-      <c r="I18" s="501"/>
-      <c r="J18" s="501"/>
-      <c r="K18" s="501"/>
+      <c r="A18" s="494"/>
+      <c r="B18" s="496"/>
+      <c r="C18" s="496"/>
+      <c r="D18" s="496"/>
+      <c r="E18" s="496"/>
+      <c r="F18" s="496"/>
+      <c r="G18" s="496"/>
+      <c r="H18" s="496"/>
+      <c r="I18" s="496"/>
+      <c r="J18" s="496"/>
+      <c r="K18" s="496"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="499"/>
-      <c r="B19" s="501"/>
-      <c r="C19" s="501"/>
-      <c r="D19" s="501"/>
-      <c r="E19" s="501"/>
-      <c r="F19" s="501"/>
-      <c r="G19" s="501"/>
-      <c r="H19" s="501"/>
-      <c r="I19" s="501"/>
-      <c r="J19" s="501"/>
-      <c r="K19" s="501"/>
+      <c r="A19" s="494"/>
+      <c r="B19" s="496"/>
+      <c r="C19" s="496"/>
+      <c r="D19" s="496"/>
+      <c r="E19" s="496"/>
+      <c r="F19" s="496"/>
+      <c r="G19" s="496"/>
+      <c r="H19" s="496"/>
+      <c r="I19" s="496"/>
+      <c r="J19" s="496"/>
+      <c r="K19" s="496"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="499"/>
-      <c r="B20" s="501"/>
-      <c r="C20" s="501"/>
-      <c r="D20" s="501"/>
-      <c r="E20" s="501"/>
-      <c r="F20" s="501"/>
-      <c r="G20" s="501"/>
-      <c r="H20" s="501"/>
-      <c r="I20" s="501"/>
-      <c r="J20" s="501"/>
-      <c r="K20" s="501"/>
+      <c r="A20" s="494"/>
+      <c r="B20" s="496"/>
+      <c r="C20" s="496"/>
+      <c r="D20" s="496"/>
+      <c r="E20" s="496"/>
+      <c r="F20" s="496"/>
+      <c r="G20" s="496"/>
+      <c r="H20" s="496"/>
+      <c r="I20" s="496"/>
+      <c r="J20" s="496"/>
+      <c r="K20" s="496"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4413,34 +4312,34 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="502" t="s">
+      <c r="B9" s="497" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="503"/>
-      <c r="D9" s="503"/>
-      <c r="E9" s="503"/>
-      <c r="F9" s="504"/>
-      <c r="G9" s="502" t="s">
+      <c r="C9" s="498"/>
+      <c r="D9" s="498"/>
+      <c r="E9" s="498"/>
+      <c r="F9" s="499"/>
+      <c r="G9" s="497" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="503"/>
-      <c r="I9" s="503"/>
-      <c r="J9" s="503"/>
-      <c r="K9" s="504"/>
-      <c r="L9" s="502" t="s">
+      <c r="H9" s="498"/>
+      <c r="I9" s="498"/>
+      <c r="J9" s="498"/>
+      <c r="K9" s="499"/>
+      <c r="L9" s="497" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="503"/>
-      <c r="N9" s="503"/>
-      <c r="O9" s="503"/>
-      <c r="P9" s="504"/>
-      <c r="Q9" s="502" t="s">
+      <c r="M9" s="498"/>
+      <c r="N9" s="498"/>
+      <c r="O9" s="498"/>
+      <c r="P9" s="499"/>
+      <c r="Q9" s="497" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="503"/>
-      <c r="S9" s="503"/>
-      <c r="T9" s="503"/>
-      <c r="U9" s="504"/>
+      <c r="R9" s="498"/>
+      <c r="S9" s="498"/>
+      <c r="T9" s="498"/>
+      <c r="U9" s="499"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -4644,34 +4543,34 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
-      <c r="B9" s="502" t="s">
+      <c r="B9" s="497" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="503"/>
-      <c r="D9" s="503"/>
-      <c r="E9" s="503"/>
-      <c r="F9" s="504"/>
-      <c r="G9" s="502" t="s">
+      <c r="C9" s="498"/>
+      <c r="D9" s="498"/>
+      <c r="E9" s="498"/>
+      <c r="F9" s="499"/>
+      <c r="G9" s="497" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="503"/>
-      <c r="I9" s="503"/>
-      <c r="J9" s="503"/>
-      <c r="K9" s="504"/>
-      <c r="L9" s="502" t="s">
+      <c r="H9" s="498"/>
+      <c r="I9" s="498"/>
+      <c r="J9" s="498"/>
+      <c r="K9" s="499"/>
+      <c r="L9" s="497" t="s">
         <v>122</v>
       </c>
-      <c r="M9" s="503"/>
-      <c r="N9" s="503"/>
-      <c r="O9" s="503"/>
-      <c r="P9" s="504"/>
-      <c r="Q9" s="502" t="s">
+      <c r="M9" s="498"/>
+      <c r="N9" s="498"/>
+      <c r="O9" s="498"/>
+      <c r="P9" s="499"/>
+      <c r="Q9" s="497" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="503"/>
-      <c r="S9" s="503"/>
-      <c r="T9" s="503"/>
-      <c r="U9" s="504"/>
+      <c r="R9" s="498"/>
+      <c r="S9" s="498"/>
+      <c r="T9" s="498"/>
+      <c r="U9" s="499"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -4814,11 +4713,11 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="499" t="s">
+      <c r="A3" s="494" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="499"/>
-      <c r="C3" s="499"/>
+      <c r="B3" s="494"/>
+      <c r="C3" s="494"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -4843,11 +4742,11 @@
       <c r="C6" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="499" t="s">
+      <c r="A9" s="494" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="499"/>
-      <c r="C9" s="499"/>
+      <c r="B9" s="494"/>
+      <c r="C9" s="494"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -4890,11 +4789,11 @@
       <c r="K14" s="7"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="499" t="s">
+      <c r="A15" s="494" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="499"/>
-      <c r="C15" s="499"/>
+      <c r="B15" s="494"/>
+      <c r="C15" s="494"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
         <v>1</v>
@@ -4969,11 +4868,11 @@
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="499" t="s">
+      <c r="A21" s="494" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="499"/>
-      <c r="C21" s="499"/>
+      <c r="B21" s="494"/>
+      <c r="C21" s="494"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>135</v>
@@ -5050,8 +4949,8 @@
       <c r="K26" s="230"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="499"/>
-      <c r="C27" s="499"/>
+      <c r="B27" s="494"/>
+      <c r="C27" s="494"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5066,7 +4965,7 @@
       <c r="K28" s="7"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F29" s="511" t="s">
+      <c r="F29" s="506" t="s">
         <v>56</v>
       </c>
       <c r="G29" s="61" t="s">
@@ -5078,7 +4977,7 @@
       <c r="K29" s="66"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F30" s="512"/>
+      <c r="F30" s="507"/>
       <c r="G30" s="24" t="s">
         <v>51</v>
       </c>
@@ -5088,7 +4987,7 @@
       <c r="K30" s="65"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="512" t="s">
+      <c r="F31" s="507" t="s">
         <v>57</v>
       </c>
       <c r="G31" s="24" t="s">
@@ -5100,7 +4999,7 @@
       <c r="K31" s="65"/>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F32" s="513"/>
+      <c r="F32" s="508"/>
       <c r="G32" s="64" t="s">
         <v>51</v>
       </c>
@@ -5110,8 +5009,8 @@
       <c r="K32" s="67"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="499"/>
-      <c r="C33" s="499"/>
+      <c r="B33" s="494"/>
+      <c r="C33" s="494"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -5136,10 +5035,10 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F36" s="505" t="s">
+      <c r="F36" s="500" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="514" t="s">
+      <c r="G36" s="509" t="s">
         <v>125</v>
       </c>
       <c r="H36" s="61" t="e">
@@ -5164,8 +5063,8 @@
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F37" s="506"/>
-      <c r="G37" s="509"/>
+      <c r="F37" s="501"/>
+      <c r="G37" s="504"/>
       <c r="H37" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5188,8 +5087,8 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F38" s="506"/>
-      <c r="G38" s="509"/>
+      <c r="F38" s="501"/>
+      <c r="G38" s="504"/>
       <c r="H38" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5212,8 +5111,8 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F39" s="506"/>
-      <c r="G39" s="509"/>
+      <c r="F39" s="501"/>
+      <c r="G39" s="504"/>
       <c r="H39" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
@@ -5236,7 +5135,7 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F40" s="506"/>
+      <c r="F40" s="501"/>
       <c r="G40" s="108"/>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -5245,8 +5144,8 @@
       <c r="M40" s="109"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F41" s="506"/>
-      <c r="G41" s="509" t="s">
+      <c r="F41" s="501"/>
+      <c r="G41" s="504" t="s">
         <v>135</v>
       </c>
       <c r="H41" s="24" t="e">
@@ -5271,8 +5170,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F42" s="506"/>
-      <c r="G42" s="509"/>
+      <c r="F42" s="501"/>
+      <c r="G42" s="504"/>
       <c r="H42" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -5295,8 +5194,8 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F43" s="506"/>
-      <c r="G43" s="509"/>
+      <c r="F43" s="501"/>
+      <c r="G43" s="504"/>
       <c r="H43" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -5319,8 +5218,8 @@
       </c>
     </row>
     <row r="44" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F44" s="507"/>
-      <c r="G44" s="510"/>
+      <c r="F44" s="502"/>
+      <c r="G44" s="505"/>
       <c r="H44" s="64" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -5351,10 +5250,10 @@
       <c r="M45" s="109"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F46" s="505" t="s">
+      <c r="F46" s="500" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="508" t="s">
+      <c r="G46" s="503" t="s">
         <v>125</v>
       </c>
       <c r="H46" s="61" t="e">
@@ -5379,8 +5278,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F47" s="506"/>
-      <c r="G47" s="509"/>
+      <c r="F47" s="501"/>
+      <c r="G47" s="504"/>
       <c r="H47" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -5403,8 +5302,8 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F48" s="506"/>
-      <c r="G48" s="509"/>
+      <c r="F48" s="501"/>
+      <c r="G48" s="504"/>
       <c r="H48" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -5427,8 +5326,8 @@
       </c>
     </row>
     <row r="49" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F49" s="506"/>
-      <c r="G49" s="509"/>
+      <c r="F49" s="501"/>
+      <c r="G49" s="504"/>
       <c r="H49" s="24" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -5451,7 +5350,7 @@
       </c>
     </row>
     <row r="50" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F50" s="506"/>
+      <c r="F50" s="501"/>
       <c r="G50" s="24"/>
       <c r="H50" s="24"/>
       <c r="I50" s="24"/>
@@ -5460,8 +5359,8 @@
       <c r="M50" s="109"/>
     </row>
     <row r="51" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F51" s="506"/>
-      <c r="G51" s="509" t="s">
+      <c r="F51" s="501"/>
+      <c r="G51" s="504" t="s">
         <v>135</v>
       </c>
       <c r="H51" s="24" t="e">
@@ -5486,8 +5385,8 @@
       </c>
     </row>
     <row r="52" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F52" s="506"/>
-      <c r="G52" s="509"/>
+      <c r="F52" s="501"/>
+      <c r="G52" s="504"/>
       <c r="H52" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5510,8 +5409,8 @@
       </c>
     </row>
     <row r="53" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F53" s="506"/>
-      <c r="G53" s="509"/>
+      <c r="F53" s="501"/>
+      <c r="G53" s="504"/>
       <c r="H53" s="24" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5534,8 +5433,8 @@
       </c>
     </row>
     <row r="54" spans="6:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F54" s="507"/>
-      <c r="G54" s="510"/>
+      <c r="F54" s="502"/>
+      <c r="G54" s="505"/>
       <c r="H54" s="64" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -5759,12 +5658,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
     <mergeCell ref="F46:F54"/>
     <mergeCell ref="G46:G49"/>
     <mergeCell ref="G51:G54"/>
@@ -5773,6 +5666,12 @@
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="F36:F44"/>
     <mergeCell ref="G41:G44"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6128,22 +6027,22 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L218"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F66" sqref="F66"/>
+      <selection pane="bottomRight" activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="6" max="9" width="17.42578125" style="351" customWidth="1"/>
-    <col min="10" max="11" width="17.42578125" style="372" customWidth="1"/>
+    <col min="6" max="9" width="17.42578125" style="334" customWidth="1"/>
+    <col min="10" max="11" width="17.42578125" style="341" customWidth="1"/>
     <col min="12" max="12" width="34.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6163,16 +6062,16 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="453" t="s">
+      <c r="F1" s="448" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="453"/>
-      <c r="H1" s="453"/>
-      <c r="I1" s="453"/>
-      <c r="J1" s="454" t="s">
+      <c r="G1" s="448"/>
+      <c r="H1" s="448"/>
+      <c r="I1" s="448"/>
+      <c r="J1" s="449" t="s">
         <v>225</v>
       </c>
-      <c r="K1" s="454"/>
+      <c r="K1" s="449"/>
       <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -6181,16 +6080,16 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="455" t="s">
+      <c r="F2" s="450" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="455"/>
-      <c r="H2" s="455" t="s">
+      <c r="G2" s="450"/>
+      <c r="H2" s="450" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="455"/>
-      <c r="J2" s="363"/>
-      <c r="K2" s="363"/>
+      <c r="I2" s="450"/>
+      <c r="J2" s="340"/>
+      <c r="K2" s="340"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6199,22 +6098,22 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="322" t="s">
+      <c r="F3" s="318" t="s">
         <v>227</v>
       </c>
-      <c r="G3" s="322" t="s">
+      <c r="G3" s="318" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="322" t="s">
+      <c r="H3" s="318" t="s">
         <v>229</v>
       </c>
-      <c r="I3" s="322" t="s">
+      <c r="I3" s="318" t="s">
         <v>230</v>
       </c>
-      <c r="J3" s="363" t="s">
+      <c r="J3" s="340" t="s">
         <v>229</v>
       </c>
-      <c r="K3" s="363" t="s">
+      <c r="K3" s="340" t="s">
         <v>230</v>
       </c>
       <c r="L3" s="9"/>
@@ -6223,77 +6122,57 @@
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="250" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="250" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="250"/>
-      <c r="E4" s="250" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="323">
-        <f>Cons!C14</f>
-        <v>0.12079371023451572</v>
-      </c>
-      <c r="G4" s="323">
-        <f>Cons!D14</f>
-        <v>4.2415793904524074E-2</v>
-      </c>
-      <c r="H4" s="323">
-        <f>Cons!E14</f>
-        <v>0.19462965861026471</v>
-      </c>
-      <c r="I4" s="323">
-        <f>Cons!F14</f>
-        <v>0.21593351890128706</v>
-      </c>
-      <c r="J4" s="323">
-        <f>Cons!G14</f>
-        <v>0.18892074881019635</v>
-      </c>
-      <c r="K4" s="323">
-        <f>Cons!H14</f>
-        <v>0.25517127421595392</v>
-      </c>
-      <c r="L4" s="242" t="s">
-        <v>108</v>
-      </c>
+      <c r="B4" s="511" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="511"/>
+      <c r="D4" s="511"/>
+      <c r="E4" s="511"/>
+      <c r="F4" s="512"/>
+      <c r="G4" s="512"/>
+      <c r="H4" s="512"/>
+      <c r="I4" s="512"/>
+      <c r="J4" s="513"/>
+      <c r="K4" s="513"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="250"/>
-      <c r="C5" s="250" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="323">
-        <f>Cons!C15</f>
-        <v>8.3610584537755148E-2</v>
-      </c>
-      <c r="G5" s="323">
-        <f>Cons!D15</f>
-        <v>4.3408156664805068E-2</v>
-      </c>
-      <c r="H5" s="323">
-        <f>Cons!E15</f>
-        <v>9.5916827495144824E-2</v>
-      </c>
-      <c r="I5" s="323">
-        <f>Cons!F15</f>
-        <v>0.10555606283372089</v>
-      </c>
-      <c r="J5" s="323">
-        <f>Cons!G15</f>
-        <v>9.043483338215888E-2</v>
-      </c>
-      <c r="K5" s="323">
-        <f>Cons!H15</f>
-        <v>0.10023702611358462</v>
+      <c r="B5" s="247" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="247" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="247"/>
+      <c r="E5" s="247" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="319">
+        <f>Cons!C14</f>
+        <v>0.12079371023451572</v>
+      </c>
+      <c r="G5" s="319">
+        <f>Cons!D14</f>
+        <v>4.2415793904524074E-2</v>
+      </c>
+      <c r="H5" s="319">
+        <f>Cons!E14</f>
+        <v>0.19462965861026471</v>
+      </c>
+      <c r="I5" s="319">
+        <f>Cons!F14</f>
+        <v>0.21593351890128706</v>
+      </c>
+      <c r="J5" s="319">
+        <f>Cons!G14</f>
+        <v>0.18892074881019635</v>
+      </c>
+      <c r="K5" s="319">
+        <f>Cons!H14</f>
+        <v>0.25517127421595392</v>
       </c>
       <c r="L5" s="242"/>
     </row>
@@ -6301,35 +6180,35 @@
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="250"/>
-      <c r="C6" s="250" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="250"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="323">
-        <f>Cons!C16</f>
-        <v>4.0096853001184721E-2</v>
-      </c>
-      <c r="G6" s="323">
-        <f>Cons!D16</f>
-        <v>2.4443455081113341E-2</v>
-      </c>
-      <c r="H6" s="323">
-        <f>Cons!E16</f>
-        <v>4.932983018661459E-2</v>
-      </c>
-      <c r="I6" s="323">
-        <f>Cons!F16</f>
-        <v>5.9669868956309331E-2</v>
-      </c>
-      <c r="J6" s="323">
-        <f>Cons!G16</f>
-        <v>5.4356685330991299E-2</v>
-      </c>
-      <c r="K6" s="323">
-        <f>Cons!H16</f>
-        <v>6.2300707325195492E-2</v>
+      <c r="B6" s="247"/>
+      <c r="C6" s="247" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="247"/>
+      <c r="E6" s="247"/>
+      <c r="F6" s="319">
+        <f>Cons!C15</f>
+        <v>8.3610584537755148E-2</v>
+      </c>
+      <c r="G6" s="319">
+        <f>Cons!D15</f>
+        <v>4.3408156664805068E-2</v>
+      </c>
+      <c r="H6" s="319">
+        <f>Cons!E15</f>
+        <v>9.5916827495144824E-2</v>
+      </c>
+      <c r="I6" s="319">
+        <f>Cons!F15</f>
+        <v>0.10555606283372089</v>
+      </c>
+      <c r="J6" s="319">
+        <f>Cons!G15</f>
+        <v>9.043483338215888E-2</v>
+      </c>
+      <c r="K6" s="319">
+        <f>Cons!H15</f>
+        <v>0.10023702611358462</v>
       </c>
       <c r="L6" s="242"/>
     </row>
@@ -6337,35 +6216,35 @@
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="250"/>
-      <c r="C7" s="250" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="250"/>
-      <c r="E7" s="250"/>
-      <c r="F7" s="323">
-        <f>Cons!C17</f>
-        <v>1.9105061595308316E-2</v>
-      </c>
-      <c r="G7" s="323">
-        <f>Cons!D17</f>
-        <v>2.3052080442418733E-2</v>
-      </c>
-      <c r="H7" s="323">
-        <f>Cons!E17</f>
-        <v>4.9520909162855484E-3</v>
-      </c>
-      <c r="I7" s="323">
-        <f>Cons!F17</f>
-        <v>1.3589944102820618E-2</v>
-      </c>
-      <c r="J7" s="323">
-        <f>Cons!G17</f>
-        <v>2.8511464607947155E-3</v>
-      </c>
-      <c r="K7" s="323">
-        <f>Cons!H17</f>
-        <v>2.7085177061429667E-3</v>
+      <c r="B7" s="247"/>
+      <c r="C7" s="247" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" s="247"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="319">
+        <f>Cons!C16</f>
+        <v>4.0096853001184721E-2</v>
+      </c>
+      <c r="G7" s="319">
+        <f>Cons!D16</f>
+        <v>2.4443455081113341E-2</v>
+      </c>
+      <c r="H7" s="319">
+        <f>Cons!E16</f>
+        <v>4.932983018661459E-2</v>
+      </c>
+      <c r="I7" s="319">
+        <f>Cons!F16</f>
+        <v>5.9669868956309331E-2</v>
+      </c>
+      <c r="J7" s="319">
+        <f>Cons!G16</f>
+        <v>5.4356685330991299E-2</v>
+      </c>
+      <c r="K7" s="319">
+        <f>Cons!H16</f>
+        <v>6.2300707325195492E-2</v>
       </c>
       <c r="L7" s="242"/>
     </row>
@@ -6373,71 +6252,71 @@
       <c r="A8" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="250"/>
-      <c r="C8" s="250" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="323">
-        <f>Cons!C18</f>
-        <v>0.25699237158971638</v>
-      </c>
-      <c r="G8" s="323">
-        <f>Cons!D18</f>
-        <v>0.30317005939317654</v>
-      </c>
-      <c r="H8" s="323">
-        <f>Cons!E18</f>
-        <v>0.41522885801132103</v>
-      </c>
-      <c r="I8" s="323">
-        <f>Cons!F18</f>
-        <v>0.33049300775369</v>
-      </c>
-      <c r="J8" s="323">
-        <f>Cons!G18</f>
-        <v>0.33089097779614302</v>
-      </c>
-      <c r="K8" s="323">
-        <f>Cons!H18</f>
-        <v>0.34273694295748236</v>
-      </c>
-      <c r="L8" s="9"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="247" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="247"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="319">
+        <f>Cons!C17</f>
+        <v>1.9105061595308316E-2</v>
+      </c>
+      <c r="G8" s="319">
+        <f>Cons!D17</f>
+        <v>2.3052080442418733E-2</v>
+      </c>
+      <c r="H8" s="319">
+        <f>Cons!E17</f>
+        <v>4.9520909162855484E-3</v>
+      </c>
+      <c r="I8" s="319">
+        <f>Cons!F17</f>
+        <v>1.3589944102820618E-2</v>
+      </c>
+      <c r="J8" s="319">
+        <f>Cons!G17</f>
+        <v>2.8511464607947155E-3</v>
+      </c>
+      <c r="K8" s="319">
+        <f>Cons!H17</f>
+        <v>2.7085177061429667E-3</v>
+      </c>
+      <c r="L8" s="242"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="250"/>
-      <c r="C9" s="250" t="s">
-        <v>236</v>
-      </c>
-      <c r="D9" s="250"/>
-      <c r="E9" s="250"/>
-      <c r="F9" s="323">
-        <f>Cons!C19</f>
-        <v>0.13007296263408813</v>
-      </c>
-      <c r="G9" s="323">
-        <f>Cons!D19</f>
-        <v>9.5156293001938466E-2</v>
-      </c>
-      <c r="H9" s="323">
-        <f>Cons!E19</f>
-        <v>8.1791704277047766E-2</v>
-      </c>
-      <c r="I9" s="323">
-        <f>Cons!F19</f>
-        <v>8.5052574379863105E-2</v>
-      </c>
-      <c r="J9" s="323">
-        <f>Cons!G19</f>
-        <v>0.10766130211829444</v>
-      </c>
-      <c r="K9" s="323">
-        <f>Cons!H19</f>
-        <v>0.11157531423868909</v>
+      <c r="B9" s="247"/>
+      <c r="C9" s="247" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="247"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="319">
+        <f>Cons!C18</f>
+        <v>0.25699237158971638</v>
+      </c>
+      <c r="G9" s="319">
+        <f>Cons!D18</f>
+        <v>0.30317005939317654</v>
+      </c>
+      <c r="H9" s="319">
+        <f>Cons!E18</f>
+        <v>0.41522885801132103</v>
+      </c>
+      <c r="I9" s="319">
+        <f>Cons!F18</f>
+        <v>0.33049300775369</v>
+      </c>
+      <c r="J9" s="319">
+        <f>Cons!G18</f>
+        <v>0.33089097779614302</v>
+      </c>
+      <c r="K9" s="319">
+        <f>Cons!H18</f>
+        <v>0.34273694295748236</v>
       </c>
       <c r="L9" s="9"/>
     </row>
@@ -6445,35 +6324,35 @@
       <c r="A10" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="250"/>
-      <c r="C10" s="250" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="250"/>
-      <c r="E10" s="250"/>
-      <c r="F10" s="323">
-        <f>Cons!C20</f>
-        <v>0.3493284564074316</v>
-      </c>
-      <c r="G10" s="323">
-        <f>Cons!D20</f>
-        <v>0.4683541615120238</v>
-      </c>
-      <c r="H10" s="323">
-        <f>Cons!E20</f>
-        <v>0.15815103050332152</v>
-      </c>
-      <c r="I10" s="323">
-        <f>Cons!F20</f>
-        <v>0.18970502307230896</v>
-      </c>
-      <c r="J10" s="323">
-        <f>Cons!G20</f>
-        <v>0.22488430610142129</v>
-      </c>
-      <c r="K10" s="323">
-        <f>Cons!H20</f>
-        <v>0.12527021744295153</v>
+      <c r="B10" s="247"/>
+      <c r="C10" s="247" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="247"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="319">
+        <f>Cons!C19</f>
+        <v>0.13007296263408813</v>
+      </c>
+      <c r="G10" s="319">
+        <f>Cons!D19</f>
+        <v>9.5156293001938466E-2</v>
+      </c>
+      <c r="H10" s="319">
+        <f>Cons!E19</f>
+        <v>8.1791704277047766E-2</v>
+      </c>
+      <c r="I10" s="319">
+        <f>Cons!F19</f>
+        <v>8.5052574379863105E-2</v>
+      </c>
+      <c r="J10" s="319">
+        <f>Cons!G19</f>
+        <v>0.10766130211829444</v>
+      </c>
+      <c r="K10" s="319">
+        <f>Cons!H19</f>
+        <v>0.11157531423868909</v>
       </c>
       <c r="L10" s="9"/>
     </row>
@@ -6481,111 +6360,111 @@
       <c r="A11" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="268" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="269" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="269"/>
-      <c r="E11" s="270"/>
-      <c r="F11" s="324">
-        <f>F4/10</f>
-        <v>1.2079371023451572E-2</v>
-      </c>
-      <c r="G11" s="265">
-        <f t="shared" ref="G11:K11" si="0">G4/10</f>
-        <v>4.241579390452407E-3</v>
-      </c>
-      <c r="H11" s="265">
-        <f t="shared" si="0"/>
-        <v>1.9462965861026471E-2</v>
-      </c>
-      <c r="I11" s="265">
-        <f t="shared" si="0"/>
-        <v>2.1593351890128707E-2</v>
-      </c>
-      <c r="J11" s="265">
-        <f t="shared" si="0"/>
-        <v>1.8892074881019634E-2</v>
-      </c>
-      <c r="K11" s="265">
-        <f t="shared" si="0"/>
-        <v>2.5517127421595391E-2</v>
-      </c>
-      <c r="L11" s="258" t="s">
-        <v>247</v>
-      </c>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="247"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="319">
+        <f>Cons!C20</f>
+        <v>0.3493284564074316</v>
+      </c>
+      <c r="G11" s="319">
+        <f>Cons!D20</f>
+        <v>0.4683541615120238</v>
+      </c>
+      <c r="H11" s="319">
+        <f>Cons!E20</f>
+        <v>0.15815103050332152</v>
+      </c>
+      <c r="I11" s="319">
+        <f>Cons!F20</f>
+        <v>0.18970502307230896</v>
+      </c>
+      <c r="J11" s="319">
+        <f>Cons!G20</f>
+        <v>0.22488430610142129</v>
+      </c>
+      <c r="K11" s="319">
+        <f>Cons!H20</f>
+        <v>0.12527021744295153</v>
+      </c>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="271"/>
-      <c r="C12" s="272" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" s="272"/>
-      <c r="E12" s="273"/>
-      <c r="F12" s="325">
-        <f t="shared" ref="F12:K12" si="1">F5/10</f>
-        <v>8.3610584537755148E-3</v>
-      </c>
-      <c r="G12" s="266">
-        <f t="shared" si="1"/>
-        <v>4.3408156664805067E-3</v>
-      </c>
-      <c r="H12" s="266">
-        <f t="shared" si="1"/>
-        <v>9.5916827495144824E-3</v>
-      </c>
-      <c r="I12" s="266">
-        <f t="shared" si="1"/>
-        <v>1.0555606283372088E-2</v>
-      </c>
-      <c r="J12" s="266">
-        <f t="shared" si="1"/>
-        <v>9.0434833382158873E-3</v>
-      </c>
-      <c r="K12" s="266">
-        <f t="shared" si="1"/>
-        <v>1.0023702611358463E-2</v>
-      </c>
-      <c r="L12" s="9"/>
+      <c r="B12" s="265" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="266" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="266"/>
+      <c r="E12" s="267"/>
+      <c r="F12" s="320">
+        <f>F5/10</f>
+        <v>1.2079371023451572E-2</v>
+      </c>
+      <c r="G12" s="262">
+        <f>G5/10</f>
+        <v>4.241579390452407E-3</v>
+      </c>
+      <c r="H12" s="262">
+        <f>H5/10</f>
+        <v>1.9462965861026471E-2</v>
+      </c>
+      <c r="I12" s="262">
+        <f>I5/10</f>
+        <v>2.1593351890128707E-2</v>
+      </c>
+      <c r="J12" s="262">
+        <f>J5/10</f>
+        <v>1.8892074881019634E-2</v>
+      </c>
+      <c r="K12" s="262">
+        <f>K5/10</f>
+        <v>2.5517127421595391E-2</v>
+      </c>
+      <c r="L12" s="255" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="271"/>
-      <c r="C13" s="272" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="272"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="325">
-        <f t="shared" ref="F13:K13" si="2">F6/10</f>
-        <v>4.0096853001184724E-3</v>
-      </c>
-      <c r="G13" s="266">
-        <f t="shared" si="2"/>
-        <v>2.4443455081113339E-3</v>
-      </c>
-      <c r="H13" s="266">
-        <f t="shared" si="2"/>
-        <v>4.9329830186614588E-3</v>
-      </c>
-      <c r="I13" s="266">
-        <f t="shared" si="2"/>
-        <v>5.9669868956309328E-3</v>
-      </c>
-      <c r="J13" s="266">
-        <f t="shared" si="2"/>
-        <v>5.4356685330991302E-3</v>
-      </c>
-      <c r="K13" s="266">
-        <f t="shared" si="2"/>
-        <v>6.2300707325195492E-3</v>
+      <c r="B13" s="268"/>
+      <c r="C13" s="269" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="269"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="321">
+        <f>F6/10</f>
+        <v>8.3610584537755148E-3</v>
+      </c>
+      <c r="G13" s="263">
+        <f>G6/10</f>
+        <v>4.3408156664805067E-3</v>
+      </c>
+      <c r="H13" s="263">
+        <f>H6/10</f>
+        <v>9.5916827495144824E-3</v>
+      </c>
+      <c r="I13" s="263">
+        <f>I6/10</f>
+        <v>1.0555606283372088E-2</v>
+      </c>
+      <c r="J13" s="263">
+        <f>J6/10</f>
+        <v>9.0434833382158873E-3</v>
+      </c>
+      <c r="K13" s="263">
+        <f>K6/10</f>
+        <v>1.0023702611358463E-2</v>
       </c>
       <c r="L13" s="9"/>
     </row>
@@ -6593,35 +6472,35 @@
       <c r="A14" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="271"/>
-      <c r="C14" s="272" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="272"/>
-      <c r="E14" s="273"/>
-      <c r="F14" s="325">
-        <f t="shared" ref="F14:K14" si="3">F7/10</f>
-        <v>1.9105061595308317E-3</v>
-      </c>
-      <c r="G14" s="266">
-        <f t="shared" si="3"/>
-        <v>2.3052080442418732E-3</v>
-      </c>
-      <c r="H14" s="266">
-        <f t="shared" si="3"/>
-        <v>4.9520909162855482E-4</v>
-      </c>
-      <c r="I14" s="266">
-        <f t="shared" si="3"/>
-        <v>1.3589944102820619E-3</v>
-      </c>
-      <c r="J14" s="266">
-        <f t="shared" si="3"/>
-        <v>2.8511464607947155E-4</v>
-      </c>
-      <c r="K14" s="266">
-        <f t="shared" si="3"/>
-        <v>2.7085177061429667E-4</v>
+      <c r="B14" s="268"/>
+      <c r="C14" s="269" t="s">
+        <v>235</v>
+      </c>
+      <c r="D14" s="269"/>
+      <c r="E14" s="270"/>
+      <c r="F14" s="321">
+        <f>F7/10</f>
+        <v>4.0096853001184724E-3</v>
+      </c>
+      <c r="G14" s="263">
+        <f>G7/10</f>
+        <v>2.4443455081113339E-3</v>
+      </c>
+      <c r="H14" s="263">
+        <f>H7/10</f>
+        <v>4.9329830186614588E-3</v>
+      </c>
+      <c r="I14" s="263">
+        <f>I7/10</f>
+        <v>5.9669868956309328E-3</v>
+      </c>
+      <c r="J14" s="263">
+        <f>J7/10</f>
+        <v>5.4356685330991302E-3</v>
+      </c>
+      <c r="K14" s="263">
+        <f>K7/10</f>
+        <v>6.2300707325195492E-3</v>
       </c>
       <c r="L14" s="9"/>
     </row>
@@ -6629,35 +6508,35 @@
       <c r="A15" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="271"/>
-      <c r="C15" s="272" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="272"/>
-      <c r="E15" s="273"/>
-      <c r="F15" s="325">
-        <f t="shared" ref="F15:K15" si="4">F8/10</f>
-        <v>2.5699237158971638E-2</v>
-      </c>
-      <c r="G15" s="266">
-        <f t="shared" si="4"/>
-        <v>3.0317005939317652E-2</v>
-      </c>
-      <c r="H15" s="266">
-        <f t="shared" si="4"/>
-        <v>4.1522885801132101E-2</v>
-      </c>
-      <c r="I15" s="266">
-        <f t="shared" si="4"/>
-        <v>3.3049300775369002E-2</v>
-      </c>
-      <c r="J15" s="266">
-        <f t="shared" si="4"/>
-        <v>3.3089097779614302E-2</v>
-      </c>
-      <c r="K15" s="266">
-        <f t="shared" si="4"/>
-        <v>3.4273694295748239E-2</v>
+      <c r="B15" s="268"/>
+      <c r="C15" s="269" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="269"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="321">
+        <f>F8/10</f>
+        <v>1.9105061595308317E-3</v>
+      </c>
+      <c r="G15" s="263">
+        <f>G8/10</f>
+        <v>2.3052080442418732E-3</v>
+      </c>
+      <c r="H15" s="263">
+        <f>H8/10</f>
+        <v>4.9520909162855482E-4</v>
+      </c>
+      <c r="I15" s="263">
+        <f>I8/10</f>
+        <v>1.3589944102820619E-3</v>
+      </c>
+      <c r="J15" s="263">
+        <f>J8/10</f>
+        <v>2.8511464607947155E-4</v>
+      </c>
+      <c r="K15" s="263">
+        <f>K8/10</f>
+        <v>2.7085177061429667E-4</v>
       </c>
       <c r="L15" s="9"/>
     </row>
@@ -6665,35 +6544,35 @@
       <c r="A16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="271"/>
-      <c r="C16" s="272" t="s">
-        <v>236</v>
-      </c>
-      <c r="D16" s="272"/>
-      <c r="E16" s="273"/>
-      <c r="F16" s="325">
-        <f t="shared" ref="F16:K16" si="5">F9/10</f>
-        <v>1.3007296263408814E-2</v>
-      </c>
-      <c r="G16" s="266">
-        <f t="shared" si="5"/>
-        <v>9.5156293001938466E-3</v>
-      </c>
-      <c r="H16" s="266">
-        <f t="shared" si="5"/>
-        <v>8.1791704277047773E-3</v>
-      </c>
-      <c r="I16" s="266">
-        <f t="shared" si="5"/>
-        <v>8.5052574379863109E-3</v>
-      </c>
-      <c r="J16" s="266">
-        <f t="shared" si="5"/>
-        <v>1.0766130211829445E-2</v>
-      </c>
-      <c r="K16" s="266">
-        <f t="shared" si="5"/>
-        <v>1.1157531423868909E-2</v>
+      <c r="B16" s="268"/>
+      <c r="C16" s="269" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="269"/>
+      <c r="E16" s="270"/>
+      <c r="F16" s="321">
+        <f>F9/10</f>
+        <v>2.5699237158971638E-2</v>
+      </c>
+      <c r="G16" s="263">
+        <f>G9/10</f>
+        <v>3.0317005939317652E-2</v>
+      </c>
+      <c r="H16" s="263">
+        <f>H9/10</f>
+        <v>4.1522885801132101E-2</v>
+      </c>
+      <c r="I16" s="263">
+        <f>I9/10</f>
+        <v>3.3049300775369002E-2</v>
+      </c>
+      <c r="J16" s="263">
+        <f>J9/10</f>
+        <v>3.3089097779614302E-2</v>
+      </c>
+      <c r="K16" s="263">
+        <f>K9/10</f>
+        <v>3.4273694295748239E-2</v>
       </c>
       <c r="L16" s="9"/>
     </row>
@@ -6701,35 +6580,35 @@
       <c r="A17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="274"/>
-      <c r="C17" s="275" t="s">
-        <v>238</v>
-      </c>
-      <c r="D17" s="275"/>
-      <c r="E17" s="276"/>
-      <c r="F17" s="326">
-        <f t="shared" ref="F17:K17" si="6">F10/10</f>
-        <v>3.4932845640743157E-2</v>
-      </c>
-      <c r="G17" s="267">
-        <f t="shared" si="6"/>
-        <v>4.6835416151202382E-2</v>
-      </c>
-      <c r="H17" s="267">
-        <f t="shared" si="6"/>
-        <v>1.5815103050332152E-2</v>
-      </c>
-      <c r="I17" s="267">
-        <f t="shared" si="6"/>
-        <v>1.8970502307230897E-2</v>
-      </c>
-      <c r="J17" s="267">
-        <f t="shared" si="6"/>
-        <v>2.2488430610142128E-2</v>
-      </c>
-      <c r="K17" s="267">
-        <f t="shared" si="6"/>
-        <v>1.2527021744295153E-2</v>
+      <c r="B17" s="268"/>
+      <c r="C17" s="269" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="269"/>
+      <c r="E17" s="270"/>
+      <c r="F17" s="321">
+        <f>F10/10</f>
+        <v>1.3007296263408814E-2</v>
+      </c>
+      <c r="G17" s="263">
+        <f>G10/10</f>
+        <v>9.5156293001938466E-3</v>
+      </c>
+      <c r="H17" s="263">
+        <f>H10/10</f>
+        <v>8.1791704277047773E-3</v>
+      </c>
+      <c r="I17" s="263">
+        <f>I10/10</f>
+        <v>8.5052574379863109E-3</v>
+      </c>
+      <c r="J17" s="263">
+        <f>J10/10</f>
+        <v>1.0766130211829445E-2</v>
+      </c>
+      <c r="K17" s="263">
+        <f>K10/10</f>
+        <v>1.1157531423868909E-2</v>
       </c>
       <c r="L17" s="9"/>
     </row>
@@ -6737,3762 +6616,2775 @@
       <c r="A18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="277" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="278" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="278"/>
-      <c r="E18" s="279"/>
-      <c r="F18" s="327"/>
-      <c r="G18" s="252"/>
-      <c r="H18" s="252"/>
-      <c r="I18" s="252"/>
-      <c r="J18" s="252"/>
-      <c r="K18" s="252"/>
-      <c r="L18" s="9" t="s">
-        <v>248</v>
-      </c>
+      <c r="B18" s="271"/>
+      <c r="C18" s="272" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="272"/>
+      <c r="E18" s="273"/>
+      <c r="F18" s="322">
+        <f t="shared" ref="F18:K18" si="0">F11/10</f>
+        <v>3.4932845640743157E-2</v>
+      </c>
+      <c r="G18" s="264">
+        <f t="shared" si="0"/>
+        <v>4.6835416151202382E-2</v>
+      </c>
+      <c r="H18" s="264">
+        <f t="shared" si="0"/>
+        <v>1.5815103050332152E-2</v>
+      </c>
+      <c r="I18" s="264">
+        <f t="shared" si="0"/>
+        <v>1.8970502307230897E-2</v>
+      </c>
+      <c r="J18" s="264">
+        <f t="shared" si="0"/>
+        <v>2.2488430610142128E-2</v>
+      </c>
+      <c r="K18" s="264">
+        <f t="shared" si="0"/>
+        <v>1.2527021744295153E-2</v>
+      </c>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="254"/>
-      <c r="C19" s="251" t="s">
-        <v>234</v>
-      </c>
-      <c r="D19" s="251"/>
-      <c r="E19" s="280"/>
-      <c r="F19" s="328"/>
-      <c r="G19" s="253"/>
-      <c r="H19" s="253"/>
-      <c r="I19" s="253"/>
-      <c r="J19" s="253"/>
-      <c r="K19" s="253"/>
-      <c r="L19" s="9"/>
+      <c r="B19" s="274" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="275" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="275"/>
+      <c r="E19" s="276"/>
+      <c r="F19" s="323"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="249"/>
+      <c r="I19" s="249"/>
+      <c r="J19" s="249"/>
+      <c r="K19" s="249"/>
+      <c r="L19" s="9" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
-      <c r="B20" s="254"/>
-      <c r="C20" s="251" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20" s="251"/>
-      <c r="E20" s="280"/>
-      <c r="F20" s="329"/>
-      <c r="G20" s="280"/>
-      <c r="H20" s="280"/>
-      <c r="I20" s="280"/>
-      <c r="J20" s="255"/>
-      <c r="K20" s="255"/>
+      <c r="B20" s="251"/>
+      <c r="C20" s="248" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="248"/>
+      <c r="E20" s="277"/>
+      <c r="F20" s="324"/>
+      <c r="G20" s="250"/>
+      <c r="H20" s="250"/>
+      <c r="I20" s="250"/>
+      <c r="J20" s="250"/>
+      <c r="K20" s="250"/>
       <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
-      <c r="B21" s="254"/>
-      <c r="C21" s="251" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="251"/>
-      <c r="E21" s="280"/>
-      <c r="F21" s="330"/>
-      <c r="G21" s="256"/>
-      <c r="H21" s="256"/>
-      <c r="I21" s="256"/>
-      <c r="J21" s="256"/>
-      <c r="K21" s="256"/>
-      <c r="L21" s="242"/>
+      <c r="B21" s="251"/>
+      <c r="C21" s="248" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="248"/>
+      <c r="E21" s="277"/>
+      <c r="F21" s="325"/>
+      <c r="G21" s="277"/>
+      <c r="H21" s="277"/>
+      <c r="I21" s="277"/>
+      <c r="J21" s="252"/>
+      <c r="K21" s="252"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
-      <c r="B22" s="254"/>
-      <c r="C22" s="251" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="251"/>
-      <c r="E22" s="280"/>
-      <c r="F22" s="330"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="256"/>
-      <c r="I22" s="256"/>
-      <c r="J22" s="256"/>
-      <c r="K22" s="256"/>
+      <c r="B22" s="251"/>
+      <c r="C22" s="248" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="248"/>
+      <c r="E22" s="277"/>
+      <c r="F22" s="326"/>
+      <c r="G22" s="253"/>
+      <c r="H22" s="253"/>
+      <c r="I22" s="253"/>
+      <c r="J22" s="253"/>
+      <c r="K22" s="253"/>
       <c r="L22" s="242"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
-      <c r="B23" s="254"/>
-      <c r="C23" s="251" t="s">
-        <v>236</v>
-      </c>
-      <c r="D23" s="251"/>
-      <c r="E23" s="280"/>
-      <c r="F23" s="330"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="256"/>
-      <c r="K23" s="256"/>
+      <c r="B23" s="251"/>
+      <c r="C23" s="248" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="248"/>
+      <c r="E23" s="277"/>
+      <c r="F23" s="326"/>
+      <c r="G23" s="253"/>
+      <c r="H23" s="253"/>
+      <c r="I23" s="253"/>
+      <c r="J23" s="253"/>
+      <c r="K23" s="253"/>
       <c r="L23" s="242"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
-      <c r="B24" s="281"/>
-      <c r="C24" s="282" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="282"/>
-      <c r="E24" s="283"/>
-      <c r="F24" s="331"/>
-      <c r="G24" s="257"/>
-      <c r="H24" s="257"/>
-      <c r="I24" s="257"/>
-      <c r="J24" s="257"/>
-      <c r="K24" s="257"/>
+      <c r="B24" s="251"/>
+      <c r="C24" s="248" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="248"/>
+      <c r="E24" s="277"/>
+      <c r="F24" s="326"/>
+      <c r="G24" s="253"/>
+      <c r="H24" s="253"/>
+      <c r="I24" s="253"/>
+      <c r="J24" s="253"/>
+      <c r="K24" s="253"/>
       <c r="L24" s="242"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
-      <c r="B25" s="290" t="s">
+      <c r="B25" s="278"/>
+      <c r="C25" s="279" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="279"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="327"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="254"/>
+      <c r="J25" s="254"/>
+      <c r="K25" s="254"/>
+      <c r="L25" s="242"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="251" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="248"/>
+      <c r="D26" s="248"/>
+      <c r="E26" s="277"/>
+      <c r="F26" s="327"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="254"/>
+      <c r="J26" s="254"/>
+      <c r="K26" s="254"/>
+      <c r="L26" s="421"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="251" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" s="248"/>
+      <c r="D27" s="248"/>
+      <c r="E27" s="277"/>
+      <c r="F27" s="327"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="254"/>
+      <c r="J27" s="254"/>
+      <c r="K27" s="254"/>
+      <c r="L27" s="421"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="251" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="248"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="277"/>
+      <c r="F28" s="327"/>
+      <c r="G28" s="254"/>
+      <c r="H28" s="254"/>
+      <c r="I28" s="254"/>
+      <c r="J28" s="254"/>
+      <c r="K28" s="254"/>
+      <c r="L28" s="421"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="251" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="248"/>
+      <c r="D29" s="248"/>
+      <c r="E29" s="277"/>
+      <c r="F29" s="327"/>
+      <c r="G29" s="254"/>
+      <c r="H29" s="254"/>
+      <c r="I29" s="254"/>
+      <c r="J29" s="254"/>
+      <c r="K29" s="254"/>
+      <c r="L29" s="421"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="251" t="s">
+        <v>268</v>
+      </c>
+      <c r="C30" s="248"/>
+      <c r="D30" s="248"/>
+      <c r="E30" s="277"/>
+      <c r="F30" s="327"/>
+      <c r="G30" s="254"/>
+      <c r="H30" s="254"/>
+      <c r="I30" s="254"/>
+      <c r="J30" s="254"/>
+      <c r="K30" s="254"/>
+      <c r="L30" s="421"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="251" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="248"/>
+      <c r="D31" s="248"/>
+      <c r="E31" s="277"/>
+      <c r="F31" s="327"/>
+      <c r="G31" s="254"/>
+      <c r="H31" s="254"/>
+      <c r="I31" s="254"/>
+      <c r="J31" s="254"/>
+      <c r="K31" s="254"/>
+      <c r="L31" s="421"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="287" t="s">
         <v>231</v>
       </c>
-      <c r="C25" s="291" t="s">
+      <c r="C32" s="288" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="291"/>
-      <c r="E25" s="292"/>
-      <c r="F25" s="392">
+      <c r="D32" s="288"/>
+      <c r="E32" s="289"/>
+      <c r="F32" s="360">
         <f>Fish!C3</f>
         <v>20994.603755950928</v>
       </c>
-      <c r="G25" s="393">
+      <c r="G32" s="361">
         <f>Fish!D3</f>
         <v>61609.917491912842</v>
       </c>
-      <c r="H25" s="393"/>
-      <c r="I25" s="393"/>
-      <c r="J25" s="393"/>
-      <c r="K25" s="393"/>
-      <c r="L25" s="243" t="s">
+      <c r="H32" s="361"/>
+      <c r="I32" s="361"/>
+      <c r="J32" s="361"/>
+      <c r="K32" s="361"/>
+      <c r="L32" s="243" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="290" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="291" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="291" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="292"/>
-      <c r="F26" s="332"/>
-      <c r="G26" s="332"/>
-      <c r="H26" s="332"/>
-      <c r="I26" s="332"/>
-      <c r="J26" s="332"/>
-      <c r="K26" s="332"/>
-      <c r="L26" s="243" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="293" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" s="294"/>
-      <c r="F27" s="332"/>
-      <c r="G27" s="332"/>
-      <c r="H27" s="332"/>
-      <c r="I27" s="332"/>
-      <c r="J27" s="332"/>
-      <c r="K27" s="332"/>
-      <c r="L27" s="243"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="293" t="s">
-        <v>253</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="E28" s="294"/>
-      <c r="F28" s="332"/>
-      <c r="G28" s="332"/>
-      <c r="H28" s="332"/>
-      <c r="I28" s="332"/>
-      <c r="J28" s="332"/>
-      <c r="K28" s="332"/>
-      <c r="L28" s="243"/>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="293" t="s">
-        <v>253</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="E29" s="294"/>
-      <c r="F29" s="332"/>
-      <c r="G29" s="332"/>
-      <c r="H29" s="332"/>
-      <c r="I29" s="332"/>
-      <c r="J29" s="332"/>
-      <c r="K29" s="332"/>
-      <c r="L29" s="243"/>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="293" t="s">
-        <v>253</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="294"/>
-      <c r="F30" s="332"/>
-      <c r="G30" s="332"/>
-      <c r="H30" s="332"/>
-      <c r="I30" s="332"/>
-      <c r="J30" s="332"/>
-      <c r="K30" s="332"/>
-      <c r="L30" s="243"/>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="293" t="s">
-        <v>253</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="E31" s="294"/>
-      <c r="F31" s="332"/>
-      <c r="G31" s="332"/>
-      <c r="H31" s="332"/>
-      <c r="I31" s="332"/>
-      <c r="J31" s="332"/>
-      <c r="K31" s="332"/>
-      <c r="L31" s="243"/>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="295" t="s">
-        <v>253</v>
-      </c>
-      <c r="C32" s="296" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="296" t="s">
-        <v>238</v>
-      </c>
-      <c r="E32" s="297"/>
-      <c r="F32" s="332"/>
-      <c r="G32" s="332"/>
-      <c r="H32" s="332"/>
-      <c r="I32" s="332"/>
-      <c r="J32" s="332"/>
-      <c r="K32" s="332"/>
-      <c r="L32" s="243"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
-      <c r="B33" s="284" t="s">
+      <c r="B33" s="287" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" s="288" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" s="288" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="289"/>
+      <c r="F33" s="328"/>
+      <c r="G33" s="328"/>
+      <c r="H33" s="328"/>
+      <c r="I33" s="328"/>
+      <c r="J33" s="328"/>
+      <c r="K33" s="328"/>
+      <c r="L33" s="243" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="290" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="291"/>
+      <c r="F34" s="328"/>
+      <c r="G34" s="328"/>
+      <c r="H34" s="328"/>
+      <c r="I34" s="328"/>
+      <c r="J34" s="328"/>
+      <c r="K34" s="328"/>
+      <c r="L34" s="243"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="290" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="291"/>
+      <c r="F35" s="328"/>
+      <c r="G35" s="328"/>
+      <c r="H35" s="328"/>
+      <c r="I35" s="328"/>
+      <c r="J35" s="328"/>
+      <c r="K35" s="328"/>
+      <c r="L35" s="243"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="290" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36" s="291"/>
+      <c r="F36" s="328"/>
+      <c r="G36" s="328"/>
+      <c r="H36" s="328"/>
+      <c r="I36" s="328"/>
+      <c r="J36" s="328"/>
+      <c r="K36" s="328"/>
+      <c r="L36" s="243"/>
+    </row>
+    <row r="37" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="290" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="291"/>
+      <c r="F37" s="328"/>
+      <c r="G37" s="328"/>
+      <c r="H37" s="328"/>
+      <c r="I37" s="328"/>
+      <c r="J37" s="328"/>
+      <c r="K37" s="328"/>
+      <c r="L37" s="243"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="290" t="s">
+        <v>253</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" s="291"/>
+      <c r="F38" s="328"/>
+      <c r="G38" s="328"/>
+      <c r="H38" s="328"/>
+      <c r="I38" s="328"/>
+      <c r="J38" s="328"/>
+      <c r="K38" s="328"/>
+      <c r="L38" s="243"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="292" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="293" t="s">
+        <v>235</v>
+      </c>
+      <c r="D39" s="293" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="294"/>
+      <c r="F39" s="328"/>
+      <c r="G39" s="328"/>
+      <c r="H39" s="328"/>
+      <c r="I39" s="328"/>
+      <c r="J39" s="328"/>
+      <c r="K39" s="328"/>
+      <c r="L39" s="243"/>
+    </row>
+    <row r="40" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="281" t="s">
         <v>249</v>
       </c>
-      <c r="C33" s="285" t="s">
+      <c r="C40" s="282" t="s">
         <v>226</v>
       </c>
-      <c r="D33" s="285"/>
-      <c r="E33" s="286" t="s">
+      <c r="D40" s="282"/>
+      <c r="E40" s="283" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="333">
+      <c r="F40" s="329">
         <f>Fish!C10</f>
         <v>9.3833760785694026E-2</v>
       </c>
-      <c r="G33" s="352">
+      <c r="G40" s="335">
         <f>Fish!F10</f>
         <v>0.13424410756191071</v>
       </c>
-      <c r="H33" s="259"/>
-      <c r="I33" s="259"/>
-      <c r="J33" s="259"/>
-      <c r="K33" s="259"/>
-      <c r="L33" s="243" t="s">
+      <c r="H40" s="256"/>
+      <c r="I40" s="256"/>
+      <c r="J40" s="256"/>
+      <c r="K40" s="256"/>
+      <c r="L40" s="243" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="284" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="281" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="285" t="s">
+      <c r="C41" s="282" t="s">
         <v>226</v>
       </c>
-      <c r="D34" s="285"/>
-      <c r="E34" s="286" t="s">
+      <c r="D41" s="282"/>
+      <c r="E41" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="334">
+      <c r="F41" s="330">
         <f>Fish!C11</f>
         <v>0.47889167678351297</v>
       </c>
-      <c r="G34" s="353">
+      <c r="G41" s="336">
         <f>Fish!F11</f>
         <v>0.27044208434582551</v>
       </c>
-      <c r="H34" s="260"/>
-      <c r="I34" s="260"/>
-      <c r="J34" s="260"/>
-      <c r="K34" s="260"/>
-      <c r="L34" s="243"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="284" t="s">
+      <c r="H41" s="257"/>
+      <c r="I41" s="257"/>
+      <c r="J41" s="257"/>
+      <c r="K41" s="257"/>
+      <c r="L41" s="243"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="281" t="s">
         <v>249</v>
       </c>
-      <c r="C35" s="285" t="s">
+      <c r="C42" s="282" t="s">
         <v>226</v>
       </c>
-      <c r="D35" s="285"/>
-      <c r="E35" s="286" t="s">
+      <c r="D42" s="282"/>
+      <c r="E42" s="283" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="334">
+      <c r="F42" s="330">
         <f>Fish!C12</f>
         <v>1.7287341950583346E-2</v>
       </c>
-      <c r="G35" s="353">
+      <c r="G42" s="336">
         <f>Fish!F12</f>
         <v>7.7140958733354192E-2</v>
       </c>
-      <c r="H35" s="261"/>
-      <c r="I35" s="261"/>
-      <c r="J35" s="261"/>
-      <c r="K35" s="261"/>
-      <c r="L35" s="243"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="287" t="s">
+      <c r="H42" s="258"/>
+      <c r="I42" s="258"/>
+      <c r="J42" s="258"/>
+      <c r="K42" s="258"/>
+      <c r="L42" s="243"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="284" t="s">
         <v>249</v>
       </c>
-      <c r="C36" s="288" t="s">
+      <c r="C43" s="285" t="s">
         <v>226</v>
       </c>
-      <c r="D36" s="288"/>
-      <c r="E36" s="289" t="s">
+      <c r="D43" s="285"/>
+      <c r="E43" s="286" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="335">
+      <c r="F43" s="331">
         <f>Fish!C13</f>
         <v>0.40998722048021063</v>
       </c>
-      <c r="G36" s="354">
+      <c r="G43" s="337">
         <f>Fish!F13</f>
         <v>0.51817284935890662</v>
       </c>
-      <c r="H36" s="262"/>
-      <c r="I36" s="262"/>
-      <c r="J36" s="262"/>
-      <c r="K36" s="262"/>
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="290" t="s">
+      <c r="H43" s="259"/>
+      <c r="I43" s="259"/>
+      <c r="J43" s="259"/>
+      <c r="K43" s="259"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="287" t="s">
         <v>250</v>
       </c>
-      <c r="C37" s="291" t="s">
+      <c r="C44" s="288" t="s">
         <v>226</v>
       </c>
-      <c r="D37" s="291"/>
-      <c r="E37" s="292" t="s">
+      <c r="D44" s="288"/>
+      <c r="E44" s="289" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="336">
+      <c r="F44" s="332">
         <f>Fish!D10</f>
         <v>7.1856867244095707E-2</v>
       </c>
-      <c r="G37" s="355">
+      <c r="G44" s="338">
         <f>Fish!G10</f>
         <v>0.1141821752038234</v>
       </c>
-      <c r="H37" s="263"/>
-      <c r="I37" s="263"/>
-      <c r="J37" s="263"/>
-      <c r="K37" s="263"/>
-      <c r="L37" s="8" t="s">
+      <c r="H44" s="260"/>
+      <c r="I44" s="260"/>
+      <c r="J44" s="260"/>
+      <c r="K44" s="260"/>
+      <c r="L44" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="293" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="290" t="s">
         <v>250</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C45" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="294" t="s">
+      <c r="D45" s="24"/>
+      <c r="E45" s="291" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="337">
+      <c r="F45" s="333">
         <f>Fish!D11</f>
         <v>5.5112282645096954E-2</v>
       </c>
-      <c r="G38" s="356">
+      <c r="G45" s="339">
         <f>Fish!G11</f>
         <v>8.5461973648246051E-2</v>
       </c>
-      <c r="H38" s="264"/>
-      <c r="I38" s="264"/>
-      <c r="J38" s="264"/>
-      <c r="K38" s="264"/>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="293" t="s">
+      <c r="H45" s="261"/>
+      <c r="I45" s="261"/>
+      <c r="J45" s="261"/>
+      <c r="K45" s="261"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="290" t="s">
         <v>250</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C46" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="294" t="s">
+      <c r="D46" s="24"/>
+      <c r="E46" s="291" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="337">
+      <c r="F46" s="333">
         <f>Fish!D12</f>
         <v>4.4576688459373549E-2</v>
       </c>
-      <c r="G39" s="356">
+      <c r="G46" s="339">
         <f>Fish!G12</f>
         <v>0.10227471789339765</v>
       </c>
-      <c r="H39" s="264"/>
-      <c r="I39" s="264"/>
-      <c r="J39" s="264"/>
-      <c r="K39" s="264"/>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="293" t="s">
+      <c r="H46" s="261"/>
+      <c r="I46" s="261"/>
+      <c r="J46" s="261"/>
+      <c r="K46" s="261"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="290" t="s">
         <v>250</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C47" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="294" t="s">
+      <c r="D47" s="24"/>
+      <c r="E47" s="291" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="337">
+      <c r="F47" s="333">
         <f>Fish!D13</f>
         <v>5.8684969644739834E-2</v>
       </c>
-      <c r="G40" s="356">
+      <c r="G47" s="339">
         <f>Fish!G13</f>
         <v>8.4764499759859904E-2</v>
       </c>
-      <c r="H40" s="264"/>
-      <c r="I40" s="264"/>
-      <c r="J40" s="264"/>
-      <c r="K40" s="264"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="305" t="s">
+      <c r="H47" s="261"/>
+      <c r="I47" s="261"/>
+      <c r="J47" s="261"/>
+      <c r="K47" s="261"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="302" t="s">
         <v>251</v>
       </c>
-      <c r="C41" s="306" t="s">
+      <c r="C48" s="303" t="s">
         <v>226</v>
       </c>
-      <c r="D41" s="306"/>
-      <c r="E41" s="307"/>
-      <c r="F41" s="378">
+      <c r="D48" s="303"/>
+      <c r="E48" s="304"/>
+      <c r="F48" s="346">
         <f>Fish!C14</f>
         <v>2.1411559282179748</v>
       </c>
-      <c r="G41" s="379">
+      <c r="G48" s="347">
         <f>Fish!F14</f>
         <v>1.9431455923076939</v>
       </c>
-      <c r="H41" s="380"/>
-      <c r="I41" s="380"/>
-      <c r="J41" s="380"/>
-      <c r="K41" s="380"/>
-      <c r="L41" s="9" t="s">
+      <c r="H48" s="348"/>
+      <c r="I48" s="348"/>
+      <c r="J48" s="348"/>
+      <c r="K48" s="348"/>
+      <c r="L48" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="308" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="305" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="309" t="s">
+      <c r="C49" s="306" t="s">
         <v>226</v>
       </c>
-      <c r="D42" s="309"/>
-      <c r="E42" s="310"/>
-      <c r="F42" s="381">
+      <c r="D49" s="306"/>
+      <c r="E49" s="307"/>
+      <c r="F49" s="349">
         <f>Fish!D14</f>
         <v>0.12779024981246512</v>
       </c>
-      <c r="G42" s="382">
+      <c r="G49" s="350">
         <f>Fish!G14</f>
         <v>0.1594443864437553</v>
       </c>
-      <c r="H42" s="383"/>
-      <c r="I42" s="383"/>
-      <c r="J42" s="383"/>
-      <c r="K42" s="383"/>
-      <c r="L42" s="9" t="s">
+      <c r="H49" s="351"/>
+      <c r="I49" s="351"/>
+      <c r="J49" s="351"/>
+      <c r="K49" s="351"/>
+      <c r="L49" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="312" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="308" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="313" t="s">
+      <c r="C50" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="313"/>
-      <c r="E43" s="313"/>
-      <c r="F43" s="394"/>
-      <c r="G43" s="395"/>
-      <c r="H43" s="396">
+      <c r="D50" s="309"/>
+      <c r="E50" s="309"/>
+      <c r="F50" s="362"/>
+      <c r="G50" s="363"/>
+      <c r="H50" s="364">
         <f>Crop!E3</f>
         <v>397.23975270986557</v>
       </c>
-      <c r="I43" s="396"/>
-      <c r="J43" s="396">
+      <c r="I50" s="364"/>
+      <c r="J50" s="364">
         <f>Crop!G3</f>
         <v>997.74024230241776</v>
       </c>
-      <c r="K43" s="395"/>
-      <c r="L43" s="243" t="s">
+      <c r="K50" s="363"/>
+      <c r="L50" s="243" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="312" t="s">
-        <v>253</v>
-      </c>
-      <c r="C44" s="313" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="313" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="314"/>
-      <c r="F44" s="321"/>
-      <c r="G44" s="321"/>
-      <c r="H44" s="321"/>
-      <c r="I44" s="321"/>
-      <c r="J44" s="321"/>
-      <c r="K44" s="321"/>
-      <c r="L44" s="243" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="315" t="s">
-        <v>253</v>
-      </c>
-      <c r="C45" s="316" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="316" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" s="317"/>
-      <c r="F45" s="321"/>
-      <c r="G45" s="321"/>
-      <c r="H45" s="321"/>
-      <c r="I45" s="321"/>
-      <c r="J45" s="321"/>
-      <c r="K45" s="321"/>
-      <c r="L45" s="243"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="315" t="s">
-        <v>253</v>
-      </c>
-      <c r="C46" s="316" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="316" t="s">
-        <v>235</v>
-      </c>
-      <c r="E46" s="317"/>
-      <c r="F46" s="321"/>
-      <c r="G46" s="321"/>
-      <c r="H46" s="321"/>
-      <c r="I46" s="321"/>
-      <c r="J46" s="321"/>
-      <c r="K46" s="321"/>
-      <c r="L46" s="243"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="315" t="s">
-        <v>253</v>
-      </c>
-      <c r="C47" s="316" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="316" t="s">
-        <v>237</v>
-      </c>
-      <c r="E47" s="317"/>
-      <c r="F47" s="321"/>
-      <c r="G47" s="321"/>
-      <c r="H47" s="321"/>
-      <c r="I47" s="321"/>
-      <c r="J47" s="321"/>
-      <c r="K47" s="321"/>
-      <c r="L47" s="243"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="315" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="316" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="316" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="317"/>
-      <c r="F48" s="321"/>
-      <c r="G48" s="321"/>
-      <c r="H48" s="321"/>
-      <c r="I48" s="321"/>
-      <c r="J48" s="321"/>
-      <c r="K48" s="321"/>
-      <c r="L48" s="243"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="315" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="316" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="316" t="s">
-        <v>236</v>
-      </c>
-      <c r="E49" s="317"/>
-      <c r="F49" s="321"/>
-      <c r="G49" s="321"/>
-      <c r="H49" s="321"/>
-      <c r="I49" s="321"/>
-      <c r="J49" s="321"/>
-      <c r="K49" s="321"/>
-      <c r="L49" s="243"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="318" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="316" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="319" t="s">
-        <v>238</v>
-      </c>
-      <c r="E50" s="320"/>
-      <c r="F50" s="321"/>
-      <c r="G50" s="321"/>
-      <c r="H50" s="321"/>
-      <c r="I50" s="321"/>
-      <c r="J50" s="321"/>
-      <c r="K50" s="321"/>
-      <c r="L50" s="243"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
-      <c r="B51" s="298" t="s">
+      <c r="B51" s="308" t="s">
+        <v>253</v>
+      </c>
+      <c r="C51" s="309" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="309" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="310"/>
+      <c r="F51" s="317"/>
+      <c r="G51" s="317"/>
+      <c r="H51" s="317"/>
+      <c r="I51" s="317"/>
+      <c r="J51" s="317"/>
+      <c r="K51" s="317"/>
+      <c r="L51" s="243" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="311" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" s="312" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="312" t="s">
+        <v>234</v>
+      </c>
+      <c r="E52" s="313"/>
+      <c r="F52" s="317"/>
+      <c r="G52" s="317"/>
+      <c r="H52" s="317"/>
+      <c r="I52" s="317"/>
+      <c r="J52" s="317"/>
+      <c r="K52" s="317"/>
+      <c r="L52" s="243"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="311" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="312" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="312" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" s="313"/>
+      <c r="F53" s="317"/>
+      <c r="G53" s="317"/>
+      <c r="H53" s="317"/>
+      <c r="I53" s="317"/>
+      <c r="J53" s="317"/>
+      <c r="K53" s="317"/>
+      <c r="L53" s="243"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="311" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="312" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="312" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54" s="313"/>
+      <c r="F54" s="317"/>
+      <c r="G54" s="317"/>
+      <c r="H54" s="317"/>
+      <c r="I54" s="317"/>
+      <c r="J54" s="317"/>
+      <c r="K54" s="317"/>
+      <c r="L54" s="243"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="311" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55" s="312" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="312" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="313"/>
+      <c r="F55" s="317"/>
+      <c r="G55" s="317"/>
+      <c r="H55" s="317"/>
+      <c r="I55" s="317"/>
+      <c r="J55" s="317"/>
+      <c r="K55" s="317"/>
+      <c r="L55" s="243"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="311" t="s">
+        <v>253</v>
+      </c>
+      <c r="C56" s="312" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="312" t="s">
+        <v>236</v>
+      </c>
+      <c r="E56" s="313"/>
+      <c r="F56" s="317"/>
+      <c r="G56" s="317"/>
+      <c r="H56" s="317"/>
+      <c r="I56" s="317"/>
+      <c r="J56" s="317"/>
+      <c r="K56" s="317"/>
+      <c r="L56" s="243"/>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="314" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" s="312" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="315" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" s="316"/>
+      <c r="F57" s="317"/>
+      <c r="G57" s="317"/>
+      <c r="H57" s="317"/>
+      <c r="I57" s="317"/>
+      <c r="J57" s="317"/>
+      <c r="K57" s="317"/>
+      <c r="L57" s="243"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="295" t="s">
         <v>249</v>
       </c>
-      <c r="C51" s="299" t="s">
+      <c r="C58" s="296" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="299"/>
-      <c r="E51" s="299" t="s">
+      <c r="D58" s="296"/>
+      <c r="E58" s="296" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="384"/>
-      <c r="G51" s="384"/>
-      <c r="H51" s="385">
+      <c r="F58" s="352"/>
+      <c r="G58" s="352"/>
+      <c r="H58" s="353">
         <f>Crop!C10</f>
         <v>9.2643213611260017E-2</v>
       </c>
-      <c r="I51" s="384"/>
-      <c r="J51" s="385">
+      <c r="I58" s="352"/>
+      <c r="J58" s="353">
         <f>Crop!F10</f>
         <v>0.16223868718423781</v>
       </c>
-      <c r="K51" s="384"/>
-      <c r="L51" s="243" t="s">
+      <c r="K58" s="352"/>
+      <c r="L58" s="243" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="300" t="s">
+    <row r="59" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="297" t="s">
         <v>249</v>
       </c>
-      <c r="C52" s="301" t="s">
+      <c r="C59" s="298" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="301"/>
-      <c r="E52" s="301" t="s">
+      <c r="D59" s="298"/>
+      <c r="E59" s="298" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="302"/>
-      <c r="G52" s="302"/>
-      <c r="H52" s="376">
+      <c r="F59" s="299"/>
+      <c r="G59" s="299"/>
+      <c r="H59" s="344">
         <f>Crop!C11</f>
         <v>0.27830693183202726</v>
       </c>
-      <c r="I52" s="302"/>
-      <c r="J52" s="376">
+      <c r="I59" s="299"/>
+      <c r="J59" s="344">
         <f>Crop!F11</f>
         <v>0.15896398846955861</v>
       </c>
-      <c r="K52" s="374"/>
-      <c r="L52" s="243"/>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="300" t="s">
+      <c r="K59" s="342"/>
+      <c r="L59" s="243"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="297" t="s">
         <v>249</v>
       </c>
-      <c r="C53" s="301" t="s">
+      <c r="C60" s="298" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="301"/>
-      <c r="E53" s="301" t="s">
+      <c r="D60" s="298"/>
+      <c r="E60" s="298" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="375"/>
-      <c r="G53" s="375"/>
-      <c r="H53" s="376">
+      <c r="F60" s="343"/>
+      <c r="G60" s="343"/>
+      <c r="H60" s="344">
         <f>Crop!C12</f>
         <v>0.25137307817180243</v>
       </c>
-      <c r="I53" s="375"/>
-      <c r="J53" s="376">
+      <c r="I60" s="343"/>
+      <c r="J60" s="344">
         <f>Crop!F12</f>
         <v>0.30713199952520576</v>
       </c>
-      <c r="K53" s="375"/>
-      <c r="L53" s="243"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="303" t="s">
+      <c r="K60" s="343"/>
+      <c r="L60" s="243"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="300" t="s">
         <v>249</v>
       </c>
-      <c r="C54" s="304" t="s">
+      <c r="C61" s="301" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="304"/>
-      <c r="E54" s="304" t="s">
+      <c r="D61" s="301"/>
+      <c r="E61" s="301" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="386"/>
-      <c r="G54" s="386"/>
-      <c r="H54" s="387">
+      <c r="F61" s="354"/>
+      <c r="G61" s="354"/>
+      <c r="H61" s="355">
         <f>Crop!C13</f>
         <v>0.37767677638492714</v>
       </c>
-      <c r="I54" s="386"/>
-      <c r="J54" s="387">
+      <c r="I61" s="354"/>
+      <c r="J61" s="355">
         <f>Crop!F13</f>
         <v>0.37166532482099512</v>
       </c>
-      <c r="K54" s="386"/>
-      <c r="L54" s="8"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="315" t="s">
+      <c r="K61" s="354"/>
+      <c r="L61" s="8"/>
+    </row>
+    <row r="62" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="311" t="s">
         <v>250</v>
       </c>
-      <c r="C55" s="316" t="s">
+      <c r="C62" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="316"/>
-      <c r="E55" s="316" t="s">
+      <c r="D62" s="312"/>
+      <c r="E62" s="312" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="321"/>
-      <c r="G55" s="321"/>
-      <c r="H55" s="377">
+      <c r="F62" s="317"/>
+      <c r="G62" s="317"/>
+      <c r="H62" s="345">
         <f>Crop!D10</f>
         <v>3.7292685924097596E-2</v>
       </c>
-      <c r="I55" s="321"/>
-      <c r="J55" s="377">
+      <c r="I62" s="317"/>
+      <c r="J62" s="345">
         <f>Crop!G10</f>
         <v>3.342549904533245E-2</v>
       </c>
-      <c r="K55" s="321"/>
-      <c r="L55" s="8" t="s">
+      <c r="K62" s="317"/>
+      <c r="L62" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="315" t="s">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="311" t="s">
         <v>250</v>
       </c>
-      <c r="C56" s="316" t="s">
+      <c r="C63" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="316"/>
-      <c r="E56" s="316" t="s">
+      <c r="D63" s="312"/>
+      <c r="E63" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="321"/>
-      <c r="G56" s="321"/>
-      <c r="H56" s="377">
+      <c r="F63" s="317"/>
+      <c r="G63" s="317"/>
+      <c r="H63" s="345">
         <f>Crop!D11</f>
         <v>0.10799127710581252</v>
       </c>
-      <c r="I56" s="321"/>
-      <c r="J56" s="377">
+      <c r="I63" s="317"/>
+      <c r="J63" s="345">
         <f>Crop!G11</f>
         <v>6.0608741297454388E-2</v>
       </c>
-      <c r="K56" s="321"/>
-      <c r="L56" s="8"/>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="315" t="s">
+      <c r="K63" s="317"/>
+      <c r="L63" s="8"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="311" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="316" t="s">
+      <c r="C64" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="316"/>
-      <c r="E57" s="316" t="s">
+      <c r="D64" s="312"/>
+      <c r="E64" s="312" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="321"/>
-      <c r="G57" s="321"/>
-      <c r="H57" s="377">
+      <c r="F64" s="317"/>
+      <c r="G64" s="317"/>
+      <c r="H64" s="345">
         <f>Crop!D12</f>
         <v>6.1948403679740326E-2</v>
       </c>
-      <c r="I57" s="321"/>
-      <c r="J57" s="377">
+      <c r="I64" s="317"/>
+      <c r="J64" s="345">
         <f>Crop!G12</f>
         <v>7.1440792857828922E-2</v>
       </c>
-      <c r="K57" s="321"/>
-      <c r="L57" s="8"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="315" t="s">
+      <c r="K64" s="317"/>
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="311" t="s">
         <v>250</v>
       </c>
-      <c r="C58" s="316" t="s">
+      <c r="C65" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="316"/>
-      <c r="E58" s="316" t="s">
+      <c r="D65" s="312"/>
+      <c r="E65" s="312" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="321"/>
-      <c r="G58" s="321"/>
-      <c r="H58" s="377">
+      <c r="F65" s="317"/>
+      <c r="G65" s="317"/>
+      <c r="H65" s="345">
         <f>Crop!D13</f>
         <v>9.1084992860736583E-2</v>
       </c>
-      <c r="I58" s="321"/>
-      <c r="J58" s="377">
+      <c r="I65" s="317"/>
+      <c r="J65" s="345">
         <f>Crop!G13</f>
         <v>7.938956879359764E-2</v>
       </c>
-      <c r="K58" s="321"/>
-      <c r="L58" s="8"/>
-    </row>
-    <row r="59" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="298" t="s">
+      <c r="K65" s="317"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="295" t="s">
         <v>251</v>
       </c>
-      <c r="C59" s="299" t="s">
+      <c r="C66" s="296" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="299"/>
-      <c r="E59" s="299"/>
-      <c r="F59" s="388"/>
-      <c r="G59" s="388"/>
-      <c r="H59" s="389">
+      <c r="D66" s="296"/>
+      <c r="E66" s="296"/>
+      <c r="F66" s="356"/>
+      <c r="G66" s="356"/>
+      <c r="H66" s="357">
         <f>Crop!C14</f>
         <v>4.7389959018133823</v>
       </c>
-      <c r="I59" s="388"/>
-      <c r="J59" s="389">
+      <c r="I66" s="356"/>
+      <c r="J66" s="357">
         <f>Crop!F14</f>
         <v>3.5848711072709989</v>
       </c>
-      <c r="K59" s="388"/>
-      <c r="L59" s="9" t="s">
+      <c r="K66" s="356"/>
+      <c r="L66" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="303" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="300" t="s">
         <v>252</v>
       </c>
-      <c r="C60" s="304" t="s">
+      <c r="C67" s="301" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="304"/>
-      <c r="E60" s="304"/>
-      <c r="F60" s="390"/>
-      <c r="G60" s="390"/>
-      <c r="H60" s="391">
+      <c r="D67" s="301"/>
+      <c r="E67" s="301"/>
+      <c r="F67" s="358"/>
+      <c r="G67" s="358"/>
+      <c r="H67" s="359">
         <f>Crop!D14</f>
         <v>0.98700664207863353</v>
       </c>
-      <c r="I60" s="390"/>
-      <c r="J60" s="391">
+      <c r="I67" s="358"/>
+      <c r="J67" s="359">
         <f>Crop!G14</f>
         <v>0.5757752710821068</v>
       </c>
-      <c r="K60" s="390"/>
-      <c r="L60" s="9" t="s">
+      <c r="K67" s="358"/>
+      <c r="L67" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="397" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="8"/>
+      <c r="B68" s="365" t="s">
         <v>231</v>
       </c>
-      <c r="C61" s="398" t="s">
+      <c r="C68" s="366" t="s">
         <v>261</v>
       </c>
-      <c r="D61" s="398"/>
-      <c r="E61" s="398"/>
-      <c r="F61" s="403">
+      <c r="D68" s="366"/>
+      <c r="E68" s="366"/>
+      <c r="F68" s="371">
         <f>ProdSerRet!C3</f>
         <v>426.89999389648438</v>
       </c>
-      <c r="G61" s="403">
+      <c r="G68" s="371">
         <f>ProdSerRet!D3</f>
         <v>6</v>
       </c>
-      <c r="H61" s="403">
+      <c r="H68" s="371">
         <f>ProdSerRet!E3</f>
         <v>267</v>
       </c>
-      <c r="I61" s="403">
+      <c r="I68" s="371">
         <f>ProdSerRet!F3</f>
         <v>1032.199951171875</v>
       </c>
-      <c r="J61" s="403">
+      <c r="J68" s="371">
         <f>ProdSerRet!G3</f>
         <v>276.76654052734375</v>
       </c>
-      <c r="K61" s="403">
+      <c r="K68" s="371">
         <f>ProdSerRet!H3</f>
         <v>285.79000854492188</v>
       </c>
-      <c r="L61" s="8" t="s">
+      <c r="L68" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="404" t="s">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="372" t="s">
         <v>253</v>
       </c>
-      <c r="C62" s="405" t="s">
+      <c r="C69" s="373" t="s">
         <v>237</v>
       </c>
-      <c r="D62" s="405" t="s">
+      <c r="D69" s="373" t="s">
         <v>53</v>
       </c>
-      <c r="E62" s="406"/>
-      <c r="F62" s="515"/>
-      <c r="G62" s="515"/>
-      <c r="H62" s="515"/>
-      <c r="I62" s="515"/>
-      <c r="J62" s="515"/>
-      <c r="K62" s="515"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="407" t="s">
+      <c r="E69" s="374"/>
+      <c r="F69" s="422"/>
+      <c r="G69" s="422"/>
+      <c r="H69" s="422"/>
+      <c r="I69" s="422"/>
+      <c r="J69" s="422"/>
+      <c r="K69" s="422"/>
+      <c r="L69" s="8"/>
+    </row>
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="375" t="s">
         <v>253</v>
       </c>
-      <c r="C63" s="408" t="s">
+      <c r="C70" s="376" t="s">
         <v>237</v>
       </c>
-      <c r="D63" s="408" t="s">
+      <c r="D70" s="376" t="s">
         <v>234</v>
       </c>
-      <c r="E63" s="409"/>
-      <c r="F63" s="515"/>
-      <c r="G63" s="515"/>
-      <c r="H63" s="515"/>
-      <c r="I63" s="515"/>
-      <c r="J63" s="515"/>
-      <c r="K63" s="515"/>
-      <c r="L63" s="8"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="407" t="s">
+      <c r="E70" s="377"/>
+      <c r="F70" s="422"/>
+      <c r="G70" s="422"/>
+      <c r="H70" s="422"/>
+      <c r="I70" s="422"/>
+      <c r="J70" s="422"/>
+      <c r="K70" s="422"/>
+      <c r="L70" s="8"/>
+    </row>
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="375" t="s">
         <v>253</v>
       </c>
-      <c r="C64" s="408" t="s">
+      <c r="C71" s="376" t="s">
         <v>237</v>
       </c>
-      <c r="D64" s="408" t="s">
+      <c r="D71" s="376" t="s">
         <v>235</v>
       </c>
-      <c r="E64" s="409"/>
-      <c r="F64" s="515"/>
-      <c r="G64" s="515"/>
-      <c r="H64" s="515"/>
-      <c r="I64" s="515"/>
-      <c r="J64" s="515"/>
-      <c r="K64" s="515"/>
-      <c r="L64" s="8"/>
-    </row>
-    <row r="65" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="407" t="s">
+      <c r="E71" s="377"/>
+      <c r="F71" s="422"/>
+      <c r="G71" s="422"/>
+      <c r="H71" s="422"/>
+      <c r="I71" s="422"/>
+      <c r="J71" s="422"/>
+      <c r="K71" s="422"/>
+      <c r="L71" s="8"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="375" t="s">
         <v>253</v>
       </c>
-      <c r="C65" s="408" t="s">
+      <c r="C72" s="376" t="s">
         <v>237</v>
       </c>
-      <c r="D65" s="408" t="s">
+      <c r="D72" s="376" t="s">
         <v>237</v>
       </c>
-      <c r="E65" s="409"/>
-      <c r="F65" s="515"/>
-      <c r="G65" s="515"/>
-      <c r="H65" s="515"/>
-      <c r="I65" s="515"/>
-      <c r="J65" s="515"/>
-      <c r="K65" s="515"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="407" t="s">
+      <c r="E72" s="377"/>
+      <c r="F72" s="422"/>
+      <c r="G72" s="422"/>
+      <c r="H72" s="422"/>
+      <c r="I72" s="422"/>
+      <c r="J72" s="422"/>
+      <c r="K72" s="422"/>
+      <c r="L72" s="8"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="8"/>
+      <c r="B73" s="375" t="s">
         <v>253</v>
       </c>
-      <c r="C66" s="408" t="s">
+      <c r="C73" s="376" t="s">
         <v>237</v>
       </c>
-      <c r="D66" s="408" t="s">
+      <c r="D73" s="376" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="409"/>
-      <c r="F66" s="515">
+      <c r="E73" s="377"/>
+      <c r="F73" s="422">
         <f>ProdSerRet!C26</f>
         <v>0.15596275043697269</v>
       </c>
-      <c r="G66" s="515">
-        <f>F66</f>
+      <c r="G73" s="422">
+        <f>F73</f>
         <v>0.15596275043697269</v>
       </c>
-      <c r="H66" s="515">
-        <f t="shared" ref="H66:K66" si="7">G66</f>
+      <c r="H73" s="422">
+        <f t="shared" ref="H73:K73" si="1">G73</f>
         <v>0.15596275043697269</v>
       </c>
-      <c r="I66" s="515">
-        <f t="shared" si="7"/>
+      <c r="I73" s="422">
+        <f t="shared" si="1"/>
         <v>0.15596275043697269</v>
       </c>
-      <c r="J66" s="515">
-        <f t="shared" si="7"/>
+      <c r="J73" s="422">
+        <f t="shared" si="1"/>
         <v>0.15596275043697269</v>
       </c>
-      <c r="K66" s="515">
-        <f t="shared" si="7"/>
+      <c r="K73" s="422">
+        <f t="shared" si="1"/>
         <v>0.15596275043697269</v>
       </c>
-      <c r="L66" s="9"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="407" t="s">
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="375" t="s">
         <v>253</v>
       </c>
-      <c r="C67" s="408" t="s">
+      <c r="C74" s="376" t="s">
         <v>237</v>
       </c>
-      <c r="D67" s="408" t="s">
+      <c r="D74" s="376" t="s">
         <v>236</v>
       </c>
-      <c r="E67" s="409"/>
-      <c r="F67" s="515"/>
-      <c r="G67" s="515"/>
-      <c r="H67" s="515"/>
-      <c r="I67" s="515"/>
-      <c r="J67" s="515"/>
-      <c r="K67" s="515"/>
-      <c r="L67" s="9"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="410" t="s">
+      <c r="E74" s="377"/>
+      <c r="F74" s="422"/>
+      <c r="G74" s="422"/>
+      <c r="H74" s="422"/>
+      <c r="I74" s="422"/>
+      <c r="J74" s="422"/>
+      <c r="K74" s="422"/>
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="378" t="s">
         <v>253</v>
       </c>
-      <c r="C68" s="411" t="s">
+      <c r="C75" s="379" t="s">
         <v>237</v>
       </c>
-      <c r="D68" s="411" t="s">
+      <c r="D75" s="379" t="s">
         <v>238</v>
       </c>
-      <c r="E68" s="412"/>
-      <c r="F68" s="515">
+      <c r="E75" s="380"/>
+      <c r="F75" s="422">
         <f>ProdSerRet!D26</f>
         <v>0.16703006530556255</v>
       </c>
-      <c r="G68" s="515">
-        <f>F68</f>
+      <c r="G75" s="422">
+        <f>F75</f>
         <v>0.16703006530556255</v>
       </c>
-      <c r="H68" s="515">
-        <f t="shared" ref="H68:K68" si="8">G68</f>
+      <c r="H75" s="422">
+        <f t="shared" ref="H75:K75" si="2">G75</f>
         <v>0.16703006530556255</v>
       </c>
-      <c r="I68" s="515">
-        <f t="shared" si="8"/>
+      <c r="I75" s="422">
+        <f t="shared" si="2"/>
         <v>0.16703006530556255</v>
       </c>
-      <c r="J68" s="515">
-        <f t="shared" si="8"/>
+      <c r="J75" s="422">
+        <f t="shared" si="2"/>
         <v>0.16703006530556255</v>
       </c>
-      <c r="K68" s="515">
-        <f t="shared" si="8"/>
+      <c r="K75" s="422">
+        <f t="shared" si="2"/>
         <v>0.16703006530556255</v>
       </c>
-      <c r="L68" s="9"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="397" t="s">
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="365" t="s">
         <v>249</v>
       </c>
-      <c r="C69" s="398" t="s">
+      <c r="C76" s="366" t="s">
         <v>237</v>
       </c>
-      <c r="D69" s="398"/>
-      <c r="E69" s="398" t="s">
+      <c r="D76" s="366"/>
+      <c r="E76" s="366" t="s">
         <v>6</v>
       </c>
-      <c r="F69" s="516">
+      <c r="F76" s="423">
         <f>ProdSerRet!C10</f>
         <v>0.41996457183493163</v>
       </c>
-      <c r="G69" s="516">
-        <f>F69</f>
+      <c r="G76" s="423">
+        <f>F76</f>
         <v>0.41996457183493163</v>
       </c>
-      <c r="H69" s="516">
-        <f t="shared" ref="H69:K69" si="9">G69</f>
+      <c r="H76" s="423">
+        <f t="shared" ref="H76:K76" si="3">G76</f>
         <v>0.41996457183493163</v>
       </c>
-      <c r="I69" s="516">
-        <f t="shared" si="9"/>
+      <c r="I76" s="423">
+        <f t="shared" si="3"/>
         <v>0.41996457183493163</v>
       </c>
-      <c r="J69" s="516">
-        <f t="shared" si="9"/>
+      <c r="J76" s="423">
+        <f t="shared" si="3"/>
         <v>0.41996457183493163</v>
       </c>
-      <c r="K69" s="516">
-        <f t="shared" si="9"/>
+      <c r="K76" s="423">
+        <f t="shared" si="3"/>
         <v>0.41996457183493163</v>
       </c>
-      <c r="L69" s="9"/>
-    </row>
-    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="399" t="s">
-        <v>249</v>
-      </c>
-      <c r="C70" s="400" t="s">
-        <v>237</v>
-      </c>
-      <c r="D70" s="400"/>
-      <c r="E70" s="400" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="517"/>
-      <c r="G70" s="517"/>
-      <c r="H70" s="518"/>
-      <c r="I70" s="517"/>
-      <c r="J70" s="518"/>
-      <c r="K70" s="517"/>
-      <c r="L70" s="9"/>
-    </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="399" t="s">
-        <v>249</v>
-      </c>
-      <c r="C71" s="400" t="s">
-        <v>237</v>
-      </c>
-      <c r="D71" s="400"/>
-      <c r="E71" s="400" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="517">
-        <f>1-F69</f>
-        <v>0.58003542816506837</v>
-      </c>
-      <c r="G71" s="517">
-        <f t="shared" ref="G71:K71" si="10">1-G69</f>
-        <v>0.58003542816506837</v>
-      </c>
-      <c r="H71" s="517">
-        <f t="shared" si="10"/>
-        <v>0.58003542816506837</v>
-      </c>
-      <c r="I71" s="517">
-        <f t="shared" si="10"/>
-        <v>0.58003542816506837</v>
-      </c>
-      <c r="J71" s="517">
-        <f t="shared" si="10"/>
-        <v>0.58003542816506837</v>
-      </c>
-      <c r="K71" s="517">
-        <f t="shared" si="10"/>
-        <v>0.58003542816506837</v>
-      </c>
-      <c r="L71" s="242"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="401" t="s">
-        <v>249</v>
-      </c>
-      <c r="C72" s="402" t="s">
-        <v>237</v>
-      </c>
-      <c r="D72" s="402"/>
-      <c r="E72" s="402" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="519"/>
-      <c r="G72" s="519"/>
-      <c r="H72" s="520"/>
-      <c r="I72" s="519"/>
-      <c r="J72" s="520"/>
-      <c r="K72" s="519"/>
-      <c r="L72" s="242"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="407" t="s">
-        <v>250</v>
-      </c>
-      <c r="C73" s="408" t="s">
-        <v>237</v>
-      </c>
-      <c r="D73" s="408"/>
-      <c r="E73" s="408" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="515"/>
-      <c r="G73" s="515"/>
-      <c r="H73" s="521"/>
-      <c r="I73" s="515"/>
-      <c r="J73" s="521"/>
-      <c r="K73" s="515"/>
-      <c r="L73" s="242"/>
-    </row>
-    <row r="74" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="407" t="s">
-        <v>250</v>
-      </c>
-      <c r="C74" s="408" t="s">
-        <v>237</v>
-      </c>
-      <c r="D74" s="408"/>
-      <c r="E74" s="408" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="515"/>
-      <c r="G74" s="515"/>
-      <c r="H74" s="521"/>
-      <c r="I74" s="515"/>
-      <c r="J74" s="521"/>
-      <c r="K74" s="515"/>
-      <c r="L74" s="242"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="407" t="s">
-        <v>250</v>
-      </c>
-      <c r="C75" s="408" t="s">
-        <v>237</v>
-      </c>
-      <c r="D75" s="408"/>
-      <c r="E75" s="408" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="515"/>
-      <c r="G75" s="515"/>
-      <c r="H75" s="521"/>
-      <c r="I75" s="515"/>
-      <c r="J75" s="521"/>
-      <c r="K75" s="515"/>
-      <c r="L75" s="9"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="407" t="s">
-        <v>250</v>
-      </c>
-      <c r="C76" s="408" t="s">
-        <v>237</v>
-      </c>
-      <c r="D76" s="408"/>
-      <c r="E76" s="408" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="515"/>
-      <c r="G76" s="515"/>
-      <c r="H76" s="521"/>
-      <c r="I76" s="515"/>
-      <c r="J76" s="521"/>
-      <c r="K76" s="515"/>
       <c r="L76" s="9"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
-      <c r="B77" s="397" t="s">
+      <c r="B77" s="367" t="s">
+        <v>249</v>
+      </c>
+      <c r="C77" s="368" t="s">
+        <v>237</v>
+      </c>
+      <c r="D77" s="368"/>
+      <c r="E77" s="368" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="424"/>
+      <c r="G77" s="424"/>
+      <c r="H77" s="425"/>
+      <c r="I77" s="424"/>
+      <c r="J77" s="425"/>
+      <c r="K77" s="424"/>
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="367" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="368" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="368"/>
+      <c r="E78" s="368" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="424">
+        <f>1-F76</f>
+        <v>0.58003542816506837</v>
+      </c>
+      <c r="G78" s="424">
+        <f t="shared" ref="G78:K78" si="4">1-G76</f>
+        <v>0.58003542816506837</v>
+      </c>
+      <c r="H78" s="424">
+        <f t="shared" si="4"/>
+        <v>0.58003542816506837</v>
+      </c>
+      <c r="I78" s="424">
+        <f t="shared" si="4"/>
+        <v>0.58003542816506837</v>
+      </c>
+      <c r="J78" s="424">
+        <f t="shared" si="4"/>
+        <v>0.58003542816506837</v>
+      </c>
+      <c r="K78" s="424">
+        <f t="shared" si="4"/>
+        <v>0.58003542816506837</v>
+      </c>
+      <c r="L78" s="242"/>
+    </row>
+    <row r="79" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="369" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="370" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79" s="370"/>
+      <c r="E79" s="370" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="426"/>
+      <c r="G79" s="426"/>
+      <c r="H79" s="427"/>
+      <c r="I79" s="426"/>
+      <c r="J79" s="427"/>
+      <c r="K79" s="426"/>
+      <c r="L79" s="242"/>
+    </row>
+    <row r="80" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="375" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" s="376" t="s">
+        <v>237</v>
+      </c>
+      <c r="D80" s="376"/>
+      <c r="E80" s="376" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="422">
+        <f>ProdSerRet!D10</f>
+        <v>0.4455317604991556</v>
+      </c>
+      <c r="G80" s="422">
+        <f>F80</f>
+        <v>0.4455317604991556</v>
+      </c>
+      <c r="H80" s="422">
+        <f t="shared" ref="H80" si="5">G80</f>
+        <v>0.4455317604991556</v>
+      </c>
+      <c r="I80" s="422">
+        <f t="shared" ref="I80" si="6">H80</f>
+        <v>0.4455317604991556</v>
+      </c>
+      <c r="J80" s="422">
+        <f t="shared" ref="J80" si="7">I80</f>
+        <v>0.4455317604991556</v>
+      </c>
+      <c r="K80" s="422">
+        <f t="shared" ref="K80" si="8">J80</f>
+        <v>0.4455317604991556</v>
+      </c>
+      <c r="L80" s="242"/>
+    </row>
+    <row r="81" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="375" t="s">
+        <v>250</v>
+      </c>
+      <c r="C81" s="376" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81" s="376"/>
+      <c r="E81" s="376" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="422"/>
+      <c r="G81" s="422"/>
+      <c r="H81" s="428"/>
+      <c r="I81" s="422"/>
+      <c r="J81" s="428"/>
+      <c r="K81" s="422"/>
+      <c r="L81" s="242"/>
+    </row>
+    <row r="82" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="375" t="s">
+        <v>250</v>
+      </c>
+      <c r="C82" s="376" t="s">
+        <v>237</v>
+      </c>
+      <c r="D82" s="376"/>
+      <c r="E82" s="376" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="422"/>
+      <c r="G82" s="422"/>
+      <c r="H82" s="428"/>
+      <c r="I82" s="422"/>
+      <c r="J82" s="428"/>
+      <c r="K82" s="422"/>
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="375" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83" s="376" t="s">
+        <v>237</v>
+      </c>
+      <c r="D83" s="376"/>
+      <c r="E83" s="376" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="422"/>
+      <c r="G83" s="422"/>
+      <c r="H83" s="428"/>
+      <c r="I83" s="422"/>
+      <c r="J83" s="428"/>
+      <c r="K83" s="422"/>
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="365" t="s">
         <v>251</v>
       </c>
-      <c r="C77" s="398" t="s">
+      <c r="C84" s="366" t="s">
         <v>237</v>
       </c>
-      <c r="D77" s="398"/>
-      <c r="E77" s="398"/>
-      <c r="F77" s="522"/>
-      <c r="G77" s="522"/>
-      <c r="H77" s="522"/>
-      <c r="I77" s="522"/>
-      <c r="J77" s="522"/>
-      <c r="K77" s="522"/>
-      <c r="L77" s="9"/>
-    </row>
-    <row r="78" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="401" t="s">
+      <c r="D84" s="366"/>
+      <c r="E84" s="366"/>
+      <c r="F84" s="429"/>
+      <c r="G84" s="429"/>
+      <c r="H84" s="429"/>
+      <c r="I84" s="429"/>
+      <c r="J84" s="429"/>
+      <c r="K84" s="429"/>
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="369" t="s">
         <v>252</v>
       </c>
-      <c r="C78" s="402" t="s">
+      <c r="C85" s="370" t="s">
         <v>237</v>
       </c>
-      <c r="D78" s="402"/>
-      <c r="E78" s="402"/>
-      <c r="F78" s="523"/>
-      <c r="G78" s="523"/>
-      <c r="H78" s="524"/>
-      <c r="I78" s="523"/>
-      <c r="J78" s="524"/>
-      <c r="K78" s="523"/>
-      <c r="L78" s="9"/>
-    </row>
-    <row r="79" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="422" t="s">
+      <c r="D85" s="370"/>
+      <c r="E85" s="370"/>
+      <c r="F85" s="430"/>
+      <c r="G85" s="430"/>
+      <c r="H85" s="431"/>
+      <c r="I85" s="430"/>
+      <c r="J85" s="431"/>
+      <c r="K85" s="430"/>
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="390" t="s">
         <v>231</v>
       </c>
-      <c r="C79" s="423" t="s">
+      <c r="C86" s="391" t="s">
         <v>236</v>
       </c>
-      <c r="D79" s="423"/>
-      <c r="E79" s="423"/>
-      <c r="F79" s="424">
+      <c r="D86" s="391"/>
+      <c r="E86" s="391"/>
+      <c r="F86" s="392">
         <f>ProdSerRet!C4</f>
         <v>448</v>
       </c>
-      <c r="G79" s="424">
+      <c r="G86" s="392">
         <f>ProdSerRet!D4</f>
         <v>426</v>
       </c>
-      <c r="H79" s="424">
+      <c r="H86" s="392">
         <f>ProdSerRet!E4</f>
         <v>152.46000671386719</v>
       </c>
-      <c r="I79" s="424">
+      <c r="I86" s="392">
         <f>ProdSerRet!F4</f>
         <v>588.8499755859375</v>
       </c>
-      <c r="J79" s="424">
+      <c r="J86" s="392">
         <f>ProdSerRet!G4</f>
         <v>853.26654052734375</v>
       </c>
-      <c r="K79" s="424">
+      <c r="K86" s="392">
         <f>ProdSerRet!H4</f>
         <v>278.489990234375</v>
       </c>
-      <c r="L79" s="8" t="s">
+      <c r="L86" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="413" t="s">
+    <row r="87" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="381" t="s">
         <v>253</v>
       </c>
-      <c r="C80" s="414" t="s">
+      <c r="C87" s="382" t="s">
         <v>236</v>
       </c>
-      <c r="D80" s="414" t="s">
+      <c r="D87" s="382" t="s">
         <v>53</v>
       </c>
-      <c r="E80" s="415"/>
-      <c r="F80" s="525"/>
-      <c r="G80" s="525"/>
-      <c r="H80" s="525"/>
-      <c r="I80" s="525"/>
-      <c r="J80" s="525"/>
-      <c r="K80" s="525"/>
-      <c r="L80" s="9"/>
-    </row>
-    <row r="81" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="416" t="s">
+      <c r="E87" s="383"/>
+      <c r="F87" s="432"/>
+      <c r="G87" s="432"/>
+      <c r="H87" s="432"/>
+      <c r="I87" s="432"/>
+      <c r="J87" s="432"/>
+      <c r="K87" s="432"/>
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="384" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="417" t="s">
+      <c r="C88" s="385" t="s">
         <v>236</v>
       </c>
-      <c r="D81" s="417" t="s">
+      <c r="D88" s="385" t="s">
         <v>234</v>
       </c>
-      <c r="E81" s="418"/>
-      <c r="F81" s="525"/>
-      <c r="G81" s="525"/>
-      <c r="H81" s="525"/>
-      <c r="I81" s="525"/>
-      <c r="J81" s="525"/>
-      <c r="K81" s="525"/>
-      <c r="L81" s="9"/>
-    </row>
-    <row r="82" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="416" t="s">
+      <c r="E88" s="386"/>
+      <c r="F88" s="432"/>
+      <c r="G88" s="432"/>
+      <c r="H88" s="432"/>
+      <c r="I88" s="432"/>
+      <c r="J88" s="432"/>
+      <c r="K88" s="432"/>
+      <c r="L88" s="9"/>
+    </row>
+    <row r="89" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="384" t="s">
         <v>253</v>
       </c>
-      <c r="C82" s="417" t="s">
+      <c r="C89" s="385" t="s">
         <v>236</v>
       </c>
-      <c r="D82" s="417" t="s">
+      <c r="D89" s="385" t="s">
         <v>235</v>
       </c>
-      <c r="E82" s="418"/>
-      <c r="F82" s="525"/>
-      <c r="G82" s="525"/>
-      <c r="H82" s="525"/>
-      <c r="I82" s="525"/>
-      <c r="J82" s="525"/>
-      <c r="K82" s="525"/>
-      <c r="L82" s="9"/>
-    </row>
-    <row r="83" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="416" t="s">
+      <c r="E89" s="386"/>
+      <c r="F89" s="432"/>
+      <c r="G89" s="432"/>
+      <c r="H89" s="432"/>
+      <c r="I89" s="432"/>
+      <c r="J89" s="432"/>
+      <c r="K89" s="432"/>
+      <c r="L89" s="9"/>
+    </row>
+    <row r="90" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="384" t="s">
         <v>253</v>
       </c>
-      <c r="C83" s="417" t="s">
+      <c r="C90" s="385" t="s">
         <v>236</v>
       </c>
-      <c r="D83" s="417" t="s">
+      <c r="D90" s="385" t="s">
         <v>237</v>
       </c>
-      <c r="E83" s="418"/>
-      <c r="F83" s="525"/>
-      <c r="G83" s="525"/>
-      <c r="H83" s="525"/>
-      <c r="I83" s="525"/>
-      <c r="J83" s="525"/>
-      <c r="K83" s="525"/>
-      <c r="L83" s="9"/>
-    </row>
-    <row r="84" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="416" t="s">
+      <c r="E90" s="386"/>
+      <c r="F90" s="432"/>
+      <c r="G90" s="432"/>
+      <c r="H90" s="432"/>
+      <c r="I90" s="432"/>
+      <c r="J90" s="432"/>
+      <c r="K90" s="432"/>
+      <c r="L90" s="9"/>
+    </row>
+    <row r="91" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="384" t="s">
         <v>253</v>
       </c>
-      <c r="C84" s="417" t="s">
+      <c r="C91" s="385" t="s">
         <v>236</v>
       </c>
-      <c r="D84" s="417" t="s">
+      <c r="D91" s="385" t="s">
         <v>18</v>
       </c>
-      <c r="E84" s="418"/>
-      <c r="F84" s="525">
+      <c r="E91" s="386"/>
+      <c r="F91" s="432">
         <f>ProdSerRet!C27</f>
         <v>0.25083635683412664</v>
       </c>
-      <c r="G84" s="525">
-        <v>0.15596275043697269</v>
-      </c>
-      <c r="H84" s="525">
-        <v>0.15596275043697269</v>
-      </c>
-      <c r="I84" s="525">
-        <v>0.15596275043697269</v>
-      </c>
-      <c r="J84" s="525">
-        <v>0.15596275043697269</v>
-      </c>
-      <c r="K84" s="525">
-        <v>0.15596275043697269</v>
-      </c>
-      <c r="L84" s="9"/>
-    </row>
-    <row r="85" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="416" t="s">
+      <c r="G91" s="432">
+        <f>F91</f>
+        <v>0.25083635683412664</v>
+      </c>
+      <c r="H91" s="432">
+        <f t="shared" ref="H91:K91" si="9">G91</f>
+        <v>0.25083635683412664</v>
+      </c>
+      <c r="I91" s="432">
+        <f t="shared" si="9"/>
+        <v>0.25083635683412664</v>
+      </c>
+      <c r="J91" s="432">
+        <f t="shared" si="9"/>
+        <v>0.25083635683412664</v>
+      </c>
+      <c r="K91" s="432">
+        <f t="shared" si="9"/>
+        <v>0.25083635683412664</v>
+      </c>
+      <c r="L91" s="9"/>
+    </row>
+    <row r="92" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="384" t="s">
         <v>253</v>
       </c>
-      <c r="C85" s="417" t="s">
+      <c r="C92" s="385" t="s">
         <v>236</v>
       </c>
-      <c r="D85" s="417" t="s">
+      <c r="D92" s="385" t="s">
         <v>236</v>
       </c>
-      <c r="E85" s="418"/>
-      <c r="F85" s="525"/>
-      <c r="G85" s="525"/>
-      <c r="H85" s="525"/>
-      <c r="I85" s="525"/>
-      <c r="J85" s="525"/>
-      <c r="K85" s="525"/>
-      <c r="L85" s="9"/>
-    </row>
-    <row r="86" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="419" t="s">
+      <c r="E92" s="386"/>
+      <c r="F92" s="432"/>
+      <c r="G92" s="432"/>
+      <c r="H92" s="432"/>
+      <c r="I92" s="432"/>
+      <c r="J92" s="432"/>
+      <c r="K92" s="432"/>
+      <c r="L92" s="9"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="387" t="s">
         <v>253</v>
       </c>
-      <c r="C86" s="420" t="s">
+      <c r="C93" s="388" t="s">
         <v>236</v>
       </c>
-      <c r="D86" s="420" t="s">
+      <c r="D93" s="388" t="s">
         <v>238</v>
       </c>
-      <c r="E86" s="421"/>
-      <c r="F86" s="525">
+      <c r="E93" s="389"/>
+      <c r="F93" s="432">
         <f>ProdSerRet!D27</f>
         <v>0.15456692781533504</v>
       </c>
-      <c r="G86" s="525">
-        <v>0.16703006530556255</v>
-      </c>
-      <c r="H86" s="525">
-        <v>0.16703006530556255</v>
-      </c>
-      <c r="I86" s="525">
-        <v>0.16703006530556255</v>
-      </c>
-      <c r="J86" s="525">
-        <v>0.16703006530556255</v>
-      </c>
-      <c r="K86" s="525">
-        <v>0.16703006530556255</v>
-      </c>
-      <c r="L86" s="9"/>
-    </row>
-    <row r="87" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="422" t="s">
+      <c r="G93" s="432">
+        <f>F93</f>
+        <v>0.15456692781533504</v>
+      </c>
+      <c r="H93" s="432">
+        <f t="shared" ref="H93:K93" si="10">G93</f>
+        <v>0.15456692781533504</v>
+      </c>
+      <c r="I93" s="432">
+        <f t="shared" si="10"/>
+        <v>0.15456692781533504</v>
+      </c>
+      <c r="J93" s="432">
+        <f t="shared" si="10"/>
+        <v>0.15456692781533504</v>
+      </c>
+      <c r="K93" s="432">
+        <f t="shared" si="10"/>
+        <v>0.15456692781533504</v>
+      </c>
+      <c r="L93" s="9"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="390" t="s">
         <v>249</v>
       </c>
-      <c r="C87" s="423" t="s">
+      <c r="C94" s="391" t="s">
         <v>236</v>
       </c>
-      <c r="D87" s="423"/>
-      <c r="E87" s="423" t="s">
+      <c r="D94" s="391"/>
+      <c r="E94" s="391" t="s">
         <v>6</v>
       </c>
-      <c r="F87" s="526">
+      <c r="F94" s="433">
         <f>ProdSerRet!F10</f>
         <v>0.41139039453927051</v>
       </c>
-      <c r="G87" s="526">
-        <f>F87</f>
+      <c r="G94" s="433">
+        <f>F94</f>
         <v>0.41139039453927051</v>
       </c>
-      <c r="H87" s="527">
-        <f t="shared" ref="H87:K87" si="11">G87</f>
+      <c r="H94" s="434">
+        <f t="shared" ref="H94:K94" si="11">G94</f>
         <v>0.41139039453927051</v>
       </c>
-      <c r="I87" s="526">
+      <c r="I94" s="433">
         <f t="shared" si="11"/>
         <v>0.41139039453927051</v>
       </c>
-      <c r="J87" s="527">
+      <c r="J94" s="434">
         <f t="shared" si="11"/>
         <v>0.41139039453927051</v>
       </c>
-      <c r="K87" s="526">
+      <c r="K94" s="433">
         <f t="shared" si="11"/>
         <v>0.41139039453927051</v>
       </c>
-      <c r="L87" s="9"/>
-    </row>
-    <row r="88" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="425" t="s">
+      <c r="L94" s="9"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="393" t="s">
         <v>249</v>
       </c>
-      <c r="C88" s="426" t="s">
+      <c r="C95" s="394" t="s">
         <v>236</v>
       </c>
-      <c r="D88" s="426"/>
-      <c r="E88" s="426" t="s">
+      <c r="D95" s="394"/>
+      <c r="E95" s="394" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="528"/>
-      <c r="G88" s="528"/>
-      <c r="H88" s="529"/>
-      <c r="I88" s="528"/>
-      <c r="J88" s="529"/>
-      <c r="K88" s="528"/>
-      <c r="L88" s="9"/>
-    </row>
-    <row r="89" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="425" t="s">
+      <c r="F95" s="435"/>
+      <c r="G95" s="435"/>
+      <c r="H95" s="436"/>
+      <c r="I95" s="435"/>
+      <c r="J95" s="436"/>
+      <c r="K95" s="435"/>
+      <c r="L95" s="9"/>
+    </row>
+    <row r="96" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="393" t="s">
         <v>249</v>
       </c>
-      <c r="C89" s="426" t="s">
+      <c r="C96" s="394" t="s">
         <v>236</v>
       </c>
-      <c r="D89" s="426"/>
-      <c r="E89" s="426" t="s">
+      <c r="D96" s="394"/>
+      <c r="E96" s="394" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="528">
-        <f>1-F87</f>
+      <c r="F96" s="435">
+        <f>1-F94</f>
         <v>0.58860960546072949</v>
       </c>
-      <c r="G89" s="528">
-        <f>F89</f>
+      <c r="G96" s="435">
+        <f>F96</f>
         <v>0.58860960546072949</v>
       </c>
-      <c r="H89" s="529">
-        <f>G89</f>
+      <c r="H96" s="436">
+        <f>G96</f>
         <v>0.58860960546072949</v>
       </c>
-      <c r="I89" s="528">
-        <f t="shared" ref="H89:K89" si="12">H89</f>
+      <c r="I96" s="435">
+        <f t="shared" ref="I96:K96" si="12">H96</f>
         <v>0.58860960546072949</v>
       </c>
-      <c r="J89" s="529">
+      <c r="J96" s="436">
         <f t="shared" si="12"/>
         <v>0.58860960546072949</v>
       </c>
-      <c r="K89" s="528">
+      <c r="K96" s="435">
         <f t="shared" si="12"/>
         <v>0.58860960546072949</v>
       </c>
-      <c r="L89" s="9"/>
-    </row>
-    <row r="90" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="427" t="s">
-        <v>249</v>
-      </c>
-      <c r="C90" s="428" t="s">
-        <v>236</v>
-      </c>
-      <c r="D90" s="428"/>
-      <c r="E90" s="428" t="s">
-        <v>5</v>
-      </c>
-      <c r="F90" s="530"/>
-      <c r="G90" s="530"/>
-      <c r="H90" s="531"/>
-      <c r="I90" s="530"/>
-      <c r="J90" s="531"/>
-      <c r="K90" s="530"/>
-      <c r="L90" s="9"/>
-    </row>
-    <row r="91" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="416" t="s">
-        <v>250</v>
-      </c>
-      <c r="C91" s="417" t="s">
-        <v>236</v>
-      </c>
-      <c r="D91" s="417"/>
-      <c r="E91" s="417" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" s="525"/>
-      <c r="G91" s="525"/>
-      <c r="H91" s="532"/>
-      <c r="I91" s="525"/>
-      <c r="J91" s="532"/>
-      <c r="K91" s="525"/>
-      <c r="L91" s="9"/>
-    </row>
-    <row r="92" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="416" t="s">
-        <v>250</v>
-      </c>
-      <c r="C92" s="417" t="s">
-        <v>236</v>
-      </c>
-      <c r="D92" s="417"/>
-      <c r="E92" s="417" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" s="525"/>
-      <c r="G92" s="525"/>
-      <c r="H92" s="532"/>
-      <c r="I92" s="525"/>
-      <c r="J92" s="532"/>
-      <c r="K92" s="525"/>
-      <c r="L92" s="9"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
-      <c r="B93" s="416" t="s">
-        <v>250</v>
-      </c>
-      <c r="C93" s="417" t="s">
-        <v>236</v>
-      </c>
-      <c r="D93" s="417"/>
-      <c r="E93" s="417" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" s="525"/>
-      <c r="G93" s="525"/>
-      <c r="H93" s="532"/>
-      <c r="I93" s="525"/>
-      <c r="J93" s="532"/>
-      <c r="K93" s="525"/>
-      <c r="L93" s="9"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="B94" s="416" t="s">
-        <v>250</v>
-      </c>
-      <c r="C94" s="417" t="s">
-        <v>236</v>
-      </c>
-      <c r="D94" s="417"/>
-      <c r="E94" s="417" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="525"/>
-      <c r="G94" s="525"/>
-      <c r="H94" s="532"/>
-      <c r="I94" s="525"/>
-      <c r="J94" s="532"/>
-      <c r="K94" s="525"/>
-      <c r="L94" s="9"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
-      <c r="B95" s="422" t="s">
-        <v>251</v>
-      </c>
-      <c r="C95" s="423" t="s">
-        <v>236</v>
-      </c>
-      <c r="D95" s="423"/>
-      <c r="E95" s="423"/>
-      <c r="F95" s="429"/>
-      <c r="G95" s="429"/>
-      <c r="H95" s="430"/>
-      <c r="I95" s="429"/>
-      <c r="J95" s="430"/>
-      <c r="K95" s="429"/>
-      <c r="L95" s="9"/>
-    </row>
-    <row r="96" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="427" t="s">
-        <v>252</v>
-      </c>
-      <c r="C96" s="428" t="s">
-        <v>236</v>
-      </c>
-      <c r="D96" s="428"/>
-      <c r="E96" s="428"/>
-      <c r="F96" s="431"/>
-      <c r="G96" s="431"/>
-      <c r="H96" s="432"/>
-      <c r="I96" s="431"/>
-      <c r="J96" s="432"/>
-      <c r="K96" s="431"/>
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
-      <c r="B97" s="433" t="s">
+      <c r="B97" s="395" t="s">
+        <v>249</v>
+      </c>
+      <c r="C97" s="396" t="s">
+        <v>236</v>
+      </c>
+      <c r="D97" s="396"/>
+      <c r="E97" s="396" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" s="437"/>
+      <c r="G97" s="437"/>
+      <c r="H97" s="438"/>
+      <c r="I97" s="437"/>
+      <c r="J97" s="438"/>
+      <c r="K97" s="437"/>
+      <c r="L97" s="9"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="384" t="s">
+        <v>250</v>
+      </c>
+      <c r="C98" s="385" t="s">
+        <v>236</v>
+      </c>
+      <c r="D98" s="385"/>
+      <c r="E98" s="385" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" s="432">
+        <f>ProdSerRet!G10</f>
+        <v>0.26973411122814583</v>
+      </c>
+      <c r="G98" s="432">
+        <f>F98</f>
+        <v>0.26973411122814583</v>
+      </c>
+      <c r="H98" s="432">
+        <f t="shared" ref="H98:K98" si="13">G98</f>
+        <v>0.26973411122814583</v>
+      </c>
+      <c r="I98" s="432">
+        <f t="shared" si="13"/>
+        <v>0.26973411122814583</v>
+      </c>
+      <c r="J98" s="432">
+        <f t="shared" si="13"/>
+        <v>0.26973411122814583</v>
+      </c>
+      <c r="K98" s="432">
+        <f t="shared" si="13"/>
+        <v>0.26973411122814583</v>
+      </c>
+      <c r="L98" s="9"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="384" t="s">
+        <v>250</v>
+      </c>
+      <c r="C99" s="385" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" s="385"/>
+      <c r="E99" s="385" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" s="432"/>
+      <c r="G99" s="432"/>
+      <c r="H99" s="439"/>
+      <c r="I99" s="432"/>
+      <c r="J99" s="439"/>
+      <c r="K99" s="432"/>
+      <c r="L99" s="9"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="384" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" s="385" t="s">
+        <v>236</v>
+      </c>
+      <c r="D100" s="385"/>
+      <c r="E100" s="385" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="432"/>
+      <c r="G100" s="432"/>
+      <c r="H100" s="439"/>
+      <c r="I100" s="432"/>
+      <c r="J100" s="439"/>
+      <c r="K100" s="432"/>
+      <c r="L100" s="9"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="8"/>
+      <c r="B101" s="384" t="s">
+        <v>250</v>
+      </c>
+      <c r="C101" s="385" t="s">
+        <v>236</v>
+      </c>
+      <c r="D101" s="385"/>
+      <c r="E101" s="385" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="432"/>
+      <c r="G101" s="432"/>
+      <c r="H101" s="439"/>
+      <c r="I101" s="432"/>
+      <c r="J101" s="439"/>
+      <c r="K101" s="432"/>
+      <c r="L101" s="9"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="390" t="s">
+        <v>251</v>
+      </c>
+      <c r="C102" s="391" t="s">
+        <v>236</v>
+      </c>
+      <c r="D102" s="391"/>
+      <c r="E102" s="391"/>
+      <c r="F102" s="397"/>
+      <c r="G102" s="397"/>
+      <c r="H102" s="398"/>
+      <c r="I102" s="397"/>
+      <c r="J102" s="398"/>
+      <c r="K102" s="397"/>
+      <c r="L102" s="9"/>
+    </row>
+    <row r="103" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="395" t="s">
+        <v>252</v>
+      </c>
+      <c r="C103" s="396" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" s="396"/>
+      <c r="E103" s="396"/>
+      <c r="F103" s="399"/>
+      <c r="G103" s="399"/>
+      <c r="H103" s="400"/>
+      <c r="I103" s="399"/>
+      <c r="J103" s="400"/>
+      <c r="K103" s="399"/>
+      <c r="L103" s="9"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="401" t="s">
         <v>231</v>
       </c>
-      <c r="C97" s="434" t="s">
+      <c r="C104" s="402" t="s">
         <v>18</v>
       </c>
-      <c r="D97" s="434"/>
-      <c r="E97" s="434"/>
-      <c r="F97" s="435">
+      <c r="D104" s="402"/>
+      <c r="E104" s="402"/>
+      <c r="F104" s="403">
         <f>ProdSerRet!C5</f>
         <v>11361.66015625</v>
       </c>
-      <c r="G97" s="435">
+      <c r="G104" s="403">
         <f>ProdSerRet!D5</f>
         <v>911.635986328125</v>
       </c>
-      <c r="H97" s="435">
+      <c r="H104" s="403">
         <f>ProdSerRet!E5</f>
         <v>1602.260009765625</v>
       </c>
-      <c r="I97" s="435">
+      <c r="I104" s="403">
         <f>ProdSerRet!F5</f>
         <v>4521.72998046875</v>
       </c>
-      <c r="J97" s="435">
+      <c r="J104" s="403">
         <f>ProdSerRet!G5</f>
         <v>7168.7666015625</v>
       </c>
-      <c r="K97" s="435">
+      <c r="K104" s="403">
         <f>ProdSerRet!H5</f>
         <v>1858.489990234375</v>
       </c>
-      <c r="L97" s="8" t="s">
+      <c r="L104" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
-      <c r="B98" s="444" t="s">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="8"/>
+      <c r="B105" s="412" t="s">
         <v>253</v>
       </c>
-      <c r="C98" s="445" t="s">
+      <c r="C105" s="413" t="s">
         <v>18</v>
       </c>
-      <c r="D98" s="445" t="s">
+      <c r="D105" s="413" t="s">
         <v>53</v>
       </c>
-      <c r="E98" s="446"/>
-      <c r="F98" s="533"/>
-      <c r="G98" s="533"/>
-      <c r="H98" s="533"/>
-      <c r="I98" s="533"/>
-      <c r="J98" s="533"/>
-      <c r="K98" s="533"/>
-      <c r="L98" s="9"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" s="447" t="s">
+      <c r="E105" s="414"/>
+      <c r="F105" s="440"/>
+      <c r="G105" s="440"/>
+      <c r="H105" s="440"/>
+      <c r="I105" s="440"/>
+      <c r="J105" s="440"/>
+      <c r="K105" s="440"/>
+      <c r="L105" s="9"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="415" t="s">
         <v>253</v>
       </c>
-      <c r="C99" s="448" t="s">
+      <c r="C106" s="416" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="448" t="s">
+      <c r="D106" s="416" t="s">
         <v>234</v>
       </c>
-      <c r="E99" s="449"/>
-      <c r="F99" s="533"/>
-      <c r="G99" s="533"/>
-      <c r="H99" s="533"/>
-      <c r="I99" s="533"/>
-      <c r="J99" s="533"/>
-      <c r="K99" s="533"/>
-      <c r="L99" s="9"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="447" t="s">
+      <c r="E106" s="417"/>
+      <c r="F106" s="440"/>
+      <c r="G106" s="440"/>
+      <c r="H106" s="440"/>
+      <c r="I106" s="440"/>
+      <c r="J106" s="440"/>
+      <c r="K106" s="440"/>
+      <c r="L106" s="9"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="415" t="s">
         <v>253</v>
       </c>
-      <c r="C100" s="448" t="s">
+      <c r="C107" s="416" t="s">
         <v>18</v>
       </c>
-      <c r="D100" s="448" t="s">
+      <c r="D107" s="416" t="s">
         <v>235</v>
       </c>
-      <c r="E100" s="449"/>
-      <c r="F100" s="533"/>
-      <c r="G100" s="533"/>
-      <c r="H100" s="533"/>
-      <c r="I100" s="533"/>
-      <c r="J100" s="533"/>
-      <c r="K100" s="533"/>
-      <c r="L100" s="9"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="8"/>
-      <c r="B101" s="447" t="s">
+      <c r="E107" s="417"/>
+      <c r="F107" s="440"/>
+      <c r="G107" s="440"/>
+      <c r="H107" s="440"/>
+      <c r="I107" s="440"/>
+      <c r="J107" s="440"/>
+      <c r="K107" s="440"/>
+      <c r="L107" s="9"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="415" t="s">
         <v>253</v>
       </c>
-      <c r="C101" s="448" t="s">
+      <c r="C108" s="416" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="448" t="s">
+      <c r="D108" s="416" t="s">
         <v>237</v>
       </c>
-      <c r="E101" s="449"/>
-      <c r="F101" s="533"/>
-      <c r="G101" s="533"/>
-      <c r="H101" s="533"/>
-      <c r="I101" s="533"/>
-      <c r="J101" s="533"/>
-      <c r="K101" s="533"/>
-      <c r="L101" s="9"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
-      <c r="B102" s="447" t="s">
+      <c r="E108" s="417"/>
+      <c r="F108" s="440"/>
+      <c r="G108" s="440"/>
+      <c r="H108" s="440"/>
+      <c r="I108" s="440"/>
+      <c r="J108" s="440"/>
+      <c r="K108" s="440"/>
+      <c r="L108" s="9"/>
+    </row>
+    <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="415" t="s">
         <v>253</v>
       </c>
-      <c r="C102" s="448" t="s">
+      <c r="C109" s="416" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="448" t="s">
+      <c r="D109" s="416" t="s">
         <v>18</v>
       </c>
-      <c r="E102" s="449"/>
-      <c r="F102" s="533">
+      <c r="E109" s="417"/>
+      <c r="F109" s="440">
         <f>ProdSerRet!C28</f>
         <v>0.46614772249200198</v>
       </c>
-      <c r="G102" s="533">
-        <v>0.15596275043697269</v>
-      </c>
-      <c r="H102" s="533">
-        <v>0.15596275043697269</v>
-      </c>
-      <c r="I102" s="533">
-        <v>0.15596275043697269</v>
-      </c>
-      <c r="J102" s="533">
-        <v>0.15596275043697269</v>
-      </c>
-      <c r="K102" s="533">
-        <v>0.15596275043697269</v>
-      </c>
-      <c r="L102" s="9"/>
-    </row>
-    <row r="103" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
-      <c r="B103" s="447" t="s">
+      <c r="G109" s="440">
+        <f>F109</f>
+        <v>0.46614772249200198</v>
+      </c>
+      <c r="H109" s="440">
+        <f t="shared" ref="H109:K111" si="14">G109</f>
+        <v>0.46614772249200198</v>
+      </c>
+      <c r="I109" s="440">
+        <f t="shared" si="14"/>
+        <v>0.46614772249200198</v>
+      </c>
+      <c r="J109" s="440">
+        <f t="shared" si="14"/>
+        <v>0.46614772249200198</v>
+      </c>
+      <c r="K109" s="440">
+        <f t="shared" si="14"/>
+        <v>0.46614772249200198</v>
+      </c>
+      <c r="L109" s="9"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="415" t="s">
         <v>253</v>
       </c>
-      <c r="C103" s="448" t="s">
+      <c r="C110" s="416" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="448" t="s">
+      <c r="D110" s="416" t="s">
         <v>236</v>
       </c>
-      <c r="E103" s="449"/>
-      <c r="F103" s="533"/>
-      <c r="G103" s="533"/>
-      <c r="H103" s="533"/>
-      <c r="I103" s="533"/>
-      <c r="J103" s="533"/>
-      <c r="K103" s="533"/>
-      <c r="L103" s="247"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
-      <c r="B104" s="450" t="s">
+      <c r="E110" s="417"/>
+      <c r="F110" s="440"/>
+      <c r="G110" s="440"/>
+      <c r="H110" s="440"/>
+      <c r="I110" s="440"/>
+      <c r="J110" s="440"/>
+      <c r="K110" s="440"/>
+      <c r="L110" s="244"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="418" t="s">
         <v>253</v>
       </c>
-      <c r="C104" s="451" t="s">
+      <c r="C111" s="419" t="s">
         <v>18</v>
       </c>
-      <c r="D104" s="451" t="s">
+      <c r="D111" s="419" t="s">
         <v>238</v>
       </c>
-      <c r="E104" s="452"/>
-      <c r="F104" s="533">
+      <c r="E111" s="420"/>
+      <c r="F111" s="440">
         <f>ProdSerRet!D28</f>
         <v>0.57864852666805822</v>
       </c>
-      <c r="G104" s="533">
-        <v>0.16703006530556255</v>
-      </c>
-      <c r="H104" s="533">
-        <v>0.16703006530556255</v>
-      </c>
-      <c r="I104" s="533">
-        <v>0.16703006530556255</v>
-      </c>
-      <c r="J104" s="533">
-        <v>0.16703006530556255</v>
-      </c>
-      <c r="K104" s="533">
-        <v>0.16703006530556255</v>
-      </c>
-      <c r="L104" s="9"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="8"/>
-      <c r="B105" s="433" t="s">
+      <c r="G111" s="440">
+        <f>F111</f>
+        <v>0.57864852666805822</v>
+      </c>
+      <c r="H111" s="440">
+        <f t="shared" si="14"/>
+        <v>0.57864852666805822</v>
+      </c>
+      <c r="I111" s="440">
+        <f t="shared" si="14"/>
+        <v>0.57864852666805822</v>
+      </c>
+      <c r="J111" s="440">
+        <f t="shared" si="14"/>
+        <v>0.57864852666805822</v>
+      </c>
+      <c r="K111" s="440">
+        <f t="shared" si="14"/>
+        <v>0.57864852666805822</v>
+      </c>
+      <c r="L111" s="9"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+      <c r="B112" s="401" t="s">
         <v>249</v>
       </c>
-      <c r="C105" s="434" t="s">
+      <c r="C112" s="402" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="434"/>
-      <c r="E105" s="434" t="s">
+      <c r="D112" s="402"/>
+      <c r="E112" s="402" t="s">
         <v>6</v>
       </c>
-      <c r="F105" s="534">
+      <c r="F112" s="441">
         <f>ProdSerRet!I10</f>
         <v>0.41457017440794203</v>
       </c>
-      <c r="G105" s="534">
-        <f>F105</f>
+      <c r="G112" s="441">
+        <f>F112</f>
         <v>0.41457017440794203</v>
       </c>
-      <c r="H105" s="535">
-        <f t="shared" ref="H105:K105" si="13">G105</f>
+      <c r="H112" s="442">
+        <f t="shared" ref="H112:K112" si="15">G112</f>
         <v>0.41457017440794203</v>
       </c>
-      <c r="I105" s="534">
-        <f t="shared" si="13"/>
+      <c r="I112" s="441">
+        <f t="shared" si="15"/>
         <v>0.41457017440794203</v>
       </c>
-      <c r="J105" s="535">
-        <f t="shared" si="13"/>
+      <c r="J112" s="442">
+        <f t="shared" si="15"/>
         <v>0.41457017440794203</v>
       </c>
-      <c r="K105" s="534">
-        <f t="shared" si="13"/>
+      <c r="K112" s="441">
+        <f t="shared" si="15"/>
         <v>0.41457017440794203</v>
       </c>
-      <c r="L105" s="9"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-      <c r="B106" s="436" t="s">
-        <v>249</v>
-      </c>
-      <c r="C106" s="437" t="s">
-        <v>18</v>
-      </c>
-      <c r="D106" s="437"/>
-      <c r="E106" s="437" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" s="536"/>
-      <c r="G106" s="536"/>
-      <c r="H106" s="537"/>
-      <c r="I106" s="536"/>
-      <c r="J106" s="537"/>
-      <c r="K106" s="536"/>
-      <c r="L106" s="9"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
-      <c r="B107" s="436" t="s">
-        <v>249</v>
-      </c>
-      <c r="C107" s="437" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" s="437"/>
-      <c r="E107" s="437" t="s">
-        <v>8</v>
-      </c>
-      <c r="F107" s="536">
-        <f>1-F105</f>
-        <v>0.58542982559205803</v>
-      </c>
-      <c r="G107" s="536">
-        <f>F107</f>
-        <v>0.58542982559205803</v>
-      </c>
-      <c r="H107" s="537">
-        <f t="shared" ref="H107:K107" si="14">G107</f>
-        <v>0.58542982559205803</v>
-      </c>
-      <c r="I107" s="536">
-        <f t="shared" si="14"/>
-        <v>0.58542982559205803</v>
-      </c>
-      <c r="J107" s="537">
-        <f t="shared" si="14"/>
-        <v>0.58542982559205803</v>
-      </c>
-      <c r="K107" s="536">
-        <f t="shared" si="14"/>
-        <v>0.58542982559205803</v>
-      </c>
-      <c r="L107" s="9"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
-      <c r="B108" s="438" t="s">
-        <v>249</v>
-      </c>
-      <c r="C108" s="439" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" s="439"/>
-      <c r="E108" s="439" t="s">
-        <v>5</v>
-      </c>
-      <c r="F108" s="538"/>
-      <c r="G108" s="538"/>
-      <c r="H108" s="539"/>
-      <c r="I108" s="538"/>
-      <c r="J108" s="539"/>
-      <c r="K108" s="538"/>
-      <c r="L108" s="9"/>
-    </row>
-    <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-      <c r="B109" s="447" t="s">
-        <v>250</v>
-      </c>
-      <c r="C109" s="448" t="s">
-        <v>18</v>
-      </c>
-      <c r="D109" s="448"/>
-      <c r="E109" s="448" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" s="533"/>
-      <c r="G109" s="533"/>
-      <c r="H109" s="540"/>
-      <c r="I109" s="533"/>
-      <c r="J109" s="540"/>
-      <c r="K109" s="533"/>
-      <c r="L109" s="246"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
-      <c r="B110" s="447" t="s">
-        <v>250</v>
-      </c>
-      <c r="C110" s="448" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110" s="448"/>
-      <c r="E110" s="448" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="533"/>
-      <c r="G110" s="533"/>
-      <c r="H110" s="540"/>
-      <c r="I110" s="533"/>
-      <c r="J110" s="540"/>
-      <c r="K110" s="533"/>
-      <c r="L110" s="246"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
-      <c r="B111" s="447" t="s">
-        <v>250</v>
-      </c>
-      <c r="C111" s="448" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="448"/>
-      <c r="E111" s="448" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" s="533"/>
-      <c r="G111" s="533"/>
-      <c r="H111" s="540"/>
-      <c r="I111" s="533"/>
-      <c r="J111" s="540"/>
-      <c r="K111" s="533"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-      <c r="B112" s="447" t="s">
-        <v>250</v>
-      </c>
-      <c r="C112" s="448" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112" s="448"/>
-      <c r="E112" s="448" t="s">
-        <v>5</v>
-      </c>
-      <c r="F112" s="533"/>
-      <c r="G112" s="533"/>
-      <c r="H112" s="540"/>
-      <c r="I112" s="533"/>
-      <c r="J112" s="540"/>
-      <c r="K112" s="533"/>
-      <c r="L112" s="173"/>
+      <c r="L112" s="9"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
-      <c r="B113" s="433" t="s">
-        <v>251</v>
-      </c>
-      <c r="C113" s="434" t="s">
+      <c r="B113" s="404" t="s">
+        <v>249</v>
+      </c>
+      <c r="C113" s="405" t="s">
         <v>18</v>
       </c>
-      <c r="D113" s="434"/>
-      <c r="E113" s="434"/>
-      <c r="F113" s="440"/>
-      <c r="G113" s="440"/>
-      <c r="H113" s="441"/>
-      <c r="I113" s="440"/>
-      <c r="J113" s="441"/>
-      <c r="K113" s="440"/>
+      <c r="D113" s="405"/>
+      <c r="E113" s="405" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="443"/>
+      <c r="G113" s="443"/>
+      <c r="H113" s="444"/>
+      <c r="I113" s="443"/>
+      <c r="J113" s="444"/>
+      <c r="K113" s="443"/>
       <c r="L113" s="9"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
-      <c r="B114" s="438" t="s">
-        <v>252</v>
-      </c>
-      <c r="C114" s="439" t="s">
+      <c r="B114" s="404" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="405" t="s">
         <v>18</v>
       </c>
-      <c r="D114" s="439"/>
-      <c r="E114" s="439"/>
-      <c r="F114" s="442"/>
-      <c r="G114" s="442"/>
-      <c r="H114" s="443"/>
-      <c r="I114" s="442"/>
-      <c r="J114" s="443"/>
-      <c r="K114" s="442"/>
-      <c r="L114" s="173"/>
+      <c r="D114" s="405"/>
+      <c r="E114" s="405" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" s="443">
+        <f>1-F112</f>
+        <v>0.58542982559205803</v>
+      </c>
+      <c r="G114" s="443">
+        <f>F114</f>
+        <v>0.58542982559205803</v>
+      </c>
+      <c r="H114" s="444">
+        <f t="shared" ref="H114:K114" si="16">G114</f>
+        <v>0.58542982559205803</v>
+      </c>
+      <c r="I114" s="443">
+        <f t="shared" si="16"/>
+        <v>0.58542982559205803</v>
+      </c>
+      <c r="J114" s="444">
+        <f t="shared" si="16"/>
+        <v>0.58542982559205803</v>
+      </c>
+      <c r="K114" s="443">
+        <f t="shared" si="16"/>
+        <v>0.58542982559205803</v>
+      </c>
+      <c r="L114" s="9"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="264"/>
-      <c r="G115" s="264"/>
-      <c r="H115" s="264"/>
-      <c r="I115" s="264"/>
-      <c r="J115" s="264"/>
-      <c r="K115" s="264"/>
+      <c r="B115" s="406" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="407"/>
+      <c r="E115" s="407" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" s="445"/>
+      <c r="G115" s="445"/>
+      <c r="H115" s="446"/>
+      <c r="I115" s="445"/>
+      <c r="J115" s="446"/>
+      <c r="K115" s="445"/>
       <c r="L115" s="9"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="264"/>
-      <c r="G116" s="264"/>
-      <c r="H116" s="264"/>
-      <c r="I116" s="264"/>
-      <c r="J116" s="264"/>
-      <c r="K116" s="264"/>
-      <c r="L116" s="9"/>
-    </row>
-    <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="264"/>
-      <c r="G117" s="264"/>
-      <c r="H117" s="264"/>
-      <c r="I117" s="264"/>
-      <c r="J117" s="264"/>
-      <c r="K117" s="264"/>
-      <c r="L117" s="9"/>
+      <c r="B116" s="415" t="s">
+        <v>250</v>
+      </c>
+      <c r="C116" s="416" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="416"/>
+      <c r="E116" s="416" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="440">
+        <f>ProdSerRet!J10</f>
+        <v>0.20939799735988696</v>
+      </c>
+      <c r="G116" s="440">
+        <f>F116</f>
+        <v>0.20939799735988696</v>
+      </c>
+      <c r="H116" s="440">
+        <f t="shared" ref="H116:K116" si="17">G116</f>
+        <v>0.20939799735988696</v>
+      </c>
+      <c r="I116" s="440">
+        <f t="shared" si="17"/>
+        <v>0.20939799735988696</v>
+      </c>
+      <c r="J116" s="440">
+        <f t="shared" si="17"/>
+        <v>0.20939799735988696</v>
+      </c>
+      <c r="K116" s="440">
+        <f t="shared" si="17"/>
+        <v>0.20939799735988696</v>
+      </c>
+      <c r="L116" s="510"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="415" t="s">
+        <v>250</v>
+      </c>
+      <c r="C117" s="416" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="416"/>
+      <c r="E117" s="416" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="440"/>
+      <c r="G117" s="440"/>
+      <c r="H117" s="447"/>
+      <c r="I117" s="440"/>
+      <c r="J117" s="447"/>
+      <c r="K117" s="440"/>
+      <c r="L117" s="510"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="338"/>
-      <c r="G118" s="357"/>
-      <c r="H118" s="357"/>
-      <c r="I118" s="357"/>
-      <c r="J118" s="357"/>
-      <c r="K118" s="357"/>
-      <c r="L118" s="173"/>
-    </row>
-    <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="339"/>
-      <c r="G119" s="358"/>
-      <c r="H119" s="358"/>
-      <c r="I119" s="358"/>
-      <c r="J119" s="358"/>
-      <c r="K119" s="358"/>
-      <c r="L119" s="9"/>
-    </row>
-    <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="311"/>
-      <c r="G120" s="311"/>
-      <c r="H120" s="311"/>
-      <c r="I120" s="311"/>
-      <c r="J120" s="363"/>
-      <c r="K120" s="363"/>
+      <c r="B118" s="415" t="s">
+        <v>250</v>
+      </c>
+      <c r="C118" s="416" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="416"/>
+      <c r="E118" s="416" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" s="440"/>
+      <c r="G118" s="440"/>
+      <c r="H118" s="447"/>
+      <c r="I118" s="440"/>
+      <c r="J118" s="447"/>
+      <c r="K118" s="440"/>
+      <c r="L118" s="9"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="415" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="416" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="416"/>
+      <c r="E119" s="416" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" s="440"/>
+      <c r="G119" s="440"/>
+      <c r="H119" s="447"/>
+      <c r="I119" s="440"/>
+      <c r="J119" s="447"/>
+      <c r="K119" s="440"/>
+      <c r="L119" s="255"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="401" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120" s="402" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="402"/>
+      <c r="E120" s="402"/>
+      <c r="F120" s="408"/>
+      <c r="G120" s="408"/>
+      <c r="H120" s="409"/>
+      <c r="I120" s="408"/>
+      <c r="J120" s="409"/>
+      <c r="K120" s="408"/>
       <c r="L120" s="9"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="340"/>
-      <c r="G121" s="359"/>
-      <c r="H121" s="359"/>
-      <c r="I121" s="359"/>
-      <c r="J121" s="364"/>
-      <c r="K121" s="364"/>
-      <c r="L121" s="98"/>
+      <c r="B121" s="406" t="s">
+        <v>252</v>
+      </c>
+      <c r="C121" s="407" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="407"/>
+      <c r="E121" s="407"/>
+      <c r="F121" s="410"/>
+      <c r="G121" s="410"/>
+      <c r="H121" s="411"/>
+      <c r="I121" s="410"/>
+      <c r="J121" s="411"/>
+      <c r="K121" s="410"/>
+      <c r="L121" s="255"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
+      <c r="B122" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
+      <c r="D122" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="E122" s="8"/>
-      <c r="F122" s="341"/>
-      <c r="G122" s="344"/>
-      <c r="H122" s="344"/>
-      <c r="I122" s="344"/>
-      <c r="J122" s="365"/>
-      <c r="K122" s="365"/>
-      <c r="L122" s="98"/>
+      <c r="L122" s="9"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
+      <c r="B123" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
+      <c r="D123" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="E123" s="8"/>
-      <c r="F123" s="341"/>
-      <c r="G123" s="344"/>
-      <c r="H123" s="344"/>
-      <c r="I123" s="344"/>
-      <c r="J123" s="365"/>
-      <c r="K123" s="365"/>
-      <c r="L123" s="98"/>
-    </row>
-    <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
+      <c r="L123" s="9"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
+      <c r="D124" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="E124" s="8"/>
-      <c r="F124" s="342"/>
-      <c r="G124" s="360"/>
-      <c r="H124" s="360"/>
-      <c r="I124" s="360"/>
-      <c r="J124" s="366"/>
-      <c r="K124" s="366"/>
-      <c r="L124" s="29"/>
-    </row>
-    <row r="125" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="8"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C125" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" s="8"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E126" s="8"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" s="8"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="90"/>
+      <c r="D134" s="90"/>
+      <c r="E134" s="90"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C135" s="90"/>
+      <c r="D135" s="90"/>
+      <c r="E135" s="90"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" s="90"/>
+      <c r="D136" s="90"/>
+      <c r="E136" s="90"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C137" s="90"/>
+      <c r="D137" s="90"/>
+      <c r="E137" s="90"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C138" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D125" s="8" t="s">
+      <c r="D138" s="90"/>
+      <c r="E138" s="90"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="C139" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="264"/>
-      <c r="G125" s="264"/>
-      <c r="H125" s="264"/>
-      <c r="I125" s="264"/>
-      <c r="J125" s="264"/>
-      <c r="K125" s="264"/>
-      <c r="L125" s="245"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C126" s="8" t="s">
+      <c r="D139" s="90"/>
+      <c r="E139" s="90"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C140" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D140" s="90"/>
+      <c r="E140" s="90"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="C141" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D141" s="90"/>
+      <c r="E141" s="90"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>152</v>
+      </c>
+      <c r="C142" t="s">
+        <v>51</v>
+      </c>
+      <c r="D142" s="90"/>
+      <c r="E142" s="90"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>153</v>
+      </c>
+      <c r="C143" t="s">
+        <v>51</v>
+      </c>
+      <c r="D143" s="90"/>
+      <c r="E143" s="90"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="D144" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" s="90"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="264"/>
-      <c r="G126" s="264"/>
-      <c r="H126" s="264"/>
-      <c r="I126" s="264"/>
-      <c r="J126" s="264"/>
-      <c r="K126" s="264"/>
-      <c r="L126" s="245"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C127" s="8" t="s">
+      <c r="E145" s="90"/>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C146" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D146" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="264"/>
-      <c r="G127" s="264"/>
-      <c r="H127" s="264"/>
-      <c r="I127" s="264"/>
-      <c r="J127" s="264"/>
-      <c r="K127" s="264"/>
-      <c r="L127" s="245"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C128" s="8" t="s">
+      <c r="E146" s="90"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D147" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E128" s="8"/>
-      <c r="F128" s="264"/>
-      <c r="G128" s="264"/>
-      <c r="H128" s="264"/>
-      <c r="I128" s="264"/>
-      <c r="J128" s="264"/>
-      <c r="K128" s="264"/>
-      <c r="L128" s="245"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F129" s="264"/>
-      <c r="G129" s="264"/>
-      <c r="H129" s="264"/>
-      <c r="I129" s="264"/>
-      <c r="J129" s="264"/>
-      <c r="K129" s="264"/>
-      <c r="L129" s="245"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F130" s="264"/>
-      <c r="G130" s="264"/>
-      <c r="H130" s="264"/>
-      <c r="I130" s="264"/>
-      <c r="J130" s="264"/>
-      <c r="K130" s="264"/>
-      <c r="L130" s="245"/>
-    </row>
-    <row r="131" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F131" s="264"/>
-      <c r="G131" s="264"/>
-      <c r="H131" s="264"/>
-      <c r="I131" s="264"/>
-      <c r="J131" s="264"/>
-      <c r="K131" s="264"/>
-      <c r="L131" s="244"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F132" s="264"/>
-      <c r="G132" s="264"/>
-      <c r="H132" s="264"/>
-      <c r="I132" s="264"/>
-      <c r="J132" s="264"/>
-      <c r="K132" s="264"/>
-      <c r="L132" s="244"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F133" s="264"/>
-      <c r="G133" s="264"/>
-      <c r="H133" s="264"/>
-      <c r="I133" s="264"/>
-      <c r="J133" s="264"/>
-      <c r="K133" s="264"/>
-      <c r="L133" s="244"/>
-    </row>
-    <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F134" s="264"/>
-      <c r="G134" s="264"/>
-      <c r="H134" s="264"/>
-      <c r="I134" s="264"/>
-      <c r="J134" s="264"/>
-      <c r="K134" s="264"/>
-      <c r="L134" s="244"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D135" s="8"/>
-      <c r="E135" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F135" s="338"/>
-      <c r="G135" s="357"/>
-      <c r="H135" s="357"/>
-      <c r="I135" s="357"/>
-      <c r="J135" s="357"/>
-      <c r="K135" s="357"/>
-      <c r="L135" s="244"/>
-    </row>
-    <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F136" s="339"/>
-      <c r="G136" s="358"/>
-      <c r="H136" s="358"/>
-      <c r="I136" s="358"/>
-      <c r="J136" s="358"/>
-      <c r="K136" s="358"/>
-      <c r="L136" s="244"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" s="311"/>
-      <c r="G137" s="311"/>
-      <c r="H137" s="311"/>
-      <c r="I137" s="311"/>
-      <c r="J137" s="363"/>
-      <c r="K137" s="363"/>
-      <c r="L137" s="244"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="8"/>
-      <c r="B138" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="311"/>
-      <c r="G138" s="311"/>
-      <c r="H138" s="311"/>
-      <c r="I138" s="311"/>
-      <c r="J138" s="363"/>
-      <c r="K138" s="363"/>
-      <c r="L138" s="244"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B139" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="311"/>
-      <c r="G139" s="311"/>
-      <c r="H139" s="311"/>
-      <c r="I139" s="311"/>
-      <c r="J139" s="311"/>
-      <c r="K139" s="311"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="311"/>
-      <c r="G140" s="311"/>
-      <c r="H140" s="311"/>
-      <c r="I140" s="311"/>
-      <c r="J140" s="311"/>
-      <c r="K140" s="311"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="311"/>
-      <c r="G141" s="311"/>
-      <c r="H141" s="311"/>
-      <c r="I141" s="311"/>
-      <c r="J141" s="363"/>
-      <c r="K141" s="363"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="311"/>
-      <c r="G142" s="311"/>
-      <c r="H142" s="311"/>
-      <c r="I142" s="311"/>
-      <c r="J142" s="363"/>
-      <c r="K142" s="363"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B143" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E143" s="8"/>
-      <c r="F143" s="311"/>
-      <c r="G143" s="311"/>
-      <c r="H143" s="311"/>
-      <c r="I143" s="311"/>
-      <c r="J143" s="363"/>
-      <c r="K143" s="363"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B144" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="311"/>
-      <c r="G144" s="311"/>
-      <c r="H144" s="311"/>
-      <c r="I144" s="311"/>
-      <c r="J144" s="363"/>
-      <c r="K144" s="363"/>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B145" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E145" s="8"/>
-      <c r="F145" s="343" t="e">
-        <f>#REF!/F159</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G145" s="343" t="e">
-        <f>#REF!/G159</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H145" s="343" t="e">
-        <f>#REF!/H159</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I145" s="343" t="e">
-        <f>#REF!/I159</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J145" s="343" t="e">
-        <f>#REF!/J159</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K145" s="343" t="e">
-        <f>#REF!/K159</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B146" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E146" s="8"/>
-      <c r="F146" s="344">
-        <v>0</v>
-      </c>
-      <c r="G146" s="344">
-        <v>0</v>
-      </c>
-      <c r="H146" s="344">
-        <v>0</v>
-      </c>
-      <c r="I146" s="344">
-        <v>0</v>
-      </c>
-      <c r="J146" s="344">
-        <v>0</v>
-      </c>
-      <c r="K146" s="344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B147" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F147" s="345"/>
-      <c r="G147" s="345"/>
-      <c r="H147" s="345"/>
-      <c r="I147" s="345"/>
-      <c r="J147" s="345"/>
-      <c r="K147" s="345"/>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B148" s="8" t="s">
-        <v>9</v>
+      <c r="E147" s="90"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="101" t="s">
+        <v>97</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F148" s="345"/>
-      <c r="G148" s="345"/>
-      <c r="H148" s="345"/>
-      <c r="I148" s="345"/>
-      <c r="J148" s="367"/>
-      <c r="K148" s="367"/>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B149" s="8" t="s">
-        <v>9</v>
+      <c r="D148" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148" s="90"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="101" t="s">
+        <v>97</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" s="345"/>
-      <c r="G149" s="345"/>
-      <c r="H149" s="345"/>
-      <c r="I149" s="345"/>
-      <c r="J149" s="345"/>
-      <c r="K149" s="345"/>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="8" t="s">
-        <v>10</v>
+      <c r="D149" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E149" s="8"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="101" t="s">
+        <v>97</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F150" s="345"/>
-      <c r="G150" s="345"/>
-      <c r="H150" s="345"/>
-      <c r="I150" s="345"/>
-      <c r="J150" s="345"/>
-      <c r="K150" s="345"/>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B151" s="8" t="s">
-        <v>10</v>
+      <c r="D150" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E150" s="8"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="101" t="s">
+        <v>97</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D151" s="8"/>
-      <c r="E151" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F151" s="311"/>
-      <c r="G151" s="311"/>
-      <c r="H151" s="311"/>
-      <c r="I151" s="311"/>
-      <c r="J151" s="363"/>
-      <c r="K151" s="363"/>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B152" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" s="311"/>
-      <c r="G152" s="311"/>
-      <c r="H152" s="311"/>
-      <c r="I152" s="311"/>
-      <c r="J152" s="363"/>
-      <c r="K152" s="363"/>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B153" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F153" s="311"/>
-      <c r="G153" s="311"/>
-      <c r="H153" s="311"/>
-      <c r="I153" s="311"/>
-      <c r="J153" s="363"/>
-      <c r="K153" s="363"/>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B154" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F154" s="346"/>
-      <c r="G154" s="346"/>
-      <c r="H154" s="346"/>
-      <c r="I154" s="346"/>
-      <c r="J154" s="346"/>
-      <c r="K154" s="346"/>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B155" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D155" s="8"/>
-      <c r="E155" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F155" s="311"/>
-      <c r="G155" s="311"/>
-      <c r="H155" s="311"/>
-      <c r="I155" s="311"/>
-      <c r="J155" s="363"/>
-      <c r="K155" s="363"/>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B156" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="311"/>
-      <c r="G156" s="311"/>
-      <c r="H156" s="311"/>
-      <c r="I156" s="311"/>
-      <c r="J156" s="363"/>
-      <c r="K156" s="363"/>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B157" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
-      <c r="F157" s="347"/>
-      <c r="G157" s="347"/>
-      <c r="H157" s="347"/>
-      <c r="I157" s="347"/>
-      <c r="J157" s="368"/>
-      <c r="K157" s="373"/>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="343"/>
-      <c r="G158" s="343"/>
-      <c r="H158" s="343"/>
-      <c r="I158" s="343"/>
-      <c r="J158" s="369"/>
-      <c r="K158" s="369"/>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="344"/>
-      <c r="G159" s="361"/>
-      <c r="H159" s="361"/>
-      <c r="I159" s="361"/>
-      <c r="J159" s="361"/>
-      <c r="K159" s="361"/>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B160" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="311"/>
-      <c r="G160" s="362"/>
-      <c r="H160" s="362"/>
-      <c r="I160" s="362"/>
-      <c r="J160" s="370"/>
-      <c r="K160" s="370"/>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B161" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C161" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F161" s="348"/>
-      <c r="G161" s="348"/>
-      <c r="H161" s="348"/>
-      <c r="I161" s="348"/>
-      <c r="J161" s="348"/>
-      <c r="K161" s="348"/>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B162" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F162" s="348"/>
-      <c r="G162" s="348"/>
-      <c r="H162" s="348"/>
-      <c r="I162" s="348"/>
-      <c r="J162" s="348"/>
-      <c r="K162" s="348"/>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B163" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C163" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F163" s="348"/>
-      <c r="G163" s="348"/>
-      <c r="H163" s="348"/>
-      <c r="I163" s="348"/>
-      <c r="J163" s="348"/>
-      <c r="K163" s="348"/>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B164" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F164" s="348"/>
-      <c r="G164" s="348"/>
-      <c r="H164" s="348"/>
-      <c r="I164" s="348"/>
-      <c r="J164" s="348"/>
-      <c r="K164" s="348"/>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B165" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C165" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" s="8"/>
-      <c r="E165" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F165" s="343"/>
-      <c r="G165" s="343"/>
-      <c r="H165" s="343"/>
-      <c r="I165" s="343"/>
-      <c r="J165" s="343"/>
-      <c r="K165" s="343"/>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B166" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F166" s="343"/>
-      <c r="G166" s="343"/>
-      <c r="H166" s="343"/>
-      <c r="I166" s="343"/>
-      <c r="J166" s="343"/>
-      <c r="K166" s="343"/>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B167" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C167" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F167" s="349"/>
-      <c r="G167" s="349"/>
-      <c r="H167" s="349"/>
-      <c r="I167" s="349"/>
-      <c r="J167" s="349"/>
-      <c r="K167" s="349"/>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B168" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F168" s="349"/>
-      <c r="G168" s="349"/>
-      <c r="H168" s="349"/>
-      <c r="I168" s="349"/>
-      <c r="J168" s="349"/>
-      <c r="K168" s="349"/>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B169" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F169" s="349"/>
-      <c r="G169" s="349"/>
-      <c r="H169" s="349"/>
-      <c r="I169" s="349"/>
-      <c r="J169" s="349"/>
-      <c r="K169" s="349"/>
-    </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B170" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F170" s="349"/>
-      <c r="G170" s="349"/>
-      <c r="H170" s="349"/>
-      <c r="I170" s="349"/>
-      <c r="J170" s="349"/>
-      <c r="K170" s="349"/>
-    </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B171" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C171" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F171" s="349"/>
-      <c r="G171" s="349"/>
-      <c r="H171" s="349"/>
-      <c r="I171" s="349"/>
-      <c r="J171" s="349"/>
-      <c r="K171" s="349"/>
-    </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B172" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D172" s="8"/>
-      <c r="E172" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F172" s="349"/>
-      <c r="G172" s="349"/>
-      <c r="H172" s="349"/>
-      <c r="I172" s="349"/>
-      <c r="J172" s="349"/>
-      <c r="K172" s="349"/>
-    </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B173" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="349"/>
-      <c r="G173" s="349"/>
-      <c r="H173" s="349"/>
-      <c r="I173" s="349"/>
-      <c r="J173" s="349"/>
-      <c r="K173" s="349"/>
-    </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B174" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="349"/>
-      <c r="G174" s="349"/>
-      <c r="H174" s="349"/>
-      <c r="I174" s="349"/>
-      <c r="J174" s="349"/>
-      <c r="K174" s="349"/>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="350"/>
-      <c r="G175" s="350"/>
-      <c r="H175" s="350"/>
-      <c r="I175" s="350"/>
-      <c r="J175" s="371"/>
-      <c r="K175" s="371"/>
-    </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="350"/>
-      <c r="G176" s="350"/>
-      <c r="H176" s="350"/>
-      <c r="I176" s="350"/>
-      <c r="J176" s="371"/>
-      <c r="K176" s="371"/>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="350"/>
-      <c r="G177" s="350"/>
-      <c r="H177" s="350"/>
-      <c r="I177" s="350"/>
-      <c r="J177" s="371"/>
-      <c r="K177" s="371"/>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="350"/>
-      <c r="G178" s="350"/>
-      <c r="H178" s="350"/>
-      <c r="I178" s="350"/>
-      <c r="J178" s="371"/>
-      <c r="K178" s="371"/>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B179" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E179" s="8"/>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B180" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E180" s="8"/>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E181" s="8"/>
-    </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B182" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E182" s="8"/>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B183" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E183" s="8"/>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B184" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E184" s="8"/>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B185" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B186" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B187" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B188" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B189" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B190" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B192" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C192" s="8"/>
-      <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C193" s="8"/>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-    </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B194" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C194" s="8"/>
-      <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-    </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B195" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-    </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B196" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-    </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="C197" s="90"/>
-      <c r="D197" s="90"/>
-      <c r="E197" s="90"/>
-    </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="C198" s="90"/>
-      <c r="D198" s="90"/>
-      <c r="E198" s="90"/>
-    </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B199" s="90" t="s">
-        <v>93</v>
-      </c>
-      <c r="C199" s="90"/>
-      <c r="D199" s="90"/>
-      <c r="E199" s="90"/>
-    </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B200" s="90" t="s">
-        <v>94</v>
-      </c>
-      <c r="C200" s="90"/>
-      <c r="D200" s="90"/>
-      <c r="E200" s="90"/>
-    </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B201" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="C201" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D201" s="90"/>
-      <c r="E201" s="90"/>
-    </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="C202" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D202" s="90"/>
-      <c r="E202" s="90"/>
-    </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="C203" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="D203" s="90"/>
-      <c r="E203" s="90"/>
-    </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B204" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="C204" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="D204" s="90"/>
-      <c r="E204" s="90"/>
-    </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
-        <v>152</v>
-      </c>
-      <c r="C205" t="s">
-        <v>51</v>
-      </c>
-      <c r="D205" s="90"/>
-      <c r="E205" s="90"/>
-    </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
-        <v>153</v>
-      </c>
-      <c r="C206" t="s">
-        <v>51</v>
-      </c>
-      <c r="D206" s="90"/>
-      <c r="E206" s="90"/>
-    </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B207" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="C207" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E207" s="90"/>
-    </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B208" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E208" s="90"/>
-    </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B209" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="C209" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E209" s="90"/>
-    </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B210" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D210" s="8" t="s">
+      <c r="D151" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E210" s="90"/>
-    </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B211" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E211" s="90"/>
-    </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B212" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E212" s="8"/>
-    </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B213" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E213" s="8"/>
-    </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B214" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E214" s="8"/>
-    </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B215" s="159" t="s">
-        <v>155</v>
-      </c>
-      <c r="C215" s="157" t="s">
-        <v>4</v>
-      </c>
-      <c r="D215" s="157"/>
-      <c r="E215" s="157"/>
-    </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B216" s="159" t="s">
-        <v>155</v>
-      </c>
-      <c r="C216" s="157" t="s">
-        <v>18</v>
-      </c>
-      <c r="D216" s="157"/>
-      <c r="E216" s="157"/>
-    </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B217" s="159" t="s">
-        <v>155</v>
-      </c>
-      <c r="C217" s="157" t="s">
-        <v>51</v>
-      </c>
-      <c r="D217" s="157"/>
-      <c r="E217" s="157"/>
-    </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B218" s="159" t="s">
-        <v>155</v>
-      </c>
-      <c r="C218" s="157" t="s">
-        <v>17</v>
-      </c>
-      <c r="D218" s="157"/>
-      <c r="E218" s="157"/>
+      <c r="E151" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10546,26 +9438,26 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="453" t="s">
+      <c r="F1" s="448" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="453"/>
-      <c r="H1" s="453"/>
-      <c r="I1" s="453"/>
-      <c r="J1" s="454" t="s">
+      <c r="G1" s="448"/>
+      <c r="H1" s="448"/>
+      <c r="I1" s="448"/>
+      <c r="J1" s="449" t="s">
         <v>225</v>
       </c>
-      <c r="K1" s="454"/>
+      <c r="K1" s="449"/>
       <c r="L1" s="9"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="464" t="s">
+      <c r="N1" s="463" t="s">
         <v>107</v>
       </c>
-      <c r="O1" s="465"/>
-      <c r="P1" s="465"/>
-      <c r="Q1" s="465"/>
-      <c r="R1" s="465"/>
-      <c r="S1" s="466"/>
+      <c r="O1" s="464"/>
+      <c r="P1" s="464"/>
+      <c r="Q1" s="464"/>
+      <c r="R1" s="464"/>
+      <c r="S1" s="465"/>
       <c r="T1" s="8"/>
       <c r="U1" s="8"/>
       <c r="V1" s="8"/>
@@ -10577,30 +9469,30 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="455" t="s">
+      <c r="F2" s="450" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="455"/>
-      <c r="H2" s="455" t="s">
+      <c r="G2" s="450"/>
+      <c r="H2" s="450" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="455"/>
+      <c r="I2" s="450"/>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="467" t="s">
+      <c r="N2" s="484" t="s">
         <v>126</v>
       </c>
-      <c r="O2" s="468"/>
-      <c r="P2" s="468" t="s">
+      <c r="O2" s="485"/>
+      <c r="P2" s="485" t="s">
         <v>127</v>
       </c>
-      <c r="Q2" s="468"/>
-      <c r="R2" s="469" t="s">
+      <c r="Q2" s="485"/>
+      <c r="R2" s="486" t="s">
         <v>128</v>
       </c>
-      <c r="S2" s="471" t="s">
+      <c r="S2" s="488" t="s">
         <v>129</v>
       </c>
       <c r="T2" s="8"/>
@@ -10646,8 +9538,8 @@
       <c r="Q3" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="470"/>
-      <c r="S3" s="472"/>
+      <c r="R3" s="487"/>
+      <c r="S3" s="489"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
@@ -10691,10 +9583,10 @@
         <f>S4*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L4" s="474" t="s">
+      <c r="L4" s="456" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="475"/>
+      <c r="M4" s="457"/>
       <c r="N4" s="60">
         <f>Crop!$C$23*Input!F8</f>
         <v>0</v>
@@ -10762,8 +9654,8 @@
         <f>S5*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L5" s="474"/>
-      <c r="M5" s="475"/>
+      <c r="L5" s="456"/>
+      <c r="M5" s="457"/>
       <c r="N5" s="62">
         <f>Crop!$C$23*Input!F9</f>
         <v>0</v>
@@ -10831,8 +9723,8 @@
         <f>S6*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L6" s="474"/>
-      <c r="M6" s="475"/>
+      <c r="L6" s="456"/>
+      <c r="M6" s="457"/>
       <c r="N6" s="62">
         <f>Crop!$C$23*Input!F10</f>
         <v>0</v>
@@ -10900,8 +9792,8 @@
         <f>S7*$K$93*$K$111</f>
         <v>0</v>
       </c>
-      <c r="L7" s="474"/>
-      <c r="M7" s="475"/>
+      <c r="L7" s="456"/>
+      <c r="M7" s="457"/>
       <c r="N7" s="63">
         <f>Crop!$C$23*Input!F11</f>
         <v>0</v>
@@ -11290,12 +10182,12 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="459" t="s">
+      <c r="T19" s="451" t="s">
         <v>112</v>
       </c>
-      <c r="U19" s="460"/>
-      <c r="V19" s="460"/>
-      <c r="W19" s="461"/>
+      <c r="U19" s="452"/>
+      <c r="V19" s="452"/>
+      <c r="W19" s="453"/>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
@@ -11386,10 +10278,10 @@
         <f t="shared" ref="K21:K27" si="5">Q21*$K$93*$K$112</f>
         <v>0</v>
       </c>
-      <c r="L21" s="474" t="s">
+      <c r="L21" s="456" t="s">
         <v>108</v>
       </c>
-      <c r="M21" s="475"/>
+      <c r="M21" s="457"/>
       <c r="N21" s="190">
         <f>T21*12</f>
         <v>0</v>
@@ -11406,10 +10298,10 @@
         <f t="shared" ref="Q21:Q27" si="8">W21*12</f>
         <v>0</v>
       </c>
-      <c r="R21" s="477" t="s">
+      <c r="R21" s="454" t="s">
         <v>113</v>
       </c>
-      <c r="S21" s="473"/>
+      <c r="S21" s="455"/>
       <c r="T21" s="190">
         <f>shares!H16</f>
         <v>0</v>
@@ -11463,8 +10355,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="474"/>
-      <c r="M22" s="475"/>
+      <c r="L22" s="456"/>
+      <c r="M22" s="457"/>
       <c r="N22" s="193">
         <f t="shared" ref="N22:N27" si="9">T22*12</f>
         <v>0</v>
@@ -11481,8 +10373,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R22" s="477"/>
-      <c r="S22" s="473"/>
+      <c r="R22" s="454"/>
+      <c r="S22" s="455"/>
       <c r="T22" s="193">
         <f>shares!H17</f>
         <v>0</v>
@@ -11536,8 +10428,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="474"/>
-      <c r="M23" s="475"/>
+      <c r="L23" s="456"/>
+      <c r="M23" s="457"/>
       <c r="N23" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11554,8 +10446,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R23" s="477"/>
-      <c r="S23" s="473"/>
+      <c r="R23" s="454"/>
+      <c r="S23" s="455"/>
       <c r="T23" s="193">
         <f>shares!H18</f>
         <v>0</v>
@@ -11609,8 +10501,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L24" s="474"/>
-      <c r="M24" s="475"/>
+      <c r="L24" s="456"/>
+      <c r="M24" s="457"/>
       <c r="N24" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11627,8 +10519,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R24" s="477"/>
-      <c r="S24" s="473"/>
+      <c r="R24" s="454"/>
+      <c r="S24" s="455"/>
       <c r="T24" s="195">
         <f>shares!H19</f>
         <v>0</v>
@@ -11682,10 +10574,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="475" t="s">
+      <c r="L25" s="457" t="s">
         <v>108</v>
       </c>
-      <c r="M25" s="475"/>
+      <c r="M25" s="457"/>
       <c r="N25" s="190">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11702,10 +10594,10 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R25" s="477" t="s">
+      <c r="R25" s="454" t="s">
         <v>113</v>
       </c>
-      <c r="S25" s="492"/>
+      <c r="S25" s="460"/>
       <c r="T25" s="190"/>
       <c r="U25" s="191"/>
       <c r="V25" s="191"/>
@@ -11747,8 +10639,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="475"/>
-      <c r="M26" s="475"/>
+      <c r="L26" s="457"/>
+      <c r="M26" s="457"/>
       <c r="N26" s="193">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11765,8 +10657,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R26" s="492"/>
-      <c r="S26" s="492"/>
+      <c r="R26" s="460"/>
+      <c r="S26" s="460"/>
       <c r="T26" s="193"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
@@ -11808,8 +10700,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L27" s="475"/>
-      <c r="M27" s="475"/>
+      <c r="L27" s="457"/>
+      <c r="M27" s="457"/>
       <c r="N27" s="195">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -11826,8 +10718,8 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R27" s="492"/>
-      <c r="S27" s="492"/>
+      <c r="R27" s="460"/>
+      <c r="S27" s="460"/>
       <c r="T27" s="195"/>
       <c r="U27" s="196"/>
       <c r="V27" s="196"/>
@@ -11851,8 +10743,8 @@
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="475"/>
-      <c r="M28" s="475"/>
+      <c r="L28" s="457"/>
+      <c r="M28" s="457"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -12072,12 +10964,12 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
-      <c r="T37" s="459" t="s">
+      <c r="T37" s="451" t="s">
         <v>142</v>
       </c>
-      <c r="U37" s="460"/>
-      <c r="V37" s="460"/>
-      <c r="W37" s="461"/>
+      <c r="U37" s="452"/>
+      <c r="V37" s="452"/>
+      <c r="W37" s="453"/>
     </row>
     <row r="38" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
@@ -12168,10 +11060,10 @@
         <f t="shared" ref="K39:K45" si="15">Q39*$K$93*$K$113</f>
         <v>0</v>
       </c>
-      <c r="L39" s="474" t="s">
+      <c r="L39" s="456" t="s">
         <v>108</v>
       </c>
-      <c r="M39" s="475"/>
+      <c r="M39" s="457"/>
       <c r="N39" s="60">
         <f>T39*12</f>
         <v>0</v>
@@ -12188,10 +11080,10 @@
         <f>W39*12</f>
         <v>0</v>
       </c>
-      <c r="R39" s="473" t="s">
+      <c r="R39" s="455" t="s">
         <v>113</v>
       </c>
-      <c r="S39" s="473"/>
+      <c r="S39" s="455"/>
       <c r="T39" s="60">
         <f>shares!H23</f>
         <v>0</v>
@@ -12245,8 +11137,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L40" s="474"/>
-      <c r="M40" s="475"/>
+      <c r="L40" s="456"/>
+      <c r="M40" s="457"/>
       <c r="N40" s="193">
         <f t="shared" ref="N40:N43" si="16">T40*12</f>
         <v>0</v>
@@ -12263,8 +11155,8 @@
         <f t="shared" ref="Q40:Q43" si="19">W40*12</f>
         <v>0</v>
       </c>
-      <c r="R40" s="473"/>
-      <c r="S40" s="473"/>
+      <c r="R40" s="455"/>
+      <c r="S40" s="455"/>
       <c r="T40" s="193">
         <f>shares!H24</f>
         <v>0</v>
@@ -12318,8 +11210,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L41" s="474"/>
-      <c r="M41" s="475"/>
+      <c r="L41" s="456"/>
+      <c r="M41" s="457"/>
       <c r="N41" s="193">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -12336,8 +11228,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R41" s="473"/>
-      <c r="S41" s="473"/>
+      <c r="R41" s="455"/>
+      <c r="S41" s="455"/>
       <c r="T41" s="193">
         <f>shares!H25</f>
         <v>0</v>
@@ -12391,8 +11283,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L42" s="474"/>
-      <c r="M42" s="475"/>
+      <c r="L42" s="456"/>
+      <c r="M42" s="457"/>
       <c r="N42" s="195">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -12409,8 +11301,8 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R42" s="473"/>
-      <c r="S42" s="473"/>
+      <c r="R42" s="455"/>
+      <c r="S42" s="455"/>
       <c r="T42" s="195">
         <f>shares!H26</f>
         <v>0</v>
@@ -12464,10 +11356,10 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L43" s="474" t="s">
+      <c r="L43" s="456" t="s">
         <v>108</v>
       </c>
-      <c r="M43" s="475"/>
+      <c r="M43" s="457"/>
       <c r="N43" s="190">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -12484,10 +11376,10 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R43" s="477" t="s">
+      <c r="R43" s="454" t="s">
         <v>113</v>
       </c>
-      <c r="S43" s="492"/>
+      <c r="S43" s="460"/>
       <c r="T43" s="190">
         <f>ser!$C$11*Input!G46</f>
         <v>0</v>
@@ -12541,8 +11433,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L44" s="474"/>
-      <c r="M44" s="475"/>
+      <c r="L44" s="456"/>
+      <c r="M44" s="457"/>
       <c r="N44" s="193">
         <f t="shared" ref="N44:Q45" si="20">T44*12</f>
         <v>0</v>
@@ -12559,8 +11451,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R44" s="492"/>
-      <c r="S44" s="492"/>
+      <c r="R44" s="460"/>
+      <c r="S44" s="460"/>
       <c r="T44" s="193">
         <f>ser!$C$11*Input!G47</f>
         <v>0</v>
@@ -12614,8 +11506,8 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L45" s="474"/>
-      <c r="M45" s="475"/>
+      <c r="L45" s="456"/>
+      <c r="M45" s="457"/>
       <c r="N45" s="195">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -12632,8 +11524,8 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R45" s="492"/>
-      <c r="S45" s="492"/>
+      <c r="R45" s="460"/>
+      <c r="S45" s="460"/>
       <c r="T45" s="195">
         <f>ser!$C$11*Input!G48</f>
         <v>0</v>
@@ -12669,8 +11561,8 @@
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
-      <c r="L46" s="474"/>
-      <c r="M46" s="476"/>
+      <c r="L46" s="456"/>
+      <c r="M46" s="483"/>
       <c r="N46" s="129"/>
       <c r="O46" s="129"/>
       <c r="P46" s="129"/>
@@ -12855,14 +11747,14 @@
       <c r="K54" s="104"/>
       <c r="L54" s="9"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="464" t="s">
+      <c r="N54" s="463" t="s">
         <v>107</v>
       </c>
-      <c r="O54" s="465"/>
-      <c r="P54" s="465"/>
-      <c r="Q54" s="465"/>
-      <c r="R54" s="465"/>
-      <c r="S54" s="466"/>
+      <c r="O54" s="464"/>
+      <c r="P54" s="464"/>
+      <c r="Q54" s="464"/>
+      <c r="R54" s="464"/>
+      <c r="S54" s="465"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
@@ -12886,18 +11778,18 @@
       <c r="K55" s="107"/>
       <c r="L55" s="9"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="494" t="s">
+      <c r="N55" s="466" t="s">
         <v>126</v>
       </c>
-      <c r="O55" s="458"/>
-      <c r="P55" s="458" t="s">
+      <c r="O55" s="461"/>
+      <c r="P55" s="461" t="s">
         <v>127</v>
       </c>
-      <c r="Q55" s="458"/>
-      <c r="R55" s="481" t="s">
+      <c r="Q55" s="461"/>
+      <c r="R55" s="470" t="s">
         <v>128</v>
       </c>
-      <c r="S55" s="487" t="s">
+      <c r="S55" s="479" t="s">
         <v>129</v>
       </c>
       <c r="T55" s="8"/>
@@ -12943,8 +11835,8 @@
       <c r="Q56" s="95" t="s">
         <v>117</v>
       </c>
-      <c r="R56" s="482"/>
-      <c r="S56" s="488"/>
+      <c r="R56" s="471"/>
+      <c r="S56" s="480"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
@@ -12986,10 +11878,10 @@
         <f>S57*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L57" s="474" t="s">
+      <c r="L57" s="456" t="s">
         <v>108</v>
       </c>
-      <c r="M57" s="475"/>
+      <c r="M57" s="457"/>
       <c r="N57" s="60">
         <f>Live!$C$11*Input!F61</f>
         <v>0</v>
@@ -13055,8 +11947,8 @@
         <f>S58*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L58" s="474"/>
-      <c r="M58" s="475"/>
+      <c r="L58" s="456"/>
+      <c r="M58" s="457"/>
       <c r="N58" s="62">
         <f>Live!$C$11*Input!F62</f>
         <v>0</v>
@@ -13122,8 +12014,8 @@
         <f>S59*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L59" s="474"/>
-      <c r="M59" s="475"/>
+      <c r="L59" s="456"/>
+      <c r="M59" s="457"/>
       <c r="N59" s="62">
         <f>Live!$C$11*Input!F63</f>
         <v>0</v>
@@ -13189,8 +12081,8 @@
         <f>S60*$K$93*$K$114</f>
         <v>0</v>
       </c>
-      <c r="L60" s="474"/>
-      <c r="M60" s="475"/>
+      <c r="L60" s="456"/>
+      <c r="M60" s="457"/>
       <c r="N60" s="63">
         <f>Live!$C$11*Input!F64</f>
         <v>0</v>
@@ -13529,12 +12421,12 @@
       <c r="K72" s="107"/>
       <c r="L72" s="9"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="458" t="s">
+      <c r="N72" s="461" t="s">
         <v>103</v>
       </c>
-      <c r="O72" s="458"/>
-      <c r="P72" s="458"/>
-      <c r="Q72" s="458"/>
+      <c r="O72" s="461"/>
+      <c r="P72" s="461"/>
+      <c r="Q72" s="461"/>
       <c r="R72" s="8"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
@@ -13563,14 +12455,14 @@
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="493" t="s">
+      <c r="N73" s="462" t="s">
         <v>20</v>
       </c>
-      <c r="O73" s="493"/>
-      <c r="P73" s="493" t="s">
+      <c r="O73" s="462"/>
+      <c r="P73" s="462" t="s">
         <v>104</v>
       </c>
-      <c r="Q73" s="493"/>
+      <c r="Q73" s="462"/>
       <c r="R73" s="8"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
@@ -13647,10 +12539,10 @@
         <f>Q75*$G93</f>
         <v>0</v>
       </c>
-      <c r="L75" s="490" t="s">
+      <c r="L75" s="458" t="s">
         <v>109</v>
       </c>
-      <c r="M75" s="491"/>
+      <c r="M75" s="459"/>
       <c r="N75" s="97">
         <f>wages!C7</f>
         <v>0</v>
@@ -13668,14 +12560,14 @@
         <v>0</v>
       </c>
       <c r="R75" s="8"/>
-      <c r="S75" s="489" t="s">
+      <c r="S75" s="481" t="s">
         <v>163</v>
       </c>
-      <c r="T75" s="489"/>
-      <c r="U75" s="489"/>
-      <c r="V75" s="489"/>
-      <c r="W75" s="489"/>
-      <c r="X75" s="489"/>
+      <c r="T75" s="481"/>
+      <c r="U75" s="481"/>
+      <c r="V75" s="481"/>
+      <c r="W75" s="481"/>
+      <c r="X75" s="481"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -13752,22 +12644,22 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="8"/>
-      <c r="N78" s="459" t="s">
+      <c r="N78" s="451" t="s">
         <v>110</v>
       </c>
-      <c r="O78" s="460"/>
-      <c r="P78" s="460"/>
-      <c r="Q78" s="460"/>
-      <c r="R78" s="460"/>
-      <c r="S78" s="461"/>
-      <c r="T78" s="459" t="s">
+      <c r="O78" s="452"/>
+      <c r="P78" s="452"/>
+      <c r="Q78" s="452"/>
+      <c r="R78" s="452"/>
+      <c r="S78" s="453"/>
+      <c r="T78" s="451" t="s">
         <v>146</v>
       </c>
-      <c r="U78" s="460"/>
-      <c r="V78" s="460"/>
-      <c r="W78" s="460"/>
-      <c r="X78" s="460"/>
-      <c r="Y78" s="461"/>
+      <c r="U78" s="452"/>
+      <c r="V78" s="452"/>
+      <c r="W78" s="452"/>
+      <c r="X78" s="452"/>
+      <c r="Y78" s="453"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
@@ -13787,32 +12679,32 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="8"/>
-      <c r="N79" s="462" t="s">
+      <c r="N79" s="477" t="s">
         <v>126</v>
       </c>
-      <c r="O79" s="463"/>
-      <c r="P79" s="459" t="s">
+      <c r="O79" s="478"/>
+      <c r="P79" s="451" t="s">
         <v>127</v>
       </c>
-      <c r="Q79" s="460"/>
-      <c r="R79" s="456" t="s">
+      <c r="Q79" s="452"/>
+      <c r="R79" s="475" t="s">
         <v>143</v>
       </c>
-      <c r="S79" s="456" t="s">
+      <c r="S79" s="475" t="s">
         <v>144</v>
       </c>
-      <c r="T79" s="462" t="s">
+      <c r="T79" s="477" t="s">
         <v>126</v>
       </c>
-      <c r="U79" s="463"/>
-      <c r="V79" s="459" t="s">
+      <c r="U79" s="478"/>
+      <c r="V79" s="451" t="s">
         <v>127</v>
       </c>
-      <c r="W79" s="460"/>
-      <c r="X79" s="456" t="s">
+      <c r="W79" s="452"/>
+      <c r="X79" s="475" t="s">
         <v>143</v>
       </c>
-      <c r="Y79" s="456" t="s">
+      <c r="Y79" s="475" t="s">
         <v>144</v>
       </c>
     </row>
@@ -13846,8 +12738,8 @@
       <c r="Q80" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="R80" s="486"/>
-      <c r="S80" s="486"/>
+      <c r="R80" s="476"/>
+      <c r="S80" s="476"/>
       <c r="T80" s="123" t="s">
         <v>116</v>
       </c>
@@ -13860,8 +12752,8 @@
       <c r="W80" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="X80" s="457"/>
-      <c r="Y80" s="457"/>
+      <c r="X80" s="482"/>
+      <c r="Y80" s="482"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
@@ -13895,10 +12787,10 @@
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L81" s="479" t="s">
+      <c r="L81" s="468" t="s">
         <v>170</v>
       </c>
-      <c r="M81" s="480"/>
+      <c r="M81" s="469"/>
       <c r="N81" s="97"/>
       <c r="O81" s="97"/>
       <c r="P81" s="97"/>
@@ -13938,24 +12830,24 @@
       <c r="K82" s="68">
         <v>0</v>
       </c>
-      <c r="L82" s="479"/>
-      <c r="M82" s="480"/>
-      <c r="N82" s="483" t="s">
+      <c r="L82" s="468"/>
+      <c r="M82" s="469"/>
+      <c r="N82" s="472" t="s">
         <v>111</v>
       </c>
-      <c r="O82" s="484"/>
-      <c r="P82" s="484"/>
-      <c r="Q82" s="484"/>
-      <c r="R82" s="484"/>
-      <c r="S82" s="485"/>
-      <c r="T82" s="458" t="s">
+      <c r="O82" s="473"/>
+      <c r="P82" s="473"/>
+      <c r="Q82" s="473"/>
+      <c r="R82" s="473"/>
+      <c r="S82" s="474"/>
+      <c r="T82" s="461" t="s">
         <v>145</v>
       </c>
-      <c r="U82" s="458"/>
-      <c r="V82" s="458"/>
-      <c r="W82" s="458"/>
-      <c r="X82" s="458"/>
-      <c r="Y82" s="458"/>
+      <c r="U82" s="461"/>
+      <c r="V82" s="461"/>
+      <c r="W82" s="461"/>
+      <c r="X82" s="461"/>
+      <c r="Y82" s="461"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -14445,7 +13337,7 @@
       <c r="I97" s="226"/>
       <c r="J97" s="226"/>
       <c r="K97" s="226"/>
-      <c r="L97" s="478" t="s">
+      <c r="L97" s="467" t="s">
         <v>115</v>
       </c>
       <c r="M97" s="8"/>
@@ -14478,7 +13370,7 @@
       <c r="I98" s="226"/>
       <c r="J98" s="226"/>
       <c r="K98" s="226"/>
-      <c r="L98" s="478"/>
+      <c r="L98" s="467"/>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8" t="s">
@@ -14511,7 +13403,7 @@
       <c r="I99" s="226"/>
       <c r="J99" s="226"/>
       <c r="K99" s="226"/>
-      <c r="L99" s="478"/>
+      <c r="L99" s="467"/>
       <c r="M99" s="8"/>
       <c r="N99" s="219" t="s">
         <v>189</v>
@@ -14553,7 +13445,7 @@
       <c r="I100" s="226"/>
       <c r="J100" s="226"/>
       <c r="K100" s="226"/>
-      <c r="L100" s="478"/>
+      <c r="L100" s="467"/>
       <c r="M100" s="8"/>
       <c r="N100" s="221" t="s">
         <v>193</v>
@@ -14668,11 +13560,11 @@
       <c r="I103" s="228"/>
       <c r="J103" s="228"/>
       <c r="K103" s="228"/>
-      <c r="L103" s="477" t="s">
+      <c r="L103" s="454" t="s">
         <v>114</v>
       </c>
-      <c r="M103" s="477"/>
-      <c r="N103" s="477"/>
+      <c r="M103" s="454"/>
+      <c r="N103" s="454"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
@@ -14701,9 +13593,9 @@
       <c r="I104" s="228"/>
       <c r="J104" s="228"/>
       <c r="K104" s="228"/>
-      <c r="L104" s="477"/>
-      <c r="M104" s="477"/>
-      <c r="N104" s="477"/>
+      <c r="L104" s="454"/>
+      <c r="M104" s="454"/>
+      <c r="N104" s="454"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
@@ -14732,9 +13624,9 @@
       <c r="I105" s="228"/>
       <c r="J105" s="228"/>
       <c r="K105" s="228"/>
-      <c r="L105" s="477"/>
-      <c r="M105" s="477"/>
-      <c r="N105" s="477"/>
+      <c r="L105" s="454"/>
+      <c r="M105" s="454"/>
+      <c r="N105" s="454"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
@@ -14763,9 +13655,9 @@
       <c r="I106" s="228"/>
       <c r="J106" s="228"/>
       <c r="K106" s="228"/>
-      <c r="L106" s="477"/>
-      <c r="M106" s="477"/>
-      <c r="N106" s="477"/>
+      <c r="L106" s="454"/>
+      <c r="M106" s="454"/>
+      <c r="N106" s="454"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
@@ -14794,9 +13686,9 @@
       <c r="I107" s="228"/>
       <c r="J107" s="228"/>
       <c r="K107" s="228"/>
-      <c r="L107" s="477"/>
-      <c r="M107" s="477"/>
-      <c r="N107" s="477"/>
+      <c r="L107" s="454"/>
+      <c r="M107" s="454"/>
+      <c r="N107" s="454"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
@@ -14825,9 +13717,9 @@
       <c r="I108" s="229"/>
       <c r="J108" s="229"/>
       <c r="K108" s="229"/>
-      <c r="L108" s="477"/>
-      <c r="M108" s="477"/>
-      <c r="N108" s="477"/>
+      <c r="L108" s="454"/>
+      <c r="M108" s="454"/>
+      <c r="N108" s="454"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
@@ -14856,9 +13748,9 @@
       <c r="I109" s="229"/>
       <c r="J109" s="229"/>
       <c r="K109" s="229"/>
-      <c r="L109" s="477"/>
-      <c r="M109" s="477"/>
-      <c r="N109" s="477"/>
+      <c r="L109" s="454"/>
+      <c r="M109" s="454"/>
+      <c r="N109" s="454"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
@@ -14887,9 +13779,9 @@
       <c r="I110" s="229"/>
       <c r="J110" s="229"/>
       <c r="K110" s="229"/>
-      <c r="L110" s="477"/>
-      <c r="M110" s="477"/>
-      <c r="N110" s="477"/>
+      <c r="L110" s="454"/>
+      <c r="M110" s="454"/>
+      <c r="N110" s="454"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
@@ -14969,6 +13861,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="Y79:Y80"/>
+    <mergeCell ref="T82:Y82"/>
+    <mergeCell ref="T78:Y78"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="R39:S42"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="L43:M46"/>
+    <mergeCell ref="L103:N110"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="L81:M82"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="N82:S82"/>
+    <mergeCell ref="R79:R80"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="N78:S78"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S75:X75"/>
+    <mergeCell ref="X79:X80"/>
     <mergeCell ref="T19:W19"/>
     <mergeCell ref="R21:S24"/>
     <mergeCell ref="L21:M24"/>
@@ -14985,36 +13907,6 @@
     <mergeCell ref="L57:M60"/>
     <mergeCell ref="L39:M42"/>
     <mergeCell ref="L25:M28"/>
-    <mergeCell ref="L103:N110"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="L81:M82"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="N82:S82"/>
-    <mergeCell ref="R79:R80"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="N78:S78"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="S75:X75"/>
-    <mergeCell ref="X79:X80"/>
-    <mergeCell ref="R39:S42"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L4:M7"/>
-    <mergeCell ref="L43:M46"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="Y79:Y80"/>
-    <mergeCell ref="T82:Y82"/>
-    <mergeCell ref="T78:Y78"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15056,16 +13948,16 @@
       <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="453" t="s">
+      <c r="F1" s="448" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="453"/>
-      <c r="H1" s="453"/>
-      <c r="I1" s="453"/>
-      <c r="J1" s="454" t="s">
+      <c r="G1" s="448"/>
+      <c r="H1" s="448"/>
+      <c r="I1" s="448"/>
+      <c r="J1" s="449" t="s">
         <v>91</v>
       </c>
-      <c r="K1" s="454"/>
+      <c r="K1" s="449"/>
       <c r="L1" s="157" t="s">
         <v>162</v>
       </c>
@@ -15079,26 +13971,26 @@
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="455" t="s">
+      <c r="F2" s="450" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="455"/>
-      <c r="H2" s="455" t="s">
+      <c r="G2" s="450"/>
+      <c r="H2" s="450" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="455"/>
+      <c r="I2" s="450"/>
       <c r="J2" s="9" t="s">
         <v>99</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="495" t="s">
+      <c r="M2" s="490" t="s">
         <v>172</v>
       </c>
-      <c r="N2" s="495"/>
-      <c r="O2" s="495"/>
-      <c r="P2" s="495"/>
+      <c r="N2" s="490"/>
+      <c r="O2" s="490"/>
+      <c r="P2" s="490"/>
       <c r="Q2" t="s">
         <v>150</v>
       </c>
@@ -19933,48 +18825,48 @@
     </row>
     <row r="21" spans="1:31" s="35" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
-      <c r="B21" s="496" t="s">
+      <c r="B21" s="491" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="497"/>
-      <c r="D21" s="497"/>
-      <c r="E21" s="497"/>
-      <c r="F21" s="498"/>
-      <c r="G21" s="496" t="s">
+      <c r="C21" s="492"/>
+      <c r="D21" s="492"/>
+      <c r="E21" s="492"/>
+      <c r="F21" s="493"/>
+      <c r="G21" s="491" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="497"/>
-      <c r="I21" s="497"/>
-      <c r="J21" s="497"/>
-      <c r="K21" s="498"/>
-      <c r="L21" s="496" t="s">
+      <c r="H21" s="492"/>
+      <c r="I21" s="492"/>
+      <c r="J21" s="492"/>
+      <c r="K21" s="493"/>
+      <c r="L21" s="491" t="s">
         <v>120</v>
       </c>
-      <c r="M21" s="497"/>
-      <c r="N21" s="497"/>
-      <c r="O21" s="497"/>
-      <c r="P21" s="498"/>
-      <c r="Q21" s="496" t="s">
+      <c r="M21" s="492"/>
+      <c r="N21" s="492"/>
+      <c r="O21" s="492"/>
+      <c r="P21" s="493"/>
+      <c r="Q21" s="491" t="s">
         <v>121</v>
       </c>
-      <c r="R21" s="497"/>
-      <c r="S21" s="497"/>
-      <c r="T21" s="497"/>
-      <c r="U21" s="498"/>
-      <c r="V21" s="496" t="s">
+      <c r="R21" s="492"/>
+      <c r="S21" s="492"/>
+      <c r="T21" s="492"/>
+      <c r="U21" s="493"/>
+      <c r="V21" s="491" t="s">
         <v>122</v>
       </c>
-      <c r="W21" s="497"/>
-      <c r="X21" s="497"/>
-      <c r="Y21" s="497"/>
-      <c r="Z21" s="498"/>
-      <c r="AA21" s="496" t="s">
+      <c r="W21" s="492"/>
+      <c r="X21" s="492"/>
+      <c r="Y21" s="492"/>
+      <c r="Z21" s="493"/>
+      <c r="AA21" s="491" t="s">
         <v>123</v>
       </c>
-      <c r="AB21" s="497"/>
-      <c r="AC21" s="497"/>
-      <c r="AD21" s="497"/>
-      <c r="AE21" s="498"/>
+      <c r="AB21" s="492"/>
+      <c r="AC21" s="492"/>
+      <c r="AD21" s="492"/>
+      <c r="AE21" s="493"/>
     </row>
     <row r="22" spans="1:31" s="42" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
